--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="16" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="19" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,11 @@
     <sheet name="NInad 120" sheetId="20" r:id="rId20"/>
     <sheet name="Achila Trindade 121" sheetId="21" r:id="rId21"/>
     <sheet name="Putz 122" sheetId="22" r:id="rId22"/>
-    <sheet name="Vision Designs 202" sheetId="23" r:id="rId23"/>
+    <sheet name="Intelligent Ideas 201" sheetId="23" r:id="rId23"/>
+    <sheet name="Vision Designs 202" sheetId="24" r:id="rId24"/>
+    <sheet name="K Amonkar 203" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="446">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -1550,17 +1552,62 @@
     <t>CP Plus / Dahua 2MP Bullet Camera</t>
   </si>
   <si>
+    <t>I-HIB2PI-UL</t>
+  </si>
+  <si>
+    <t>I-HIE2PI-UL</t>
+  </si>
+  <si>
+    <t>Honeywell 2MP Bullet with inbuilt Audio</t>
+  </si>
+  <si>
+    <t>Honeywell 2 MP dome with inbuilt Audio</t>
+  </si>
+  <si>
+    <t>Honeywell 2MP IP Dome with inbuilt Audio</t>
+  </si>
+  <si>
     <t>Honeywell 2MP IP Bullet with inbuilt Audio</t>
   </si>
   <si>
-    <t>Honeywell 2MP IP Dome with inbuilt Audio</t>
+    <t>WD Purple Surveillance Hard Disk 1` TB</t>
+  </si>
+  <si>
+    <t>BOSCH</t>
+  </si>
+  <si>
+    <t>6W Superb Quality Ceiling Speaker module</t>
+  </si>
+  <si>
+    <t>TABLE TOP MICROPHONE</t>
+  </si>
+  <si>
+    <t>PLENA BOOSTER AMPLIFIER 240W</t>
+  </si>
+  <si>
+    <t>Plena Mixing Amplifier 120W</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>k amonkar</t>
+  </si>
+  <si>
+    <t>Programnming and Configuration</t>
+  </si>
+  <si>
+    <t>Programnming and Configuration Charges</t>
+  </si>
+  <si>
+    <t>Installation will be started only on satisfactory site inspection and cabling check after the release of suppliy PO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,6 +1754,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF434343"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Calibri  "/>
     </font>
   </fonts>
@@ -2149,7 +2201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2528,6 +2580,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2537,6 +2595,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2558,21 +2631,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2615,6 +2673,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2633,18 +2730,6 @@
     <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2660,39 +2745,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2710,6 +2768,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3026,7 +3108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3040,13 +3122,13 @@
       <selection activeCell="A21" sqref="A21:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1">
@@ -3066,7 +3148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="23.45" customHeight="1">
+    <row r="2" spans="1:5" ht="23.4" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3264,7 +3346,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25.5">
+    <row r="13" spans="1:5" ht="26.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3354,19 +3436,19 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A18" s="134" t="s">
+    <row r="18" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A18" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="138"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" customHeight="1">
+    <row r="19" spans="1:5" ht="14.4" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3378,7 +3460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.5">
+    <row r="21" spans="1:5" ht="26.4">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -3486,12 +3568,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="138"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -3515,14 +3597,14 @@
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="42" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="42"/>
+    <col min="1" max="1" width="6.109375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="42" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="25" t="s">
         <v>79</v>
       </c>
@@ -3597,7 +3679,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -3633,7 +3715,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="10.15" customHeight="1">
+    <row r="7" spans="1:6" ht="10.199999999999999" customHeight="1">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -3651,13 +3733,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A8" s="149" t="s">
+    <row r="8" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A8" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -3741,12 +3823,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -3766,14 +3848,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="42"/>
-    <col min="2" max="2" width="34.7109375" style="42" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="42"/>
+    <col min="1" max="1" width="8.88671875" style="42"/>
+    <col min="2" max="2" width="34.77734375" style="42" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="25" t="s">
         <v>79</v>
       </c>
@@ -3790,7 +3872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="53.45" customHeight="1">
+    <row r="2" spans="1:6" ht="53.4" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>147</v>
       </c>
@@ -3812,7 +3894,7 @@
         <v>6780</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -3834,7 +3916,7 @@
         <v>11880</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -3852,7 +3934,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="28.8">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -3870,7 +3952,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="28.8">
       <c r="A6" s="24">
         <v>6</v>
       </c>
@@ -3888,7 +3970,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="24">
         <v>7</v>
       </c>
@@ -3907,12 +3989,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -3996,20 +4078,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="154" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="155"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="157"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4028,11 +4110,11 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4040,7 +4122,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.149999999999999" customHeight="1">
+    <row r="2" spans="1:9" ht="19.2" customHeight="1">
       <c r="A2" s="44" t="s">
         <v>79</v>
       </c>
@@ -4078,7 +4160,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="23.45" customHeight="1">
+    <row r="4" spans="1:9" ht="23.4" customHeight="1">
       <c r="A4" s="45">
         <v>2</v>
       </c>
@@ -4096,7 +4178,7 @@
         <v>9630</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.15" customHeight="1">
+    <row r="5" spans="1:9" ht="13.2" customHeight="1">
       <c r="A5" s="45">
         <v>3</v>
       </c>
@@ -4114,7 +4196,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22.9" customHeight="1">
+    <row r="6" spans="1:9" ht="22.8" customHeight="1">
       <c r="A6" s="45">
         <v>4</v>
       </c>
@@ -4168,7 +4250,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -4186,7 +4268,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22.15" customHeight="1">
+    <row r="10" spans="1:9" ht="22.2" customHeight="1">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -4208,24 +4290,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="151"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="153"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="163" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -4255,7 +4337,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="44" t="s">
         <v>79</v>
       </c>
@@ -4272,7 +4354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="45">
         <v>1</v>
       </c>
@@ -4294,7 +4376,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="45">
         <v>2</v>
       </c>
@@ -4316,7 +4398,7 @@
         <v>13700</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="45">
         <v>3</v>
       </c>
@@ -4334,7 +4416,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="15.6">
       <c r="A25" s="45">
         <v>4</v>
       </c>
@@ -4352,7 +4434,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="45">
         <v>5</v>
       </c>
@@ -4370,7 +4452,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.9" customHeight="1">
+    <row r="27" spans="1:7" ht="13.8" customHeight="1">
       <c r="A27" s="45">
         <v>6</v>
       </c>
@@ -4388,7 +4470,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="45">
         <v>7</v>
       </c>
@@ -4406,7 +4488,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="45">
         <v>8</v>
       </c>
@@ -4425,18 +4507,18 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="44" t="s">
         <v>79</v>
       </c>
@@ -4453,7 +4535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75">
+    <row r="33" spans="1:5" ht="15.6">
       <c r="A33" s="45">
         <v>1</v>
       </c>
@@ -4471,7 +4553,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.899999999999999" customHeight="1">
+    <row r="34" spans="1:5" ht="16.8" customHeight="1">
       <c r="A34" s="45">
         <v>2</v>
       </c>
@@ -4489,7 +4571,7 @@
         <v>9630</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75">
+    <row r="35" spans="1:5" ht="15.6">
       <c r="A35" s="45">
         <v>3</v>
       </c>
@@ -4507,7 +4589,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="15.6">
       <c r="A36" s="45">
         <v>4</v>
       </c>
@@ -4525,7 +4607,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75">
+    <row r="37" spans="1:5" ht="15.6">
       <c r="A37" s="45">
         <v>5</v>
       </c>
@@ -4543,7 +4625,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
+    <row r="38" spans="1:5" ht="15.6">
       <c r="A38" s="45">
         <v>6</v>
       </c>
@@ -4561,7 +4643,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="15.6">
       <c r="A39" s="45">
         <v>7</v>
       </c>
@@ -4579,7 +4661,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75">
+    <row r="40" spans="1:5" ht="15.6">
       <c r="A40" s="45">
         <v>8</v>
       </c>
@@ -4598,12 +4680,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="159" t="s">
+      <c r="A41" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="162"/>
+      <c r="D41" s="162"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -4654,13 +4736,13 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4668,7 +4750,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.9" customHeight="1">
+    <row r="2" spans="1:7" ht="13.8" customHeight="1">
       <c r="A2" s="44" t="s">
         <v>79</v>
       </c>
@@ -4729,7 +4811,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.15" customHeight="1">
+    <row r="5" spans="1:7" ht="13.2" customHeight="1">
       <c r="A5" s="45">
         <v>3</v>
       </c>
@@ -4765,7 +4847,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.899999999999999" customHeight="1">
+    <row r="7" spans="1:7" ht="16.8" customHeight="1">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -4801,7 +4883,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -4819,7 +4901,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.9" customHeight="1">
+    <row r="10" spans="1:7" ht="13.8" customHeight="1">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -4838,24 +4920,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="151"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="153"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -4885,7 +4967,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="22.15" customHeight="1">
+    <row r="21" spans="1:7" ht="22.2" customHeight="1">
       <c r="A21" s="25" t="s">
         <v>79</v>
       </c>
@@ -4964,7 +5046,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30">
+    <row r="25" spans="1:7">
       <c r="A25" s="24">
         <v>4</v>
       </c>
@@ -5019,12 +5101,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="151"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="153"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -5122,12 +5204,12 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5153,7 +5235,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="44.45" customHeight="1">
+    <row r="3" spans="1:8" ht="44.4" customHeight="1">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -5171,7 +5253,7 @@
         <v>14990</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.899999999999999" customHeight="1">
+    <row r="4" spans="1:8" ht="16.8" customHeight="1">
       <c r="A4" s="24">
         <v>2</v>
       </c>
@@ -5189,7 +5271,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.899999999999999" customHeight="1">
+    <row r="5" spans="1:8" ht="16.8" customHeight="1">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -5207,7 +5289,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.149999999999999" customHeight="1">
+    <row r="6" spans="1:8" ht="16.2" customHeight="1">
       <c r="A6" s="24">
         <v>4</v>
       </c>
@@ -5226,48 +5308,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="151"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="153"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -5278,7 +5360,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8">
       <c r="A13" s="25" t="s">
         <v>79</v>
       </c>
@@ -5295,7 +5377,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.15" customHeight="1">
+    <row r="14" spans="1:8" ht="55.2" customHeight="1">
       <c r="A14" s="24">
         <v>1</v>
       </c>
@@ -5358,48 +5440,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="150"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="151"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="151"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="149" t="s">
+      <c r="A20" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="150"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="151"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="153"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -5410,7 +5492,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30">
+    <row r="23" spans="1:5">
       <c r="A23" s="25" t="s">
         <v>79</v>
       </c>
@@ -5427,7 +5509,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30">
+    <row r="24" spans="1:5" ht="28.8">
       <c r="A24" s="24">
         <v>1</v>
       </c>
@@ -5482,48 +5564,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="151"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="151"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="153"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="151"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="153"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="153"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -5553,26 +5635,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S258"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" style="4" customWidth="1"/>
     <col min="7" max="7" width="7" style="4" customWidth="1"/>
     <col min="8" max="8" width="8" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="5.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="6.21875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5585,7 +5667,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="55" customFormat="1" ht="25.5">
+    <row r="3" spans="1:5" s="55" customFormat="1" ht="26.4">
       <c r="A3" s="51" t="s">
         <v>200</v>
       </c>
@@ -5602,7 +5684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50.45" customHeight="1">
+    <row r="4" spans="1:5" ht="50.4" customHeight="1">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -5692,7 +5774,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25.5">
+    <row r="9" spans="1:5" ht="26.4">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -5711,12 +5793,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -5732,7 +5814,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="51" t="s">
         <v>200</v>
       </c>
@@ -5821,7 +5903,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5">
+    <row r="20" spans="1:5" ht="26.4">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -5840,12 +5922,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -5879,7 +5961,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.5">
+    <row r="31" spans="1:5" ht="26.4">
       <c r="A31" s="51" t="s">
         <v>200</v>
       </c>
@@ -5896,7 +5978,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="38.25">
+    <row r="32" spans="1:5" ht="39.6">
       <c r="A32" s="8" t="s">
         <v>147</v>
       </c>
@@ -5914,7 +5996,7 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.149999999999999" customHeight="1">
+    <row r="33" spans="1:5" ht="16.2" customHeight="1">
       <c r="A33" s="8">
         <v>2</v>
       </c>
@@ -5986,7 +6068,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.9" customHeight="1">
+    <row r="37" spans="1:5" ht="28.8" customHeight="1">
       <c r="A37" s="8">
         <v>6</v>
       </c>
@@ -6005,18 +6087,18 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="134" t="s">
+      <c r="A38" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="136"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="138"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.15" customHeight="1">
+    <row r="40" spans="1:5" ht="13.2" customHeight="1">
       <c r="A40" s="106" t="s">
         <v>364</v>
       </c>
@@ -6029,7 +6111,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.45" customHeight="1">
+    <row r="44" spans="1:5" ht="14.4" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>210</v>
       </c>
@@ -6050,7 +6132,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.5">
+    <row r="49" spans="1:5" ht="26.4">
       <c r="A49" s="51" t="s">
         <v>200</v>
       </c>
@@ -6121,7 +6203,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.5">
+    <row r="53" spans="1:5" ht="26.4">
       <c r="A53" s="8">
         <v>4</v>
       </c>
@@ -6230,12 +6312,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="185" t="s">
+      <c r="A59" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="186"/>
-      <c r="C59" s="186"/>
-      <c r="D59" s="187"/>
+      <c r="B59" s="169"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="170"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -6246,11 +6328,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A63" s="188" t="s">
+    <row r="63" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A63" s="171" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="188"/>
+      <c r="B63" s="171"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -6267,7 +6349,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="25.5">
+    <row r="69" spans="1:18" ht="26.4">
       <c r="A69" s="51" t="s">
         <v>200</v>
       </c>
@@ -6328,7 +6410,7 @@
         <v>9320</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="17.45" customHeight="1">
+    <row r="72" spans="1:18" ht="17.399999999999999" customHeight="1">
       <c r="A72" s="90">
         <v>3</v>
       </c>
@@ -6390,7 +6472,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="25.5">
+    <row r="75" spans="1:18" ht="26.4">
       <c r="A75" s="61">
         <v>6</v>
       </c>
@@ -6426,7 +6508,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="25.5">
+    <row r="77" spans="1:18" ht="26.4">
       <c r="A77" s="61">
         <v>8</v>
       </c>
@@ -6463,12 +6545,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="134" t="s">
+      <c r="A79" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="135"/>
-      <c r="C79" s="135"/>
-      <c r="D79" s="136"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="137"/>
+      <c r="D79" s="138"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -6515,7 +6597,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="16.149999999999999" customHeight="1">
+    <row r="90" spans="1:19" ht="16.2" customHeight="1">
       <c r="A90" s="51" t="s">
         <v>200</v>
       </c>
@@ -6532,7 +6614,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="25.5">
+    <row r="91" spans="1:19" ht="26.4">
       <c r="A91" s="90">
         <v>1</v>
       </c>
@@ -6550,7 +6632,7 @@
         <v>47460</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="25.5">
+    <row r="92" spans="1:19">
       <c r="A92" s="90">
         <v>2</v>
       </c>
@@ -6619,7 +6701,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="25.5">
+    <row r="95" spans="1:19" ht="26.4">
       <c r="A95" s="90">
         <v>5</v>
       </c>
@@ -6655,7 +6737,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="25.5">
+    <row r="97" spans="1:7" ht="26.4">
       <c r="A97" s="90">
         <v>7</v>
       </c>
@@ -6673,7 +6755,7 @@
         <v>6175</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="25.5">
+    <row r="98" spans="1:7" ht="26.4">
       <c r="A98" s="90">
         <v>8</v>
       </c>
@@ -6692,12 +6774,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="134" t="s">
+      <c r="A99" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="135"/>
-      <c r="C99" s="135"/>
-      <c r="D99" s="135"/>
+      <c r="B99" s="137"/>
+      <c r="C99" s="137"/>
+      <c r="D99" s="137"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -6748,7 +6830,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="89.25">
+    <row r="112" spans="1:7" ht="92.4">
       <c r="A112" s="51" t="s">
         <v>200</v>
       </c>
@@ -6795,7 +6877,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="51">
+    <row r="114" spans="1:8" ht="52.8">
       <c r="A114" s="71">
         <v>1.1200000000000001</v>
       </c>
@@ -6817,7 +6899,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="47.45" customHeight="1">
+    <row r="115" spans="1:8" ht="47.4" customHeight="1">
       <c r="A115" s="71">
         <v>1.1299999999999999</v>
       </c>
@@ -6843,31 +6925,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="184" t="s">
+      <c r="B116" s="165" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="184"/>
+      <c r="C116" s="165"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="171">
+      <c r="E116" s="166">
         <v>9000</v>
       </c>
-      <c r="F116" s="172"/>
+      <c r="F116" s="167"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="134" t="s">
+      <c r="A117" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="135"/>
-      <c r="C117" s="135"/>
-      <c r="D117" s="135"/>
-      <c r="E117" s="135"/>
-      <c r="F117" s="136"/>
+      <c r="B117" s="137"/>
+      <c r="C117" s="137"/>
+      <c r="D117" s="137"/>
+      <c r="E117" s="137"/>
+      <c r="F117" s="138"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -6888,7 +6970,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="89.25">
+    <row r="120" spans="1:8" ht="92.4">
       <c r="A120" s="51" t="s">
         <v>200</v>
       </c>
@@ -6911,7 +6993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="52.9" customHeight="1">
+    <row r="121" spans="1:8" ht="52.8" customHeight="1">
       <c r="A121" s="108">
         <v>1.21</v>
       </c>
@@ -6935,7 +7017,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="25.9" customHeight="1">
+    <row r="122" spans="1:8" ht="25.8" customHeight="1">
       <c r="A122" s="67">
         <v>1.22</v>
       </c>
@@ -6957,7 +7039,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="56.45" customHeight="1">
+    <row r="123" spans="1:8" ht="56.4" customHeight="1">
       <c r="A123" s="92">
         <v>1.23</v>
       </c>
@@ -6983,31 +7065,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="184" t="s">
+      <c r="B124" s="165" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="184"/>
+      <c r="C124" s="165"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="143">
+      <c r="E124" s="150">
         <v>9000</v>
       </c>
-      <c r="F124" s="143"/>
+      <c r="F124" s="150"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="181" t="s">
+      <c r="A125" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="182"/>
-      <c r="C125" s="182"/>
-      <c r="D125" s="182"/>
-      <c r="E125" s="182"/>
-      <c r="F125" s="183"/>
+      <c r="B125" s="173"/>
+      <c r="C125" s="173"/>
+      <c r="D125" s="173"/>
+      <c r="E125" s="173"/>
+      <c r="F125" s="174"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7023,7 +7105,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="89.25">
+    <row r="130" spans="1:8" ht="92.4">
       <c r="A130" s="66" t="s">
         <v>79</v>
       </c>
@@ -7046,7 +7128,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="52.9" customHeight="1">
+    <row r="131" spans="1:8" ht="52.8" customHeight="1">
       <c r="A131" s="67">
         <v>2.11</v>
       </c>
@@ -7070,7 +7152,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="41.45" customHeight="1">
+    <row r="132" spans="1:8" ht="41.4" customHeight="1">
       <c r="A132" s="67">
         <v>2.12</v>
       </c>
@@ -7118,31 +7200,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="169" t="s">
+      <c r="B134" s="176" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="170"/>
+      <c r="C134" s="177"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="171">
+      <c r="E134" s="166">
         <v>12000</v>
       </c>
-      <c r="F134" s="172"/>
+      <c r="F134" s="167"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="181" t="s">
+      <c r="A135" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="182"/>
-      <c r="C135" s="182"/>
-      <c r="D135" s="182"/>
-      <c r="E135" s="182"/>
-      <c r="F135" s="183"/>
+      <c r="B135" s="173"/>
+      <c r="C135" s="173"/>
+      <c r="D135" s="173"/>
+      <c r="E135" s="173"/>
+      <c r="F135" s="174"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -7153,7 +7235,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="89.25">
+    <row r="138" spans="1:8" ht="92.4">
       <c r="A138" s="51" t="s">
         <v>200</v>
       </c>
@@ -7176,7 +7258,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="67.150000000000006" customHeight="1">
+    <row r="139" spans="1:8" ht="67.2" customHeight="1">
       <c r="A139" s="108">
         <v>2.21</v>
       </c>
@@ -7248,31 +7330,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="169" t="s">
+      <c r="B142" s="176" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="170"/>
+      <c r="C142" s="177"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="171">
+      <c r="E142" s="166">
         <v>12000</v>
       </c>
-      <c r="F142" s="172"/>
+      <c r="F142" s="167"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="181" t="s">
+      <c r="A143" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="182"/>
-      <c r="C143" s="182"/>
-      <c r="D143" s="182"/>
-      <c r="E143" s="182"/>
-      <c r="F143" s="183"/>
+      <c r="B143" s="173"/>
+      <c r="C143" s="173"/>
+      <c r="D143" s="173"/>
+      <c r="E143" s="173"/>
+      <c r="F143" s="174"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -7293,7 +7375,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="44.45" customHeight="1">
+    <row r="146" spans="1:7" ht="44.4" customHeight="1">
       <c r="A146" s="51" t="s">
         <v>200</v>
       </c>
@@ -7316,7 +7398,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="64.900000000000006" customHeight="1">
+    <row r="147" spans="1:7" ht="64.8" customHeight="1">
       <c r="A147" s="67">
         <v>2.31</v>
       </c>
@@ -7340,7 +7422,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="58.15" customHeight="1">
+    <row r="148" spans="1:7" ht="58.2" customHeight="1">
       <c r="A148" s="67">
         <v>2.3199999999999998</v>
       </c>
@@ -7362,7 +7444,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="37.15" customHeight="1">
+    <row r="149" spans="1:7" ht="37.200000000000003" customHeight="1">
       <c r="A149" s="67">
         <v>2.33</v>
       </c>
@@ -7388,41 +7470,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="173" t="s">
+      <c r="B150" s="184" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="174"/>
+      <c r="C150" s="185"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="175">
+      <c r="E150" s="186">
         <v>12000</v>
       </c>
-      <c r="F150" s="176"/>
+      <c r="F150" s="187"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="178" t="s">
+      <c r="A151" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="178"/>
-      <c r="C151" s="178"/>
-      <c r="D151" s="178"/>
-      <c r="E151" s="178"/>
-      <c r="F151" s="178"/>
+      <c r="B151" s="175"/>
+      <c r="C151" s="175"/>
+      <c r="D151" s="175"/>
+      <c r="E151" s="175"/>
+      <c r="F151" s="175"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="177" t="s">
+      <c r="A154" s="188" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="177"/>
+      <c r="B154" s="188"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -7441,7 +7523,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="76.5">
+    <row r="157" spans="1:7" ht="79.2">
       <c r="A157" s="67">
         <v>1</v>
       </c>
@@ -7459,7 +7541,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="25.5">
+    <row r="158" spans="1:7" ht="26.4">
       <c r="A158" s="67">
         <v>2</v>
       </c>
@@ -7478,15 +7560,15 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="179" t="s">
+      <c r="A159" s="189" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="180"/>
-      <c r="C159" s="180"/>
-      <c r="D159" s="180"/>
+      <c r="B159" s="190"/>
+      <c r="C159" s="190"/>
+      <c r="D159" s="190"/>
       <c r="E159" s="88"/>
     </row>
-    <row r="160" spans="1:7" ht="25.5">
+    <row r="160" spans="1:7" ht="26.4">
       <c r="A160" s="71">
         <v>2</v>
       </c>
@@ -7522,7 +7604,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="25.5">
+    <row r="162" spans="1:13" ht="26.4">
       <c r="A162" s="71">
         <v>4</v>
       </c>
@@ -7541,12 +7623,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="178" t="s">
+      <c r="A163" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="178"/>
-      <c r="C163" s="178"/>
-      <c r="D163" s="178"/>
+      <c r="B163" s="175"/>
+      <c r="C163" s="175"/>
+      <c r="D163" s="175"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -7568,7 +7650,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="170" spans="1:13" s="87" customFormat="1" ht="43.9" customHeight="1">
+    <row r="170" spans="1:13" s="87" customFormat="1" ht="43.8" customHeight="1">
       <c r="A170" s="95" t="s">
         <v>0</v>
       </c>
@@ -7609,7 +7691,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="171" spans="1:13" s="97" customFormat="1" ht="25.5">
+    <row r="171" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="A171" s="96">
         <v>1</v>
       </c>
@@ -7739,7 +7821,7 @@
       <c r="L174" s="98"/>
       <c r="M174" s="99"/>
     </row>
-    <row r="175" spans="1:13" s="97" customFormat="1" ht="25.5">
+    <row r="175" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="A175" s="96">
         <v>3</v>
       </c>
@@ -7850,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" s="97" customFormat="1" ht="25.5">
+    <row r="178" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="A178" s="96">
         <v>4</v>
       </c>
@@ -7974,7 +8056,7 @@
       <c r="L181" s="98"/>
       <c r="M181" s="99"/>
     </row>
-    <row r="182" spans="1:13" s="97" customFormat="1" ht="25.5">
+    <row r="182" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="A182" s="96">
         <v>5</v>
       </c>
@@ -8120,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:13" s="97" customFormat="1" ht="25.5">
+    <row r="186" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="A186" s="96">
         <v>6</v>
       </c>
@@ -8441,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:13" s="97" customFormat="1" ht="25.5">
+    <row r="195" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="A195" s="96">
         <v>12</v>
       </c>
@@ -8625,7 +8707,7 @@
       <c r="L200" s="98"/>
       <c r="M200" s="99"/>
     </row>
-    <row r="201" spans="1:13" s="97" customFormat="1" ht="25.5">
+    <row r="201" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="A201" s="100">
         <v>15</v>
       </c>
@@ -8736,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:13" s="97" customFormat="1" ht="25.5">
+    <row r="204" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="A204" s="100">
         <v>16</v>
       </c>
@@ -8955,7 +9037,7 @@
       <c r="L210" s="98"/>
       <c r="M210" s="98"/>
     </row>
-    <row r="211" spans="1:13" s="97" customFormat="1" ht="25.5">
+    <row r="211" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="A211" s="100">
         <v>19</v>
       </c>
@@ -9120,7 +9202,7 @@
       <c r="L215" s="98"/>
       <c r="M215" s="98"/>
     </row>
-    <row r="216" spans="1:13" s="97" customFormat="1" ht="25.5">
+    <row r="216" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="A216" s="100">
         <v>21</v>
       </c>
@@ -9480,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:17" s="97" customFormat="1" ht="25.5">
+    <row r="226" spans="1:17" s="97" customFormat="1" ht="26.4">
       <c r="A226" s="100">
         <v>23</v>
       </c>
@@ -9590,7 +9672,7 @@
     <row r="233" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A233" s="54"/>
     </row>
-    <row r="234" spans="1:17" s="10" customFormat="1" ht="25.5">
+    <row r="234" spans="1:17" s="10" customFormat="1" ht="26.4">
       <c r="A234" s="51" t="s">
         <v>200</v>
       </c>
@@ -9607,7 +9689,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="235" spans="1:17" s="10" customFormat="1" ht="25.5">
+    <row r="235" spans="1:17" s="10" customFormat="1" ht="26.4">
       <c r="A235" s="92">
         <v>1</v>
       </c>
@@ -9628,7 +9710,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="236" spans="1:17" s="10" customFormat="1" ht="25.5">
+    <row r="236" spans="1:17" s="10" customFormat="1" ht="26.4">
       <c r="A236" s="71">
         <v>2</v>
       </c>
@@ -9731,13 +9813,13 @@
       </c>
       <c r="Q240" s="9"/>
     </row>
-    <row r="241" spans="1:17" s="10" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A241" s="134" t="s">
+    <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A241" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="135"/>
-      <c r="C241" s="135"/>
-      <c r="D241" s="136"/>
+      <c r="B241" s="137"/>
+      <c r="C241" s="137"/>
+      <c r="D241" s="138"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -9765,7 +9847,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="248" spans="1:17" s="10" customFormat="1" ht="19.149999999999999" customHeight="1">
+    <row r="248" spans="1:17" s="10" customFormat="1" ht="19.2" customHeight="1">
       <c r="A248" s="51" t="s">
         <v>200</v>
       </c>
@@ -9782,7 +9864,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="249" spans="1:17" s="10" customFormat="1" ht="37.15" customHeight="1">
+    <row r="249" spans="1:17" s="10" customFormat="1" ht="37.200000000000003" customHeight="1">
       <c r="A249" s="92">
         <v>1</v>
       </c>
@@ -9803,7 +9885,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="250" spans="1:17" s="10" customFormat="1" ht="31.9" customHeight="1">
+    <row r="250" spans="1:17" s="10" customFormat="1" ht="31.8" customHeight="1">
       <c r="A250" s="71">
         <v>2</v>
       </c>
@@ -9866,7 +9948,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="253" spans="1:17" s="10" customFormat="1" ht="31.15" customHeight="1">
+    <row r="253" spans="1:17" s="10" customFormat="1" ht="31.2" customHeight="1">
       <c r="A253" s="71">
         <v>5</v>
       </c>
@@ -9886,12 +9968,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="134" t="s">
+      <c r="A254" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="135"/>
-      <c r="C254" s="135"/>
-      <c r="D254" s="136"/>
+      <c r="B254" s="137"/>
+      <c r="C254" s="137"/>
+      <c r="D254" s="138"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -9899,43 +9981,26 @@
     </row>
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
-    <row r="257" spans="1:6" ht="13.15" customHeight="1">
-      <c r="A257" s="163" t="s">
+    <row r="257" spans="1:6" ht="13.2" customHeight="1">
+      <c r="A257" s="178" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="164"/>
-      <c r="C257" s="164"/>
-      <c r="D257" s="164"/>
-      <c r="E257" s="164"/>
-      <c r="F257" s="165"/>
-    </row>
-    <row r="258" spans="1:6" ht="409.15" customHeight="1">
-      <c r="A258" s="166"/>
-      <c r="B258" s="167"/>
-      <c r="C258" s="167"/>
-      <c r="D258" s="167"/>
-      <c r="E258" s="167"/>
-      <c r="F258" s="168"/>
+      <c r="B257" s="179"/>
+      <c r="C257" s="179"/>
+      <c r="D257" s="179"/>
+      <c r="E257" s="179"/>
+      <c r="F257" s="180"/>
+    </row>
+    <row r="258" spans="1:6" ht="409.2" customHeight="1">
+      <c r="A258" s="181"/>
+      <c r="B258" s="182"/>
+      <c r="C258" s="182"/>
+      <c r="D258" s="182"/>
+      <c r="E258" s="182"/>
+      <c r="F258" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B124:C124"/>
     <mergeCell ref="A257:F258"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="B142:C142"/>
@@ -9947,6 +10012,23 @@
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A254:D254"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A79:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9962,18 +10044,18 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9"/>
-    <col min="4" max="4" width="11.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="7"/>
-    <col min="7" max="7" width="26.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="7.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="11.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="7"/>
+    <col min="7" max="7" width="26.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10003,7 +10085,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="28.8">
       <c r="A4" s="74" t="s">
         <v>147</v>
       </c>
@@ -10065,7 +10147,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5">
+    <row r="7" spans="1:7" ht="26.4">
       <c r="A7" s="74">
         <v>4</v>
       </c>
@@ -10101,7 +10183,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5">
+    <row r="9" spans="1:7" ht="26.4">
       <c r="A9" s="74">
         <v>7</v>
       </c>
@@ -10156,12 +10238,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -10174,14 +10256,14 @@
       <c r="D13" s="75"/>
       <c r="E13" s="75"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A14" s="178" t="s">
+    <row r="14" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A14" s="175" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -10303,7 +10385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.149999999999999" customHeight="1">
+    <row r="30" spans="1:8" ht="16.2" customHeight="1">
       <c r="A30" s="74" t="s">
         <v>147</v>
       </c>
@@ -10325,7 +10407,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19.149999999999999" customHeight="1">
+    <row r="31" spans="1:8" ht="19.2" customHeight="1">
       <c r="A31" s="74">
         <v>2</v>
       </c>
@@ -10437,7 +10519,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="37.9" customHeight="1">
+    <row r="37" spans="1:5" ht="37.799999999999997" customHeight="1">
       <c r="A37" s="74">
         <v>8</v>
       </c>
@@ -10474,47 +10556,47 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="136"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="138"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="178" t="s">
+      <c r="A41" s="175" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="178"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="178"/>
+      <c r="B41" s="175"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="175"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15">
+    <row r="45" spans="1:5" ht="14.4">
       <c r="A45" s="77" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15">
+    <row r="46" spans="1:5" ht="14.4">
       <c r="A46" s="77" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15">
+    <row r="47" spans="1:5" ht="14.4">
       <c r="A47" s="78" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15">
+    <row r="48" spans="1:5" ht="14.4">
       <c r="A48" s="78" t="s">
         <v>181</v>
       </c>
@@ -10529,8 +10611,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="60" spans="1:5" ht="13.5" thickBot="1">
+    <row r="59" spans="1:5" ht="13.8" thickBot="1"/>
+    <row r="60" spans="1:5" ht="14.4" thickBot="1">
       <c r="A60" s="80" t="s">
         <v>79</v>
       </c>
@@ -10547,7 +10629,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="13.5" thickBot="1">
+    <row r="61" spans="1:5" ht="14.4" thickBot="1">
       <c r="A61" s="82">
         <v>1</v>
       </c>
@@ -10564,7 +10646,7 @@
         <v>30500</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="13.5" thickBot="1">
+    <row r="62" spans="1:5" ht="14.4" thickBot="1">
       <c r="A62" s="82">
         <v>2</v>
       </c>
@@ -10581,7 +10663,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="13.5" thickBot="1">
+    <row r="63" spans="1:5" ht="14.4" thickBot="1">
       <c r="A63" s="82">
         <v>3</v>
       </c>
@@ -10598,7 +10680,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="13.5" thickBot="1">
+    <row r="64" spans="1:5" ht="14.4" thickBot="1">
       <c r="A64" s="82">
         <v>4</v>
       </c>
@@ -10615,7 +10697,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="13.5" thickBot="1">
+    <row r="65" spans="1:5" ht="14.4" thickBot="1">
       <c r="A65" s="82">
         <v>5</v>
       </c>
@@ -10632,7 +10714,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="13.5" thickBot="1">
+    <row r="66" spans="1:5" ht="14.4" thickBot="1">
       <c r="A66" s="82">
         <v>6</v>
       </c>
@@ -10649,7 +10731,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="13.5" thickBot="1">
+    <row r="67" spans="1:5" ht="14.4" thickBot="1">
       <c r="A67" s="82">
         <v>7</v>
       </c>
@@ -10666,7 +10748,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="26.25" thickBot="1">
+    <row r="68" spans="1:5" ht="28.2" thickBot="1">
       <c r="A68" s="82">
         <v>8</v>
       </c>
@@ -10683,7 +10765,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="13.5" thickBot="1">
+    <row r="69" spans="1:5" ht="14.4" thickBot="1">
       <c r="A69" s="82">
         <v>9</v>
       </c>
@@ -10700,13 +10782,13 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A70" s="189" t="s">
+    <row r="70" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A70" s="191" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="190"/>
-      <c r="C70" s="190"/>
-      <c r="D70" s="191"/>
+      <c r="B70" s="192"/>
+      <c r="C70" s="192"/>
+      <c r="D70" s="193"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -10729,17 +10811,17 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E17"/>
+      <selection activeCell="A2" sqref="A2:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9"/>
-    <col min="4" max="4" width="11.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="7.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="11.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10769,7 +10851,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="85" t="s">
         <v>147</v>
       </c>
@@ -10823,7 +10905,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.5">
+    <row r="7" spans="1:5" ht="26.4">
       <c r="A7" s="85">
         <v>4</v>
       </c>
@@ -10896,12 +10978,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -11011,7 +11093,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.149999999999999" customHeight="1">
+    <row r="25" spans="1:5" ht="16.2" customHeight="1">
       <c r="A25" s="85" t="s">
         <v>147</v>
       </c>
@@ -11029,7 +11111,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19.149999999999999" customHeight="1">
+    <row r="26" spans="1:5" ht="19.2" customHeight="1">
       <c r="A26" s="85">
         <v>2</v>
       </c>
@@ -11156,33 +11238,33 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="136"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="138"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15">
+    <row r="35" spans="1:5" ht="14.4">
       <c r="A35" s="77" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15">
+    <row r="36" spans="1:5" ht="14.4">
       <c r="A36" s="77" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15">
+    <row r="37" spans="1:5" ht="14.4">
       <c r="A37" s="78" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15">
+    <row r="38" spans="1:5" ht="14.4">
       <c r="A38" s="78" t="s">
         <v>181</v>
       </c>
@@ -11214,10 +11296,10 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11231,7 +11313,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="46.15" customHeight="1">
+    <row r="2" spans="1:3" ht="46.2" customHeight="1">
       <c r="A2" s="113">
         <v>1</v>
       </c>
@@ -11253,7 +11335,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5">
+    <row r="4" spans="1:3" ht="26.4">
       <c r="A4" s="113">
         <v>3</v>
       </c>
@@ -11277,11 +11359,11 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11364,7 +11446,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="1:8" ht="16.2" customHeight="1">
       <c r="A5" s="116">
         <v>4</v>
       </c>
@@ -11383,12 +11465,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -11410,32 +11492,32 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="7" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="7"/>
-    <col min="8" max="8" width="17.42578125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="7"/>
+    <col min="5" max="5" width="8.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="7"/>
+    <col min="8" max="8" width="17.44140625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-    </row>
-    <row r="2" spans="1:6" ht="25.5">
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -11467,7 +11549,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="38.25">
+    <row r="4" spans="1:6" ht="39.6">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>73</v>
@@ -11477,7 +11559,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="157.15" customHeight="1">
+    <row r="5" spans="1:6" ht="157.19999999999999" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>30</v>
       </c>
@@ -11498,7 +11580,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="89.25">
+    <row r="6" spans="1:6" ht="92.4">
       <c r="A6" s="12" t="s">
         <v>32</v>
       </c>
@@ -11519,108 +11601,108 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="127.5">
-      <c r="A7" s="140" t="s">
+    <row r="7" spans="1:6" ht="132">
+      <c r="A7" s="147" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="142">
+      <c r="C7" s="149">
         <v>2</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="143">
+      <c r="E7" s="150">
         <v>567000</v>
       </c>
-      <c r="F7" s="143">
+      <c r="F7" s="150">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="140"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="140"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="140"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="140"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="140"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="140"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="140"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="140"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-    </row>
-    <row r="16" spans="1:6" ht="153">
+      <c r="C15" s="149"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+    </row>
+    <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
         <v>44</v>
       </c>
@@ -11661,15 +11743,15 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="139"/>
-    </row>
-    <row r="20" spans="1:6" ht="25.5">
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
+    </row>
+    <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -11731,7 +11813,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="63.75">
+    <row r="23" spans="1:6" ht="66">
       <c r="A23" s="12" t="s">
         <v>32</v>
       </c>
@@ -11752,8 +11834,8 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="51">
-      <c r="A24" s="140" t="s">
+    <row r="24" spans="1:6" ht="52.8">
+      <c r="A24" s="147" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -11765,7 +11847,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="140"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -11784,7 +11866,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="140"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -11803,7 +11885,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="140"/>
+      <c r="A27" s="147"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -11841,15 +11923,15 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="139"/>
-    </row>
-    <row r="31" spans="1:6" s="32" customFormat="1" ht="25.5">
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146"/>
+    </row>
+    <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -11869,8 +11951,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="63.75">
-      <c r="A32" s="140" t="s">
+    <row r="32" spans="1:6" ht="66">
+      <c r="A32" s="147" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -11882,7 +11964,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="140"/>
+      <c r="A33" s="147"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -11896,7 +11978,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="140"/>
+      <c r="A34" s="147"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -11910,7 +11992,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="140"/>
+      <c r="A35" s="147"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -11924,7 +12006,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="140"/>
+      <c r="A36" s="147"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -11937,8 +12019,8 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="38.25">
-      <c r="A37" s="140" t="s">
+    <row r="37" spans="1:9" ht="39.6">
+      <c r="A37" s="147" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -11950,7 +12032,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="140"/>
+      <c r="A38" s="147"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -11969,7 +12051,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="140"/>
+      <c r="A39" s="147"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -11988,7 +12070,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="140"/>
+      <c r="A40" s="147"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12007,7 +12089,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="140"/>
+      <c r="A41" s="147"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12026,7 +12108,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="140"/>
+      <c r="A42" s="147"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12067,15 +12149,15 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="139"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="146"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
         <v>91</v>
       </c>
@@ -12117,7 +12199,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="165.75">
+    <row r="48" spans="1:9" ht="179.4">
       <c r="A48" s="29" t="s">
         <v>30</v>
       </c>
@@ -12139,7 +12221,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="51">
+    <row r="49" spans="1:9" ht="55.2">
       <c r="A49" s="29" t="s">
         <v>32</v>
       </c>
@@ -12163,7 +12245,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" ht="13.8">
       <c r="A50" s="29" t="s">
         <v>35</v>
       </c>
@@ -12185,7 +12267,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:9" ht="25.5">
+    <row r="51" spans="1:9" ht="27.6">
       <c r="A51" s="29" t="s">
         <v>44</v>
       </c>
@@ -12207,7 +12289,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:9" ht="25.5">
+    <row r="52" spans="1:9" ht="27.6">
       <c r="A52" s="29" t="s">
         <v>109</v>
       </c>
@@ -12229,7 +12311,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:9" ht="25.5">
+    <row r="53" spans="1:9" ht="27.6">
       <c r="A53" s="29" t="s">
         <v>110</v>
       </c>
@@ -12251,7 +12333,7 @@
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" ht="13.8">
       <c r="A54" s="29" t="s">
         <v>111</v>
       </c>
@@ -12273,7 +12355,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:9" ht="25.5">
+    <row r="55" spans="1:9" ht="27.6">
       <c r="A55" s="29" t="s">
         <v>112</v>
       </c>
@@ -12295,7 +12377,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:9" ht="25.5">
+    <row r="56" spans="1:9" ht="27.6">
       <c r="A56" s="29" t="s">
         <v>113</v>
       </c>
@@ -12317,14 +12399,14 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="146" t="s">
+    <row r="57" spans="1:9" ht="15.6">
+      <c r="A57" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="147"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="148"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="143"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -12338,19 +12420,19 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:9" ht="38.25">
+    <row r="59" spans="1:9" ht="39.6">
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="144" t="s">
+      <c r="B59" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="144"/>
-      <c r="D59" s="144"/>
-      <c r="E59" s="144"/>
-      <c r="F59" s="144"/>
-    </row>
-    <row r="60" spans="1:9" ht="38.25">
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+    </row>
+    <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
@@ -12366,13 +12448,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="145" t="s">
+      <c r="B61" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="145"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -12388,39 +12470,34 @@
       <c r="F62" s="18"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:9" ht="196.15" customHeight="1">
+    <row r="63" spans="1:9" ht="196.2" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="145" t="s">
+      <c r="B63" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="145"/>
-      <c r="D63" s="145"/>
-      <c r="E63" s="145"/>
-      <c r="F63" s="145"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="145" t="s">
+      <c r="B64" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="145"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="140"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="A57:E57"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B19:F19"/>
@@ -12433,6 +12510,11 @@
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="F7:F15"/>
     <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12447,10 +12529,10 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.6" customHeight="1">
@@ -12497,7 +12579,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.45" customHeight="1">
+    <row r="3" spans="1:8" ht="29.4" customHeight="1">
       <c r="A3" s="118">
         <v>2</v>
       </c>
@@ -12615,7 +12697,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="25.5">
+    <row r="9" spans="1:8" ht="26.4">
       <c r="A9" s="131">
         <v>8</v>
       </c>
@@ -12635,12 +12717,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -12737,16 +12819,16 @@
       <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="4" customWidth="1"/>
-    <col min="5" max="9" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="14.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="4" customWidth="1"/>
+    <col min="5" max="9" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="14.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12754,7 +12836,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.9" customHeight="1">
+    <row r="2" spans="1:10" ht="13.8" customHeight="1">
       <c r="A2" s="129" t="s">
         <v>79</v>
       </c>
@@ -12796,7 +12878,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.45" customHeight="1">
+    <row r="4" spans="1:10" ht="26.4" customHeight="1">
       <c r="A4" s="128">
         <v>2</v>
       </c>
@@ -12821,7 +12903,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="5" spans="1:10" ht="19.8" customHeight="1">
       <c r="A5" s="128">
         <v>3</v>
       </c>
@@ -12846,7 +12928,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="6" spans="1:10" ht="19.8" customHeight="1">
       <c r="A6" s="128">
         <v>4</v>
       </c>
@@ -12868,7 +12950,7 @@
         <v>13980</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.9" customHeight="1">
+    <row r="7" spans="1:10" ht="25.8" customHeight="1">
       <c r="A7" s="128">
         <v>5</v>
       </c>
@@ -12908,7 +12990,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.45" customHeight="1">
+    <row r="9" spans="1:10" ht="17.399999999999999" customHeight="1">
       <c r="A9" s="128">
         <v>7</v>
       </c>
@@ -12998,7 +13080,7 @@
         <v>7950</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" customHeight="1">
+    <row r="14" spans="1:10" ht="14.4" customHeight="1">
       <c r="A14" s="128">
         <v>12</v>
       </c>
@@ -13017,12 +13099,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -13058,7 +13140,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="25.5">
+    <row r="24" spans="1:8">
       <c r="A24" s="125" t="s">
         <v>79</v>
       </c>
@@ -13075,7 +13157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="25.5">
+    <row r="25" spans="1:8" ht="26.4">
       <c r="A25" s="124">
         <v>1</v>
       </c>
@@ -13097,7 +13179,7 @@
         <v>7632</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="38.25">
+    <row r="26" spans="1:8" ht="39.6">
       <c r="A26" s="124">
         <v>2</v>
       </c>
@@ -13181,7 +13263,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="25.5">
+    <row r="30" spans="1:8" ht="26.4">
       <c r="A30" s="124">
         <v>6</v>
       </c>
@@ -13308,12 +13390,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="136"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="138"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -13377,7 +13459,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="25.5">
+    <row r="50" spans="1:8">
       <c r="A50" s="121" t="s">
         <v>79</v>
       </c>
@@ -13488,7 +13570,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="25.5">
+    <row r="56" spans="1:8" ht="26.4">
       <c r="A56" s="120">
         <v>6</v>
       </c>
@@ -13615,12 +13697,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="134" t="s">
+      <c r="A63" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="135"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="136"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="138"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -13705,14 +13787,14 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A22" sqref="A22:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="126" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" style="126" customWidth="1"/>
     <col min="2" max="2" width="55" style="126" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="126"/>
+    <col min="3" max="16384" width="8.88671875" style="126"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13732,275 +13814,275 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A2" s="192">
+    <row r="2" spans="1:5" ht="25.2" customHeight="1">
+      <c r="A2" s="194">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="192">
-        <v>1</v>
-      </c>
-      <c r="D2" s="192">
+      <c r="C2" s="194">
+        <v>1</v>
+      </c>
+      <c r="D2" s="194">
         <v>42000</v>
       </c>
-      <c r="E2" s="192">
+      <c r="E2" s="194">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="193"/>
+    <row r="3" spans="1:5" ht="28.8">
+      <c r="A3" s="195"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="193"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="193"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="195"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="193"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="193"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="193"/>
+      <c r="A8" s="195"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="193"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="193"/>
+      <c r="A10" s="195"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="193"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="193"/>
+      <c r="A12" s="195"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="193"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="195"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="193"/>
+      <c r="A14" s="195"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="193"/>
+      <c r="A15" s="195"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="195"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="193"/>
+      <c r="A16" s="195"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="193"/>
+      <c r="A17" s="195"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="193"/>
+      <c r="A18" s="195"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="194"/>
+      <c r="A19" s="196"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="30">
+    <row r="55" spans="1:1" ht="28.8">
       <c r="A55" s="126" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="60">
+    <row r="56" spans="1:1" ht="57.6">
       <c r="A56" s="126" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="240">
+    <row r="57" spans="1:1" ht="216">
       <c r="A57" s="126" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="60">
+    <row r="58" spans="1:1" ht="57.6">
       <c r="A58" s="126" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="150">
+    <row r="59" spans="1:1" ht="144">
       <c r="A59" s="126" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="120">
+    <row r="60" spans="1:1" ht="115.2">
       <c r="A60" s="126" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="45">
+    <row r="61" spans="1:1" ht="43.2">
       <c r="A61" s="126" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="105">
+    <row r="62" spans="1:1" ht="86.4">
       <c r="A62" s="126" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="60">
+    <row r="63" spans="1:1" ht="57.6">
       <c r="A63" s="126" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="150">
+    <row r="64" spans="1:1" ht="144">
       <c r="A64" s="126" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="165">
+    <row r="65" spans="1:1" ht="144">
       <c r="A65" s="126" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="135">
+    <row r="66" spans="1:1" ht="129.6">
       <c r="A66" s="126" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="150">
+    <row r="67" spans="1:1" ht="144">
       <c r="A67" s="126" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="120">
+    <row r="68" spans="1:1" ht="100.8">
       <c r="A68" s="126" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="75">
+    <row r="69" spans="1:1" ht="72">
       <c r="A69" s="126" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="150">
+    <row r="70" spans="1:1" ht="144">
       <c r="A70" s="126" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="30">
+    <row r="71" spans="1:1" ht="28.8">
       <c r="A71" s="126" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="120">
+    <row r="72" spans="1:1" ht="115.2">
       <c r="A72" s="126" t="s">
         <v>419</v>
       </c>
@@ -14019,193 +14101,479 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="79" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="133" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="133" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A3" s="132">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" s="132">
+        <v>1</v>
+      </c>
+      <c r="D3" s="132">
+        <v>3900</v>
+      </c>
+      <c r="E3" s="132">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>3900</v>
+      </c>
+      <c r="G3">
+        <f>2450*2</f>
+        <v>4900</v>
+      </c>
+      <c r="H3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.2" customHeight="1">
+      <c r="A4" s="132">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="132">
+        <v>3</v>
+      </c>
+      <c r="D4" s="132">
+        <v>3900</v>
+      </c>
+      <c r="E4" s="132">
+        <f t="shared" si="0"/>
+        <v>11700</v>
+      </c>
+      <c r="G4">
+        <f>2350*2</f>
+        <v>4700</v>
+      </c>
+      <c r="H4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="132">
+        <v>3</v>
+      </c>
+      <c r="B5" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="132">
+        <v>1</v>
+      </c>
+      <c r="D5" s="132">
+        <v>6900</v>
+      </c>
+      <c r="E5" s="132">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
+      <c r="G5">
+        <f>4410*2</f>
+        <v>8820</v>
+      </c>
+      <c r="H5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="132">
+        <v>4</v>
+      </c>
+      <c r="B6" s="132" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="132">
+        <v>1</v>
+      </c>
+      <c r="D6" s="132">
+        <v>3500</v>
+      </c>
+      <c r="E6" s="132">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.4">
+      <c r="A7" s="132">
+        <v>5</v>
+      </c>
+      <c r="B7" s="132" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="132">
+        <v>1</v>
+      </c>
+      <c r="D7" s="132">
+        <v>11500</v>
+      </c>
+      <c r="E7" s="132">
+        <f t="shared" si="0"/>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.4">
+      <c r="A8" s="132">
+        <v>6</v>
+      </c>
+      <c r="B8" s="132" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="132">
+        <v>10</v>
+      </c>
+      <c r="D8" s="132">
+        <v>175</v>
+      </c>
+      <c r="E8" s="132">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="132">
+        <v>7</v>
+      </c>
+      <c r="B9" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="132">
+        <v>4</v>
+      </c>
+      <c r="D9" s="132">
+        <v>100</v>
+      </c>
+      <c r="E9" s="132">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.4">
+      <c r="A10" s="132">
+        <v>8</v>
+      </c>
+      <c r="B10" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="132">
+        <v>1</v>
+      </c>
+      <c r="D10" s="132">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="132">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="136" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="133">
+        <f>SUM(E3:E10)</f>
+        <v>42150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="135" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="132">
+    <row r="2" spans="1:7">
+      <c r="A2" s="134">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="C2" s="132">
+        <v>434</v>
+      </c>
+      <c r="C2" s="134">
         <v>2</v>
       </c>
-      <c r="D2" s="132">
+      <c r="D2" s="134">
         <v>3900</v>
       </c>
-      <c r="E2" s="132">
-        <f>C2*D2</f>
+      <c r="E2" s="134">
+        <f t="shared" ref="E2:E9" si="0">C2*D2</f>
         <v>7800</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A3" s="132">
+    <row r="3" spans="1:7">
+      <c r="A3" s="134">
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="132">
+        <v>433</v>
+      </c>
+      <c r="C3" s="134">
         <v>6</v>
       </c>
-      <c r="D3" s="132">
+      <c r="D3" s="134">
         <v>3900</v>
       </c>
-      <c r="E3" s="132">
-        <f t="shared" ref="E3:E9" si="0">C3*D3</f>
+      <c r="E3" s="134">
+        <f t="shared" si="0"/>
         <v>23400</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A4" s="132">
+    <row r="4" spans="1:7">
+      <c r="A4" s="134">
         <v>3</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="132">
-        <v>1</v>
-      </c>
-      <c r="D4" s="132">
-        <v>11880</v>
-      </c>
-      <c r="E4" s="132">
+      <c r="C4" s="134">
+        <v>1</v>
+      </c>
+      <c r="D4" s="134">
+        <v>9600</v>
+      </c>
+      <c r="E4" s="134">
         <f t="shared" si="0"/>
-        <v>11880</v>
+        <v>9600</v>
       </c>
       <c r="G4">
         <f>5940*2</f>
         <v>11880</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="132">
+    <row r="5" spans="1:7">
+      <c r="A5" s="134">
         <v>3</v>
       </c>
-      <c r="B5" s="132" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="132">
-        <v>1</v>
-      </c>
-      <c r="D5" s="132">
-        <v>5500</v>
-      </c>
-      <c r="E5" s="132">
+      <c r="B5" s="134" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" s="134">
+        <v>1</v>
+      </c>
+      <c r="D5" s="134">
+        <v>4000</v>
+      </c>
+      <c r="E5" s="134">
         <f t="shared" si="0"/>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A6" s="132">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.4">
+      <c r="A6" s="134">
         <v>4</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="132">
-        <v>1</v>
-      </c>
-      <c r="D6" s="132">
-        <v>11500</v>
-      </c>
-      <c r="E6" s="132">
-        <f>C6*D6</f>
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5">
-      <c r="A7" s="132">
+      <c r="C6" s="134">
+        <v>1</v>
+      </c>
+      <c r="D6" s="134">
+        <v>8700</v>
+      </c>
+      <c r="E6" s="134">
+        <f t="shared" si="0"/>
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="134">
         <v>5</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="132">
+      <c r="C7" s="134">
         <v>18</v>
       </c>
-      <c r="D7" s="132">
+      <c r="D7" s="134">
+        <v>150</v>
+      </c>
+      <c r="E7" s="134">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="134">
+        <v>6</v>
+      </c>
+      <c r="B8" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="132">
-        <f t="shared" si="0"/>
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="132">
-        <v>6</v>
-      </c>
-      <c r="B8" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="132">
+      <c r="C8" s="134">
         <v>8</v>
       </c>
-      <c r="D8" s="132">
+      <c r="D8" s="134">
         <v>100</v>
       </c>
-      <c r="E8" s="132">
+      <c r="E8" s="134">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5">
-      <c r="A9" s="132">
+    <row r="9" spans="1:7">
+      <c r="A9" s="134">
         <v>7</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="132">
-        <v>1</v>
-      </c>
-      <c r="D9" s="132">
-        <v>5000</v>
-      </c>
-      <c r="E9" s="132">
+      <c r="C9" s="134">
+        <v>1</v>
+      </c>
+      <c r="D9" s="134">
+        <v>3600</v>
+      </c>
+      <c r="E9" s="134">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="133">
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
-        <v>69030</v>
+        <v>60600</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -14265,6 +14633,384 @@
     <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="7" style="65" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="65" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="65" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="65"/>
+    <col min="10" max="10" width="8.88671875" style="203"/>
+    <col min="11" max="16384" width="8.88671875" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21.6" customHeight="1">
+      <c r="A1" s="197" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="197" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="197" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="197" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="197" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="197" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="197" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="26.4">
+      <c r="A2" s="198">
+        <v>1</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="201" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" s="201">
+        <v>50</v>
+      </c>
+      <c r="E2" s="198">
+        <v>950</v>
+      </c>
+      <c r="F2" s="198">
+        <v>250</v>
+      </c>
+      <c r="G2" s="198">
+        <f>D2*E2+F2</f>
+        <v>47750</v>
+      </c>
+      <c r="J2" s="202">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="198">
+        <v>2</v>
+      </c>
+      <c r="B3" s="201" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="201" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="201">
+        <v>1</v>
+      </c>
+      <c r="E3" s="198">
+        <v>9900</v>
+      </c>
+      <c r="F3" s="198">
+        <v>500</v>
+      </c>
+      <c r="G3" s="198">
+        <f t="shared" ref="G3:G6" si="0">D3*E3+F3</f>
+        <v>10400</v>
+      </c>
+      <c r="J3" s="202">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="198">
+        <v>3</v>
+      </c>
+      <c r="B4" s="201" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="201" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="201">
+        <v>1</v>
+      </c>
+      <c r="E4" s="198">
+        <v>28000</v>
+      </c>
+      <c r="F4" s="198">
+        <v>2500</v>
+      </c>
+      <c r="G4" s="198">
+        <f t="shared" si="0"/>
+        <v>30500</v>
+      </c>
+      <c r="J4" s="202">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="198">
+        <v>4</v>
+      </c>
+      <c r="B5" s="201" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="201" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="201">
+        <v>1</v>
+      </c>
+      <c r="E5" s="198">
+        <v>28000</v>
+      </c>
+      <c r="F5" s="198">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="198">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="J5" s="202">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="27" customHeight="1">
+      <c r="A6" s="198">
+        <v>5</v>
+      </c>
+      <c r="B6" s="199" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="199"/>
+      <c r="D6" s="198">
+        <v>1</v>
+      </c>
+      <c r="E6" s="198">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="200" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197">
+        <f>SUM(G2:G6)</f>
+        <v>123650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="204" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15" s="65">
+        <f>950*50</f>
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="65">
+        <f>250*50</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="D17" s="65">
+        <f>SUM(D15:D16)</f>
+        <v>60000</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="26.4">
+      <c r="A21" s="197" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="197" t="s">
+        <v>441</v>
+      </c>
+      <c r="C21" s="197" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="197" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="197" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="197" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="197" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="26.4">
+      <c r="A22" s="198">
+        <v>1</v>
+      </c>
+      <c r="B22" s="201" t="s">
+        <v>436</v>
+      </c>
+      <c r="C22" s="201" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" s="201">
+        <v>50</v>
+      </c>
+      <c r="E22" s="198">
+        <v>950</v>
+      </c>
+      <c r="F22" s="198">
+        <v>250</v>
+      </c>
+      <c r="G22" s="198">
+        <f>D22*E22+(D22*F22)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="198">
+        <v>2</v>
+      </c>
+      <c r="B23" s="201" t="s">
+        <v>436</v>
+      </c>
+      <c r="C23" s="201" t="s">
+        <v>438</v>
+      </c>
+      <c r="D23" s="201">
+        <v>1</v>
+      </c>
+      <c r="E23" s="198">
+        <v>9900</v>
+      </c>
+      <c r="F23" s="198">
+        <v>500</v>
+      </c>
+      <c r="G23" s="198">
+        <f t="shared" ref="G23:G26" si="1">D23*E23+(D23*F23)</f>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="198">
+        <v>3</v>
+      </c>
+      <c r="B24" s="201" t="s">
+        <v>436</v>
+      </c>
+      <c r="C24" s="201" t="s">
+        <v>439</v>
+      </c>
+      <c r="D24" s="201">
+        <v>1</v>
+      </c>
+      <c r="E24" s="198">
+        <v>28000</v>
+      </c>
+      <c r="F24" s="198">
+        <v>2500</v>
+      </c>
+      <c r="G24" s="198">
+        <f t="shared" si="1"/>
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="198">
+        <v>4</v>
+      </c>
+      <c r="B25" s="201" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="201" t="s">
+        <v>440</v>
+      </c>
+      <c r="D25" s="201">
+        <v>1</v>
+      </c>
+      <c r="E25" s="198">
+        <v>28000</v>
+      </c>
+      <c r="F25" s="198">
+        <v>2000</v>
+      </c>
+      <c r="G25" s="198">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="198">
+        <v>5</v>
+      </c>
+      <c r="B26" s="199" t="s">
+        <v>444</v>
+      </c>
+      <c r="C26" s="199"/>
+      <c r="D26" s="198">
+        <v>1</v>
+      </c>
+      <c r="E26" s="198">
+        <v>5000</v>
+      </c>
+      <c r="F26" s="198"/>
+      <c r="G26" s="198">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="200" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="200"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="200"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="197">
+        <f>SUM(G22:G26)</f>
+        <v>135900</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A27:E27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14276,16 +15022,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.899999999999999" customHeight="1">
+    <row r="1" spans="1:5" ht="19.8" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>79</v>
       </c>
@@ -14302,7 +15048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="49.9" customHeight="1">
+    <row r="2" spans="1:5" ht="49.8" customHeight="1">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -14320,7 +15066,7 @@
         <v>14990</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="1:5" ht="16.2" customHeight="1">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -14357,48 +15103,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="153"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="151"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="11.45" customHeight="1">
-      <c r="A8" s="149" t="s">
+    <row r="8" spans="1:5" ht="11.4" customHeight="1">
+      <c r="A8" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -14424,15 +15170,15 @@
       <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.9" customHeight="1">
+    <row r="1" spans="1:5" ht="13.8" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>79</v>
       </c>
@@ -14449,7 +15195,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.9" customHeight="1">
+    <row r="2" spans="1:5" ht="55.8" customHeight="1">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -14467,7 +15213,7 @@
         <v>69600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5" ht="28.8">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -14486,12 +15232,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="151"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="153"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -14513,9 +15259,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14523,7 +15269,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="10.15" customHeight="1">
+    <row r="2" spans="1:8" ht="10.199999999999999" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>79</v>
       </c>
@@ -14786,12 +15532,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="150"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="151"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -14803,7 +15549,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30">
+    <row r="18" spans="1:5" ht="28.8">
       <c r="A18" s="25" t="s">
         <v>79</v>
       </c>
@@ -15037,12 +15783,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="151"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="153"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -15098,10 +15844,10 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15122,7 +15868,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.9" customHeight="1">
+    <row r="2" spans="1:8" ht="31.8" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>147</v>
       </c>
@@ -15147,7 +15893,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.899999999999999" customHeight="1">
+    <row r="3" spans="1:8" ht="16.8" customHeight="1">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -15172,7 +15918,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.45" customHeight="1">
+    <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -15208,7 +15954,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1">
+    <row r="6" spans="1:8" ht="14.4" customHeight="1">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -15226,7 +15972,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.45" customHeight="1">
+    <row r="7" spans="1:8" ht="14.4" customHeight="1">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -15263,12 +16009,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -15342,14 +16088,14 @@
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
     </row>
-    <row r="19" spans="1:8" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="152" t="s">
+    <row r="19" spans="1:8" ht="16.2" customHeight="1">
+      <c r="A19" s="154" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -15358,12 +16104,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="11.45" customHeight="1">
-      <c r="A20" s="155"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="157"/>
+    <row r="20" spans="1:8" ht="11.4" customHeight="1">
+      <c r="A20" s="157"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15383,12 +16129,12 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:5" ht="28.8">
       <c r="A1" s="25" t="s">
         <v>79</v>
       </c>
@@ -15405,7 +16151,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="28.8">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -15441,7 +16187,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -15459,7 +16205,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -15478,12 +16224,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="151"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -15510,15 +16256,15 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1">
+    <row r="1" spans="1:5" ht="14.4" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>79</v>
       </c>
@@ -15535,7 +16281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.9" customHeight="1">
+    <row r="2" spans="1:5" ht="22.8" customHeight="1">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -15607,7 +16353,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.899999999999999" customHeight="1">
+    <row r="6" spans="1:5" ht="16.8" customHeight="1">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -15625,7 +16371,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1">
+    <row r="7" spans="1:5" ht="19.2" customHeight="1">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -15643,7 +16389,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.15" customHeight="1">
+    <row r="8" spans="1:5" ht="22.2" customHeight="1">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -15698,12 +16444,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="151"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="153"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -15731,10 +16477,10 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15755,7 +16501,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.9" customHeight="1">
+    <row r="2" spans="1:7" ht="13.8" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>147</v>
       </c>
@@ -15799,7 +16545,7 @@
         <v>13570</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.9" customHeight="1">
+    <row r="4" spans="1:7" ht="28.8" customHeight="1">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -15817,7 +16563,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.9" customHeight="1">
+    <row r="5" spans="1:7" ht="22.8" customHeight="1">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -15872,12 +16618,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -15960,20 +16706,20 @@
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="158" t="s">
+    <row r="19" spans="1:7" ht="16.2" customHeight="1">
+      <c r="A19" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>
         <v>6260</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="11.45" customHeight="1">
+    <row r="20" spans="1:7" ht="11.4" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="19" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="20" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Putz 122" sheetId="22" r:id="rId22"/>
     <sheet name="Intelligent Ideas 201" sheetId="23" r:id="rId23"/>
     <sheet name="Vision Designs 202" sheetId="24" r:id="rId24"/>
-    <sheet name="K Amonkar 203" sheetId="25" r:id="rId25"/>
+    <sheet name="K Amonkar &amp; Associates 203" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2586,6 +2586,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2595,6 +2613,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2610,27 +2649,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2673,15 +2691,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2694,63 +2769,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2774,24 +2792,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3437,12 +3437,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="136" t="s">
+      <c r="A18" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="138"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -3568,12 +3568,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -3734,12 +3734,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="153"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -3823,12 +3823,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="166" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -3989,12 +3989,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="153"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4078,20 +4078,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="157"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="159"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4290,24 +4290,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="169" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -4507,12 +4507,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="151" t="s">
+      <c r="A30" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="153"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="159"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -4680,12 +4680,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="162"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -4920,24 +4920,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="170" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5101,12 +5101,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="151" t="s">
+      <c r="A28" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="153"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="159"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -5308,48 +5308,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="159"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="153"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="153"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="157" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="153"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -5440,48 +5440,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="151" t="s">
+      <c r="A18" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="153"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="151" t="s">
+      <c r="A19" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="153"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="151" t="s">
+      <c r="A20" s="157" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="159"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -5564,48 +5564,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="151" t="s">
+      <c r="A27" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="153"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="151" t="s">
+      <c r="A28" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="153"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="159"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="151" t="s">
+      <c r="A29" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="153"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="151" t="s">
+      <c r="A30" s="157" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="153"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="159"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -5793,12 +5793,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -5922,12 +5922,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="138"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6087,12 +6087,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="136" t="s">
+      <c r="A38" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="138"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="144"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -6312,12 +6312,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="168" t="s">
+      <c r="A59" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="169"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="170"/>
+      <c r="B59" s="194"/>
+      <c r="C59" s="194"/>
+      <c r="D59" s="195"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -6329,10 +6329,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="171" t="s">
+      <c r="A63" s="196" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="171"/>
+      <c r="B63" s="196"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -6545,12 +6545,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="136" t="s">
+      <c r="A79" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="137"/>
-      <c r="C79" s="137"/>
-      <c r="D79" s="138"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="144"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -6774,12 +6774,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="136" t="s">
+      <c r="A99" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="137"/>
-      <c r="C99" s="137"/>
-      <c r="D99" s="137"/>
+      <c r="B99" s="143"/>
+      <c r="C99" s="143"/>
+      <c r="D99" s="143"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -6925,31 +6925,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="165" t="s">
+      <c r="B116" s="192" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="165"/>
+      <c r="C116" s="192"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="166">
+      <c r="E116" s="179">
         <v>9000</v>
       </c>
-      <c r="F116" s="167"/>
+      <c r="F116" s="180"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="136" t="s">
+      <c r="A117" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="137"/>
-      <c r="C117" s="137"/>
-      <c r="D117" s="137"/>
-      <c r="E117" s="137"/>
-      <c r="F117" s="138"/>
+      <c r="B117" s="143"/>
+      <c r="C117" s="143"/>
+      <c r="D117" s="143"/>
+      <c r="E117" s="143"/>
+      <c r="F117" s="144"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7065,31 +7065,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="165" t="s">
+      <c r="B124" s="192" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="165"/>
+      <c r="C124" s="192"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="150">
+      <c r="E124" s="151">
         <v>9000</v>
       </c>
-      <c r="F124" s="150"/>
+      <c r="F124" s="151"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="172" t="s">
+      <c r="A125" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="173"/>
-      <c r="C125" s="173"/>
-      <c r="D125" s="173"/>
-      <c r="E125" s="173"/>
-      <c r="F125" s="174"/>
+      <c r="B125" s="190"/>
+      <c r="C125" s="190"/>
+      <c r="D125" s="190"/>
+      <c r="E125" s="190"/>
+      <c r="F125" s="191"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7200,31 +7200,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="176" t="s">
+      <c r="B134" s="177" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="177"/>
+      <c r="C134" s="178"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="166">
+      <c r="E134" s="179">
         <v>12000</v>
       </c>
-      <c r="F134" s="167"/>
+      <c r="F134" s="180"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="172" t="s">
+      <c r="A135" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="173"/>
-      <c r="C135" s="173"/>
-      <c r="D135" s="173"/>
-      <c r="E135" s="173"/>
-      <c r="F135" s="174"/>
+      <c r="B135" s="190"/>
+      <c r="C135" s="190"/>
+      <c r="D135" s="190"/>
+      <c r="E135" s="190"/>
+      <c r="F135" s="191"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -7330,31 +7330,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="176" t="s">
+      <c r="B142" s="177" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="177"/>
+      <c r="C142" s="178"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="166">
+      <c r="E142" s="179">
         <v>12000</v>
       </c>
-      <c r="F142" s="167"/>
+      <c r="F142" s="180"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="172" t="s">
+      <c r="A143" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="173"/>
-      <c r="C143" s="173"/>
-      <c r="D143" s="173"/>
-      <c r="E143" s="173"/>
-      <c r="F143" s="174"/>
+      <c r="B143" s="190"/>
+      <c r="C143" s="190"/>
+      <c r="D143" s="190"/>
+      <c r="E143" s="190"/>
+      <c r="F143" s="191"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -7470,41 +7470,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="184" t="s">
+      <c r="B150" s="181" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="185"/>
+      <c r="C150" s="182"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="186">
+      <c r="E150" s="183">
         <v>12000</v>
       </c>
-      <c r="F150" s="187"/>
+      <c r="F150" s="184"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="175" t="s">
+      <c r="A151" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="175"/>
-      <c r="C151" s="175"/>
-      <c r="D151" s="175"/>
-      <c r="E151" s="175"/>
-      <c r="F151" s="175"/>
+      <c r="B151" s="186"/>
+      <c r="C151" s="186"/>
+      <c r="D151" s="186"/>
+      <c r="E151" s="186"/>
+      <c r="F151" s="186"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="188" t="s">
+      <c r="A154" s="185" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="188"/>
+      <c r="B154" s="185"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -7560,12 +7560,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="189" t="s">
+      <c r="A159" s="187" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="190"/>
-      <c r="C159" s="190"/>
-      <c r="D159" s="190"/>
+      <c r="B159" s="188"/>
+      <c r="C159" s="188"/>
+      <c r="D159" s="188"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -7623,12 +7623,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="175" t="s">
+      <c r="A163" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="175"/>
-      <c r="C163" s="175"/>
-      <c r="D163" s="175"/>
+      <c r="B163" s="186"/>
+      <c r="C163" s="186"/>
+      <c r="D163" s="186"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -9814,12 +9814,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="136" t="s">
+      <c r="A241" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="137"/>
-      <c r="C241" s="137"/>
-      <c r="D241" s="138"/>
+      <c r="B241" s="143"/>
+      <c r="C241" s="143"/>
+      <c r="D241" s="144"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -9968,12 +9968,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="136" t="s">
+      <c r="A254" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="137"/>
-      <c r="C254" s="137"/>
-      <c r="D254" s="138"/>
+      <c r="B254" s="143"/>
+      <c r="C254" s="143"/>
+      <c r="D254" s="144"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -9982,25 +9982,42 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="178" t="s">
+      <c r="A257" s="171" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="179"/>
-      <c r="C257" s="179"/>
-      <c r="D257" s="179"/>
-      <c r="E257" s="179"/>
-      <c r="F257" s="180"/>
+      <c r="B257" s="172"/>
+      <c r="C257" s="172"/>
+      <c r="D257" s="172"/>
+      <c r="E257" s="172"/>
+      <c r="F257" s="173"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="181"/>
-      <c r="B258" s="182"/>
-      <c r="C258" s="182"/>
-      <c r="D258" s="182"/>
-      <c r="E258" s="182"/>
-      <c r="F258" s="183"/>
+      <c r="A258" s="174"/>
+      <c r="B258" s="175"/>
+      <c r="C258" s="175"/>
+      <c r="D258" s="175"/>
+      <c r="E258" s="175"/>
+      <c r="F258" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B124:C124"/>
     <mergeCell ref="A257:F258"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="B142:C142"/>
@@ -10012,23 +10029,6 @@
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A254:D254"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A79:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10238,12 +10238,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="138"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -10257,13 +10257,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="186" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="175"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -10556,25 +10556,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="136" t="s">
+      <c r="A39" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="138"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="144"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="186" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="175"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="175"/>
-      <c r="E41" s="175"/>
+      <c r="B41" s="186"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -10783,12 +10783,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="191" t="s">
+      <c r="A70" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="192"/>
-      <c r="C70" s="192"/>
-      <c r="D70" s="193"/>
+      <c r="B70" s="198"/>
+      <c r="C70" s="198"/>
+      <c r="D70" s="199"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -10978,12 +10978,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="144"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -11238,12 +11238,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="144"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -11465,12 +11465,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -11509,13 +11509,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -11602,105 +11602,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="148" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="149">
+      <c r="C7" s="150">
         <v>2</v>
       </c>
-      <c r="D7" s="147" t="s">
+      <c r="D7" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="150">
+      <c r="E7" s="151">
         <v>567000</v>
       </c>
-      <c r="F7" s="150">
+      <c r="F7" s="151">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="147"/>
+      <c r="A8" s="148"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="147"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="147"/>
+      <c r="A10" s="148"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="147"/>
+      <c r="A11" s="148"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="147"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="147"/>
+      <c r="A13" s="148"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="147"/>
+      <c r="A14" s="148"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="147"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -11743,13 +11743,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -11835,7 +11835,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="147" t="s">
+      <c r="A24" s="148" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -11847,7 +11847,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="147"/>
+      <c r="A25" s="148"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -11866,7 +11866,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="147"/>
+      <c r="A26" s="148"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -11885,7 +11885,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="147"/>
+      <c r="A27" s="148"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -11923,13 +11923,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="147"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -11952,7 +11952,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="148" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -11964,7 +11964,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="147"/>
+      <c r="A33" s="148"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -11978,7 +11978,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="147"/>
+      <c r="A34" s="148"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -11992,7 +11992,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="147"/>
+      <c r="A35" s="148"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12006,7 +12006,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="147"/>
+      <c r="A36" s="148"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="147" t="s">
+      <c r="A37" s="148" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12032,7 +12032,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="147"/>
+      <c r="A38" s="148"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12051,7 +12051,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="147"/>
+      <c r="A39" s="148"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12070,7 +12070,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="147"/>
+      <c r="A40" s="148"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12089,7 +12089,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="147"/>
+      <c r="A41" s="148"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12108,7 +12108,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="147"/>
+      <c r="A42" s="148"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12149,13 +12149,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="144" t="s">
+      <c r="B45" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="146"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="147"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -12400,13 +12400,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="141" t="s">
+      <c r="A57" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="142"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="143"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="156"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -12424,13 +12424,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="139" t="s">
+      <c r="B59" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="139"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="139"/>
-      <c r="F59" s="139"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="152"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -12448,13 +12448,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="140" t="s">
+      <c r="B61" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
+      <c r="C61" s="153"/>
+      <c r="D61" s="153"/>
+      <c r="E61" s="153"/>
+      <c r="F61" s="153"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -12474,30 +12474,35 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="140" t="s">
+      <c r="B63" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
+      <c r="C63" s="153"/>
+      <c r="D63" s="153"/>
+      <c r="E63" s="153"/>
+      <c r="F63" s="153"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="140" t="s">
+      <c r="B64" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
+      <c r="C64" s="153"/>
+      <c r="D64" s="153"/>
+      <c r="E64" s="153"/>
+      <c r="F64" s="153"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A57:E57"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B19:F19"/>
@@ -12510,11 +12515,6 @@
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="F7:F15"/>
     <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12717,12 +12717,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -13099,12 +13099,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -13390,12 +13390,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="136" t="s">
+      <c r="A37" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="138"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -13697,12 +13697,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="136" t="s">
+      <c r="A63" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="144"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -13815,183 +13815,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="194">
+      <c r="A2" s="200">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="194">
-        <v>1</v>
-      </c>
-      <c r="D2" s="194">
+      <c r="C2" s="200">
+        <v>1</v>
+      </c>
+      <c r="D2" s="200">
         <v>42000</v>
       </c>
-      <c r="E2" s="194">
+      <c r="E2" s="200">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="195"/>
+      <c r="A3" s="201"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="195"/>
+      <c r="A4" s="201"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="195"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="195"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="195"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="195"/>
+      <c r="A8" s="201"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="195"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="195"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="195"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="195"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="195"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="195"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="195"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="195"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="195"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="195"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="195"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="195"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="195"/>
-      <c r="D14" s="195"/>
-      <c r="E14" s="195"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="195"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="195"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="195"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="195"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="195"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="195"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="195"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="195"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="196"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="175"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -14307,12 +14307,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="144"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -14565,12 +14565,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -14641,7 +14641,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -14654,177 +14654,177 @@
     <col min="6" max="6" width="18.33203125" style="65" customWidth="1"/>
     <col min="7" max="7" width="9.21875" style="65" customWidth="1"/>
     <col min="8" max="9" width="8.88671875" style="65"/>
-    <col min="10" max="10" width="8.88671875" style="203"/>
+    <col min="10" max="10" width="8.88671875" style="140"/>
     <col min="11" max="16384" width="8.88671875" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="136" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="197" t="s">
+      <c r="C1" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="197" t="s">
+      <c r="D1" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="197" t="s">
+      <c r="E1" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="197" t="s">
+      <c r="F1" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="197" t="s">
+      <c r="G1" s="136" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26.4">
-      <c r="A2" s="198">
-        <v>1</v>
-      </c>
-      <c r="B2" s="201" t="s">
+      <c r="A2" s="137">
+        <v>1</v>
+      </c>
+      <c r="B2" s="138" t="s">
         <v>436</v>
       </c>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="138" t="s">
         <v>437</v>
       </c>
-      <c r="D2" s="201">
+      <c r="D2" s="138">
         <v>50</v>
       </c>
-      <c r="E2" s="198">
+      <c r="E2" s="137">
         <v>950</v>
       </c>
-      <c r="F2" s="198">
+      <c r="F2" s="137">
         <v>250</v>
       </c>
-      <c r="G2" s="198">
+      <c r="G2" s="137">
         <f>D2*E2+F2</f>
         <v>47750</v>
       </c>
-      <c r="J2" s="202">
+      <c r="J2" s="139">
         <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="198">
+      <c r="A3" s="137">
         <v>2</v>
       </c>
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="138" t="s">
         <v>436</v>
       </c>
-      <c r="C3" s="201" t="s">
+      <c r="C3" s="138" t="s">
         <v>438</v>
       </c>
-      <c r="D3" s="201">
-        <v>1</v>
-      </c>
-      <c r="E3" s="198">
+      <c r="D3" s="138">
+        <v>1</v>
+      </c>
+      <c r="E3" s="137">
         <v>9900</v>
       </c>
-      <c r="F3" s="198">
+      <c r="F3" s="137">
         <v>500</v>
       </c>
-      <c r="G3" s="198">
+      <c r="G3" s="137">
         <f t="shared" ref="G3:G6" si="0">D3*E3+F3</f>
         <v>10400</v>
       </c>
-      <c r="J3" s="202">
+      <c r="J3" s="139">
         <v>7700</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="198">
+      <c r="A4" s="137">
         <v>3</v>
       </c>
-      <c r="B4" s="201" t="s">
+      <c r="B4" s="138" t="s">
         <v>436</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="138" t="s">
         <v>439</v>
       </c>
-      <c r="D4" s="201">
-        <v>1</v>
-      </c>
-      <c r="E4" s="198">
+      <c r="D4" s="138">
+        <v>1</v>
+      </c>
+      <c r="E4" s="137">
         <v>28000</v>
       </c>
-      <c r="F4" s="198">
+      <c r="F4" s="137">
         <v>2500</v>
       </c>
-      <c r="G4" s="198">
+      <c r="G4" s="137">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="J4" s="202">
+      <c r="J4" s="139">
         <v>17600</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="198">
+      <c r="A5" s="137">
         <v>4</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="138" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="138" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="201">
-        <v>1</v>
-      </c>
-      <c r="E5" s="198">
+      <c r="D5" s="138">
+        <v>1</v>
+      </c>
+      <c r="E5" s="137">
         <v>28000</v>
       </c>
-      <c r="F5" s="198">
+      <c r="F5" s="137">
         <v>2000</v>
       </c>
-      <c r="G5" s="198">
+      <c r="G5" s="137">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="J5" s="202">
+      <c r="J5" s="139">
         <v>16400</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1">
-      <c r="A6" s="198">
+      <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="199" t="s">
+      <c r="B6" s="204" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="198">
-        <v>1</v>
-      </c>
-      <c r="E6" s="198">
+      <c r="C6" s="204"/>
+      <c r="D6" s="137">
+        <v>1</v>
+      </c>
+      <c r="E6" s="137">
         <v>5000</v>
       </c>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198">
+      <c r="F6" s="137"/>
+      <c r="G6" s="137">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="200" t="s">
+      <c r="A7" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197">
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
         <v>123650</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="141" t="s">
         <v>445</v>
       </c>
     </row>
@@ -14850,154 +14850,154 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="26.4">
-      <c r="A21" s="197" t="s">
+      <c r="A21" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="197" t="s">
+      <c r="B21" s="136" t="s">
         <v>441</v>
       </c>
-      <c r="C21" s="197" t="s">
+      <c r="C21" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="197" t="s">
+      <c r="D21" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="197" t="s">
+      <c r="E21" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="197" t="s">
+      <c r="F21" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="197" t="s">
+      <c r="G21" s="136" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="26.4">
-      <c r="A22" s="198">
-        <v>1</v>
-      </c>
-      <c r="B22" s="201" t="s">
+      <c r="A22" s="137">
+        <v>1</v>
+      </c>
+      <c r="B22" s="138" t="s">
         <v>436</v>
       </c>
-      <c r="C22" s="201" t="s">
+      <c r="C22" s="138" t="s">
         <v>437</v>
       </c>
-      <c r="D22" s="201">
+      <c r="D22" s="138">
         <v>50</v>
       </c>
-      <c r="E22" s="198">
+      <c r="E22" s="137">
         <v>950</v>
       </c>
-      <c r="F22" s="198">
+      <c r="F22" s="137">
         <v>250</v>
       </c>
-      <c r="G22" s="198">
+      <c r="G22" s="137">
         <f>D22*E22+(D22*F22)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="198">
+      <c r="A23" s="137">
         <v>2</v>
       </c>
-      <c r="B23" s="201" t="s">
+      <c r="B23" s="138" t="s">
         <v>436</v>
       </c>
-      <c r="C23" s="201" t="s">
+      <c r="C23" s="138" t="s">
         <v>438</v>
       </c>
-      <c r="D23" s="201">
-        <v>1</v>
-      </c>
-      <c r="E23" s="198">
+      <c r="D23" s="138">
+        <v>1</v>
+      </c>
+      <c r="E23" s="137">
         <v>9900</v>
       </c>
-      <c r="F23" s="198">
+      <c r="F23" s="137">
         <v>500</v>
       </c>
-      <c r="G23" s="198">
+      <c r="G23" s="137">
         <f t="shared" ref="G23:G26" si="1">D23*E23+(D23*F23)</f>
         <v>10400</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="198">
+      <c r="A24" s="137">
         <v>3</v>
       </c>
-      <c r="B24" s="201" t="s">
+      <c r="B24" s="138" t="s">
         <v>436</v>
       </c>
-      <c r="C24" s="201" t="s">
+      <c r="C24" s="138" t="s">
         <v>439</v>
       </c>
-      <c r="D24" s="201">
-        <v>1</v>
-      </c>
-      <c r="E24" s="198">
+      <c r="D24" s="138">
+        <v>1</v>
+      </c>
+      <c r="E24" s="137">
         <v>28000</v>
       </c>
-      <c r="F24" s="198">
+      <c r="F24" s="137">
         <v>2500</v>
       </c>
-      <c r="G24" s="198">
+      <c r="G24" s="137">
         <f t="shared" si="1"/>
         <v>30500</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="198">
+      <c r="A25" s="137">
         <v>4</v>
       </c>
-      <c r="B25" s="201" t="s">
+      <c r="B25" s="138" t="s">
         <v>436</v>
       </c>
-      <c r="C25" s="201" t="s">
+      <c r="C25" s="138" t="s">
         <v>440</v>
       </c>
-      <c r="D25" s="201">
-        <v>1</v>
-      </c>
-      <c r="E25" s="198">
+      <c r="D25" s="138">
+        <v>1</v>
+      </c>
+      <c r="E25" s="137">
         <v>28000</v>
       </c>
-      <c r="F25" s="198">
+      <c r="F25" s="137">
         <v>2000</v>
       </c>
-      <c r="G25" s="198">
+      <c r="G25" s="137">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="198">
+      <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="199" t="s">
+      <c r="B26" s="204" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="199"/>
-      <c r="D26" s="198">
-        <v>1</v>
-      </c>
-      <c r="E26" s="198">
+      <c r="C26" s="204"/>
+      <c r="D26" s="137">
+        <v>1</v>
+      </c>
+      <c r="E26" s="137">
         <v>5000</v>
       </c>
-      <c r="F26" s="198"/>
-      <c r="G26" s="198">
+      <c r="F26" s="137"/>
+      <c r="G26" s="137">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="200" t="s">
+      <c r="A27" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="200"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="197"/>
-      <c r="G27" s="197">
+      <c r="B27" s="203"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
         <v>135900</v>
       </c>
@@ -15103,48 +15103,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="153"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="159"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="159"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="157" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="153"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -15232,12 +15232,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="159"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -15532,12 +15532,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="153"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -15783,12 +15783,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="151" t="s">
+      <c r="A31" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="152"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="153"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="159"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -16009,12 +16009,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="153"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -16089,13 +16089,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="160" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -16105,11 +16105,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="157"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="159"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16224,12 +16224,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="153"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="159"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -16444,12 +16444,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -16618,12 +16618,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="153"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -16707,12 +16707,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="166" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="20" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="21" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Intelligent Ideas 201" sheetId="23" r:id="rId23"/>
     <sheet name="Vision Designs 202" sheetId="24" r:id="rId24"/>
     <sheet name="K Amonkar &amp; Associates 203" sheetId="25" r:id="rId25"/>
+    <sheet name="Gonsalves 204" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="452">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -1601,6 +1602,24 @@
   </si>
   <si>
     <t>Installation will be started only on satisfactory site inspection and cabling check after the release of suppliy PO</t>
+  </si>
+  <si>
+    <t>WD Purple Surveillance Hard Disk 4` TB</t>
+  </si>
+  <si>
+    <t>Dahus 2MP IP Bullet with inbuilt Audio</t>
+  </si>
+  <si>
+    <t>Dahua NVR Professional Series 16CH</t>
+  </si>
+  <si>
+    <t>1) Dahua 4 MP Bullet camera @ 6500+- GST</t>
+  </si>
+  <si>
+    <t>1) Honeywell 4 MP Bullet with inbuilt Audio 4 MM lens @ 6900+- GST</t>
+  </si>
+  <si>
+    <t>levied</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2603,6 +2622,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3437,12 +3462,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="144"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="146"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -3568,12 +3593,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="146"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -3734,12 +3759,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -3823,12 +3848,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="166" t="s">
+      <c r="A19" s="168" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -3989,12 +4014,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4078,20 +4103,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="162" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="164"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="163"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4290,24 +4315,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="159"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="171" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -4507,12 +4532,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="157" t="s">
+      <c r="A30" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="159"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="161"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -4680,12 +4705,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="167" t="s">
+      <c r="A41" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="168"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="168"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -4920,24 +4945,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="159"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="172" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5101,12 +5126,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="157" t="s">
+      <c r="A28" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="161"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -5308,48 +5333,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="159"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="159"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="159"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -5440,48 +5465,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="158"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="159"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="159"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="157" t="s">
+      <c r="A20" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="159"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -5564,48 +5589,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="161"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="157" t="s">
+      <c r="A28" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="161"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="157" t="s">
+      <c r="A29" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="159"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="161"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="157" t="s">
+      <c r="A30" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="159"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="161"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -5636,7 +5661,7 @@
   <dimension ref="A1:S258"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5793,12 +5818,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="146"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -5922,12 +5947,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6087,12 +6112,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="142" t="s">
+      <c r="A38" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="144"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="146"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -6312,12 +6337,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="193" t="s">
+      <c r="A59" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="194"/>
-      <c r="C59" s="194"/>
-      <c r="D59" s="195"/>
+      <c r="B59" s="196"/>
+      <c r="C59" s="196"/>
+      <c r="D59" s="197"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -6329,10 +6354,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="196" t="s">
+      <c r="A63" s="198" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="196"/>
+      <c r="B63" s="198"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -6545,12 +6570,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="142" t="s">
+      <c r="A79" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="143"/>
-      <c r="C79" s="143"/>
-      <c r="D79" s="144"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="146"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -6774,12 +6799,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="142" t="s">
+      <c r="A99" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="143"/>
-      <c r="C99" s="143"/>
-      <c r="D99" s="143"/>
+      <c r="B99" s="145"/>
+      <c r="C99" s="145"/>
+      <c r="D99" s="145"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -6925,31 +6950,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="192" t="s">
+      <c r="B116" s="194" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="192"/>
+      <c r="C116" s="194"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="179">
+      <c r="E116" s="181">
         <v>9000</v>
       </c>
-      <c r="F116" s="180"/>
+      <c r="F116" s="182"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="142" t="s">
+      <c r="A117" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="143"/>
-      <c r="C117" s="143"/>
-      <c r="D117" s="143"/>
-      <c r="E117" s="143"/>
-      <c r="F117" s="144"/>
+      <c r="B117" s="145"/>
+      <c r="C117" s="145"/>
+      <c r="D117" s="145"/>
+      <c r="E117" s="145"/>
+      <c r="F117" s="146"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7065,31 +7090,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="192" t="s">
+      <c r="B124" s="194" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="192"/>
+      <c r="C124" s="194"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="151">
+      <c r="E124" s="153">
         <v>9000</v>
       </c>
-      <c r="F124" s="151"/>
+      <c r="F124" s="153"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="189" t="s">
+      <c r="A125" s="191" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="190"/>
-      <c r="C125" s="190"/>
-      <c r="D125" s="190"/>
-      <c r="E125" s="190"/>
-      <c r="F125" s="191"/>
+      <c r="B125" s="192"/>
+      <c r="C125" s="192"/>
+      <c r="D125" s="192"/>
+      <c r="E125" s="192"/>
+      <c r="F125" s="193"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7200,31 +7225,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="177" t="s">
+      <c r="B134" s="179" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="178"/>
+      <c r="C134" s="180"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="179">
+      <c r="E134" s="181">
         <v>12000</v>
       </c>
-      <c r="F134" s="180"/>
+      <c r="F134" s="182"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="189" t="s">
+      <c r="A135" s="191" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="190"/>
-      <c r="C135" s="190"/>
-      <c r="D135" s="190"/>
-      <c r="E135" s="190"/>
-      <c r="F135" s="191"/>
+      <c r="B135" s="192"/>
+      <c r="C135" s="192"/>
+      <c r="D135" s="192"/>
+      <c r="E135" s="192"/>
+      <c r="F135" s="193"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -7330,31 +7355,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="177" t="s">
+      <c r="B142" s="179" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="178"/>
+      <c r="C142" s="180"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="179">
+      <c r="E142" s="181">
         <v>12000</v>
       </c>
-      <c r="F142" s="180"/>
+      <c r="F142" s="182"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="189" t="s">
+      <c r="A143" s="191" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="190"/>
-      <c r="C143" s="190"/>
-      <c r="D143" s="190"/>
-      <c r="E143" s="190"/>
-      <c r="F143" s="191"/>
+      <c r="B143" s="192"/>
+      <c r="C143" s="192"/>
+      <c r="D143" s="192"/>
+      <c r="E143" s="192"/>
+      <c r="F143" s="193"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -7470,41 +7495,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="181" t="s">
+      <c r="B150" s="183" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="182"/>
+      <c r="C150" s="184"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="183">
+      <c r="E150" s="185">
         <v>12000</v>
       </c>
-      <c r="F150" s="184"/>
+      <c r="F150" s="186"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="186" t="s">
+      <c r="A151" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="186"/>
-      <c r="C151" s="186"/>
-      <c r="D151" s="186"/>
-      <c r="E151" s="186"/>
-      <c r="F151" s="186"/>
+      <c r="B151" s="188"/>
+      <c r="C151" s="188"/>
+      <c r="D151" s="188"/>
+      <c r="E151" s="188"/>
+      <c r="F151" s="188"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="185" t="s">
+      <c r="A154" s="187" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="185"/>
+      <c r="B154" s="187"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -7560,12 +7585,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="187" t="s">
+      <c r="A159" s="189" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="188"/>
-      <c r="C159" s="188"/>
-      <c r="D159" s="188"/>
+      <c r="B159" s="190"/>
+      <c r="C159" s="190"/>
+      <c r="D159" s="190"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -7623,12 +7648,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="186" t="s">
+      <c r="A163" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="186"/>
-      <c r="C163" s="186"/>
-      <c r="D163" s="186"/>
+      <c r="B163" s="188"/>
+      <c r="C163" s="188"/>
+      <c r="D163" s="188"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -9814,12 +9839,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="142" t="s">
+      <c r="A241" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="143"/>
-      <c r="C241" s="143"/>
-      <c r="D241" s="144"/>
+      <c r="B241" s="145"/>
+      <c r="C241" s="145"/>
+      <c r="D241" s="146"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -9968,12 +9993,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="142" t="s">
+      <c r="A254" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="143"/>
-      <c r="C254" s="143"/>
-      <c r="D254" s="144"/>
+      <c r="B254" s="145"/>
+      <c r="C254" s="145"/>
+      <c r="D254" s="146"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -9982,22 +10007,22 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="171" t="s">
+      <c r="A257" s="173" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="172"/>
-      <c r="C257" s="172"/>
-      <c r="D257" s="172"/>
-      <c r="E257" s="172"/>
-      <c r="F257" s="173"/>
+      <c r="B257" s="174"/>
+      <c r="C257" s="174"/>
+      <c r="D257" s="174"/>
+      <c r="E257" s="174"/>
+      <c r="F257" s="175"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="174"/>
-      <c r="B258" s="175"/>
-      <c r="C258" s="175"/>
-      <c r="D258" s="175"/>
-      <c r="E258" s="175"/>
-      <c r="F258" s="176"/>
+      <c r="A258" s="176"/>
+      <c r="B258" s="177"/>
+      <c r="C258" s="177"/>
+      <c r="D258" s="177"/>
+      <c r="E258" s="177"/>
+      <c r="F258" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -10238,12 +10263,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="146"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -10257,13 +10282,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="186" t="s">
+      <c r="A14" s="188" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -10556,25 +10581,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="142" t="s">
+      <c r="A39" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="144"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="146"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="188" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -10783,12 +10808,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="197" t="s">
+      <c r="A70" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="198"/>
-      <c r="C70" s="198"/>
-      <c r="D70" s="199"/>
+      <c r="B70" s="200"/>
+      <c r="C70" s="200"/>
+      <c r="D70" s="201"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -10978,12 +11003,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="144"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -11238,12 +11263,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="142" t="s">
+      <c r="A33" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="144"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="146"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -11465,12 +11490,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -11509,13 +11534,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -11602,105 +11627,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="150" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="150">
+      <c r="C7" s="152">
         <v>2</v>
       </c>
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="151">
+      <c r="E7" s="153">
         <v>567000</v>
       </c>
-      <c r="F7" s="151">
+      <c r="F7" s="153">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="148"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="150"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="148"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="150"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="148"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="148"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="150"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="148"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="150"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="148"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="148"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="148"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -11743,13 +11768,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="147"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="149"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -11835,7 +11860,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="148" t="s">
+      <c r="A24" s="150" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -11847,7 +11872,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="148"/>
+      <c r="A25" s="150"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -11866,7 +11891,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="148"/>
+      <c r="A26" s="150"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -11885,7 +11910,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="148"/>
+      <c r="A27" s="150"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -11923,13 +11948,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="147"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="149"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -11952,7 +11977,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="150" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -11964,7 +11989,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="148"/>
+      <c r="A33" s="150"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -11978,7 +12003,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="148"/>
+      <c r="A34" s="150"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -11992,7 +12017,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="148"/>
+      <c r="A35" s="150"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12006,7 +12031,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="148"/>
+      <c r="A36" s="150"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12020,7 +12045,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="150" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12032,7 +12057,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="148"/>
+      <c r="A38" s="150"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12051,7 +12076,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="148"/>
+      <c r="A39" s="150"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12070,7 +12095,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="148"/>
+      <c r="A40" s="150"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12089,7 +12114,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="148"/>
+      <c r="A41" s="150"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12108,7 +12133,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="148"/>
+      <c r="A42" s="150"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12149,13 +12174,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="147"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="149"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -12400,13 +12425,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="154" t="s">
+      <c r="A57" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="155"/>
-      <c r="C57" s="155"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="156"/>
+      <c r="B57" s="157"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="157"/>
+      <c r="E57" s="158"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -12424,13 +12449,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="152" t="s">
+      <c r="B59" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="152"/>
-      <c r="D59" s="152"/>
-      <c r="E59" s="152"/>
-      <c r="F59" s="152"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="154"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -12448,13 +12473,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="153" t="s">
+      <c r="B61" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="153"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="153"/>
-      <c r="F61" s="153"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -12474,26 +12499,26 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="153"/>
-      <c r="D63" s="153"/>
-      <c r="E63" s="153"/>
-      <c r="F63" s="153"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="153" t="s">
+      <c r="B64" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="153"/>
-      <c r="D64" s="153"/>
-      <c r="E64" s="153"/>
-      <c r="F64" s="153"/>
+      <c r="C64" s="155"/>
+      <c r="D64" s="155"/>
+      <c r="E64" s="155"/>
+      <c r="F64" s="155"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
@@ -12717,12 +12742,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="146"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -12815,8 +12840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -13099,12 +13124,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -13390,12 +13415,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="142" t="s">
+      <c r="A37" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="144"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -13697,12 +13722,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="142" t="s">
+      <c r="A63" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="143"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="144"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="146"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -13815,183 +13840,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="200">
+      <c r="A2" s="202">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="200">
-        <v>1</v>
-      </c>
-      <c r="D2" s="200">
+      <c r="C2" s="202">
+        <v>1</v>
+      </c>
+      <c r="D2" s="202">
         <v>42000</v>
       </c>
-      <c r="E2" s="200">
+      <c r="E2" s="202">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="201"/>
+      <c r="A3" s="203"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="201"/>
+      <c r="A4" s="203"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="201"/>
+      <c r="A5" s="203"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="201"/>
+      <c r="A6" s="203"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="201"/>
+      <c r="A7" s="203"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="201"/>
+      <c r="A8" s="203"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="201"/>
-      <c r="D8" s="201"/>
-      <c r="E8" s="201"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="201"/>
+      <c r="A9" s="203"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="201"/>
+      <c r="A10" s="203"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="201"/>
+      <c r="A11" s="203"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="201"/>
+      <c r="A12" s="203"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="201"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="201"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="201"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="201"/>
+      <c r="A14" s="203"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="201"/>
+      <c r="A15" s="203"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="201"/>
+      <c r="A16" s="203"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="201"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="201"/>
+      <c r="A18" s="203"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="202"/>
+      <c r="A19" s="204"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="186" t="s">
+      <c r="A20" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="186"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -14307,12 +14332,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="144"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -14390,7 +14415,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14565,12 +14590,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="146"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -14640,7 +14665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -14793,10 +14818,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="206" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="204"/>
+      <c r="C6" s="206"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -14810,13 +14835,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -14972,10 +14997,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="204" t="s">
+      <c r="B26" s="206" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="204"/>
+      <c r="C26" s="206"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -14989,13 +15014,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="203" t="s">
+      <c r="A27" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="203"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -15008,6 +15033,588 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A27:E27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="38.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="143" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="143" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="143" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A3" s="142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="142">
+        <v>16</v>
+      </c>
+      <c r="D3" s="142">
+        <v>4000</v>
+      </c>
+      <c r="E3" s="142">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>64000</v>
+      </c>
+      <c r="G3">
+        <f>2450*2</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34.200000000000003" customHeight="1">
+      <c r="A4" s="142">
+        <v>2</v>
+      </c>
+      <c r="B4" s="142" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="142">
+        <v>1</v>
+      </c>
+      <c r="D4" s="142">
+        <v>19900</v>
+      </c>
+      <c r="E4" s="142">
+        <f t="shared" si="0"/>
+        <v>19900</v>
+      </c>
+      <c r="G4">
+        <f>12200*2</f>
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.8" customHeight="1">
+      <c r="A5" s="142">
+        <v>3</v>
+      </c>
+      <c r="B5" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="142">
+        <v>1</v>
+      </c>
+      <c r="D5" s="142">
+        <v>8600</v>
+      </c>
+      <c r="E5" s="142">
+        <f t="shared" si="0"/>
+        <v>8600</v>
+      </c>
+      <c r="G5">
+        <f>6500*2</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.4" customHeight="1">
+      <c r="A6" s="142">
+        <v>4</v>
+      </c>
+      <c r="B6" s="142" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="142">
+        <v>4</v>
+      </c>
+      <c r="D6" s="142">
+        <v>8490</v>
+      </c>
+      <c r="E6" s="142">
+        <f t="shared" si="0"/>
+        <v>33960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A7" s="142">
+        <v>5</v>
+      </c>
+      <c r="B7" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="142">
+        <v>35</v>
+      </c>
+      <c r="D7" s="142">
+        <v>150</v>
+      </c>
+      <c r="E7" s="142">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="142">
+        <v>6</v>
+      </c>
+      <c r="B8" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="142">
+        <v>16</v>
+      </c>
+      <c r="D8" s="142">
+        <v>100</v>
+      </c>
+      <c r="E8" s="142">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="142">
+        <v>7</v>
+      </c>
+      <c r="B9" s="126" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="142">
+        <v>650</v>
+      </c>
+      <c r="D9" s="142">
+        <v>90</v>
+      </c>
+      <c r="E9" s="142">
+        <f t="shared" si="0"/>
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="142">
+        <v>8</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="142">
+        <v>1</v>
+      </c>
+      <c r="D10" s="142">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="142">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="144" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="143">
+        <f>SUM(E3:E10)</f>
+        <v>196810</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="J20">
+        <f>4040*2</f>
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="6"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="143" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="143" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="143" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="142">
+        <v>1</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="C29" s="142">
+        <v>16</v>
+      </c>
+      <c r="D29" s="142">
+        <v>4500</v>
+      </c>
+      <c r="E29" s="142">
+        <f t="shared" ref="E29:E36" si="1">C29*D29</f>
+        <v>72000</v>
+      </c>
+      <c r="G29">
+        <f>2280*2</f>
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="142">
+        <v>3</v>
+      </c>
+      <c r="B30" s="142" t="s">
+        <v>448</v>
+      </c>
+      <c r="C30" s="142">
+        <v>1</v>
+      </c>
+      <c r="D30" s="142">
+        <v>13100</v>
+      </c>
+      <c r="E30" s="142">
+        <f t="shared" si="1"/>
+        <v>13100</v>
+      </c>
+      <c r="G30">
+        <f>6550*2</f>
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="142">
+        <v>3</v>
+      </c>
+      <c r="B31" s="142" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" s="142">
+        <v>1</v>
+      </c>
+      <c r="D31" s="142">
+        <v>8600</v>
+      </c>
+      <c r="E31" s="142">
+        <f t="shared" si="1"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="26.4">
+      <c r="A32" s="142">
+        <v>4</v>
+      </c>
+      <c r="B32" s="142" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="142">
+        <v>4</v>
+      </c>
+      <c r="D32" s="142">
+        <v>8600</v>
+      </c>
+      <c r="E32" s="142">
+        <f t="shared" si="1"/>
+        <v>34400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="26.4">
+      <c r="A33" s="142">
+        <v>5</v>
+      </c>
+      <c r="B33" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="142">
+        <v>35</v>
+      </c>
+      <c r="D33" s="142">
+        <v>150</v>
+      </c>
+      <c r="E33" s="142">
+        <f t="shared" si="1"/>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="142">
+        <v>6</v>
+      </c>
+      <c r="B34" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="142">
+        <v>16</v>
+      </c>
+      <c r="D34" s="142">
+        <v>100</v>
+      </c>
+      <c r="E34" s="142">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8">
+      <c r="A35" s="142">
+        <v>7</v>
+      </c>
+      <c r="B35" s="126" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="142">
+        <v>650</v>
+      </c>
+      <c r="D35" s="142">
+        <v>90</v>
+      </c>
+      <c r="E35" s="142">
+        <f t="shared" si="1"/>
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="142">
+        <v>8</v>
+      </c>
+      <c r="B36" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="142">
+        <v>1</v>
+      </c>
+      <c r="D36" s="142">
+        <v>5000</v>
+      </c>
+      <c r="E36" s="142">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="144" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="143">
+        <f>SUM(E29:E36)</f>
+        <v>198450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="6"/>
+      <c r="I49">
+        <f>3260*2</f>
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15103,48 +15710,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="159"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="161"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="159"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -15232,12 +15839,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -15532,12 +16139,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="157" t="s">
+      <c r="A15" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -15783,12 +16390,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="157" t="s">
+      <c r="A31" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="159"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="161"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -16009,12 +16616,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="159"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -16089,13 +16696,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="164"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -16105,11 +16712,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16224,12 +16831,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="159"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="161"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -16444,12 +17051,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="159"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -16618,12 +17225,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -16707,12 +17314,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="166" t="s">
+      <c r="A19" s="168" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="21" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="21" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Vision Designs 202" sheetId="24" r:id="rId24"/>
     <sheet name="K Amonkar &amp; Associates 203" sheetId="25" r:id="rId25"/>
     <sheet name="Gonsalves 204" sheetId="26" r:id="rId26"/>
+    <sheet name="Pinge 205" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="470">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -1619,7 +1620,61 @@
     <t>1) Honeywell 4 MP Bullet with inbuilt Audio 4 MM lens @ 6900+- GST</t>
   </si>
   <si>
-    <t>levied</t>
+    <t>If required extra Supply and laying of cat 6 cables through PVC pipe / casing caping to be chrarged as actualls @ 90/- per mtr + GST</t>
+  </si>
+  <si>
+    <t>2) Honeywell NVR Professional Series 10CH 11880/- + GST</t>
+  </si>
+  <si>
+    <t>I-HNVR-1220</t>
+  </si>
+  <si>
+    <t>I-HABC-2005PI</t>
+  </si>
+  <si>
+    <t>I-HA-DVR-2116-L</t>
+  </si>
+  <si>
+    <t>4 + 2 Port POE Giga Switch D link or Secue Eye or Similar</t>
+  </si>
+  <si>
+    <t>Supply and laying of cat 6 cables through provided PVC pipe / conduit to be chrarged as actualls</t>
+  </si>
+  <si>
+    <t>Dahua 2MP IP Bullet with inbuilt Audio</t>
+  </si>
+  <si>
+    <t>Cabling RJ 59 copper + 3 / Cat 6 with casing, cabling, laying</t>
+  </si>
+  <si>
+    <t>Dahua2MP Bullet Camera</t>
+  </si>
+  <si>
+    <t>Dahua 16 CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>32ch dvr dahua 9510/-</t>
+  </si>
+  <si>
+    <t>If required extra Supply and laying of cat 6 cables through provided  pipe / conduit to be chrarged as actualls @ 78/- per mtr + GST</t>
+  </si>
+  <si>
+    <t>16 + 2 Port POE Giga Switch D link or Secue Eye or Similar</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar 2MP IP Bullet with inbuilt Audio</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar 2MP Bullet Camera</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar 16 CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>Cabling RJ 59 copper + 3 / Cat 6 with casing, cabling, laying to be charged as actuals @ 78/- (per mtr) + GST</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar NVR Professional Series 20CH</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2622,6 +2677,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3462,12 +3523,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="146"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -3593,12 +3654,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="146"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -3759,12 +3820,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -3848,12 +3909,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="168" t="s">
+      <c r="A19" s="170" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -4014,12 +4075,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4103,20 +4164,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="164" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="164"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="166"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="167"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4315,24 +4376,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="171"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="173"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -4532,12 +4593,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="159" t="s">
+      <c r="A30" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="161"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="163"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -4705,12 +4766,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="169" t="s">
+      <c r="A41" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -4945,24 +5006,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="174" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5126,12 +5187,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="161"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="163"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -5333,48 +5394,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="159" t="s">
+      <c r="A10" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="161"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -5465,48 +5526,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="159" t="s">
+      <c r="A17" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="160"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="161"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="161"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="163"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="161"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -5589,48 +5650,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="160"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="161"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="163"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="161"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="159" t="s">
+      <c r="A30" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="161"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="163"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -5818,12 +5879,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="146"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -5947,12 +6008,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="144" t="s">
+      <c r="A21" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6112,12 +6173,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="144" t="s">
+      <c r="A38" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="145"/>
-      <c r="C38" s="145"/>
-      <c r="D38" s="146"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="148"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -6337,12 +6398,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="195" t="s">
+      <c r="A59" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="196"/>
-      <c r="C59" s="196"/>
-      <c r="D59" s="197"/>
+      <c r="B59" s="198"/>
+      <c r="C59" s="198"/>
+      <c r="D59" s="199"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -6354,10 +6415,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="198" t="s">
+      <c r="A63" s="200" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="198"/>
+      <c r="B63" s="200"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -6570,12 +6631,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="144" t="s">
+      <c r="A79" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="145"/>
-      <c r="C79" s="145"/>
-      <c r="D79" s="146"/>
+      <c r="B79" s="147"/>
+      <c r="C79" s="147"/>
+      <c r="D79" s="148"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -6799,12 +6860,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="144" t="s">
+      <c r="A99" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="145"/>
-      <c r="C99" s="145"/>
-      <c r="D99" s="145"/>
+      <c r="B99" s="147"/>
+      <c r="C99" s="147"/>
+      <c r="D99" s="147"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -6950,31 +7011,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="194" t="s">
+      <c r="B116" s="196" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="194"/>
+      <c r="C116" s="196"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="181">
+      <c r="E116" s="183">
         <v>9000</v>
       </c>
-      <c r="F116" s="182"/>
+      <c r="F116" s="184"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="144" t="s">
+      <c r="A117" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="145"/>
-      <c r="C117" s="145"/>
-      <c r="D117" s="145"/>
-      <c r="E117" s="145"/>
-      <c r="F117" s="146"/>
+      <c r="B117" s="147"/>
+      <c r="C117" s="147"/>
+      <c r="D117" s="147"/>
+      <c r="E117" s="147"/>
+      <c r="F117" s="148"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7090,31 +7151,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="194" t="s">
+      <c r="B124" s="196" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="194"/>
+      <c r="C124" s="196"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="153">
+      <c r="E124" s="155">
         <v>9000</v>
       </c>
-      <c r="F124" s="153"/>
+      <c r="F124" s="155"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="191" t="s">
+      <c r="A125" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="192"/>
-      <c r="C125" s="192"/>
-      <c r="D125" s="192"/>
-      <c r="E125" s="192"/>
-      <c r="F125" s="193"/>
+      <c r="B125" s="194"/>
+      <c r="C125" s="194"/>
+      <c r="D125" s="194"/>
+      <c r="E125" s="194"/>
+      <c r="F125" s="195"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7225,31 +7286,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="179" t="s">
+      <c r="B134" s="181" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="180"/>
+      <c r="C134" s="182"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="181">
+      <c r="E134" s="183">
         <v>12000</v>
       </c>
-      <c r="F134" s="182"/>
+      <c r="F134" s="184"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="191" t="s">
+      <c r="A135" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="192"/>
-      <c r="C135" s="192"/>
-      <c r="D135" s="192"/>
-      <c r="E135" s="192"/>
-      <c r="F135" s="193"/>
+      <c r="B135" s="194"/>
+      <c r="C135" s="194"/>
+      <c r="D135" s="194"/>
+      <c r="E135" s="194"/>
+      <c r="F135" s="195"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -7355,31 +7416,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="179" t="s">
+      <c r="B142" s="181" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="180"/>
+      <c r="C142" s="182"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="181">
+      <c r="E142" s="183">
         <v>12000</v>
       </c>
-      <c r="F142" s="182"/>
+      <c r="F142" s="184"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="191" t="s">
+      <c r="A143" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="192"/>
-      <c r="C143" s="192"/>
-      <c r="D143" s="192"/>
-      <c r="E143" s="192"/>
-      <c r="F143" s="193"/>
+      <c r="B143" s="194"/>
+      <c r="C143" s="194"/>
+      <c r="D143" s="194"/>
+      <c r="E143" s="194"/>
+      <c r="F143" s="195"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -7495,41 +7556,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="183" t="s">
+      <c r="B150" s="185" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="184"/>
+      <c r="C150" s="186"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="185">
+      <c r="E150" s="187">
         <v>12000</v>
       </c>
-      <c r="F150" s="186"/>
+      <c r="F150" s="188"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="188" t="s">
+      <c r="A151" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="188"/>
-      <c r="C151" s="188"/>
-      <c r="D151" s="188"/>
-      <c r="E151" s="188"/>
-      <c r="F151" s="188"/>
+      <c r="B151" s="190"/>
+      <c r="C151" s="190"/>
+      <c r="D151" s="190"/>
+      <c r="E151" s="190"/>
+      <c r="F151" s="190"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="187" t="s">
+      <c r="A154" s="189" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="187"/>
+      <c r="B154" s="189"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -7585,12 +7646,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="189" t="s">
+      <c r="A159" s="191" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="190"/>
-      <c r="C159" s="190"/>
-      <c r="D159" s="190"/>
+      <c r="B159" s="192"/>
+      <c r="C159" s="192"/>
+      <c r="D159" s="192"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -7648,12 +7709,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="188" t="s">
+      <c r="A163" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="188"/>
-      <c r="C163" s="188"/>
-      <c r="D163" s="188"/>
+      <c r="B163" s="190"/>
+      <c r="C163" s="190"/>
+      <c r="D163" s="190"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -9839,12 +9900,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="144" t="s">
+      <c r="A241" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="145"/>
-      <c r="C241" s="145"/>
-      <c r="D241" s="146"/>
+      <c r="B241" s="147"/>
+      <c r="C241" s="147"/>
+      <c r="D241" s="148"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -9993,12 +10054,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="144" t="s">
+      <c r="A254" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="145"/>
-      <c r="C254" s="145"/>
-      <c r="D254" s="146"/>
+      <c r="B254" s="147"/>
+      <c r="C254" s="147"/>
+      <c r="D254" s="148"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -10007,22 +10068,22 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="173" t="s">
+      <c r="A257" s="175" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="174"/>
-      <c r="C257" s="174"/>
-      <c r="D257" s="174"/>
-      <c r="E257" s="174"/>
-      <c r="F257" s="175"/>
+      <c r="B257" s="176"/>
+      <c r="C257" s="176"/>
+      <c r="D257" s="176"/>
+      <c r="E257" s="176"/>
+      <c r="F257" s="177"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="176"/>
-      <c r="B258" s="177"/>
-      <c r="C258" s="177"/>
-      <c r="D258" s="177"/>
-      <c r="E258" s="177"/>
-      <c r="F258" s="178"/>
+      <c r="A258" s="178"/>
+      <c r="B258" s="179"/>
+      <c r="C258" s="179"/>
+      <c r="D258" s="179"/>
+      <c r="E258" s="179"/>
+      <c r="F258" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -10263,12 +10324,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="146"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -10282,13 +10343,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="190" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="188"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -10581,25 +10642,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="144" t="s">
+      <c r="A39" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="146"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="148"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="188" t="s">
+      <c r="A41" s="190" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
+      <c r="B41" s="190"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -10808,12 +10869,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="199" t="s">
+      <c r="A70" s="201" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="200"/>
-      <c r="C70" s="200"/>
-      <c r="D70" s="201"/>
+      <c r="B70" s="202"/>
+      <c r="C70" s="202"/>
+      <c r="D70" s="203"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -10836,7 +10897,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -11003,12 +11064,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -11263,12 +11324,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="144" t="s">
+      <c r="A33" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -11490,12 +11551,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -11534,13 +11595,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -11627,105 +11688,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="152" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="152">
+      <c r="C7" s="154">
         <v>2</v>
       </c>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="153">
+      <c r="E7" s="155">
         <v>567000</v>
       </c>
-      <c r="F7" s="153">
+      <c r="F7" s="155">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="150"/>
+      <c r="A8" s="152"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="150"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="150"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="150"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="150"/>
+      <c r="A12" s="152"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="150"/>
+      <c r="A13" s="152"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="150"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="150"/>
+      <c r="A15" s="152"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -11768,13 +11829,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="149"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="151"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -11860,7 +11921,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="152" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -11872,7 +11933,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="150"/>
+      <c r="A25" s="152"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -11891,7 +11952,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="150"/>
+      <c r="A26" s="152"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -11910,7 +11971,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="150"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -11948,13 +12009,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="147" t="s">
+      <c r="B30" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="149"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="151"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -11977,7 +12038,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="150" t="s">
+      <c r="A32" s="152" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -11989,7 +12050,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="150"/>
+      <c r="A33" s="152"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12003,7 +12064,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="150"/>
+      <c r="A34" s="152"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12017,7 +12078,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="150"/>
+      <c r="A35" s="152"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12031,7 +12092,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="150"/>
+      <c r="A36" s="152"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12045,7 +12106,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="152" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12057,7 +12118,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="150"/>
+      <c r="A38" s="152"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12076,7 +12137,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="150"/>
+      <c r="A39" s="152"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12095,7 +12156,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="150"/>
+      <c r="A40" s="152"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12114,7 +12175,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="150"/>
+      <c r="A41" s="152"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12133,7 +12194,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="150"/>
+      <c r="A42" s="152"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12174,13 +12235,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="147" t="s">
+      <c r="B45" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="149"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="151"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -12425,13 +12486,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="156" t="s">
+      <c r="A57" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="157"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="158"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="160"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -12449,13 +12510,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="154" t="s">
+      <c r="B59" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -12473,13 +12534,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="155" t="s">
+      <c r="B61" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="155"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="157"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -12499,26 +12560,26 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="155" t="s">
+      <c r="B63" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="155"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="157"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="155" t="s">
+      <c r="B64" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="155"/>
-      <c r="D64" s="155"/>
-      <c r="E64" s="155"/>
-      <c r="F64" s="155"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="157"/>
+      <c r="F64" s="157"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
@@ -12551,7 +12612,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12742,12 +12803,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="146"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -12840,7 +12901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
@@ -13124,12 +13185,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="146"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -13415,12 +13476,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="144" t="s">
+      <c r="A37" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="146"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="148"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -13722,12 +13783,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="144" t="s">
+      <c r="A63" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="145"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="146"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="148"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -13840,183 +13901,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="202">
+      <c r="A2" s="204">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="202">
-        <v>1</v>
-      </c>
-      <c r="D2" s="202">
+      <c r="C2" s="204">
+        <v>1</v>
+      </c>
+      <c r="D2" s="204">
         <v>42000</v>
       </c>
-      <c r="E2" s="202">
+      <c r="E2" s="204">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="203"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="203"/>
+      <c r="A4" s="205"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="203"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="203"/>
+      <c r="A6" s="205"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="203"/>
+      <c r="A7" s="205"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="203"/>
+      <c r="A8" s="205"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="203"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="205"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="203"/>
+      <c r="A10" s="205"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="203"/>
+      <c r="A11" s="205"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="203"/>
+      <c r="A12" s="205"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="203"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="203"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="203"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="205"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="203"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="203"/>
+      <c r="A16" s="205"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="203"/>
+      <c r="A17" s="205"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="203"/>
+      <c r="A18" s="205"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="204"/>
+      <c r="A19" s="206"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="188" t="s">
+      <c r="A20" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="188"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="190"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -14129,7 +14190,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14332,12 +14393,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -14415,7 +14476,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14590,12 +14651,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="146"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -14665,8 +14726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -14818,10 +14879,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="208" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="206"/>
+      <c r="C6" s="208"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -14835,13 +14896,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -14997,10 +15058,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="206" t="s">
+      <c r="B26" s="208" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="206"/>
+      <c r="C26" s="208"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -15014,13 +15075,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="205" t="s">
+      <c r="A27" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="205"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="205"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -15041,15 +15102,15 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
     <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15232,12 +15293,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -15276,7 +15337,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>223</v>
+        <v>451</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -15454,7 +15515,7 @@
         <v>34400</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="26.4">
+    <row r="33" spans="1:5">
       <c r="A33" s="142">
         <v>5</v>
       </c>
@@ -15527,12 +15588,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="144" t="s">
+      <c r="A37" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="146"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="148"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -15589,26 +15650,6 @@
       <c r="I49">
         <f>3260*2</f>
         <v>6520</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -15618,6 +15659,1008 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="48.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="40"/>
+    <col min="9" max="9" width="19.21875" style="40" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="23.4" customHeight="1">
+      <c r="A2" s="145" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A3" s="144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="144">
+        <v>9</v>
+      </c>
+      <c r="D3" s="144">
+        <v>4000</v>
+      </c>
+      <c r="E3" s="144">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>36000</v>
+      </c>
+      <c r="H3" s="40">
+        <f>2450*2</f>
+        <v>4900</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="144">
+        <v>2</v>
+      </c>
+      <c r="B4" s="144" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="144">
+        <v>1</v>
+      </c>
+      <c r="D4" s="144">
+        <v>23600</v>
+      </c>
+      <c r="E4" s="144">
+        <f t="shared" si="0"/>
+        <v>23600</v>
+      </c>
+      <c r="H4" s="40">
+        <f>12200*2</f>
+        <v>24400</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.2" customHeight="1">
+      <c r="A5" s="144">
+        <v>3</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="144">
+        <v>1</v>
+      </c>
+      <c r="D5" s="144">
+        <v>8600</v>
+      </c>
+      <c r="E5" s="144">
+        <f t="shared" si="0"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A6" s="144">
+        <v>4</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="144">
+        <v>1</v>
+      </c>
+      <c r="D6" s="144">
+        <v>15900</v>
+      </c>
+      <c r="E6" s="144">
+        <f t="shared" si="0"/>
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A7" s="144">
+        <v>5</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="144">
+        <v>22</v>
+      </c>
+      <c r="D7" s="144">
+        <v>150</v>
+      </c>
+      <c r="E7" s="144">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="144">
+        <v>6</v>
+      </c>
+      <c r="B8" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="144">
+        <v>9</v>
+      </c>
+      <c r="D8" s="144">
+        <v>100</v>
+      </c>
+      <c r="E8" s="144">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="26.4">
+      <c r="A9" s="144">
+        <v>7</v>
+      </c>
+      <c r="B9" s="144" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="144">
+        <v>90</v>
+      </c>
+      <c r="D9" s="144">
+        <v>78</v>
+      </c>
+      <c r="E9" s="144">
+        <f t="shared" si="0"/>
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="144">
+        <v>8</v>
+      </c>
+      <c r="B10" s="144" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="144">
+        <v>1</v>
+      </c>
+      <c r="D10" s="144">
+        <v>4500</v>
+      </c>
+      <c r="E10" s="144">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="146" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="145">
+        <f>SUM(E3:E10)</f>
+        <v>99820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="H15" s="40">
+        <f>5940*2</f>
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="145" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="144">
+        <v>1</v>
+      </c>
+      <c r="B27" s="144" t="s">
+        <v>466</v>
+      </c>
+      <c r="C27" s="144">
+        <v>9</v>
+      </c>
+      <c r="D27" s="144">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="144">
+        <f t="shared" ref="E27:E35" si="1">C27*D27</f>
+        <v>21600</v>
+      </c>
+      <c r="H27" s="40">
+        <f>1230*2</f>
+        <v>2460</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="144">
+        <v>2</v>
+      </c>
+      <c r="B28" s="144" t="s">
+        <v>467</v>
+      </c>
+      <c r="C28" s="144">
+        <v>1</v>
+      </c>
+      <c r="D28" s="144">
+        <v>10640</v>
+      </c>
+      <c r="E28" s="144">
+        <f t="shared" si="1"/>
+        <v>10640</v>
+      </c>
+      <c r="H28" s="40">
+        <f>5320*2</f>
+        <v>10640</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="144">
+        <v>3</v>
+      </c>
+      <c r="B29" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="144">
+        <v>18</v>
+      </c>
+      <c r="D29" s="144">
+        <v>60</v>
+      </c>
+      <c r="E29" s="144">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="144">
+        <v>4</v>
+      </c>
+      <c r="B30" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="144">
+        <v>9</v>
+      </c>
+      <c r="D30" s="144">
+        <v>50</v>
+      </c>
+      <c r="E30" s="144">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="144">
+        <v>5</v>
+      </c>
+      <c r="B31" s="144" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="144">
+        <v>1</v>
+      </c>
+      <c r="D31" s="144">
+        <v>1990</v>
+      </c>
+      <c r="E31" s="144">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="144">
+        <v>6</v>
+      </c>
+      <c r="B32" s="144" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="144">
+        <v>1</v>
+      </c>
+      <c r="D32" s="144">
+        <v>8600</v>
+      </c>
+      <c r="E32" s="144">
+        <f t="shared" si="1"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="144">
+        <v>7</v>
+      </c>
+      <c r="B33" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="144">
+        <v>9</v>
+      </c>
+      <c r="D33" s="144">
+        <v>100</v>
+      </c>
+      <c r="E33" s="144">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="26.4">
+      <c r="A34" s="144">
+        <v>8</v>
+      </c>
+      <c r="B34" s="144" t="s">
+        <v>459</v>
+      </c>
+      <c r="C34" s="144">
+        <v>90</v>
+      </c>
+      <c r="D34" s="144">
+        <v>78</v>
+      </c>
+      <c r="E34" s="144">
+        <f t="shared" si="1"/>
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="144">
+        <v>9</v>
+      </c>
+      <c r="B35" s="144" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="144">
+        <v>1</v>
+      </c>
+      <c r="D35" s="144">
+        <v>4500</v>
+      </c>
+      <c r="E35" s="144">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="146" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="145">
+        <f>SUM(E27:E35)</f>
+        <v>56780</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="145" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="144">
+        <v>1</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="C46" s="144">
+        <v>9</v>
+      </c>
+      <c r="D46" s="144">
+        <v>4300</v>
+      </c>
+      <c r="E46" s="144">
+        <f t="shared" ref="E46:E54" si="2">C46*D46</f>
+        <v>38700</v>
+      </c>
+      <c r="H46" s="40">
+        <f>2150*2</f>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="144">
+        <v>2</v>
+      </c>
+      <c r="B47" s="144" t="s">
+        <v>448</v>
+      </c>
+      <c r="C47" s="144">
+        <v>1</v>
+      </c>
+      <c r="D47" s="144">
+        <v>9320</v>
+      </c>
+      <c r="E47" s="144">
+        <f t="shared" si="2"/>
+        <v>9320</v>
+      </c>
+      <c r="H47" s="40">
+        <f>4660*2</f>
+        <v>9320</v>
+      </c>
+      <c r="J47" s="40" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="144">
+        <v>3</v>
+      </c>
+      <c r="B48" s="144" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="144">
+        <v>1</v>
+      </c>
+      <c r="D48" s="144">
+        <v>8600</v>
+      </c>
+      <c r="E48" s="144">
+        <f t="shared" si="2"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.4" customHeight="1">
+      <c r="A49" s="144">
+        <v>4</v>
+      </c>
+      <c r="B49" s="144" t="s">
+        <v>456</v>
+      </c>
+      <c r="C49" s="144">
+        <v>1</v>
+      </c>
+      <c r="D49" s="144">
+        <v>9000</v>
+      </c>
+      <c r="E49" s="144">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.4" customHeight="1">
+      <c r="A50" s="144">
+        <v>5</v>
+      </c>
+      <c r="B50" s="144" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="144">
+        <v>1</v>
+      </c>
+      <c r="D50" s="144">
+        <v>6600</v>
+      </c>
+      <c r="E50" s="144">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="144">
+        <v>6</v>
+      </c>
+      <c r="B51" s="144" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="144">
+        <v>22</v>
+      </c>
+      <c r="D51" s="144">
+        <v>150</v>
+      </c>
+      <c r="E51" s="144">
+        <f t="shared" si="2"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="144">
+        <v>7</v>
+      </c>
+      <c r="B52" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="144">
+        <v>9</v>
+      </c>
+      <c r="D52" s="144">
+        <v>100</v>
+      </c>
+      <c r="E52" s="144">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="26.4">
+      <c r="A53" s="144">
+        <v>8</v>
+      </c>
+      <c r="B53" s="144" t="s">
+        <v>457</v>
+      </c>
+      <c r="C53" s="144">
+        <v>90</v>
+      </c>
+      <c r="D53" s="144">
+        <v>78</v>
+      </c>
+      <c r="E53" s="144">
+        <f t="shared" si="2"/>
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="144">
+        <v>9</v>
+      </c>
+      <c r="B54" s="144" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="144">
+        <v>1</v>
+      </c>
+      <c r="D54" s="144">
+        <v>3500</v>
+      </c>
+      <c r="E54" s="144">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="146" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="147"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="145">
+        <f>SUM(E46:E54)</f>
+        <v>86940</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="145" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="144">
+        <v>1</v>
+      </c>
+      <c r="B59" s="144" t="s">
+        <v>460</v>
+      </c>
+      <c r="C59" s="144">
+        <v>9</v>
+      </c>
+      <c r="D59" s="144">
+        <v>1760</v>
+      </c>
+      <c r="E59" s="144">
+        <f t="shared" ref="E59:E67" si="3">C59*D59</f>
+        <v>15840</v>
+      </c>
+      <c r="H59" s="40">
+        <f>880*2</f>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="144">
+        <v>2</v>
+      </c>
+      <c r="B60" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="C60" s="144">
+        <v>1</v>
+      </c>
+      <c r="D60" s="144">
+        <v>10100</v>
+      </c>
+      <c r="E60" s="144">
+        <f t="shared" si="3"/>
+        <v>10100</v>
+      </c>
+      <c r="H60" s="40">
+        <f>5050*2</f>
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="144">
+        <v>3</v>
+      </c>
+      <c r="B61" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="144">
+        <v>18</v>
+      </c>
+      <c r="D61" s="144">
+        <v>60</v>
+      </c>
+      <c r="E61" s="144">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="144">
+        <v>4</v>
+      </c>
+      <c r="B62" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="144">
+        <v>9</v>
+      </c>
+      <c r="D62" s="144">
+        <v>50</v>
+      </c>
+      <c r="E62" s="144">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="144">
+        <v>5</v>
+      </c>
+      <c r="B63" s="144" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="144">
+        <v>1</v>
+      </c>
+      <c r="D63" s="144">
+        <v>1890</v>
+      </c>
+      <c r="E63" s="144">
+        <f t="shared" si="3"/>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="144">
+        <v>6</v>
+      </c>
+      <c r="B64" s="144" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="144">
+        <v>1</v>
+      </c>
+      <c r="D64" s="144">
+        <v>8600</v>
+      </c>
+      <c r="E64" s="144">
+        <f t="shared" si="3"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="144">
+        <v>7</v>
+      </c>
+      <c r="B65" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="144">
+        <v>9</v>
+      </c>
+      <c r="D65" s="144">
+        <v>100</v>
+      </c>
+      <c r="E65" s="144">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="26.4">
+      <c r="A66" s="144">
+        <v>8</v>
+      </c>
+      <c r="B66" s="144" t="s">
+        <v>459</v>
+      </c>
+      <c r="C66" s="144">
+        <v>90</v>
+      </c>
+      <c r="D66" s="144">
+        <v>78</v>
+      </c>
+      <c r="E66" s="144">
+        <f t="shared" si="3"/>
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="144">
+        <v>9</v>
+      </c>
+      <c r="B67" s="144" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="144">
+        <v>1</v>
+      </c>
+      <c r="D67" s="144">
+        <v>3500</v>
+      </c>
+      <c r="E67" s="144">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="146" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="147"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="145">
+        <f>SUM(E59:E67)</f>
+        <v>49380</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A36:D36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15710,48 +16753,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -15839,12 +16882,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -16139,12 +17182,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -16390,12 +17433,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="159" t="s">
+      <c r="A31" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="161"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="163"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -16616,12 +17659,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -16696,13 +17739,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="164" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="164"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="166"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -16712,11 +17755,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="167"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16831,12 +17874,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -17051,12 +18094,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -17225,12 +18268,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -17314,12 +18357,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="168" t="s">
+      <c r="A19" s="170" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="21" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="22" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="K Amonkar &amp; Associates 203" sheetId="25" r:id="rId25"/>
     <sheet name="Gonsalves 204" sheetId="26" r:id="rId26"/>
     <sheet name="Pinge 205" sheetId="27" r:id="rId27"/>
+    <sheet name="Joylin 206" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="474">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -1675,6 +1676,18 @@
   </si>
   <si>
     <t>Honeywell or Similar NVR Professional Series 20CH</t>
+  </si>
+  <si>
+    <t>Supply and laying of cat 6 cables through PVC pipe / casing caping to be chrarged as actualls @ 90/- per mtr + GST</t>
+  </si>
+  <si>
+    <t>2) Dahua NVR Professional Series 16CH @13100/-+ GST</t>
+  </si>
+  <si>
+    <t>Dahua NVR Professional Series 8CH</t>
+  </si>
+  <si>
+    <t>2) Honeywell NVR Professional Series 20CH @14120/-+GST</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2690,6 +2703,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2699,6 +2718,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2720,21 +2754,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2777,6 +2796,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2795,18 +2853,6 @@
     <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2822,38 +2868,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3523,12 +3542,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="146" t="s">
+      <c r="A18" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -3654,12 +3673,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="146" t="s">
+      <c r="A27" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -3820,12 +3839,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -3909,12 +3928,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -4075,12 +4094,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4164,20 +4183,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="165"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="166"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="169"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4376,24 +4395,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="175" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -4593,12 +4612,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="162"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="163"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="165"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -4766,12 +4785,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -5006,24 +5025,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="176" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="174"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5187,12 +5206,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="163"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -5394,48 +5413,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="165"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="163"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="165"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -5526,48 +5545,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="161" t="s">
+      <c r="A17" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="162"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="163"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="165"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="161" t="s">
+      <c r="A18" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="162"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="165"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="163"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="165"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -5650,48 +5669,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="162"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="163"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="163"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="165"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="162"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="163"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="165"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -5879,12 +5898,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -6008,12 +6027,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6173,12 +6192,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="146" t="s">
+      <c r="A38" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="147"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="148"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="150"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -6398,12 +6417,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="197" t="s">
+      <c r="A59" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="198"/>
-      <c r="C59" s="198"/>
-      <c r="D59" s="199"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -6415,10 +6434,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="200" t="s">
+      <c r="A63" s="183" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="200"/>
+      <c r="B63" s="183"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -6631,12 +6650,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="147"/>
-      <c r="C79" s="147"/>
-      <c r="D79" s="148"/>
+      <c r="B79" s="149"/>
+      <c r="C79" s="149"/>
+      <c r="D79" s="150"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -6860,12 +6879,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="146" t="s">
+      <c r="A99" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="147"/>
-      <c r="C99" s="147"/>
-      <c r="D99" s="147"/>
+      <c r="B99" s="149"/>
+      <c r="C99" s="149"/>
+      <c r="D99" s="149"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -7011,31 +7030,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="196" t="s">
+      <c r="B116" s="177" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="196"/>
+      <c r="C116" s="177"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="183">
+      <c r="E116" s="178">
         <v>9000</v>
       </c>
-      <c r="F116" s="184"/>
+      <c r="F116" s="179"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="146" t="s">
+      <c r="A117" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="147"/>
-      <c r="C117" s="147"/>
-      <c r="D117" s="147"/>
-      <c r="E117" s="147"/>
-      <c r="F117" s="148"/>
+      <c r="B117" s="149"/>
+      <c r="C117" s="149"/>
+      <c r="D117" s="149"/>
+      <c r="E117" s="149"/>
+      <c r="F117" s="150"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7151,31 +7170,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="196" t="s">
+      <c r="B124" s="177" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="196"/>
+      <c r="C124" s="177"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="155">
+      <c r="E124" s="162">
         <v>9000</v>
       </c>
-      <c r="F124" s="155"/>
+      <c r="F124" s="162"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="193" t="s">
+      <c r="A125" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="194"/>
-      <c r="C125" s="194"/>
-      <c r="D125" s="194"/>
-      <c r="E125" s="194"/>
-      <c r="F125" s="195"/>
+      <c r="B125" s="185"/>
+      <c r="C125" s="185"/>
+      <c r="D125" s="185"/>
+      <c r="E125" s="185"/>
+      <c r="F125" s="186"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7286,31 +7305,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="181" t="s">
+      <c r="B134" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="182"/>
+      <c r="C134" s="189"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="183">
+      <c r="E134" s="178">
         <v>12000</v>
       </c>
-      <c r="F134" s="184"/>
+      <c r="F134" s="179"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="193" t="s">
+      <c r="A135" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="194"/>
-      <c r="C135" s="194"/>
-      <c r="D135" s="194"/>
-      <c r="E135" s="194"/>
-      <c r="F135" s="195"/>
+      <c r="B135" s="185"/>
+      <c r="C135" s="185"/>
+      <c r="D135" s="185"/>
+      <c r="E135" s="185"/>
+      <c r="F135" s="186"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -7416,31 +7435,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="181" t="s">
+      <c r="B142" s="188" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="182"/>
+      <c r="C142" s="189"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="183">
+      <c r="E142" s="178">
         <v>12000</v>
       </c>
-      <c r="F142" s="184"/>
+      <c r="F142" s="179"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="193" t="s">
+      <c r="A143" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="194"/>
-      <c r="C143" s="194"/>
-      <c r="D143" s="194"/>
-      <c r="E143" s="194"/>
-      <c r="F143" s="195"/>
+      <c r="B143" s="185"/>
+      <c r="C143" s="185"/>
+      <c r="D143" s="185"/>
+      <c r="E143" s="185"/>
+      <c r="F143" s="186"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -7556,41 +7575,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="185" t="s">
+      <c r="B150" s="196" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="186"/>
+      <c r="C150" s="197"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="187">
+      <c r="E150" s="198">
         <v>12000</v>
       </c>
-      <c r="F150" s="188"/>
+      <c r="F150" s="199"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="190" t="s">
+      <c r="A151" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="190"/>
-      <c r="C151" s="190"/>
-      <c r="D151" s="190"/>
-      <c r="E151" s="190"/>
-      <c r="F151" s="190"/>
+      <c r="B151" s="187"/>
+      <c r="C151" s="187"/>
+      <c r="D151" s="187"/>
+      <c r="E151" s="187"/>
+      <c r="F151" s="187"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="189" t="s">
+      <c r="A154" s="200" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="189"/>
+      <c r="B154" s="200"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -7646,12 +7665,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="191" t="s">
+      <c r="A159" s="201" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="192"/>
-      <c r="C159" s="192"/>
-      <c r="D159" s="192"/>
+      <c r="B159" s="202"/>
+      <c r="C159" s="202"/>
+      <c r="D159" s="202"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -7709,12 +7728,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="190" t="s">
+      <c r="A163" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="190"/>
-      <c r="C163" s="190"/>
-      <c r="D163" s="190"/>
+      <c r="B163" s="187"/>
+      <c r="C163" s="187"/>
+      <c r="D163" s="187"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -9900,12 +9919,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="146" t="s">
+      <c r="A241" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="147"/>
-      <c r="C241" s="147"/>
-      <c r="D241" s="148"/>
+      <c r="B241" s="149"/>
+      <c r="C241" s="149"/>
+      <c r="D241" s="150"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -10054,12 +10073,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="146" t="s">
+      <c r="A254" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="147"/>
-      <c r="C254" s="147"/>
-      <c r="D254" s="148"/>
+      <c r="B254" s="149"/>
+      <c r="C254" s="149"/>
+      <c r="D254" s="150"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -10068,42 +10087,25 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="175" t="s">
+      <c r="A257" s="190" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="176"/>
-      <c r="C257" s="176"/>
-      <c r="D257" s="176"/>
-      <c r="E257" s="176"/>
-      <c r="F257" s="177"/>
+      <c r="B257" s="191"/>
+      <c r="C257" s="191"/>
+      <c r="D257" s="191"/>
+      <c r="E257" s="191"/>
+      <c r="F257" s="192"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="178"/>
-      <c r="B258" s="179"/>
-      <c r="C258" s="179"/>
-      <c r="D258" s="179"/>
-      <c r="E258" s="179"/>
-      <c r="F258" s="180"/>
+      <c r="A258" s="193"/>
+      <c r="B258" s="194"/>
+      <c r="C258" s="194"/>
+      <c r="D258" s="194"/>
+      <c r="E258" s="194"/>
+      <c r="F258" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B124:C124"/>
     <mergeCell ref="A257:F258"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="B142:C142"/>
@@ -10115,6 +10117,23 @@
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A254:D254"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A79:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10324,12 +10343,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="148"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -10343,13 +10362,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="187" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="190"/>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -10642,25 +10661,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="146" t="s">
+      <c r="A39" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="147"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="148"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="150"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="190" t="s">
+      <c r="A41" s="187" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="190"/>
-      <c r="C41" s="190"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -10869,12 +10888,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="201" t="s">
+      <c r="A70" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="202"/>
-      <c r="C70" s="202"/>
-      <c r="D70" s="203"/>
+      <c r="B70" s="204"/>
+      <c r="C70" s="204"/>
+      <c r="D70" s="205"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -11064,12 +11083,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -11324,12 +11343,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="148"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="150"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -11551,12 +11570,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -11595,13 +11614,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -11688,105 +11707,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="159" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="154">
+      <c r="C7" s="161">
         <v>2</v>
       </c>
-      <c r="D7" s="152" t="s">
+      <c r="D7" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="155">
+      <c r="E7" s="162">
         <v>567000</v>
       </c>
-      <c r="F7" s="155">
+      <c r="F7" s="162">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="152"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="152"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="154"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="152"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="154"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="152"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="154"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="152"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="152"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="152"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="152"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -11829,13 +11848,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="151"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -11921,7 +11940,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="159" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -11933,7 +11952,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="152"/>
+      <c r="A25" s="159"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -11952,7 +11971,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="152"/>
+      <c r="A26" s="159"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -11971,7 +11990,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="152"/>
+      <c r="A27" s="159"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -12009,13 +12028,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="149" t="s">
+      <c r="B30" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="151"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="158"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -12038,7 +12057,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="152" t="s">
+      <c r="A32" s="159" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -12050,7 +12069,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="152"/>
+      <c r="A33" s="159"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12064,7 +12083,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="152"/>
+      <c r="A34" s="159"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12078,7 +12097,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="152"/>
+      <c r="A35" s="159"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12092,7 +12111,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="152"/>
+      <c r="A36" s="159"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12106,7 +12125,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="159" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12118,7 +12137,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="152"/>
+      <c r="A38" s="159"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12137,7 +12156,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="152"/>
+      <c r="A39" s="159"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12156,7 +12175,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="152"/>
+      <c r="A40" s="159"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12175,7 +12194,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="152"/>
+      <c r="A41" s="159"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12194,7 +12213,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="152"/>
+      <c r="A42" s="159"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12235,13 +12254,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="149" t="s">
+      <c r="B45" s="156" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="151"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="158"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -12486,13 +12505,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="158" t="s">
+      <c r="A57" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="159"/>
-      <c r="C57" s="159"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="160"/>
+      <c r="B57" s="154"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="155"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -12510,13 +12529,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="156" t="s">
+      <c r="B59" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="156"/>
-      <c r="F59" s="156"/>
+      <c r="C59" s="151"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="151"/>
+      <c r="F59" s="151"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -12534,13 +12553,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="157" t="s">
+      <c r="B61" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="157"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="152"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="152"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -12560,35 +12579,30 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="157" t="s">
+      <c r="B63" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="157"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="152"/>
+      <c r="E63" s="152"/>
+      <c r="F63" s="152"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="157" t="s">
+      <c r="B64" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="157"/>
-      <c r="D64" s="157"/>
-      <c r="E64" s="157"/>
-      <c r="F64" s="157"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="152"/>
+      <c r="E64" s="152"/>
+      <c r="F64" s="152"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="A57:E57"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B19:F19"/>
@@ -12601,6 +12615,11 @@
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="F7:F15"/>
     <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12803,12 +12822,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -13185,12 +13204,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -13476,12 +13495,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="146" t="s">
+      <c r="A37" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="148"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="150"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -13783,12 +13802,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="146" t="s">
+      <c r="A63" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="147"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="148"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="150"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -13901,183 +13920,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="204">
+      <c r="A2" s="206">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="204">
-        <v>1</v>
-      </c>
-      <c r="D2" s="204">
+      <c r="C2" s="206">
+        <v>1</v>
+      </c>
+      <c r="D2" s="206">
         <v>42000</v>
       </c>
-      <c r="E2" s="204">
+      <c r="E2" s="206">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="205"/>
+      <c r="A3" s="207"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="205"/>
+      <c r="A4" s="207"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="205"/>
+      <c r="A5" s="207"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="205"/>
+      <c r="A6" s="207"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="205"/>
+      <c r="A7" s="207"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="205"/>
+      <c r="A8" s="207"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="205"/>
+      <c r="A9" s="207"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="205"/>
+      <c r="A10" s="207"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="205"/>
+      <c r="A11" s="207"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="205"/>
+      <c r="A12" s="207"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="205"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="205"/>
+      <c r="A13" s="207"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="205"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="205"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="205"/>
+      <c r="A14" s="207"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="205"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="205"/>
+      <c r="A15" s="207"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="205"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="205"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="205"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="205"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="205"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="205"/>
+      <c r="A17" s="207"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="205"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="205"/>
+      <c r="A18" s="207"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="207"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="206"/>
+      <c r="A19" s="208"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="208"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="190" t="s">
+      <c r="A20" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="190"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -14393,12 +14412,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -14651,12 +14670,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -14879,10 +14898,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="210" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="208"/>
+      <c r="C6" s="210"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -14896,13 +14915,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="209" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -15058,10 +15077,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="210" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="208"/>
+      <c r="C26" s="210"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -15075,13 +15094,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="207" t="s">
+      <c r="A27" s="209" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="207"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="207"/>
-      <c r="E27" s="207"/>
+      <c r="B27" s="209"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="209"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -15105,7 +15124,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15293,12 +15312,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -15588,12 +15607,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="146" t="s">
+      <c r="A37" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="147"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="148"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="150"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -15666,7 +15685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -15860,12 +15879,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
       <c r="E11" s="145">
         <f>SUM(E3:E10)</f>
         <v>99820</v>
@@ -16182,12 +16201,12 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="146" t="s">
+      <c r="A36" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="148"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="145">
         <f>SUM(E27:E35)</f>
         <v>56780</v>
@@ -16443,12 +16462,12 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="146" t="s">
+      <c r="A55" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="147"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="148"/>
+      <c r="B55" s="149"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="150"/>
       <c r="E55" s="145">
         <f>SUM(E46:E54)</f>
         <v>86940</v>
@@ -16642,12 +16661,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="146" t="s">
+      <c r="A68" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="147"/>
-      <c r="C68" s="147"/>
-      <c r="D68" s="148"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="150"/>
       <c r="E68" s="145">
         <f>SUM(E59:E67)</f>
         <v>49380</v>
@@ -16658,6 +16677,560 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A36:D36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection sqref="A1:E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="147" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="147" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="147" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="22.2" customHeight="1">
+      <c r="A3" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="146">
+        <v>8</v>
+      </c>
+      <c r="D3" s="146">
+        <v>4000</v>
+      </c>
+      <c r="E3" s="146">
+        <f t="shared" ref="E3:E9" si="0">C3*D3</f>
+        <v>32000</v>
+      </c>
+      <c r="G3">
+        <f>2450*2</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.8" customHeight="1">
+      <c r="A4" s="146" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="146">
+        <v>1</v>
+      </c>
+      <c r="D4" s="146">
+        <v>11880</v>
+      </c>
+      <c r="E4" s="146">
+        <f t="shared" si="0"/>
+        <v>11880</v>
+      </c>
+      <c r="G4">
+        <f>5940*2</f>
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="146">
+        <v>3</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="146">
+        <v>1</v>
+      </c>
+      <c r="D5" s="146">
+        <v>8600</v>
+      </c>
+      <c r="E5" s="146">
+        <f t="shared" si="0"/>
+        <v>8600</v>
+      </c>
+      <c r="G5">
+        <f>6500*2</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.8" customHeight="1">
+      <c r="A6" s="146">
+        <v>4</v>
+      </c>
+      <c r="B6" s="146" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="146">
+        <v>1</v>
+      </c>
+      <c r="D6" s="146">
+        <v>8490</v>
+      </c>
+      <c r="E6" s="146">
+        <f t="shared" si="0"/>
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.399999999999999" customHeight="1">
+      <c r="A7" s="146">
+        <v>5</v>
+      </c>
+      <c r="B7" s="146" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="146">
+        <v>20</v>
+      </c>
+      <c r="D7" s="146">
+        <v>150</v>
+      </c>
+      <c r="E7" s="146">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="146">
+        <v>6</v>
+      </c>
+      <c r="B8" s="146" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="146">
+        <v>8</v>
+      </c>
+      <c r="D8" s="146">
+        <v>100</v>
+      </c>
+      <c r="E8" s="146">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="146">
+        <v>7</v>
+      </c>
+      <c r="B9" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="146">
+        <v>1</v>
+      </c>
+      <c r="D9" s="146">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="146">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="148" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="147">
+        <f>SUM(E3:E9)</f>
+        <v>69770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="J13">
+        <f>7060*2</f>
+        <v>14120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="J20">
+        <f>4040*2</f>
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="6"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="147" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="147" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="147" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="C29" s="146">
+        <v>8</v>
+      </c>
+      <c r="D29" s="146">
+        <v>4300</v>
+      </c>
+      <c r="E29" s="146">
+        <f t="shared" ref="E29:E35" si="1">C29*D29</f>
+        <v>34400</v>
+      </c>
+      <c r="G29">
+        <f>2150*2</f>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="146" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="146" t="s">
+        <v>472</v>
+      </c>
+      <c r="C30" s="146">
+        <v>1</v>
+      </c>
+      <c r="D30" s="146">
+        <v>6440</v>
+      </c>
+      <c r="E30" s="146">
+        <f t="shared" si="1"/>
+        <v>6440</v>
+      </c>
+      <c r="G30">
+        <f>3220*2</f>
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="146">
+        <v>3</v>
+      </c>
+      <c r="B31" s="146" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" s="146">
+        <v>1</v>
+      </c>
+      <c r="D31" s="146">
+        <v>8600</v>
+      </c>
+      <c r="E31" s="146">
+        <f t="shared" si="1"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12.6" customHeight="1">
+      <c r="A32" s="146">
+        <v>4</v>
+      </c>
+      <c r="B32" s="146" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="146">
+        <v>1</v>
+      </c>
+      <c r="D32" s="146">
+        <v>8600</v>
+      </c>
+      <c r="E32" s="146">
+        <f t="shared" si="1"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="146">
+        <v>5</v>
+      </c>
+      <c r="B33" s="146" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="146">
+        <v>20</v>
+      </c>
+      <c r="D33" s="146">
+        <v>150</v>
+      </c>
+      <c r="E33" s="146">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="146">
+        <v>6</v>
+      </c>
+      <c r="B34" s="146" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="146">
+        <v>8</v>
+      </c>
+      <c r="D34" s="146">
+        <v>100</v>
+      </c>
+      <c r="E34" s="146">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="146">
+        <v>7</v>
+      </c>
+      <c r="B35" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="146">
+        <v>1</v>
+      </c>
+      <c r="D35" s="146">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="146">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="148" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="147">
+        <f>SUM(E29:E35)</f>
+        <v>66840</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>471</v>
+      </c>
+      <c r="H42">
+        <f>6550*2</f>
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="6"/>
+      <c r="I50">
+        <f>3260*2</f>
+        <v>6520</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16753,48 +17326,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="163"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="165"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -16882,12 +17455,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="163"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -17182,12 +17755,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="161" t="s">
+      <c r="A15" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="162"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -17433,12 +18006,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="161" t="s">
+      <c r="A31" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="163"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="165"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -17659,12 +18232,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="165"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -17739,13 +18312,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="165"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="166"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -17755,11 +18328,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="169"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17874,12 +18447,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="163"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="165"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -18094,12 +18667,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -18268,12 +18841,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -18357,12 +18930,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="172" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="22" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="23" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="Gonsalves 204" sheetId="26" r:id="rId26"/>
     <sheet name="Pinge 205" sheetId="27" r:id="rId27"/>
     <sheet name="Joylin 206" sheetId="28" r:id="rId28"/>
+    <sheet name="Putz 207" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="546">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -1689,12 +1690,228 @@
   <si>
     <t>2) Honeywell NVR Professional Series 20CH @14120/-+GST</t>
   </si>
+  <si>
+    <t>Module Components</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>A i5-12500 (6 Cores/18MB/12T/3.0GHz to 4.6GHz/65W); supports Win11/Win11 DG/Linux)</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>8GB (1x8GB) DDR4 Non-ECC Memory</t>
+  </si>
+  <si>
+    <t>Chassis Options</t>
+  </si>
+  <si>
+    <t>180 W internal power supply unit (PSU), 85% Efficient, 80 Plus Bronze</t>
+  </si>
+  <si>
+    <t>Video Card</t>
+  </si>
+  <si>
+    <t>Intel Integrated Graphics</t>
+  </si>
+  <si>
+    <t>Hard Drive</t>
+  </si>
+  <si>
+    <t>M.2 2230 256GB PCIe NVMe Class 35 Solid State Drive (EM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.2 22x30 Thermal Pad </t>
+  </si>
+  <si>
+    <t>M2X3.5 Screw for SSD/DDPE</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Dell Multimedia Keyboard-KB216 - US International (QWERTY) - Black</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Dell USB Optical Mouse-MS116 (EPEAT) - Black</t>
+  </si>
+  <si>
+    <t>Reader</t>
+  </si>
+  <si>
+    <t>OptiPlex 3000 OR 7000 SFF</t>
+  </si>
+  <si>
+    <t>Additional Storage Devices - Media Reader</t>
+  </si>
+  <si>
+    <t>Chassis Intrusion Switch</t>
+  </si>
+  <si>
+    <t>Optical Drive</t>
+  </si>
+  <si>
+    <t>No Optical Drive</t>
+  </si>
+  <si>
+    <t>Optical Software</t>
+  </si>
+  <si>
+    <t>Cyberlink Media Suite Essentials Not Included</t>
+  </si>
+  <si>
+    <t>Power Cord</t>
+  </si>
+  <si>
+    <t>System Power Cord India 6A</t>
+  </si>
+  <si>
+    <t>Software Stack</t>
+  </si>
+  <si>
+    <t>Dell Client System Update (Updates latest Dell Recommended BIOS, Drivers, Firmware and Apps)</t>
+  </si>
+  <si>
+    <t>Windows PKID Label</t>
+  </si>
+  <si>
+    <t>SW Driver, Intel Rapid Storage Technology, OptiPlex 3000</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Document for MUI (English, Khemer, Bahasa Indonesia, Arabic, Spanish)</t>
+  </si>
+  <si>
+    <t>Placemat</t>
+  </si>
+  <si>
+    <t>Quick Start Guide</t>
+  </si>
+  <si>
+    <t>Shipping Material</t>
+  </si>
+  <si>
+    <t>Shipping Label for APCC and ICC</t>
+  </si>
+  <si>
+    <t>Shipping Material for SFF(ICC)</t>
+  </si>
+  <si>
+    <t>Processor Label</t>
+  </si>
+  <si>
+    <t>Intel Core i5 Processor Label</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory Label for OptiPlex 3000 SFF 180W, ICC </t>
+  </si>
+  <si>
+    <t>System Monitoring Options</t>
+  </si>
+  <si>
+    <t>System Monitoring not selected in this configuration</t>
+  </si>
+  <si>
+    <t>Bios for TPM</t>
+  </si>
+  <si>
+    <t>Trusted Platform Module (Discrete TPM Enabled)</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Internal Speaker</t>
+  </si>
+  <si>
+    <t>Mod Specs Info (India)</t>
+  </si>
+  <si>
+    <t>Regional Specific Info</t>
+  </si>
+  <si>
+    <t>FGA Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Hardware Configuration </t>
+  </si>
+  <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t>OptiPlex 3000 or 7000 SFF</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Windows 11 Pro, English</t>
+  </si>
+  <si>
+    <t>SupportAssist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell(TM) Digital Delivery Cirrus Client </t>
+  </si>
+  <si>
+    <t>Waves Maxx Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell SupportAssist OS Recovery Tool </t>
+  </si>
+  <si>
+    <t>Systems Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In-Band Systems Management </t>
+  </si>
+  <si>
+    <t>Microsoft Application Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Office Trial(30 Days) </t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Basic Onsite Service 12 Months</t>
+  </si>
+  <si>
+    <t>Dell Services: Hardware Support</t>
+  </si>
+  <si>
+    <t>Dell Services: Extended Service</t>
+  </si>
+  <si>
+    <t>Basic Onsite Service Extension, 24 Month(s)</t>
+  </si>
+  <si>
+    <t>Windows 11, English</t>
+  </si>
+  <si>
+    <t>Dell Monitor 19.5 / 20 inch</t>
+  </si>
+  <si>
+    <t>*OptiPlex PC 3000 OR 7010 SFF/T</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,6 +2063,17 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri  "/>
     </font>
   </fonts>
@@ -2288,7 +2516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2718,6 +2946,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2733,27 +2982,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2796,15 +3024,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2817,63 +3102,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2896,6 +3124,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3224,7 +3497,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E27"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6417,12 +6690,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="180" t="s">
+      <c r="A59" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="182"/>
+      <c r="B59" s="200"/>
+      <c r="C59" s="200"/>
+      <c r="D59" s="201"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -6434,10 +6707,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="183" t="s">
+      <c r="A63" s="202" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="183"/>
+      <c r="B63" s="202"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -7030,17 +7303,17 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="177" t="s">
+      <c r="B116" s="198" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="177"/>
+      <c r="C116" s="198"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="178">
+      <c r="E116" s="185">
         <v>9000</v>
       </c>
-      <c r="F116" s="179"/>
+      <c r="F116" s="186"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
@@ -7170,31 +7443,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="177" t="s">
+      <c r="B124" s="198" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="177"/>
+      <c r="C124" s="198"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="162">
+      <c r="E124" s="157">
         <v>9000</v>
       </c>
-      <c r="F124" s="162"/>
+      <c r="F124" s="157"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="184" t="s">
+      <c r="A125" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="185"/>
-      <c r="C125" s="185"/>
-      <c r="D125" s="185"/>
-      <c r="E125" s="185"/>
-      <c r="F125" s="186"/>
+      <c r="B125" s="196"/>
+      <c r="C125" s="196"/>
+      <c r="D125" s="196"/>
+      <c r="E125" s="196"/>
+      <c r="F125" s="197"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7305,31 +7578,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="188" t="s">
+      <c r="B134" s="183" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="189"/>
+      <c r="C134" s="184"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="178">
+      <c r="E134" s="185">
         <v>12000</v>
       </c>
-      <c r="F134" s="179"/>
+      <c r="F134" s="186"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="184" t="s">
+      <c r="A135" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="185"/>
-      <c r="C135" s="185"/>
-      <c r="D135" s="185"/>
-      <c r="E135" s="185"/>
-      <c r="F135" s="186"/>
+      <c r="B135" s="196"/>
+      <c r="C135" s="196"/>
+      <c r="D135" s="196"/>
+      <c r="E135" s="196"/>
+      <c r="F135" s="197"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -7435,31 +7708,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="188" t="s">
+      <c r="B142" s="183" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="189"/>
+      <c r="C142" s="184"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="178">
+      <c r="E142" s="185">
         <v>12000</v>
       </c>
-      <c r="F142" s="179"/>
+      <c r="F142" s="186"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="184" t="s">
+      <c r="A143" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="185"/>
-      <c r="C143" s="185"/>
-      <c r="D143" s="185"/>
-      <c r="E143" s="185"/>
-      <c r="F143" s="186"/>
+      <c r="B143" s="196"/>
+      <c r="C143" s="196"/>
+      <c r="D143" s="196"/>
+      <c r="E143" s="196"/>
+      <c r="F143" s="197"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -7575,41 +7848,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="196" t="s">
+      <c r="B150" s="187" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="197"/>
+      <c r="C150" s="188"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="198">
+      <c r="E150" s="189">
         <v>12000</v>
       </c>
-      <c r="F150" s="199"/>
+      <c r="F150" s="190"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="187" t="s">
+      <c r="A151" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="187"/>
-      <c r="C151" s="187"/>
-      <c r="D151" s="187"/>
-      <c r="E151" s="187"/>
-      <c r="F151" s="187"/>
+      <c r="B151" s="192"/>
+      <c r="C151" s="192"/>
+      <c r="D151" s="192"/>
+      <c r="E151" s="192"/>
+      <c r="F151" s="192"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="200" t="s">
+      <c r="A154" s="191" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="200"/>
+      <c r="B154" s="191"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -7665,12 +7938,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="201" t="s">
+      <c r="A159" s="193" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="202"/>
-      <c r="C159" s="202"/>
-      <c r="D159" s="202"/>
+      <c r="B159" s="194"/>
+      <c r="C159" s="194"/>
+      <c r="D159" s="194"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -7728,12 +8001,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="187" t="s">
+      <c r="A163" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="187"/>
-      <c r="C163" s="187"/>
-      <c r="D163" s="187"/>
+      <c r="B163" s="192"/>
+      <c r="C163" s="192"/>
+      <c r="D163" s="192"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -10087,25 +10360,42 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="190" t="s">
+      <c r="A257" s="177" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="191"/>
-      <c r="C257" s="191"/>
-      <c r="D257" s="191"/>
-      <c r="E257" s="191"/>
-      <c r="F257" s="192"/>
+      <c r="B257" s="178"/>
+      <c r="C257" s="178"/>
+      <c r="D257" s="178"/>
+      <c r="E257" s="178"/>
+      <c r="F257" s="179"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="193"/>
-      <c r="B258" s="194"/>
-      <c r="C258" s="194"/>
-      <c r="D258" s="194"/>
-      <c r="E258" s="194"/>
-      <c r="F258" s="195"/>
+      <c r="A258" s="180"/>
+      <c r="B258" s="181"/>
+      <c r="C258" s="181"/>
+      <c r="D258" s="181"/>
+      <c r="E258" s="181"/>
+      <c r="F258" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B124:C124"/>
     <mergeCell ref="A257:F258"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="B142:C142"/>
@@ -10117,23 +10407,6 @@
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A254:D254"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A79:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10362,13 +10635,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="192" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -10673,13 +10946,13 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="192" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -11614,13 +11887,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -11707,105 +11980,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="154" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="161">
+      <c r="C7" s="156">
         <v>2</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="162">
+      <c r="E7" s="157">
         <v>567000</v>
       </c>
-      <c r="F7" s="162">
+      <c r="F7" s="157">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="159"/>
+      <c r="A8" s="154"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="159"/>
+      <c r="A9" s="154"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="159"/>
+      <c r="A10" s="154"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="159"/>
+      <c r="A11" s="154"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="159"/>
+      <c r="A12" s="154"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="159"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="159"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="159"/>
+      <c r="A15" s="154"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -11848,13 +12121,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="158"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="153"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -11940,7 +12213,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="159" t="s">
+      <c r="A24" s="154" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -11952,7 +12225,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="159"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -11971,7 +12244,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="159"/>
+      <c r="A26" s="154"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -11990,7 +12263,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="159"/>
+      <c r="A27" s="154"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -12028,13 +12301,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="158"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -12057,7 +12330,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="154" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -12069,7 +12342,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="159"/>
+      <c r="A33" s="154"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12083,7 +12356,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="159"/>
+      <c r="A34" s="154"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12097,7 +12370,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="159"/>
+      <c r="A35" s="154"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12111,7 +12384,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="159"/>
+      <c r="A36" s="154"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12125,7 +12398,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="159" t="s">
+      <c r="A37" s="154" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12137,7 +12410,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="159"/>
+      <c r="A38" s="154"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12156,7 +12429,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="159"/>
+      <c r="A39" s="154"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12175,7 +12448,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="159"/>
+      <c r="A40" s="154"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12194,7 +12467,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="159"/>
+      <c r="A41" s="154"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12213,7 +12486,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="159"/>
+      <c r="A42" s="154"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12254,13 +12527,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="156" t="s">
+      <c r="B45" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="157"/>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="158"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="153"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -12505,13 +12778,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="154"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="155"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="162"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -12529,13 +12802,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="151" t="s">
+      <c r="B59" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="151"/>
-      <c r="D59" s="151"/>
-      <c r="E59" s="151"/>
-      <c r="F59" s="151"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="158"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -12553,13 +12826,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="152" t="s">
+      <c r="B61" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="152"/>
-      <c r="D61" s="152"/>
-      <c r="E61" s="152"/>
-      <c r="F61" s="152"/>
+      <c r="C61" s="159"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="159"/>
+      <c r="F61" s="159"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -12579,30 +12852,35 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="152" t="s">
+      <c r="B63" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="152"/>
-      <c r="D63" s="152"/>
-      <c r="E63" s="152"/>
-      <c r="F63" s="152"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="159"/>
+      <c r="E63" s="159"/>
+      <c r="F63" s="159"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="152" t="s">
+      <c r="B64" s="159" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="152"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="152"/>
-      <c r="F64" s="152"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="159"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A57:E57"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B19:F19"/>
@@ -12615,11 +12893,6 @@
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="F7:F15"/>
     <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14091,12 +14364,12 @@
       <c r="E19" s="208"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -16687,8 +16960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection sqref="A1:E48"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17232,6 +17505,839 @@
   <mergeCells count="2">
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A36:D36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="211"/>
+    <col min="2" max="2" width="74" style="211" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="211" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="211"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="213" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="224"/>
+      <c r="B2" s="215" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="222">
+        <v>1</v>
+      </c>
+      <c r="B3" s="215" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" s="214">
+        <v>1</v>
+      </c>
+      <c r="D3" s="214">
+        <v>75900</v>
+      </c>
+      <c r="E3" s="214">
+        <f>C3*D3</f>
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.6">
+      <c r="A4" s="223"/>
+      <c r="B4" s="215" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="223"/>
+      <c r="B5" s="215" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="223"/>
+      <c r="B6" s="215" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="223"/>
+      <c r="B7" s="215" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="223"/>
+      <c r="B8" s="215" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="223"/>
+      <c r="B9" s="215" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="216"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="223"/>
+      <c r="B10" s="215" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="223"/>
+      <c r="B11" s="215" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="223"/>
+      <c r="B12" s="215" t="s">
+        <v>490</v>
+      </c>
+      <c r="C12" s="216"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="216"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="223"/>
+      <c r="B13" s="215" t="s">
+        <v>494</v>
+      </c>
+      <c r="C13" s="216"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="223"/>
+      <c r="B14" s="215" t="s">
+        <v>500</v>
+      </c>
+      <c r="C14" s="216"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="216"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="223"/>
+      <c r="B15" s="215" t="s">
+        <v>543</v>
+      </c>
+      <c r="C15" s="216"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="223"/>
+      <c r="B16" s="215" t="s">
+        <v>532</v>
+      </c>
+      <c r="C16" s="216"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="216"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="223"/>
+      <c r="B17" s="215" t="s">
+        <v>539</v>
+      </c>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="223"/>
+      <c r="B18" s="215" t="s">
+        <v>542</v>
+      </c>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="219" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="220"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="213">
+        <f>SUM(E3)</f>
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.8" customHeight="1">
+      <c r="A26" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="213" t="s">
+        <v>474</v>
+      </c>
+      <c r="C26" s="213" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="213" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="213" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="55.2">
+      <c r="A27" s="218">
+        <v>1</v>
+      </c>
+      <c r="B27" s="215" t="s">
+        <v>492</v>
+      </c>
+      <c r="C27" s="215" t="s">
+        <v>492</v>
+      </c>
+      <c r="D27" s="212">
+        <v>1</v>
+      </c>
+      <c r="E27" s="218">
+        <v>69000</v>
+      </c>
+      <c r="F27" s="218">
+        <f>D27*E27</f>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="179.4">
+      <c r="A28" s="218"/>
+      <c r="B28" s="215" t="s">
+        <v>475</v>
+      </c>
+      <c r="C28" s="215" t="s">
+        <v>476</v>
+      </c>
+      <c r="D28" s="212">
+        <v>1</v>
+      </c>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+    </row>
+    <row r="29" spans="1:6" ht="82.8">
+      <c r="A29" s="218"/>
+      <c r="B29" s="215" t="s">
+        <v>477</v>
+      </c>
+      <c r="C29" s="215" t="s">
+        <v>478</v>
+      </c>
+      <c r="D29" s="212">
+        <v>1</v>
+      </c>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+    </row>
+    <row r="30" spans="1:6" ht="138">
+      <c r="A30" s="218"/>
+      <c r="B30" s="215" t="s">
+        <v>479</v>
+      </c>
+      <c r="C30" s="215" t="s">
+        <v>480</v>
+      </c>
+      <c r="D30" s="212">
+        <v>1</v>
+      </c>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+    </row>
+    <row r="31" spans="1:6" ht="55.2">
+      <c r="A31" s="218"/>
+      <c r="B31" s="215" t="s">
+        <v>481</v>
+      </c>
+      <c r="C31" s="215" t="s">
+        <v>482</v>
+      </c>
+      <c r="D31" s="212">
+        <v>1</v>
+      </c>
+      <c r="E31" s="218"/>
+      <c r="F31" s="218"/>
+    </row>
+    <row r="32" spans="1:6" ht="138">
+      <c r="A32" s="218"/>
+      <c r="B32" s="215" t="s">
+        <v>483</v>
+      </c>
+      <c r="C32" s="215" t="s">
+        <v>484</v>
+      </c>
+      <c r="D32" s="212">
+        <v>1</v>
+      </c>
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
+    </row>
+    <row r="33" spans="1:6" ht="55.2">
+      <c r="A33" s="218"/>
+      <c r="B33" s="215" t="s">
+        <v>483</v>
+      </c>
+      <c r="C33" s="215" t="s">
+        <v>485</v>
+      </c>
+      <c r="D33" s="212">
+        <v>1</v>
+      </c>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
+    </row>
+    <row r="34" spans="1:6" ht="69">
+      <c r="A34" s="218"/>
+      <c r="B34" s="215" t="s">
+        <v>483</v>
+      </c>
+      <c r="C34" s="215" t="s">
+        <v>486</v>
+      </c>
+      <c r="D34" s="212">
+        <v>1</v>
+      </c>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+    </row>
+    <row r="35" spans="1:6" ht="151.80000000000001">
+      <c r="A35" s="218"/>
+      <c r="B35" s="215" t="s">
+        <v>487</v>
+      </c>
+      <c r="C35" s="215" t="s">
+        <v>488</v>
+      </c>
+      <c r="D35" s="212">
+        <v>1</v>
+      </c>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+    </row>
+    <row r="36" spans="1:6" ht="96.6">
+      <c r="A36" s="218"/>
+      <c r="B36" s="215" t="s">
+        <v>489</v>
+      </c>
+      <c r="C36" s="215" t="s">
+        <v>490</v>
+      </c>
+      <c r="D36" s="212">
+        <v>1</v>
+      </c>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="218"/>
+      <c r="B37" s="215" t="s">
+        <v>493</v>
+      </c>
+      <c r="C37" s="212" t="s">
+        <v>491</v>
+      </c>
+      <c r="D37" s="212">
+        <v>1</v>
+      </c>
+      <c r="E37" s="218"/>
+      <c r="F37" s="218"/>
+    </row>
+    <row r="38" spans="1:6" ht="41.4">
+      <c r="A38" s="218"/>
+      <c r="B38" s="215" t="s">
+        <v>494</v>
+      </c>
+      <c r="C38" s="215" t="s">
+        <v>494</v>
+      </c>
+      <c r="D38" s="212">
+        <v>1</v>
+      </c>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
+    </row>
+    <row r="39" spans="1:6" ht="41.4">
+      <c r="A39" s="218"/>
+      <c r="B39" s="215" t="s">
+        <v>495</v>
+      </c>
+      <c r="C39" s="215" t="s">
+        <v>496</v>
+      </c>
+      <c r="D39" s="212">
+        <v>1</v>
+      </c>
+      <c r="E39" s="218"/>
+      <c r="F39" s="218"/>
+    </row>
+    <row r="40" spans="1:6" ht="82.8">
+      <c r="A40" s="218"/>
+      <c r="B40" s="215" t="s">
+        <v>497</v>
+      </c>
+      <c r="C40" s="215" t="s">
+        <v>498</v>
+      </c>
+      <c r="D40" s="212">
+        <v>1</v>
+      </c>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+    </row>
+    <row r="41" spans="1:6" ht="55.2">
+      <c r="A41" s="218"/>
+      <c r="B41" s="215" t="s">
+        <v>499</v>
+      </c>
+      <c r="C41" s="215" t="s">
+        <v>500</v>
+      </c>
+      <c r="D41" s="212">
+        <v>1</v>
+      </c>
+      <c r="E41" s="218"/>
+      <c r="F41" s="218"/>
+    </row>
+    <row r="42" spans="1:6" ht="193.2">
+      <c r="A42" s="218"/>
+      <c r="B42" s="215" t="s">
+        <v>501</v>
+      </c>
+      <c r="C42" s="215" t="s">
+        <v>502</v>
+      </c>
+      <c r="D42" s="212">
+        <v>1</v>
+      </c>
+      <c r="E42" s="218"/>
+      <c r="F42" s="218"/>
+    </row>
+    <row r="43" spans="1:6" ht="41.4">
+      <c r="A43" s="218"/>
+      <c r="B43" s="215" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" s="215" t="s">
+        <v>503</v>
+      </c>
+      <c r="D43" s="212">
+        <v>1</v>
+      </c>
+      <c r="E43" s="218"/>
+      <c r="F43" s="218"/>
+    </row>
+    <row r="44" spans="1:6" ht="124.2">
+      <c r="A44" s="218"/>
+      <c r="B44" s="215" t="s">
+        <v>501</v>
+      </c>
+      <c r="C44" s="215" t="s">
+        <v>504</v>
+      </c>
+      <c r="D44" s="212">
+        <v>1</v>
+      </c>
+      <c r="E44" s="218"/>
+      <c r="F44" s="218"/>
+    </row>
+    <row r="45" spans="1:6" ht="138">
+      <c r="A45" s="218"/>
+      <c r="B45" s="215" t="s">
+        <v>505</v>
+      </c>
+      <c r="C45" s="215" t="s">
+        <v>506</v>
+      </c>
+      <c r="D45" s="212">
+        <v>1</v>
+      </c>
+      <c r="E45" s="218"/>
+      <c r="F45" s="218"/>
+    </row>
+    <row r="46" spans="1:6" ht="41.4">
+      <c r="A46" s="218"/>
+      <c r="B46" s="215" t="s">
+        <v>507</v>
+      </c>
+      <c r="C46" s="215" t="s">
+        <v>508</v>
+      </c>
+      <c r="D46" s="212">
+        <v>1</v>
+      </c>
+      <c r="E46" s="218"/>
+      <c r="F46" s="218"/>
+    </row>
+    <row r="47" spans="1:6" ht="55.2">
+      <c r="A47" s="218"/>
+      <c r="B47" s="215" t="s">
+        <v>509</v>
+      </c>
+      <c r="C47" s="215" t="s">
+        <v>510</v>
+      </c>
+      <c r="D47" s="212">
+        <v>1</v>
+      </c>
+      <c r="E47" s="218"/>
+      <c r="F47" s="218"/>
+    </row>
+    <row r="48" spans="1:6" ht="69">
+      <c r="A48" s="218"/>
+      <c r="B48" s="215" t="s">
+        <v>509</v>
+      </c>
+      <c r="C48" s="215" t="s">
+        <v>511</v>
+      </c>
+      <c r="D48" s="212">
+        <v>1</v>
+      </c>
+      <c r="E48" s="218"/>
+      <c r="F48" s="218"/>
+    </row>
+    <row r="49" spans="1:6" ht="55.2">
+      <c r="A49" s="218"/>
+      <c r="B49" s="215" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" s="215" t="s">
+        <v>513</v>
+      </c>
+      <c r="D49" s="212">
+        <v>1</v>
+      </c>
+      <c r="E49" s="218"/>
+      <c r="F49" s="218"/>
+    </row>
+    <row r="50" spans="1:6" ht="110.4">
+      <c r="A50" s="218"/>
+      <c r="B50" s="215" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" s="215" t="s">
+        <v>515</v>
+      </c>
+      <c r="D50" s="212">
+        <v>1</v>
+      </c>
+      <c r="E50" s="218"/>
+      <c r="F50" s="218"/>
+    </row>
+    <row r="51" spans="1:6" ht="96.6">
+      <c r="A51" s="218"/>
+      <c r="B51" s="215" t="s">
+        <v>516</v>
+      </c>
+      <c r="C51" s="215" t="s">
+        <v>517</v>
+      </c>
+      <c r="D51" s="212">
+        <v>1</v>
+      </c>
+      <c r="E51" s="218"/>
+      <c r="F51" s="218"/>
+    </row>
+    <row r="52" spans="1:6" ht="82.8">
+      <c r="A52" s="218"/>
+      <c r="B52" s="215" t="s">
+        <v>518</v>
+      </c>
+      <c r="C52" s="215" t="s">
+        <v>519</v>
+      </c>
+      <c r="D52" s="212">
+        <v>1</v>
+      </c>
+      <c r="E52" s="218"/>
+      <c r="F52" s="218"/>
+    </row>
+    <row r="53" spans="1:6" ht="27.6">
+      <c r="A53" s="218"/>
+      <c r="B53" s="215" t="s">
+        <v>520</v>
+      </c>
+      <c r="C53" s="215" t="s">
+        <v>521</v>
+      </c>
+      <c r="D53" s="212">
+        <v>1</v>
+      </c>
+      <c r="E53" s="218"/>
+      <c r="F53" s="218"/>
+    </row>
+    <row r="54" spans="1:6" ht="55.2">
+      <c r="A54" s="218"/>
+      <c r="B54" s="215" t="s">
+        <v>523</v>
+      </c>
+      <c r="C54" s="215" t="s">
+        <v>522</v>
+      </c>
+      <c r="D54" s="212">
+        <v>1</v>
+      </c>
+      <c r="E54" s="218"/>
+      <c r="F54" s="218"/>
+    </row>
+    <row r="55" spans="1:6" ht="69">
+      <c r="A55" s="218"/>
+      <c r="B55" s="215" t="s">
+        <v>524</v>
+      </c>
+      <c r="C55" s="215" t="s">
+        <v>525</v>
+      </c>
+      <c r="D55" s="212">
+        <v>1</v>
+      </c>
+      <c r="E55" s="218"/>
+      <c r="F55" s="218"/>
+    </row>
+    <row r="56" spans="1:6" ht="55.2">
+      <c r="A56" s="218"/>
+      <c r="B56" s="215" t="s">
+        <v>526</v>
+      </c>
+      <c r="C56" s="215" t="s">
+        <v>527</v>
+      </c>
+      <c r="D56" s="212">
+        <v>1</v>
+      </c>
+      <c r="E56" s="218"/>
+      <c r="F56" s="218"/>
+    </row>
+    <row r="57" spans="1:6" ht="27.6">
+      <c r="A57" s="218"/>
+      <c r="B57" s="213" t="s">
+        <v>418</v>
+      </c>
+      <c r="C57" s="213" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="212"/>
+      <c r="E57" s="218"/>
+      <c r="F57" s="218"/>
+    </row>
+    <row r="58" spans="1:6" ht="41.4">
+      <c r="A58" s="218"/>
+      <c r="B58" s="215" t="s">
+        <v>528</v>
+      </c>
+      <c r="C58" s="215" t="s">
+        <v>529</v>
+      </c>
+      <c r="D58" s="212">
+        <v>1</v>
+      </c>
+      <c r="E58" s="218"/>
+      <c r="F58" s="218"/>
+    </row>
+    <row r="59" spans="1:6" ht="27.6">
+      <c r="A59" s="218"/>
+      <c r="B59" s="215" t="s">
+        <v>501</v>
+      </c>
+      <c r="C59" s="215" t="s">
+        <v>530</v>
+      </c>
+      <c r="D59" s="212">
+        <v>1</v>
+      </c>
+      <c r="E59" s="218"/>
+      <c r="F59" s="218"/>
+    </row>
+    <row r="60" spans="1:6" ht="69">
+      <c r="A60" s="218"/>
+      <c r="B60" s="215" t="s">
+        <v>501</v>
+      </c>
+      <c r="C60" s="215" t="s">
+        <v>531</v>
+      </c>
+      <c r="D60" s="212">
+        <v>1</v>
+      </c>
+      <c r="E60" s="218"/>
+      <c r="F60" s="218"/>
+    </row>
+    <row r="61" spans="1:6" ht="41.4">
+      <c r="A61" s="218"/>
+      <c r="B61" s="215" t="s">
+        <v>501</v>
+      </c>
+      <c r="C61" s="215" t="s">
+        <v>532</v>
+      </c>
+      <c r="D61" s="212">
+        <v>1</v>
+      </c>
+      <c r="E61" s="218"/>
+      <c r="F61" s="218"/>
+    </row>
+    <row r="62" spans="1:6" ht="82.8">
+      <c r="A62" s="218"/>
+      <c r="B62" s="215" t="s">
+        <v>501</v>
+      </c>
+      <c r="C62" s="215" t="s">
+        <v>533</v>
+      </c>
+      <c r="D62" s="212">
+        <v>1</v>
+      </c>
+      <c r="E62" s="218"/>
+      <c r="F62" s="218"/>
+    </row>
+    <row r="63" spans="1:6" ht="55.2">
+      <c r="A63" s="218"/>
+      <c r="B63" s="215" t="s">
+        <v>534</v>
+      </c>
+      <c r="C63" s="215" t="s">
+        <v>535</v>
+      </c>
+      <c r="D63" s="212">
+        <v>1</v>
+      </c>
+      <c r="E63" s="218"/>
+      <c r="F63" s="218"/>
+    </row>
+    <row r="64" spans="1:6" ht="55.2">
+      <c r="A64" s="218"/>
+      <c r="B64" s="215" t="s">
+        <v>536</v>
+      </c>
+      <c r="C64" s="212" t="s">
+        <v>537</v>
+      </c>
+      <c r="D64" s="212">
+        <v>1</v>
+      </c>
+      <c r="E64" s="218"/>
+      <c r="F64" s="218"/>
+    </row>
+    <row r="65" spans="1:6" ht="27.6">
+      <c r="A65" s="218"/>
+      <c r="B65" s="213" t="s">
+        <v>538</v>
+      </c>
+      <c r="C65" s="213" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="212"/>
+      <c r="E65" s="218"/>
+      <c r="F65" s="218"/>
+    </row>
+    <row r="66" spans="1:6" ht="69">
+      <c r="A66" s="218"/>
+      <c r="B66" s="215" t="s">
+        <v>540</v>
+      </c>
+      <c r="C66" s="215" t="s">
+        <v>539</v>
+      </c>
+      <c r="D66" s="212">
+        <v>1</v>
+      </c>
+      <c r="E66" s="218"/>
+      <c r="F66" s="218"/>
+    </row>
+    <row r="67" spans="1:6" ht="82.8">
+      <c r="A67" s="218"/>
+      <c r="B67" s="215" t="s">
+        <v>541</v>
+      </c>
+      <c r="C67" s="215" t="s">
+        <v>542</v>
+      </c>
+      <c r="D67" s="212">
+        <v>1</v>
+      </c>
+      <c r="E67" s="218"/>
+      <c r="F67" s="218"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="217"/>
+      <c r="C68" s="217"/>
+      <c r="D68" s="217"/>
+      <c r="E68" s="217"/>
+      <c r="F68" s="213">
+        <f>SUM(F27:F27)</f>
+        <v>69000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E3:E18"/>
+    <mergeCell ref="A27:A67"/>
+    <mergeCell ref="E27:E67"/>
+    <mergeCell ref="F27:F67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="C3:C18"/>
+    <mergeCell ref="D3:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="23" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="30" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,13 @@
     <sheet name="Pinge 205" sheetId="27" r:id="rId27"/>
     <sheet name="Joylin 206" sheetId="28" r:id="rId28"/>
     <sheet name="Putz 207" sheetId="29" r:id="rId29"/>
+    <sheet name="Goa Chess Association 301" sheetId="30" r:id="rId30"/>
+    <sheet name="Joylin 302" sheetId="31" r:id="rId31"/>
+    <sheet name="Harsh 303" sheetId="32" r:id="rId32"/>
+    <sheet name="Siddharth Enterprises 304" sheetId="33" r:id="rId33"/>
+    <sheet name="Abhijeet 305" sheetId="34" r:id="rId34"/>
+    <sheet name="El Shaddai 306" sheetId="35" r:id="rId35"/>
+    <sheet name="Diana Aqua and Pools 307" sheetId="36" r:id="rId36"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="583">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -1906,12 +1913,123 @@
   <si>
     <t>*OptiPlex PC 3000 OR 7010 SFF/T</t>
   </si>
+  <si>
+    <t>Website Development with Home Page, Event Notice and Member Registration Form with Payment Gateway (Provided with transaction charges for every transaction levied by payment gateway provider)</t>
+  </si>
+  <si>
+    <t>Honeywell 2 MP Motorized Bulet Camera</t>
+  </si>
+  <si>
+    <t>Dahua 2 MP Motorized Bullet Camera</t>
+  </si>
+  <si>
+    <t>Dahua NVR Professional Series 32 CH</t>
+  </si>
+  <si>
+    <t>Dahua 2MP Bullet Camera</t>
+  </si>
+  <si>
+    <t>Dahua 32 CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>Dahua or Similar 32CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>CGST 9%</t>
+  </si>
+  <si>
+    <t>SGST 9%</t>
+  </si>
+  <si>
+    <t>1750VA SWJ Microtek Heavy Duty Industrial UPS with backup using 180 ah Exide Invertor Tubular Battery with flat 3 years warranty</t>
+  </si>
+  <si>
+    <t>* UPS Warranty is not fro 3 years only the battery warranty is for 3 years</t>
+  </si>
+  <si>
+    <t>Honeywell 4 MP Bullet with inbuilt Audio 4 MM lens</t>
+  </si>
+  <si>
+    <t>Honeywell  NVR Professional Series 5CH</t>
+  </si>
+  <si>
+    <t>Dahua 4 MP IP Bullet with inbuilt Audio</t>
+  </si>
+  <si>
+    <t>BB-Photo Cell(Safety IR Sensor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED on boom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote Set ( Transmitter &amp; Receiver) </t>
+  </si>
+  <si>
+    <t>Option 2(A) FAAC 620 STD hydraulic boom barrier, Maximum beam length up to 5 mtr.</t>
+  </si>
+  <si>
+    <t>Option 2(B) FAAC B614 Electromechanical Boom barrier , Maximum beam length up to 5 mtr</t>
+  </si>
+  <si>
+    <t>FAAC B680 H hydrualic boom barrier. Maximum beam length up to 5 Mtr. and foundation plate with J hooks</t>
+  </si>
+  <si>
+    <t>Extra if required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation Charges of boom barrier system without civil and electrical work </t>
+  </si>
+  <si>
+    <t>FAAC B614 electromechanical boom barrier. Maximum beam length up to 5 Mtr. With foundation plate. Without LED on boom</t>
+  </si>
+  <si>
+    <t>1) U10 (10Mtrs Longe range UHF Reader) @ 36024/- + GST</t>
+  </si>
+  <si>
+    <t>Grey (AC Motor 6MTs Boom Barrier Right/Left)</t>
+  </si>
+  <si>
+    <t>Manual Switch UP, Down, Stop</t>
+  </si>
+  <si>
+    <t>Brushless DC motor Mts Boom Barrier Right/Left</t>
+  </si>
+  <si>
+    <t>2 door Access Controller with box</t>
+  </si>
+  <si>
+    <t>Honeywell or SImilar 8CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>Eqvision</t>
+  </si>
+  <si>
+    <t>Dahua</t>
+  </si>
+  <si>
+    <t>8 ch 3000</t>
+  </si>
+  <si>
+    <t>8ch 2900</t>
+  </si>
+  <si>
+    <t>Hikvison 2MP Bullet Camera</t>
+  </si>
+  <si>
+    <t>Hikvison or Similar 8CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>Honeywell 2MP Bullet Camera</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2075,6 +2193,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2516,7 +2641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2937,6 +3062,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3126,7 +3342,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3135,21 +3357,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3159,17 +3366,26 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3815,12 +4031,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="148" t="s">
+      <c r="A18" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="149"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="181"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -3946,12 +4162,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="148" t="s">
+      <c r="A27" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="150"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="181"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -4112,12 +4328,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -4201,12 +4417,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="172" t="s">
+      <c r="A19" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -4367,12 +4583,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4456,20 +4672,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="166" t="s">
+      <c r="A19" s="197" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="168"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="199"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="169"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="171"/>
+      <c r="A20" s="200"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4668,24 +4884,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="163" t="s">
+      <c r="A11" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="165"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="196"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="206" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="206"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -4885,12 +5101,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="165"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="196"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -5058,12 +5274,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="173" t="s">
+      <c r="A41" s="204" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="B41" s="205"/>
+      <c r="C41" s="205"/>
+      <c r="D41" s="205"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -5298,24 +5514,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="163" t="s">
+      <c r="A11" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="165"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="196"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="207" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5479,12 +5695,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="165"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="196"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -5686,48 +5902,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="196"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="196"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="194" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="165"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="196"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -5818,48 +6034,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="164"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="165"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="196"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="164"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="196"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="163" t="s">
+      <c r="A19" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="164"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="165"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="196"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="194" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="164"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="165"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -5942,48 +6158,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="164"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="165"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="196"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="165"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="196"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="163" t="s">
+      <c r="A29" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="165"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="194" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="165"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="196"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -6013,7 +6229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S258"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
@@ -6171,12 +6387,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -6300,12 +6516,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="150"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="181"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6465,12 +6681,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="148" t="s">
+      <c r="A38" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="149"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="150"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -6690,12 +6906,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="199" t="s">
+      <c r="A59" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="200"/>
-      <c r="C59" s="200"/>
-      <c r="D59" s="201"/>
+      <c r="B59" s="231"/>
+      <c r="C59" s="231"/>
+      <c r="D59" s="232"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -6707,10 +6923,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="202" t="s">
+      <c r="A63" s="233" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="202"/>
+      <c r="B63" s="233"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -6923,12 +7139,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="148" t="s">
+      <c r="A79" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="149"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="150"/>
+      <c r="B79" s="180"/>
+      <c r="C79" s="180"/>
+      <c r="D79" s="181"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -7152,12 +7368,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="148" t="s">
+      <c r="A99" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="149"/>
-      <c r="C99" s="149"/>
-      <c r="D99" s="149"/>
+      <c r="B99" s="180"/>
+      <c r="C99" s="180"/>
+      <c r="D99" s="180"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -7303,31 +7519,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="198" t="s">
+      <c r="B116" s="229" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="198"/>
+      <c r="C116" s="229"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="185">
+      <c r="E116" s="216">
         <v>9000</v>
       </c>
-      <c r="F116" s="186"/>
+      <c r="F116" s="217"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="148" t="s">
+      <c r="A117" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="149"/>
-      <c r="C117" s="149"/>
-      <c r="D117" s="149"/>
-      <c r="E117" s="149"/>
-      <c r="F117" s="150"/>
+      <c r="B117" s="180"/>
+      <c r="C117" s="180"/>
+      <c r="D117" s="180"/>
+      <c r="E117" s="180"/>
+      <c r="F117" s="181"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7443,31 +7659,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="198" t="s">
+      <c r="B124" s="229" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="198"/>
+      <c r="C124" s="229"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="157">
+      <c r="E124" s="188">
         <v>9000</v>
       </c>
-      <c r="F124" s="157"/>
+      <c r="F124" s="188"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="195" t="s">
+      <c r="A125" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="196"/>
-      <c r="C125" s="196"/>
-      <c r="D125" s="196"/>
-      <c r="E125" s="196"/>
-      <c r="F125" s="197"/>
+      <c r="B125" s="227"/>
+      <c r="C125" s="227"/>
+      <c r="D125" s="227"/>
+      <c r="E125" s="227"/>
+      <c r="F125" s="228"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7578,31 +7794,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="183" t="s">
+      <c r="B134" s="214" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="184"/>
+      <c r="C134" s="215"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="185">
+      <c r="E134" s="216">
         <v>12000</v>
       </c>
-      <c r="F134" s="186"/>
+      <c r="F134" s="217"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="195" t="s">
+      <c r="A135" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="196"/>
-      <c r="C135" s="196"/>
-      <c r="D135" s="196"/>
-      <c r="E135" s="196"/>
-      <c r="F135" s="197"/>
+      <c r="B135" s="227"/>
+      <c r="C135" s="227"/>
+      <c r="D135" s="227"/>
+      <c r="E135" s="227"/>
+      <c r="F135" s="228"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -7708,31 +7924,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="183" t="s">
+      <c r="B142" s="214" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="184"/>
+      <c r="C142" s="215"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="185">
+      <c r="E142" s="216">
         <v>12000</v>
       </c>
-      <c r="F142" s="186"/>
+      <c r="F142" s="217"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="195" t="s">
+      <c r="A143" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="196"/>
-      <c r="C143" s="196"/>
-      <c r="D143" s="196"/>
-      <c r="E143" s="196"/>
-      <c r="F143" s="197"/>
+      <c r="B143" s="227"/>
+      <c r="C143" s="227"/>
+      <c r="D143" s="227"/>
+      <c r="E143" s="227"/>
+      <c r="F143" s="228"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -7848,41 +8064,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="187" t="s">
+      <c r="B150" s="218" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="188"/>
+      <c r="C150" s="219"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="189">
+      <c r="E150" s="220">
         <v>12000</v>
       </c>
-      <c r="F150" s="190"/>
+      <c r="F150" s="221"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="192" t="s">
+      <c r="A151" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="192"/>
-      <c r="C151" s="192"/>
-      <c r="D151" s="192"/>
-      <c r="E151" s="192"/>
-      <c r="F151" s="192"/>
+      <c r="B151" s="223"/>
+      <c r="C151" s="223"/>
+      <c r="D151" s="223"/>
+      <c r="E151" s="223"/>
+      <c r="F151" s="223"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="191" t="s">
+      <c r="A154" s="222" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="191"/>
+      <c r="B154" s="222"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -7938,12 +8154,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="193" t="s">
+      <c r="A159" s="224" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="194"/>
-      <c r="C159" s="194"/>
-      <c r="D159" s="194"/>
+      <c r="B159" s="225"/>
+      <c r="C159" s="225"/>
+      <c r="D159" s="225"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -8001,12 +8217,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="192" t="s">
+      <c r="A163" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="192"/>
-      <c r="C163" s="192"/>
-      <c r="D163" s="192"/>
+      <c r="B163" s="223"/>
+      <c r="C163" s="223"/>
+      <c r="D163" s="223"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -10192,12 +10408,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="148" t="s">
+      <c r="A241" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="149"/>
-      <c r="C241" s="149"/>
-      <c r="D241" s="150"/>
+      <c r="B241" s="180"/>
+      <c r="C241" s="180"/>
+      <c r="D241" s="181"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -10346,12 +10562,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="148" t="s">
+      <c r="A254" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="149"/>
-      <c r="C254" s="149"/>
-      <c r="D254" s="150"/>
+      <c r="B254" s="180"/>
+      <c r="C254" s="180"/>
+      <c r="D254" s="181"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -10360,22 +10576,22 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="177" t="s">
+      <c r="A257" s="208" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="178"/>
-      <c r="C257" s="178"/>
-      <c r="D257" s="178"/>
-      <c r="E257" s="178"/>
-      <c r="F257" s="179"/>
+      <c r="B257" s="209"/>
+      <c r="C257" s="209"/>
+      <c r="D257" s="209"/>
+      <c r="E257" s="209"/>
+      <c r="F257" s="210"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="180"/>
-      <c r="B258" s="181"/>
-      <c r="C258" s="181"/>
-      <c r="D258" s="181"/>
-      <c r="E258" s="181"/>
-      <c r="F258" s="182"/>
+      <c r="A258" s="211"/>
+      <c r="B258" s="212"/>
+      <c r="C258" s="212"/>
+      <c r="D258" s="212"/>
+      <c r="E258" s="212"/>
+      <c r="F258" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -10616,12 +10832,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="181"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -10635,13 +10851,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="223" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="192"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
+      <c r="B14" s="223"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -10934,25 +11150,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="148" t="s">
+      <c r="A39" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="150"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="181"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="192" t="s">
+      <c r="A41" s="223" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="192"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="192"/>
-      <c r="E41" s="192"/>
+      <c r="B41" s="223"/>
+      <c r="C41" s="223"/>
+      <c r="D41" s="223"/>
+      <c r="E41" s="223"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -11161,12 +11377,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="203" t="s">
+      <c r="A70" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="204"/>
-      <c r="C70" s="204"/>
-      <c r="D70" s="205"/>
+      <c r="B70" s="235"/>
+      <c r="C70" s="235"/>
+      <c r="D70" s="236"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -11356,12 +11572,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="181"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -11616,12 +11832,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="150"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="181"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -11843,12 +12059,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="181"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -11887,13 +12103,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -11980,105 +12196,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="185" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="156">
+      <c r="C7" s="187">
         <v>2</v>
       </c>
-      <c r="D7" s="154" t="s">
+      <c r="D7" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="157">
+      <c r="E7" s="188">
         <v>567000</v>
       </c>
-      <c r="F7" s="157">
+      <c r="F7" s="188">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="154"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="154"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="154"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="154"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="154"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="154"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="154"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="154"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="156"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -12121,13 +12337,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="153"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="184"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -12213,7 +12429,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="154" t="s">
+      <c r="A24" s="185" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -12225,7 +12441,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="154"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -12244,7 +12460,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="154"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -12263,7 +12479,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="154"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -12301,13 +12517,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="151" t="s">
+      <c r="B30" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="153"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -12330,7 +12546,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="154" t="s">
+      <c r="A32" s="185" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -12342,7 +12558,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="154"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12356,7 +12572,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="154"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12370,7 +12586,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="154"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12384,7 +12600,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="154"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12398,7 +12614,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="154" t="s">
+      <c r="A37" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12410,7 +12626,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="154"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12429,7 +12645,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="154"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12448,7 +12664,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="154"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12467,7 +12683,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="154"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12486,7 +12702,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="154"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12527,13 +12743,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="151" t="s">
+      <c r="B45" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="152"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="153"/>
+      <c r="C45" s="183"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="184"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -12778,13 +12994,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="160" t="s">
+      <c r="A57" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="161"/>
-      <c r="C57" s="161"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="162"/>
+      <c r="B57" s="192"/>
+      <c r="C57" s="192"/>
+      <c r="D57" s="192"/>
+      <c r="E57" s="193"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -12802,13 +13018,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="158" t="s">
+      <c r="B59" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="158"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="158"/>
+      <c r="C59" s="189"/>
+      <c r="D59" s="189"/>
+      <c r="E59" s="189"/>
+      <c r="F59" s="189"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -12826,13 +13042,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="159" t="s">
+      <c r="B61" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="159"/>
-      <c r="D61" s="159"/>
-      <c r="E61" s="159"/>
-      <c r="F61" s="159"/>
+      <c r="C61" s="190"/>
+      <c r="D61" s="190"/>
+      <c r="E61" s="190"/>
+      <c r="F61" s="190"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -12852,26 +13068,26 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="159" t="s">
+      <c r="B63" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="159"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="159"/>
-      <c r="F63" s="159"/>
+      <c r="C63" s="190"/>
+      <c r="D63" s="190"/>
+      <c r="E63" s="190"/>
+      <c r="F63" s="190"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="159" t="s">
+      <c r="B64" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="159"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="159"/>
-      <c r="F64" s="159"/>
+      <c r="C64" s="190"/>
+      <c r="D64" s="190"/>
+      <c r="E64" s="190"/>
+      <c r="F64" s="190"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
@@ -13095,12 +13311,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -13194,7 +13410,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -13477,12 +13693,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="150"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -13768,12 +13984,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="149"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="150"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -14075,12 +14291,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="148" t="s">
+      <c r="A63" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="149"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="150"/>
+      <c r="B63" s="180"/>
+      <c r="C63" s="180"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -14193,183 +14409,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="206">
+      <c r="A2" s="237">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="206">
-        <v>1</v>
-      </c>
-      <c r="D2" s="206">
+      <c r="C2" s="237">
+        <v>1</v>
+      </c>
+      <c r="D2" s="237">
         <v>42000</v>
       </c>
-      <c r="E2" s="206">
+      <c r="E2" s="237">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="207"/>
+      <c r="A3" s="238"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="207"/>
+      <c r="A4" s="238"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="207"/>
+      <c r="A5" s="238"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="207"/>
+      <c r="A6" s="238"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="207"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="207"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="207"/>
-      <c r="D8" s="207"/>
-      <c r="E8" s="207"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="207"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="207"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="207"/>
+      <c r="A11" s="238"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="238"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="207"/>
+      <c r="A12" s="238"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="238"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="207"/>
+      <c r="A13" s="238"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="238"/>
+      <c r="E13" s="238"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="207"/>
+      <c r="A14" s="238"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="238"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="207"/>
+      <c r="A15" s="238"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="207"/>
+      <c r="A16" s="238"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="207"/>
+      <c r="A17" s="238"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="207"/>
+      <c r="A18" s="238"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="207"/>
-      <c r="D18" s="207"/>
-      <c r="E18" s="207"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
+      <c r="E18" s="238"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="208"/>
+      <c r="A19" s="239"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="208"/>
-      <c r="D19" s="208"/>
-      <c r="E19" s="208"/>
+      <c r="C19" s="239"/>
+      <c r="D19" s="239"/>
+      <c r="E19" s="239"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="192" t="s">
+      <c r="A20" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
+      <c r="B20" s="223"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -14482,7 +14698,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14685,12 +14901,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="181"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -14943,12 +15159,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -15171,10 +15387,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="241" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="210"/>
+      <c r="C6" s="241"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -15188,13 +15404,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="240" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
+      <c r="B7" s="240"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="240"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -15350,10 +15566,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="210" t="s">
+      <c r="B26" s="241" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="210"/>
+      <c r="C26" s="241"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -15367,13 +15583,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="209" t="s">
+      <c r="A27" s="240" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="209"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="209"/>
+      <c r="B27" s="240"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="240"/>
+      <c r="E27" s="240"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -15397,7 +15613,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15585,12 +15801,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="181"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -15880,12 +16096,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="149"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="150"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -15958,8 +16174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16152,12 +16368,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="181"/>
       <c r="E11" s="145">
         <f>SUM(E3:E10)</f>
         <v>99820</v>
@@ -16474,12 +16690,12 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="150"/>
+      <c r="B36" s="180"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="145">
         <f>SUM(E27:E35)</f>
         <v>56780</v>
@@ -16735,12 +16951,12 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="148" t="s">
+      <c r="A55" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="149"/>
-      <c r="C55" s="149"/>
-      <c r="D55" s="150"/>
+      <c r="B55" s="180"/>
+      <c r="C55" s="180"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="145">
         <f>SUM(E46:E54)</f>
         <v>86940</v>
@@ -16934,12 +17150,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="148" t="s">
+      <c r="A68" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="149"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="150"/>
+      <c r="B68" s="180"/>
+      <c r="C68" s="180"/>
+      <c r="D68" s="181"/>
       <c r="E68" s="145">
         <f>SUM(E59:E67)</f>
         <v>49380</v>
@@ -16960,8 +17176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17131,12 +17347,12 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="147">
         <f>SUM(E3:E9)</f>
         <v>69770</v>
@@ -17421,12 +17637,12 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="150"/>
+      <c r="B36" s="180"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="147">
         <f>SUM(E29:E35)</f>
         <v>66840</v>
@@ -17514,815 +17730,815 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="211"/>
-    <col min="2" max="2" width="74" style="211" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="211" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="211"/>
+    <col min="1" max="1" width="8.88671875" style="148"/>
+    <col min="2" max="2" width="74" style="148" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="148" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="148"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="213" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="213" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="213" t="s">
+      <c r="A1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="213" t="s">
+      <c r="D1" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="213" t="s">
+      <c r="E1" s="153" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="224"/>
-      <c r="B2" s="215" t="s">
+      <c r="A2" s="155"/>
+      <c r="B2" s="152" t="s">
         <v>544</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="222">
-        <v>1</v>
-      </c>
-      <c r="B3" s="215" t="s">
+      <c r="A3" s="242">
+        <v>1</v>
+      </c>
+      <c r="B3" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="214">
-        <v>1</v>
-      </c>
-      <c r="D3" s="214">
+      <c r="C3" s="242">
+        <v>1</v>
+      </c>
+      <c r="D3" s="242">
         <v>75900</v>
       </c>
-      <c r="E3" s="214">
+      <c r="E3" s="242">
         <f>C3*D3</f>
         <v>75900</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="223"/>
-      <c r="B4" s="215" t="s">
+      <c r="A4" s="243"/>
+      <c r="B4" s="152" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="223"/>
-      <c r="B5" s="215" t="s">
+      <c r="A5" s="243"/>
+      <c r="B5" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="223"/>
-      <c r="B6" s="215" t="s">
+      <c r="A6" s="243"/>
+      <c r="B6" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="223"/>
-      <c r="B7" s="215" t="s">
+      <c r="A7" s="243"/>
+      <c r="B7" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="223"/>
-      <c r="B8" s="215" t="s">
+      <c r="A8" s="243"/>
+      <c r="B8" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="223"/>
-      <c r="B9" s="215" t="s">
+      <c r="A9" s="243"/>
+      <c r="B9" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="223"/>
-      <c r="B10" s="215" t="s">
+      <c r="A10" s="243"/>
+      <c r="B10" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="223"/>
-      <c r="B11" s="215" t="s">
+      <c r="A11" s="243"/>
+      <c r="B11" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="243"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="223"/>
-      <c r="B12" s="215" t="s">
+      <c r="A12" s="243"/>
+      <c r="B12" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="216"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
+      <c r="C12" s="243"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="243"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="223"/>
-      <c r="B13" s="215" t="s">
+      <c r="A13" s="243"/>
+      <c r="B13" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="216"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="216"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="243"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="223"/>
-      <c r="B14" s="215" t="s">
+      <c r="A14" s="243"/>
+      <c r="B14" s="152" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="216"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="216"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="243"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="223"/>
-      <c r="B15" s="215" t="s">
+      <c r="A15" s="243"/>
+      <c r="B15" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="216"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="216"/>
+      <c r="C15" s="243"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="243"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="223"/>
-      <c r="B16" s="215" t="s">
+      <c r="A16" s="243"/>
+      <c r="B16" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="216"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="216"/>
+      <c r="C16" s="243"/>
+      <c r="D16" s="243"/>
+      <c r="E16" s="243"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="223"/>
-      <c r="B17" s="215" t="s">
+      <c r="A17" s="243"/>
+      <c r="B17" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="223"/>
-      <c r="B18" s="215" t="s">
+      <c r="A18" s="244"/>
+      <c r="B18" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
+      <c r="C18" s="244"/>
+      <c r="D18" s="244"/>
+      <c r="E18" s="244"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="219" t="s">
+      <c r="A19" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="220"/>
-      <c r="C19" s="220"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="213">
+      <c r="B19" s="248"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="249"/>
+      <c r="E19" s="153">
         <f>SUM(E3)</f>
         <v>75900</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.8" customHeight="1">
-      <c r="A26" s="213" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="213" t="s">
+      <c r="A26" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="150" t="s">
         <v>474</v>
       </c>
-      <c r="C26" s="213" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="213" t="s">
+      <c r="C26" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="213" t="s">
+      <c r="E26" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="213" t="s">
+      <c r="F26" s="150" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="55.2">
-      <c r="A27" s="218">
-        <v>1</v>
-      </c>
-      <c r="B27" s="215" t="s">
+    <row r="27" spans="1:6" ht="82.8">
+      <c r="A27" s="245">
+        <v>1</v>
+      </c>
+      <c r="B27" s="152" t="s">
         <v>492</v>
       </c>
-      <c r="C27" s="215" t="s">
+      <c r="C27" s="152" t="s">
         <v>492</v>
       </c>
-      <c r="D27" s="212">
-        <v>1</v>
-      </c>
-      <c r="E27" s="218">
+      <c r="D27" s="149">
+        <v>1</v>
+      </c>
+      <c r="E27" s="245">
         <v>69000</v>
       </c>
-      <c r="F27" s="218">
+      <c r="F27" s="245">
         <f>D27*E27</f>
         <v>69000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="179.4">
-      <c r="A28" s="218"/>
-      <c r="B28" s="215" t="s">
+    <row r="28" spans="1:6" ht="262.2">
+      <c r="A28" s="245"/>
+      <c r="B28" s="152" t="s">
         <v>475</v>
       </c>
-      <c r="C28" s="215" t="s">
+      <c r="C28" s="152" t="s">
         <v>476</v>
       </c>
-      <c r="D28" s="212">
-        <v>1</v>
-      </c>
-      <c r="E28" s="218"/>
-      <c r="F28" s="218"/>
-    </row>
-    <row r="29" spans="1:6" ht="82.8">
-      <c r="A29" s="218"/>
-      <c r="B29" s="215" t="s">
+      <c r="D28" s="149">
+        <v>1</v>
+      </c>
+      <c r="E28" s="245"/>
+      <c r="F28" s="245"/>
+    </row>
+    <row r="29" spans="1:6" ht="124.2">
+      <c r="A29" s="245"/>
+      <c r="B29" s="152" t="s">
         <v>477</v>
       </c>
-      <c r="C29" s="215" t="s">
+      <c r="C29" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="D29" s="212">
-        <v>1</v>
-      </c>
-      <c r="E29" s="218"/>
-      <c r="F29" s="218"/>
-    </row>
-    <row r="30" spans="1:6" ht="138">
-      <c r="A30" s="218"/>
-      <c r="B30" s="215" t="s">
+      <c r="D29" s="149">
+        <v>1</v>
+      </c>
+      <c r="E29" s="245"/>
+      <c r="F29" s="245"/>
+    </row>
+    <row r="30" spans="1:6" ht="248.4">
+      <c r="A30" s="245"/>
+      <c r="B30" s="152" t="s">
         <v>479</v>
       </c>
-      <c r="C30" s="215" t="s">
+      <c r="C30" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="D30" s="212">
-        <v>1</v>
-      </c>
-      <c r="E30" s="218"/>
-      <c r="F30" s="218"/>
-    </row>
-    <row r="31" spans="1:6" ht="55.2">
-      <c r="A31" s="218"/>
-      <c r="B31" s="215" t="s">
+      <c r="D30" s="149">
+        <v>1</v>
+      </c>
+      <c r="E30" s="245"/>
+      <c r="F30" s="245"/>
+    </row>
+    <row r="31" spans="1:6" ht="69">
+      <c r="A31" s="245"/>
+      <c r="B31" s="152" t="s">
         <v>481</v>
       </c>
-      <c r="C31" s="215" t="s">
+      <c r="C31" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="D31" s="212">
-        <v>1</v>
-      </c>
-      <c r="E31" s="218"/>
-      <c r="F31" s="218"/>
-    </row>
-    <row r="32" spans="1:6" ht="138">
-      <c r="A32" s="218"/>
-      <c r="B32" s="215" t="s">
+      <c r="D31" s="149">
+        <v>1</v>
+      </c>
+      <c r="E31" s="245"/>
+      <c r="F31" s="245"/>
+    </row>
+    <row r="32" spans="1:6" ht="179.4">
+      <c r="A32" s="245"/>
+      <c r="B32" s="152" t="s">
         <v>483</v>
       </c>
-      <c r="C32" s="215" t="s">
+      <c r="C32" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="212">
-        <v>1</v>
-      </c>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
-    </row>
-    <row r="33" spans="1:6" ht="55.2">
-      <c r="A33" s="218"/>
-      <c r="B33" s="215" t="s">
+      <c r="D32" s="149">
+        <v>1</v>
+      </c>
+      <c r="E32" s="245"/>
+      <c r="F32" s="245"/>
+    </row>
+    <row r="33" spans="1:6" ht="82.8">
+      <c r="A33" s="245"/>
+      <c r="B33" s="152" t="s">
         <v>483</v>
       </c>
-      <c r="C33" s="215" t="s">
+      <c r="C33" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="D33" s="212">
-        <v>1</v>
-      </c>
-      <c r="E33" s="218"/>
-      <c r="F33" s="218"/>
-    </row>
-    <row r="34" spans="1:6" ht="69">
-      <c r="A34" s="218"/>
-      <c r="B34" s="215" t="s">
+      <c r="D33" s="149">
+        <v>1</v>
+      </c>
+      <c r="E33" s="245"/>
+      <c r="F33" s="245"/>
+    </row>
+    <row r="34" spans="1:6" ht="96.6">
+      <c r="A34" s="245"/>
+      <c r="B34" s="152" t="s">
         <v>483</v>
       </c>
-      <c r="C34" s="215" t="s">
+      <c r="C34" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="D34" s="212">
-        <v>1</v>
-      </c>
-      <c r="E34" s="218"/>
-      <c r="F34" s="218"/>
-    </row>
-    <row r="35" spans="1:6" ht="151.80000000000001">
-      <c r="A35" s="218"/>
-      <c r="B35" s="215" t="s">
+      <c r="D34" s="149">
+        <v>1</v>
+      </c>
+      <c r="E34" s="245"/>
+      <c r="F34" s="245"/>
+    </row>
+    <row r="35" spans="1:6" ht="234.6">
+      <c r="A35" s="245"/>
+      <c r="B35" s="152" t="s">
         <v>487</v>
       </c>
-      <c r="C35" s="215" t="s">
+      <c r="C35" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="D35" s="212">
-        <v>1</v>
-      </c>
-      <c r="E35" s="218"/>
-      <c r="F35" s="218"/>
-    </row>
-    <row r="36" spans="1:6" ht="96.6">
-      <c r="A36" s="218"/>
-      <c r="B36" s="215" t="s">
+      <c r="D35" s="149">
+        <v>1</v>
+      </c>
+      <c r="E35" s="245"/>
+      <c r="F35" s="245"/>
+    </row>
+    <row r="36" spans="1:6" ht="165.6">
+      <c r="A36" s="245"/>
+      <c r="B36" s="152" t="s">
         <v>489</v>
       </c>
-      <c r="C36" s="215" t="s">
+      <c r="C36" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="D36" s="212">
-        <v>1</v>
-      </c>
-      <c r="E36" s="218"/>
-      <c r="F36" s="218"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="218"/>
-      <c r="B37" s="215" t="s">
+      <c r="D36" s="149">
+        <v>1</v>
+      </c>
+      <c r="E36" s="245"/>
+      <c r="F36" s="245"/>
+    </row>
+    <row r="37" spans="1:6" ht="27.6">
+      <c r="A37" s="245"/>
+      <c r="B37" s="152" t="s">
         <v>493</v>
       </c>
-      <c r="C37" s="212" t="s">
+      <c r="C37" s="149" t="s">
         <v>491</v>
       </c>
-      <c r="D37" s="212">
-        <v>1</v>
-      </c>
-      <c r="E37" s="218"/>
-      <c r="F37" s="218"/>
-    </row>
-    <row r="38" spans="1:6" ht="41.4">
-      <c r="A38" s="218"/>
-      <c r="B38" s="215" t="s">
+      <c r="D37" s="149">
+        <v>1</v>
+      </c>
+      <c r="E37" s="245"/>
+      <c r="F37" s="245"/>
+    </row>
+    <row r="38" spans="1:6" ht="82.8">
+      <c r="A38" s="245"/>
+      <c r="B38" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="C38" s="215" t="s">
+      <c r="C38" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="212">
-        <v>1</v>
-      </c>
-      <c r="E38" s="218"/>
-      <c r="F38" s="218"/>
-    </row>
-    <row r="39" spans="1:6" ht="41.4">
-      <c r="A39" s="218"/>
-      <c r="B39" s="215" t="s">
+      <c r="D38" s="149">
+        <v>1</v>
+      </c>
+      <c r="E38" s="245"/>
+      <c r="F38" s="245"/>
+    </row>
+    <row r="39" spans="1:6" ht="55.2">
+      <c r="A39" s="245"/>
+      <c r="B39" s="152" t="s">
         <v>495</v>
       </c>
-      <c r="C39" s="215" t="s">
+      <c r="C39" s="152" t="s">
         <v>496</v>
       </c>
-      <c r="D39" s="212">
-        <v>1</v>
-      </c>
-      <c r="E39" s="218"/>
-      <c r="F39" s="218"/>
-    </row>
-    <row r="40" spans="1:6" ht="82.8">
-      <c r="A40" s="218"/>
-      <c r="B40" s="215" t="s">
+      <c r="D39" s="149">
+        <v>1</v>
+      </c>
+      <c r="E39" s="245"/>
+      <c r="F39" s="245"/>
+    </row>
+    <row r="40" spans="1:6" ht="138">
+      <c r="A40" s="245"/>
+      <c r="B40" s="152" t="s">
         <v>497</v>
       </c>
-      <c r="C40" s="215" t="s">
+      <c r="C40" s="152" t="s">
         <v>498</v>
       </c>
-      <c r="D40" s="212">
-        <v>1</v>
-      </c>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
-    </row>
-    <row r="41" spans="1:6" ht="55.2">
-      <c r="A41" s="218"/>
-      <c r="B41" s="215" t="s">
+      <c r="D40" s="149">
+        <v>1</v>
+      </c>
+      <c r="E40" s="245"/>
+      <c r="F40" s="245"/>
+    </row>
+    <row r="41" spans="1:6" ht="96.6">
+      <c r="A41" s="245"/>
+      <c r="B41" s="152" t="s">
         <v>499</v>
       </c>
-      <c r="C41" s="215" t="s">
+      <c r="C41" s="152" t="s">
         <v>500</v>
       </c>
-      <c r="D41" s="212">
-        <v>1</v>
-      </c>
-      <c r="E41" s="218"/>
-      <c r="F41" s="218"/>
-    </row>
-    <row r="42" spans="1:6" ht="193.2">
-      <c r="A42" s="218"/>
-      <c r="B42" s="215" t="s">
+      <c r="D41" s="149">
+        <v>1</v>
+      </c>
+      <c r="E41" s="245"/>
+      <c r="F41" s="245"/>
+    </row>
+    <row r="42" spans="1:6" ht="317.39999999999998">
+      <c r="A42" s="245"/>
+      <c r="B42" s="152" t="s">
         <v>501</v>
       </c>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="152" t="s">
         <v>502</v>
       </c>
-      <c r="D42" s="212">
-        <v>1</v>
-      </c>
-      <c r="E42" s="218"/>
-      <c r="F42" s="218"/>
-    </row>
-    <row r="43" spans="1:6" ht="41.4">
-      <c r="A43" s="218"/>
-      <c r="B43" s="215" t="s">
+      <c r="D42" s="149">
+        <v>1</v>
+      </c>
+      <c r="E42" s="245"/>
+      <c r="F42" s="245"/>
+    </row>
+    <row r="43" spans="1:6" ht="69">
+      <c r="A43" s="245"/>
+      <c r="B43" s="152" t="s">
         <v>501</v>
       </c>
-      <c r="C43" s="215" t="s">
+      <c r="C43" s="152" t="s">
         <v>503</v>
       </c>
-      <c r="D43" s="212">
-        <v>1</v>
-      </c>
-      <c r="E43" s="218"/>
-      <c r="F43" s="218"/>
-    </row>
-    <row r="44" spans="1:6" ht="124.2">
-      <c r="A44" s="218"/>
-      <c r="B44" s="215" t="s">
+      <c r="D43" s="149">
+        <v>1</v>
+      </c>
+      <c r="E43" s="245"/>
+      <c r="F43" s="245"/>
+    </row>
+    <row r="44" spans="1:6" ht="193.2">
+      <c r="A44" s="245"/>
+      <c r="B44" s="152" t="s">
         <v>501</v>
       </c>
-      <c r="C44" s="215" t="s">
+      <c r="C44" s="152" t="s">
         <v>504</v>
       </c>
-      <c r="D44" s="212">
-        <v>1</v>
-      </c>
-      <c r="E44" s="218"/>
-      <c r="F44" s="218"/>
-    </row>
-    <row r="45" spans="1:6" ht="138">
-      <c r="A45" s="218"/>
-      <c r="B45" s="215" t="s">
+      <c r="D44" s="149">
+        <v>1</v>
+      </c>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+    </row>
+    <row r="45" spans="1:6" ht="234.6">
+      <c r="A45" s="245"/>
+      <c r="B45" s="152" t="s">
         <v>505</v>
       </c>
-      <c r="C45" s="215" t="s">
+      <c r="C45" s="152" t="s">
         <v>506</v>
       </c>
-      <c r="D45" s="212">
-        <v>1</v>
-      </c>
-      <c r="E45" s="218"/>
-      <c r="F45" s="218"/>
-    </row>
-    <row r="46" spans="1:6" ht="41.4">
-      <c r="A46" s="218"/>
-      <c r="B46" s="215" t="s">
+      <c r="D45" s="149">
+        <v>1</v>
+      </c>
+      <c r="E45" s="245"/>
+      <c r="F45" s="245"/>
+    </row>
+    <row r="46" spans="1:6" ht="69">
+      <c r="A46" s="245"/>
+      <c r="B46" s="152" t="s">
         <v>507</v>
       </c>
-      <c r="C46" s="215" t="s">
+      <c r="C46" s="152" t="s">
         <v>508</v>
       </c>
-      <c r="D46" s="212">
-        <v>1</v>
-      </c>
-      <c r="E46" s="218"/>
-      <c r="F46" s="218"/>
-    </row>
-    <row r="47" spans="1:6" ht="55.2">
-      <c r="A47" s="218"/>
-      <c r="B47" s="215" t="s">
+      <c r="D46" s="149">
+        <v>1</v>
+      </c>
+      <c r="E46" s="245"/>
+      <c r="F46" s="245"/>
+    </row>
+    <row r="47" spans="1:6" ht="110.4">
+      <c r="A47" s="245"/>
+      <c r="B47" s="152" t="s">
         <v>509</v>
       </c>
-      <c r="C47" s="215" t="s">
+      <c r="C47" s="152" t="s">
         <v>510</v>
       </c>
-      <c r="D47" s="212">
-        <v>1</v>
-      </c>
-      <c r="E47" s="218"/>
-      <c r="F47" s="218"/>
-    </row>
-    <row r="48" spans="1:6" ht="69">
-      <c r="A48" s="218"/>
-      <c r="B48" s="215" t="s">
+      <c r="D47" s="149">
+        <v>1</v>
+      </c>
+      <c r="E47" s="245"/>
+      <c r="F47" s="245"/>
+    </row>
+    <row r="48" spans="1:6" ht="96.6">
+      <c r="A48" s="245"/>
+      <c r="B48" s="152" t="s">
         <v>509</v>
       </c>
-      <c r="C48" s="215" t="s">
+      <c r="C48" s="152" t="s">
         <v>511</v>
       </c>
-      <c r="D48" s="212">
-        <v>1</v>
-      </c>
-      <c r="E48" s="218"/>
-      <c r="F48" s="218"/>
-    </row>
-    <row r="49" spans="1:6" ht="55.2">
-      <c r="A49" s="218"/>
-      <c r="B49" s="215" t="s">
+      <c r="D48" s="149">
+        <v>1</v>
+      </c>
+      <c r="E48" s="245"/>
+      <c r="F48" s="245"/>
+    </row>
+    <row r="49" spans="1:6" ht="110.4">
+      <c r="A49" s="245"/>
+      <c r="B49" s="152" t="s">
         <v>512</v>
       </c>
-      <c r="C49" s="215" t="s">
+      <c r="C49" s="152" t="s">
         <v>513</v>
       </c>
-      <c r="D49" s="212">
-        <v>1</v>
-      </c>
-      <c r="E49" s="218"/>
-      <c r="F49" s="218"/>
-    </row>
-    <row r="50" spans="1:6" ht="110.4">
-      <c r="A50" s="218"/>
-      <c r="B50" s="215" t="s">
+      <c r="D49" s="149">
+        <v>1</v>
+      </c>
+      <c r="E49" s="245"/>
+      <c r="F49" s="245"/>
+    </row>
+    <row r="50" spans="1:6" ht="165.6">
+      <c r="A50" s="245"/>
+      <c r="B50" s="152" t="s">
         <v>514</v>
       </c>
-      <c r="C50" s="215" t="s">
+      <c r="C50" s="152" t="s">
         <v>515</v>
       </c>
-      <c r="D50" s="212">
-        <v>1</v>
-      </c>
-      <c r="E50" s="218"/>
-      <c r="F50" s="218"/>
-    </row>
-    <row r="51" spans="1:6" ht="96.6">
-      <c r="A51" s="218"/>
-      <c r="B51" s="215" t="s">
+      <c r="D50" s="149">
+        <v>1</v>
+      </c>
+      <c r="E50" s="245"/>
+      <c r="F50" s="245"/>
+    </row>
+    <row r="51" spans="1:6" ht="165.6">
+      <c r="A51" s="245"/>
+      <c r="B51" s="152" t="s">
         <v>516</v>
       </c>
-      <c r="C51" s="215" t="s">
+      <c r="C51" s="152" t="s">
         <v>517</v>
       </c>
-      <c r="D51" s="212">
-        <v>1</v>
-      </c>
-      <c r="E51" s="218"/>
-      <c r="F51" s="218"/>
-    </row>
-    <row r="52" spans="1:6" ht="82.8">
-      <c r="A52" s="218"/>
-      <c r="B52" s="215" t="s">
+      <c r="D51" s="149">
+        <v>1</v>
+      </c>
+      <c r="E51" s="245"/>
+      <c r="F51" s="245"/>
+    </row>
+    <row r="52" spans="1:6" ht="151.80000000000001">
+      <c r="A52" s="245"/>
+      <c r="B52" s="152" t="s">
         <v>518</v>
       </c>
-      <c r="C52" s="215" t="s">
+      <c r="C52" s="152" t="s">
         <v>519</v>
       </c>
-      <c r="D52" s="212">
-        <v>1</v>
-      </c>
-      <c r="E52" s="218"/>
-      <c r="F52" s="218"/>
-    </row>
-    <row r="53" spans="1:6" ht="27.6">
-      <c r="A53" s="218"/>
-      <c r="B53" s="215" t="s">
+      <c r="D52" s="149">
+        <v>1</v>
+      </c>
+      <c r="E52" s="245"/>
+      <c r="F52" s="245"/>
+    </row>
+    <row r="53" spans="1:6" ht="55.2">
+      <c r="A53" s="245"/>
+      <c r="B53" s="152" t="s">
         <v>520</v>
       </c>
-      <c r="C53" s="215" t="s">
+      <c r="C53" s="152" t="s">
         <v>521</v>
       </c>
-      <c r="D53" s="212">
-        <v>1</v>
-      </c>
-      <c r="E53" s="218"/>
-      <c r="F53" s="218"/>
-    </row>
-    <row r="54" spans="1:6" ht="55.2">
-      <c r="A54" s="218"/>
-      <c r="B54" s="215" t="s">
+      <c r="D53" s="149">
+        <v>1</v>
+      </c>
+      <c r="E53" s="245"/>
+      <c r="F53" s="245"/>
+    </row>
+    <row r="54" spans="1:6" ht="82.8">
+      <c r="A54" s="245"/>
+      <c r="B54" s="152" t="s">
         <v>523</v>
       </c>
-      <c r="C54" s="215" t="s">
+      <c r="C54" s="152" t="s">
         <v>522</v>
       </c>
-      <c r="D54" s="212">
-        <v>1</v>
-      </c>
-      <c r="E54" s="218"/>
-      <c r="F54" s="218"/>
-    </row>
-    <row r="55" spans="1:6" ht="69">
-      <c r="A55" s="218"/>
-      <c r="B55" s="215" t="s">
+      <c r="D54" s="149">
+        <v>1</v>
+      </c>
+      <c r="E54" s="245"/>
+      <c r="F54" s="245"/>
+    </row>
+    <row r="55" spans="1:6" ht="96.6">
+      <c r="A55" s="245"/>
+      <c r="B55" s="152" t="s">
         <v>524</v>
       </c>
-      <c r="C55" s="215" t="s">
+      <c r="C55" s="152" t="s">
         <v>525</v>
       </c>
-      <c r="D55" s="212">
-        <v>1</v>
-      </c>
-      <c r="E55" s="218"/>
-      <c r="F55" s="218"/>
-    </row>
-    <row r="56" spans="1:6" ht="55.2">
-      <c r="A56" s="218"/>
-      <c r="B56" s="215" t="s">
+      <c r="D55" s="149">
+        <v>1</v>
+      </c>
+      <c r="E55" s="245"/>
+      <c r="F55" s="245"/>
+    </row>
+    <row r="56" spans="1:6" ht="82.8">
+      <c r="A56" s="245"/>
+      <c r="B56" s="152" t="s">
         <v>526</v>
       </c>
-      <c r="C56" s="215" t="s">
+      <c r="C56" s="152" t="s">
         <v>527</v>
       </c>
-      <c r="D56" s="212">
-        <v>1</v>
-      </c>
-      <c r="E56" s="218"/>
-      <c r="F56" s="218"/>
-    </row>
-    <row r="57" spans="1:6" ht="27.6">
-      <c r="A57" s="218"/>
-      <c r="B57" s="213" t="s">
+      <c r="D56" s="149">
+        <v>1</v>
+      </c>
+      <c r="E56" s="245"/>
+      <c r="F56" s="245"/>
+    </row>
+    <row r="57" spans="1:6" ht="41.4">
+      <c r="A57" s="245"/>
+      <c r="B57" s="150" t="s">
         <v>418</v>
       </c>
-      <c r="C57" s="213" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="212"/>
-      <c r="E57" s="218"/>
-      <c r="F57" s="218"/>
-    </row>
-    <row r="58" spans="1:6" ht="41.4">
-      <c r="A58" s="218"/>
-      <c r="B58" s="215" t="s">
+      <c r="C57" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="149"/>
+      <c r="E57" s="245"/>
+      <c r="F57" s="245"/>
+    </row>
+    <row r="58" spans="1:6" ht="82.8">
+      <c r="A58" s="245"/>
+      <c r="B58" s="152" t="s">
         <v>528</v>
       </c>
-      <c r="C58" s="215" t="s">
+      <c r="C58" s="152" t="s">
         <v>529</v>
       </c>
-      <c r="D58" s="212">
-        <v>1</v>
-      </c>
-      <c r="E58" s="218"/>
-      <c r="F58" s="218"/>
-    </row>
-    <row r="59" spans="1:6" ht="27.6">
-      <c r="A59" s="218"/>
-      <c r="B59" s="215" t="s">
+      <c r="D58" s="149">
+        <v>1</v>
+      </c>
+      <c r="E58" s="245"/>
+      <c r="F58" s="245"/>
+    </row>
+    <row r="59" spans="1:6" ht="41.4">
+      <c r="A59" s="245"/>
+      <c r="B59" s="152" t="s">
         <v>501</v>
       </c>
-      <c r="C59" s="215" t="s">
+      <c r="C59" s="152" t="s">
         <v>530</v>
       </c>
-      <c r="D59" s="212">
-        <v>1</v>
-      </c>
-      <c r="E59" s="218"/>
-      <c r="F59" s="218"/>
-    </row>
-    <row r="60" spans="1:6" ht="69">
-      <c r="A60" s="218"/>
-      <c r="B60" s="215" t="s">
+      <c r="D59" s="149">
+        <v>1</v>
+      </c>
+      <c r="E59" s="245"/>
+      <c r="F59" s="245"/>
+    </row>
+    <row r="60" spans="1:6" ht="138">
+      <c r="A60" s="245"/>
+      <c r="B60" s="152" t="s">
         <v>501</v>
       </c>
-      <c r="C60" s="215" t="s">
+      <c r="C60" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="D60" s="212">
-        <v>1</v>
-      </c>
-      <c r="E60" s="218"/>
-      <c r="F60" s="218"/>
-    </row>
-    <row r="61" spans="1:6" ht="41.4">
-      <c r="A61" s="218"/>
-      <c r="B61" s="215" t="s">
+      <c r="D60" s="149">
+        <v>1</v>
+      </c>
+      <c r="E60" s="245"/>
+      <c r="F60" s="245"/>
+    </row>
+    <row r="61" spans="1:6" ht="69">
+      <c r="A61" s="245"/>
+      <c r="B61" s="152" t="s">
         <v>501</v>
       </c>
-      <c r="C61" s="215" t="s">
+      <c r="C61" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="D61" s="212">
-        <v>1</v>
-      </c>
-      <c r="E61" s="218"/>
-      <c r="F61" s="218"/>
-    </row>
-    <row r="62" spans="1:6" ht="82.8">
-      <c r="A62" s="218"/>
-      <c r="B62" s="215" t="s">
+      <c r="D61" s="149">
+        <v>1</v>
+      </c>
+      <c r="E61" s="245"/>
+      <c r="F61" s="245"/>
+    </row>
+    <row r="62" spans="1:6" ht="110.4">
+      <c r="A62" s="245"/>
+      <c r="B62" s="152" t="s">
         <v>501</v>
       </c>
-      <c r="C62" s="215" t="s">
+      <c r="C62" s="152" t="s">
         <v>533</v>
       </c>
-      <c r="D62" s="212">
-        <v>1</v>
-      </c>
-      <c r="E62" s="218"/>
-      <c r="F62" s="218"/>
-    </row>
-    <row r="63" spans="1:6" ht="55.2">
-      <c r="A63" s="218"/>
-      <c r="B63" s="215" t="s">
+      <c r="D62" s="149">
+        <v>1</v>
+      </c>
+      <c r="E62" s="245"/>
+      <c r="F62" s="245"/>
+    </row>
+    <row r="63" spans="1:6" ht="96.6">
+      <c r="A63" s="245"/>
+      <c r="B63" s="152" t="s">
         <v>534</v>
       </c>
-      <c r="C63" s="215" t="s">
+      <c r="C63" s="152" t="s">
         <v>535</v>
       </c>
-      <c r="D63" s="212">
-        <v>1</v>
-      </c>
-      <c r="E63" s="218"/>
-      <c r="F63" s="218"/>
-    </row>
-    <row r="64" spans="1:6" ht="55.2">
-      <c r="A64" s="218"/>
-      <c r="B64" s="215" t="s">
+      <c r="D63" s="149">
+        <v>1</v>
+      </c>
+      <c r="E63" s="245"/>
+      <c r="F63" s="245"/>
+    </row>
+    <row r="64" spans="1:6" ht="110.4">
+      <c r="A64" s="245"/>
+      <c r="B64" s="152" t="s">
         <v>536</v>
       </c>
-      <c r="C64" s="212" t="s">
+      <c r="C64" s="149" t="s">
         <v>537</v>
       </c>
-      <c r="D64" s="212">
-        <v>1</v>
-      </c>
-      <c r="E64" s="218"/>
-      <c r="F64" s="218"/>
-    </row>
-    <row r="65" spans="1:6" ht="27.6">
-      <c r="A65" s="218"/>
-      <c r="B65" s="213" t="s">
+      <c r="D64" s="149">
+        <v>1</v>
+      </c>
+      <c r="E64" s="245"/>
+      <c r="F64" s="245"/>
+    </row>
+    <row r="65" spans="1:6" ht="41.4">
+      <c r="A65" s="245"/>
+      <c r="B65" s="150" t="s">
         <v>538</v>
       </c>
-      <c r="C65" s="213" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="212"/>
-      <c r="E65" s="218"/>
-      <c r="F65" s="218"/>
-    </row>
-    <row r="66" spans="1:6" ht="69">
-      <c r="A66" s="218"/>
-      <c r="B66" s="215" t="s">
+      <c r="C65" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="149"/>
+      <c r="E65" s="245"/>
+      <c r="F65" s="245"/>
+    </row>
+    <row r="66" spans="1:6" ht="124.2">
+      <c r="A66" s="245"/>
+      <c r="B66" s="152" t="s">
         <v>540</v>
       </c>
-      <c r="C66" s="215" t="s">
+      <c r="C66" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="D66" s="212">
-        <v>1</v>
-      </c>
-      <c r="E66" s="218"/>
-      <c r="F66" s="218"/>
-    </row>
-    <row r="67" spans="1:6" ht="82.8">
-      <c r="A67" s="218"/>
-      <c r="B67" s="215" t="s">
+      <c r="D66" s="149">
+        <v>1</v>
+      </c>
+      <c r="E66" s="245"/>
+      <c r="F66" s="245"/>
+    </row>
+    <row r="67" spans="1:6" ht="151.80000000000001">
+      <c r="A67" s="245"/>
+      <c r="B67" s="152" t="s">
         <v>541</v>
       </c>
-      <c r="C67" s="215" t="s">
+      <c r="C67" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="D67" s="212">
-        <v>1</v>
-      </c>
-      <c r="E67" s="218"/>
-      <c r="F67" s="218"/>
+      <c r="D67" s="149">
+        <v>1</v>
+      </c>
+      <c r="E67" s="245"/>
+      <c r="F67" s="245"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="217" t="s">
+      <c r="A68" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="217"/>
-      <c r="C68" s="217"/>
-      <c r="D68" s="217"/>
-      <c r="E68" s="217"/>
-      <c r="F68" s="213">
+      <c r="B68" s="246"/>
+      <c r="C68" s="246"/>
+      <c r="D68" s="246"/>
+      <c r="E68" s="246"/>
+      <c r="F68" s="150">
         <f>SUM(F27:F27)</f>
         <v>69000</v>
       </c>
@@ -18348,7 +18564,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18432,48 +18648,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="196"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="165"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="196"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="196"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="194" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -18488,6 +18704,3442 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" style="160" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="160" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="160" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="160"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="153" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="97.8" customHeight="1">
+      <c r="A2" s="154">
+        <v>1</v>
+      </c>
+      <c r="B2" s="159" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="159">
+        <v>1</v>
+      </c>
+      <c r="D2" s="151">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="246" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="153">
+        <f>SUM(D2)</f>
+        <v>45000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="42"/>
+    <col min="2" max="2" width="46.77734375" style="42" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="158" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="158" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="158" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="157">
+        <v>8</v>
+      </c>
+      <c r="D2" s="157">
+        <v>4000</v>
+      </c>
+      <c r="E2" s="157">
+        <f t="shared" ref="E2:E9" si="0">C2*D2</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="157" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="157">
+        <v>1</v>
+      </c>
+      <c r="D3" s="157">
+        <v>11880</v>
+      </c>
+      <c r="E3" s="157">
+        <f t="shared" si="0"/>
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="157">
+        <v>3</v>
+      </c>
+      <c r="B4" s="157" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="157">
+        <v>1</v>
+      </c>
+      <c r="D4" s="157">
+        <v>12800</v>
+      </c>
+      <c r="E4" s="157">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+      <c r="G4" s="42">
+        <f>6400*2</f>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="157">
+        <v>4</v>
+      </c>
+      <c r="B5" s="157" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="157">
+        <v>1</v>
+      </c>
+      <c r="D5" s="157">
+        <v>8600</v>
+      </c>
+      <c r="E5" s="157">
+        <f t="shared" si="0"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="157">
+        <v>5</v>
+      </c>
+      <c r="B6" s="157" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="157">
+        <v>1</v>
+      </c>
+      <c r="D6" s="157">
+        <v>8490</v>
+      </c>
+      <c r="E6" s="157">
+        <f t="shared" si="0"/>
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="157">
+        <v>6</v>
+      </c>
+      <c r="B7" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="157">
+        <v>22</v>
+      </c>
+      <c r="D7" s="157">
+        <v>150</v>
+      </c>
+      <c r="E7" s="157">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="157">
+        <v>7</v>
+      </c>
+      <c r="B8" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="157">
+        <v>9</v>
+      </c>
+      <c r="D8" s="157">
+        <v>100</v>
+      </c>
+      <c r="E8" s="157">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="157">
+        <v>8</v>
+      </c>
+      <c r="B9" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="157">
+        <v>1</v>
+      </c>
+      <c r="D9" s="157">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="157">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="158">
+        <f>SUM(E2:E9)</f>
+        <v>82970</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="163"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="158" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="158" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="158" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="C28" s="157">
+        <v>8</v>
+      </c>
+      <c r="D28" s="157">
+        <v>4300</v>
+      </c>
+      <c r="E28" s="157">
+        <f t="shared" ref="E28:E35" si="1">C28*D28</f>
+        <v>34400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="157">
+        <v>2</v>
+      </c>
+      <c r="B29" s="157" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" s="157">
+        <v>1</v>
+      </c>
+      <c r="D29" s="157">
+        <v>13100</v>
+      </c>
+      <c r="E29" s="157">
+        <f t="shared" si="1"/>
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="157">
+        <v>3</v>
+      </c>
+      <c r="B30" s="157" t="s">
+        <v>548</v>
+      </c>
+      <c r="C30" s="157">
+        <v>1</v>
+      </c>
+      <c r="D30" s="157">
+        <v>8950</v>
+      </c>
+      <c r="E30" s="157">
+        <f t="shared" si="1"/>
+        <v>8950</v>
+      </c>
+      <c r="G30" s="42">
+        <f>4475*2</f>
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="157">
+        <v>4</v>
+      </c>
+      <c r="B31" s="157" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" s="157">
+        <v>1</v>
+      </c>
+      <c r="D31" s="157">
+        <v>8600</v>
+      </c>
+      <c r="E31" s="157">
+        <f t="shared" si="1"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="157">
+        <v>5</v>
+      </c>
+      <c r="B32" s="157" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="157">
+        <v>1</v>
+      </c>
+      <c r="D32" s="157">
+        <v>8600</v>
+      </c>
+      <c r="E32" s="157">
+        <f t="shared" si="1"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="157">
+        <v>6</v>
+      </c>
+      <c r="B33" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="157">
+        <v>22</v>
+      </c>
+      <c r="D33" s="157">
+        <v>150</v>
+      </c>
+      <c r="E33" s="157">
+        <f t="shared" si="1"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="157">
+        <v>7</v>
+      </c>
+      <c r="B34" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="157">
+        <v>9</v>
+      </c>
+      <c r="D34" s="157">
+        <v>100</v>
+      </c>
+      <c r="E34" s="157">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="157">
+        <v>8</v>
+      </c>
+      <c r="B35" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="157">
+        <v>1</v>
+      </c>
+      <c r="D35" s="157">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="157">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="180"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="158">
+        <f>SUM(E28:E35)</f>
+        <v>82850</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A36:D36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21.6" customHeight="1">
+      <c r="A3" s="161" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="161">
+        <v>18</v>
+      </c>
+      <c r="D3" s="161">
+        <v>4000</v>
+      </c>
+      <c r="E3" s="161">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="161">
+        <v>2</v>
+      </c>
+      <c r="B4" s="161" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="161">
+        <v>1</v>
+      </c>
+      <c r="D4" s="161">
+        <v>24400</v>
+      </c>
+      <c r="E4" s="161">
+        <f t="shared" si="0"/>
+        <v>24400</v>
+      </c>
+      <c r="H4">
+        <f>12200*2</f>
+        <v>24400</v>
+      </c>
+      <c r="I4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="161">
+        <v>3</v>
+      </c>
+      <c r="B5" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="161">
+        <v>1</v>
+      </c>
+      <c r="D5" s="161">
+        <v>8600</v>
+      </c>
+      <c r="E5" s="161">
+        <f t="shared" si="0"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26.4">
+      <c r="A6" s="161">
+        <v>4</v>
+      </c>
+      <c r="B6" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="161">
+        <v>2</v>
+      </c>
+      <c r="D6" s="161">
+        <v>11900</v>
+      </c>
+      <c r="E6" s="161">
+        <f t="shared" si="0"/>
+        <v>23800</v>
+      </c>
+      <c r="H6" s="4">
+        <f>5950*2</f>
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="26.4">
+      <c r="A7" s="161">
+        <v>5</v>
+      </c>
+      <c r="B7" s="161" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="161">
+        <v>1</v>
+      </c>
+      <c r="D7" s="161">
+        <v>9000</v>
+      </c>
+      <c r="E7" s="161">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="161">
+        <v>6</v>
+      </c>
+      <c r="B8" s="161" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="161">
+        <v>42</v>
+      </c>
+      <c r="D8" s="161">
+        <v>150</v>
+      </c>
+      <c r="E8" s="161">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="161">
+        <v>7</v>
+      </c>
+      <c r="B9" s="161" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="161">
+        <v>18</v>
+      </c>
+      <c r="D9" s="161">
+        <v>100</v>
+      </c>
+      <c r="E9" s="161">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="161">
+        <v>8</v>
+      </c>
+      <c r="B10" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="161">
+        <v>1</v>
+      </c>
+      <c r="D10" s="161">
+        <v>6900</v>
+      </c>
+      <c r="E10" s="161">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="162">
+        <f>SUM(E3:E10)</f>
+        <v>152800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="161">
+        <v>1</v>
+      </c>
+      <c r="B27" s="161" t="s">
+        <v>466</v>
+      </c>
+      <c r="C27" s="161">
+        <v>18</v>
+      </c>
+      <c r="D27" s="161">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="161">
+        <f t="shared" ref="E27:E34" si="1">C27*D27</f>
+        <v>43200</v>
+      </c>
+      <c r="I27" s="40">
+        <f>1230*2</f>
+        <v>2460</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="161">
+        <v>2</v>
+      </c>
+      <c r="B28" s="161" t="s">
+        <v>552</v>
+      </c>
+      <c r="C28" s="161">
+        <v>1</v>
+      </c>
+      <c r="D28" s="161">
+        <v>29500</v>
+      </c>
+      <c r="E28" s="161">
+        <f t="shared" si="1"/>
+        <v>29500</v>
+      </c>
+      <c r="I28">
+        <f>14750*2</f>
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="161">
+        <v>3</v>
+      </c>
+      <c r="B29" s="161" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="161">
+        <v>36</v>
+      </c>
+      <c r="D29" s="161">
+        <v>60</v>
+      </c>
+      <c r="E29" s="161">
+        <f t="shared" si="1"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="161">
+        <v>4</v>
+      </c>
+      <c r="B30" s="161" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="161">
+        <v>18</v>
+      </c>
+      <c r="D30" s="161">
+        <v>50</v>
+      </c>
+      <c r="E30" s="161">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="161">
+        <v>5</v>
+      </c>
+      <c r="B31" s="161" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="161">
+        <v>1</v>
+      </c>
+      <c r="D31" s="161">
+        <v>1990</v>
+      </c>
+      <c r="E31" s="161">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="161">
+        <v>6</v>
+      </c>
+      <c r="B32" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="161">
+        <v>1</v>
+      </c>
+      <c r="D32" s="161">
+        <v>8600</v>
+      </c>
+      <c r="E32" s="161">
+        <f t="shared" si="1"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="161">
+        <v>7</v>
+      </c>
+      <c r="B33" s="161" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="161">
+        <v>18</v>
+      </c>
+      <c r="D33" s="161">
+        <v>100</v>
+      </c>
+      <c r="E33" s="161">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="161">
+        <v>8</v>
+      </c>
+      <c r="B34" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="161">
+        <v>1</v>
+      </c>
+      <c r="D34" s="161">
+        <v>6900</v>
+      </c>
+      <c r="E34" s="161">
+        <f t="shared" si="1"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="180"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="162">
+        <f>SUM(E27:E34)</f>
+        <v>95050</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="45" spans="1:5" s="164" customFormat="1"/>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="161">
+        <v>1</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="C51" s="161">
+        <v>18</v>
+      </c>
+      <c r="D51" s="161">
+        <v>4300</v>
+      </c>
+      <c r="E51" s="161">
+        <f t="shared" ref="E51:E58" si="2">C51*D51</f>
+        <v>77400</v>
+      </c>
+      <c r="H51">
+        <f>2150*2</f>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="161">
+        <v>2</v>
+      </c>
+      <c r="B52" s="161" t="s">
+        <v>549</v>
+      </c>
+      <c r="C52" s="161">
+        <v>1</v>
+      </c>
+      <c r="D52" s="161">
+        <v>19020</v>
+      </c>
+      <c r="E52" s="161">
+        <f t="shared" si="2"/>
+        <v>19020</v>
+      </c>
+      <c r="H52">
+        <f>9510*2</f>
+        <v>19020</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="161">
+        <v>3</v>
+      </c>
+      <c r="B53" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="161">
+        <v>1</v>
+      </c>
+      <c r="D53" s="161">
+        <v>8600</v>
+      </c>
+      <c r="E53" s="161">
+        <f t="shared" si="2"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="26.4">
+      <c r="A54" s="161">
+        <v>4</v>
+      </c>
+      <c r="B54" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="C54" s="161">
+        <v>1</v>
+      </c>
+      <c r="D54" s="161">
+        <v>11900</v>
+      </c>
+      <c r="E54" s="161">
+        <f t="shared" si="2"/>
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="26.4">
+      <c r="A55" s="161">
+        <v>5</v>
+      </c>
+      <c r="B55" s="161" t="s">
+        <v>456</v>
+      </c>
+      <c r="C55" s="161">
+        <v>1</v>
+      </c>
+      <c r="D55" s="161">
+        <v>9000</v>
+      </c>
+      <c r="E55" s="161">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="161">
+        <v>6</v>
+      </c>
+      <c r="B56" s="161" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="161">
+        <v>40</v>
+      </c>
+      <c r="D56" s="161">
+        <v>150</v>
+      </c>
+      <c r="E56" s="161">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="161">
+        <v>7</v>
+      </c>
+      <c r="B57" s="161" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="161">
+        <v>18</v>
+      </c>
+      <c r="D57" s="161">
+        <v>100</v>
+      </c>
+      <c r="E57" s="161">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="161">
+        <v>8</v>
+      </c>
+      <c r="B58" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="161">
+        <v>1</v>
+      </c>
+      <c r="D58" s="161">
+        <v>5500</v>
+      </c>
+      <c r="E58" s="161">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="180"/>
+      <c r="C59" s="180"/>
+      <c r="D59" s="181"/>
+      <c r="E59" s="162">
+        <f>SUM(E51:E58)</f>
+        <v>139220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="161">
+        <v>1</v>
+      </c>
+      <c r="B74" s="161" t="s">
+        <v>550</v>
+      </c>
+      <c r="C74" s="161">
+        <v>18</v>
+      </c>
+      <c r="D74" s="161">
+        <v>1800</v>
+      </c>
+      <c r="E74" s="161">
+        <f t="shared" ref="E74:E81" si="3">C74*D74</f>
+        <v>32400</v>
+      </c>
+      <c r="H74">
+        <f>900*2</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="161">
+        <v>2</v>
+      </c>
+      <c r="B75" s="161" t="s">
+        <v>551</v>
+      </c>
+      <c r="C75" s="161">
+        <v>1</v>
+      </c>
+      <c r="D75" s="161">
+        <v>29500</v>
+      </c>
+      <c r="E75" s="161">
+        <f t="shared" si="3"/>
+        <v>29500</v>
+      </c>
+      <c r="H75">
+        <f>14750*2</f>
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="161">
+        <v>3</v>
+      </c>
+      <c r="B76" s="161" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="161">
+        <v>36</v>
+      </c>
+      <c r="D76" s="161">
+        <v>60</v>
+      </c>
+      <c r="E76" s="161">
+        <f t="shared" si="3"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="161">
+        <v>4</v>
+      </c>
+      <c r="B77" s="161" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="161">
+        <v>18</v>
+      </c>
+      <c r="D77" s="161">
+        <v>50</v>
+      </c>
+      <c r="E77" s="161">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="161">
+        <v>5</v>
+      </c>
+      <c r="B78" s="161" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="161">
+        <v>1</v>
+      </c>
+      <c r="D78" s="161">
+        <v>1990</v>
+      </c>
+      <c r="E78" s="161">
+        <f t="shared" si="3"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="161">
+        <v>6</v>
+      </c>
+      <c r="B79" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="161">
+        <v>1</v>
+      </c>
+      <c r="D79" s="161">
+        <v>8600</v>
+      </c>
+      <c r="E79" s="161">
+        <f t="shared" si="3"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="161">
+        <v>7</v>
+      </c>
+      <c r="B80" s="161" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="161">
+        <v>18</v>
+      </c>
+      <c r="D80" s="161">
+        <v>100</v>
+      </c>
+      <c r="E80" s="161">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="161">
+        <v>8</v>
+      </c>
+      <c r="B81" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="161">
+        <v>1</v>
+      </c>
+      <c r="D81" s="161">
+        <v>5000</v>
+      </c>
+      <c r="E81" s="161">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="180"/>
+      <c r="C82" s="180"/>
+      <c r="D82" s="181"/>
+      <c r="E82" s="162">
+        <f>SUM(E74:E81)</f>
+        <v>82350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="7"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A82:D82"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="55.2">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2" s="165">
+        <v>1</v>
+      </c>
+      <c r="D2" s="165">
+        <v>27900</v>
+      </c>
+      <c r="E2" s="165">
+        <f>C2*D2</f>
+        <v>27900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="250" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="166">
+        <f>SUM(E2)</f>
+        <v>27900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="250" t="s">
+        <v>553</v>
+      </c>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="166">
+        <f>E3*9%</f>
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="250" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="251"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="166">
+        <f>E3*9%</f>
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="250" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="251"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="166">
+        <f>SUM(E3:E5)</f>
+        <v>32922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="40" t="s">
+        <v>556</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="48.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="168" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="168" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="168" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="168" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1">
+      <c r="A2" s="167">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" s="167">
+        <v>4</v>
+      </c>
+      <c r="D2" s="167">
+        <v>9300</v>
+      </c>
+      <c r="E2" s="167">
+        <f t="shared" ref="E2:E9" si="0">C2*D2</f>
+        <v>37200</v>
+      </c>
+      <c r="I2">
+        <f>4660*2</f>
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21.6" customHeight="1">
+      <c r="A3" s="167">
+        <v>2</v>
+      </c>
+      <c r="B3" s="167" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" s="167">
+        <v>1</v>
+      </c>
+      <c r="D3" s="167">
+        <v>8800</v>
+      </c>
+      <c r="E3" s="167">
+        <f t="shared" si="0"/>
+        <v>8800</v>
+      </c>
+      <c r="I3">
+        <f>4410*2</f>
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="167">
+        <v>3</v>
+      </c>
+      <c r="B4" s="167" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="167">
+        <v>1</v>
+      </c>
+      <c r="D4" s="167">
+        <v>5900</v>
+      </c>
+      <c r="E4" s="167">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26.4" customHeight="1">
+      <c r="A5" s="167">
+        <v>4</v>
+      </c>
+      <c r="B5" s="167" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="167">
+        <v>1</v>
+      </c>
+      <c r="D5" s="167">
+        <v>11900</v>
+      </c>
+      <c r="E5" s="167">
+        <f t="shared" si="0"/>
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" customHeight="1">
+      <c r="A6" s="167">
+        <v>5</v>
+      </c>
+      <c r="B6" s="167" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="167">
+        <v>1</v>
+      </c>
+      <c r="D6" s="167">
+        <v>9000</v>
+      </c>
+      <c r="E6" s="167">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="A7" s="167">
+        <v>6</v>
+      </c>
+      <c r="B7" s="167" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="167">
+        <v>11</v>
+      </c>
+      <c r="D7" s="167">
+        <v>150</v>
+      </c>
+      <c r="E7" s="167">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="167">
+        <v>7</v>
+      </c>
+      <c r="B8" s="167" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="167">
+        <v>4</v>
+      </c>
+      <c r="D8" s="167">
+        <v>100</v>
+      </c>
+      <c r="E8" s="167">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.399999999999999" customHeight="1">
+      <c r="A9" s="167">
+        <v>8</v>
+      </c>
+      <c r="B9" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="167">
+        <v>1</v>
+      </c>
+      <c r="D9" s="167">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="167">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="168">
+        <f>SUM(E2:E9)</f>
+        <v>79850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="20" spans="1:10" s="164" customFormat="1"/>
+    <row r="22" spans="1:10">
+      <c r="A22" s="170" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="170" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="170" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="170" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="169">
+        <v>1</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="C23" s="169">
+        <v>4</v>
+      </c>
+      <c r="D23" s="169">
+        <v>5790</v>
+      </c>
+      <c r="E23" s="169">
+        <f t="shared" ref="E23:E29" si="1">C23*D23</f>
+        <v>23160</v>
+      </c>
+      <c r="H23">
+        <f>3200*2</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="169">
+        <v>2</v>
+      </c>
+      <c r="B24" s="169" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="169">
+        <v>1</v>
+      </c>
+      <c r="D24" s="169">
+        <v>6900</v>
+      </c>
+      <c r="E24" s="169">
+        <f t="shared" si="1"/>
+        <v>6900</v>
+      </c>
+      <c r="H24">
+        <f>3050*2</f>
+        <v>6100</v>
+      </c>
+      <c r="J24">
+        <f>2650*2</f>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="169">
+        <v>3</v>
+      </c>
+      <c r="B25" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="169">
+        <v>1</v>
+      </c>
+      <c r="D25" s="169">
+        <v>3800</v>
+      </c>
+      <c r="E25" s="169">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="26.4">
+      <c r="A26" s="169">
+        <v>4</v>
+      </c>
+      <c r="B26" s="169" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="169">
+        <v>1</v>
+      </c>
+      <c r="D26" s="169">
+        <v>6900</v>
+      </c>
+      <c r="E26" s="169">
+        <f t="shared" si="1"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="169">
+        <v>5</v>
+      </c>
+      <c r="B27" s="169" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="169">
+        <v>11</v>
+      </c>
+      <c r="D27" s="169">
+        <v>150</v>
+      </c>
+      <c r="E27" s="169">
+        <f t="shared" si="1"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="169">
+        <v>6</v>
+      </c>
+      <c r="B28" s="169" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="169">
+        <v>4</v>
+      </c>
+      <c r="D28" s="169">
+        <v>100</v>
+      </c>
+      <c r="E28" s="169">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="169">
+        <v>7</v>
+      </c>
+      <c r="B29" s="169" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="169">
+        <v>1</v>
+      </c>
+      <c r="D29" s="169">
+        <v>6900</v>
+      </c>
+      <c r="E29" s="169">
+        <f t="shared" si="1"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="180"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="170">
+        <f>SUM(E23:E29)</f>
+        <v>49710</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A30:D30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="97" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="97" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="97" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="97" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="97" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="97"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="174" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="172" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="172" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.6" customHeight="1">
+      <c r="A3" s="171">
+        <v>1</v>
+      </c>
+      <c r="B3" s="171" t="s">
+        <v>571</v>
+      </c>
+      <c r="C3" s="171">
+        <v>1</v>
+      </c>
+      <c r="D3" s="171">
+        <v>58978</v>
+      </c>
+      <c r="E3" s="171">
+        <f t="shared" ref="E3:E8" si="0">C3*D3</f>
+        <v>58978</v>
+      </c>
+      <c r="H3" s="97">
+        <f>29489*2</f>
+        <v>58978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.2" customHeight="1">
+      <c r="A4" s="171">
+        <v>2</v>
+      </c>
+      <c r="B4" s="171" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="171">
+        <v>1</v>
+      </c>
+      <c r="D4" s="171">
+        <v>64200</v>
+      </c>
+      <c r="E4" s="171">
+        <f t="shared" si="0"/>
+        <v>64200</v>
+      </c>
+      <c r="H4" s="97">
+        <f>32100*2</f>
+        <v>64200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="171">
+        <v>3</v>
+      </c>
+      <c r="B5" s="171" t="s">
+        <v>560</v>
+      </c>
+      <c r="C5" s="171">
+        <v>2</v>
+      </c>
+      <c r="D5" s="171">
+        <v>2140</v>
+      </c>
+      <c r="E5" s="171">
+        <f t="shared" si="0"/>
+        <v>4280</v>
+      </c>
+      <c r="H5" s="97">
+        <f>1070*2</f>
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="171">
+        <v>4</v>
+      </c>
+      <c r="B6" s="171" t="s">
+        <v>572</v>
+      </c>
+      <c r="C6" s="171">
+        <v>1</v>
+      </c>
+      <c r="D6" s="171">
+        <v>2354</v>
+      </c>
+      <c r="E6" s="171">
+        <f t="shared" si="0"/>
+        <v>2354</v>
+      </c>
+      <c r="H6" s="97">
+        <f>1177*2</f>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A7" s="171">
+        <v>5</v>
+      </c>
+      <c r="B7" s="171" t="s">
+        <v>574</v>
+      </c>
+      <c r="C7" s="171">
+        <v>1</v>
+      </c>
+      <c r="D7" s="171">
+        <v>15412</v>
+      </c>
+      <c r="E7" s="171">
+        <f t="shared" si="0"/>
+        <v>15412</v>
+      </c>
+      <c r="H7" s="97">
+        <f>7706*2</f>
+        <v>15412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="27.6">
+      <c r="A8" s="171">
+        <v>6</v>
+      </c>
+      <c r="B8" s="178" t="s">
+        <v>568</v>
+      </c>
+      <c r="C8" s="173">
+        <v>1</v>
+      </c>
+      <c r="D8" s="173">
+        <v>36000</v>
+      </c>
+      <c r="E8" s="171">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="172">
+        <f>SUM(E3:E8)</f>
+        <v>181224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="75" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="75" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="75"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="F14" s="97" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="172" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30.6" customHeight="1">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>271000</v>
+      </c>
+      <c r="E16" s="52">
+        <f>C16*D16</f>
+        <v>271000</v>
+      </c>
+      <c r="H16" s="97">
+        <f>D16*1.8</f>
+        <v>487800</v>
+      </c>
+      <c r="J16" s="97">
+        <f>D16+10000</f>
+        <v>281000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="8">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>11250</v>
+      </c>
+      <c r="E17" s="52">
+        <f t="shared" ref="E17:E22" si="1">C17*D17</f>
+        <v>11250</v>
+      </c>
+      <c r="H17" s="97">
+        <f t="shared" ref="H17:H21" si="2">D17*1.8</f>
+        <v>20250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>18000</v>
+      </c>
+      <c r="E18" s="52">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="H18" s="97">
+        <f t="shared" si="2"/>
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="8">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>9720</v>
+      </c>
+      <c r="E19" s="52">
+        <f t="shared" si="1"/>
+        <v>9720</v>
+      </c>
+      <c r="H19" s="97">
+        <f t="shared" si="2"/>
+        <v>17496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="8">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5220</v>
+      </c>
+      <c r="E20" s="52">
+        <f t="shared" si="1"/>
+        <v>5220</v>
+      </c>
+      <c r="H20" s="97">
+        <f t="shared" si="2"/>
+        <v>9396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="8">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>12960</v>
+      </c>
+      <c r="E21" s="52">
+        <f t="shared" si="1"/>
+        <v>12960</v>
+      </c>
+      <c r="H21" s="97">
+        <f t="shared" si="2"/>
+        <v>23328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="26.4">
+      <c r="A22" s="8">
+        <v>7</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>36000</v>
+      </c>
+      <c r="E22" s="52">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+      <c r="G22" s="97">
+        <f>D22*1.8</f>
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="252"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="175">
+        <f>SUM(E16:E22)</f>
+        <v>364150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="54" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1">
+      <c r="A27" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="172" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="39.6">
+      <c r="A28" s="8">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>244000</v>
+      </c>
+      <c r="E28" s="52">
+        <f>C28*D28</f>
+        <v>244000</v>
+      </c>
+      <c r="H28" s="97">
+        <f>D28*1.8</f>
+        <v>439200</v>
+      </c>
+      <c r="J28" s="97">
+        <f>D28+10000</f>
+        <v>254000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="8">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>11250</v>
+      </c>
+      <c r="E29" s="52">
+        <f t="shared" ref="E29:E34" si="3">C29*D29</f>
+        <v>11250</v>
+      </c>
+      <c r="H29" s="97">
+        <f t="shared" ref="H29:H30" si="4">D29*1.8</f>
+        <v>20250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="8">
+        <v>3</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>11358</v>
+      </c>
+      <c r="E30" s="52">
+        <f t="shared" si="3"/>
+        <v>11358</v>
+      </c>
+      <c r="H30" s="97">
+        <f t="shared" si="4"/>
+        <v>20444.400000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="8">
+        <v>4</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>9720</v>
+      </c>
+      <c r="E31" s="52">
+        <f t="shared" si="3"/>
+        <v>9720</v>
+      </c>
+      <c r="G31" s="97">
+        <f>D31*1.8</f>
+        <v>17496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="8">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5520</v>
+      </c>
+      <c r="E32" s="52">
+        <f t="shared" si="3"/>
+        <v>5520</v>
+      </c>
+      <c r="G32" s="97">
+        <f>D32*1.8</f>
+        <v>9936</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="8">
+        <v>6</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <v>12960</v>
+      </c>
+      <c r="E33" s="52">
+        <f t="shared" si="3"/>
+        <v>12960</v>
+      </c>
+      <c r="G33" s="97">
+        <f>D33*1.8</f>
+        <v>23328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="26.4">
+      <c r="A34" s="8">
+        <v>7</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <v>36000</v>
+      </c>
+      <c r="E34" s="52">
+        <f t="shared" si="3"/>
+        <v>36000</v>
+      </c>
+      <c r="G34" s="97">
+        <f>D34*1.8</f>
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="253" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="254"/>
+      <c r="C35" s="254"/>
+      <c r="D35" s="255"/>
+      <c r="E35" s="175">
+        <f>SUM(E28:E34)</f>
+        <v>330808</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A35:D35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="33"/>
+    <col min="2" max="2" width="41" style="33" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="177" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="177" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="177" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="176">
+        <v>1</v>
+      </c>
+      <c r="B2" s="176" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="176">
+        <v>5</v>
+      </c>
+      <c r="D2" s="176">
+        <v>2600</v>
+      </c>
+      <c r="E2" s="176">
+        <f t="shared" ref="E2:E9" si="0">C2*D2</f>
+        <v>13000</v>
+      </c>
+      <c r="H2" s="33">
+        <f>1310*2</f>
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26.4">
+      <c r="A3" s="176">
+        <v>2</v>
+      </c>
+      <c r="B3" s="176" t="s">
+        <v>575</v>
+      </c>
+      <c r="C3" s="176">
+        <v>1</v>
+      </c>
+      <c r="D3" s="176">
+        <v>5800</v>
+      </c>
+      <c r="E3" s="176">
+        <f t="shared" si="0"/>
+        <v>5800</v>
+      </c>
+      <c r="H3" s="33">
+        <f>2900*2</f>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="176">
+        <v>3</v>
+      </c>
+      <c r="B4" s="176" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="176">
+        <v>10</v>
+      </c>
+      <c r="D4" s="176">
+        <v>60</v>
+      </c>
+      <c r="E4" s="176">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="176">
+        <v>4</v>
+      </c>
+      <c r="B5" s="176" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="176">
+        <v>5</v>
+      </c>
+      <c r="D5" s="176">
+        <v>50</v>
+      </c>
+      <c r="E5" s="176">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="176">
+        <v>5</v>
+      </c>
+      <c r="B6" s="176" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="176">
+        <v>1</v>
+      </c>
+      <c r="D6" s="176">
+        <v>1990</v>
+      </c>
+      <c r="E6" s="176">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="176">
+        <v>6</v>
+      </c>
+      <c r="B7" s="176" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="176">
+        <v>1</v>
+      </c>
+      <c r="D7" s="176">
+        <v>3800</v>
+      </c>
+      <c r="E7" s="176">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="176">
+        <v>7</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="176">
+        <v>5</v>
+      </c>
+      <c r="D8" s="176">
+        <v>100</v>
+      </c>
+      <c r="E8" s="176">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="176">
+        <v>8</v>
+      </c>
+      <c r="B9" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="176">
+        <v>1</v>
+      </c>
+      <c r="D9" s="176">
+        <v>6900</v>
+      </c>
+      <c r="E9" s="176">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="177">
+        <f>SUM(E2:E9)</f>
+        <v>32840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="97"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+    </row>
+    <row r="12" spans="1:8" s="42" customFormat="1">
+      <c r="A12" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+    </row>
+    <row r="13" spans="1:8" s="42" customFormat="1">
+      <c r="A13" s="75"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+    </row>
+    <row r="14" spans="1:8" s="42" customFormat="1">
+      <c r="A14" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+    </row>
+    <row r="15" spans="1:8" s="42" customFormat="1">
+      <c r="A15" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" s="42" customFormat="1">
+      <c r="A16" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:11" s="42" customFormat="1">
+      <c r="A17" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="177" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="177" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="177" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="176">
+        <v>1</v>
+      </c>
+      <c r="B21" s="176" t="s">
+        <v>580</v>
+      </c>
+      <c r="C21" s="176">
+        <v>5</v>
+      </c>
+      <c r="D21" s="176">
+        <v>1760</v>
+      </c>
+      <c r="E21" s="176">
+        <f t="shared" ref="E21:E28" si="1">C21*D21</f>
+        <v>8800</v>
+      </c>
+      <c r="H21" s="33">
+        <v>880</v>
+      </c>
+      <c r="I21" s="33">
+        <v>860</v>
+      </c>
+      <c r="K21" s="33">
+        <f>880*2</f>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="26.4">
+      <c r="A22" s="176">
+        <v>2</v>
+      </c>
+      <c r="B22" s="176" t="s">
+        <v>581</v>
+      </c>
+      <c r="C22" s="176">
+        <v>1</v>
+      </c>
+      <c r="D22" s="176">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="176">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="K22" s="33">
+        <f>3000*2</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="176">
+        <v>3</v>
+      </c>
+      <c r="B23" s="176" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="176">
+        <v>10</v>
+      </c>
+      <c r="D23" s="176">
+        <v>60</v>
+      </c>
+      <c r="E23" s="176">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="176">
+        <v>4</v>
+      </c>
+      <c r="B24" s="176" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="176">
+        <v>5</v>
+      </c>
+      <c r="D24" s="176">
+        <v>50</v>
+      </c>
+      <c r="E24" s="176">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="176">
+        <v>5</v>
+      </c>
+      <c r="B25" s="176" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="176">
+        <v>1</v>
+      </c>
+      <c r="D25" s="176">
+        <v>1990</v>
+      </c>
+      <c r="E25" s="176">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="176">
+        <v>6</v>
+      </c>
+      <c r="B26" s="176" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="176">
+        <v>1</v>
+      </c>
+      <c r="D26" s="176">
+        <v>3800</v>
+      </c>
+      <c r="E26" s="176">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="176">
+        <v>7</v>
+      </c>
+      <c r="B27" s="176" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="176">
+        <v>5</v>
+      </c>
+      <c r="D27" s="176">
+        <v>100</v>
+      </c>
+      <c r="E27" s="176">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="176">
+        <v>8</v>
+      </c>
+      <c r="B28" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="176">
+        <v>1</v>
+      </c>
+      <c r="D28" s="176">
+        <v>6900</v>
+      </c>
+      <c r="E28" s="176">
+        <f t="shared" si="1"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="177">
+        <f>SUM(E21:E28)</f>
+        <v>28840</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="97"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="256"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="75"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A29:D29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -18561,12 +22213,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="196"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -18861,12 +22513,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="165"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="196"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -19112,12 +22764,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="165"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="196"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -19338,12 +22990,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="196"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -19418,13 +23070,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="166" t="s">
+      <c r="A19" s="197" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="168"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="199"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -19434,11 +23086,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="169"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="171"/>
+      <c r="A20" s="200"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19553,12 +23205,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="165"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="196"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -19773,12 +23425,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="163" t="s">
+      <c r="A11" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="165"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="196"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -19947,12 +23599,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="196"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -20036,12 +23688,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="172" t="s">
+      <c r="A19" s="203" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="30" activeTab="35"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="30" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="586">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2023,6 +2023,15 @@
   </si>
   <si>
     <t>Honeywell 2MP Bullet Camera</t>
+  </si>
+  <si>
+    <t>1) Rosslare two door Access Controller @ 59000/- +GST</t>
+  </si>
+  <si>
+    <t>2) RFID AE Reader @82000/- + GST</t>
+  </si>
+  <si>
+    <t>3) Reader Mounting pole @ 8000/-+GST</t>
   </si>
 </sst>
 </file>
@@ -2641,7 +2650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3153,6 +3162,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3162,6 +3174,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3183,21 +3210,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3240,6 +3252,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3258,18 +3309,6 @@
     <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3285,39 +3324,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3384,8 +3396,11 @@
     <xf numFmtId="4" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4031,12 +4046,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="179" t="s">
+      <c r="A18" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="181"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="182"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -4162,12 +4177,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="181"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="182"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -4328,12 +4343,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="196"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="197"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -4417,12 +4432,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="203" t="s">
+      <c r="A19" s="204" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -4583,12 +4598,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="196"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="197"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4672,20 +4687,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="199"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="200"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="200"/>
-      <c r="B20" s="201"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="202"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4884,24 +4899,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="195"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="207" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="206"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="206"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -5101,12 +5116,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="194" t="s">
+      <c r="A30" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="195"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="196"/>
+      <c r="B30" s="196"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="197"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -5274,12 +5289,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="204" t="s">
+      <c r="A41" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="205"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="205"/>
+      <c r="B41" s="206"/>
+      <c r="C41" s="206"/>
+      <c r="D41" s="206"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -5514,24 +5529,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="195"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="208" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="208"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5695,12 +5710,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="194" t="s">
+      <c r="A28" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="195"/>
-      <c r="C28" s="195"/>
-      <c r="D28" s="196"/>
+      <c r="B28" s="196"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="197"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -5902,48 +5917,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="196"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="197"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="196"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="197"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="197"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="195" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -6034,48 +6049,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="194" t="s">
+      <c r="A17" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="196"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="194" t="s">
+      <c r="A18" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="194" t="s">
+      <c r="A19" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="195"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="196"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="194" t="s">
+      <c r="A20" s="195" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="195"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="196"/>
+      <c r="B20" s="196"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -6158,48 +6173,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="195"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="196"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="194" t="s">
+      <c r="A28" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="195"/>
-      <c r="C28" s="195"/>
-      <c r="D28" s="196"/>
+      <c r="B28" s="196"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="197"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="194" t="s">
+      <c r="A29" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="195"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="197"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="194" t="s">
+      <c r="A30" s="195" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="195"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="196"/>
+      <c r="B30" s="196"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="197"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -6387,12 +6402,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="181"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -6516,12 +6531,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="181"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6681,12 +6696,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="180"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="181"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -6906,12 +6921,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="230" t="s">
+      <c r="A59" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="231"/>
-      <c r="C59" s="231"/>
-      <c r="D59" s="232"/>
+      <c r="B59" s="213"/>
+      <c r="C59" s="213"/>
+      <c r="D59" s="214"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -6923,10 +6938,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="233" t="s">
+      <c r="A63" s="215" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="233"/>
+      <c r="B63" s="215"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -7139,12 +7154,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="179" t="s">
+      <c r="A79" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="181"/>
+      <c r="B79" s="181"/>
+      <c r="C79" s="181"/>
+      <c r="D79" s="182"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -7368,12 +7383,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="179" t="s">
+      <c r="A99" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="180"/>
-      <c r="C99" s="180"/>
-      <c r="D99" s="180"/>
+      <c r="B99" s="181"/>
+      <c r="C99" s="181"/>
+      <c r="D99" s="181"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -7519,31 +7534,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="229" t="s">
+      <c r="B116" s="209" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="229"/>
+      <c r="C116" s="209"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="216">
+      <c r="E116" s="210">
         <v>9000</v>
       </c>
-      <c r="F116" s="217"/>
+      <c r="F116" s="211"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="179" t="s">
+      <c r="A117" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="180"/>
-      <c r="C117" s="180"/>
-      <c r="D117" s="180"/>
-      <c r="E117" s="180"/>
-      <c r="F117" s="181"/>
+      <c r="B117" s="181"/>
+      <c r="C117" s="181"/>
+      <c r="D117" s="181"/>
+      <c r="E117" s="181"/>
+      <c r="F117" s="182"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7659,31 +7674,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="229" t="s">
+      <c r="B124" s="209" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="229"/>
+      <c r="C124" s="209"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="188">
+      <c r="E124" s="194">
         <v>9000</v>
       </c>
-      <c r="F124" s="188"/>
+      <c r="F124" s="194"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="226" t="s">
+      <c r="A125" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="227"/>
-      <c r="C125" s="227"/>
-      <c r="D125" s="227"/>
-      <c r="E125" s="227"/>
-      <c r="F125" s="228"/>
+      <c r="B125" s="217"/>
+      <c r="C125" s="217"/>
+      <c r="D125" s="217"/>
+      <c r="E125" s="217"/>
+      <c r="F125" s="218"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7794,31 +7809,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="214" t="s">
+      <c r="B134" s="220" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="215"/>
+      <c r="C134" s="221"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="216">
+      <c r="E134" s="210">
         <v>12000</v>
       </c>
-      <c r="F134" s="217"/>
+      <c r="F134" s="211"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="226" t="s">
+      <c r="A135" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="227"/>
-      <c r="C135" s="227"/>
-      <c r="D135" s="227"/>
-      <c r="E135" s="227"/>
-      <c r="F135" s="228"/>
+      <c r="B135" s="217"/>
+      <c r="C135" s="217"/>
+      <c r="D135" s="217"/>
+      <c r="E135" s="217"/>
+      <c r="F135" s="218"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -7924,31 +7939,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="214" t="s">
+      <c r="B142" s="220" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="215"/>
+      <c r="C142" s="221"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="216">
+      <c r="E142" s="210">
         <v>12000</v>
       </c>
-      <c r="F142" s="217"/>
+      <c r="F142" s="211"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="226" t="s">
+      <c r="A143" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="227"/>
-      <c r="C143" s="227"/>
-      <c r="D143" s="227"/>
-      <c r="E143" s="227"/>
-      <c r="F143" s="228"/>
+      <c r="B143" s="217"/>
+      <c r="C143" s="217"/>
+      <c r="D143" s="217"/>
+      <c r="E143" s="217"/>
+      <c r="F143" s="218"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -8064,41 +8079,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="218" t="s">
+      <c r="B150" s="228" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="219"/>
+      <c r="C150" s="229"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="220">
+      <c r="E150" s="230">
         <v>12000</v>
       </c>
-      <c r="F150" s="221"/>
+      <c r="F150" s="231"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="223" t="s">
+      <c r="A151" s="219" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="223"/>
-      <c r="C151" s="223"/>
-      <c r="D151" s="223"/>
-      <c r="E151" s="223"/>
-      <c r="F151" s="223"/>
+      <c r="B151" s="219"/>
+      <c r="C151" s="219"/>
+      <c r="D151" s="219"/>
+      <c r="E151" s="219"/>
+      <c r="F151" s="219"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="222" t="s">
+      <c r="A154" s="232" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="222"/>
+      <c r="B154" s="232"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -8154,12 +8169,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="224" t="s">
+      <c r="A159" s="233" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="225"/>
-      <c r="C159" s="225"/>
-      <c r="D159" s="225"/>
+      <c r="B159" s="234"/>
+      <c r="C159" s="234"/>
+      <c r="D159" s="234"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -8217,12 +8232,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="223" t="s">
+      <c r="A163" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="223"/>
-      <c r="C163" s="223"/>
-      <c r="D163" s="223"/>
+      <c r="B163" s="219"/>
+      <c r="C163" s="219"/>
+      <c r="D163" s="219"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -10408,12 +10423,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="179" t="s">
+      <c r="A241" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="180"/>
-      <c r="C241" s="180"/>
-      <c r="D241" s="181"/>
+      <c r="B241" s="181"/>
+      <c r="C241" s="181"/>
+      <c r="D241" s="182"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -10562,12 +10577,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="179" t="s">
+      <c r="A254" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="180"/>
-      <c r="C254" s="180"/>
-      <c r="D254" s="181"/>
+      <c r="B254" s="181"/>
+      <c r="C254" s="181"/>
+      <c r="D254" s="182"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -10576,42 +10591,25 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="208" t="s">
+      <c r="A257" s="222" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="209"/>
-      <c r="C257" s="209"/>
-      <c r="D257" s="209"/>
-      <c r="E257" s="209"/>
-      <c r="F257" s="210"/>
+      <c r="B257" s="223"/>
+      <c r="C257" s="223"/>
+      <c r="D257" s="223"/>
+      <c r="E257" s="223"/>
+      <c r="F257" s="224"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="211"/>
-      <c r="B258" s="212"/>
-      <c r="C258" s="212"/>
-      <c r="D258" s="212"/>
-      <c r="E258" s="212"/>
-      <c r="F258" s="213"/>
+      <c r="A258" s="225"/>
+      <c r="B258" s="226"/>
+      <c r="C258" s="226"/>
+      <c r="D258" s="226"/>
+      <c r="E258" s="226"/>
+      <c r="F258" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B124:C124"/>
     <mergeCell ref="A257:F258"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="B142:C142"/>
@@ -10623,6 +10621,23 @@
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A254:D254"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A79:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10832,12 +10847,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="179" t="s">
+      <c r="A12" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="180"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="181"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -10851,13 +10866,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="223" t="s">
+      <c r="A14" s="219" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="223"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -11150,25 +11165,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="179" t="s">
+      <c r="A39" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="180"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="181"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="223" t="s">
+      <c r="A41" s="219" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="223"/>
-      <c r="C41" s="223"/>
-      <c r="D41" s="223"/>
-      <c r="E41" s="223"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
+      <c r="D41" s="219"/>
+      <c r="E41" s="219"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -11377,12 +11392,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="234" t="s">
+      <c r="A70" s="235" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="235"/>
-      <c r="C70" s="235"/>
-      <c r="D70" s="236"/>
+      <c r="B70" s="236"/>
+      <c r="C70" s="236"/>
+      <c r="D70" s="237"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -11572,12 +11587,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="181"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="182"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -11832,12 +11847,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="181"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -12059,12 +12074,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="181"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="182"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -12103,13 +12118,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -12196,105 +12211,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="191" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="187">
+      <c r="C7" s="193">
         <v>2</v>
       </c>
-      <c r="D7" s="185" t="s">
+      <c r="D7" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="188">
+      <c r="E7" s="194">
         <v>567000</v>
       </c>
-      <c r="F7" s="188">
+      <c r="F7" s="194">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="185"/>
+      <c r="A8" s="191"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="185"/>
+      <c r="A9" s="191"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="187"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="188"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="185"/>
+      <c r="A10" s="191"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="187"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="185"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="187"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="191"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="185"/>
+      <c r="A12" s="191"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="187"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="185"/>
+      <c r="A13" s="191"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="185"/>
+      <c r="A14" s="191"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="187"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="185"/>
+      <c r="A15" s="191"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="187"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -12337,13 +12352,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="182" t="s">
+      <c r="B19" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="184"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="190"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -12429,7 +12444,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="185" t="s">
+      <c r="A24" s="191" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -12441,7 +12456,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="185"/>
+      <c r="A25" s="191"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -12460,7 +12475,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="185"/>
+      <c r="A26" s="191"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -12479,7 +12494,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="185"/>
+      <c r="A27" s="191"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -12517,13 +12532,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="182" t="s">
+      <c r="B30" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="184"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="190"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -12546,7 +12561,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="185" t="s">
+      <c r="A32" s="191" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -12558,7 +12573,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="185"/>
+      <c r="A33" s="191"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12572,7 +12587,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="185"/>
+      <c r="A34" s="191"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12586,7 +12601,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="185"/>
+      <c r="A35" s="191"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12600,7 +12615,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="185"/>
+      <c r="A36" s="191"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12614,7 +12629,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="185" t="s">
+      <c r="A37" s="191" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12626,7 +12641,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="185"/>
+      <c r="A38" s="191"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12645,7 +12660,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="185"/>
+      <c r="A39" s="191"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12664,7 +12679,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="185"/>
+      <c r="A40" s="191"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12683,7 +12698,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="185"/>
+      <c r="A41" s="191"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12702,7 +12717,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="185"/>
+      <c r="A42" s="191"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12743,13 +12758,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="182" t="s">
+      <c r="B45" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="183"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="184"/>
+      <c r="C45" s="189"/>
+      <c r="D45" s="189"/>
+      <c r="E45" s="189"/>
+      <c r="F45" s="190"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -12994,13 +13009,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="191" t="s">
+      <c r="A57" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="192"/>
-      <c r="C57" s="192"/>
-      <c r="D57" s="192"/>
-      <c r="E57" s="193"/>
+      <c r="B57" s="186"/>
+      <c r="C57" s="186"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="187"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -13018,13 +13033,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="189" t="s">
+      <c r="B59" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="189"/>
-      <c r="D59" s="189"/>
-      <c r="E59" s="189"/>
-      <c r="F59" s="189"/>
+      <c r="C59" s="183"/>
+      <c r="D59" s="183"/>
+      <c r="E59" s="183"/>
+      <c r="F59" s="183"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -13042,13 +13057,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="190" t="s">
+      <c r="B61" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="190"/>
-      <c r="D61" s="190"/>
-      <c r="E61" s="190"/>
-      <c r="F61" s="190"/>
+      <c r="C61" s="184"/>
+      <c r="D61" s="184"/>
+      <c r="E61" s="184"/>
+      <c r="F61" s="184"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -13068,35 +13083,30 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="190" t="s">
+      <c r="B63" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="190"/>
-      <c r="D63" s="190"/>
-      <c r="E63" s="190"/>
-      <c r="F63" s="190"/>
+      <c r="C63" s="184"/>
+      <c r="D63" s="184"/>
+      <c r="E63" s="184"/>
+      <c r="F63" s="184"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="190" t="s">
+      <c r="B64" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="190"/>
-      <c r="D64" s="190"/>
-      <c r="E64" s="190"/>
-      <c r="F64" s="190"/>
+      <c r="C64" s="184"/>
+      <c r="D64" s="184"/>
+      <c r="E64" s="184"/>
+      <c r="F64" s="184"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="A57:E57"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B19:F19"/>
@@ -13109,6 +13119,11 @@
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="F7:F15"/>
     <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13311,12 +13326,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="181"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -13693,12 +13708,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="179" t="s">
+      <c r="A15" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="181"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -13984,12 +13999,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="180"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="181"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -14291,12 +14306,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="179" t="s">
+      <c r="A63" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="180"/>
-      <c r="C63" s="180"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="182"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -14409,183 +14424,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="237">
+      <c r="A2" s="238">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="237">
-        <v>1</v>
-      </c>
-      <c r="D2" s="237">
+      <c r="C2" s="238">
+        <v>1</v>
+      </c>
+      <c r="D2" s="238">
         <v>42000</v>
       </c>
-      <c r="E2" s="237">
+      <c r="E2" s="238">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="238"/>
+      <c r="A3" s="239"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="238"/>
+      <c r="A4" s="239"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="238"/>
+      <c r="A5" s="239"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="238"/>
+      <c r="A6" s="239"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="238"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="238"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="238"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="238"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="238"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="239"/>
+      <c r="E10" s="239"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="238"/>
+      <c r="A11" s="239"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="238"/>
-      <c r="D11" s="238"/>
-      <c r="E11" s="238"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="238"/>
+      <c r="A12" s="239"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="238"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="238"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="239"/>
+      <c r="E12" s="239"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="238"/>
+      <c r="A13" s="239"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="238"/>
-      <c r="D13" s="238"/>
-      <c r="E13" s="238"/>
+      <c r="C13" s="239"/>
+      <c r="D13" s="239"/>
+      <c r="E13" s="239"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="238"/>
+      <c r="A14" s="239"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="238"/>
-      <c r="D14" s="238"/>
-      <c r="E14" s="238"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="239"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="238"/>
+      <c r="A15" s="239"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="238"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="238"/>
+      <c r="A16" s="239"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="238"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="239"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="238"/>
+      <c r="A17" s="239"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
+      <c r="C17" s="239"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="239"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="238"/>
+      <c r="A18" s="239"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="238"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="239"/>
+      <c r="E18" s="239"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="239"/>
+      <c r="A19" s="240"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="239"/>
-      <c r="D19" s="239"/>
-      <c r="E19" s="239"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
+      <c r="E19" s="240"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="223" t="s">
+      <c r="A20" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="223"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="223"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -14901,12 +14916,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="181"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="182"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -15159,12 +15174,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="181"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -15387,10 +15402,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="241" t="s">
+      <c r="B6" s="242" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="241"/>
+      <c r="C6" s="242"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -15404,13 +15419,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="240" t="s">
+      <c r="A7" s="241" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="240"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
+      <c r="B7" s="241"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -15566,10 +15581,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="241" t="s">
+      <c r="B26" s="242" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="241"/>
+      <c r="C26" s="242"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -15583,13 +15598,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="240" t="s">
+      <c r="A27" s="241" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="240"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="240"/>
-      <c r="E27" s="240"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="241"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -15801,12 +15816,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="181"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="182"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -16096,12 +16111,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="180"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="181"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -16368,12 +16383,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="181"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="182"/>
       <c r="E11" s="145">
         <f>SUM(E3:E10)</f>
         <v>99820</v>
@@ -16690,12 +16705,12 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="179" t="s">
+      <c r="A36" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="180"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="181"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="145">
         <f>SUM(E27:E35)</f>
         <v>56780</v>
@@ -16951,12 +16966,12 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="179" t="s">
+      <c r="A55" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="180"/>
-      <c r="C55" s="180"/>
-      <c r="D55" s="181"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="182"/>
       <c r="E55" s="145">
         <f>SUM(E46:E54)</f>
         <v>86940</v>
@@ -17150,12 +17165,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="179" t="s">
+      <c r="A68" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="180"/>
-      <c r="C68" s="180"/>
-      <c r="D68" s="181"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="182"/>
       <c r="E68" s="145">
         <f>SUM(E59:E67)</f>
         <v>49380</v>
@@ -17347,12 +17362,12 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="181"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
       <c r="E10" s="147">
         <f>SUM(E3:E9)</f>
         <v>69770</v>
@@ -17637,12 +17652,12 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="179" t="s">
+      <c r="A36" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="180"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="181"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="147">
         <f>SUM(E29:E35)</f>
         <v>66840</v>
@@ -17769,165 +17784,165 @@
       <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="242">
+      <c r="A3" s="243">
         <v>1</v>
       </c>
       <c r="B3" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="242">
-        <v>1</v>
-      </c>
-      <c r="D3" s="242">
+      <c r="C3" s="243">
+        <v>1</v>
+      </c>
+      <c r="D3" s="243">
         <v>75900</v>
       </c>
-      <c r="E3" s="242">
+      <c r="E3" s="243">
         <f>C3*D3</f>
         <v>75900</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="243"/>
+      <c r="A4" s="244"/>
       <c r="B4" s="152" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="243"/>
+      <c r="A5" s="244"/>
       <c r="B5" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="243"/>
+      <c r="A6" s="244"/>
       <c r="B6" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="244"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="243"/>
+      <c r="A7" s="244"/>
       <c r="B7" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="243"/>
+      <c r="A8" s="244"/>
       <c r="B8" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="243"/>
+      <c r="A9" s="244"/>
       <c r="B9" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="243"/>
+      <c r="A10" s="244"/>
       <c r="B10" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="244"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="243"/>
+      <c r="A11" s="244"/>
       <c r="B11" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="243"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="244"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="243"/>
+      <c r="A12" s="244"/>
       <c r="B12" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="243"/>
-      <c r="D12" s="243"/>
-      <c r="E12" s="243"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="244"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="243"/>
+      <c r="A13" s="244"/>
       <c r="B13" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="243"/>
-      <c r="D13" s="243"/>
-      <c r="E13" s="243"/>
+      <c r="C13" s="244"/>
+      <c r="D13" s="244"/>
+      <c r="E13" s="244"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="243"/>
+      <c r="A14" s="244"/>
       <c r="B14" s="152" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="243"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="243"/>
+      <c r="C14" s="244"/>
+      <c r="D14" s="244"/>
+      <c r="E14" s="244"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="243"/>
+      <c r="A15" s="244"/>
       <c r="B15" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="243"/>
-      <c r="D15" s="243"/>
-      <c r="E15" s="243"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="244"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="243"/>
+      <c r="A16" s="244"/>
       <c r="B16" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="243"/>
-      <c r="D16" s="243"/>
-      <c r="E16" s="243"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="243"/>
+      <c r="A17" s="244"/>
       <c r="B17" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="243"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="243"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="244"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="244"/>
+      <c r="A18" s="245"/>
       <c r="B18" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C18" s="244"/>
-      <c r="D18" s="244"/>
-      <c r="E18" s="244"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="245"/>
+      <c r="E18" s="245"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="247" t="s">
+      <c r="A19" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="248"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="249"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="250"/>
       <c r="E19" s="153">
         <f>SUM(E3)</f>
         <v>75900</v>
@@ -17954,7 +17969,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.8">
-      <c r="A27" s="245">
+      <c r="A27" s="246">
         <v>1</v>
       </c>
       <c r="B27" s="152" t="s">
@@ -17966,16 +17981,16 @@
       <c r="D27" s="149">
         <v>1</v>
       </c>
-      <c r="E27" s="245">
+      <c r="E27" s="246">
         <v>69000</v>
       </c>
-      <c r="F27" s="245">
+      <c r="F27" s="246">
         <f>D27*E27</f>
         <v>69000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="262.2">
-      <c r="A28" s="245"/>
+      <c r="A28" s="246"/>
       <c r="B28" s="152" t="s">
         <v>475</v>
       </c>
@@ -17985,11 +18000,11 @@
       <c r="D28" s="149">
         <v>1</v>
       </c>
-      <c r="E28" s="245"/>
-      <c r="F28" s="245"/>
+      <c r="E28" s="246"/>
+      <c r="F28" s="246"/>
     </row>
     <row r="29" spans="1:6" ht="124.2">
-      <c r="A29" s="245"/>
+      <c r="A29" s="246"/>
       <c r="B29" s="152" t="s">
         <v>477</v>
       </c>
@@ -17999,11 +18014,11 @@
       <c r="D29" s="149">
         <v>1</v>
       </c>
-      <c r="E29" s="245"/>
-      <c r="F29" s="245"/>
+      <c r="E29" s="246"/>
+      <c r="F29" s="246"/>
     </row>
     <row r="30" spans="1:6" ht="248.4">
-      <c r="A30" s="245"/>
+      <c r="A30" s="246"/>
       <c r="B30" s="152" t="s">
         <v>479</v>
       </c>
@@ -18013,11 +18028,11 @@
       <c r="D30" s="149">
         <v>1</v>
       </c>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
+      <c r="E30" s="246"/>
+      <c r="F30" s="246"/>
     </row>
     <row r="31" spans="1:6" ht="69">
-      <c r="A31" s="245"/>
+      <c r="A31" s="246"/>
       <c r="B31" s="152" t="s">
         <v>481</v>
       </c>
@@ -18027,11 +18042,11 @@
       <c r="D31" s="149">
         <v>1</v>
       </c>
-      <c r="E31" s="245"/>
-      <c r="F31" s="245"/>
+      <c r="E31" s="246"/>
+      <c r="F31" s="246"/>
     </row>
     <row r="32" spans="1:6" ht="179.4">
-      <c r="A32" s="245"/>
+      <c r="A32" s="246"/>
       <c r="B32" s="152" t="s">
         <v>483</v>
       </c>
@@ -18041,11 +18056,11 @@
       <c r="D32" s="149">
         <v>1</v>
       </c>
-      <c r="E32" s="245"/>
-      <c r="F32" s="245"/>
+      <c r="E32" s="246"/>
+      <c r="F32" s="246"/>
     </row>
     <row r="33" spans="1:6" ht="82.8">
-      <c r="A33" s="245"/>
+      <c r="A33" s="246"/>
       <c r="B33" s="152" t="s">
         <v>483</v>
       </c>
@@ -18055,11 +18070,11 @@
       <c r="D33" s="149">
         <v>1</v>
       </c>
-      <c r="E33" s="245"/>
-      <c r="F33" s="245"/>
+      <c r="E33" s="246"/>
+      <c r="F33" s="246"/>
     </row>
     <row r="34" spans="1:6" ht="96.6">
-      <c r="A34" s="245"/>
+      <c r="A34" s="246"/>
       <c r="B34" s="152" t="s">
         <v>483</v>
       </c>
@@ -18069,11 +18084,11 @@
       <c r="D34" s="149">
         <v>1</v>
       </c>
-      <c r="E34" s="245"/>
-      <c r="F34" s="245"/>
+      <c r="E34" s="246"/>
+      <c r="F34" s="246"/>
     </row>
     <row r="35" spans="1:6" ht="234.6">
-      <c r="A35" s="245"/>
+      <c r="A35" s="246"/>
       <c r="B35" s="152" t="s">
         <v>487</v>
       </c>
@@ -18083,11 +18098,11 @@
       <c r="D35" s="149">
         <v>1</v>
       </c>
-      <c r="E35" s="245"/>
-      <c r="F35" s="245"/>
+      <c r="E35" s="246"/>
+      <c r="F35" s="246"/>
     </row>
     <row r="36" spans="1:6" ht="165.6">
-      <c r="A36" s="245"/>
+      <c r="A36" s="246"/>
       <c r="B36" s="152" t="s">
         <v>489</v>
       </c>
@@ -18097,11 +18112,11 @@
       <c r="D36" s="149">
         <v>1</v>
       </c>
-      <c r="E36" s="245"/>
-      <c r="F36" s="245"/>
+      <c r="E36" s="246"/>
+      <c r="F36" s="246"/>
     </row>
     <row r="37" spans="1:6" ht="27.6">
-      <c r="A37" s="245"/>
+      <c r="A37" s="246"/>
       <c r="B37" s="152" t="s">
         <v>493</v>
       </c>
@@ -18111,11 +18126,11 @@
       <c r="D37" s="149">
         <v>1</v>
       </c>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
+      <c r="E37" s="246"/>
+      <c r="F37" s="246"/>
     </row>
     <row r="38" spans="1:6" ht="82.8">
-      <c r="A38" s="245"/>
+      <c r="A38" s="246"/>
       <c r="B38" s="152" t="s">
         <v>494</v>
       </c>
@@ -18125,11 +18140,11 @@
       <c r="D38" s="149">
         <v>1</v>
       </c>
-      <c r="E38" s="245"/>
-      <c r="F38" s="245"/>
+      <c r="E38" s="246"/>
+      <c r="F38" s="246"/>
     </row>
     <row r="39" spans="1:6" ht="55.2">
-      <c r="A39" s="245"/>
+      <c r="A39" s="246"/>
       <c r="B39" s="152" t="s">
         <v>495</v>
       </c>
@@ -18139,11 +18154,11 @@
       <c r="D39" s="149">
         <v>1</v>
       </c>
-      <c r="E39" s="245"/>
-      <c r="F39" s="245"/>
+      <c r="E39" s="246"/>
+      <c r="F39" s="246"/>
     </row>
     <row r="40" spans="1:6" ht="138">
-      <c r="A40" s="245"/>
+      <c r="A40" s="246"/>
       <c r="B40" s="152" t="s">
         <v>497</v>
       </c>
@@ -18153,11 +18168,11 @@
       <c r="D40" s="149">
         <v>1</v>
       </c>
-      <c r="E40" s="245"/>
-      <c r="F40" s="245"/>
+      <c r="E40" s="246"/>
+      <c r="F40" s="246"/>
     </row>
     <row r="41" spans="1:6" ht="96.6">
-      <c r="A41" s="245"/>
+      <c r="A41" s="246"/>
       <c r="B41" s="152" t="s">
         <v>499</v>
       </c>
@@ -18167,11 +18182,11 @@
       <c r="D41" s="149">
         <v>1</v>
       </c>
-      <c r="E41" s="245"/>
-      <c r="F41" s="245"/>
+      <c r="E41" s="246"/>
+      <c r="F41" s="246"/>
     </row>
     <row r="42" spans="1:6" ht="317.39999999999998">
-      <c r="A42" s="245"/>
+      <c r="A42" s="246"/>
       <c r="B42" s="152" t="s">
         <v>501</v>
       </c>
@@ -18181,11 +18196,11 @@
       <c r="D42" s="149">
         <v>1</v>
       </c>
-      <c r="E42" s="245"/>
-      <c r="F42" s="245"/>
+      <c r="E42" s="246"/>
+      <c r="F42" s="246"/>
     </row>
     <row r="43" spans="1:6" ht="69">
-      <c r="A43" s="245"/>
+      <c r="A43" s="246"/>
       <c r="B43" s="152" t="s">
         <v>501</v>
       </c>
@@ -18195,11 +18210,11 @@
       <c r="D43" s="149">
         <v>1</v>
       </c>
-      <c r="E43" s="245"/>
-      <c r="F43" s="245"/>
+      <c r="E43" s="246"/>
+      <c r="F43" s="246"/>
     </row>
     <row r="44" spans="1:6" ht="193.2">
-      <c r="A44" s="245"/>
+      <c r="A44" s="246"/>
       <c r="B44" s="152" t="s">
         <v>501</v>
       </c>
@@ -18209,11 +18224,11 @@
       <c r="D44" s="149">
         <v>1</v>
       </c>
-      <c r="E44" s="245"/>
-      <c r="F44" s="245"/>
+      <c r="E44" s="246"/>
+      <c r="F44" s="246"/>
     </row>
     <row r="45" spans="1:6" ht="234.6">
-      <c r="A45" s="245"/>
+      <c r="A45" s="246"/>
       <c r="B45" s="152" t="s">
         <v>505</v>
       </c>
@@ -18223,11 +18238,11 @@
       <c r="D45" s="149">
         <v>1</v>
       </c>
-      <c r="E45" s="245"/>
-      <c r="F45" s="245"/>
+      <c r="E45" s="246"/>
+      <c r="F45" s="246"/>
     </row>
     <row r="46" spans="1:6" ht="69">
-      <c r="A46" s="245"/>
+      <c r="A46" s="246"/>
       <c r="B46" s="152" t="s">
         <v>507</v>
       </c>
@@ -18237,11 +18252,11 @@
       <c r="D46" s="149">
         <v>1</v>
       </c>
-      <c r="E46" s="245"/>
-      <c r="F46" s="245"/>
+      <c r="E46" s="246"/>
+      <c r="F46" s="246"/>
     </row>
     <row r="47" spans="1:6" ht="110.4">
-      <c r="A47" s="245"/>
+      <c r="A47" s="246"/>
       <c r="B47" s="152" t="s">
         <v>509</v>
       </c>
@@ -18251,11 +18266,11 @@
       <c r="D47" s="149">
         <v>1</v>
       </c>
-      <c r="E47" s="245"/>
-      <c r="F47" s="245"/>
+      <c r="E47" s="246"/>
+      <c r="F47" s="246"/>
     </row>
     <row r="48" spans="1:6" ht="96.6">
-      <c r="A48" s="245"/>
+      <c r="A48" s="246"/>
       <c r="B48" s="152" t="s">
         <v>509</v>
       </c>
@@ -18265,11 +18280,11 @@
       <c r="D48" s="149">
         <v>1</v>
       </c>
-      <c r="E48" s="245"/>
-      <c r="F48" s="245"/>
+      <c r="E48" s="246"/>
+      <c r="F48" s="246"/>
     </row>
     <row r="49" spans="1:6" ht="110.4">
-      <c r="A49" s="245"/>
+      <c r="A49" s="246"/>
       <c r="B49" s="152" t="s">
         <v>512</v>
       </c>
@@ -18279,11 +18294,11 @@
       <c r="D49" s="149">
         <v>1</v>
       </c>
-      <c r="E49" s="245"/>
-      <c r="F49" s="245"/>
+      <c r="E49" s="246"/>
+      <c r="F49" s="246"/>
     </row>
     <row r="50" spans="1:6" ht="165.6">
-      <c r="A50" s="245"/>
+      <c r="A50" s="246"/>
       <c r="B50" s="152" t="s">
         <v>514</v>
       </c>
@@ -18293,11 +18308,11 @@
       <c r="D50" s="149">
         <v>1</v>
       </c>
-      <c r="E50" s="245"/>
-      <c r="F50" s="245"/>
+      <c r="E50" s="246"/>
+      <c r="F50" s="246"/>
     </row>
     <row r="51" spans="1:6" ht="165.6">
-      <c r="A51" s="245"/>
+      <c r="A51" s="246"/>
       <c r="B51" s="152" t="s">
         <v>516</v>
       </c>
@@ -18307,11 +18322,11 @@
       <c r="D51" s="149">
         <v>1</v>
       </c>
-      <c r="E51" s="245"/>
-      <c r="F51" s="245"/>
+      <c r="E51" s="246"/>
+      <c r="F51" s="246"/>
     </row>
     <row r="52" spans="1:6" ht="151.80000000000001">
-      <c r="A52" s="245"/>
+      <c r="A52" s="246"/>
       <c r="B52" s="152" t="s">
         <v>518</v>
       </c>
@@ -18321,11 +18336,11 @@
       <c r="D52" s="149">
         <v>1</v>
       </c>
-      <c r="E52" s="245"/>
-      <c r="F52" s="245"/>
+      <c r="E52" s="246"/>
+      <c r="F52" s="246"/>
     </row>
     <row r="53" spans="1:6" ht="55.2">
-      <c r="A53" s="245"/>
+      <c r="A53" s="246"/>
       <c r="B53" s="152" t="s">
         <v>520</v>
       </c>
@@ -18335,11 +18350,11 @@
       <c r="D53" s="149">
         <v>1</v>
       </c>
-      <c r="E53" s="245"/>
-      <c r="F53" s="245"/>
+      <c r="E53" s="246"/>
+      <c r="F53" s="246"/>
     </row>
     <row r="54" spans="1:6" ht="82.8">
-      <c r="A54" s="245"/>
+      <c r="A54" s="246"/>
       <c r="B54" s="152" t="s">
         <v>523</v>
       </c>
@@ -18349,11 +18364,11 @@
       <c r="D54" s="149">
         <v>1</v>
       </c>
-      <c r="E54" s="245"/>
-      <c r="F54" s="245"/>
+      <c r="E54" s="246"/>
+      <c r="F54" s="246"/>
     </row>
     <row r="55" spans="1:6" ht="96.6">
-      <c r="A55" s="245"/>
+      <c r="A55" s="246"/>
       <c r="B55" s="152" t="s">
         <v>524</v>
       </c>
@@ -18363,11 +18378,11 @@
       <c r="D55" s="149">
         <v>1</v>
       </c>
-      <c r="E55" s="245"/>
-      <c r="F55" s="245"/>
+      <c r="E55" s="246"/>
+      <c r="F55" s="246"/>
     </row>
     <row r="56" spans="1:6" ht="82.8">
-      <c r="A56" s="245"/>
+      <c r="A56" s="246"/>
       <c r="B56" s="152" t="s">
         <v>526</v>
       </c>
@@ -18377,11 +18392,11 @@
       <c r="D56" s="149">
         <v>1</v>
       </c>
-      <c r="E56" s="245"/>
-      <c r="F56" s="245"/>
+      <c r="E56" s="246"/>
+      <c r="F56" s="246"/>
     </row>
     <row r="57" spans="1:6" ht="41.4">
-      <c r="A57" s="245"/>
+      <c r="A57" s="246"/>
       <c r="B57" s="150" t="s">
         <v>418</v>
       </c>
@@ -18389,11 +18404,11 @@
         <v>1</v>
       </c>
       <c r="D57" s="149"/>
-      <c r="E57" s="245"/>
-      <c r="F57" s="245"/>
+      <c r="E57" s="246"/>
+      <c r="F57" s="246"/>
     </row>
     <row r="58" spans="1:6" ht="82.8">
-      <c r="A58" s="245"/>
+      <c r="A58" s="246"/>
       <c r="B58" s="152" t="s">
         <v>528</v>
       </c>
@@ -18403,11 +18418,11 @@
       <c r="D58" s="149">
         <v>1</v>
       </c>
-      <c r="E58" s="245"/>
-      <c r="F58" s="245"/>
+      <c r="E58" s="246"/>
+      <c r="F58" s="246"/>
     </row>
     <row r="59" spans="1:6" ht="41.4">
-      <c r="A59" s="245"/>
+      <c r="A59" s="246"/>
       <c r="B59" s="152" t="s">
         <v>501</v>
       </c>
@@ -18417,11 +18432,11 @@
       <c r="D59" s="149">
         <v>1</v>
       </c>
-      <c r="E59" s="245"/>
-      <c r="F59" s="245"/>
+      <c r="E59" s="246"/>
+      <c r="F59" s="246"/>
     </row>
     <row r="60" spans="1:6" ht="138">
-      <c r="A60" s="245"/>
+      <c r="A60" s="246"/>
       <c r="B60" s="152" t="s">
         <v>501</v>
       </c>
@@ -18431,11 +18446,11 @@
       <c r="D60" s="149">
         <v>1</v>
       </c>
-      <c r="E60" s="245"/>
-      <c r="F60" s="245"/>
+      <c r="E60" s="246"/>
+      <c r="F60" s="246"/>
     </row>
     <row r="61" spans="1:6" ht="69">
-      <c r="A61" s="245"/>
+      <c r="A61" s="246"/>
       <c r="B61" s="152" t="s">
         <v>501</v>
       </c>
@@ -18445,11 +18460,11 @@
       <c r="D61" s="149">
         <v>1</v>
       </c>
-      <c r="E61" s="245"/>
-      <c r="F61" s="245"/>
+      <c r="E61" s="246"/>
+      <c r="F61" s="246"/>
     </row>
     <row r="62" spans="1:6" ht="110.4">
-      <c r="A62" s="245"/>
+      <c r="A62" s="246"/>
       <c r="B62" s="152" t="s">
         <v>501</v>
       </c>
@@ -18459,11 +18474,11 @@
       <c r="D62" s="149">
         <v>1</v>
       </c>
-      <c r="E62" s="245"/>
-      <c r="F62" s="245"/>
+      <c r="E62" s="246"/>
+      <c r="F62" s="246"/>
     </row>
     <row r="63" spans="1:6" ht="96.6">
-      <c r="A63" s="245"/>
+      <c r="A63" s="246"/>
       <c r="B63" s="152" t="s">
         <v>534</v>
       </c>
@@ -18473,11 +18488,11 @@
       <c r="D63" s="149">
         <v>1</v>
       </c>
-      <c r="E63" s="245"/>
-      <c r="F63" s="245"/>
+      <c r="E63" s="246"/>
+      <c r="F63" s="246"/>
     </row>
     <row r="64" spans="1:6" ht="110.4">
-      <c r="A64" s="245"/>
+      <c r="A64" s="246"/>
       <c r="B64" s="152" t="s">
         <v>536</v>
       </c>
@@ -18487,11 +18502,11 @@
       <c r="D64" s="149">
         <v>1</v>
       </c>
-      <c r="E64" s="245"/>
-      <c r="F64" s="245"/>
+      <c r="E64" s="246"/>
+      <c r="F64" s="246"/>
     </row>
     <row r="65" spans="1:6" ht="41.4">
-      <c r="A65" s="245"/>
+      <c r="A65" s="246"/>
       <c r="B65" s="150" t="s">
         <v>538</v>
       </c>
@@ -18499,11 +18514,11 @@
         <v>1</v>
       </c>
       <c r="D65" s="149"/>
-      <c r="E65" s="245"/>
-      <c r="F65" s="245"/>
+      <c r="E65" s="246"/>
+      <c r="F65" s="246"/>
     </row>
     <row r="66" spans="1:6" ht="124.2">
-      <c r="A66" s="245"/>
+      <c r="A66" s="246"/>
       <c r="B66" s="152" t="s">
         <v>540</v>
       </c>
@@ -18513,11 +18528,11 @@
       <c r="D66" s="149">
         <v>1</v>
       </c>
-      <c r="E66" s="245"/>
-      <c r="F66" s="245"/>
+      <c r="E66" s="246"/>
+      <c r="F66" s="246"/>
     </row>
     <row r="67" spans="1:6" ht="151.80000000000001">
-      <c r="A67" s="245"/>
+      <c r="A67" s="246"/>
       <c r="B67" s="152" t="s">
         <v>541</v>
       </c>
@@ -18527,17 +18542,17 @@
       <c r="D67" s="149">
         <v>1</v>
       </c>
-      <c r="E67" s="245"/>
-      <c r="F67" s="245"/>
+      <c r="E67" s="246"/>
+      <c r="F67" s="246"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="246" t="s">
+      <c r="A68" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="246"/>
-      <c r="C68" s="246"/>
-      <c r="D68" s="246"/>
-      <c r="E68" s="246"/>
+      <c r="B68" s="247"/>
+      <c r="C68" s="247"/>
+      <c r="D68" s="247"/>
+      <c r="E68" s="247"/>
       <c r="F68" s="150">
         <f>SUM(F27:F27)</f>
         <v>69000</v>
@@ -18648,48 +18663,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="196"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="197"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="196"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="197"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="196"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="197"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="196"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="197"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -18752,11 +18767,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
       <c r="D3" s="153">
         <f>SUM(D2)</f>
         <v>45000</v>
@@ -18951,12 +18966,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="181"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
       <c r="E10" s="158">
         <f>SUM(E2:E9)</f>
         <v>82970</v>
@@ -19238,12 +19253,12 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="179" t="s">
+      <c r="A36" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="180"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="181"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="158">
         <f>SUM(E28:E35)</f>
         <v>82850</v>
@@ -19542,12 +19557,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="181"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="182"/>
       <c r="E11" s="162">
         <f>SUM(E3:E10)</f>
         <v>152800</v>
@@ -19823,12 +19838,12 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="179" t="s">
+      <c r="A35" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="180"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="181"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="162">
         <f>SUM(E27:E34)</f>
         <v>95050</v>
@@ -20069,12 +20084,12 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="179" t="s">
+      <c r="A59" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="180"/>
-      <c r="C59" s="180"/>
-      <c r="D59" s="181"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="162">
         <f>SUM(E51:E58)</f>
         <v>139220</v>
@@ -20329,12 +20344,12 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="179" t="s">
+      <c r="A82" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="180"/>
-      <c r="C82" s="180"/>
-      <c r="D82" s="181"/>
+      <c r="B82" s="181"/>
+      <c r="C82" s="181"/>
+      <c r="D82" s="182"/>
       <c r="E82" s="162">
         <f>SUM(E74:E81)</f>
         <v>82350</v>
@@ -20459,48 +20474,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="166">
         <f>SUM(E2)</f>
         <v>27900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="251" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
+      <c r="B4" s="252"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
       <c r="E4" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="251" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
       <c r="E5" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="250" t="s">
+      <c r="A6" s="251" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="251"/>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
+      <c r="B6" s="252"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
       <c r="E6" s="166">
         <f>SUM(E3:E5)</f>
         <v>32922</v>
@@ -20705,12 +20720,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="181"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
       <c r="E10" s="168">
         <f>SUM(E2:E9)</f>
         <v>79850</v>
@@ -20941,12 +20956,12 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="180"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="182"/>
       <c r="E30" s="170">
         <f>SUM(E23:E29)</f>
         <v>49710</v>
@@ -21031,17 +21046,17 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" style="97" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="97" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="97" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="97" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="97" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" style="97" customWidth="1"/>
     <col min="5" max="5" width="10.21875" style="97" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="97" customWidth="1"/>
@@ -21078,21 +21093,21 @@
         <v>571</v>
       </c>
       <c r="C3" s="171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="171">
         <v>58978</v>
       </c>
       <c r="E3" s="171">
         <f t="shared" ref="E3:E8" si="0">C3*D3</f>
-        <v>58978</v>
+        <v>117956</v>
       </c>
       <c r="H3" s="97">
         <f>29489*2</f>
         <v>58978</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.2" customHeight="1">
+    <row r="4" spans="1:10" ht="19.2" customHeight="1">
       <c r="A4" s="171">
         <v>2</v>
       </c>
@@ -21100,14 +21115,14 @@
         <v>573</v>
       </c>
       <c r="C4" s="171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="171">
         <v>64200</v>
       </c>
       <c r="E4" s="171">
         <f t="shared" si="0"/>
-        <v>64200</v>
+        <v>128400</v>
       </c>
       <c r="H4" s="97">
         <f>32100*2</f>
@@ -21122,14 +21137,14 @@
         <v>560</v>
       </c>
       <c r="C5" s="171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="171">
         <v>2140</v>
       </c>
       <c r="E5" s="171">
         <f t="shared" si="0"/>
-        <v>4280</v>
+        <v>8560</v>
       </c>
       <c r="H5" s="97">
         <f>1070*2</f>
@@ -21144,14 +21159,14 @@
         <v>572</v>
       </c>
       <c r="C6" s="171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="171">
         <v>2354</v>
       </c>
       <c r="E6" s="171">
         <f t="shared" si="0"/>
-        <v>2354</v>
+        <v>4708</v>
       </c>
       <c r="H6" s="97">
         <f>1177*2</f>
@@ -21188,26 +21203,26 @@
         <v>568</v>
       </c>
       <c r="C8" s="173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="173">
         <v>36000</v>
       </c>
       <c r="E8" s="171">
         <f t="shared" si="0"/>
-        <v>36000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="172">
         <f>SUM(E3:E8)</f>
-        <v>181224</v>
+        <v>347036</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -21274,7 +21289,7 @@
         <v>281000</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:14">
       <c r="A17" s="8">
         <v>2</v>
       </c>
@@ -21296,7 +21311,7 @@
         <v>20250</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:14">
       <c r="A18" s="8">
         <v>3</v>
       </c>
@@ -21318,7 +21333,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:14">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -21340,7 +21355,7 @@
         <v>17496</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:14">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -21361,8 +21376,11 @@
         <f t="shared" si="2"/>
         <v>9396</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="N20" s="97">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="8">
         <v>6</v>
       </c>
@@ -21384,7 +21402,7 @@
         <v>23328</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="26.4">
+    <row r="22" spans="1:14" ht="26.4">
       <c r="A22" s="8">
         <v>7</v>
       </c>
@@ -21406,215 +21424,270 @@
         <v>64800</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="252" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="252"/>
-      <c r="C23" s="252"/>
-      <c r="D23" s="252"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
       <c r="E23" s="175">
         <f>SUM(E16:E22)</f>
         <v>364150</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="54" t="s">
+      <c r="N23" s="97">
+        <f>41000*2</f>
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="257"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="258"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="B25" s="257"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="257"/>
+      <c r="E25" s="258"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="75" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="75" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="75" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="54" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1">
-      <c r="A27" s="51" t="s">
+    <row r="31" spans="1:14" ht="24" customHeight="1">
+      <c r="A31" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B31" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C31" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D31" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="172" t="s">
+      <c r="E31" s="172" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="39.6">
-      <c r="A28" s="8">
-        <v>1</v>
-      </c>
-      <c r="B28" s="8" t="s">
+    <row r="32" spans="1:14" ht="39.6">
+      <c r="A32" s="8">
+        <v>1</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
         <v>244000</v>
       </c>
-      <c r="E28" s="52">
-        <f>C28*D28</f>
+      <c r="E32" s="52">
+        <f>C32*D32</f>
         <v>244000</v>
       </c>
-      <c r="H28" s="97">
-        <f>D28*1.8</f>
+      <c r="H32" s="97">
+        <f>D32*1.8</f>
         <v>439200</v>
       </c>
-      <c r="J28" s="97">
-        <f>D28+10000</f>
+      <c r="J32" s="97">
+        <f>D32+10000</f>
         <v>254000</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="8">
+    <row r="33" spans="1:8">
+      <c r="A33" s="8">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
         <v>11250</v>
       </c>
-      <c r="E29" s="52">
-        <f t="shared" ref="E29:E34" si="3">C29*D29</f>
+      <c r="E33" s="52">
+        <f t="shared" ref="E33:E38" si="3">C33*D33</f>
         <v>11250</v>
       </c>
-      <c r="H29" s="97">
-        <f t="shared" ref="H29:H30" si="4">D29*1.8</f>
+      <c r="H33" s="97">
+        <f t="shared" ref="H33:H34" si="4">D33*1.8</f>
         <v>20250</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="8">
+    <row r="34" spans="1:8">
+      <c r="A34" s="8">
         <v>3</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
         <v>11358</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E34" s="52">
         <f t="shared" si="3"/>
         <v>11358</v>
       </c>
-      <c r="H30" s="97">
+      <c r="H34" s="97">
         <f t="shared" si="4"/>
         <v>20444.400000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="8">
+    <row r="35" spans="1:8">
+      <c r="A35" s="8">
         <v>4</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
         <v>9720</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E35" s="52">
         <f t="shared" si="3"/>
         <v>9720</v>
       </c>
-      <c r="G31" s="97">
-        <f>D31*1.8</f>
+      <c r="G35" s="97">
+        <f>D35*1.8</f>
         <v>17496</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="8">
+    <row r="36" spans="1:8">
+      <c r="A36" s="8">
         <v>5</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="8">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
         <v>5520</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E36" s="52">
         <f t="shared" si="3"/>
         <v>5520</v>
       </c>
-      <c r="G32" s="97">
-        <f>D32*1.8</f>
+      <c r="G36" s="97">
+        <f>D36*1.8</f>
         <v>9936</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="8">
+    <row r="37" spans="1:8">
+      <c r="A37" s="8">
         <v>6</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="C33" s="8">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
         <v>12960</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E37" s="52">
         <f t="shared" si="3"/>
         <v>12960</v>
       </c>
-      <c r="G33" s="97">
-        <f>D33*1.8</f>
+      <c r="G37" s="97">
+        <f>D37*1.8</f>
         <v>23328</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="26.4">
-      <c r="A34" s="8">
+    <row r="38" spans="1:8" ht="26.4">
+      <c r="A38" s="8">
         <v>7</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
         <v>36000</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E38" s="52">
         <f t="shared" si="3"/>
         <v>36000</v>
       </c>
-      <c r="G34" s="97">
-        <f>D34*1.8</f>
+      <c r="G38" s="97">
+        <f>D38*1.8</f>
         <v>64800</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="253" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="254"/>
-      <c r="C35" s="254"/>
-      <c r="D35" s="255"/>
-      <c r="E35" s="175">
-        <f>SUM(E28:E34)</f>
+      <c r="B39" s="255"/>
+      <c r="C39" s="255"/>
+      <c r="D39" s="256"/>
+      <c r="E39" s="175">
+        <f>SUM(E32:E38)</f>
         <v>330808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="75" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="75" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="75" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="75" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21625,8 +21698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21806,12 +21879,12 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="181"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
       <c r="E10" s="177">
         <f>SUM(E2:E9)</f>
         <v>32840</v>
@@ -21819,8 +21892,8 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="97"/>
-      <c r="B11" s="256"/>
-      <c r="C11" s="256"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="179"/>
       <c r="D11" s="97"/>
       <c r="E11" s="97"/>
     </row>
@@ -22064,12 +22137,12 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="181"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="182"/>
       <c r="E29" s="177">
         <f>SUM(E21:E28)</f>
         <v>28840</v>
@@ -22077,8 +22150,8 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="97"/>
-      <c r="B30" s="256"/>
-      <c r="C30" s="256"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="179"/>
       <c r="D30" s="97"/>
       <c r="E30" s="97"/>
     </row>
@@ -22213,12 +22286,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="196"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="197"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -22513,12 +22586,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="194" t="s">
+      <c r="A15" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="195"/>
-      <c r="C15" s="195"/>
-      <c r="D15" s="196"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -22764,12 +22837,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="194" t="s">
+      <c r="A31" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="195"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="196"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="197"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -22990,12 +23063,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="197"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -23070,13 +23143,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="199"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="200"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -23086,11 +23159,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="200"/>
-      <c r="B20" s="201"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="202"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23205,12 +23278,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="196"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="197"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -23425,12 +23498,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="195"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -23599,12 +23672,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="196"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="197"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -23688,12 +23761,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="203" t="s">
+      <c r="A19" s="204" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="30" activeTab="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="32" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <sheet name="Abhijeet 305" sheetId="34" r:id="rId34"/>
     <sheet name="El Shaddai 306" sheetId="35" r:id="rId35"/>
     <sheet name="Diana Aqua and Pools 307" sheetId="36" r:id="rId36"/>
+    <sheet name="Golden Tulip 308" sheetId="37" r:id="rId37"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="590">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2033,12 +2034,44 @@
   <si>
     <t>3) Reader Mounting pole @ 8000/-+GST</t>
   </si>
+  <si>
+    <t>1) Access Control</t>
+  </si>
+  <si>
+    <t>2) Face Attendence Devicce</t>
+  </si>
+  <si>
+    <t>Irish Recognition System
+-State of art optical design
+- Advanced, proprietary stereoscopic eye localization
+-Highest image quality
+-Compact, lightweight design
+-Stand-off distance of 35 to 45 cm in enrollment mode
+-Optional Extended Depth of Capture for iris authentication in recognition mode 
+-Real time image quality metrics
+- Face image capture
+-Very wide interpupillary distance
+-Large on-board data bases for on-board identification and authentication
+-Modular version for integration into kiosks or other enclosures 
+-Cable connectors / 
+-WiFi option
+-Card reader option
+-Local language support</t>
+  </si>
+  <si>
+    <t>Multi-BiometricTimeAttendance&amp; AccessControl System,
+-Fingerprint, face, RFID and password 4 type verification mode
+-High-speed identification less than 1 second
+-TCP/IP Port for Internet conenction
+-Access Port available to control one lock and exit button
+-Optional 5V 1900mAH UPS, standby upto 3 hours</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2209,6 +2242,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2650,7 +2696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3165,6 +3211,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3396,10 +3448,27 @@
     <xf numFmtId="4" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4046,12 +4115,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="180" t="s">
+      <c r="A18" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="181"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="182"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -4177,12 +4246,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="180" t="s">
+      <c r="A27" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="181"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="182"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="184"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -4343,12 +4412,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="197"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -4432,12 +4501,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="204" t="s">
+      <c r="A19" s="206" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="204"/>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -4598,12 +4667,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="197"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4687,20 +4756,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="200" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="200"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="202"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="201"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="203"/>
+      <c r="A20" s="203"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4899,24 +4968,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="209" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -5116,12 +5185,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="195" t="s">
+      <c r="A30" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="196"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="197"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="199"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -5289,12 +5358,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="205" t="s">
+      <c r="A41" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="206"/>
-      <c r="C41" s="206"/>
-      <c r="D41" s="206"/>
+      <c r="B41" s="208"/>
+      <c r="C41" s="208"/>
+      <c r="D41" s="208"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -5529,24 +5598,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="208" t="s">
+      <c r="A13" s="210" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="208"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5710,12 +5779,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="195" t="s">
+      <c r="A28" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="196"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="197"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="198"/>
+      <c r="D28" s="199"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -5917,48 +5986,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="197"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="199"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="197"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="197"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="199"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -6049,48 +6118,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="199"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="199"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="195" t="s">
+      <c r="A19" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="195" t="s">
+      <c r="A20" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="196"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="199"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -6173,48 +6242,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="195" t="s">
+      <c r="A27" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="196"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="199"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="195" t="s">
+      <c r="A28" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="196"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="197"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="198"/>
+      <c r="D28" s="199"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="195" t="s">
+      <c r="A29" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="196"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="195" t="s">
+      <c r="A30" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="196"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="197"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="199"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -6402,12 +6471,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -6531,12 +6600,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6696,12 +6765,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="180" t="s">
+      <c r="A38" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="181"/>
-      <c r="C38" s="181"/>
-      <c r="D38" s="182"/>
+      <c r="B38" s="183"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="184"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -6921,12 +6990,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="212" t="s">
+      <c r="A59" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="213"/>
-      <c r="C59" s="213"/>
-      <c r="D59" s="214"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="216"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -6938,10 +7007,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="215" t="s">
+      <c r="A63" s="217" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="215"/>
+      <c r="B63" s="217"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -7154,12 +7223,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="180" t="s">
+      <c r="A79" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="181"/>
-      <c r="C79" s="181"/>
-      <c r="D79" s="182"/>
+      <c r="B79" s="183"/>
+      <c r="C79" s="183"/>
+      <c r="D79" s="184"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -7383,12 +7452,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="180" t="s">
+      <c r="A99" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="181"/>
-      <c r="C99" s="181"/>
-      <c r="D99" s="181"/>
+      <c r="B99" s="183"/>
+      <c r="C99" s="183"/>
+      <c r="D99" s="183"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -7534,31 +7603,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="209" t="s">
+      <c r="B116" s="211" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="209"/>
+      <c r="C116" s="211"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="210">
+      <c r="E116" s="212">
         <v>9000</v>
       </c>
-      <c r="F116" s="211"/>
+      <c r="F116" s="213"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="180" t="s">
+      <c r="A117" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="181"/>
-      <c r="C117" s="181"/>
-      <c r="D117" s="181"/>
-      <c r="E117" s="181"/>
-      <c r="F117" s="182"/>
+      <c r="B117" s="183"/>
+      <c r="C117" s="183"/>
+      <c r="D117" s="183"/>
+      <c r="E117" s="183"/>
+      <c r="F117" s="184"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7674,31 +7743,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="209" t="s">
+      <c r="B124" s="211" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="209"/>
+      <c r="C124" s="211"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="194">
+      <c r="E124" s="196">
         <v>9000</v>
       </c>
-      <c r="F124" s="194"/>
+      <c r="F124" s="196"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="216" t="s">
+      <c r="A125" s="218" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="217"/>
-      <c r="C125" s="217"/>
-      <c r="D125" s="217"/>
-      <c r="E125" s="217"/>
-      <c r="F125" s="218"/>
+      <c r="B125" s="219"/>
+      <c r="C125" s="219"/>
+      <c r="D125" s="219"/>
+      <c r="E125" s="219"/>
+      <c r="F125" s="220"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7809,31 +7878,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="220" t="s">
+      <c r="B134" s="222" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="221"/>
+      <c r="C134" s="223"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="210">
+      <c r="E134" s="212">
         <v>12000</v>
       </c>
-      <c r="F134" s="211"/>
+      <c r="F134" s="213"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="216" t="s">
+      <c r="A135" s="218" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="217"/>
-      <c r="C135" s="217"/>
-      <c r="D135" s="217"/>
-      <c r="E135" s="217"/>
-      <c r="F135" s="218"/>
+      <c r="B135" s="219"/>
+      <c r="C135" s="219"/>
+      <c r="D135" s="219"/>
+      <c r="E135" s="219"/>
+      <c r="F135" s="220"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -7939,31 +8008,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="220" t="s">
+      <c r="B142" s="222" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="221"/>
+      <c r="C142" s="223"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="210">
+      <c r="E142" s="212">
         <v>12000</v>
       </c>
-      <c r="F142" s="211"/>
+      <c r="F142" s="213"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="216" t="s">
+      <c r="A143" s="218" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="217"/>
-      <c r="C143" s="217"/>
-      <c r="D143" s="217"/>
-      <c r="E143" s="217"/>
-      <c r="F143" s="218"/>
+      <c r="B143" s="219"/>
+      <c r="C143" s="219"/>
+      <c r="D143" s="219"/>
+      <c r="E143" s="219"/>
+      <c r="F143" s="220"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -8079,41 +8148,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="228" t="s">
+      <c r="B150" s="230" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="229"/>
+      <c r="C150" s="231"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="230">
+      <c r="E150" s="232">
         <v>12000</v>
       </c>
-      <c r="F150" s="231"/>
+      <c r="F150" s="233"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="219" t="s">
+      <c r="A151" s="221" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="219"/>
-      <c r="C151" s="219"/>
-      <c r="D151" s="219"/>
-      <c r="E151" s="219"/>
-      <c r="F151" s="219"/>
+      <c r="B151" s="221"/>
+      <c r="C151" s="221"/>
+      <c r="D151" s="221"/>
+      <c r="E151" s="221"/>
+      <c r="F151" s="221"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="232" t="s">
+      <c r="A154" s="234" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="232"/>
+      <c r="B154" s="234"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -8169,12 +8238,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="233" t="s">
+      <c r="A159" s="235" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="234"/>
-      <c r="C159" s="234"/>
-      <c r="D159" s="234"/>
+      <c r="B159" s="236"/>
+      <c r="C159" s="236"/>
+      <c r="D159" s="236"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -8232,12 +8301,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="219" t="s">
+      <c r="A163" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="219"/>
-      <c r="C163" s="219"/>
-      <c r="D163" s="219"/>
+      <c r="B163" s="221"/>
+      <c r="C163" s="221"/>
+      <c r="D163" s="221"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -10423,12 +10492,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="180" t="s">
+      <c r="A241" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="181"/>
-      <c r="C241" s="181"/>
-      <c r="D241" s="182"/>
+      <c r="B241" s="183"/>
+      <c r="C241" s="183"/>
+      <c r="D241" s="184"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -10577,12 +10646,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="180" t="s">
+      <c r="A254" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="181"/>
-      <c r="C254" s="181"/>
-      <c r="D254" s="182"/>
+      <c r="B254" s="183"/>
+      <c r="C254" s="183"/>
+      <c r="D254" s="184"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -10591,22 +10660,22 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="222" t="s">
+      <c r="A257" s="224" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="223"/>
-      <c r="C257" s="223"/>
-      <c r="D257" s="223"/>
-      <c r="E257" s="223"/>
-      <c r="F257" s="224"/>
+      <c r="B257" s="225"/>
+      <c r="C257" s="225"/>
+      <c r="D257" s="225"/>
+      <c r="E257" s="225"/>
+      <c r="F257" s="226"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="225"/>
-      <c r="B258" s="226"/>
-      <c r="C258" s="226"/>
-      <c r="D258" s="226"/>
-      <c r="E258" s="226"/>
-      <c r="F258" s="227"/>
+      <c r="A258" s="227"/>
+      <c r="B258" s="228"/>
+      <c r="C258" s="228"/>
+      <c r="D258" s="228"/>
+      <c r="E258" s="228"/>
+      <c r="F258" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -10847,12 +10916,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="181"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="182"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="184"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -10866,13 +10935,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="219" t="s">
+      <c r="A14" s="221" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="219"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="219"/>
+      <c r="B14" s="221"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="221"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -11165,25 +11234,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="181"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="182"/>
+      <c r="B39" s="183"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="184"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="219" t="s">
+      <c r="A41" s="221" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="219"/>
-      <c r="E41" s="219"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="221"/>
+      <c r="E41" s="221"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -11392,12 +11461,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="235" t="s">
+      <c r="A70" s="237" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="236"/>
-      <c r="C70" s="236"/>
-      <c r="D70" s="237"/>
+      <c r="B70" s="238"/>
+      <c r="C70" s="238"/>
+      <c r="D70" s="239"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -11587,12 +11656,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -11847,12 +11916,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="180" t="s">
+      <c r="A33" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="182"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="184"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -12074,12 +12143,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -12118,13 +12187,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -12211,105 +12280,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="193" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="193">
+      <c r="C7" s="195">
         <v>2</v>
       </c>
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="194">
+      <c r="E7" s="196">
         <v>567000</v>
       </c>
-      <c r="F7" s="194">
+      <c r="F7" s="196">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="191"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="193"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="191"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="193"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="191"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="191"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="193"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="191"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="193"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="191"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="193"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="191"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="191"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="193"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -12352,13 +12421,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="188" t="s">
+      <c r="B19" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="189"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="190"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="192"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -12444,7 +12513,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="191" t="s">
+      <c r="A24" s="193" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -12456,7 +12525,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="191"/>
+      <c r="A25" s="193"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -12475,7 +12544,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="191"/>
+      <c r="A26" s="193"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -12494,7 +12563,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="191"/>
+      <c r="A27" s="193"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -12532,13 +12601,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="188" t="s">
+      <c r="B30" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="189"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="190"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="192"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -12561,7 +12630,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="193" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -12573,7 +12642,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="191"/>
+      <c r="A33" s="193"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12587,7 +12656,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="191"/>
+      <c r="A34" s="193"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12601,7 +12670,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="191"/>
+      <c r="A35" s="193"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12615,7 +12684,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="191"/>
+      <c r="A36" s="193"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12629,7 +12698,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="191" t="s">
+      <c r="A37" s="193" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12641,7 +12710,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="191"/>
+      <c r="A38" s="193"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12660,7 +12729,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="191"/>
+      <c r="A39" s="193"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12679,7 +12748,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="191"/>
+      <c r="A40" s="193"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12698,7 +12767,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="191"/>
+      <c r="A41" s="193"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12717,7 +12786,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="191"/>
+      <c r="A42" s="193"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12758,13 +12827,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="188" t="s">
+      <c r="B45" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="189"/>
-      <c r="D45" s="189"/>
-      <c r="E45" s="189"/>
-      <c r="F45" s="190"/>
+      <c r="C45" s="191"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="192"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -13009,13 +13078,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="185" t="s">
+      <c r="A57" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="186"/>
-      <c r="C57" s="186"/>
-      <c r="D57" s="186"/>
-      <c r="E57" s="187"/>
+      <c r="B57" s="188"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="189"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -13033,13 +13102,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="183" t="s">
+      <c r="B59" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="183"/>
-      <c r="D59" s="183"/>
-      <c r="E59" s="183"/>
-      <c r="F59" s="183"/>
+      <c r="C59" s="185"/>
+      <c r="D59" s="185"/>
+      <c r="E59" s="185"/>
+      <c r="F59" s="185"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -13057,13 +13126,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="184" t="s">
+      <c r="B61" s="186" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="184"/>
-      <c r="D61" s="184"/>
-      <c r="E61" s="184"/>
-      <c r="F61" s="184"/>
+      <c r="C61" s="186"/>
+      <c r="D61" s="186"/>
+      <c r="E61" s="186"/>
+      <c r="F61" s="186"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -13083,26 +13152,26 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="184" t="s">
+      <c r="B63" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="184"/>
-      <c r="D63" s="184"/>
-      <c r="E63" s="184"/>
-      <c r="F63" s="184"/>
+      <c r="C63" s="186"/>
+      <c r="D63" s="186"/>
+      <c r="E63" s="186"/>
+      <c r="F63" s="186"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="184" t="s">
+      <c r="B64" s="186" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="184"/>
-      <c r="D64" s="184"/>
-      <c r="E64" s="184"/>
-      <c r="F64" s="184"/>
+      <c r="C64" s="186"/>
+      <c r="D64" s="186"/>
+      <c r="E64" s="186"/>
+      <c r="F64" s="186"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
@@ -13326,12 +13395,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -13708,12 +13777,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -13999,12 +14068,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="180" t="s">
+      <c r="A37" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="182"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="184"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -14306,12 +14375,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="180" t="s">
+      <c r="A63" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="181"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="182"/>
+      <c r="B63" s="183"/>
+      <c r="C63" s="183"/>
+      <c r="D63" s="184"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -14424,183 +14493,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="238">
+      <c r="A2" s="240">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="238">
-        <v>1</v>
-      </c>
-      <c r="D2" s="238">
+      <c r="C2" s="240">
+        <v>1</v>
+      </c>
+      <c r="D2" s="240">
         <v>42000</v>
       </c>
-      <c r="E2" s="238">
+      <c r="E2" s="240">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="239"/>
+      <c r="A3" s="241"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="239"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="239"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="239"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="239"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="239"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="239"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="239"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="239"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="239"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="239"/>
+      <c r="A11" s="241"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="241"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="239"/>
+      <c r="A12" s="241"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="239"/>
-      <c r="D12" s="239"/>
-      <c r="E12" s="239"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="239"/>
+      <c r="A13" s="241"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="239"/>
-      <c r="D13" s="239"/>
-      <c r="E13" s="239"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="239"/>
+      <c r="A14" s="241"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="239"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="239"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="239"/>
+      <c r="A15" s="241"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="239"/>
+      <c r="A16" s="241"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="239"/>
+      <c r="A17" s="241"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="239"/>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="239"/>
+      <c r="A18" s="241"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="240"/>
+      <c r="A19" s="242"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
-      <c r="E19" s="240"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="219" t="s">
+      <c r="A20" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
+      <c r="B20" s="221"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="221"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -14916,12 +14985,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -15174,12 +15243,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -15402,10 +15471,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="242" t="s">
+      <c r="B6" s="244" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="242"/>
+      <c r="C6" s="244"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -15419,13 +15488,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="241" t="s">
+      <c r="A7" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="241"/>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -15581,10 +15650,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="242" t="s">
+      <c r="B26" s="244" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="242"/>
+      <c r="C26" s="244"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -15598,13 +15667,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="241" t="s">
+      <c r="A27" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
+      <c r="B27" s="243"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="243"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -15816,12 +15885,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -16111,12 +16180,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="180" t="s">
+      <c r="A37" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="182"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="184"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -16383,12 +16452,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
       <c r="E11" s="145">
         <f>SUM(E3:E10)</f>
         <v>99820</v>
@@ -16705,12 +16774,12 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="180" t="s">
+      <c r="A36" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="182"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="184"/>
       <c r="E36" s="145">
         <f>SUM(E27:E35)</f>
         <v>56780</v>
@@ -16966,12 +17035,12 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="180" t="s">
+      <c r="A55" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="181"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="182"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="184"/>
       <c r="E55" s="145">
         <f>SUM(E46:E54)</f>
         <v>86940</v>
@@ -17165,12 +17234,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="180" t="s">
+      <c r="A68" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="181"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="182"/>
+      <c r="B68" s="183"/>
+      <c r="C68" s="183"/>
+      <c r="D68" s="184"/>
       <c r="E68" s="145">
         <f>SUM(E59:E67)</f>
         <v>49380</v>
@@ -17362,12 +17431,12 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
       <c r="E10" s="147">
         <f>SUM(E3:E9)</f>
         <v>69770</v>
@@ -17652,12 +17721,12 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="180" t="s">
+      <c r="A36" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="182"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="184"/>
       <c r="E36" s="147">
         <f>SUM(E29:E35)</f>
         <v>66840</v>
@@ -17784,165 +17853,165 @@
       <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="243">
+      <c r="A3" s="245">
         <v>1</v>
       </c>
       <c r="B3" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="243">
-        <v>1</v>
-      </c>
-      <c r="D3" s="243">
+      <c r="C3" s="245">
+        <v>1</v>
+      </c>
+      <c r="D3" s="245">
         <v>75900</v>
       </c>
-      <c r="E3" s="243">
+      <c r="E3" s="245">
         <f>C3*D3</f>
         <v>75900</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="244"/>
+      <c r="A4" s="246"/>
       <c r="B4" s="152" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="244"/>
+      <c r="A5" s="246"/>
       <c r="B5" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="244"/>
+      <c r="A6" s="246"/>
       <c r="B6" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="244"/>
-      <c r="D6" s="244"/>
-      <c r="E6" s="244"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="244"/>
+      <c r="A7" s="246"/>
       <c r="B7" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="244"/>
+      <c r="A8" s="246"/>
       <c r="B8" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="244"/>
+      <c r="A9" s="246"/>
       <c r="B9" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="244"/>
+      <c r="A10" s="246"/>
       <c r="B10" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="244"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="244"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="244"/>
+      <c r="A11" s="246"/>
       <c r="B11" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="244"/>
-      <c r="D11" s="244"/>
-      <c r="E11" s="244"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="244"/>
+      <c r="A12" s="246"/>
       <c r="B12" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="244"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="244"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="246"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="244"/>
+      <c r="A13" s="246"/>
       <c r="B13" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="244"/>
-      <c r="D13" s="244"/>
-      <c r="E13" s="244"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="246"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="244"/>
+      <c r="A14" s="246"/>
       <c r="B14" s="152" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="244"/>
-      <c r="D14" s="244"/>
-      <c r="E14" s="244"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="246"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="244"/>
+      <c r="A15" s="246"/>
       <c r="B15" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="244"/>
-      <c r="D15" s="244"/>
-      <c r="E15" s="244"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="244"/>
+      <c r="A16" s="246"/>
       <c r="B16" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="244"/>
-      <c r="D16" s="244"/>
-      <c r="E16" s="244"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="246"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="244"/>
+      <c r="A17" s="246"/>
       <c r="B17" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="244"/>
-      <c r="D17" s="244"/>
-      <c r="E17" s="244"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="246"/>
+      <c r="E17" s="246"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="245"/>
+      <c r="A18" s="247"/>
       <c r="B18" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C18" s="245"/>
-      <c r="D18" s="245"/>
-      <c r="E18" s="245"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="247"/>
+      <c r="E18" s="247"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="248" t="s">
+      <c r="A19" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="249"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="250"/>
+      <c r="B19" s="251"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="252"/>
       <c r="E19" s="153">
         <f>SUM(E3)</f>
         <v>75900</v>
@@ -17969,7 +18038,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.8">
-      <c r="A27" s="246">
+      <c r="A27" s="248">
         <v>1</v>
       </c>
       <c r="B27" s="152" t="s">
@@ -17981,16 +18050,16 @@
       <c r="D27" s="149">
         <v>1</v>
       </c>
-      <c r="E27" s="246">
+      <c r="E27" s="248">
         <v>69000</v>
       </c>
-      <c r="F27" s="246">
+      <c r="F27" s="248">
         <f>D27*E27</f>
         <v>69000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="262.2">
-      <c r="A28" s="246"/>
+      <c r="A28" s="248"/>
       <c r="B28" s="152" t="s">
         <v>475</v>
       </c>
@@ -18000,11 +18069,11 @@
       <c r="D28" s="149">
         <v>1</v>
       </c>
-      <c r="E28" s="246"/>
-      <c r="F28" s="246"/>
+      <c r="E28" s="248"/>
+      <c r="F28" s="248"/>
     </row>
     <row r="29" spans="1:6" ht="124.2">
-      <c r="A29" s="246"/>
+      <c r="A29" s="248"/>
       <c r="B29" s="152" t="s">
         <v>477</v>
       </c>
@@ -18014,11 +18083,11 @@
       <c r="D29" s="149">
         <v>1</v>
       </c>
-      <c r="E29" s="246"/>
-      <c r="F29" s="246"/>
+      <c r="E29" s="248"/>
+      <c r="F29" s="248"/>
     </row>
     <row r="30" spans="1:6" ht="248.4">
-      <c r="A30" s="246"/>
+      <c r="A30" s="248"/>
       <c r="B30" s="152" t="s">
         <v>479</v>
       </c>
@@ -18028,11 +18097,11 @@
       <c r="D30" s="149">
         <v>1</v>
       </c>
-      <c r="E30" s="246"/>
-      <c r="F30" s="246"/>
+      <c r="E30" s="248"/>
+      <c r="F30" s="248"/>
     </row>
     <row r="31" spans="1:6" ht="69">
-      <c r="A31" s="246"/>
+      <c r="A31" s="248"/>
       <c r="B31" s="152" t="s">
         <v>481</v>
       </c>
@@ -18042,11 +18111,11 @@
       <c r="D31" s="149">
         <v>1</v>
       </c>
-      <c r="E31" s="246"/>
-      <c r="F31" s="246"/>
+      <c r="E31" s="248"/>
+      <c r="F31" s="248"/>
     </row>
     <row r="32" spans="1:6" ht="179.4">
-      <c r="A32" s="246"/>
+      <c r="A32" s="248"/>
       <c r="B32" s="152" t="s">
         <v>483</v>
       </c>
@@ -18056,11 +18125,11 @@
       <c r="D32" s="149">
         <v>1</v>
       </c>
-      <c r="E32" s="246"/>
-      <c r="F32" s="246"/>
+      <c r="E32" s="248"/>
+      <c r="F32" s="248"/>
     </row>
     <row r="33" spans="1:6" ht="82.8">
-      <c r="A33" s="246"/>
+      <c r="A33" s="248"/>
       <c r="B33" s="152" t="s">
         <v>483</v>
       </c>
@@ -18070,11 +18139,11 @@
       <c r="D33" s="149">
         <v>1</v>
       </c>
-      <c r="E33" s="246"/>
-      <c r="F33" s="246"/>
+      <c r="E33" s="248"/>
+      <c r="F33" s="248"/>
     </row>
     <row r="34" spans="1:6" ht="96.6">
-      <c r="A34" s="246"/>
+      <c r="A34" s="248"/>
       <c r="B34" s="152" t="s">
         <v>483</v>
       </c>
@@ -18084,11 +18153,11 @@
       <c r="D34" s="149">
         <v>1</v>
       </c>
-      <c r="E34" s="246"/>
-      <c r="F34" s="246"/>
+      <c r="E34" s="248"/>
+      <c r="F34" s="248"/>
     </row>
     <row r="35" spans="1:6" ht="234.6">
-      <c r="A35" s="246"/>
+      <c r="A35" s="248"/>
       <c r="B35" s="152" t="s">
         <v>487</v>
       </c>
@@ -18098,11 +18167,11 @@
       <c r="D35" s="149">
         <v>1</v>
       </c>
-      <c r="E35" s="246"/>
-      <c r="F35" s="246"/>
+      <c r="E35" s="248"/>
+      <c r="F35" s="248"/>
     </row>
     <row r="36" spans="1:6" ht="165.6">
-      <c r="A36" s="246"/>
+      <c r="A36" s="248"/>
       <c r="B36" s="152" t="s">
         <v>489</v>
       </c>
@@ -18112,11 +18181,11 @@
       <c r="D36" s="149">
         <v>1</v>
       </c>
-      <c r="E36" s="246"/>
-      <c r="F36" s="246"/>
+      <c r="E36" s="248"/>
+      <c r="F36" s="248"/>
     </row>
     <row r="37" spans="1:6" ht="27.6">
-      <c r="A37" s="246"/>
+      <c r="A37" s="248"/>
       <c r="B37" s="152" t="s">
         <v>493</v>
       </c>
@@ -18126,11 +18195,11 @@
       <c r="D37" s="149">
         <v>1</v>
       </c>
-      <c r="E37" s="246"/>
-      <c r="F37" s="246"/>
+      <c r="E37" s="248"/>
+      <c r="F37" s="248"/>
     </row>
     <row r="38" spans="1:6" ht="82.8">
-      <c r="A38" s="246"/>
+      <c r="A38" s="248"/>
       <c r="B38" s="152" t="s">
         <v>494</v>
       </c>
@@ -18140,11 +18209,11 @@
       <c r="D38" s="149">
         <v>1</v>
       </c>
-      <c r="E38" s="246"/>
-      <c r="F38" s="246"/>
+      <c r="E38" s="248"/>
+      <c r="F38" s="248"/>
     </row>
     <row r="39" spans="1:6" ht="55.2">
-      <c r="A39" s="246"/>
+      <c r="A39" s="248"/>
       <c r="B39" s="152" t="s">
         <v>495</v>
       </c>
@@ -18154,11 +18223,11 @@
       <c r="D39" s="149">
         <v>1</v>
       </c>
-      <c r="E39" s="246"/>
-      <c r="F39" s="246"/>
+      <c r="E39" s="248"/>
+      <c r="F39" s="248"/>
     </row>
     <row r="40" spans="1:6" ht="138">
-      <c r="A40" s="246"/>
+      <c r="A40" s="248"/>
       <c r="B40" s="152" t="s">
         <v>497</v>
       </c>
@@ -18168,11 +18237,11 @@
       <c r="D40" s="149">
         <v>1</v>
       </c>
-      <c r="E40" s="246"/>
-      <c r="F40" s="246"/>
+      <c r="E40" s="248"/>
+      <c r="F40" s="248"/>
     </row>
     <row r="41" spans="1:6" ht="96.6">
-      <c r="A41" s="246"/>
+      <c r="A41" s="248"/>
       <c r="B41" s="152" t="s">
         <v>499</v>
       </c>
@@ -18182,11 +18251,11 @@
       <c r="D41" s="149">
         <v>1</v>
       </c>
-      <c r="E41" s="246"/>
-      <c r="F41" s="246"/>
+      <c r="E41" s="248"/>
+      <c r="F41" s="248"/>
     </row>
     <row r="42" spans="1:6" ht="317.39999999999998">
-      <c r="A42" s="246"/>
+      <c r="A42" s="248"/>
       <c r="B42" s="152" t="s">
         <v>501</v>
       </c>
@@ -18196,11 +18265,11 @@
       <c r="D42" s="149">
         <v>1</v>
       </c>
-      <c r="E42" s="246"/>
-      <c r="F42" s="246"/>
+      <c r="E42" s="248"/>
+      <c r="F42" s="248"/>
     </row>
     <row r="43" spans="1:6" ht="69">
-      <c r="A43" s="246"/>
+      <c r="A43" s="248"/>
       <c r="B43" s="152" t="s">
         <v>501</v>
       </c>
@@ -18210,11 +18279,11 @@
       <c r="D43" s="149">
         <v>1</v>
       </c>
-      <c r="E43" s="246"/>
-      <c r="F43" s="246"/>
+      <c r="E43" s="248"/>
+      <c r="F43" s="248"/>
     </row>
     <row r="44" spans="1:6" ht="193.2">
-      <c r="A44" s="246"/>
+      <c r="A44" s="248"/>
       <c r="B44" s="152" t="s">
         <v>501</v>
       </c>
@@ -18224,11 +18293,11 @@
       <c r="D44" s="149">
         <v>1</v>
       </c>
-      <c r="E44" s="246"/>
-      <c r="F44" s="246"/>
+      <c r="E44" s="248"/>
+      <c r="F44" s="248"/>
     </row>
     <row r="45" spans="1:6" ht="234.6">
-      <c r="A45" s="246"/>
+      <c r="A45" s="248"/>
       <c r="B45" s="152" t="s">
         <v>505</v>
       </c>
@@ -18238,11 +18307,11 @@
       <c r="D45" s="149">
         <v>1</v>
       </c>
-      <c r="E45" s="246"/>
-      <c r="F45" s="246"/>
+      <c r="E45" s="248"/>
+      <c r="F45" s="248"/>
     </row>
     <row r="46" spans="1:6" ht="69">
-      <c r="A46" s="246"/>
+      <c r="A46" s="248"/>
       <c r="B46" s="152" t="s">
         <v>507</v>
       </c>
@@ -18252,11 +18321,11 @@
       <c r="D46" s="149">
         <v>1</v>
       </c>
-      <c r="E46" s="246"/>
-      <c r="F46" s="246"/>
+      <c r="E46" s="248"/>
+      <c r="F46" s="248"/>
     </row>
     <row r="47" spans="1:6" ht="110.4">
-      <c r="A47" s="246"/>
+      <c r="A47" s="248"/>
       <c r="B47" s="152" t="s">
         <v>509</v>
       </c>
@@ -18266,11 +18335,11 @@
       <c r="D47" s="149">
         <v>1</v>
       </c>
-      <c r="E47" s="246"/>
-      <c r="F47" s="246"/>
+      <c r="E47" s="248"/>
+      <c r="F47" s="248"/>
     </row>
     <row r="48" spans="1:6" ht="96.6">
-      <c r="A48" s="246"/>
+      <c r="A48" s="248"/>
       <c r="B48" s="152" t="s">
         <v>509</v>
       </c>
@@ -18280,11 +18349,11 @@
       <c r="D48" s="149">
         <v>1</v>
       </c>
-      <c r="E48" s="246"/>
-      <c r="F48" s="246"/>
+      <c r="E48" s="248"/>
+      <c r="F48" s="248"/>
     </row>
     <row r="49" spans="1:6" ht="110.4">
-      <c r="A49" s="246"/>
+      <c r="A49" s="248"/>
       <c r="B49" s="152" t="s">
         <v>512</v>
       </c>
@@ -18294,11 +18363,11 @@
       <c r="D49" s="149">
         <v>1</v>
       </c>
-      <c r="E49" s="246"/>
-      <c r="F49" s="246"/>
+      <c r="E49" s="248"/>
+      <c r="F49" s="248"/>
     </row>
     <row r="50" spans="1:6" ht="165.6">
-      <c r="A50" s="246"/>
+      <c r="A50" s="248"/>
       <c r="B50" s="152" t="s">
         <v>514</v>
       </c>
@@ -18308,11 +18377,11 @@
       <c r="D50" s="149">
         <v>1</v>
       </c>
-      <c r="E50" s="246"/>
-      <c r="F50" s="246"/>
+      <c r="E50" s="248"/>
+      <c r="F50" s="248"/>
     </row>
     <row r="51" spans="1:6" ht="165.6">
-      <c r="A51" s="246"/>
+      <c r="A51" s="248"/>
       <c r="B51" s="152" t="s">
         <v>516</v>
       </c>
@@ -18322,11 +18391,11 @@
       <c r="D51" s="149">
         <v>1</v>
       </c>
-      <c r="E51" s="246"/>
-      <c r="F51" s="246"/>
+      <c r="E51" s="248"/>
+      <c r="F51" s="248"/>
     </row>
     <row r="52" spans="1:6" ht="151.80000000000001">
-      <c r="A52" s="246"/>
+      <c r="A52" s="248"/>
       <c r="B52" s="152" t="s">
         <v>518</v>
       </c>
@@ -18336,11 +18405,11 @@
       <c r="D52" s="149">
         <v>1</v>
       </c>
-      <c r="E52" s="246"/>
-      <c r="F52" s="246"/>
+      <c r="E52" s="248"/>
+      <c r="F52" s="248"/>
     </row>
     <row r="53" spans="1:6" ht="55.2">
-      <c r="A53" s="246"/>
+      <c r="A53" s="248"/>
       <c r="B53" s="152" t="s">
         <v>520</v>
       </c>
@@ -18350,11 +18419,11 @@
       <c r="D53" s="149">
         <v>1</v>
       </c>
-      <c r="E53" s="246"/>
-      <c r="F53" s="246"/>
+      <c r="E53" s="248"/>
+      <c r="F53" s="248"/>
     </row>
     <row r="54" spans="1:6" ht="82.8">
-      <c r="A54" s="246"/>
+      <c r="A54" s="248"/>
       <c r="B54" s="152" t="s">
         <v>523</v>
       </c>
@@ -18364,11 +18433,11 @@
       <c r="D54" s="149">
         <v>1</v>
       </c>
-      <c r="E54" s="246"/>
-      <c r="F54" s="246"/>
+      <c r="E54" s="248"/>
+      <c r="F54" s="248"/>
     </row>
     <row r="55" spans="1:6" ht="96.6">
-      <c r="A55" s="246"/>
+      <c r="A55" s="248"/>
       <c r="B55" s="152" t="s">
         <v>524</v>
       </c>
@@ -18378,11 +18447,11 @@
       <c r="D55" s="149">
         <v>1</v>
       </c>
-      <c r="E55" s="246"/>
-      <c r="F55" s="246"/>
+      <c r="E55" s="248"/>
+      <c r="F55" s="248"/>
     </row>
     <row r="56" spans="1:6" ht="82.8">
-      <c r="A56" s="246"/>
+      <c r="A56" s="248"/>
       <c r="B56" s="152" t="s">
         <v>526</v>
       </c>
@@ -18392,11 +18461,11 @@
       <c r="D56" s="149">
         <v>1</v>
       </c>
-      <c r="E56" s="246"/>
-      <c r="F56" s="246"/>
+      <c r="E56" s="248"/>
+      <c r="F56" s="248"/>
     </row>
     <row r="57" spans="1:6" ht="41.4">
-      <c r="A57" s="246"/>
+      <c r="A57" s="248"/>
       <c r="B57" s="150" t="s">
         <v>418</v>
       </c>
@@ -18404,11 +18473,11 @@
         <v>1</v>
       </c>
       <c r="D57" s="149"/>
-      <c r="E57" s="246"/>
-      <c r="F57" s="246"/>
+      <c r="E57" s="248"/>
+      <c r="F57" s="248"/>
     </row>
     <row r="58" spans="1:6" ht="82.8">
-      <c r="A58" s="246"/>
+      <c r="A58" s="248"/>
       <c r="B58" s="152" t="s">
         <v>528</v>
       </c>
@@ -18418,11 +18487,11 @@
       <c r="D58" s="149">
         <v>1</v>
       </c>
-      <c r="E58" s="246"/>
-      <c r="F58" s="246"/>
+      <c r="E58" s="248"/>
+      <c r="F58" s="248"/>
     </row>
     <row r="59" spans="1:6" ht="41.4">
-      <c r="A59" s="246"/>
+      <c r="A59" s="248"/>
       <c r="B59" s="152" t="s">
         <v>501</v>
       </c>
@@ -18432,11 +18501,11 @@
       <c r="D59" s="149">
         <v>1</v>
       </c>
-      <c r="E59" s="246"/>
-      <c r="F59" s="246"/>
+      <c r="E59" s="248"/>
+      <c r="F59" s="248"/>
     </row>
     <row r="60" spans="1:6" ht="138">
-      <c r="A60" s="246"/>
+      <c r="A60" s="248"/>
       <c r="B60" s="152" t="s">
         <v>501</v>
       </c>
@@ -18446,11 +18515,11 @@
       <c r="D60" s="149">
         <v>1</v>
       </c>
-      <c r="E60" s="246"/>
-      <c r="F60" s="246"/>
+      <c r="E60" s="248"/>
+      <c r="F60" s="248"/>
     </row>
     <row r="61" spans="1:6" ht="69">
-      <c r="A61" s="246"/>
+      <c r="A61" s="248"/>
       <c r="B61" s="152" t="s">
         <v>501</v>
       </c>
@@ -18460,11 +18529,11 @@
       <c r="D61" s="149">
         <v>1</v>
       </c>
-      <c r="E61" s="246"/>
-      <c r="F61" s="246"/>
+      <c r="E61" s="248"/>
+      <c r="F61" s="248"/>
     </row>
     <row r="62" spans="1:6" ht="110.4">
-      <c r="A62" s="246"/>
+      <c r="A62" s="248"/>
       <c r="B62" s="152" t="s">
         <v>501</v>
       </c>
@@ -18474,11 +18543,11 @@
       <c r="D62" s="149">
         <v>1</v>
       </c>
-      <c r="E62" s="246"/>
-      <c r="F62" s="246"/>
+      <c r="E62" s="248"/>
+      <c r="F62" s="248"/>
     </row>
     <row r="63" spans="1:6" ht="96.6">
-      <c r="A63" s="246"/>
+      <c r="A63" s="248"/>
       <c r="B63" s="152" t="s">
         <v>534</v>
       </c>
@@ -18488,11 +18557,11 @@
       <c r="D63" s="149">
         <v>1</v>
       </c>
-      <c r="E63" s="246"/>
-      <c r="F63" s="246"/>
+      <c r="E63" s="248"/>
+      <c r="F63" s="248"/>
     </row>
     <row r="64" spans="1:6" ht="110.4">
-      <c r="A64" s="246"/>
+      <c r="A64" s="248"/>
       <c r="B64" s="152" t="s">
         <v>536</v>
       </c>
@@ -18502,11 +18571,11 @@
       <c r="D64" s="149">
         <v>1</v>
       </c>
-      <c r="E64" s="246"/>
-      <c r="F64" s="246"/>
+      <c r="E64" s="248"/>
+      <c r="F64" s="248"/>
     </row>
     <row r="65" spans="1:6" ht="41.4">
-      <c r="A65" s="246"/>
+      <c r="A65" s="248"/>
       <c r="B65" s="150" t="s">
         <v>538</v>
       </c>
@@ -18514,11 +18583,11 @@
         <v>1</v>
       </c>
       <c r="D65" s="149"/>
-      <c r="E65" s="246"/>
-      <c r="F65" s="246"/>
+      <c r="E65" s="248"/>
+      <c r="F65" s="248"/>
     </row>
     <row r="66" spans="1:6" ht="124.2">
-      <c r="A66" s="246"/>
+      <c r="A66" s="248"/>
       <c r="B66" s="152" t="s">
         <v>540</v>
       </c>
@@ -18528,11 +18597,11 @@
       <c r="D66" s="149">
         <v>1</v>
       </c>
-      <c r="E66" s="246"/>
-      <c r="F66" s="246"/>
+      <c r="E66" s="248"/>
+      <c r="F66" s="248"/>
     </row>
     <row r="67" spans="1:6" ht="151.80000000000001">
-      <c r="A67" s="246"/>
+      <c r="A67" s="248"/>
       <c r="B67" s="152" t="s">
         <v>541</v>
       </c>
@@ -18542,17 +18611,17 @@
       <c r="D67" s="149">
         <v>1</v>
       </c>
-      <c r="E67" s="246"/>
-      <c r="F67" s="246"/>
+      <c r="E67" s="248"/>
+      <c r="F67" s="248"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="247" t="s">
+      <c r="A68" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="247"/>
-      <c r="C68" s="247"/>
-      <c r="D68" s="247"/>
-      <c r="E68" s="247"/>
+      <c r="B68" s="249"/>
+      <c r="C68" s="249"/>
+      <c r="D68" s="249"/>
+      <c r="E68" s="249"/>
       <c r="F68" s="150">
         <f>SUM(F27:F27)</f>
         <v>69000</v>
@@ -18663,48 +18732,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="197"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="197"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="199"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="197"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="199"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="197"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -18767,11 +18836,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
       <c r="D3" s="153">
         <f>SUM(D2)</f>
         <v>45000</v>
@@ -18966,12 +19035,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
       <c r="E10" s="158">
         <f>SUM(E2:E9)</f>
         <v>82970</v>
@@ -19253,12 +19322,12 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="180" t="s">
+      <c r="A36" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="182"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="184"/>
       <c r="E36" s="158">
         <f>SUM(E28:E35)</f>
         <v>82850</v>
@@ -19557,12 +19626,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
       <c r="E11" s="162">
         <f>SUM(E3:E10)</f>
         <v>152800</v>
@@ -19838,12 +19907,12 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="180" t="s">
+      <c r="A35" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="182"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="184"/>
       <c r="E35" s="162">
         <f>SUM(E27:E34)</f>
         <v>95050</v>
@@ -20084,12 +20153,12 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="180" t="s">
+      <c r="A59" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="181"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="182"/>
+      <c r="B59" s="183"/>
+      <c r="C59" s="183"/>
+      <c r="D59" s="184"/>
       <c r="E59" s="162">
         <f>SUM(E51:E58)</f>
         <v>139220</v>
@@ -20344,12 +20413,12 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="180" t="s">
+      <c r="A82" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="181"/>
-      <c r="C82" s="181"/>
-      <c r="D82" s="182"/>
+      <c r="B82" s="183"/>
+      <c r="C82" s="183"/>
+      <c r="D82" s="184"/>
       <c r="E82" s="162">
         <f>SUM(E74:E81)</f>
         <v>82350</v>
@@ -20474,48 +20543,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
       <c r="E3" s="166">
         <f>SUM(E2)</f>
         <v>27900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="253" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
       <c r="E4" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="253" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
       <c r="E5" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="251" t="s">
+      <c r="A6" s="253" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
+      <c r="B6" s="254"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="254"/>
       <c r="E6" s="166">
         <f>SUM(E3:E5)</f>
         <v>32922</v>
@@ -20720,12 +20789,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
       <c r="E10" s="168">
         <f>SUM(E2:E9)</f>
         <v>79850</v>
@@ -20956,12 +21025,12 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="180" t="s">
+      <c r="A30" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="181"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="182"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="184"/>
       <c r="E30" s="170">
         <f>SUM(E23:E29)</f>
         <v>49710</v>
@@ -21048,8 +21117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -21214,12 +21283,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
       <c r="E9" s="172">
         <f>SUM(E3:E8)</f>
         <v>347036</v>
@@ -21271,14 +21340,14 @@
         <v>566</v>
       </c>
       <c r="C16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="8">
         <v>271000</v>
       </c>
       <c r="E16" s="52">
         <f>C16*D16</f>
-        <v>271000</v>
+        <v>542000</v>
       </c>
       <c r="H16" s="97">
         <f>D16*1.8</f>
@@ -21297,14 +21366,14 @@
         <v>202</v>
       </c>
       <c r="C17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="8">
         <v>11250</v>
       </c>
       <c r="E17" s="52">
         <f t="shared" ref="E17:E22" si="1">C17*D17</f>
-        <v>11250</v>
+        <v>22500</v>
       </c>
       <c r="H17" s="97">
         <f t="shared" ref="H17:H21" si="2">D17*1.8</f>
@@ -21319,14 +21388,14 @@
         <v>562</v>
       </c>
       <c r="C18" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="8">
         <v>18000</v>
       </c>
       <c r="E18" s="52">
         <f t="shared" si="1"/>
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="H18" s="97">
         <f t="shared" si="2"/>
@@ -21341,14 +21410,14 @@
         <v>203</v>
       </c>
       <c r="C19" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="8">
         <v>9720</v>
       </c>
       <c r="E19" s="52">
         <f t="shared" si="1"/>
-        <v>9720</v>
+        <v>19440</v>
       </c>
       <c r="H19" s="97">
         <f t="shared" si="2"/>
@@ -21363,14 +21432,14 @@
         <v>205</v>
       </c>
       <c r="C20" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="8">
         <v>5220</v>
       </c>
       <c r="E20" s="52">
         <f t="shared" si="1"/>
-        <v>5220</v>
+        <v>10440</v>
       </c>
       <c r="H20" s="97">
         <f t="shared" si="2"/>
@@ -21388,14 +21457,14 @@
         <v>563</v>
       </c>
       <c r="C21" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="8">
         <v>12960</v>
       </c>
       <c r="E21" s="52">
         <f t="shared" si="1"/>
-        <v>12960</v>
+        <v>25920</v>
       </c>
       <c r="H21" s="97">
         <f t="shared" si="2"/>
@@ -21410,14 +21479,14 @@
         <v>206</v>
       </c>
       <c r="C22" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="8">
         <v>36000</v>
       </c>
       <c r="E22" s="52">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="G22" s="97">
         <f>D22*1.8</f>
@@ -21425,15 +21494,15 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="253" t="s">
+      <c r="A23" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="253"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
+      <c r="B23" s="255"/>
+      <c r="C23" s="255"/>
+      <c r="D23" s="255"/>
       <c r="E23" s="175">
         <f>SUM(E16:E22)</f>
-        <v>364150</v>
+        <v>728300</v>
       </c>
       <c r="N23" s="97">
         <f>41000*2</f>
@@ -21441,20 +21510,20 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="257"/>
-      <c r="B24" s="257"/>
-      <c r="C24" s="257"/>
-      <c r="D24" s="257"/>
-      <c r="E24" s="258"/>
+      <c r="A24" s="180"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="181"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="75" t="s">
         <v>567</v>
       </c>
-      <c r="B25" s="257"/>
-      <c r="C25" s="257"/>
-      <c r="D25" s="257"/>
-      <c r="E25" s="258"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="181"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="75" t="s">
@@ -21501,14 +21570,14 @@
         <v>569</v>
       </c>
       <c r="C32" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="8">
         <v>244000</v>
       </c>
       <c r="E32" s="52">
         <f>C32*D32</f>
-        <v>244000</v>
+        <v>488000</v>
       </c>
       <c r="H32" s="97">
         <f>D32*1.8</f>
@@ -21527,14 +21596,14 @@
         <v>202</v>
       </c>
       <c r="C33" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="8">
         <v>11250</v>
       </c>
       <c r="E33" s="52">
         <f t="shared" ref="E33:E38" si="3">C33*D33</f>
-        <v>11250</v>
+        <v>22500</v>
       </c>
       <c r="H33" s="97">
         <f t="shared" ref="H33:H34" si="4">D33*1.8</f>
@@ -21549,14 +21618,14 @@
         <v>562</v>
       </c>
       <c r="C34" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="8">
         <v>11358</v>
       </c>
       <c r="E34" s="52">
         <f t="shared" si="3"/>
-        <v>11358</v>
+        <v>22716</v>
       </c>
       <c r="H34" s="97">
         <f t="shared" si="4"/>
@@ -21571,14 +21640,14 @@
         <v>203</v>
       </c>
       <c r="C35" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="8">
         <v>9720</v>
       </c>
       <c r="E35" s="52">
         <f t="shared" si="3"/>
-        <v>9720</v>
+        <v>19440</v>
       </c>
       <c r="G35" s="97">
         <f>D35*1.8</f>
@@ -21593,14 +21662,14 @@
         <v>205</v>
       </c>
       <c r="C36" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="8">
         <v>5520</v>
       </c>
       <c r="E36" s="52">
         <f t="shared" si="3"/>
-        <v>5520</v>
+        <v>11040</v>
       </c>
       <c r="G36" s="97">
         <f>D36*1.8</f>
@@ -21615,14 +21684,14 @@
         <v>563</v>
       </c>
       <c r="C37" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="8">
         <v>12960</v>
       </c>
       <c r="E37" s="52">
         <f t="shared" si="3"/>
-        <v>12960</v>
+        <v>25920</v>
       </c>
       <c r="G37" s="97">
         <f>D37*1.8</f>
@@ -21637,14 +21706,14 @@
         <v>206</v>
       </c>
       <c r="C38" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="8">
         <v>36000</v>
       </c>
       <c r="E38" s="52">
         <f t="shared" si="3"/>
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="G38" s="97">
         <f>D38*1.8</f>
@@ -21652,15 +21721,15 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="254" t="s">
+      <c r="A39" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="255"/>
-      <c r="C39" s="255"/>
-      <c r="D39" s="256"/>
+      <c r="B39" s="257"/>
+      <c r="C39" s="257"/>
+      <c r="D39" s="258"/>
       <c r="E39" s="175">
         <f>SUM(E32:E38)</f>
-        <v>330808</v>
+        <v>661616</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -21699,7 +21768,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A20" sqref="A20:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21879,12 +21948,12 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
       <c r="E10" s="177">
         <f>SUM(E2:E9)</f>
         <v>32840</v>
@@ -22137,12 +22206,12 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="182"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="184"/>
       <c r="E29" s="177">
         <f>SUM(E21:E28)</f>
         <v>28840</v>
@@ -22211,6 +22280,177 @@
   <mergeCells count="2">
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A29:D29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" style="264" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" style="264" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="264"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="266" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A2" s="259" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="259" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="259" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="259" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="259" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="216.6" customHeight="1">
+      <c r="A3" s="260">
+        <v>1</v>
+      </c>
+      <c r="B3" s="265" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" s="260">
+        <v>1</v>
+      </c>
+      <c r="D3" s="260">
+        <v>180000</v>
+      </c>
+      <c r="E3" s="260">
+        <f t="shared" ref="E3:E4" si="0">C3*D3</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="260">
+        <v>2</v>
+      </c>
+      <c r="B4" s="260" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="260">
+        <v>1</v>
+      </c>
+      <c r="D4" s="260">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="260">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="261" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="259">
+        <f>SUM(E3:E4)</f>
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="267"/>
+      <c r="B6" s="267"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="266" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="259" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="259" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="259" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="259" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="259" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="79.2">
+      <c r="A10" s="260">
+        <v>1</v>
+      </c>
+      <c r="B10" s="265" t="s">
+        <v>589</v>
+      </c>
+      <c r="C10" s="260">
+        <v>1</v>
+      </c>
+      <c r="D10" s="260">
+        <v>35000</v>
+      </c>
+      <c r="E10" s="260">
+        <f t="shared" ref="E10:E11" si="1">C10*D10</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="260">
+        <v>2</v>
+      </c>
+      <c r="B11" s="260" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="260">
+        <v>1</v>
+      </c>
+      <c r="D11" s="260">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="260">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="261" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="262"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="259">
+        <f>SUM(E10:E11)</f>
+        <v>40000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22286,12 +22526,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="196"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="197"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="199"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -22586,12 +22826,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="199"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -22837,12 +23077,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="195" t="s">
+      <c r="A31" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="196"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="197"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="199"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -23063,12 +23303,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="197"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="199"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -23143,13 +23383,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="200" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="200"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="202"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -23159,11 +23399,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="201"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="203"/>
+      <c r="A20" s="203"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23278,12 +23518,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="197"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="199"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -23498,12 +23738,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -23672,12 +23912,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="197"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="199"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -23761,12 +24001,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="204" t="s">
+      <c r="A19" s="206" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="204"/>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="32" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="33" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,8 @@
     <sheet name="El Shaddai 306" sheetId="35" r:id="rId35"/>
     <sheet name="Diana Aqua and Pools 307" sheetId="36" r:id="rId36"/>
     <sheet name="Golden Tulip 308" sheetId="37" r:id="rId37"/>
+    <sheet name="CII 309" sheetId="38" r:id="rId38"/>
+    <sheet name="Vatareshwar 310" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="603">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2065,6 +2067,45 @@
 -TCP/IP Port for Internet conenction
 -Access Port available to control one lock and exit button
 -Optional 5V 1900mAH UPS, standby upto 3 hours</t>
+  </si>
+  <si>
+    <t>QUEST</t>
+  </si>
+  <si>
+    <t>RPOTON</t>
+  </si>
+  <si>
+    <t>Computer USB I/O * Direct USB Playback * 4 Ch. *2XLR Mic &amp; 1 St * Echo *2 band EQ *Phantom* With Bluetooth</t>
+  </si>
+  <si>
+    <t>Bluetooth / USB Convertor Box</t>
+  </si>
+  <si>
+    <t>POWER X</t>
+  </si>
+  <si>
+    <t>6''-2 WAY 40W</t>
+  </si>
+  <si>
+    <t>8'' AND 1'', ACTIVE SPEAKER SYSTEM, PE CABINTE, 200W with buildin amplifier</t>
+  </si>
+  <si>
+    <t>1) Make - JBL 300W Mixer Amplifier @ 54000/- + GST</t>
+  </si>
+  <si>
+    <t>2) Make - NX AUDIO Dual Handheld * Quartz Locked Frequency * 300 Ft Operating Range * SMT Circuit* Accessories included @ 15000/- + GST</t>
+  </si>
+  <si>
+    <t>W Box / Dlink or Similar 8CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>4 ch</t>
+  </si>
+  <si>
+    <t>W Box / Dlink or Similar 2MP Bullet / Dome Camera</t>
+  </si>
+  <si>
+    <t>1) Network Rack @ 2900/- + GST</t>
   </si>
 </sst>
 </file>
@@ -2696,7 +2737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3217,250 +3258,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3469,6 +3270,261 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4115,12 +4171,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="182" t="s">
+      <c r="A18" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="192"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -4246,12 +4302,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="182" t="s">
+      <c r="A27" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="184"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="192"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -4412,12 +4468,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -4501,12 +4557,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="206" t="s">
+      <c r="A19" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="206"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -4667,12 +4723,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4756,20 +4812,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="208" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="202"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="210"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="203"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="205"/>
+      <c r="A20" s="211"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4968,24 +5024,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="207"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="209" t="s">
+      <c r="A13" s="217" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="209"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -5185,12 +5241,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="197" t="s">
+      <c r="A30" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="198"/>
-      <c r="C30" s="198"/>
-      <c r="D30" s="199"/>
+      <c r="B30" s="206"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="207"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -5358,12 +5414,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="207" t="s">
+      <c r="A41" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="208"/>
-      <c r="C41" s="208"/>
-      <c r="D41" s="208"/>
+      <c r="B41" s="216"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="216"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -5598,24 +5654,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="207"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="210" t="s">
+      <c r="A13" s="218" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="210"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="218"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5779,12 +5835,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="197" t="s">
+      <c r="A28" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="198"/>
-      <c r="C28" s="198"/>
-      <c r="D28" s="199"/>
+      <c r="B28" s="206"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="207"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -5878,7 +5934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -5986,48 +6042,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="199"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="207"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="199"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="207"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="199"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -6118,48 +6174,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="199"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="207"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="197" t="s">
+      <c r="A18" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="198"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="199"/>
+      <c r="B18" s="206"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="207"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="199"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="207"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="197" t="s">
+      <c r="A20" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="198"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="199"/>
+      <c r="B20" s="206"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="207"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -6242,48 +6298,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="197" t="s">
+      <c r="A27" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="198"/>
-      <c r="C27" s="198"/>
-      <c r="D27" s="199"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="207"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="197" t="s">
+      <c r="A28" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="198"/>
-      <c r="C28" s="198"/>
-      <c r="D28" s="199"/>
+      <c r="B28" s="206"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="207"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="197" t="s">
+      <c r="A29" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="198"/>
-      <c r="C29" s="198"/>
-      <c r="D29" s="199"/>
+      <c r="B29" s="206"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="207"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="197" t="s">
+      <c r="A30" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="198"/>
-      <c r="C30" s="198"/>
-      <c r="D30" s="199"/>
+      <c r="B30" s="206"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="207"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -6313,7 +6369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S258"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A289" workbookViewId="0">
       <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
@@ -6471,12 +6527,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -6600,12 +6656,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="182" t="s">
+      <c r="A21" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6765,12 +6821,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="182" t="s">
+      <c r="A38" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="183"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="184"/>
+      <c r="B38" s="191"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="192"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -6990,12 +7046,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="214" t="s">
+      <c r="A59" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="215"/>
-      <c r="C59" s="215"/>
-      <c r="D59" s="216"/>
+      <c r="B59" s="242"/>
+      <c r="C59" s="242"/>
+      <c r="D59" s="243"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -7007,10 +7063,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="217" t="s">
+      <c r="A63" s="244" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="217"/>
+      <c r="B63" s="244"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -7223,12 +7279,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="182" t="s">
+      <c r="A79" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="183"/>
-      <c r="C79" s="183"/>
-      <c r="D79" s="184"/>
+      <c r="B79" s="191"/>
+      <c r="C79" s="191"/>
+      <c r="D79" s="192"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -7452,12 +7508,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="182" t="s">
+      <c r="A99" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="183"/>
-      <c r="C99" s="183"/>
-      <c r="D99" s="183"/>
+      <c r="B99" s="191"/>
+      <c r="C99" s="191"/>
+      <c r="D99" s="191"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -7603,31 +7659,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="211" t="s">
+      <c r="B116" s="240" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="211"/>
+      <c r="C116" s="240"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="212">
+      <c r="E116" s="227">
         <v>9000</v>
       </c>
-      <c r="F116" s="213"/>
+      <c r="F116" s="228"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="182" t="s">
+      <c r="A117" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="183"/>
-      <c r="C117" s="183"/>
-      <c r="D117" s="183"/>
-      <c r="E117" s="183"/>
-      <c r="F117" s="184"/>
+      <c r="B117" s="191"/>
+      <c r="C117" s="191"/>
+      <c r="D117" s="191"/>
+      <c r="E117" s="191"/>
+      <c r="F117" s="192"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7743,31 +7799,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="211" t="s">
+      <c r="B124" s="240" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="211"/>
+      <c r="C124" s="240"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="196">
+      <c r="E124" s="199">
         <v>9000</v>
       </c>
-      <c r="F124" s="196"/>
+      <c r="F124" s="199"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="218" t="s">
+      <c r="A125" s="237" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="219"/>
-      <c r="C125" s="219"/>
-      <c r="D125" s="219"/>
-      <c r="E125" s="219"/>
-      <c r="F125" s="220"/>
+      <c r="B125" s="238"/>
+      <c r="C125" s="238"/>
+      <c r="D125" s="238"/>
+      <c r="E125" s="238"/>
+      <c r="F125" s="239"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7878,31 +7934,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="222" t="s">
+      <c r="B134" s="225" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="223"/>
+      <c r="C134" s="226"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="212">
+      <c r="E134" s="227">
         <v>12000</v>
       </c>
-      <c r="F134" s="213"/>
+      <c r="F134" s="228"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="218" t="s">
+      <c r="A135" s="237" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="219"/>
-      <c r="C135" s="219"/>
-      <c r="D135" s="219"/>
-      <c r="E135" s="219"/>
-      <c r="F135" s="220"/>
+      <c r="B135" s="238"/>
+      <c r="C135" s="238"/>
+      <c r="D135" s="238"/>
+      <c r="E135" s="238"/>
+      <c r="F135" s="239"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -8008,31 +8064,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="222" t="s">
+      <c r="B142" s="225" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="223"/>
+      <c r="C142" s="226"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="212">
+      <c r="E142" s="227">
         <v>12000</v>
       </c>
-      <c r="F142" s="213"/>
+      <c r="F142" s="228"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="218" t="s">
+      <c r="A143" s="237" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="219"/>
-      <c r="C143" s="219"/>
-      <c r="D143" s="219"/>
-      <c r="E143" s="219"/>
-      <c r="F143" s="220"/>
+      <c r="B143" s="238"/>
+      <c r="C143" s="238"/>
+      <c r="D143" s="238"/>
+      <c r="E143" s="238"/>
+      <c r="F143" s="239"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -8148,41 +8204,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="230" t="s">
+      <c r="B150" s="229" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="231"/>
+      <c r="C150" s="230"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="232">
+      <c r="E150" s="231">
         <v>12000</v>
       </c>
-      <c r="F150" s="233"/>
+      <c r="F150" s="232"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="221" t="s">
+      <c r="A151" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="221"/>
-      <c r="C151" s="221"/>
-      <c r="D151" s="221"/>
-      <c r="E151" s="221"/>
-      <c r="F151" s="221"/>
+      <c r="B151" s="234"/>
+      <c r="C151" s="234"/>
+      <c r="D151" s="234"/>
+      <c r="E151" s="234"/>
+      <c r="F151" s="234"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="234" t="s">
+      <c r="A154" s="233" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="234"/>
+      <c r="B154" s="233"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -8301,12 +8357,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="221" t="s">
+      <c r="A163" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="221"/>
-      <c r="C163" s="221"/>
-      <c r="D163" s="221"/>
+      <c r="B163" s="234"/>
+      <c r="C163" s="234"/>
+      <c r="D163" s="234"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -10492,12 +10548,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="182" t="s">
+      <c r="A241" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="183"/>
-      <c r="C241" s="183"/>
-      <c r="D241" s="184"/>
+      <c r="B241" s="191"/>
+      <c r="C241" s="191"/>
+      <c r="D241" s="192"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -10646,12 +10702,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="182" t="s">
+      <c r="A254" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="183"/>
-      <c r="C254" s="183"/>
-      <c r="D254" s="184"/>
+      <c r="B254" s="191"/>
+      <c r="C254" s="191"/>
+      <c r="D254" s="192"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -10660,25 +10716,42 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="224" t="s">
+      <c r="A257" s="219" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="225"/>
-      <c r="C257" s="225"/>
-      <c r="D257" s="225"/>
-      <c r="E257" s="225"/>
-      <c r="F257" s="226"/>
+      <c r="B257" s="220"/>
+      <c r="C257" s="220"/>
+      <c r="D257" s="220"/>
+      <c r="E257" s="220"/>
+      <c r="F257" s="221"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="227"/>
-      <c r="B258" s="228"/>
-      <c r="C258" s="228"/>
-      <c r="D258" s="228"/>
-      <c r="E258" s="228"/>
-      <c r="F258" s="229"/>
+      <c r="A258" s="222"/>
+      <c r="B258" s="223"/>
+      <c r="C258" s="223"/>
+      <c r="D258" s="223"/>
+      <c r="E258" s="223"/>
+      <c r="F258" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B124:C124"/>
     <mergeCell ref="A257:F258"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="B142:C142"/>
@@ -10690,23 +10763,6 @@
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A254:D254"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A79:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10718,7 +10774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -10916,12 +10972,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="184"/>
+      <c r="B12" s="191"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="192"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -10935,13 +10991,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="221" t="s">
+      <c r="A14" s="234" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="221"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="221"/>
+      <c r="B14" s="234"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -11234,25 +11290,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="182" t="s">
+      <c r="A39" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="183"/>
-      <c r="C39" s="183"/>
-      <c r="D39" s="184"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="192"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="221" t="s">
+      <c r="A41" s="234" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="221"/>
-      <c r="C41" s="221"/>
-      <c r="D41" s="221"/>
-      <c r="E41" s="221"/>
+      <c r="B41" s="234"/>
+      <c r="C41" s="234"/>
+      <c r="D41" s="234"/>
+      <c r="E41" s="234"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -11461,12 +11517,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="237" t="s">
+      <c r="A70" s="245" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="238"/>
-      <c r="C70" s="238"/>
-      <c r="D70" s="239"/>
+      <c r="B70" s="246"/>
+      <c r="C70" s="246"/>
+      <c r="D70" s="247"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -11488,8 +11544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -11656,12 +11712,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="192"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -11916,12 +11972,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="182" t="s">
+      <c r="A33" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="184"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="192"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -12143,12 +12199,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="192"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -12166,7 +12222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -12187,13 +12243,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -12280,105 +12336,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="196" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="195">
+      <c r="C7" s="198">
         <v>2</v>
       </c>
-      <c r="D7" s="193" t="s">
+      <c r="D7" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="196">
+      <c r="E7" s="199">
         <v>567000</v>
       </c>
-      <c r="F7" s="196">
+      <c r="F7" s="199">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="193"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="195"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="193"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="193"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="193"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="193"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="195"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="193"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="195"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="193"/>
+      <c r="A14" s="196"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="195"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="196"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="193"/>
+      <c r="A15" s="196"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="195"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -12421,13 +12477,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="190" t="s">
+      <c r="B19" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="192"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="195"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -12513,7 +12569,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="193" t="s">
+      <c r="A24" s="196" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -12525,7 +12581,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="193"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -12544,7 +12600,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="193"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -12563,7 +12619,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="193"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -12601,13 +12657,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="192"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="195"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -12630,7 +12686,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="193" t="s">
+      <c r="A32" s="196" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -12642,7 +12698,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="193"/>
+      <c r="A33" s="196"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12656,7 +12712,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="193"/>
+      <c r="A34" s="196"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12670,7 +12726,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="193"/>
+      <c r="A35" s="196"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12684,7 +12740,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="193"/>
+      <c r="A36" s="196"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12698,7 +12754,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="193" t="s">
+      <c r="A37" s="196" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12710,7 +12766,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="193"/>
+      <c r="A38" s="196"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12729,7 +12785,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="193"/>
+      <c r="A39" s="196"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12748,7 +12804,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="193"/>
+      <c r="A40" s="196"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12767,7 +12823,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="193"/>
+      <c r="A41" s="196"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12786,7 +12842,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="193"/>
+      <c r="A42" s="196"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12827,13 +12883,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="190" t="s">
+      <c r="B45" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="191"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="192"/>
+      <c r="C45" s="194"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="194"/>
+      <c r="F45" s="195"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -13078,13 +13134,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="187" t="s">
+      <c r="A57" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="188"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="189"/>
+      <c r="B57" s="203"/>
+      <c r="C57" s="203"/>
+      <c r="D57" s="203"/>
+      <c r="E57" s="204"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -13102,15 +13158,15 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="185" t="s">
+      <c r="B59" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="185"/>
-      <c r="D59" s="185"/>
-      <c r="E59" s="185"/>
-      <c r="F59" s="185"/>
-    </row>
-    <row r="60" spans="1:9" ht="39.6">
+      <c r="C59" s="200"/>
+      <c r="D59" s="200"/>
+      <c r="E59" s="200"/>
+      <c r="F59" s="200"/>
+    </row>
+    <row r="60" spans="1:9" ht="52.8">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
@@ -13126,13 +13182,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="186" t="s">
+      <c r="B61" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="186"/>
-      <c r="D61" s="186"/>
-      <c r="E61" s="186"/>
-      <c r="F61" s="186"/>
+      <c r="C61" s="201"/>
+      <c r="D61" s="201"/>
+      <c r="E61" s="201"/>
+      <c r="F61" s="201"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -13152,30 +13208,35 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="186" t="s">
+      <c r="B63" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="186"/>
-      <c r="D63" s="186"/>
-      <c r="E63" s="186"/>
-      <c r="F63" s="186"/>
+      <c r="C63" s="201"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="201"/>
+      <c r="F63" s="201"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="186" t="s">
+      <c r="B64" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="186"/>
-      <c r="D64" s="186"/>
-      <c r="E64" s="186"/>
-      <c r="F64" s="186"/>
+      <c r="C64" s="201"/>
+      <c r="D64" s="201"/>
+      <c r="E64" s="201"/>
+      <c r="F64" s="201"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A57:E57"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B19:F19"/>
@@ -13188,11 +13249,6 @@
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="F7:F15"/>
     <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13204,7 +13260,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13395,12 +13451,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -13493,7 +13549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -13777,12 +13833,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="182" t="s">
+      <c r="A15" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="192"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -14068,12 +14124,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="184"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="192"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -14375,12 +14431,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="182" t="s">
+      <c r="A63" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="183"/>
-      <c r="C63" s="183"/>
-      <c r="D63" s="184"/>
+      <c r="B63" s="191"/>
+      <c r="C63" s="191"/>
+      <c r="D63" s="192"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -14493,183 +14549,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="240">
+      <c r="A2" s="248">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="240">
-        <v>1</v>
-      </c>
-      <c r="D2" s="240">
+      <c r="C2" s="248">
+        <v>1</v>
+      </c>
+      <c r="D2" s="248">
         <v>42000</v>
       </c>
-      <c r="E2" s="240">
+      <c r="E2" s="248">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="241"/>
+      <c r="A3" s="249"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="241"/>
+      <c r="A4" s="249"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="241"/>
+      <c r="A5" s="249"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="241"/>
+      <c r="A6" s="249"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="241"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="241"/>
+      <c r="A8" s="249"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="241"/>
+      <c r="A9" s="249"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
+      <c r="C9" s="249"/>
+      <c r="D9" s="249"/>
+      <c r="E9" s="249"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="241"/>
+      <c r="A10" s="249"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="249"/>
+      <c r="E10" s="249"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="241"/>
+      <c r="A11" s="249"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="241"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
+      <c r="C11" s="249"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="249"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="241"/>
+      <c r="A12" s="249"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="241"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="241"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="241"/>
+      <c r="A13" s="249"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="241"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="241"/>
+      <c r="A14" s="249"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="249"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="241"/>
+      <c r="A15" s="249"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="249"/>
+      <c r="E15" s="249"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="241"/>
+      <c r="A16" s="249"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
+      <c r="E16" s="249"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="241"/>
+      <c r="A17" s="249"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="241"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="249"/>
+      <c r="E17" s="249"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="241"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="249"/>
+      <c r="E18" s="249"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="242"/>
+      <c r="A19" s="250"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="250"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="221" t="s">
+      <c r="A20" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="221"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
+      <c r="B20" s="234"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -14685,12 +14741,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="216">
+    <row r="57" spans="1:1" ht="230.4">
       <c r="A57" s="126" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="57.6">
+    <row r="58" spans="1:1" ht="72">
       <c r="A58" s="126" t="s">
         <v>405</v>
       </c>
@@ -14725,7 +14781,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="144">
+    <row r="65" spans="1:1" ht="158.4">
       <c r="A65" s="126" t="s">
         <v>412</v>
       </c>
@@ -14740,7 +14796,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="100.8">
+    <row r="68" spans="1:1" ht="115.2">
       <c r="A68" s="126" t="s">
         <v>415</v>
       </c>
@@ -14782,7 +14838,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14985,12 +15041,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="192"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -15243,12 +15299,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -15471,10 +15527,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="244" t="s">
+      <c r="B6" s="252" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="244"/>
+      <c r="C6" s="252"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -15488,13 +15544,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="251" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -15650,10 +15706,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="244" t="s">
+      <c r="B26" s="252" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="244"/>
+      <c r="C26" s="252"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -15667,13 +15723,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="243" t="s">
+      <c r="A27" s="251" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="243"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
-      <c r="E27" s="243"/>
+      <c r="B27" s="251"/>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -15885,12 +15941,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="192"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -16180,12 +16236,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="184"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="192"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -16452,12 +16508,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="192"/>
       <c r="E11" s="145">
         <f>SUM(E3:E10)</f>
         <v>99820</v>
@@ -16774,12 +16830,12 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="182" t="s">
+      <c r="A36" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="183"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="184"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="192"/>
       <c r="E36" s="145">
         <f>SUM(E27:E35)</f>
         <v>56780</v>
@@ -17035,12 +17091,12 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="182" t="s">
+      <c r="A55" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="183"/>
-      <c r="C55" s="183"/>
-      <c r="D55" s="184"/>
+      <c r="B55" s="191"/>
+      <c r="C55" s="191"/>
+      <c r="D55" s="192"/>
       <c r="E55" s="145">
         <f>SUM(E46:E54)</f>
         <v>86940</v>
@@ -17234,12 +17290,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="182" t="s">
+      <c r="A68" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="183"/>
-      <c r="C68" s="183"/>
-      <c r="D68" s="184"/>
+      <c r="B68" s="191"/>
+      <c r="C68" s="191"/>
+      <c r="D68" s="192"/>
       <c r="E68" s="145">
         <f>SUM(E59:E67)</f>
         <v>49380</v>
@@ -17260,7 +17316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -17431,12 +17487,12 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
       <c r="E10" s="147">
         <f>SUM(E3:E9)</f>
         <v>69770</v>
@@ -17721,12 +17777,12 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="182" t="s">
+      <c r="A36" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="183"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="184"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="192"/>
       <c r="E36" s="147">
         <f>SUM(E29:E35)</f>
         <v>66840</v>
@@ -17814,7 +17870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -17853,165 +17909,165 @@
       <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="245">
+      <c r="A3" s="253">
         <v>1</v>
       </c>
       <c r="B3" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="245">
-        <v>1</v>
-      </c>
-      <c r="D3" s="245">
+      <c r="C3" s="253">
+        <v>1</v>
+      </c>
+      <c r="D3" s="253">
         <v>75900</v>
       </c>
-      <c r="E3" s="245">
+      <c r="E3" s="253">
         <f>C3*D3</f>
         <v>75900</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="246"/>
+      <c r="A4" s="254"/>
       <c r="B4" s="152" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="246"/>
+      <c r="A5" s="254"/>
       <c r="B5" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="246"/>
+      <c r="A6" s="254"/>
       <c r="B6" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
-      <c r="E6" s="246"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="246"/>
+      <c r="A7" s="254"/>
       <c r="B7" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="246"/>
+      <c r="A8" s="254"/>
       <c r="B8" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
+      <c r="C8" s="254"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="246"/>
+      <c r="A9" s="254"/>
       <c r="B9" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="246"/>
+      <c r="A10" s="254"/>
       <c r="B10" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="254"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="246"/>
+      <c r="A11" s="254"/>
       <c r="B11" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="254"/>
+      <c r="E11" s="254"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="246"/>
+      <c r="A12" s="254"/>
       <c r="B12" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="254"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="246"/>
+      <c r="A13" s="254"/>
       <c r="B13" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="246"/>
+      <c r="A14" s="254"/>
       <c r="B14" s="152" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="246"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="254"/>
+      <c r="E14" s="254"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="246"/>
+      <c r="A15" s="254"/>
       <c r="B15" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="246"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="246"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="254"/>
+      <c r="E15" s="254"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="246"/>
+      <c r="A16" s="254"/>
       <c r="B16" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="246"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="246"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="254"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="246"/>
+      <c r="A17" s="254"/>
       <c r="B17" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="246"/>
-      <c r="D17" s="246"/>
-      <c r="E17" s="246"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="254"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="247"/>
+      <c r="A18" s="255"/>
       <c r="B18" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C18" s="247"/>
-      <c r="D18" s="247"/>
-      <c r="E18" s="247"/>
+      <c r="C18" s="255"/>
+      <c r="D18" s="255"/>
+      <c r="E18" s="255"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="250" t="s">
+      <c r="A19" s="258" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="251"/>
-      <c r="C19" s="251"/>
-      <c r="D19" s="252"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="259"/>
+      <c r="D19" s="260"/>
       <c r="E19" s="153">
         <f>SUM(E3)</f>
         <v>75900</v>
@@ -18038,7 +18094,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.8">
-      <c r="A27" s="248">
+      <c r="A27" s="256">
         <v>1</v>
       </c>
       <c r="B27" s="152" t="s">
@@ -18050,16 +18106,16 @@
       <c r="D27" s="149">
         <v>1</v>
       </c>
-      <c r="E27" s="248">
+      <c r="E27" s="256">
         <v>69000</v>
       </c>
-      <c r="F27" s="248">
+      <c r="F27" s="256">
         <f>D27*E27</f>
         <v>69000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="262.2">
-      <c r="A28" s="248"/>
+    <row r="28" spans="1:6" ht="276">
+      <c r="A28" s="256"/>
       <c r="B28" s="152" t="s">
         <v>475</v>
       </c>
@@ -18069,11 +18125,11 @@
       <c r="D28" s="149">
         <v>1</v>
       </c>
-      <c r="E28" s="248"/>
-      <c r="F28" s="248"/>
-    </row>
-    <row r="29" spans="1:6" ht="124.2">
-      <c r="A29" s="248"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="256"/>
+    </row>
+    <row r="29" spans="1:6" ht="138">
+      <c r="A29" s="256"/>
       <c r="B29" s="152" t="s">
         <v>477</v>
       </c>
@@ -18083,11 +18139,11 @@
       <c r="D29" s="149">
         <v>1</v>
       </c>
-      <c r="E29" s="248"/>
-      <c r="F29" s="248"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="256"/>
     </row>
     <row r="30" spans="1:6" ht="248.4">
-      <c r="A30" s="248"/>
+      <c r="A30" s="256"/>
       <c r="B30" s="152" t="s">
         <v>479</v>
       </c>
@@ -18097,11 +18153,11 @@
       <c r="D30" s="149">
         <v>1</v>
       </c>
-      <c r="E30" s="248"/>
-      <c r="F30" s="248"/>
-    </row>
-    <row r="31" spans="1:6" ht="69">
-      <c r="A31" s="248"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+    </row>
+    <row r="31" spans="1:6" ht="82.8">
+      <c r="A31" s="256"/>
       <c r="B31" s="152" t="s">
         <v>481</v>
       </c>
@@ -18111,11 +18167,11 @@
       <c r="D31" s="149">
         <v>1</v>
       </c>
-      <c r="E31" s="248"/>
-      <c r="F31" s="248"/>
-    </row>
-    <row r="32" spans="1:6" ht="179.4">
-      <c r="A32" s="248"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+    </row>
+    <row r="32" spans="1:6" ht="248.4">
+      <c r="A32" s="256"/>
       <c r="B32" s="152" t="s">
         <v>483</v>
       </c>
@@ -18125,11 +18181,11 @@
       <c r="D32" s="149">
         <v>1</v>
       </c>
-      <c r="E32" s="248"/>
-      <c r="F32" s="248"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="256"/>
     </row>
     <row r="33" spans="1:6" ht="82.8">
-      <c r="A33" s="248"/>
+      <c r="A33" s="256"/>
       <c r="B33" s="152" t="s">
         <v>483</v>
       </c>
@@ -18139,11 +18195,11 @@
       <c r="D33" s="149">
         <v>1</v>
       </c>
-      <c r="E33" s="248"/>
-      <c r="F33" s="248"/>
-    </row>
-    <row r="34" spans="1:6" ht="96.6">
-      <c r="A34" s="248"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="256"/>
+    </row>
+    <row r="34" spans="1:6" ht="110.4">
+      <c r="A34" s="256"/>
       <c r="B34" s="152" t="s">
         <v>483</v>
       </c>
@@ -18153,11 +18209,11 @@
       <c r="D34" s="149">
         <v>1</v>
       </c>
-      <c r="E34" s="248"/>
-      <c r="F34" s="248"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="256"/>
     </row>
     <row r="35" spans="1:6" ht="234.6">
-      <c r="A35" s="248"/>
+      <c r="A35" s="256"/>
       <c r="B35" s="152" t="s">
         <v>487</v>
       </c>
@@ -18167,11 +18223,11 @@
       <c r="D35" s="149">
         <v>1</v>
       </c>
-      <c r="E35" s="248"/>
-      <c r="F35" s="248"/>
-    </row>
-    <row r="36" spans="1:6" ht="165.6">
-      <c r="A36" s="248"/>
+      <c r="E35" s="256"/>
+      <c r="F35" s="256"/>
+    </row>
+    <row r="36" spans="1:6" ht="179.4">
+      <c r="A36" s="256"/>
       <c r="B36" s="152" t="s">
         <v>489</v>
       </c>
@@ -18181,11 +18237,11 @@
       <c r="D36" s="149">
         <v>1</v>
       </c>
-      <c r="E36" s="248"/>
-      <c r="F36" s="248"/>
+      <c r="E36" s="256"/>
+      <c r="F36" s="256"/>
     </row>
     <row r="37" spans="1:6" ht="27.6">
-      <c r="A37" s="248"/>
+      <c r="A37" s="256"/>
       <c r="B37" s="152" t="s">
         <v>493</v>
       </c>
@@ -18195,11 +18251,11 @@
       <c r="D37" s="149">
         <v>1</v>
       </c>
-      <c r="E37" s="248"/>
-      <c r="F37" s="248"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
     </row>
     <row r="38" spans="1:6" ht="82.8">
-      <c r="A38" s="248"/>
+      <c r="A38" s="256"/>
       <c r="B38" s="152" t="s">
         <v>494</v>
       </c>
@@ -18209,11 +18265,11 @@
       <c r="D38" s="149">
         <v>1</v>
       </c>
-      <c r="E38" s="248"/>
-      <c r="F38" s="248"/>
+      <c r="E38" s="256"/>
+      <c r="F38" s="256"/>
     </row>
     <row r="39" spans="1:6" ht="55.2">
-      <c r="A39" s="248"/>
+      <c r="A39" s="256"/>
       <c r="B39" s="152" t="s">
         <v>495</v>
       </c>
@@ -18223,11 +18279,11 @@
       <c r="D39" s="149">
         <v>1</v>
       </c>
-      <c r="E39" s="248"/>
-      <c r="F39" s="248"/>
-    </row>
-    <row r="40" spans="1:6" ht="138">
-      <c r="A40" s="248"/>
+      <c r="E39" s="256"/>
+      <c r="F39" s="256"/>
+    </row>
+    <row r="40" spans="1:6" ht="151.80000000000001">
+      <c r="A40" s="256"/>
       <c r="B40" s="152" t="s">
         <v>497</v>
       </c>
@@ -18237,11 +18293,11 @@
       <c r="D40" s="149">
         <v>1</v>
       </c>
-      <c r="E40" s="248"/>
-      <c r="F40" s="248"/>
-    </row>
-    <row r="41" spans="1:6" ht="96.6">
-      <c r="A41" s="248"/>
+      <c r="E40" s="256"/>
+      <c r="F40" s="256"/>
+    </row>
+    <row r="41" spans="1:6" ht="110.4">
+      <c r="A41" s="256"/>
       <c r="B41" s="152" t="s">
         <v>499</v>
       </c>
@@ -18251,11 +18307,11 @@
       <c r="D41" s="149">
         <v>1</v>
       </c>
-      <c r="E41" s="248"/>
-      <c r="F41" s="248"/>
-    </row>
-    <row r="42" spans="1:6" ht="317.39999999999998">
-      <c r="A42" s="248"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="256"/>
+    </row>
+    <row r="42" spans="1:6" ht="345">
+      <c r="A42" s="256"/>
       <c r="B42" s="152" t="s">
         <v>501</v>
       </c>
@@ -18265,11 +18321,11 @@
       <c r="D42" s="149">
         <v>1</v>
       </c>
-      <c r="E42" s="248"/>
-      <c r="F42" s="248"/>
-    </row>
-    <row r="43" spans="1:6" ht="69">
-      <c r="A43" s="248"/>
+      <c r="E42" s="256"/>
+      <c r="F42" s="256"/>
+    </row>
+    <row r="43" spans="1:6" ht="82.8">
+      <c r="A43" s="256"/>
       <c r="B43" s="152" t="s">
         <v>501</v>
       </c>
@@ -18279,11 +18335,11 @@
       <c r="D43" s="149">
         <v>1</v>
       </c>
-      <c r="E43" s="248"/>
-      <c r="F43" s="248"/>
+      <c r="E43" s="256"/>
+      <c r="F43" s="256"/>
     </row>
     <row r="44" spans="1:6" ht="193.2">
-      <c r="A44" s="248"/>
+      <c r="A44" s="256"/>
       <c r="B44" s="152" t="s">
         <v>501</v>
       </c>
@@ -18293,11 +18349,11 @@
       <c r="D44" s="149">
         <v>1</v>
       </c>
-      <c r="E44" s="248"/>
-      <c r="F44" s="248"/>
+      <c r="E44" s="256"/>
+      <c r="F44" s="256"/>
     </row>
     <row r="45" spans="1:6" ht="234.6">
-      <c r="A45" s="248"/>
+      <c r="A45" s="256"/>
       <c r="B45" s="152" t="s">
         <v>505</v>
       </c>
@@ -18307,11 +18363,11 @@
       <c r="D45" s="149">
         <v>1</v>
       </c>
-      <c r="E45" s="248"/>
-      <c r="F45" s="248"/>
-    </row>
-    <row r="46" spans="1:6" ht="69">
-      <c r="A46" s="248"/>
+      <c r="E45" s="256"/>
+      <c r="F45" s="256"/>
+    </row>
+    <row r="46" spans="1:6" ht="82.8">
+      <c r="A46" s="256"/>
       <c r="B46" s="152" t="s">
         <v>507</v>
       </c>
@@ -18321,11 +18377,11 @@
       <c r="D46" s="149">
         <v>1</v>
       </c>
-      <c r="E46" s="248"/>
-      <c r="F46" s="248"/>
+      <c r="E46" s="256"/>
+      <c r="F46" s="256"/>
     </row>
     <row r="47" spans="1:6" ht="110.4">
-      <c r="A47" s="248"/>
+      <c r="A47" s="256"/>
       <c r="B47" s="152" t="s">
         <v>509</v>
       </c>
@@ -18335,11 +18391,11 @@
       <c r="D47" s="149">
         <v>1</v>
       </c>
-      <c r="E47" s="248"/>
-      <c r="F47" s="248"/>
+      <c r="E47" s="256"/>
+      <c r="F47" s="256"/>
     </row>
     <row r="48" spans="1:6" ht="96.6">
-      <c r="A48" s="248"/>
+      <c r="A48" s="256"/>
       <c r="B48" s="152" t="s">
         <v>509</v>
       </c>
@@ -18349,11 +18405,11 @@
       <c r="D48" s="149">
         <v>1</v>
       </c>
-      <c r="E48" s="248"/>
-      <c r="F48" s="248"/>
+      <c r="E48" s="256"/>
+      <c r="F48" s="256"/>
     </row>
     <row r="49" spans="1:6" ht="110.4">
-      <c r="A49" s="248"/>
+      <c r="A49" s="256"/>
       <c r="B49" s="152" t="s">
         <v>512</v>
       </c>
@@ -18363,11 +18419,11 @@
       <c r="D49" s="149">
         <v>1</v>
       </c>
-      <c r="E49" s="248"/>
-      <c r="F49" s="248"/>
-    </row>
-    <row r="50" spans="1:6" ht="165.6">
-      <c r="A50" s="248"/>
+      <c r="E49" s="256"/>
+      <c r="F49" s="256"/>
+    </row>
+    <row r="50" spans="1:6" ht="179.4">
+      <c r="A50" s="256"/>
       <c r="B50" s="152" t="s">
         <v>514</v>
       </c>
@@ -18377,11 +18433,11 @@
       <c r="D50" s="149">
         <v>1</v>
       </c>
-      <c r="E50" s="248"/>
-      <c r="F50" s="248"/>
-    </row>
-    <row r="51" spans="1:6" ht="165.6">
-      <c r="A51" s="248"/>
+      <c r="E50" s="256"/>
+      <c r="F50" s="256"/>
+    </row>
+    <row r="51" spans="1:6" ht="179.4">
+      <c r="A51" s="256"/>
       <c r="B51" s="152" t="s">
         <v>516</v>
       </c>
@@ -18391,11 +18447,11 @@
       <c r="D51" s="149">
         <v>1</v>
       </c>
-      <c r="E51" s="248"/>
-      <c r="F51" s="248"/>
-    </row>
-    <row r="52" spans="1:6" ht="151.80000000000001">
-      <c r="A52" s="248"/>
+      <c r="E51" s="256"/>
+      <c r="F51" s="256"/>
+    </row>
+    <row r="52" spans="1:6" ht="165.6">
+      <c r="A52" s="256"/>
       <c r="B52" s="152" t="s">
         <v>518</v>
       </c>
@@ -18405,11 +18461,11 @@
       <c r="D52" s="149">
         <v>1</v>
       </c>
-      <c r="E52" s="248"/>
-      <c r="F52" s="248"/>
+      <c r="E52" s="256"/>
+      <c r="F52" s="256"/>
     </row>
     <row r="53" spans="1:6" ht="55.2">
-      <c r="A53" s="248"/>
+      <c r="A53" s="256"/>
       <c r="B53" s="152" t="s">
         <v>520</v>
       </c>
@@ -18419,11 +18475,11 @@
       <c r="D53" s="149">
         <v>1</v>
       </c>
-      <c r="E53" s="248"/>
-      <c r="F53" s="248"/>
+      <c r="E53" s="256"/>
+      <c r="F53" s="256"/>
     </row>
     <row r="54" spans="1:6" ht="82.8">
-      <c r="A54" s="248"/>
+      <c r="A54" s="256"/>
       <c r="B54" s="152" t="s">
         <v>523</v>
       </c>
@@ -18433,11 +18489,11 @@
       <c r="D54" s="149">
         <v>1</v>
       </c>
-      <c r="E54" s="248"/>
-      <c r="F54" s="248"/>
-    </row>
-    <row r="55" spans="1:6" ht="96.6">
-      <c r="A55" s="248"/>
+      <c r="E54" s="256"/>
+      <c r="F54" s="256"/>
+    </row>
+    <row r="55" spans="1:6" ht="110.4">
+      <c r="A55" s="256"/>
       <c r="B55" s="152" t="s">
         <v>524</v>
       </c>
@@ -18447,11 +18503,11 @@
       <c r="D55" s="149">
         <v>1</v>
       </c>
-      <c r="E55" s="248"/>
-      <c r="F55" s="248"/>
+      <c r="E55" s="256"/>
+      <c r="F55" s="256"/>
     </row>
     <row r="56" spans="1:6" ht="82.8">
-      <c r="A56" s="248"/>
+      <c r="A56" s="256"/>
       <c r="B56" s="152" t="s">
         <v>526</v>
       </c>
@@ -18461,11 +18517,11 @@
       <c r="D56" s="149">
         <v>1</v>
       </c>
-      <c r="E56" s="248"/>
-      <c r="F56" s="248"/>
+      <c r="E56" s="256"/>
+      <c r="F56" s="256"/>
     </row>
     <row r="57" spans="1:6" ht="41.4">
-      <c r="A57" s="248"/>
+      <c r="A57" s="256"/>
       <c r="B57" s="150" t="s">
         <v>418</v>
       </c>
@@ -18473,11 +18529,11 @@
         <v>1</v>
       </c>
       <c r="D57" s="149"/>
-      <c r="E57" s="248"/>
-      <c r="F57" s="248"/>
+      <c r="E57" s="256"/>
+      <c r="F57" s="256"/>
     </row>
     <row r="58" spans="1:6" ht="82.8">
-      <c r="A58" s="248"/>
+      <c r="A58" s="256"/>
       <c r="B58" s="152" t="s">
         <v>528</v>
       </c>
@@ -18487,11 +18543,11 @@
       <c r="D58" s="149">
         <v>1</v>
       </c>
-      <c r="E58" s="248"/>
-      <c r="F58" s="248"/>
+      <c r="E58" s="256"/>
+      <c r="F58" s="256"/>
     </row>
     <row r="59" spans="1:6" ht="41.4">
-      <c r="A59" s="248"/>
+      <c r="A59" s="256"/>
       <c r="B59" s="152" t="s">
         <v>501</v>
       </c>
@@ -18501,11 +18557,11 @@
       <c r="D59" s="149">
         <v>1</v>
       </c>
-      <c r="E59" s="248"/>
-      <c r="F59" s="248"/>
+      <c r="E59" s="256"/>
+      <c r="F59" s="256"/>
     </row>
     <row r="60" spans="1:6" ht="138">
-      <c r="A60" s="248"/>
+      <c r="A60" s="256"/>
       <c r="B60" s="152" t="s">
         <v>501</v>
       </c>
@@ -18515,11 +18571,11 @@
       <c r="D60" s="149">
         <v>1</v>
       </c>
-      <c r="E60" s="248"/>
-      <c r="F60" s="248"/>
-    </row>
-    <row r="61" spans="1:6" ht="69">
-      <c r="A61" s="248"/>
+      <c r="E60" s="256"/>
+      <c r="F60" s="256"/>
+    </row>
+    <row r="61" spans="1:6" ht="82.8">
+      <c r="A61" s="256"/>
       <c r="B61" s="152" t="s">
         <v>501</v>
       </c>
@@ -18529,11 +18585,11 @@
       <c r="D61" s="149">
         <v>1</v>
       </c>
-      <c r="E61" s="248"/>
-      <c r="F61" s="248"/>
+      <c r="E61" s="256"/>
+      <c r="F61" s="256"/>
     </row>
     <row r="62" spans="1:6" ht="110.4">
-      <c r="A62" s="248"/>
+      <c r="A62" s="256"/>
       <c r="B62" s="152" t="s">
         <v>501</v>
       </c>
@@ -18543,11 +18599,11 @@
       <c r="D62" s="149">
         <v>1</v>
       </c>
-      <c r="E62" s="248"/>
-      <c r="F62" s="248"/>
-    </row>
-    <row r="63" spans="1:6" ht="96.6">
-      <c r="A63" s="248"/>
+      <c r="E62" s="256"/>
+      <c r="F62" s="256"/>
+    </row>
+    <row r="63" spans="1:6" ht="110.4">
+      <c r="A63" s="256"/>
       <c r="B63" s="152" t="s">
         <v>534</v>
       </c>
@@ -18557,11 +18613,11 @@
       <c r="D63" s="149">
         <v>1</v>
       </c>
-      <c r="E63" s="248"/>
-      <c r="F63" s="248"/>
-    </row>
-    <row r="64" spans="1:6" ht="110.4">
-      <c r="A64" s="248"/>
+      <c r="E63" s="256"/>
+      <c r="F63" s="256"/>
+    </row>
+    <row r="64" spans="1:6" ht="124.2">
+      <c r="A64" s="256"/>
       <c r="B64" s="152" t="s">
         <v>536</v>
       </c>
@@ -18571,11 +18627,11 @@
       <c r="D64" s="149">
         <v>1</v>
       </c>
-      <c r="E64" s="248"/>
-      <c r="F64" s="248"/>
+      <c r="E64" s="256"/>
+      <c r="F64" s="256"/>
     </row>
     <row r="65" spans="1:6" ht="41.4">
-      <c r="A65" s="248"/>
+      <c r="A65" s="256"/>
       <c r="B65" s="150" t="s">
         <v>538</v>
       </c>
@@ -18583,11 +18639,11 @@
         <v>1</v>
       </c>
       <c r="D65" s="149"/>
-      <c r="E65" s="248"/>
-      <c r="F65" s="248"/>
+      <c r="E65" s="256"/>
+      <c r="F65" s="256"/>
     </row>
     <row r="66" spans="1:6" ht="124.2">
-      <c r="A66" s="248"/>
+      <c r="A66" s="256"/>
       <c r="B66" s="152" t="s">
         <v>540</v>
       </c>
@@ -18597,11 +18653,11 @@
       <c r="D66" s="149">
         <v>1</v>
       </c>
-      <c r="E66" s="248"/>
-      <c r="F66" s="248"/>
-    </row>
-    <row r="67" spans="1:6" ht="151.80000000000001">
-      <c r="A67" s="248"/>
+      <c r="E66" s="256"/>
+      <c r="F66" s="256"/>
+    </row>
+    <row r="67" spans="1:6" ht="165.6">
+      <c r="A67" s="256"/>
       <c r="B67" s="152" t="s">
         <v>541</v>
       </c>
@@ -18611,17 +18667,17 @@
       <c r="D67" s="149">
         <v>1</v>
       </c>
-      <c r="E67" s="248"/>
-      <c r="F67" s="248"/>
+      <c r="E67" s="256"/>
+      <c r="F67" s="256"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="249" t="s">
+      <c r="A68" s="257" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="249"/>
-      <c r="C68" s="249"/>
-      <c r="D68" s="249"/>
-      <c r="E68" s="249"/>
+      <c r="B68" s="257"/>
+      <c r="C68" s="257"/>
+      <c r="D68" s="257"/>
+      <c r="E68" s="257"/>
       <c r="F68" s="150">
         <f>SUM(F27:F27)</f>
         <v>69000</v>
@@ -18732,48 +18788,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="198"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="207"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="199"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="207"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="199"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="207"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -18836,11 +18892,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="257" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
       <c r="D3" s="153">
         <f>SUM(D2)</f>
         <v>45000</v>
@@ -19035,12 +19091,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
       <c r="E10" s="158">
         <f>SUM(E2:E9)</f>
         <v>82970</v>
@@ -19322,12 +19378,12 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="182" t="s">
+      <c r="A36" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="183"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="184"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="192"/>
       <c r="E36" s="158">
         <f>SUM(E28:E35)</f>
         <v>82850</v>
@@ -19440,7 +19496,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E42"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19626,12 +19682,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="192"/>
       <c r="E11" s="162">
         <f>SUM(E3:E10)</f>
         <v>152800</v>
@@ -19907,12 +19963,12 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="182" t="s">
+      <c r="A35" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="183"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="184"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="192"/>
       <c r="E35" s="162">
         <f>SUM(E27:E34)</f>
         <v>95050</v>
@@ -20153,12 +20209,12 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="182" t="s">
+      <c r="A59" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="183"/>
-      <c r="C59" s="183"/>
-      <c r="D59" s="184"/>
+      <c r="B59" s="191"/>
+      <c r="C59" s="191"/>
+      <c r="D59" s="192"/>
       <c r="E59" s="162">
         <f>SUM(E51:E58)</f>
         <v>139220</v>
@@ -20413,12 +20469,12 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="182" t="s">
+      <c r="A82" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="183"/>
-      <c r="C82" s="183"/>
-      <c r="D82" s="184"/>
+      <c r="B82" s="191"/>
+      <c r="C82" s="191"/>
+      <c r="D82" s="192"/>
       <c r="E82" s="162">
         <f>SUM(E74:E81)</f>
         <v>82350</v>
@@ -20543,48 +20599,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="261" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
+      <c r="B3" s="262"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
       <c r="E3" s="166">
         <f>SUM(E2)</f>
         <v>27900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="261" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
+      <c r="B4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
       <c r="E4" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="261" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
+      <c r="B5" s="262"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="261" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
       <c r="E6" s="166">
         <f>SUM(E3:E5)</f>
         <v>32922</v>
@@ -20789,12 +20845,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
       <c r="E10" s="168">
         <f>SUM(E2:E9)</f>
         <v>79850</v>
@@ -21025,12 +21081,12 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="183"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="184"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="192"/>
       <c r="E30" s="170">
         <f>SUM(E23:E29)</f>
         <v>49710</v>
@@ -21117,8 +21173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -21283,12 +21339,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
+      <c r="B9" s="191"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
       <c r="E9" s="172">
         <f>SUM(E3:E8)</f>
         <v>347036</v>
@@ -21494,12 +21550,12 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="255" t="s">
+      <c r="A23" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="255"/>
-      <c r="C23" s="255"/>
-      <c r="D23" s="255"/>
+      <c r="B23" s="263"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
       <c r="E23" s="175">
         <f>SUM(E16:E22)</f>
         <v>728300</v>
@@ -21721,12 +21777,12 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="264" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="257"/>
-      <c r="C39" s="257"/>
-      <c r="D39" s="258"/>
+      <c r="B39" s="265"/>
+      <c r="C39" s="265"/>
+      <c r="D39" s="266"/>
       <c r="E39" s="175">
         <f>SUM(E32:E38)</f>
         <v>661616</v>
@@ -21767,8 +21823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21948,12 +22004,12 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
       <c r="E10" s="177">
         <f>SUM(E2:E9)</f>
         <v>32840</v>
@@ -22206,12 +22262,12 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="182" t="s">
+      <c r="A29" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="184"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
       <c r="E29" s="177">
         <f>SUM(E21:E28)</f>
         <v>28840</v>
@@ -22289,160 +22345,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="264" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" style="264" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="264"/>
+    <col min="1" max="1" width="7.21875" style="184" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" style="184" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="184"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="186" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.2" customHeight="1">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="259" t="s">
+      <c r="D2" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="259" t="s">
+      <c r="E2" s="182" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="216.6" customHeight="1">
-      <c r="A3" s="260">
-        <v>1</v>
-      </c>
-      <c r="B3" s="265" t="s">
+      <c r="A3" s="183">
+        <v>1</v>
+      </c>
+      <c r="B3" s="185" t="s">
         <v>588</v>
       </c>
-      <c r="C3" s="260">
-        <v>1</v>
-      </c>
-      <c r="D3" s="260">
+      <c r="C3" s="183">
+        <v>1</v>
+      </c>
+      <c r="D3" s="183">
         <v>180000</v>
       </c>
-      <c r="E3" s="260">
+      <c r="E3" s="183">
         <f t="shared" ref="E3:E4" si="0">C3*D3</f>
         <v>180000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="260">
+      <c r="A4" s="183">
         <v>2</v>
       </c>
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="260">
-        <v>1</v>
-      </c>
-      <c r="D4" s="260">
+      <c r="C4" s="183">
+        <v>1</v>
+      </c>
+      <c r="D4" s="183">
         <v>10000</v>
       </c>
-      <c r="E4" s="260">
+      <c r="E4" s="183">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="259">
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="182">
         <f>SUM(E3:E4)</f>
         <v>190000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="267"/>
-      <c r="B6" s="267"/>
-      <c r="C6" s="267"/>
-      <c r="D6" s="267"/>
-      <c r="E6" s="267"/>
+      <c r="A6" s="187"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="266" t="s">
+      <c r="A8" s="186" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="259" t="s">
+      <c r="A9" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="259" t="s">
+      <c r="B9" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="259" t="s">
+      <c r="C9" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="259" t="s">
+      <c r="D9" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="259" t="s">
+      <c r="E9" s="182" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="79.2">
-      <c r="A10" s="260">
-        <v>1</v>
-      </c>
-      <c r="B10" s="265" t="s">
+    <row r="10" spans="1:5" ht="92.4">
+      <c r="A10" s="183">
+        <v>1</v>
+      </c>
+      <c r="B10" s="185" t="s">
         <v>589</v>
       </c>
-      <c r="C10" s="260">
-        <v>1</v>
-      </c>
-      <c r="D10" s="260">
+      <c r="C10" s="183">
+        <v>1</v>
+      </c>
+      <c r="D10" s="183">
         <v>35000</v>
       </c>
-      <c r="E10" s="260">
+      <c r="E10" s="183">
         <f t="shared" ref="E10:E11" si="1">C10*D10</f>
         <v>35000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="260">
+      <c r="A11" s="183">
         <v>2</v>
       </c>
-      <c r="B11" s="260" t="s">
+      <c r="B11" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="260">
-        <v>1</v>
-      </c>
-      <c r="D11" s="260">
+      <c r="C11" s="183">
+        <v>1</v>
+      </c>
+      <c r="D11" s="183">
         <v>5000</v>
       </c>
-      <c r="E11" s="260">
+      <c r="E11" s="183">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="261" t="s">
+      <c r="A12" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="262"/>
-      <c r="C12" s="262"/>
-      <c r="D12" s="263"/>
-      <c r="E12" s="259">
+      <c r="B12" s="268"/>
+      <c r="C12" s="268"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="182">
         <f>SUM(E10:E11)</f>
         <v>40000</v>
       </c>
@@ -22451,6 +22507,504 @@
   <mergeCells count="2">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="182" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="182" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="182" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="182" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="182" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.4">
+      <c r="A3" s="183">
+        <v>1</v>
+      </c>
+      <c r="B3" s="183" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" s="183" t="s">
+        <v>596</v>
+      </c>
+      <c r="D3" s="183">
+        <v>2</v>
+      </c>
+      <c r="E3" s="183">
+        <v>39000</v>
+      </c>
+      <c r="F3" s="183">
+        <f t="shared" ref="F3:F6" si="0">D3*E3</f>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.6">
+      <c r="A4" s="183">
+        <v>2</v>
+      </c>
+      <c r="B4" s="183" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" s="183" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="183">
+        <v>1</v>
+      </c>
+      <c r="E4" s="183">
+        <v>6500</v>
+      </c>
+      <c r="F4" s="183">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="183">
+        <v>3</v>
+      </c>
+      <c r="B5" s="271" t="s">
+        <v>593</v>
+      </c>
+      <c r="C5" s="272"/>
+      <c r="D5" s="183">
+        <v>1</v>
+      </c>
+      <c r="E5" s="183">
+        <v>2500</v>
+      </c>
+      <c r="F5" s="183">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" customHeight="1">
+      <c r="A6" s="183">
+        <v>4</v>
+      </c>
+      <c r="B6" s="271" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="272"/>
+      <c r="D6" s="183">
+        <v>1</v>
+      </c>
+      <c r="E6" s="183">
+        <v>9000</v>
+      </c>
+      <c r="F6" s="183">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="270" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="270"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="270"/>
+      <c r="F7" s="182">
+        <f>SUM(F3:F6)</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="182" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="182" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="182" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="182" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="183">
+        <v>1</v>
+      </c>
+      <c r="B11" s="183" t="s">
+        <v>594</v>
+      </c>
+      <c r="C11" s="183" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="183">
+        <v>4</v>
+      </c>
+      <c r="E11" s="183">
+        <v>12500</v>
+      </c>
+      <c r="F11" s="183">
+        <f t="shared" ref="F11:F13" si="1">D11*E11</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="183">
+        <v>2</v>
+      </c>
+      <c r="B12" s="271" t="s">
+        <v>593</v>
+      </c>
+      <c r="C12" s="272"/>
+      <c r="D12" s="183">
+        <v>1</v>
+      </c>
+      <c r="E12" s="183">
+        <v>2500</v>
+      </c>
+      <c r="F12" s="183">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.4" customHeight="1">
+      <c r="A13" s="183">
+        <v>3</v>
+      </c>
+      <c r="B13" s="271" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="272"/>
+      <c r="D13" s="183">
+        <v>1</v>
+      </c>
+      <c r="E13" s="183">
+        <v>9000</v>
+      </c>
+      <c r="F13" s="183">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="270" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="270"/>
+      <c r="C14" s="270"/>
+      <c r="D14" s="270"/>
+      <c r="E14" s="270"/>
+      <c r="F14" s="182">
+        <f>SUM(F11:F13)</f>
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" customHeight="1">
+      <c r="A1" s="189" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="189" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="189" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="189" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="189" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="188">
+        <v>1</v>
+      </c>
+      <c r="B2" s="188" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="188">
+        <v>3</v>
+      </c>
+      <c r="D2" s="188">
+        <v>2100</v>
+      </c>
+      <c r="E2" s="188">
+        <f t="shared" ref="E2:E8" si="0">C2*D2</f>
+        <v>6300</v>
+      </c>
+      <c r="H2">
+        <f>1200*2</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A3" s="188">
+        <v>2</v>
+      </c>
+      <c r="B3" s="188" t="s">
+        <v>599</v>
+      </c>
+      <c r="C3" s="188">
+        <v>1</v>
+      </c>
+      <c r="D3" s="188">
+        <v>7920</v>
+      </c>
+      <c r="E3" s="188">
+        <f t="shared" si="0"/>
+        <v>7920</v>
+      </c>
+      <c r="H3">
+        <f>4800*2</f>
+        <v>9600</v>
+      </c>
+      <c r="I3" t="s">
+        <v>600</v>
+      </c>
+      <c r="J3">
+        <f>2800*2</f>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="188">
+        <v>3</v>
+      </c>
+      <c r="B4" s="188" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="188">
+        <v>6</v>
+      </c>
+      <c r="D4" s="188">
+        <v>60</v>
+      </c>
+      <c r="E4" s="188">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="188">
+        <v>4</v>
+      </c>
+      <c r="B5" s="188" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="188">
+        <v>3</v>
+      </c>
+      <c r="D5" s="188">
+        <v>50</v>
+      </c>
+      <c r="E5" s="188">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12" customHeight="1">
+      <c r="A6" s="188">
+        <v>5</v>
+      </c>
+      <c r="B6" s="188" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="188">
+        <v>1</v>
+      </c>
+      <c r="D6" s="188">
+        <v>1990</v>
+      </c>
+      <c r="E6" s="188">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="188">
+        <v>6</v>
+      </c>
+      <c r="B7" s="188" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="188">
+        <v>3</v>
+      </c>
+      <c r="D7" s="188">
+        <v>100</v>
+      </c>
+      <c r="E7" s="188">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="188">
+        <v>7</v>
+      </c>
+      <c r="B8" s="188" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="188">
+        <v>1</v>
+      </c>
+      <c r="D8" s="188">
+        <v>2900</v>
+      </c>
+      <c r="E8" s="188">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="190" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="191"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="189">
+        <f>SUM(E2:E8)</f>
+        <v>19920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="97"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="75"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="78" t="s">
+        <v>602</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22461,7 +23015,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22526,12 +23080,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="199"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="207"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -22549,7 +23103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -22826,12 +23380,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="199"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="207"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -23077,12 +23631,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="197" t="s">
+      <c r="A31" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="198"/>
-      <c r="C31" s="198"/>
-      <c r="D31" s="199"/>
+      <c r="B31" s="206"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="207"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -23303,12 +23857,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="199"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="207"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -23383,13 +23937,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="208" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="202"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="210"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -23399,11 +23953,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="203"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="205"/>
+      <c r="A20" s="211"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23518,12 +24072,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="199"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="207"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -23738,12 +24292,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="207"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -23912,12 +24466,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="199"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -24001,12 +24555,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="206" t="s">
+      <c r="A19" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="206"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="33" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="35" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,8 @@
     <sheet name="Golden Tulip 308" sheetId="37" r:id="rId37"/>
     <sheet name="CII 309" sheetId="38" r:id="rId38"/>
     <sheet name="Vatareshwar 310" sheetId="39" r:id="rId39"/>
+    <sheet name="Dev Rodrigues 311" sheetId="40" r:id="rId40"/>
+    <sheet name="Mark 312" sheetId="41" r:id="rId41"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="609">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2106,6 +2108,24 @@
   </si>
   <si>
     <t>1) Network Rack @ 2900/- + GST</t>
+  </si>
+  <si>
+    <t>3) Terminations to be charged as actuals</t>
+  </si>
+  <si>
+    <t>4) Cabling to be charged as actuals.</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar NVR Professional Series 5CH</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar 4CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>Honeywell /Wbox / Dahua or Similar 2MP IP Bullet with inbuilt Audio</t>
+  </si>
+  <si>
+    <t>Honeywell /Wbox / Dahua or Similar 2MP Bullet Camera</t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3278,6 +3298,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3287,6 +3313,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3308,21 +3349,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3365,6 +3391,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3383,18 +3448,6 @@
     <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3410,38 +3463,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4171,12 +4197,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="191"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="192"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="194"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -4302,12 +4328,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="190" t="s">
+      <c r="A27" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="192"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="194"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -4468,12 +4494,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="207"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="209"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -4557,12 +4583,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="214" t="s">
+      <c r="A19" s="216" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="214"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -4723,12 +4749,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="207"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="209"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4812,20 +4838,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="208" t="s">
+      <c r="A19" s="210" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="209"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="210"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="212"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="211"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="213"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5024,24 +5050,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="207"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="217" t="s">
+      <c r="A13" s="219" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="217"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
+      <c r="B13" s="219"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -5241,12 +5267,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="205" t="s">
+      <c r="A30" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="206"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="207"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="209"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -5414,12 +5440,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="215" t="s">
+      <c r="A41" s="217" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="216"/>
-      <c r="C41" s="216"/>
-      <c r="D41" s="216"/>
+      <c r="B41" s="218"/>
+      <c r="C41" s="218"/>
+      <c r="D41" s="218"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -5654,24 +5680,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="207"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="218" t="s">
+      <c r="A13" s="220" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="218"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="218"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5835,12 +5861,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="205" t="s">
+      <c r="A28" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="206"/>
-      <c r="C28" s="206"/>
-      <c r="D28" s="207"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="209"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -6042,48 +6068,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="207"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="207"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="209"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="205" t="s">
+      <c r="A9" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="207"/>
+      <c r="B9" s="208"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="209"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="205" t="s">
+      <c r="A10" s="207" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="206"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="207"/>
+      <c r="B10" s="208"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="209"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -6174,48 +6200,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="205" t="s">
+      <c r="A17" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="206"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="207"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="206"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="207"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="205" t="s">
+      <c r="A19" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="206"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="207"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="205" t="s">
+      <c r="A20" s="207" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="206"/>
-      <c r="C20" s="206"/>
-      <c r="D20" s="207"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -6298,48 +6324,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="205" t="s">
+      <c r="A27" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="206"/>
-      <c r="C27" s="206"/>
-      <c r="D27" s="207"/>
+      <c r="B27" s="208"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="209"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="205" t="s">
+      <c r="A28" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="206"/>
-      <c r="C28" s="206"/>
-      <c r="D28" s="207"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="209"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="205" t="s">
+      <c r="A29" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="206"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="207"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="209"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="205" t="s">
+      <c r="A30" s="207" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="206"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="207"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="209"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -6527,12 +6553,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="192"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -6656,12 +6682,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="190" t="s">
+      <c r="A21" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="192"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="194"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6821,12 +6847,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="190" t="s">
+      <c r="A38" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="191"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="192"/>
+      <c r="B38" s="193"/>
+      <c r="C38" s="193"/>
+      <c r="D38" s="194"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -7046,12 +7072,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="241" t="s">
+      <c r="A59" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="242"/>
-      <c r="C59" s="242"/>
-      <c r="D59" s="243"/>
+      <c r="B59" s="225"/>
+      <c r="C59" s="225"/>
+      <c r="D59" s="226"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -7063,10 +7089,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="244" t="s">
+      <c r="A63" s="227" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="244"/>
+      <c r="B63" s="227"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -7279,12 +7305,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="190" t="s">
+      <c r="A79" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="191"/>
-      <c r="C79" s="191"/>
-      <c r="D79" s="192"/>
+      <c r="B79" s="193"/>
+      <c r="C79" s="193"/>
+      <c r="D79" s="194"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -7508,12 +7534,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="190" t="s">
+      <c r="A99" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="191"/>
-      <c r="C99" s="191"/>
-      <c r="D99" s="191"/>
+      <c r="B99" s="193"/>
+      <c r="C99" s="193"/>
+      <c r="D99" s="193"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -7659,31 +7685,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="240" t="s">
+      <c r="B116" s="221" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="240"/>
+      <c r="C116" s="221"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="227">
+      <c r="E116" s="222">
         <v>9000</v>
       </c>
-      <c r="F116" s="228"/>
+      <c r="F116" s="223"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="190" t="s">
+      <c r="A117" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="191"/>
-      <c r="C117" s="191"/>
-      <c r="D117" s="191"/>
-      <c r="E117" s="191"/>
-      <c r="F117" s="192"/>
+      <c r="B117" s="193"/>
+      <c r="C117" s="193"/>
+      <c r="D117" s="193"/>
+      <c r="E117" s="193"/>
+      <c r="F117" s="194"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7799,31 +7825,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="240" t="s">
+      <c r="B124" s="221" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="240"/>
+      <c r="C124" s="221"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="199">
+      <c r="E124" s="206">
         <v>9000</v>
       </c>
-      <c r="F124" s="199"/>
+      <c r="F124" s="206"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="237" t="s">
+      <c r="A125" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="238"/>
-      <c r="C125" s="238"/>
-      <c r="D125" s="238"/>
-      <c r="E125" s="238"/>
-      <c r="F125" s="239"/>
+      <c r="B125" s="229"/>
+      <c r="C125" s="229"/>
+      <c r="D125" s="229"/>
+      <c r="E125" s="229"/>
+      <c r="F125" s="230"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7934,31 +7960,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="225" t="s">
+      <c r="B134" s="232" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="226"/>
+      <c r="C134" s="233"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="227">
+      <c r="E134" s="222">
         <v>12000</v>
       </c>
-      <c r="F134" s="228"/>
+      <c r="F134" s="223"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="237" t="s">
+      <c r="A135" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="238"/>
-      <c r="C135" s="238"/>
-      <c r="D135" s="238"/>
-      <c r="E135" s="238"/>
-      <c r="F135" s="239"/>
+      <c r="B135" s="229"/>
+      <c r="C135" s="229"/>
+      <c r="D135" s="229"/>
+      <c r="E135" s="229"/>
+      <c r="F135" s="230"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -8064,31 +8090,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="225" t="s">
+      <c r="B142" s="232" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="226"/>
+      <c r="C142" s="233"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="227">
+      <c r="E142" s="222">
         <v>12000</v>
       </c>
-      <c r="F142" s="228"/>
+      <c r="F142" s="223"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="237" t="s">
+      <c r="A143" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="238"/>
-      <c r="C143" s="238"/>
-      <c r="D143" s="238"/>
-      <c r="E143" s="238"/>
-      <c r="F143" s="239"/>
+      <c r="B143" s="229"/>
+      <c r="C143" s="229"/>
+      <c r="D143" s="229"/>
+      <c r="E143" s="229"/>
+      <c r="F143" s="230"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -8204,41 +8230,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="229" t="s">
+      <c r="B150" s="240" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="230"/>
+      <c r="C150" s="241"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="231">
+      <c r="E150" s="242">
         <v>12000</v>
       </c>
-      <c r="F150" s="232"/>
+      <c r="F150" s="243"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="234" t="s">
+      <c r="A151" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="234"/>
-      <c r="C151" s="234"/>
-      <c r="D151" s="234"/>
-      <c r="E151" s="234"/>
-      <c r="F151" s="234"/>
+      <c r="B151" s="231"/>
+      <c r="C151" s="231"/>
+      <c r="D151" s="231"/>
+      <c r="E151" s="231"/>
+      <c r="F151" s="231"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="233" t="s">
+      <c r="A154" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="233"/>
+      <c r="B154" s="244"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -8294,12 +8320,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="235" t="s">
+      <c r="A159" s="245" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="236"/>
-      <c r="C159" s="236"/>
-      <c r="D159" s="236"/>
+      <c r="B159" s="246"/>
+      <c r="C159" s="246"/>
+      <c r="D159" s="246"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -8357,12 +8383,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="234" t="s">
+      <c r="A163" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="234"/>
-      <c r="C163" s="234"/>
-      <c r="D163" s="234"/>
+      <c r="B163" s="231"/>
+      <c r="C163" s="231"/>
+      <c r="D163" s="231"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -10548,12 +10574,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="190" t="s">
+      <c r="A241" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="191"/>
-      <c r="C241" s="191"/>
-      <c r="D241" s="192"/>
+      <c r="B241" s="193"/>
+      <c r="C241" s="193"/>
+      <c r="D241" s="194"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -10702,12 +10728,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="190" t="s">
+      <c r="A254" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="191"/>
-      <c r="C254" s="191"/>
-      <c r="D254" s="192"/>
+      <c r="B254" s="193"/>
+      <c r="C254" s="193"/>
+      <c r="D254" s="194"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -10716,42 +10742,25 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="219" t="s">
+      <c r="A257" s="234" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="220"/>
-      <c r="C257" s="220"/>
-      <c r="D257" s="220"/>
-      <c r="E257" s="220"/>
-      <c r="F257" s="221"/>
+      <c r="B257" s="235"/>
+      <c r="C257" s="235"/>
+      <c r="D257" s="235"/>
+      <c r="E257" s="235"/>
+      <c r="F257" s="236"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="222"/>
-      <c r="B258" s="223"/>
-      <c r="C258" s="223"/>
-      <c r="D258" s="223"/>
-      <c r="E258" s="223"/>
-      <c r="F258" s="224"/>
+      <c r="A258" s="237"/>
+      <c r="B258" s="238"/>
+      <c r="C258" s="238"/>
+      <c r="D258" s="238"/>
+      <c r="E258" s="238"/>
+      <c r="F258" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B124:C124"/>
     <mergeCell ref="A257:F258"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="B142:C142"/>
@@ -10763,6 +10772,23 @@
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A254:D254"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A79:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10972,12 +10998,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="190" t="s">
+      <c r="A12" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="191"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="192"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="194"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -10991,13 +11017,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="231" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="231"/>
+      <c r="E14" s="231"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -11290,25 +11316,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="190" t="s">
+      <c r="A39" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="191"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="192"/>
+      <c r="B39" s="193"/>
+      <c r="C39" s="193"/>
+      <c r="D39" s="194"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="234" t="s">
+      <c r="A41" s="231" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="234"/>
-      <c r="C41" s="234"/>
-      <c r="D41" s="234"/>
-      <c r="E41" s="234"/>
+      <c r="B41" s="231"/>
+      <c r="C41" s="231"/>
+      <c r="D41" s="231"/>
+      <c r="E41" s="231"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -11517,12 +11543,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="245" t="s">
+      <c r="A70" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="246"/>
-      <c r="C70" s="246"/>
-      <c r="D70" s="247"/>
+      <c r="B70" s="248"/>
+      <c r="C70" s="248"/>
+      <c r="D70" s="249"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -11712,12 +11738,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="191"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -11972,12 +11998,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="190" t="s">
+      <c r="A33" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="192"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="194"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -12199,12 +12225,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="192"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="194"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -12243,13 +12269,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -12336,105 +12362,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="203" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="198">
+      <c r="C7" s="205">
         <v>2</v>
       </c>
-      <c r="D7" s="196" t="s">
+      <c r="D7" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="199">
+      <c r="E7" s="206">
         <v>567000</v>
       </c>
-      <c r="F7" s="199">
+      <c r="F7" s="206">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="196"/>
+      <c r="A8" s="203"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="198"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="206"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="196"/>
+      <c r="A9" s="203"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="198"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="206"/>
+      <c r="F9" s="206"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="196"/>
+      <c r="A10" s="203"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="196"/>
+      <c r="A11" s="203"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="198"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="196"/>
+      <c r="A12" s="203"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="198"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="206"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="196"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="198"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="196"/>
+      <c r="A14" s="203"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="198"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="196"/>
+      <c r="A15" s="203"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="198"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -12477,13 +12503,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="193" t="s">
+      <c r="B19" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="195"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="202"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -12569,7 +12595,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="196" t="s">
+      <c r="A24" s="203" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -12581,7 +12607,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="196"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -12600,7 +12626,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="196"/>
+      <c r="A26" s="203"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -12619,7 +12645,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="196"/>
+      <c r="A27" s="203"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -12657,13 +12683,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="193" t="s">
+      <c r="B30" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="202"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -12686,7 +12712,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="196" t="s">
+      <c r="A32" s="203" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -12698,7 +12724,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="196"/>
+      <c r="A33" s="203"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12712,7 +12738,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="196"/>
+      <c r="A34" s="203"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12726,7 +12752,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="196"/>
+      <c r="A35" s="203"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12740,7 +12766,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="196"/>
+      <c r="A36" s="203"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12754,7 +12780,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="196" t="s">
+      <c r="A37" s="203" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12766,7 +12792,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="196"/>
+      <c r="A38" s="203"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12785,7 +12811,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="196"/>
+      <c r="A39" s="203"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12804,7 +12830,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="196"/>
+      <c r="A40" s="203"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12823,7 +12849,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="196"/>
+      <c r="A41" s="203"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12842,7 +12868,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="196"/>
+      <c r="A42" s="203"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12883,13 +12909,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="193" t="s">
+      <c r="B45" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="194"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="194"/>
-      <c r="F45" s="195"/>
+      <c r="C45" s="201"/>
+      <c r="D45" s="201"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="202"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -13134,13 +13160,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="202" t="s">
+      <c r="A57" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="203"/>
-      <c r="C57" s="203"/>
-      <c r="D57" s="203"/>
-      <c r="E57" s="204"/>
+      <c r="B57" s="198"/>
+      <c r="C57" s="198"/>
+      <c r="D57" s="198"/>
+      <c r="E57" s="199"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -13158,15 +13184,15 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="200" t="s">
+      <c r="B59" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="200"/>
-      <c r="D59" s="200"/>
-      <c r="E59" s="200"/>
-      <c r="F59" s="200"/>
-    </row>
-    <row r="60" spans="1:9" ht="52.8">
+      <c r="C59" s="195"/>
+      <c r="D59" s="195"/>
+      <c r="E59" s="195"/>
+      <c r="F59" s="195"/>
+    </row>
+    <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
@@ -13182,13 +13208,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="201" t="s">
+      <c r="B61" s="196" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="201"/>
-      <c r="D61" s="201"/>
-      <c r="E61" s="201"/>
-      <c r="F61" s="201"/>
+      <c r="C61" s="196"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="196"/>
+      <c r="F61" s="196"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -13208,35 +13234,30 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="201" t="s">
+      <c r="B63" s="196" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="201"/>
-      <c r="D63" s="201"/>
-      <c r="E63" s="201"/>
-      <c r="F63" s="201"/>
+      <c r="C63" s="196"/>
+      <c r="D63" s="196"/>
+      <c r="E63" s="196"/>
+      <c r="F63" s="196"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="201" t="s">
+      <c r="B64" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="201"/>
-      <c r="D64" s="201"/>
-      <c r="E64" s="201"/>
-      <c r="F64" s="201"/>
+      <c r="C64" s="196"/>
+      <c r="D64" s="196"/>
+      <c r="E64" s="196"/>
+      <c r="F64" s="196"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="A57:E57"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B19:F19"/>
@@ -13249,6 +13270,11 @@
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="F7:F15"/>
     <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13451,12 +13477,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="192"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -13833,12 +13859,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="190" t="s">
+      <c r="A15" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="192"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="194"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -14124,12 +14150,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="190" t="s">
+      <c r="A37" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="191"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="192"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="194"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -14431,12 +14457,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="190" t="s">
+      <c r="A63" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="191"/>
-      <c r="C63" s="191"/>
-      <c r="D63" s="192"/>
+      <c r="B63" s="193"/>
+      <c r="C63" s="193"/>
+      <c r="D63" s="194"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -14549,183 +14575,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="248">
+      <c r="A2" s="250">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="248">
-        <v>1</v>
-      </c>
-      <c r="D2" s="248">
+      <c r="C2" s="250">
+        <v>1</v>
+      </c>
+      <c r="D2" s="250">
         <v>42000</v>
       </c>
-      <c r="E2" s="248">
+      <c r="E2" s="250">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="249"/>
+      <c r="A3" s="251"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="249"/>
+      <c r="A4" s="251"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="249"/>
+      <c r="A5" s="251"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="249"/>
+      <c r="A6" s="251"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
-      <c r="E6" s="249"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="251"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="249"/>
+      <c r="A7" s="251"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="249"/>
+      <c r="A8" s="251"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="249"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="249"/>
+      <c r="A9" s="251"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="249"/>
+      <c r="A10" s="251"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="249"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="249"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="249"/>
+      <c r="A11" s="251"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
-      <c r="E11" s="249"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="249"/>
+      <c r="A12" s="251"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="249"/>
+      <c r="A13" s="251"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="249"/>
+      <c r="A14" s="251"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="249"/>
-      <c r="D14" s="249"/>
-      <c r="E14" s="249"/>
+      <c r="C14" s="251"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="251"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="249"/>
+      <c r="A15" s="251"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="249"/>
-      <c r="D15" s="249"/>
-      <c r="E15" s="249"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="249"/>
+      <c r="A16" s="251"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="249"/>
-      <c r="D16" s="249"/>
-      <c r="E16" s="249"/>
+      <c r="C16" s="251"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="251"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="249"/>
+      <c r="A17" s="251"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="249"/>
-      <c r="D17" s="249"/>
-      <c r="E17" s="249"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="251"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="249"/>
+      <c r="A18" s="251"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="249"/>
-      <c r="D18" s="249"/>
-      <c r="E18" s="249"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="250"/>
+      <c r="A19" s="252"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="250"/>
-      <c r="D19" s="250"/>
-      <c r="E19" s="250"/>
+      <c r="C19" s="252"/>
+      <c r="D19" s="252"/>
+      <c r="E19" s="252"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="234" t="s">
+      <c r="A20" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -14741,12 +14767,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="230.4">
+    <row r="57" spans="1:1" ht="216">
       <c r="A57" s="126" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="72">
+    <row r="58" spans="1:1" ht="57.6">
       <c r="A58" s="126" t="s">
         <v>405</v>
       </c>
@@ -14781,7 +14807,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="158.4">
+    <row r="65" spans="1:1" ht="144">
       <c r="A65" s="126" t="s">
         <v>412</v>
       </c>
@@ -14796,7 +14822,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="115.2">
+    <row r="68" spans="1:1" ht="100.8">
       <c r="A68" s="126" t="s">
         <v>415</v>
       </c>
@@ -15041,12 +15067,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="191"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -15299,12 +15325,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="192"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -15527,10 +15553,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="252" t="s">
+      <c r="B6" s="254" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="252"/>
+      <c r="C6" s="254"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -15544,13 +15570,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="253" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -15706,10 +15732,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="252" t="s">
+      <c r="B26" s="254" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="252"/>
+      <c r="C26" s="254"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -15723,13 +15749,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="251" t="s">
+      <c r="A27" s="253" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="251"/>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="251"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="253"/>
+      <c r="E27" s="253"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -15941,12 +15967,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="191"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -16236,12 +16262,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="190" t="s">
+      <c r="A37" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="191"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="192"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="194"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -16508,12 +16534,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="191"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="145">
         <f>SUM(E3:E10)</f>
         <v>99820</v>
@@ -16830,12 +16856,12 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="190" t="s">
+      <c r="A36" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="191"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="192"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="194"/>
       <c r="E36" s="145">
         <f>SUM(E27:E35)</f>
         <v>56780</v>
@@ -17091,12 +17117,12 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="190" t="s">
+      <c r="A55" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="191"/>
-      <c r="C55" s="191"/>
-      <c r="D55" s="192"/>
+      <c r="B55" s="193"/>
+      <c r="C55" s="193"/>
+      <c r="D55" s="194"/>
       <c r="E55" s="145">
         <f>SUM(E46:E54)</f>
         <v>86940</v>
@@ -17290,12 +17316,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="190" t="s">
+      <c r="A68" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="191"/>
-      <c r="C68" s="191"/>
-      <c r="D68" s="192"/>
+      <c r="B68" s="193"/>
+      <c r="C68" s="193"/>
+      <c r="D68" s="194"/>
       <c r="E68" s="145">
         <f>SUM(E59:E67)</f>
         <v>49380</v>
@@ -17487,12 +17513,12 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="192"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="147">
         <f>SUM(E3:E9)</f>
         <v>69770</v>
@@ -17777,12 +17803,12 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="190" t="s">
+      <c r="A36" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="191"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="192"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="194"/>
       <c r="E36" s="147">
         <f>SUM(E29:E35)</f>
         <v>66840</v>
@@ -17909,165 +17935,165 @@
       <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="253">
+      <c r="A3" s="255">
         <v>1</v>
       </c>
       <c r="B3" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="253">
-        <v>1</v>
-      </c>
-      <c r="D3" s="253">
+      <c r="C3" s="255">
+        <v>1</v>
+      </c>
+      <c r="D3" s="255">
         <v>75900</v>
       </c>
-      <c r="E3" s="253">
+      <c r="E3" s="255">
         <f>C3*D3</f>
         <v>75900</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="254"/>
+      <c r="A4" s="256"/>
       <c r="B4" s="152" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="254"/>
+      <c r="A5" s="256"/>
       <c r="B5" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
+      <c r="C5" s="256"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="254"/>
+      <c r="A6" s="256"/>
       <c r="B6" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="254"/>
+      <c r="A7" s="256"/>
       <c r="B7" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="254"/>
+      <c r="A8" s="256"/>
       <c r="B8" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="254"/>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="254"/>
+      <c r="A9" s="256"/>
       <c r="B9" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="254"/>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="254"/>
+      <c r="A10" s="256"/>
       <c r="B10" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="254"/>
-      <c r="D10" s="254"/>
-      <c r="E10" s="254"/>
+      <c r="C10" s="256"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="254"/>
+      <c r="A11" s="256"/>
       <c r="B11" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="254"/>
-      <c r="D11" s="254"/>
-      <c r="E11" s="254"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="256"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="254"/>
+      <c r="A12" s="256"/>
       <c r="B12" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="254"/>
-      <c r="D12" s="254"/>
-      <c r="E12" s="254"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="256"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="254"/>
+      <c r="A13" s="256"/>
       <c r="B13" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="254"/>
+      <c r="A14" s="256"/>
       <c r="B14" s="152" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="254"/>
-      <c r="D14" s="254"/>
-      <c r="E14" s="254"/>
+      <c r="C14" s="256"/>
+      <c r="D14" s="256"/>
+      <c r="E14" s="256"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="254"/>
+      <c r="A15" s="256"/>
       <c r="B15" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="254"/>
+      <c r="C15" s="256"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="256"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="254"/>
+      <c r="A16" s="256"/>
       <c r="B16" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="254"/>
-      <c r="D16" s="254"/>
-      <c r="E16" s="254"/>
+      <c r="C16" s="256"/>
+      <c r="D16" s="256"/>
+      <c r="E16" s="256"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="254"/>
+      <c r="A17" s="256"/>
       <c r="B17" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="254"/>
-      <c r="E17" s="254"/>
+      <c r="C17" s="256"/>
+      <c r="D17" s="256"/>
+      <c r="E17" s="256"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="255"/>
+      <c r="A18" s="257"/>
       <c r="B18" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C18" s="255"/>
-      <c r="D18" s="255"/>
-      <c r="E18" s="255"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="257"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="258" t="s">
+      <c r="A19" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="259"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="260"/>
+      <c r="B19" s="261"/>
+      <c r="C19" s="261"/>
+      <c r="D19" s="262"/>
       <c r="E19" s="153">
         <f>SUM(E3)</f>
         <v>75900</v>
@@ -18094,7 +18120,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.8">
-      <c r="A27" s="256">
+      <c r="A27" s="258">
         <v>1</v>
       </c>
       <c r="B27" s="152" t="s">
@@ -18106,16 +18132,16 @@
       <c r="D27" s="149">
         <v>1</v>
       </c>
-      <c r="E27" s="256">
+      <c r="E27" s="258">
         <v>69000</v>
       </c>
-      <c r="F27" s="256">
+      <c r="F27" s="258">
         <f>D27*E27</f>
         <v>69000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="276">
-      <c r="A28" s="256"/>
+    <row r="28" spans="1:6" ht="262.2">
+      <c r="A28" s="258"/>
       <c r="B28" s="152" t="s">
         <v>475</v>
       </c>
@@ -18125,11 +18151,11 @@
       <c r="D28" s="149">
         <v>1</v>
       </c>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-    </row>
-    <row r="29" spans="1:6" ht="138">
-      <c r="A29" s="256"/>
+      <c r="E28" s="258"/>
+      <c r="F28" s="258"/>
+    </row>
+    <row r="29" spans="1:6" ht="124.2">
+      <c r="A29" s="258"/>
       <c r="B29" s="152" t="s">
         <v>477</v>
       </c>
@@ -18139,11 +18165,11 @@
       <c r="D29" s="149">
         <v>1</v>
       </c>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
+      <c r="E29" s="258"/>
+      <c r="F29" s="258"/>
     </row>
     <row r="30" spans="1:6" ht="248.4">
-      <c r="A30" s="256"/>
+      <c r="A30" s="258"/>
       <c r="B30" s="152" t="s">
         <v>479</v>
       </c>
@@ -18153,11 +18179,11 @@
       <c r="D30" s="149">
         <v>1</v>
       </c>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-    </row>
-    <row r="31" spans="1:6" ht="82.8">
-      <c r="A31" s="256"/>
+      <c r="E30" s="258"/>
+      <c r="F30" s="258"/>
+    </row>
+    <row r="31" spans="1:6" ht="69">
+      <c r="A31" s="258"/>
       <c r="B31" s="152" t="s">
         <v>481</v>
       </c>
@@ -18167,11 +18193,11 @@
       <c r="D31" s="149">
         <v>1</v>
       </c>
-      <c r="E31" s="256"/>
-      <c r="F31" s="256"/>
-    </row>
-    <row r="32" spans="1:6" ht="248.4">
-      <c r="A32" s="256"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="258"/>
+    </row>
+    <row r="32" spans="1:6" ht="179.4">
+      <c r="A32" s="258"/>
       <c r="B32" s="152" t="s">
         <v>483</v>
       </c>
@@ -18181,11 +18207,11 @@
       <c r="D32" s="149">
         <v>1</v>
       </c>
-      <c r="E32" s="256"/>
-      <c r="F32" s="256"/>
+      <c r="E32" s="258"/>
+      <c r="F32" s="258"/>
     </row>
     <row r="33" spans="1:6" ht="82.8">
-      <c r="A33" s="256"/>
+      <c r="A33" s="258"/>
       <c r="B33" s="152" t="s">
         <v>483</v>
       </c>
@@ -18195,11 +18221,11 @@
       <c r="D33" s="149">
         <v>1</v>
       </c>
-      <c r="E33" s="256"/>
-      <c r="F33" s="256"/>
-    </row>
-    <row r="34" spans="1:6" ht="110.4">
-      <c r="A34" s="256"/>
+      <c r="E33" s="258"/>
+      <c r="F33" s="258"/>
+    </row>
+    <row r="34" spans="1:6" ht="96.6">
+      <c r="A34" s="258"/>
       <c r="B34" s="152" t="s">
         <v>483</v>
       </c>
@@ -18209,11 +18235,11 @@
       <c r="D34" s="149">
         <v>1</v>
       </c>
-      <c r="E34" s="256"/>
-      <c r="F34" s="256"/>
+      <c r="E34" s="258"/>
+      <c r="F34" s="258"/>
     </row>
     <row r="35" spans="1:6" ht="234.6">
-      <c r="A35" s="256"/>
+      <c r="A35" s="258"/>
       <c r="B35" s="152" t="s">
         <v>487</v>
       </c>
@@ -18223,11 +18249,11 @@
       <c r="D35" s="149">
         <v>1</v>
       </c>
-      <c r="E35" s="256"/>
-      <c r="F35" s="256"/>
-    </row>
-    <row r="36" spans="1:6" ht="179.4">
-      <c r="A36" s="256"/>
+      <c r="E35" s="258"/>
+      <c r="F35" s="258"/>
+    </row>
+    <row r="36" spans="1:6" ht="165.6">
+      <c r="A36" s="258"/>
       <c r="B36" s="152" t="s">
         <v>489</v>
       </c>
@@ -18237,11 +18263,11 @@
       <c r="D36" s="149">
         <v>1</v>
       </c>
-      <c r="E36" s="256"/>
-      <c r="F36" s="256"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="258"/>
     </row>
     <row r="37" spans="1:6" ht="27.6">
-      <c r="A37" s="256"/>
+      <c r="A37" s="258"/>
       <c r="B37" s="152" t="s">
         <v>493</v>
       </c>
@@ -18251,11 +18277,11 @@
       <c r="D37" s="149">
         <v>1</v>
       </c>
-      <c r="E37" s="256"/>
-      <c r="F37" s="256"/>
+      <c r="E37" s="258"/>
+      <c r="F37" s="258"/>
     </row>
     <row r="38" spans="1:6" ht="82.8">
-      <c r="A38" s="256"/>
+      <c r="A38" s="258"/>
       <c r="B38" s="152" t="s">
         <v>494</v>
       </c>
@@ -18265,11 +18291,11 @@
       <c r="D38" s="149">
         <v>1</v>
       </c>
-      <c r="E38" s="256"/>
-      <c r="F38" s="256"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="258"/>
     </row>
     <row r="39" spans="1:6" ht="55.2">
-      <c r="A39" s="256"/>
+      <c r="A39" s="258"/>
       <c r="B39" s="152" t="s">
         <v>495</v>
       </c>
@@ -18279,11 +18305,11 @@
       <c r="D39" s="149">
         <v>1</v>
       </c>
-      <c r="E39" s="256"/>
-      <c r="F39" s="256"/>
-    </row>
-    <row r="40" spans="1:6" ht="151.80000000000001">
-      <c r="A40" s="256"/>
+      <c r="E39" s="258"/>
+      <c r="F39" s="258"/>
+    </row>
+    <row r="40" spans="1:6" ht="138">
+      <c r="A40" s="258"/>
       <c r="B40" s="152" t="s">
         <v>497</v>
       </c>
@@ -18293,11 +18319,11 @@
       <c r="D40" s="149">
         <v>1</v>
       </c>
-      <c r="E40" s="256"/>
-      <c r="F40" s="256"/>
-    </row>
-    <row r="41" spans="1:6" ht="110.4">
-      <c r="A41" s="256"/>
+      <c r="E40" s="258"/>
+      <c r="F40" s="258"/>
+    </row>
+    <row r="41" spans="1:6" ht="96.6">
+      <c r="A41" s="258"/>
       <c r="B41" s="152" t="s">
         <v>499</v>
       </c>
@@ -18307,11 +18333,11 @@
       <c r="D41" s="149">
         <v>1</v>
       </c>
-      <c r="E41" s="256"/>
-      <c r="F41" s="256"/>
-    </row>
-    <row r="42" spans="1:6" ht="345">
-      <c r="A42" s="256"/>
+      <c r="E41" s="258"/>
+      <c r="F41" s="258"/>
+    </row>
+    <row r="42" spans="1:6" ht="317.39999999999998">
+      <c r="A42" s="258"/>
       <c r="B42" s="152" t="s">
         <v>501</v>
       </c>
@@ -18321,11 +18347,11 @@
       <c r="D42" s="149">
         <v>1</v>
       </c>
-      <c r="E42" s="256"/>
-      <c r="F42" s="256"/>
-    </row>
-    <row r="43" spans="1:6" ht="82.8">
-      <c r="A43" s="256"/>
+      <c r="E42" s="258"/>
+      <c r="F42" s="258"/>
+    </row>
+    <row r="43" spans="1:6" ht="69">
+      <c r="A43" s="258"/>
       <c r="B43" s="152" t="s">
         <v>501</v>
       </c>
@@ -18335,11 +18361,11 @@
       <c r="D43" s="149">
         <v>1</v>
       </c>
-      <c r="E43" s="256"/>
-      <c r="F43" s="256"/>
+      <c r="E43" s="258"/>
+      <c r="F43" s="258"/>
     </row>
     <row r="44" spans="1:6" ht="193.2">
-      <c r="A44" s="256"/>
+      <c r="A44" s="258"/>
       <c r="B44" s="152" t="s">
         <v>501</v>
       </c>
@@ -18349,11 +18375,11 @@
       <c r="D44" s="149">
         <v>1</v>
       </c>
-      <c r="E44" s="256"/>
-      <c r="F44" s="256"/>
+      <c r="E44" s="258"/>
+      <c r="F44" s="258"/>
     </row>
     <row r="45" spans="1:6" ht="234.6">
-      <c r="A45" s="256"/>
+      <c r="A45" s="258"/>
       <c r="B45" s="152" t="s">
         <v>505</v>
       </c>
@@ -18363,11 +18389,11 @@
       <c r="D45" s="149">
         <v>1</v>
       </c>
-      <c r="E45" s="256"/>
-      <c r="F45" s="256"/>
-    </row>
-    <row r="46" spans="1:6" ht="82.8">
-      <c r="A46" s="256"/>
+      <c r="E45" s="258"/>
+      <c r="F45" s="258"/>
+    </row>
+    <row r="46" spans="1:6" ht="69">
+      <c r="A46" s="258"/>
       <c r="B46" s="152" t="s">
         <v>507</v>
       </c>
@@ -18377,11 +18403,11 @@
       <c r="D46" s="149">
         <v>1</v>
       </c>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
+      <c r="E46" s="258"/>
+      <c r="F46" s="258"/>
     </row>
     <row r="47" spans="1:6" ht="110.4">
-      <c r="A47" s="256"/>
+      <c r="A47" s="258"/>
       <c r="B47" s="152" t="s">
         <v>509</v>
       </c>
@@ -18391,11 +18417,11 @@
       <c r="D47" s="149">
         <v>1</v>
       </c>
-      <c r="E47" s="256"/>
-      <c r="F47" s="256"/>
+      <c r="E47" s="258"/>
+      <c r="F47" s="258"/>
     </row>
     <row r="48" spans="1:6" ht="96.6">
-      <c r="A48" s="256"/>
+      <c r="A48" s="258"/>
       <c r="B48" s="152" t="s">
         <v>509</v>
       </c>
@@ -18405,11 +18431,11 @@
       <c r="D48" s="149">
         <v>1</v>
       </c>
-      <c r="E48" s="256"/>
-      <c r="F48" s="256"/>
+      <c r="E48" s="258"/>
+      <c r="F48" s="258"/>
     </row>
     <row r="49" spans="1:6" ht="110.4">
-      <c r="A49" s="256"/>
+      <c r="A49" s="258"/>
       <c r="B49" s="152" t="s">
         <v>512</v>
       </c>
@@ -18419,11 +18445,11 @@
       <c r="D49" s="149">
         <v>1</v>
       </c>
-      <c r="E49" s="256"/>
-      <c r="F49" s="256"/>
-    </row>
-    <row r="50" spans="1:6" ht="179.4">
-      <c r="A50" s="256"/>
+      <c r="E49" s="258"/>
+      <c r="F49" s="258"/>
+    </row>
+    <row r="50" spans="1:6" ht="165.6">
+      <c r="A50" s="258"/>
       <c r="B50" s="152" t="s">
         <v>514</v>
       </c>
@@ -18433,11 +18459,11 @@
       <c r="D50" s="149">
         <v>1</v>
       </c>
-      <c r="E50" s="256"/>
-      <c r="F50" s="256"/>
-    </row>
-    <row r="51" spans="1:6" ht="179.4">
-      <c r="A51" s="256"/>
+      <c r="E50" s="258"/>
+      <c r="F50" s="258"/>
+    </row>
+    <row r="51" spans="1:6" ht="165.6">
+      <c r="A51" s="258"/>
       <c r="B51" s="152" t="s">
         <v>516</v>
       </c>
@@ -18447,11 +18473,11 @@
       <c r="D51" s="149">
         <v>1</v>
       </c>
-      <c r="E51" s="256"/>
-      <c r="F51" s="256"/>
-    </row>
-    <row r="52" spans="1:6" ht="165.6">
-      <c r="A52" s="256"/>
+      <c r="E51" s="258"/>
+      <c r="F51" s="258"/>
+    </row>
+    <row r="52" spans="1:6" ht="151.80000000000001">
+      <c r="A52" s="258"/>
       <c r="B52" s="152" t="s">
         <v>518</v>
       </c>
@@ -18461,11 +18487,11 @@
       <c r="D52" s="149">
         <v>1</v>
       </c>
-      <c r="E52" s="256"/>
-      <c r="F52" s="256"/>
+      <c r="E52" s="258"/>
+      <c r="F52" s="258"/>
     </row>
     <row r="53" spans="1:6" ht="55.2">
-      <c r="A53" s="256"/>
+      <c r="A53" s="258"/>
       <c r="B53" s="152" t="s">
         <v>520</v>
       </c>
@@ -18475,11 +18501,11 @@
       <c r="D53" s="149">
         <v>1</v>
       </c>
-      <c r="E53" s="256"/>
-      <c r="F53" s="256"/>
+      <c r="E53" s="258"/>
+      <c r="F53" s="258"/>
     </row>
     <row r="54" spans="1:6" ht="82.8">
-      <c r="A54" s="256"/>
+      <c r="A54" s="258"/>
       <c r="B54" s="152" t="s">
         <v>523</v>
       </c>
@@ -18489,11 +18515,11 @@
       <c r="D54" s="149">
         <v>1</v>
       </c>
-      <c r="E54" s="256"/>
-      <c r="F54" s="256"/>
-    </row>
-    <row r="55" spans="1:6" ht="110.4">
-      <c r="A55" s="256"/>
+      <c r="E54" s="258"/>
+      <c r="F54" s="258"/>
+    </row>
+    <row r="55" spans="1:6" ht="96.6">
+      <c r="A55" s="258"/>
       <c r="B55" s="152" t="s">
         <v>524</v>
       </c>
@@ -18503,11 +18529,11 @@
       <c r="D55" s="149">
         <v>1</v>
       </c>
-      <c r="E55" s="256"/>
-      <c r="F55" s="256"/>
+      <c r="E55" s="258"/>
+      <c r="F55" s="258"/>
     </row>
     <row r="56" spans="1:6" ht="82.8">
-      <c r="A56" s="256"/>
+      <c r="A56" s="258"/>
       <c r="B56" s="152" t="s">
         <v>526</v>
       </c>
@@ -18517,11 +18543,11 @@
       <c r="D56" s="149">
         <v>1</v>
       </c>
-      <c r="E56" s="256"/>
-      <c r="F56" s="256"/>
+      <c r="E56" s="258"/>
+      <c r="F56" s="258"/>
     </row>
     <row r="57" spans="1:6" ht="41.4">
-      <c r="A57" s="256"/>
+      <c r="A57" s="258"/>
       <c r="B57" s="150" t="s">
         <v>418</v>
       </c>
@@ -18529,11 +18555,11 @@
         <v>1</v>
       </c>
       <c r="D57" s="149"/>
-      <c r="E57" s="256"/>
-      <c r="F57" s="256"/>
+      <c r="E57" s="258"/>
+      <c r="F57" s="258"/>
     </row>
     <row r="58" spans="1:6" ht="82.8">
-      <c r="A58" s="256"/>
+      <c r="A58" s="258"/>
       <c r="B58" s="152" t="s">
         <v>528</v>
       </c>
@@ -18543,11 +18569,11 @@
       <c r="D58" s="149">
         <v>1</v>
       </c>
-      <c r="E58" s="256"/>
-      <c r="F58" s="256"/>
+      <c r="E58" s="258"/>
+      <c r="F58" s="258"/>
     </row>
     <row r="59" spans="1:6" ht="41.4">
-      <c r="A59" s="256"/>
+      <c r="A59" s="258"/>
       <c r="B59" s="152" t="s">
         <v>501</v>
       </c>
@@ -18557,11 +18583,11 @@
       <c r="D59" s="149">
         <v>1</v>
       </c>
-      <c r="E59" s="256"/>
-      <c r="F59" s="256"/>
+      <c r="E59" s="258"/>
+      <c r="F59" s="258"/>
     </row>
     <row r="60" spans="1:6" ht="138">
-      <c r="A60" s="256"/>
+      <c r="A60" s="258"/>
       <c r="B60" s="152" t="s">
         <v>501</v>
       </c>
@@ -18571,11 +18597,11 @@
       <c r="D60" s="149">
         <v>1</v>
       </c>
-      <c r="E60" s="256"/>
-      <c r="F60" s="256"/>
-    </row>
-    <row r="61" spans="1:6" ht="82.8">
-      <c r="A61" s="256"/>
+      <c r="E60" s="258"/>
+      <c r="F60" s="258"/>
+    </row>
+    <row r="61" spans="1:6" ht="69">
+      <c r="A61" s="258"/>
       <c r="B61" s="152" t="s">
         <v>501</v>
       </c>
@@ -18585,11 +18611,11 @@
       <c r="D61" s="149">
         <v>1</v>
       </c>
-      <c r="E61" s="256"/>
-      <c r="F61" s="256"/>
+      <c r="E61" s="258"/>
+      <c r="F61" s="258"/>
     </row>
     <row r="62" spans="1:6" ht="110.4">
-      <c r="A62" s="256"/>
+      <c r="A62" s="258"/>
       <c r="B62" s="152" t="s">
         <v>501</v>
       </c>
@@ -18599,11 +18625,11 @@
       <c r="D62" s="149">
         <v>1</v>
       </c>
-      <c r="E62" s="256"/>
-      <c r="F62" s="256"/>
-    </row>
-    <row r="63" spans="1:6" ht="110.4">
-      <c r="A63" s="256"/>
+      <c r="E62" s="258"/>
+      <c r="F62" s="258"/>
+    </row>
+    <row r="63" spans="1:6" ht="96.6">
+      <c r="A63" s="258"/>
       <c r="B63" s="152" t="s">
         <v>534</v>
       </c>
@@ -18613,11 +18639,11 @@
       <c r="D63" s="149">
         <v>1</v>
       </c>
-      <c r="E63" s="256"/>
-      <c r="F63" s="256"/>
-    </row>
-    <row r="64" spans="1:6" ht="124.2">
-      <c r="A64" s="256"/>
+      <c r="E63" s="258"/>
+      <c r="F63" s="258"/>
+    </row>
+    <row r="64" spans="1:6" ht="110.4">
+      <c r="A64" s="258"/>
       <c r="B64" s="152" t="s">
         <v>536</v>
       </c>
@@ -18627,11 +18653,11 @@
       <c r="D64" s="149">
         <v>1</v>
       </c>
-      <c r="E64" s="256"/>
-      <c r="F64" s="256"/>
+      <c r="E64" s="258"/>
+      <c r="F64" s="258"/>
     </row>
     <row r="65" spans="1:6" ht="41.4">
-      <c r="A65" s="256"/>
+      <c r="A65" s="258"/>
       <c r="B65" s="150" t="s">
         <v>538</v>
       </c>
@@ -18639,11 +18665,11 @@
         <v>1</v>
       </c>
       <c r="D65" s="149"/>
-      <c r="E65" s="256"/>
-      <c r="F65" s="256"/>
+      <c r="E65" s="258"/>
+      <c r="F65" s="258"/>
     </row>
     <row r="66" spans="1:6" ht="124.2">
-      <c r="A66" s="256"/>
+      <c r="A66" s="258"/>
       <c r="B66" s="152" t="s">
         <v>540</v>
       </c>
@@ -18653,11 +18679,11 @@
       <c r="D66" s="149">
         <v>1</v>
       </c>
-      <c r="E66" s="256"/>
-      <c r="F66" s="256"/>
-    </row>
-    <row r="67" spans="1:6" ht="165.6">
-      <c r="A67" s="256"/>
+      <c r="E66" s="258"/>
+      <c r="F66" s="258"/>
+    </row>
+    <row r="67" spans="1:6" ht="151.80000000000001">
+      <c r="A67" s="258"/>
       <c r="B67" s="152" t="s">
         <v>541</v>
       </c>
@@ -18667,17 +18693,17 @@
       <c r="D67" s="149">
         <v>1</v>
       </c>
-      <c r="E67" s="256"/>
-      <c r="F67" s="256"/>
+      <c r="E67" s="258"/>
+      <c r="F67" s="258"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="257" t="s">
+      <c r="A68" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="257"/>
-      <c r="C68" s="257"/>
-      <c r="D68" s="257"/>
-      <c r="E68" s="257"/>
+      <c r="B68" s="259"/>
+      <c r="C68" s="259"/>
+      <c r="D68" s="259"/>
+      <c r="E68" s="259"/>
       <c r="F68" s="150">
         <f>SUM(F27:F27)</f>
         <v>69000</v>
@@ -18788,48 +18814,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="206"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="207"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="209"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="207"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="207"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="207" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="207"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="209"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -18892,11 +18918,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="257" t="s">
+      <c r="A3" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
       <c r="D3" s="153">
         <f>SUM(D2)</f>
         <v>45000</v>
@@ -19091,12 +19117,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="192"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="158">
         <f>SUM(E2:E9)</f>
         <v>82970</v>
@@ -19378,12 +19404,12 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="190" t="s">
+      <c r="A36" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="191"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="192"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="194"/>
       <c r="E36" s="158">
         <f>SUM(E28:E35)</f>
         <v>82850</v>
@@ -19495,8 +19521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19682,12 +19708,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="191"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="162">
         <f>SUM(E3:E10)</f>
         <v>152800</v>
@@ -19963,12 +19989,12 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="190" t="s">
+      <c r="A35" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="191"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="192"/>
+      <c r="B35" s="193"/>
+      <c r="C35" s="193"/>
+      <c r="D35" s="194"/>
       <c r="E35" s="162">
         <f>SUM(E27:E34)</f>
         <v>95050</v>
@@ -20209,12 +20235,12 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="190" t="s">
+      <c r="A59" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="191"/>
-      <c r="C59" s="191"/>
-      <c r="D59" s="192"/>
+      <c r="B59" s="193"/>
+      <c r="C59" s="193"/>
+      <c r="D59" s="194"/>
       <c r="E59" s="162">
         <f>SUM(E51:E58)</f>
         <v>139220</v>
@@ -20469,12 +20495,12 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="190" t="s">
+      <c r="A82" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="191"/>
-      <c r="C82" s="191"/>
-      <c r="D82" s="192"/>
+      <c r="B82" s="193"/>
+      <c r="C82" s="193"/>
+      <c r="D82" s="194"/>
       <c r="E82" s="162">
         <f>SUM(E74:E81)</f>
         <v>82350</v>
@@ -20599,48 +20625,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
       <c r="E3" s="166">
         <f>SUM(E2)</f>
         <v>27900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="263" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="262"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
       <c r="E4" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="263" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
+      <c r="B5" s="264"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
       <c r="E5" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="263" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="262"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
+      <c r="B6" s="264"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
       <c r="E6" s="166">
         <f>SUM(E3:E5)</f>
         <v>32922</v>
@@ -20666,7 +20692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -20845,12 +20871,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="192"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="168">
         <f>SUM(E2:E9)</f>
         <v>79850</v>
@@ -21081,12 +21107,12 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="192"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="194"/>
       <c r="E30" s="170">
         <f>SUM(E23:E29)</f>
         <v>49710</v>
@@ -21339,12 +21365,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="190" t="s">
+      <c r="A9" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="191"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
       <c r="E9" s="172">
         <f>SUM(E3:E8)</f>
         <v>347036</v>
@@ -21550,12 +21576,12 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="263" t="s">
+      <c r="A23" s="265" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="263"/>
-      <c r="C23" s="263"/>
-      <c r="D23" s="263"/>
+      <c r="B23" s="265"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="265"/>
       <c r="E23" s="175">
         <f>SUM(E16:E22)</f>
         <v>728300</v>
@@ -21777,12 +21803,12 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="264" t="s">
+      <c r="A39" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="265"/>
-      <c r="C39" s="265"/>
-      <c r="D39" s="266"/>
+      <c r="B39" s="267"/>
+      <c r="C39" s="267"/>
+      <c r="D39" s="268"/>
       <c r="E39" s="175">
         <f>SUM(E32:E38)</f>
         <v>661616</v>
@@ -21824,7 +21850,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22004,12 +22030,12 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="192"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="177">
         <f>SUM(E2:E9)</f>
         <v>32840</v>
@@ -22262,12 +22288,12 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="190" t="s">
+      <c r="A29" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="192"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="193"/>
+      <c r="D29" s="194"/>
       <c r="E29" s="177">
         <f>SUM(E21:E28)</f>
         <v>28840</v>
@@ -22346,7 +22372,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -22415,12 +22441,12 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="267" t="s">
+      <c r="A5" s="269" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="269"/>
+      <c r="B5" s="270"/>
+      <c r="C5" s="270"/>
+      <c r="D5" s="271"/>
       <c r="E5" s="182">
         <f>SUM(E3:E4)</f>
         <v>190000</v>
@@ -22492,12 +22518,12 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="267" t="s">
+      <c r="A12" s="269" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="268"/>
-      <c r="C12" s="268"/>
-      <c r="D12" s="269"/>
+      <c r="B12" s="270"/>
+      <c r="C12" s="270"/>
+      <c r="D12" s="271"/>
       <c r="E12" s="182">
         <f>SUM(E10:E11)</f>
         <v>40000</v>
@@ -22514,16 +22540,17 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22597,10 +22624,10 @@
       <c r="A5" s="183">
         <v>3</v>
       </c>
-      <c r="B5" s="271" t="s">
+      <c r="B5" s="273" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="272"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="183">
         <v>1</v>
       </c>
@@ -22616,10 +22643,10 @@
       <c r="A6" s="183">
         <v>4</v>
       </c>
-      <c r="B6" s="271" t="s">
+      <c r="B6" s="273" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="272"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="183">
         <v>1</v>
       </c>
@@ -22632,13 +22659,13 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="270" t="s">
+      <c r="A7" s="272" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="270"/>
+      <c r="B7" s="272"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="272"/>
+      <c r="E7" s="272"/>
       <c r="F7" s="182">
         <f>SUM(F3:F6)</f>
         <v>96000</v>
@@ -22694,10 +22721,10 @@
       <c r="A12" s="183">
         <v>2</v>
       </c>
-      <c r="B12" s="271" t="s">
+      <c r="B12" s="273" t="s">
         <v>593</v>
       </c>
-      <c r="C12" s="272"/>
+      <c r="C12" s="274"/>
       <c r="D12" s="183">
         <v>1</v>
       </c>
@@ -22713,10 +22740,10 @@
       <c r="A13" s="183">
         <v>3</v>
       </c>
-      <c r="B13" s="271" t="s">
+      <c r="B13" s="273" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="272"/>
+      <c r="C13" s="274"/>
       <c r="D13" s="183">
         <v>1</v>
       </c>
@@ -22729,13 +22756,13 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="270" t="s">
+      <c r="A14" s="272" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="270"/>
-      <c r="C14" s="270"/>
-      <c r="D14" s="270"/>
-      <c r="E14" s="270"/>
+      <c r="B14" s="272"/>
+      <c r="C14" s="272"/>
+      <c r="D14" s="272"/>
+      <c r="E14" s="272"/>
       <c r="F14" s="182">
         <f>SUM(F11:F13)</f>
         <v>61500</v>
@@ -22754,6 +22781,16 @@
     <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -22773,7 +22810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -22941,12 +22978,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="190" t="s">
+      <c r="A9" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="191"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="192"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="194"/>
       <c r="E9" s="189">
         <f>SUM(E2:E8)</f>
         <v>19920</v>
@@ -23080,12 +23117,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="207"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -23095,6 +23132,1039 @@
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="191" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="191" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="191" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.2" customHeight="1">
+      <c r="A3" s="190" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="190">
+        <v>3</v>
+      </c>
+      <c r="D3" s="190">
+        <v>3690</v>
+      </c>
+      <c r="E3" s="190">
+        <f t="shared" ref="E3:E9" si="0">C3*D3</f>
+        <v>11070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="190">
+        <v>2</v>
+      </c>
+      <c r="B4" s="190" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="190">
+        <v>1</v>
+      </c>
+      <c r="D4" s="190">
+        <v>8820</v>
+      </c>
+      <c r="E4" s="190">
+        <f t="shared" si="0"/>
+        <v>8820</v>
+      </c>
+      <c r="H4">
+        <f>4410*2</f>
+        <v>8820</v>
+      </c>
+      <c r="I4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="190">
+        <v>3</v>
+      </c>
+      <c r="B5" s="190" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="190">
+        <v>1</v>
+      </c>
+      <c r="D5" s="190">
+        <v>3800</v>
+      </c>
+      <c r="E5" s="190">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26.4">
+      <c r="A6" s="190">
+        <v>4</v>
+      </c>
+      <c r="B6" s="190" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="190">
+        <v>1</v>
+      </c>
+      <c r="D6" s="190">
+        <v>9000</v>
+      </c>
+      <c r="E6" s="190">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="190">
+        <v>5</v>
+      </c>
+      <c r="B7" s="190" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="190">
+        <v>10</v>
+      </c>
+      <c r="D7" s="190">
+        <v>150</v>
+      </c>
+      <c r="E7" s="190">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="190">
+        <v>6</v>
+      </c>
+      <c r="B8" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="190">
+        <v>3</v>
+      </c>
+      <c r="D8" s="190">
+        <v>100</v>
+      </c>
+      <c r="E8" s="190">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="190">
+        <v>7</v>
+      </c>
+      <c r="B9" s="190" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="190">
+        <v>1</v>
+      </c>
+      <c r="D9" s="190">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="190">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="191">
+        <f>SUM(E3:E9)</f>
+        <v>37490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="191" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="191" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="191" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="190">
+        <v>1</v>
+      </c>
+      <c r="B26" s="190" t="s">
+        <v>608</v>
+      </c>
+      <c r="C26" s="190">
+        <v>3</v>
+      </c>
+      <c r="D26" s="190">
+        <v>1990</v>
+      </c>
+      <c r="E26" s="190">
+        <f t="shared" ref="E26:E33" si="1">C26*D26</f>
+        <v>5970</v>
+      </c>
+      <c r="I26" s="40">
+        <f>1230*2</f>
+        <v>2460</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="190">
+        <v>2</v>
+      </c>
+      <c r="B27" s="190" t="s">
+        <v>606</v>
+      </c>
+      <c r="C27" s="190">
+        <v>1</v>
+      </c>
+      <c r="D27" s="190">
+        <v>4990</v>
+      </c>
+      <c r="E27" s="190">
+        <f t="shared" si="1"/>
+        <v>4990</v>
+      </c>
+      <c r="I27">
+        <f>1940*2</f>
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="190">
+        <v>3</v>
+      </c>
+      <c r="B28" s="190" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="190">
+        <v>6</v>
+      </c>
+      <c r="D28" s="190">
+        <v>60</v>
+      </c>
+      <c r="E28" s="190">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="190">
+        <v>4</v>
+      </c>
+      <c r="B29" s="190" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="190">
+        <v>3</v>
+      </c>
+      <c r="D29" s="190">
+        <v>50</v>
+      </c>
+      <c r="E29" s="190">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="190">
+        <v>5</v>
+      </c>
+      <c r="B30" s="190" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="190">
+        <v>1</v>
+      </c>
+      <c r="D30" s="190">
+        <v>900</v>
+      </c>
+      <c r="E30" s="190">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="190">
+        <v>6</v>
+      </c>
+      <c r="B31" s="190" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="190">
+        <v>1</v>
+      </c>
+      <c r="D31" s="190">
+        <v>3800</v>
+      </c>
+      <c r="E31" s="190">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="190">
+        <v>7</v>
+      </c>
+      <c r="B32" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="190">
+        <v>3</v>
+      </c>
+      <c r="D32" s="190">
+        <v>100</v>
+      </c>
+      <c r="E32" s="190">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="190">
+        <v>8</v>
+      </c>
+      <c r="B33" s="190" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="190">
+        <v>1</v>
+      </c>
+      <c r="D33" s="190">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="190">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="193"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="191">
+        <f>SUM(E26:E33)</f>
+        <v>19470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="44" spans="1:5" s="164" customFormat="1"/>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="191" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="191" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="191" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="190">
+        <v>1</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="C50" s="190">
+        <v>3</v>
+      </c>
+      <c r="D50" s="190">
+        <v>4300</v>
+      </c>
+      <c r="E50" s="190">
+        <f t="shared" ref="E50:E56" si="2">C50*D50</f>
+        <v>12900</v>
+      </c>
+      <c r="H50">
+        <f>2150*2</f>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="190">
+        <v>2</v>
+      </c>
+      <c r="B51" s="190" t="s">
+        <v>549</v>
+      </c>
+      <c r="C51" s="190">
+        <v>1</v>
+      </c>
+      <c r="D51" s="190">
+        <v>19020</v>
+      </c>
+      <c r="E51" s="190">
+        <f t="shared" si="2"/>
+        <v>19020</v>
+      </c>
+      <c r="H51">
+        <f>9510*2</f>
+        <v>19020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="190">
+        <v>3</v>
+      </c>
+      <c r="B52" s="190" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="190">
+        <v>1</v>
+      </c>
+      <c r="D52" s="190">
+        <v>8600</v>
+      </c>
+      <c r="E52" s="190">
+        <f t="shared" si="2"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="26.4">
+      <c r="A53" s="190">
+        <v>4</v>
+      </c>
+      <c r="B53" s="190" t="s">
+        <v>456</v>
+      </c>
+      <c r="C53" s="190">
+        <v>1</v>
+      </c>
+      <c r="D53" s="190">
+        <v>9000</v>
+      </c>
+      <c r="E53" s="190">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="190">
+        <v>5</v>
+      </c>
+      <c r="B54" s="190" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="190">
+        <v>10</v>
+      </c>
+      <c r="D54" s="190">
+        <v>150</v>
+      </c>
+      <c r="E54" s="190">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="190">
+        <v>6</v>
+      </c>
+      <c r="B55" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="190">
+        <v>3</v>
+      </c>
+      <c r="D55" s="190">
+        <v>100</v>
+      </c>
+      <c r="E55" s="190">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="190">
+        <v>7</v>
+      </c>
+      <c r="B56" s="190" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="190">
+        <v>1</v>
+      </c>
+      <c r="D56" s="190">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="190">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="193"/>
+      <c r="C57" s="193"/>
+      <c r="D57" s="194"/>
+      <c r="E57" s="191">
+        <f>SUM(E50:E56)</f>
+        <v>54320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="6"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="191" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="191" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="191" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="190">
+        <v>1</v>
+      </c>
+      <c r="B72" s="190" t="s">
+        <v>550</v>
+      </c>
+      <c r="C72" s="190">
+        <v>3</v>
+      </c>
+      <c r="D72" s="190">
+        <v>1800</v>
+      </c>
+      <c r="E72" s="190">
+        <f t="shared" ref="E72:E79" si="3">C72*D72</f>
+        <v>5400</v>
+      </c>
+      <c r="H72">
+        <f>900*2</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="190">
+        <v>2</v>
+      </c>
+      <c r="B73" s="190" t="s">
+        <v>551</v>
+      </c>
+      <c r="C73" s="190">
+        <v>1</v>
+      </c>
+      <c r="D73" s="190">
+        <v>29500</v>
+      </c>
+      <c r="E73" s="190">
+        <f t="shared" si="3"/>
+        <v>29500</v>
+      </c>
+      <c r="H73">
+        <f>14750*2</f>
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="190">
+        <v>3</v>
+      </c>
+      <c r="B74" s="190" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="190">
+        <v>6</v>
+      </c>
+      <c r="D74" s="190">
+        <v>60</v>
+      </c>
+      <c r="E74" s="190">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="190">
+        <v>4</v>
+      </c>
+      <c r="B75" s="190" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="190">
+        <v>3</v>
+      </c>
+      <c r="D75" s="190">
+        <v>50</v>
+      </c>
+      <c r="E75" s="190">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="190">
+        <v>5</v>
+      </c>
+      <c r="B76" s="190" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="190">
+        <v>1</v>
+      </c>
+      <c r="D76" s="190">
+        <v>1990</v>
+      </c>
+      <c r="E76" s="190">
+        <f t="shared" si="3"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="190">
+        <v>6</v>
+      </c>
+      <c r="B77" s="190" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="190">
+        <v>1</v>
+      </c>
+      <c r="D77" s="190">
+        <v>8600</v>
+      </c>
+      <c r="E77" s="190">
+        <f t="shared" si="3"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="190">
+        <v>7</v>
+      </c>
+      <c r="B78" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="190">
+        <v>3</v>
+      </c>
+      <c r="D78" s="190">
+        <v>100</v>
+      </c>
+      <c r="E78" s="190">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="190">
+        <v>8</v>
+      </c>
+      <c r="B79" s="190" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="190">
+        <v>1</v>
+      </c>
+      <c r="D79" s="190">
+        <v>3000</v>
+      </c>
+      <c r="E79" s="190">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="193"/>
+      <c r="C80" s="193"/>
+      <c r="D80" s="194"/>
+      <c r="E80" s="191">
+        <f>SUM(E72:E79)</f>
+        <v>49300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="7"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A80:D80"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23380,12 +24450,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="205" t="s">
+      <c r="A15" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="206"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="207"/>
+      <c r="B15" s="208"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -23631,12 +24701,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="205" t="s">
+      <c r="A31" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="206"/>
-      <c r="C31" s="206"/>
-      <c r="D31" s="207"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="209"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -23857,12 +24927,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="205" t="s">
+      <c r="A9" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="207"/>
+      <c r="B9" s="208"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="209"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -23937,13 +25007,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="208" t="s">
+      <c r="A19" s="210" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="209"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="210"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="212"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -23953,11 +25023,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="211"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="213"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -24072,12 +25142,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="207"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -24292,12 +25362,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="207"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -24466,12 +25536,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="207"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="209"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -24555,12 +25625,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="214" t="s">
+      <c r="A19" s="216" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="214"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -46,8 +46,8 @@
     <sheet name="Golden Tulip 308" sheetId="37" r:id="rId37"/>
     <sheet name="CII 309" sheetId="38" r:id="rId38"/>
     <sheet name="Vatareshwar 310" sheetId="39" r:id="rId39"/>
-    <sheet name="Dev Rodrigues 311" sheetId="40" r:id="rId40"/>
-    <sheet name="Mark 312" sheetId="41" r:id="rId41"/>
+    <sheet name="Dave Rodrigues 311" sheetId="40" r:id="rId40"/>
+    <sheet name="Nazir Shaik 312" sheetId="41" r:id="rId41"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="612">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2126,6 +2126,15 @@
   </si>
   <si>
     <t>Honeywell /Wbox / Dahua or Similar 2MP Bullet Camera</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar 2MP Dome Camera</t>
+  </si>
+  <si>
+    <t>Dahua 2MP Dome Camera</t>
+  </si>
+  <si>
+    <t>Dahua 16CH DVR, Professional series</t>
   </si>
 </sst>
 </file>
@@ -2757,7 +2766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3302,6 +3311,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4197,12 +4215,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="192" t="s">
+      <c r="A18" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="193"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="194"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -4328,12 +4346,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="192" t="s">
+      <c r="A27" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="193"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -4494,12 +4512,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="207" t="s">
+      <c r="A8" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="208"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="212"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -4583,12 +4601,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="216" t="s">
+      <c r="A19" s="219" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="216"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="216"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -4749,12 +4767,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="207" t="s">
+      <c r="A8" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="208"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="212"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4838,20 +4856,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="213" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="211"/>
-      <c r="E19" s="212"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="213"/>
-      <c r="B20" s="214"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
+      <c r="A20" s="216"/>
+      <c r="B20" s="217"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5050,24 +5068,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="207" t="s">
+      <c r="A11" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="208"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="209"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="212"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="219" t="s">
+      <c r="A13" s="222" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="219"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="219"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -5267,12 +5285,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="207" t="s">
+      <c r="A30" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="208"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="209"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -5440,12 +5458,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="217" t="s">
+      <c r="A41" s="220" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="218"/>
-      <c r="C41" s="218"/>
-      <c r="D41" s="218"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="221"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -5680,24 +5698,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="207" t="s">
+      <c r="A11" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="208"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="209"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="212"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="223" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="220"/>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5861,12 +5879,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="207" t="s">
+      <c r="A28" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="208"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="209"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="212"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -6068,48 +6086,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="208"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="209"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="212"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="207" t="s">
+      <c r="A8" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="208"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="212"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="208"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="209"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="208"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="209"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="212"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -6200,48 +6218,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="208"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="209"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="212"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="207" t="s">
+      <c r="A18" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="208"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="209"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="212"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="207" t="s">
+      <c r="A19" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="208"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="209"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="212"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="208"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="209"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="212"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -6324,48 +6342,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="207" t="s">
+      <c r="A27" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="208"/>
-      <c r="C27" s="208"/>
-      <c r="D27" s="209"/>
+      <c r="B27" s="211"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="212"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="207" t="s">
+      <c r="A28" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="208"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="209"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="212"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="207" t="s">
+      <c r="A29" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="208"/>
-      <c r="C29" s="208"/>
-      <c r="D29" s="209"/>
+      <c r="B29" s="211"/>
+      <c r="C29" s="211"/>
+      <c r="D29" s="212"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="207" t="s">
+      <c r="A30" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="208"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="209"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -6553,12 +6571,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -6682,12 +6700,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6847,12 +6865,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="192" t="s">
+      <c r="A38" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="193"/>
-      <c r="C38" s="193"/>
-      <c r="D38" s="194"/>
+      <c r="B38" s="196"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="197"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -7072,12 +7090,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="224" t="s">
+      <c r="A59" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="225"/>
-      <c r="C59" s="225"/>
-      <c r="D59" s="226"/>
+      <c r="B59" s="228"/>
+      <c r="C59" s="228"/>
+      <c r="D59" s="229"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -7089,10 +7107,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="227" t="s">
+      <c r="A63" s="230" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="227"/>
+      <c r="B63" s="230"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -7305,12 +7323,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="192" t="s">
+      <c r="A79" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="193"/>
-      <c r="C79" s="193"/>
-      <c r="D79" s="194"/>
+      <c r="B79" s="196"/>
+      <c r="C79" s="196"/>
+      <c r="D79" s="197"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -7534,12 +7552,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="192" t="s">
+      <c r="A99" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="193"/>
-      <c r="C99" s="193"/>
-      <c r="D99" s="193"/>
+      <c r="B99" s="196"/>
+      <c r="C99" s="196"/>
+      <c r="D99" s="196"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -7685,31 +7703,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="221" t="s">
+      <c r="B116" s="224" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="221"/>
+      <c r="C116" s="224"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="222">
+      <c r="E116" s="225">
         <v>9000</v>
       </c>
-      <c r="F116" s="223"/>
+      <c r="F116" s="226"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="192" t="s">
+      <c r="A117" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="193"/>
-      <c r="C117" s="193"/>
-      <c r="D117" s="193"/>
-      <c r="E117" s="193"/>
-      <c r="F117" s="194"/>
+      <c r="B117" s="196"/>
+      <c r="C117" s="196"/>
+      <c r="D117" s="196"/>
+      <c r="E117" s="196"/>
+      <c r="F117" s="197"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7825,31 +7843,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="221" t="s">
+      <c r="B124" s="224" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="221"/>
+      <c r="C124" s="224"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="206">
+      <c r="E124" s="209">
         <v>9000</v>
       </c>
-      <c r="F124" s="206"/>
+      <c r="F124" s="209"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="228" t="s">
+      <c r="A125" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="229"/>
-      <c r="C125" s="229"/>
-      <c r="D125" s="229"/>
-      <c r="E125" s="229"/>
-      <c r="F125" s="230"/>
+      <c r="B125" s="232"/>
+      <c r="C125" s="232"/>
+      <c r="D125" s="232"/>
+      <c r="E125" s="232"/>
+      <c r="F125" s="233"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7960,31 +7978,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="232" t="s">
+      <c r="B134" s="235" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="233"/>
+      <c r="C134" s="236"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="222">
+      <c r="E134" s="225">
         <v>12000</v>
       </c>
-      <c r="F134" s="223"/>
+      <c r="F134" s="226"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="228" t="s">
+      <c r="A135" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="229"/>
-      <c r="C135" s="229"/>
-      <c r="D135" s="229"/>
-      <c r="E135" s="229"/>
-      <c r="F135" s="230"/>
+      <c r="B135" s="232"/>
+      <c r="C135" s="232"/>
+      <c r="D135" s="232"/>
+      <c r="E135" s="232"/>
+      <c r="F135" s="233"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -8090,31 +8108,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="232" t="s">
+      <c r="B142" s="235" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="233"/>
+      <c r="C142" s="236"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="222">
+      <c r="E142" s="225">
         <v>12000</v>
       </c>
-      <c r="F142" s="223"/>
+      <c r="F142" s="226"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="228" t="s">
+      <c r="A143" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="229"/>
-      <c r="C143" s="229"/>
-      <c r="D143" s="229"/>
-      <c r="E143" s="229"/>
-      <c r="F143" s="230"/>
+      <c r="B143" s="232"/>
+      <c r="C143" s="232"/>
+      <c r="D143" s="232"/>
+      <c r="E143" s="232"/>
+      <c r="F143" s="233"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -8230,41 +8248,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="240" t="s">
+      <c r="B150" s="243" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="241"/>
+      <c r="C150" s="244"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="242">
+      <c r="E150" s="245">
         <v>12000</v>
       </c>
-      <c r="F150" s="243"/>
+      <c r="F150" s="246"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="231" t="s">
+      <c r="A151" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="231"/>
-      <c r="C151" s="231"/>
-      <c r="D151" s="231"/>
-      <c r="E151" s="231"/>
-      <c r="F151" s="231"/>
+      <c r="B151" s="234"/>
+      <c r="C151" s="234"/>
+      <c r="D151" s="234"/>
+      <c r="E151" s="234"/>
+      <c r="F151" s="234"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="244" t="s">
+      <c r="A154" s="247" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="244"/>
+      <c r="B154" s="247"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -8320,12 +8338,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="245" t="s">
+      <c r="A159" s="248" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="246"/>
-      <c r="C159" s="246"/>
-      <c r="D159" s="246"/>
+      <c r="B159" s="249"/>
+      <c r="C159" s="249"/>
+      <c r="D159" s="249"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -8383,12 +8401,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="231" t="s">
+      <c r="A163" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="231"/>
-      <c r="C163" s="231"/>
-      <c r="D163" s="231"/>
+      <c r="B163" s="234"/>
+      <c r="C163" s="234"/>
+      <c r="D163" s="234"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -10574,12 +10592,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="192" t="s">
+      <c r="A241" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="193"/>
-      <c r="C241" s="193"/>
-      <c r="D241" s="194"/>
+      <c r="B241" s="196"/>
+      <c r="C241" s="196"/>
+      <c r="D241" s="197"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -10728,12 +10746,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="192" t="s">
+      <c r="A254" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="193"/>
-      <c r="C254" s="193"/>
-      <c r="D254" s="194"/>
+      <c r="B254" s="196"/>
+      <c r="C254" s="196"/>
+      <c r="D254" s="197"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -10742,22 +10760,22 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="234" t="s">
+      <c r="A257" s="237" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="235"/>
-      <c r="C257" s="235"/>
-      <c r="D257" s="235"/>
-      <c r="E257" s="235"/>
-      <c r="F257" s="236"/>
+      <c r="B257" s="238"/>
+      <c r="C257" s="238"/>
+      <c r="D257" s="238"/>
+      <c r="E257" s="238"/>
+      <c r="F257" s="239"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="237"/>
-      <c r="B258" s="238"/>
-      <c r="C258" s="238"/>
-      <c r="D258" s="238"/>
-      <c r="E258" s="238"/>
-      <c r="F258" s="239"/>
+      <c r="A258" s="240"/>
+      <c r="B258" s="241"/>
+      <c r="C258" s="241"/>
+      <c r="D258" s="241"/>
+      <c r="E258" s="241"/>
+      <c r="F258" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -10998,12 +11016,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="193"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="194"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -11017,13 +11035,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="231" t="s">
+      <c r="A14" s="234" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="231"/>
-      <c r="E14" s="231"/>
+      <c r="B14" s="234"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -11316,25 +11334,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="192" t="s">
+      <c r="A39" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="193"/>
-      <c r="C39" s="193"/>
-      <c r="D39" s="194"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="197"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="231" t="s">
+      <c r="A41" s="234" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="231"/>
-      <c r="C41" s="231"/>
-      <c r="D41" s="231"/>
-      <c r="E41" s="231"/>
+      <c r="B41" s="234"/>
+      <c r="C41" s="234"/>
+      <c r="D41" s="234"/>
+      <c r="E41" s="234"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -11543,12 +11561,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="247" t="s">
+      <c r="A70" s="250" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="248"/>
-      <c r="C70" s="248"/>
-      <c r="D70" s="249"/>
+      <c r="B70" s="251"/>
+      <c r="C70" s="251"/>
+      <c r="D70" s="252"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -11738,12 +11756,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="194"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -11998,12 +12016,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="192" t="s">
+      <c r="A33" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="193"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="194"/>
+      <c r="B33" s="196"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="197"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -12225,12 +12243,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="194"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="197"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -12269,13 +12287,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -12362,105 +12380,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="206" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="205">
+      <c r="C7" s="208">
         <v>2</v>
       </c>
-      <c r="D7" s="203" t="s">
+      <c r="D7" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="206">
+      <c r="E7" s="209">
         <v>567000</v>
       </c>
-      <c r="F7" s="206">
+      <c r="F7" s="209">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="203"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="203"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="205"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="206"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="209"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="203"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="205"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="209"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="203"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="205"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="203"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="205"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="206"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="206"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="209"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="203"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="205"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="206"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="206"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="203"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="205"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="203"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="205"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -12503,13 +12521,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="202"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="205"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -12595,7 +12613,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="203" t="s">
+      <c r="A24" s="206" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -12607,7 +12625,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="203"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -12626,7 +12644,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="203"/>
+      <c r="A26" s="206"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -12645,7 +12663,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="203"/>
+      <c r="A27" s="206"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -12683,13 +12701,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="200" t="s">
+      <c r="B30" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="201"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="201"/>
-      <c r="F30" s="202"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="205"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -12712,7 +12730,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="203" t="s">
+      <c r="A32" s="206" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -12724,7 +12742,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="203"/>
+      <c r="A33" s="206"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12738,7 +12756,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="203"/>
+      <c r="A34" s="206"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12752,7 +12770,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="203"/>
+      <c r="A35" s="206"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12766,7 +12784,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="203"/>
+      <c r="A36" s="206"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12780,7 +12798,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="203" t="s">
+      <c r="A37" s="206" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12792,7 +12810,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="203"/>
+      <c r="A38" s="206"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12811,7 +12829,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="203"/>
+      <c r="A39" s="206"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12830,7 +12848,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="203"/>
+      <c r="A40" s="206"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12849,7 +12867,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="203"/>
+      <c r="A41" s="206"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12868,7 +12886,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="203"/>
+      <c r="A42" s="206"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12909,13 +12927,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="200" t="s">
+      <c r="B45" s="203" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="201"/>
-      <c r="D45" s="201"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="202"/>
+      <c r="C45" s="204"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="205"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -13160,13 +13178,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="197" t="s">
+      <c r="A57" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="198"/>
-      <c r="C57" s="198"/>
-      <c r="D57" s="198"/>
-      <c r="E57" s="199"/>
+      <c r="B57" s="201"/>
+      <c r="C57" s="201"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="202"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -13184,13 +13202,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="195" t="s">
+      <c r="B59" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="195"/>
-      <c r="D59" s="195"/>
-      <c r="E59" s="195"/>
-      <c r="F59" s="195"/>
+      <c r="C59" s="198"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="198"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -13208,13 +13226,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="196" t="s">
+      <c r="B61" s="199" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="196"/>
-      <c r="D61" s="196"/>
-      <c r="E61" s="196"/>
-      <c r="F61" s="196"/>
+      <c r="C61" s="199"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="199"/>
+      <c r="F61" s="199"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -13234,26 +13252,26 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="196" t="s">
+      <c r="B63" s="199" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="196"/>
-      <c r="D63" s="196"/>
-      <c r="E63" s="196"/>
-      <c r="F63" s="196"/>
+      <c r="C63" s="199"/>
+      <c r="D63" s="199"/>
+      <c r="E63" s="199"/>
+      <c r="F63" s="199"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="196" t="s">
+      <c r="B64" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="196"/>
-      <c r="D64" s="196"/>
-      <c r="E64" s="196"/>
-      <c r="F64" s="196"/>
+      <c r="C64" s="199"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="199"/>
+      <c r="F64" s="199"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
@@ -13477,12 +13495,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -13859,12 +13877,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="192" t="s">
+      <c r="A15" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="193"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="194"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -14150,12 +14168,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="192" t="s">
+      <c r="A37" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="193"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="194"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="197"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -14457,12 +14475,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="192" t="s">
+      <c r="A63" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="193"/>
-      <c r="C63" s="193"/>
-      <c r="D63" s="194"/>
+      <c r="B63" s="196"/>
+      <c r="C63" s="196"/>
+      <c r="D63" s="197"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -14575,183 +14593,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="250">
+      <c r="A2" s="253">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="250">
-        <v>1</v>
-      </c>
-      <c r="D2" s="250">
+      <c r="C2" s="253">
+        <v>1</v>
+      </c>
+      <c r="D2" s="253">
         <v>42000</v>
       </c>
-      <c r="E2" s="250">
+      <c r="E2" s="253">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="251"/>
+      <c r="A3" s="254"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="251"/>
+      <c r="A4" s="254"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="251"/>
+      <c r="A5" s="254"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="251"/>
+      <c r="A6" s="254"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="251"/>
+      <c r="A7" s="254"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="251"/>
+      <c r="A8" s="254"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="251"/>
-      <c r="D8" s="251"/>
-      <c r="E8" s="251"/>
+      <c r="C8" s="254"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="251"/>
+      <c r="A9" s="254"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="251"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="251"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="251"/>
+      <c r="A10" s="254"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="254"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="251"/>
+      <c r="A11" s="254"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="251"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="251"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="254"/>
+      <c r="E11" s="254"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="251"/>
+      <c r="A12" s="254"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="251"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="254"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="251"/>
+      <c r="A13" s="254"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="251"/>
+      <c r="A14" s="254"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="251"/>
-      <c r="D14" s="251"/>
-      <c r="E14" s="251"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="254"/>
+      <c r="E14" s="254"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="251"/>
+      <c r="A15" s="254"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="251"/>
-      <c r="D15" s="251"/>
-      <c r="E15" s="251"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="254"/>
+      <c r="E15" s="254"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="251"/>
+      <c r="A16" s="254"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="251"/>
-      <c r="D16" s="251"/>
-      <c r="E16" s="251"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="254"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="251"/>
+      <c r="A17" s="254"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="251"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="251"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="254"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="251"/>
+      <c r="A18" s="254"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="251"/>
-      <c r="D18" s="251"/>
-      <c r="E18" s="251"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="254"/>
+      <c r="E18" s="254"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="252"/>
+      <c r="A19" s="255"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="252"/>
-      <c r="D19" s="252"/>
-      <c r="E19" s="252"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="255"/>
+      <c r="E19" s="255"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="231" t="s">
+      <c r="A20" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="231"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
+      <c r="B20" s="234"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -15067,12 +15085,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="194"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -15325,12 +15343,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -15553,10 +15571,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="254" t="s">
+      <c r="B6" s="257" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="254"/>
+      <c r="C6" s="257"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -15570,13 +15588,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="253" t="s">
+      <c r="A7" s="256" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="253"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="253"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -15732,10 +15750,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="254" t="s">
+      <c r="B26" s="257" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="254"/>
+      <c r="C26" s="257"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -15749,13 +15767,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="253" t="s">
+      <c r="A27" s="256" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="253"/>
-      <c r="C27" s="253"/>
-      <c r="D27" s="253"/>
-      <c r="E27" s="253"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
+      <c r="E27" s="256"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -15967,12 +15985,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="194"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -16262,12 +16280,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="192" t="s">
+      <c r="A37" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="193"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="194"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="197"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -16534,12 +16552,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="194"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="145">
         <f>SUM(E3:E10)</f>
         <v>99820</v>
@@ -16856,12 +16874,12 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="192" t="s">
+      <c r="A36" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="193"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="194"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="197"/>
       <c r="E36" s="145">
         <f>SUM(E27:E35)</f>
         <v>56780</v>
@@ -17117,12 +17135,12 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="192" t="s">
+      <c r="A55" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="193"/>
-      <c r="C55" s="193"/>
-      <c r="D55" s="194"/>
+      <c r="B55" s="196"/>
+      <c r="C55" s="196"/>
+      <c r="D55" s="197"/>
       <c r="E55" s="145">
         <f>SUM(E46:E54)</f>
         <v>86940</v>
@@ -17316,12 +17334,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="192" t="s">
+      <c r="A68" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="193"/>
-      <c r="C68" s="193"/>
-      <c r="D68" s="194"/>
+      <c r="B68" s="196"/>
+      <c r="C68" s="196"/>
+      <c r="D68" s="197"/>
       <c r="E68" s="145">
         <f>SUM(E59:E67)</f>
         <v>49380</v>
@@ -17342,7 +17360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -17513,12 +17531,12 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="147">
         <f>SUM(E3:E9)</f>
         <v>69770</v>
@@ -17803,12 +17821,12 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="192" t="s">
+      <c r="A36" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="193"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="194"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="197"/>
       <c r="E36" s="147">
         <f>SUM(E29:E35)</f>
         <v>66840</v>
@@ -17896,7 +17914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -17935,165 +17953,165 @@
       <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="255">
+      <c r="A3" s="258">
         <v>1</v>
       </c>
       <c r="B3" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="255">
-        <v>1</v>
-      </c>
-      <c r="D3" s="255">
+      <c r="C3" s="258">
+        <v>1</v>
+      </c>
+      <c r="D3" s="258">
         <v>75900</v>
       </c>
-      <c r="E3" s="255">
+      <c r="E3" s="258">
         <f>C3*D3</f>
         <v>75900</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="256"/>
+      <c r="A4" s="259"/>
       <c r="B4" s="152" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="256"/>
+      <c r="A5" s="259"/>
       <c r="B5" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="256"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="256"/>
+      <c r="A6" s="259"/>
       <c r="B6" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="256"/>
+      <c r="A7" s="259"/>
       <c r="B7" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="259"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="256"/>
+      <c r="A8" s="259"/>
       <c r="B8" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="256"/>
+      <c r="A9" s="259"/>
       <c r="B9" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="256"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="259"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="256"/>
+      <c r="A10" s="259"/>
       <c r="B10" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="256"/>
-      <c r="D10" s="256"/>
-      <c r="E10" s="256"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="256"/>
+      <c r="A11" s="259"/>
       <c r="B11" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="256"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="256"/>
+      <c r="A12" s="259"/>
       <c r="B12" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
+      <c r="C12" s="259"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="259"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="256"/>
+      <c r="A13" s="259"/>
       <c r="B13" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
+      <c r="C13" s="259"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="259"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="256"/>
+      <c r="A14" s="259"/>
       <c r="B14" s="152" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="256"/>
+      <c r="A15" s="259"/>
       <c r="B15" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
+      <c r="C15" s="259"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="256"/>
+      <c r="A16" s="259"/>
       <c r="B16" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="256"/>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
+      <c r="C16" s="259"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="256"/>
+      <c r="A17" s="259"/>
       <c r="B17" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="257"/>
+      <c r="A18" s="260"/>
       <c r="B18" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C18" s="257"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="257"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="260" t="s">
+      <c r="A19" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="261"/>
-      <c r="C19" s="261"/>
-      <c r="D19" s="262"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="265"/>
       <c r="E19" s="153">
         <f>SUM(E3)</f>
         <v>75900</v>
@@ -18120,7 +18138,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.8">
-      <c r="A27" s="258">
+      <c r="A27" s="261">
         <v>1</v>
       </c>
       <c r="B27" s="152" t="s">
@@ -18132,16 +18150,16 @@
       <c r="D27" s="149">
         <v>1</v>
       </c>
-      <c r="E27" s="258">
+      <c r="E27" s="261">
         <v>69000</v>
       </c>
-      <c r="F27" s="258">
+      <c r="F27" s="261">
         <f>D27*E27</f>
         <v>69000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="262.2">
-      <c r="A28" s="258"/>
+      <c r="A28" s="261"/>
       <c r="B28" s="152" t="s">
         <v>475</v>
       </c>
@@ -18151,11 +18169,11 @@
       <c r="D28" s="149">
         <v>1</v>
       </c>
-      <c r="E28" s="258"/>
-      <c r="F28" s="258"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="261"/>
     </row>
     <row r="29" spans="1:6" ht="124.2">
-      <c r="A29" s="258"/>
+      <c r="A29" s="261"/>
       <c r="B29" s="152" t="s">
         <v>477</v>
       </c>
@@ -18165,11 +18183,11 @@
       <c r="D29" s="149">
         <v>1</v>
       </c>
-      <c r="E29" s="258"/>
-      <c r="F29" s="258"/>
+      <c r="E29" s="261"/>
+      <c r="F29" s="261"/>
     </row>
     <row r="30" spans="1:6" ht="248.4">
-      <c r="A30" s="258"/>
+      <c r="A30" s="261"/>
       <c r="B30" s="152" t="s">
         <v>479</v>
       </c>
@@ -18179,11 +18197,11 @@
       <c r="D30" s="149">
         <v>1</v>
       </c>
-      <c r="E30" s="258"/>
-      <c r="F30" s="258"/>
+      <c r="E30" s="261"/>
+      <c r="F30" s="261"/>
     </row>
     <row r="31" spans="1:6" ht="69">
-      <c r="A31" s="258"/>
+      <c r="A31" s="261"/>
       <c r="B31" s="152" t="s">
         <v>481</v>
       </c>
@@ -18193,11 +18211,11 @@
       <c r="D31" s="149">
         <v>1</v>
       </c>
-      <c r="E31" s="258"/>
-      <c r="F31" s="258"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="261"/>
     </row>
     <row r="32" spans="1:6" ht="179.4">
-      <c r="A32" s="258"/>
+      <c r="A32" s="261"/>
       <c r="B32" s="152" t="s">
         <v>483</v>
       </c>
@@ -18207,11 +18225,11 @@
       <c r="D32" s="149">
         <v>1</v>
       </c>
-      <c r="E32" s="258"/>
-      <c r="F32" s="258"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="261"/>
     </row>
     <row r="33" spans="1:6" ht="82.8">
-      <c r="A33" s="258"/>
+      <c r="A33" s="261"/>
       <c r="B33" s="152" t="s">
         <v>483</v>
       </c>
@@ -18221,11 +18239,11 @@
       <c r="D33" s="149">
         <v>1</v>
       </c>
-      <c r="E33" s="258"/>
-      <c r="F33" s="258"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="261"/>
     </row>
     <row r="34" spans="1:6" ht="96.6">
-      <c r="A34" s="258"/>
+      <c r="A34" s="261"/>
       <c r="B34" s="152" t="s">
         <v>483</v>
       </c>
@@ -18235,11 +18253,11 @@
       <c r="D34" s="149">
         <v>1</v>
       </c>
-      <c r="E34" s="258"/>
-      <c r="F34" s="258"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="261"/>
     </row>
     <row r="35" spans="1:6" ht="234.6">
-      <c r="A35" s="258"/>
+      <c r="A35" s="261"/>
       <c r="B35" s="152" t="s">
         <v>487</v>
       </c>
@@ -18249,11 +18267,11 @@
       <c r="D35" s="149">
         <v>1</v>
       </c>
-      <c r="E35" s="258"/>
-      <c r="F35" s="258"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="261"/>
     </row>
     <row r="36" spans="1:6" ht="165.6">
-      <c r="A36" s="258"/>
+      <c r="A36" s="261"/>
       <c r="B36" s="152" t="s">
         <v>489</v>
       </c>
@@ -18263,11 +18281,11 @@
       <c r="D36" s="149">
         <v>1</v>
       </c>
-      <c r="E36" s="258"/>
-      <c r="F36" s="258"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="261"/>
     </row>
     <row r="37" spans="1:6" ht="27.6">
-      <c r="A37" s="258"/>
+      <c r="A37" s="261"/>
       <c r="B37" s="152" t="s">
         <v>493</v>
       </c>
@@ -18277,11 +18295,11 @@
       <c r="D37" s="149">
         <v>1</v>
       </c>
-      <c r="E37" s="258"/>
-      <c r="F37" s="258"/>
+      <c r="E37" s="261"/>
+      <c r="F37" s="261"/>
     </row>
     <row r="38" spans="1:6" ht="82.8">
-      <c r="A38" s="258"/>
+      <c r="A38" s="261"/>
       <c r="B38" s="152" t="s">
         <v>494</v>
       </c>
@@ -18291,11 +18309,11 @@
       <c r="D38" s="149">
         <v>1</v>
       </c>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
+      <c r="E38" s="261"/>
+      <c r="F38" s="261"/>
     </row>
     <row r="39" spans="1:6" ht="55.2">
-      <c r="A39" s="258"/>
+      <c r="A39" s="261"/>
       <c r="B39" s="152" t="s">
         <v>495</v>
       </c>
@@ -18305,11 +18323,11 @@
       <c r="D39" s="149">
         <v>1</v>
       </c>
-      <c r="E39" s="258"/>
-      <c r="F39" s="258"/>
+      <c r="E39" s="261"/>
+      <c r="F39" s="261"/>
     </row>
     <row r="40" spans="1:6" ht="138">
-      <c r="A40" s="258"/>
+      <c r="A40" s="261"/>
       <c r="B40" s="152" t="s">
         <v>497</v>
       </c>
@@ -18319,11 +18337,11 @@
       <c r="D40" s="149">
         <v>1</v>
       </c>
-      <c r="E40" s="258"/>
-      <c r="F40" s="258"/>
+      <c r="E40" s="261"/>
+      <c r="F40" s="261"/>
     </row>
     <row r="41" spans="1:6" ht="96.6">
-      <c r="A41" s="258"/>
+      <c r="A41" s="261"/>
       <c r="B41" s="152" t="s">
         <v>499</v>
       </c>
@@ -18333,11 +18351,11 @@
       <c r="D41" s="149">
         <v>1</v>
       </c>
-      <c r="E41" s="258"/>
-      <c r="F41" s="258"/>
+      <c r="E41" s="261"/>
+      <c r="F41" s="261"/>
     </row>
     <row r="42" spans="1:6" ht="317.39999999999998">
-      <c r="A42" s="258"/>
+      <c r="A42" s="261"/>
       <c r="B42" s="152" t="s">
         <v>501</v>
       </c>
@@ -18347,11 +18365,11 @@
       <c r="D42" s="149">
         <v>1</v>
       </c>
-      <c r="E42" s="258"/>
-      <c r="F42" s="258"/>
+      <c r="E42" s="261"/>
+      <c r="F42" s="261"/>
     </row>
     <row r="43" spans="1:6" ht="69">
-      <c r="A43" s="258"/>
+      <c r="A43" s="261"/>
       <c r="B43" s="152" t="s">
         <v>501</v>
       </c>
@@ -18361,11 +18379,11 @@
       <c r="D43" s="149">
         <v>1</v>
       </c>
-      <c r="E43" s="258"/>
-      <c r="F43" s="258"/>
+      <c r="E43" s="261"/>
+      <c r="F43" s="261"/>
     </row>
     <row r="44" spans="1:6" ht="193.2">
-      <c r="A44" s="258"/>
+      <c r="A44" s="261"/>
       <c r="B44" s="152" t="s">
         <v>501</v>
       </c>
@@ -18375,11 +18393,11 @@
       <c r="D44" s="149">
         <v>1</v>
       </c>
-      <c r="E44" s="258"/>
-      <c r="F44" s="258"/>
+      <c r="E44" s="261"/>
+      <c r="F44" s="261"/>
     </row>
     <row r="45" spans="1:6" ht="234.6">
-      <c r="A45" s="258"/>
+      <c r="A45" s="261"/>
       <c r="B45" s="152" t="s">
         <v>505</v>
       </c>
@@ -18389,11 +18407,11 @@
       <c r="D45" s="149">
         <v>1</v>
       </c>
-      <c r="E45" s="258"/>
-      <c r="F45" s="258"/>
+      <c r="E45" s="261"/>
+      <c r="F45" s="261"/>
     </row>
     <row r="46" spans="1:6" ht="69">
-      <c r="A46" s="258"/>
+      <c r="A46" s="261"/>
       <c r="B46" s="152" t="s">
         <v>507</v>
       </c>
@@ -18403,11 +18421,11 @@
       <c r="D46" s="149">
         <v>1</v>
       </c>
-      <c r="E46" s="258"/>
-      <c r="F46" s="258"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="261"/>
     </row>
     <row r="47" spans="1:6" ht="110.4">
-      <c r="A47" s="258"/>
+      <c r="A47" s="261"/>
       <c r="B47" s="152" t="s">
         <v>509</v>
       </c>
@@ -18417,11 +18435,11 @@
       <c r="D47" s="149">
         <v>1</v>
       </c>
-      <c r="E47" s="258"/>
-      <c r="F47" s="258"/>
+      <c r="E47" s="261"/>
+      <c r="F47" s="261"/>
     </row>
     <row r="48" spans="1:6" ht="96.6">
-      <c r="A48" s="258"/>
+      <c r="A48" s="261"/>
       <c r="B48" s="152" t="s">
         <v>509</v>
       </c>
@@ -18431,11 +18449,11 @@
       <c r="D48" s="149">
         <v>1</v>
       </c>
-      <c r="E48" s="258"/>
-      <c r="F48" s="258"/>
+      <c r="E48" s="261"/>
+      <c r="F48" s="261"/>
     </row>
     <row r="49" spans="1:6" ht="110.4">
-      <c r="A49" s="258"/>
+      <c r="A49" s="261"/>
       <c r="B49" s="152" t="s">
         <v>512</v>
       </c>
@@ -18445,11 +18463,11 @@
       <c r="D49" s="149">
         <v>1</v>
       </c>
-      <c r="E49" s="258"/>
-      <c r="F49" s="258"/>
+      <c r="E49" s="261"/>
+      <c r="F49" s="261"/>
     </row>
     <row r="50" spans="1:6" ht="165.6">
-      <c r="A50" s="258"/>
+      <c r="A50" s="261"/>
       <c r="B50" s="152" t="s">
         <v>514</v>
       </c>
@@ -18459,11 +18477,11 @@
       <c r="D50" s="149">
         <v>1</v>
       </c>
-      <c r="E50" s="258"/>
-      <c r="F50" s="258"/>
+      <c r="E50" s="261"/>
+      <c r="F50" s="261"/>
     </row>
     <row r="51" spans="1:6" ht="165.6">
-      <c r="A51" s="258"/>
+      <c r="A51" s="261"/>
       <c r="B51" s="152" t="s">
         <v>516</v>
       </c>
@@ -18473,11 +18491,11 @@
       <c r="D51" s="149">
         <v>1</v>
       </c>
-      <c r="E51" s="258"/>
-      <c r="F51" s="258"/>
+      <c r="E51" s="261"/>
+      <c r="F51" s="261"/>
     </row>
     <row r="52" spans="1:6" ht="151.80000000000001">
-      <c r="A52" s="258"/>
+      <c r="A52" s="261"/>
       <c r="B52" s="152" t="s">
         <v>518</v>
       </c>
@@ -18487,11 +18505,11 @@
       <c r="D52" s="149">
         <v>1</v>
       </c>
-      <c r="E52" s="258"/>
-      <c r="F52" s="258"/>
+      <c r="E52" s="261"/>
+      <c r="F52" s="261"/>
     </row>
     <row r="53" spans="1:6" ht="55.2">
-      <c r="A53" s="258"/>
+      <c r="A53" s="261"/>
       <c r="B53" s="152" t="s">
         <v>520</v>
       </c>
@@ -18501,11 +18519,11 @@
       <c r="D53" s="149">
         <v>1</v>
       </c>
-      <c r="E53" s="258"/>
-      <c r="F53" s="258"/>
+      <c r="E53" s="261"/>
+      <c r="F53" s="261"/>
     </row>
     <row r="54" spans="1:6" ht="82.8">
-      <c r="A54" s="258"/>
+      <c r="A54" s="261"/>
       <c r="B54" s="152" t="s">
         <v>523</v>
       </c>
@@ -18515,11 +18533,11 @@
       <c r="D54" s="149">
         <v>1</v>
       </c>
-      <c r="E54" s="258"/>
-      <c r="F54" s="258"/>
+      <c r="E54" s="261"/>
+      <c r="F54" s="261"/>
     </row>
     <row r="55" spans="1:6" ht="96.6">
-      <c r="A55" s="258"/>
+      <c r="A55" s="261"/>
       <c r="B55" s="152" t="s">
         <v>524</v>
       </c>
@@ -18529,11 +18547,11 @@
       <c r="D55" s="149">
         <v>1</v>
       </c>
-      <c r="E55" s="258"/>
-      <c r="F55" s="258"/>
+      <c r="E55" s="261"/>
+      <c r="F55" s="261"/>
     </row>
     <row r="56" spans="1:6" ht="82.8">
-      <c r="A56" s="258"/>
+      <c r="A56" s="261"/>
       <c r="B56" s="152" t="s">
         <v>526</v>
       </c>
@@ -18543,11 +18561,11 @@
       <c r="D56" s="149">
         <v>1</v>
       </c>
-      <c r="E56" s="258"/>
-      <c r="F56" s="258"/>
+      <c r="E56" s="261"/>
+      <c r="F56" s="261"/>
     </row>
     <row r="57" spans="1:6" ht="41.4">
-      <c r="A57" s="258"/>
+      <c r="A57" s="261"/>
       <c r="B57" s="150" t="s">
         <v>418</v>
       </c>
@@ -18555,11 +18573,11 @@
         <v>1</v>
       </c>
       <c r="D57" s="149"/>
-      <c r="E57" s="258"/>
-      <c r="F57" s="258"/>
+      <c r="E57" s="261"/>
+      <c r="F57" s="261"/>
     </row>
     <row r="58" spans="1:6" ht="82.8">
-      <c r="A58" s="258"/>
+      <c r="A58" s="261"/>
       <c r="B58" s="152" t="s">
         <v>528</v>
       </c>
@@ -18569,11 +18587,11 @@
       <c r="D58" s="149">
         <v>1</v>
       </c>
-      <c r="E58" s="258"/>
-      <c r="F58" s="258"/>
+      <c r="E58" s="261"/>
+      <c r="F58" s="261"/>
     </row>
     <row r="59" spans="1:6" ht="41.4">
-      <c r="A59" s="258"/>
+      <c r="A59" s="261"/>
       <c r="B59" s="152" t="s">
         <v>501</v>
       </c>
@@ -18583,11 +18601,11 @@
       <c r="D59" s="149">
         <v>1</v>
       </c>
-      <c r="E59" s="258"/>
-      <c r="F59" s="258"/>
+      <c r="E59" s="261"/>
+      <c r="F59" s="261"/>
     </row>
     <row r="60" spans="1:6" ht="138">
-      <c r="A60" s="258"/>
+      <c r="A60" s="261"/>
       <c r="B60" s="152" t="s">
         <v>501</v>
       </c>
@@ -18597,11 +18615,11 @@
       <c r="D60" s="149">
         <v>1</v>
       </c>
-      <c r="E60" s="258"/>
-      <c r="F60" s="258"/>
+      <c r="E60" s="261"/>
+      <c r="F60" s="261"/>
     </row>
     <row r="61" spans="1:6" ht="69">
-      <c r="A61" s="258"/>
+      <c r="A61" s="261"/>
       <c r="B61" s="152" t="s">
         <v>501</v>
       </c>
@@ -18611,11 +18629,11 @@
       <c r="D61" s="149">
         <v>1</v>
       </c>
-      <c r="E61" s="258"/>
-      <c r="F61" s="258"/>
+      <c r="E61" s="261"/>
+      <c r="F61" s="261"/>
     </row>
     <row r="62" spans="1:6" ht="110.4">
-      <c r="A62" s="258"/>
+      <c r="A62" s="261"/>
       <c r="B62" s="152" t="s">
         <v>501</v>
       </c>
@@ -18625,11 +18643,11 @@
       <c r="D62" s="149">
         <v>1</v>
       </c>
-      <c r="E62" s="258"/>
-      <c r="F62" s="258"/>
+      <c r="E62" s="261"/>
+      <c r="F62" s="261"/>
     </row>
     <row r="63" spans="1:6" ht="96.6">
-      <c r="A63" s="258"/>
+      <c r="A63" s="261"/>
       <c r="B63" s="152" t="s">
         <v>534</v>
       </c>
@@ -18639,11 +18657,11 @@
       <c r="D63" s="149">
         <v>1</v>
       </c>
-      <c r="E63" s="258"/>
-      <c r="F63" s="258"/>
+      <c r="E63" s="261"/>
+      <c r="F63" s="261"/>
     </row>
     <row r="64" spans="1:6" ht="110.4">
-      <c r="A64" s="258"/>
+      <c r="A64" s="261"/>
       <c r="B64" s="152" t="s">
         <v>536</v>
       </c>
@@ -18653,11 +18671,11 @@
       <c r="D64" s="149">
         <v>1</v>
       </c>
-      <c r="E64" s="258"/>
-      <c r="F64" s="258"/>
+      <c r="E64" s="261"/>
+      <c r="F64" s="261"/>
     </row>
     <row r="65" spans="1:6" ht="41.4">
-      <c r="A65" s="258"/>
+      <c r="A65" s="261"/>
       <c r="B65" s="150" t="s">
         <v>538</v>
       </c>
@@ -18665,11 +18683,11 @@
         <v>1</v>
       </c>
       <c r="D65" s="149"/>
-      <c r="E65" s="258"/>
-      <c r="F65" s="258"/>
+      <c r="E65" s="261"/>
+      <c r="F65" s="261"/>
     </row>
     <row r="66" spans="1:6" ht="124.2">
-      <c r="A66" s="258"/>
+      <c r="A66" s="261"/>
       <c r="B66" s="152" t="s">
         <v>540</v>
       </c>
@@ -18679,11 +18697,11 @@
       <c r="D66" s="149">
         <v>1</v>
       </c>
-      <c r="E66" s="258"/>
-      <c r="F66" s="258"/>
+      <c r="E66" s="261"/>
+      <c r="F66" s="261"/>
     </row>
     <row r="67" spans="1:6" ht="151.80000000000001">
-      <c r="A67" s="258"/>
+      <c r="A67" s="261"/>
       <c r="B67" s="152" t="s">
         <v>541</v>
       </c>
@@ -18693,17 +18711,17 @@
       <c r="D67" s="149">
         <v>1</v>
       </c>
-      <c r="E67" s="258"/>
-      <c r="F67" s="258"/>
+      <c r="E67" s="261"/>
+      <c r="F67" s="261"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="259" t="s">
+      <c r="A68" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="259"/>
-      <c r="C68" s="259"/>
-      <c r="D68" s="259"/>
-      <c r="E68" s="259"/>
+      <c r="B68" s="262"/>
+      <c r="C68" s="262"/>
+      <c r="D68" s="262"/>
+      <c r="E68" s="262"/>
       <c r="F68" s="150">
         <f>SUM(F27:F27)</f>
         <v>69000</v>
@@ -18814,48 +18832,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="208"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="209"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="212"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="212"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="208"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="209"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="212"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="207" t="s">
+      <c r="A8" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="208"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="212"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -18918,11 +18936,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
+      <c r="B3" s="262"/>
+      <c r="C3" s="262"/>
       <c r="D3" s="153">
         <f>SUM(D2)</f>
         <v>45000</v>
@@ -18940,8 +18958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19117,12 +19135,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="158">
         <f>SUM(E2:E9)</f>
         <v>82970</v>
@@ -19404,12 +19422,12 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="192" t="s">
+      <c r="A36" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="193"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="194"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="197"/>
       <c r="E36" s="158">
         <f>SUM(E28:E35)</f>
         <v>82850</v>
@@ -19522,7 +19540,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19708,12 +19726,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="194"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="162">
         <f>SUM(E3:E10)</f>
         <v>152800</v>
@@ -19989,12 +20007,12 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="192" t="s">
+      <c r="A35" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="193"/>
-      <c r="C35" s="193"/>
-      <c r="D35" s="194"/>
+      <c r="B35" s="196"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="197"/>
       <c r="E35" s="162">
         <f>SUM(E27:E34)</f>
         <v>95050</v>
@@ -20235,12 +20253,12 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="192" t="s">
+      <c r="A59" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="193"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="194"/>
+      <c r="B59" s="196"/>
+      <c r="C59" s="196"/>
+      <c r="D59" s="197"/>
       <c r="E59" s="162">
         <f>SUM(E51:E58)</f>
         <v>139220</v>
@@ -20495,12 +20513,12 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="192" t="s">
+      <c r="A82" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="193"/>
-      <c r="C82" s="193"/>
-      <c r="D82" s="194"/>
+      <c r="B82" s="196"/>
+      <c r="C82" s="196"/>
+      <c r="D82" s="197"/>
       <c r="E82" s="162">
         <f>SUM(E74:E81)</f>
         <v>82350</v>
@@ -20625,48 +20643,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
       <c r="E3" s="166">
         <f>SUM(E2)</f>
         <v>27900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="266" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267"/>
       <c r="E4" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="263" t="s">
+      <c r="A5" s="266" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="264"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="263" t="s">
+      <c r="A6" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="264"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
+      <c r="B6" s="267"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
       <c r="E6" s="166">
         <f>SUM(E3:E5)</f>
         <v>32922</v>
@@ -20871,12 +20889,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="168">
         <f>SUM(E2:E9)</f>
         <v>79850</v>
@@ -21107,12 +21125,12 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="192" t="s">
+      <c r="A30" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="193"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="194"/>
+      <c r="B30" s="196"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="197"/>
       <c r="E30" s="170">
         <f>SUM(E23:E29)</f>
         <v>49710</v>
@@ -21365,12 +21383,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
       <c r="E9" s="172">
         <f>SUM(E3:E8)</f>
         <v>347036</v>
@@ -21576,12 +21594,12 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="265" t="s">
+      <c r="A23" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="265"/>
-      <c r="C23" s="265"/>
-      <c r="D23" s="265"/>
+      <c r="B23" s="268"/>
+      <c r="C23" s="268"/>
+      <c r="D23" s="268"/>
       <c r="E23" s="175">
         <f>SUM(E16:E22)</f>
         <v>728300</v>
@@ -21803,12 +21821,12 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="266" t="s">
+      <c r="A39" s="269" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="267"/>
-      <c r="C39" s="267"/>
-      <c r="D39" s="268"/>
+      <c r="B39" s="270"/>
+      <c r="C39" s="270"/>
+      <c r="D39" s="271"/>
       <c r="E39" s="175">
         <f>SUM(E32:E38)</f>
         <v>661616</v>
@@ -22030,12 +22048,12 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="177">
         <f>SUM(E2:E9)</f>
         <v>32840</v>
@@ -22288,12 +22306,12 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="192" t="s">
+      <c r="A29" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="193"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="197"/>
       <c r="E29" s="177">
         <f>SUM(E21:E28)</f>
         <v>28840</v>
@@ -22441,12 +22459,12 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="269" t="s">
+      <c r="A5" s="272" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="270"/>
-      <c r="C5" s="270"/>
-      <c r="D5" s="271"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="274"/>
       <c r="E5" s="182">
         <f>SUM(E3:E4)</f>
         <v>190000</v>
@@ -22518,12 +22536,12 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="269" t="s">
+      <c r="A12" s="272" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="270"/>
-      <c r="C12" s="270"/>
-      <c r="D12" s="271"/>
+      <c r="B12" s="273"/>
+      <c r="C12" s="273"/>
+      <c r="D12" s="274"/>
       <c r="E12" s="182">
         <f>SUM(E10:E11)</f>
         <v>40000</v>
@@ -22543,7 +22561,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22624,10 +22642,10 @@
       <c r="A5" s="183">
         <v>3</v>
       </c>
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="276" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="274"/>
+      <c r="C5" s="277"/>
       <c r="D5" s="183">
         <v>1</v>
       </c>
@@ -22643,10 +22661,10 @@
       <c r="A6" s="183">
         <v>4</v>
       </c>
-      <c r="B6" s="273" t="s">
+      <c r="B6" s="276" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="274"/>
+      <c r="C6" s="277"/>
       <c r="D6" s="183">
         <v>1</v>
       </c>
@@ -22659,13 +22677,13 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="272" t="s">
+      <c r="A7" s="275" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="272"/>
-      <c r="C7" s="272"/>
-      <c r="D7" s="272"/>
-      <c r="E7" s="272"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
       <c r="F7" s="182">
         <f>SUM(F3:F6)</f>
         <v>96000</v>
@@ -22721,10 +22739,10 @@
       <c r="A12" s="183">
         <v>2</v>
       </c>
-      <c r="B12" s="273" t="s">
+      <c r="B12" s="276" t="s">
         <v>593</v>
       </c>
-      <c r="C12" s="274"/>
+      <c r="C12" s="277"/>
       <c r="D12" s="183">
         <v>1</v>
       </c>
@@ -22740,10 +22758,10 @@
       <c r="A13" s="183">
         <v>3</v>
       </c>
-      <c r="B13" s="273" t="s">
+      <c r="B13" s="276" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="274"/>
+      <c r="C13" s="277"/>
       <c r="D13" s="183">
         <v>1</v>
       </c>
@@ -22756,13 +22774,13 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="272" t="s">
+      <c r="A14" s="275" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="272"/>
-      <c r="C14" s="272"/>
-      <c r="D14" s="272"/>
-      <c r="E14" s="272"/>
+      <c r="B14" s="275"/>
+      <c r="C14" s="275"/>
+      <c r="D14" s="275"/>
+      <c r="E14" s="275"/>
       <c r="F14" s="182">
         <f>SUM(F11:F13)</f>
         <v>61500</v>
@@ -22978,12 +22996,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="194"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="197"/>
       <c r="E9" s="189">
         <f>SUM(E2:E8)</f>
         <v>19920</v>
@@ -23117,12 +23135,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="208"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="209"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -23140,8 +23158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23305,12 +23323,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="191">
         <f>SUM(E3:E9)</f>
         <v>37490</v>
@@ -23586,12 +23604,12 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="192" t="s">
+      <c r="A34" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="193"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="194"/>
+      <c r="B34" s="196"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="197"/>
       <c r="E34" s="191">
         <f>SUM(E26:E33)</f>
         <v>19470</v>
@@ -23814,12 +23832,12 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="192" t="s">
+      <c r="A57" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="193"/>
-      <c r="C57" s="193"/>
-      <c r="D57" s="194"/>
+      <c r="B57" s="196"/>
+      <c r="C57" s="196"/>
+      <c r="D57" s="197"/>
       <c r="E57" s="191">
         <f>SUM(E50:E56)</f>
         <v>54320</v>
@@ -24074,12 +24092,12 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="192" t="s">
+      <c r="A80" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="193"/>
-      <c r="C80" s="193"/>
-      <c r="D80" s="194"/>
+      <c r="B80" s="196"/>
+      <c r="C80" s="196"/>
+      <c r="D80" s="197"/>
       <c r="E80" s="191">
         <f>SUM(E72:E79)</f>
         <v>49300</v>
@@ -24157,14 +24175,565 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="193" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="193" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="193" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1">
+      <c r="A3" s="192">
+        <v>1</v>
+      </c>
+      <c r="B3" s="192" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" s="194">
+        <v>5</v>
+      </c>
+      <c r="D3" s="192">
+        <v>2460</v>
+      </c>
+      <c r="E3" s="192">
+        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
+        <v>12300</v>
+      </c>
+      <c r="I3">
+        <f>1230*2</f>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="192">
+        <v>2</v>
+      </c>
+      <c r="B4" s="192" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="194">
+        <v>6</v>
+      </c>
+      <c r="D4" s="192">
+        <v>2340</v>
+      </c>
+      <c r="E4" s="192">
+        <f t="shared" si="0"/>
+        <v>14040</v>
+      </c>
+      <c r="I4">
+        <f>1170*2</f>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26.4">
+      <c r="A5" s="192">
+        <v>3</v>
+      </c>
+      <c r="B5" s="192" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" s="194">
+        <v>1</v>
+      </c>
+      <c r="D5" s="192">
+        <v>10640</v>
+      </c>
+      <c r="E5" s="192">
+        <f t="shared" si="0"/>
+        <v>10640</v>
+      </c>
+      <c r="I5">
+        <f>5320*2</f>
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="192">
+        <v>4</v>
+      </c>
+      <c r="B6" s="192" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="194">
+        <v>22</v>
+      </c>
+      <c r="D6" s="192">
+        <v>60</v>
+      </c>
+      <c r="E6" s="192">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="192">
+        <v>5</v>
+      </c>
+      <c r="B7" s="192" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="194">
+        <v>11</v>
+      </c>
+      <c r="D7" s="192">
+        <v>50</v>
+      </c>
+      <c r="E7" s="192">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="192">
+        <v>6</v>
+      </c>
+      <c r="B8" s="192" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="194">
+        <v>1</v>
+      </c>
+      <c r="D8" s="192">
+        <v>900</v>
+      </c>
+      <c r="E8" s="192">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="192">
+        <v>7</v>
+      </c>
+      <c r="B9" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="194">
+        <v>1</v>
+      </c>
+      <c r="D9" s="192">
+        <v>5900</v>
+      </c>
+      <c r="E9" s="192">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="192">
+        <v>8</v>
+      </c>
+      <c r="B10" s="192" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="194">
+        <v>11</v>
+      </c>
+      <c r="D10" s="192">
+        <v>100</v>
+      </c>
+      <c r="E10" s="192">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="192">
+        <v>9</v>
+      </c>
+      <c r="B11" s="192" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="194">
+        <v>1</v>
+      </c>
+      <c r="D11" s="192">
+        <v>5900</v>
+      </c>
+      <c r="E11" s="192">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="195" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="193">
+        <f>SUM(E3:E11)</f>
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="193" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="193" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="193" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="192">
+        <v>1</v>
+      </c>
+      <c r="B25" s="192" t="s">
+        <v>550</v>
+      </c>
+      <c r="C25" s="192">
+        <v>5</v>
+      </c>
+      <c r="D25" s="192">
+        <v>1800</v>
+      </c>
+      <c r="E25" s="192">
+        <f t="shared" ref="E25:E33" si="1">C25*D25</f>
+        <v>9000</v>
+      </c>
+      <c r="I25">
+        <f>900*2</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="192">
+        <v>2</v>
+      </c>
+      <c r="B26" s="192" t="s">
+        <v>610</v>
+      </c>
+      <c r="C26" s="192">
+        <v>6</v>
+      </c>
+      <c r="D26" s="192">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="192">
+        <f t="shared" si="1"/>
+        <v>9600</v>
+      </c>
+      <c r="I26">
+        <f>800*2</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="192">
+        <v>3</v>
+      </c>
+      <c r="B27" s="192" t="s">
+        <v>611</v>
+      </c>
+      <c r="C27" s="192">
+        <v>1</v>
+      </c>
+      <c r="D27" s="192">
+        <v>10440</v>
+      </c>
+      <c r="E27" s="192">
+        <f t="shared" si="1"/>
+        <v>10440</v>
+      </c>
+      <c r="I27">
+        <f>5220*2</f>
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="192">
+        <v>4</v>
+      </c>
+      <c r="B28" s="192" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="192">
+        <v>22</v>
+      </c>
+      <c r="D28" s="192">
+        <v>60</v>
+      </c>
+      <c r="E28" s="192">
+        <f t="shared" si="1"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="192">
+        <v>5</v>
+      </c>
+      <c r="B29" s="192" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="192">
+        <v>11</v>
+      </c>
+      <c r="D29" s="192">
+        <v>50</v>
+      </c>
+      <c r="E29" s="192">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="192">
+        <v>6</v>
+      </c>
+      <c r="B30" s="192" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="192">
+        <v>1</v>
+      </c>
+      <c r="D30" s="192">
+        <v>900</v>
+      </c>
+      <c r="E30" s="192">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="192">
+        <v>7</v>
+      </c>
+      <c r="B31" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="192">
+        <v>1</v>
+      </c>
+      <c r="D31" s="192">
+        <v>5900</v>
+      </c>
+      <c r="E31" s="192">
+        <f t="shared" si="1"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="192">
+        <v>8</v>
+      </c>
+      <c r="B32" s="192" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="192">
+        <v>11</v>
+      </c>
+      <c r="D32" s="192">
+        <v>100</v>
+      </c>
+      <c r="E32" s="192">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="192">
+        <v>9</v>
+      </c>
+      <c r="B33" s="192" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="192">
+        <v>1</v>
+      </c>
+      <c r="D33" s="192">
+        <v>5900</v>
+      </c>
+      <c r="E33" s="192">
+        <f t="shared" si="1"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="195" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="196"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="193">
+        <f>SUM(E25:E33)</f>
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A34:D34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24450,12 +25019,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="208"/>
-      <c r="C15" s="208"/>
-      <c r="D15" s="209"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="212"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -24701,12 +25270,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="207" t="s">
+      <c r="A31" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="208"/>
-      <c r="C31" s="208"/>
-      <c r="D31" s="209"/>
+      <c r="B31" s="211"/>
+      <c r="C31" s="211"/>
+      <c r="D31" s="212"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -24927,12 +25496,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="208"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="209"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -25007,13 +25576,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="213" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="211"/>
-      <c r="E19" s="212"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -25023,11 +25592,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="213"/>
-      <c r="B20" s="214"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
+      <c r="A20" s="216"/>
+      <c r="B20" s="217"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25142,12 +25711,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="212"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -25362,12 +25931,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="207" t="s">
+      <c r="A11" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="208"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="209"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="212"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -25536,12 +26105,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="207" t="s">
+      <c r="A8" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="208"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="212"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -25625,12 +26194,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="216" t="s">
+      <c r="A19" s="219" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="216"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="216"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -24177,8 +24177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="35" activeTab="40"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="36" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,7 @@
     <sheet name="Vatareshwar 310" sheetId="39" r:id="rId39"/>
     <sheet name="Dave Rodrigues 311" sheetId="40" r:id="rId40"/>
     <sheet name="Nazir Shaik 312" sheetId="41" r:id="rId41"/>
+    <sheet name="Urvashi Gogale 313" sheetId="42" r:id="rId42"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="614">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2135,6 +2136,12 @@
   </si>
   <si>
     <t>Dahua 16CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar 2MP IP Dome with inbuilt Audio</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar NVR Professional Series 10CH</t>
   </si>
 </sst>
 </file>
@@ -2766,7 +2773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3322,6 +3329,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3329,21 +3342,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3365,6 +3363,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3409,45 +3422,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3466,6 +3440,18 @@
     <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3481,11 +3467,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4215,12 +4228,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="199"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -4346,12 +4359,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="195" t="s">
+      <c r="A27" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="196"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="199"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -4512,12 +4525,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="212"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="214"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -4601,12 +4614,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="219" t="s">
+      <c r="A19" s="221" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -4767,12 +4780,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="212"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="214"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4856,20 +4869,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="213" t="s">
+      <c r="A19" s="215" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="214"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="217"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="216"/>
-      <c r="B20" s="217"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="218"/>
+      <c r="A20" s="218"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5068,24 +5081,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="210" t="s">
+      <c r="A11" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="211"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="212"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="214"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="222" t="s">
+      <c r="A13" s="224" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="222"/>
-      <c r="C13" s="222"/>
-      <c r="D13" s="222"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -5285,12 +5298,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="210" t="s">
+      <c r="A30" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="211"/>
-      <c r="C30" s="211"/>
-      <c r="D30" s="212"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="214"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -5458,12 +5471,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="220" t="s">
+      <c r="A41" s="222" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="221"/>
-      <c r="C41" s="221"/>
-      <c r="D41" s="221"/>
+      <c r="B41" s="223"/>
+      <c r="C41" s="223"/>
+      <c r="D41" s="223"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -5698,24 +5711,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="210" t="s">
+      <c r="A11" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="211"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="212"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="214"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="223" t="s">
+      <c r="A13" s="225" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="223"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="225"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5879,12 +5892,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="210" t="s">
+      <c r="A28" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="211"/>
-      <c r="C28" s="211"/>
-      <c r="D28" s="212"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -6086,48 +6099,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="212"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="214"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="212"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="214"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="210" t="s">
+      <c r="A9" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="211"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="212"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="214"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="210" t="s">
+      <c r="A10" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="211"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="212"/>
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -6218,48 +6231,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="210" t="s">
+      <c r="A17" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="211"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="212"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="210" t="s">
+      <c r="A18" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="211"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="212"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="214"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="211"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="212"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="210" t="s">
+      <c r="A20" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="211"/>
-      <c r="C20" s="211"/>
-      <c r="D20" s="212"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -6342,48 +6355,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="210" t="s">
+      <c r="A27" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="211"/>
-      <c r="C27" s="211"/>
-      <c r="D27" s="212"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="210" t="s">
+      <c r="A28" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="211"/>
-      <c r="C28" s="211"/>
-      <c r="D28" s="212"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="210" t="s">
+      <c r="A29" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="211"/>
-      <c r="C29" s="211"/>
-      <c r="D29" s="212"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="210" t="s">
+      <c r="A30" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="211"/>
-      <c r="C30" s="211"/>
-      <c r="D30" s="212"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="214"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -6571,12 +6584,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -6700,12 +6713,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="195" t="s">
+      <c r="A21" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="196"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="199"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6865,12 +6878,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="195" t="s">
+      <c r="A38" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="196"/>
-      <c r="C38" s="196"/>
-      <c r="D38" s="197"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="198"/>
+      <c r="D38" s="199"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -7090,12 +7103,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="227" t="s">
+      <c r="A59" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="228"/>
-      <c r="C59" s="228"/>
-      <c r="D59" s="229"/>
+      <c r="B59" s="249"/>
+      <c r="C59" s="249"/>
+      <c r="D59" s="250"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -7107,10 +7120,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="230" t="s">
+      <c r="A63" s="251" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="230"/>
+      <c r="B63" s="251"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -7323,12 +7336,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="195" t="s">
+      <c r="A79" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="196"/>
-      <c r="C79" s="196"/>
-      <c r="D79" s="197"/>
+      <c r="B79" s="198"/>
+      <c r="C79" s="198"/>
+      <c r="D79" s="199"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -7552,12 +7565,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="195" t="s">
+      <c r="A99" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="196"/>
-      <c r="C99" s="196"/>
-      <c r="D99" s="196"/>
+      <c r="B99" s="198"/>
+      <c r="C99" s="198"/>
+      <c r="D99" s="198"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -7703,31 +7716,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="224" t="s">
+      <c r="B116" s="247" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="224"/>
+      <c r="C116" s="247"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="225">
+      <c r="E116" s="234">
         <v>9000</v>
       </c>
-      <c r="F116" s="226"/>
+      <c r="F116" s="235"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="195" t="s">
+      <c r="A117" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="196"/>
-      <c r="C117" s="196"/>
-      <c r="D117" s="196"/>
-      <c r="E117" s="196"/>
-      <c r="F117" s="197"/>
+      <c r="B117" s="198"/>
+      <c r="C117" s="198"/>
+      <c r="D117" s="198"/>
+      <c r="E117" s="198"/>
+      <c r="F117" s="199"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7843,31 +7856,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="224" t="s">
+      <c r="B124" s="247" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="224"/>
+      <c r="C124" s="247"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="209">
+      <c r="E124" s="206">
         <v>9000</v>
       </c>
-      <c r="F124" s="209"/>
+      <c r="F124" s="206"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="231" t="s">
+      <c r="A125" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="232"/>
-      <c r="C125" s="232"/>
-      <c r="D125" s="232"/>
-      <c r="E125" s="232"/>
-      <c r="F125" s="233"/>
+      <c r="B125" s="245"/>
+      <c r="C125" s="245"/>
+      <c r="D125" s="245"/>
+      <c r="E125" s="245"/>
+      <c r="F125" s="246"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7978,31 +7991,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="235" t="s">
+      <c r="B134" s="232" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="236"/>
+      <c r="C134" s="233"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="225">
+      <c r="E134" s="234">
         <v>12000</v>
       </c>
-      <c r="F134" s="226"/>
+      <c r="F134" s="235"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="231" t="s">
+      <c r="A135" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="232"/>
-      <c r="C135" s="232"/>
-      <c r="D135" s="232"/>
-      <c r="E135" s="232"/>
-      <c r="F135" s="233"/>
+      <c r="B135" s="245"/>
+      <c r="C135" s="245"/>
+      <c r="D135" s="245"/>
+      <c r="E135" s="245"/>
+      <c r="F135" s="246"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -8108,31 +8121,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="235" t="s">
+      <c r="B142" s="232" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="236"/>
+      <c r="C142" s="233"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="225">
+      <c r="E142" s="234">
         <v>12000</v>
       </c>
-      <c r="F142" s="226"/>
+      <c r="F142" s="235"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="231" t="s">
+      <c r="A143" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="232"/>
-      <c r="C143" s="232"/>
-      <c r="D143" s="232"/>
-      <c r="E143" s="232"/>
-      <c r="F143" s="233"/>
+      <c r="B143" s="245"/>
+      <c r="C143" s="245"/>
+      <c r="D143" s="245"/>
+      <c r="E143" s="245"/>
+      <c r="F143" s="246"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -8248,41 +8261,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="243" t="s">
+      <c r="B150" s="236" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="244"/>
+      <c r="C150" s="237"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="245">
+      <c r="E150" s="238">
         <v>12000</v>
       </c>
-      <c r="F150" s="246"/>
+      <c r="F150" s="239"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="234" t="s">
+      <c r="A151" s="241" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="234"/>
-      <c r="C151" s="234"/>
-      <c r="D151" s="234"/>
-      <c r="E151" s="234"/>
-      <c r="F151" s="234"/>
+      <c r="B151" s="241"/>
+      <c r="C151" s="241"/>
+      <c r="D151" s="241"/>
+      <c r="E151" s="241"/>
+      <c r="F151" s="241"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="247" t="s">
+      <c r="A154" s="240" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="247"/>
+      <c r="B154" s="240"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -8338,12 +8351,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="248" t="s">
+      <c r="A159" s="242" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="249"/>
-      <c r="C159" s="249"/>
-      <c r="D159" s="249"/>
+      <c r="B159" s="243"/>
+      <c r="C159" s="243"/>
+      <c r="D159" s="243"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -8401,12 +8414,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="234" t="s">
+      <c r="A163" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="234"/>
-      <c r="C163" s="234"/>
-      <c r="D163" s="234"/>
+      <c r="B163" s="241"/>
+      <c r="C163" s="241"/>
+      <c r="D163" s="241"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -10592,12 +10605,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="195" t="s">
+      <c r="A241" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="196"/>
-      <c r="C241" s="196"/>
-      <c r="D241" s="197"/>
+      <c r="B241" s="198"/>
+      <c r="C241" s="198"/>
+      <c r="D241" s="199"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -10746,12 +10759,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="195" t="s">
+      <c r="A254" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="196"/>
-      <c r="C254" s="196"/>
-      <c r="D254" s="197"/>
+      <c r="B254" s="198"/>
+      <c r="C254" s="198"/>
+      <c r="D254" s="199"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -10760,25 +10773,42 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="237" t="s">
+      <c r="A257" s="226" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="238"/>
-      <c r="C257" s="238"/>
-      <c r="D257" s="238"/>
-      <c r="E257" s="238"/>
-      <c r="F257" s="239"/>
+      <c r="B257" s="227"/>
+      <c r="C257" s="227"/>
+      <c r="D257" s="227"/>
+      <c r="E257" s="227"/>
+      <c r="F257" s="228"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="240"/>
-      <c r="B258" s="241"/>
-      <c r="C258" s="241"/>
-      <c r="D258" s="241"/>
-      <c r="E258" s="241"/>
-      <c r="F258" s="242"/>
+      <c r="A258" s="229"/>
+      <c r="B258" s="230"/>
+      <c r="C258" s="230"/>
+      <c r="D258" s="230"/>
+      <c r="E258" s="230"/>
+      <c r="F258" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B124:C124"/>
     <mergeCell ref="A257:F258"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="B142:C142"/>
@@ -10790,23 +10820,6 @@
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A254:D254"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A79:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11016,12 +11029,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="196"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="197"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="199"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -11035,13 +11048,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="241" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
+      <c r="B14" s="241"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -11334,25 +11347,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="195" t="s">
+      <c r="A39" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="196"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="197"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="198"/>
+      <c r="D39" s="199"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="234" t="s">
+      <c r="A41" s="241" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="234"/>
-      <c r="C41" s="234"/>
-      <c r="D41" s="234"/>
-      <c r="E41" s="234"/>
+      <c r="B41" s="241"/>
+      <c r="C41" s="241"/>
+      <c r="D41" s="241"/>
+      <c r="E41" s="241"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -11561,12 +11574,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="250" t="s">
+      <c r="A70" s="252" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="251"/>
-      <c r="C70" s="251"/>
-      <c r="D70" s="252"/>
+      <c r="B70" s="253"/>
+      <c r="C70" s="253"/>
+      <c r="D70" s="254"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -11756,12 +11769,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -12016,12 +12029,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="195" t="s">
+      <c r="A33" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="196"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="197"/>
+      <c r="B33" s="198"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="199"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -12243,12 +12256,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="197"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="199"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -12287,13 +12300,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -12380,105 +12393,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="206" t="s">
+      <c r="A7" s="203" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="208">
+      <c r="C7" s="205">
         <v>2</v>
       </c>
-      <c r="D7" s="206" t="s">
+      <c r="D7" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="209">
+      <c r="E7" s="206">
         <v>567000</v>
       </c>
-      <c r="F7" s="209">
+      <c r="F7" s="206">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="206"/>
+      <c r="A8" s="203"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="206"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="206"/>
+      <c r="A9" s="203"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="208"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="209"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="206"/>
+      <c r="F9" s="206"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="206"/>
+      <c r="A10" s="203"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="208"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="206"/>
+      <c r="A11" s="203"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="208"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="206"/>
+      <c r="A12" s="203"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="208"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="206"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="206"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="206"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="206"/>
+      <c r="A14" s="203"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="208"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="206"/>
+      <c r="A15" s="203"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="208"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -12521,13 +12534,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="203" t="s">
+      <c r="B19" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="205"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="202"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -12613,7 +12626,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="206" t="s">
+      <c r="A24" s="203" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -12625,7 +12638,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="206"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -12644,7 +12657,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="206"/>
+      <c r="A26" s="203"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -12663,7 +12676,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="206"/>
+      <c r="A27" s="203"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -12701,13 +12714,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="203" t="s">
+      <c r="B30" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="205"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="202"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -12730,7 +12743,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="206" t="s">
+      <c r="A32" s="203" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -12742,7 +12755,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="206"/>
+      <c r="A33" s="203"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12756,7 +12769,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="206"/>
+      <c r="A34" s="203"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12770,7 +12783,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="206"/>
+      <c r="A35" s="203"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12784,7 +12797,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="206"/>
+      <c r="A36" s="203"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12798,7 +12811,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="206" t="s">
+      <c r="A37" s="203" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12810,7 +12823,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="206"/>
+      <c r="A38" s="203"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12829,7 +12842,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="206"/>
+      <c r="A39" s="203"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12848,7 +12861,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="206"/>
+      <c r="A40" s="203"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12867,7 +12880,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="206"/>
+      <c r="A41" s="203"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12886,7 +12899,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="206"/>
+      <c r="A42" s="203"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12927,13 +12940,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="203" t="s">
+      <c r="B45" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="205"/>
+      <c r="C45" s="201"/>
+      <c r="D45" s="201"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="202"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -13178,13 +13191,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="200" t="s">
+      <c r="A57" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="201"/>
-      <c r="C57" s="201"/>
-      <c r="D57" s="201"/>
-      <c r="E57" s="202"/>
+      <c r="B57" s="210"/>
+      <c r="C57" s="210"/>
+      <c r="D57" s="210"/>
+      <c r="E57" s="211"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -13202,13 +13215,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="198" t="s">
+      <c r="B59" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="198"/>
-      <c r="D59" s="198"/>
-      <c r="E59" s="198"/>
-      <c r="F59" s="198"/>
+      <c r="C59" s="207"/>
+      <c r="D59" s="207"/>
+      <c r="E59" s="207"/>
+      <c r="F59" s="207"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -13226,13 +13239,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="199" t="s">
+      <c r="B61" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="199"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="199"/>
-      <c r="F61" s="199"/>
+      <c r="C61" s="208"/>
+      <c r="D61" s="208"/>
+      <c r="E61" s="208"/>
+      <c r="F61" s="208"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -13252,30 +13265,35 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="199" t="s">
+      <c r="B63" s="208" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="199"/>
-      <c r="D63" s="199"/>
-      <c r="E63" s="199"/>
-      <c r="F63" s="199"/>
+      <c r="C63" s="208"/>
+      <c r="D63" s="208"/>
+      <c r="E63" s="208"/>
+      <c r="F63" s="208"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="199" t="s">
+      <c r="B64" s="208" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="199"/>
-      <c r="D64" s="199"/>
-      <c r="E64" s="199"/>
-      <c r="F64" s="199"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
+      <c r="E64" s="208"/>
+      <c r="F64" s="208"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A57:E57"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B19:F19"/>
@@ -13288,11 +13306,6 @@
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="F7:F15"/>
     <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13495,12 +13508,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -13877,12 +13890,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="199"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -14168,12 +14181,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="195" t="s">
+      <c r="A37" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="196"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="197"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="199"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -14475,12 +14488,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="195" t="s">
+      <c r="A63" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="196"/>
-      <c r="C63" s="196"/>
-      <c r="D63" s="197"/>
+      <c r="B63" s="198"/>
+      <c r="C63" s="198"/>
+      <c r="D63" s="199"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -14593,183 +14606,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="253">
+      <c r="A2" s="255">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="253">
-        <v>1</v>
-      </c>
-      <c r="D2" s="253">
+      <c r="C2" s="255">
+        <v>1</v>
+      </c>
+      <c r="D2" s="255">
         <v>42000</v>
       </c>
-      <c r="E2" s="253">
+      <c r="E2" s="255">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="254"/>
+      <c r="A3" s="256"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="254"/>
+      <c r="A4" s="256"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="254"/>
+      <c r="A5" s="256"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
+      <c r="C5" s="256"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="254"/>
+      <c r="A6" s="256"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="254"/>
+      <c r="A7" s="256"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="254"/>
+      <c r="A8" s="256"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="254"/>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="254"/>
+      <c r="A9" s="256"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="254"/>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="254"/>
+      <c r="A10" s="256"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="254"/>
-      <c r="D10" s="254"/>
-      <c r="E10" s="254"/>
+      <c r="C10" s="256"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="254"/>
+      <c r="A11" s="256"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="254"/>
-      <c r="D11" s="254"/>
-      <c r="E11" s="254"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="256"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="254"/>
+      <c r="A12" s="256"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="254"/>
-      <c r="D12" s="254"/>
-      <c r="E12" s="254"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="256"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="254"/>
+      <c r="A13" s="256"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="254"/>
+      <c r="A14" s="256"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="254"/>
-      <c r="D14" s="254"/>
-      <c r="E14" s="254"/>
+      <c r="C14" s="256"/>
+      <c r="D14" s="256"/>
+      <c r="E14" s="256"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="254"/>
+      <c r="A15" s="256"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="254"/>
+      <c r="C15" s="256"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="256"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="254"/>
+      <c r="A16" s="256"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="254"/>
-      <c r="D16" s="254"/>
-      <c r="E16" s="254"/>
+      <c r="C16" s="256"/>
+      <c r="D16" s="256"/>
+      <c r="E16" s="256"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="254"/>
+      <c r="A17" s="256"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="254"/>
-      <c r="E17" s="254"/>
+      <c r="C17" s="256"/>
+      <c r="D17" s="256"/>
+      <c r="E17" s="256"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="254"/>
+      <c r="A18" s="256"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="254"/>
-      <c r="D18" s="254"/>
-      <c r="E18" s="254"/>
+      <c r="C18" s="256"/>
+      <c r="D18" s="256"/>
+      <c r="E18" s="256"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="255"/>
+      <c r="A19" s="257"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="255"/>
-      <c r="D19" s="255"/>
-      <c r="E19" s="255"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="257"/>
+      <c r="E19" s="257"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="234" t="s">
+      <c r="A20" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -15085,12 +15098,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -15343,12 +15356,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -15571,10 +15584,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="259" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="257"/>
+      <c r="C6" s="259"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -15588,13 +15601,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="256" t="s">
+      <c r="A7" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="256"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
+      <c r="B7" s="258"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="258"/>
+      <c r="E7" s="258"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -15750,10 +15763,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="257" t="s">
+      <c r="B26" s="259" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="257"/>
+      <c r="C26" s="259"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -15767,13 +15780,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="256" t="s">
+      <c r="A27" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="256"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
+      <c r="B27" s="258"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="258"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -15985,12 +15998,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -16280,12 +16293,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="195" t="s">
+      <c r="A37" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="196"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="197"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="199"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -16552,12 +16565,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="145">
         <f>SUM(E3:E10)</f>
         <v>99820</v>
@@ -16874,12 +16887,12 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="195" t="s">
+      <c r="A36" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="196"/>
-      <c r="C36" s="196"/>
-      <c r="D36" s="197"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="199"/>
       <c r="E36" s="145">
         <f>SUM(E27:E35)</f>
         <v>56780</v>
@@ -17135,12 +17148,12 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="195" t="s">
+      <c r="A55" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="196"/>
-      <c r="C55" s="196"/>
-      <c r="D55" s="197"/>
+      <c r="B55" s="198"/>
+      <c r="C55" s="198"/>
+      <c r="D55" s="199"/>
       <c r="E55" s="145">
         <f>SUM(E46:E54)</f>
         <v>86940</v>
@@ -17334,12 +17347,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="195" t="s">
+      <c r="A68" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="196"/>
-      <c r="C68" s="196"/>
-      <c r="D68" s="197"/>
+      <c r="B68" s="198"/>
+      <c r="C68" s="198"/>
+      <c r="D68" s="199"/>
       <c r="E68" s="145">
         <f>SUM(E59:E67)</f>
         <v>49380</v>
@@ -17531,12 +17544,12 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="147">
         <f>SUM(E3:E9)</f>
         <v>69770</v>
@@ -17821,12 +17834,12 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="195" t="s">
+      <c r="A36" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="196"/>
-      <c r="C36" s="196"/>
-      <c r="D36" s="197"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="199"/>
       <c r="E36" s="147">
         <f>SUM(E29:E35)</f>
         <v>66840</v>
@@ -17953,165 +17966,165 @@
       <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="258">
+      <c r="A3" s="260">
         <v>1</v>
       </c>
       <c r="B3" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="258">
-        <v>1</v>
-      </c>
-      <c r="D3" s="258">
+      <c r="C3" s="260">
+        <v>1</v>
+      </c>
+      <c r="D3" s="260">
         <v>75900</v>
       </c>
-      <c r="E3" s="258">
+      <c r="E3" s="260">
         <f>C3*D3</f>
         <v>75900</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="259"/>
+      <c r="A4" s="261"/>
       <c r="B4" s="152" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="259"/>
+      <c r="A5" s="261"/>
       <c r="B5" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="259"/>
+      <c r="A6" s="261"/>
       <c r="B6" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="259"/>
+      <c r="A7" s="261"/>
       <c r="B7" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="259"/>
+      <c r="A8" s="261"/>
       <c r="B8" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="259"/>
+      <c r="A9" s="261"/>
       <c r="B9" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="259"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="259"/>
+      <c r="A10" s="261"/>
       <c r="B10" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="259"/>
+      <c r="A11" s="261"/>
       <c r="B11" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="259"/>
+      <c r="A12" s="261"/>
       <c r="B12" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="259"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="259"/>
+      <c r="C12" s="261"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="261"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="259"/>
+      <c r="A13" s="261"/>
       <c r="B13" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="259"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="259"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="261"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="259"/>
+      <c r="A14" s="261"/>
       <c r="B14" s="152" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="259"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
+      <c r="C14" s="261"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="259"/>
+      <c r="A15" s="261"/>
       <c r="B15" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="259"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
+      <c r="C15" s="261"/>
+      <c r="D15" s="261"/>
+      <c r="E15" s="261"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="259"/>
+      <c r="A16" s="261"/>
       <c r="B16" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="259"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="259"/>
+      <c r="A17" s="261"/>
       <c r="B17" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="259"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="260"/>
+      <c r="A18" s="262"/>
       <c r="B18" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
+      <c r="C18" s="262"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="262"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="263" t="s">
+      <c r="A19" s="265" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="264"/>
-      <c r="C19" s="264"/>
-      <c r="D19" s="265"/>
+      <c r="B19" s="266"/>
+      <c r="C19" s="266"/>
+      <c r="D19" s="267"/>
       <c r="E19" s="153">
         <f>SUM(E3)</f>
         <v>75900</v>
@@ -18138,7 +18151,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.8">
-      <c r="A27" s="261">
+      <c r="A27" s="263">
         <v>1</v>
       </c>
       <c r="B27" s="152" t="s">
@@ -18150,16 +18163,16 @@
       <c r="D27" s="149">
         <v>1</v>
       </c>
-      <c r="E27" s="261">
+      <c r="E27" s="263">
         <v>69000</v>
       </c>
-      <c r="F27" s="261">
+      <c r="F27" s="263">
         <f>D27*E27</f>
         <v>69000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="262.2">
-      <c r="A28" s="261"/>
+      <c r="A28" s="263"/>
       <c r="B28" s="152" t="s">
         <v>475</v>
       </c>
@@ -18169,11 +18182,11 @@
       <c r="D28" s="149">
         <v>1</v>
       </c>
-      <c r="E28" s="261"/>
-      <c r="F28" s="261"/>
+      <c r="E28" s="263"/>
+      <c r="F28" s="263"/>
     </row>
     <row r="29" spans="1:6" ht="124.2">
-      <c r="A29" s="261"/>
+      <c r="A29" s="263"/>
       <c r="B29" s="152" t="s">
         <v>477</v>
       </c>
@@ -18183,11 +18196,11 @@
       <c r="D29" s="149">
         <v>1</v>
       </c>
-      <c r="E29" s="261"/>
-      <c r="F29" s="261"/>
+      <c r="E29" s="263"/>
+      <c r="F29" s="263"/>
     </row>
     <row r="30" spans="1:6" ht="248.4">
-      <c r="A30" s="261"/>
+      <c r="A30" s="263"/>
       <c r="B30" s="152" t="s">
         <v>479</v>
       </c>
@@ -18197,11 +18210,11 @@
       <c r="D30" s="149">
         <v>1</v>
       </c>
-      <c r="E30" s="261"/>
-      <c r="F30" s="261"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="263"/>
     </row>
     <row r="31" spans="1:6" ht="69">
-      <c r="A31" s="261"/>
+      <c r="A31" s="263"/>
       <c r="B31" s="152" t="s">
         <v>481</v>
       </c>
@@ -18211,11 +18224,11 @@
       <c r="D31" s="149">
         <v>1</v>
       </c>
-      <c r="E31" s="261"/>
-      <c r="F31" s="261"/>
+      <c r="E31" s="263"/>
+      <c r="F31" s="263"/>
     </row>
     <row r="32" spans="1:6" ht="179.4">
-      <c r="A32" s="261"/>
+      <c r="A32" s="263"/>
       <c r="B32" s="152" t="s">
         <v>483</v>
       </c>
@@ -18225,11 +18238,11 @@
       <c r="D32" s="149">
         <v>1</v>
       </c>
-      <c r="E32" s="261"/>
-      <c r="F32" s="261"/>
+      <c r="E32" s="263"/>
+      <c r="F32" s="263"/>
     </row>
     <row r="33" spans="1:6" ht="82.8">
-      <c r="A33" s="261"/>
+      <c r="A33" s="263"/>
       <c r="B33" s="152" t="s">
         <v>483</v>
       </c>
@@ -18239,11 +18252,11 @@
       <c r="D33" s="149">
         <v>1</v>
       </c>
-      <c r="E33" s="261"/>
-      <c r="F33" s="261"/>
+      <c r="E33" s="263"/>
+      <c r="F33" s="263"/>
     </row>
     <row r="34" spans="1:6" ht="96.6">
-      <c r="A34" s="261"/>
+      <c r="A34" s="263"/>
       <c r="B34" s="152" t="s">
         <v>483</v>
       </c>
@@ -18253,11 +18266,11 @@
       <c r="D34" s="149">
         <v>1</v>
       </c>
-      <c r="E34" s="261"/>
-      <c r="F34" s="261"/>
+      <c r="E34" s="263"/>
+      <c r="F34" s="263"/>
     </row>
     <row r="35" spans="1:6" ht="234.6">
-      <c r="A35" s="261"/>
+      <c r="A35" s="263"/>
       <c r="B35" s="152" t="s">
         <v>487</v>
       </c>
@@ -18267,11 +18280,11 @@
       <c r="D35" s="149">
         <v>1</v>
       </c>
-      <c r="E35" s="261"/>
-      <c r="F35" s="261"/>
+      <c r="E35" s="263"/>
+      <c r="F35" s="263"/>
     </row>
     <row r="36" spans="1:6" ht="165.6">
-      <c r="A36" s="261"/>
+      <c r="A36" s="263"/>
       <c r="B36" s="152" t="s">
         <v>489</v>
       </c>
@@ -18281,11 +18294,11 @@
       <c r="D36" s="149">
         <v>1</v>
       </c>
-      <c r="E36" s="261"/>
-      <c r="F36" s="261"/>
+      <c r="E36" s="263"/>
+      <c r="F36" s="263"/>
     </row>
     <row r="37" spans="1:6" ht="27.6">
-      <c r="A37" s="261"/>
+      <c r="A37" s="263"/>
       <c r="B37" s="152" t="s">
         <v>493</v>
       </c>
@@ -18295,11 +18308,11 @@
       <c r="D37" s="149">
         <v>1</v>
       </c>
-      <c r="E37" s="261"/>
-      <c r="F37" s="261"/>
+      <c r="E37" s="263"/>
+      <c r="F37" s="263"/>
     </row>
     <row r="38" spans="1:6" ht="82.8">
-      <c r="A38" s="261"/>
+      <c r="A38" s="263"/>
       <c r="B38" s="152" t="s">
         <v>494</v>
       </c>
@@ -18309,11 +18322,11 @@
       <c r="D38" s="149">
         <v>1</v>
       </c>
-      <c r="E38" s="261"/>
-      <c r="F38" s="261"/>
+      <c r="E38" s="263"/>
+      <c r="F38" s="263"/>
     </row>
     <row r="39" spans="1:6" ht="55.2">
-      <c r="A39" s="261"/>
+      <c r="A39" s="263"/>
       <c r="B39" s="152" t="s">
         <v>495</v>
       </c>
@@ -18323,11 +18336,11 @@
       <c r="D39" s="149">
         <v>1</v>
       </c>
-      <c r="E39" s="261"/>
-      <c r="F39" s="261"/>
+      <c r="E39" s="263"/>
+      <c r="F39" s="263"/>
     </row>
     <row r="40" spans="1:6" ht="138">
-      <c r="A40" s="261"/>
+      <c r="A40" s="263"/>
       <c r="B40" s="152" t="s">
         <v>497</v>
       </c>
@@ -18337,11 +18350,11 @@
       <c r="D40" s="149">
         <v>1</v>
       </c>
-      <c r="E40" s="261"/>
-      <c r="F40" s="261"/>
+      <c r="E40" s="263"/>
+      <c r="F40" s="263"/>
     </row>
     <row r="41" spans="1:6" ht="96.6">
-      <c r="A41" s="261"/>
+      <c r="A41" s="263"/>
       <c r="B41" s="152" t="s">
         <v>499</v>
       </c>
@@ -18351,11 +18364,11 @@
       <c r="D41" s="149">
         <v>1</v>
       </c>
-      <c r="E41" s="261"/>
-      <c r="F41" s="261"/>
+      <c r="E41" s="263"/>
+      <c r="F41" s="263"/>
     </row>
     <row r="42" spans="1:6" ht="317.39999999999998">
-      <c r="A42" s="261"/>
+      <c r="A42" s="263"/>
       <c r="B42" s="152" t="s">
         <v>501</v>
       </c>
@@ -18365,11 +18378,11 @@
       <c r="D42" s="149">
         <v>1</v>
       </c>
-      <c r="E42" s="261"/>
-      <c r="F42" s="261"/>
+      <c r="E42" s="263"/>
+      <c r="F42" s="263"/>
     </row>
     <row r="43" spans="1:6" ht="69">
-      <c r="A43" s="261"/>
+      <c r="A43" s="263"/>
       <c r="B43" s="152" t="s">
         <v>501</v>
       </c>
@@ -18379,11 +18392,11 @@
       <c r="D43" s="149">
         <v>1</v>
       </c>
-      <c r="E43" s="261"/>
-      <c r="F43" s="261"/>
+      <c r="E43" s="263"/>
+      <c r="F43" s="263"/>
     </row>
     <row r="44" spans="1:6" ht="193.2">
-      <c r="A44" s="261"/>
+      <c r="A44" s="263"/>
       <c r="B44" s="152" t="s">
         <v>501</v>
       </c>
@@ -18393,11 +18406,11 @@
       <c r="D44" s="149">
         <v>1</v>
       </c>
-      <c r="E44" s="261"/>
-      <c r="F44" s="261"/>
+      <c r="E44" s="263"/>
+      <c r="F44" s="263"/>
     </row>
     <row r="45" spans="1:6" ht="234.6">
-      <c r="A45" s="261"/>
+      <c r="A45" s="263"/>
       <c r="B45" s="152" t="s">
         <v>505</v>
       </c>
@@ -18407,11 +18420,11 @@
       <c r="D45" s="149">
         <v>1</v>
       </c>
-      <c r="E45" s="261"/>
-      <c r="F45" s="261"/>
+      <c r="E45" s="263"/>
+      <c r="F45" s="263"/>
     </row>
     <row r="46" spans="1:6" ht="69">
-      <c r="A46" s="261"/>
+      <c r="A46" s="263"/>
       <c r="B46" s="152" t="s">
         <v>507</v>
       </c>
@@ -18421,11 +18434,11 @@
       <c r="D46" s="149">
         <v>1</v>
       </c>
-      <c r="E46" s="261"/>
-      <c r="F46" s="261"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="263"/>
     </row>
     <row r="47" spans="1:6" ht="110.4">
-      <c r="A47" s="261"/>
+      <c r="A47" s="263"/>
       <c r="B47" s="152" t="s">
         <v>509</v>
       </c>
@@ -18435,11 +18448,11 @@
       <c r="D47" s="149">
         <v>1</v>
       </c>
-      <c r="E47" s="261"/>
-      <c r="F47" s="261"/>
+      <c r="E47" s="263"/>
+      <c r="F47" s="263"/>
     </row>
     <row r="48" spans="1:6" ht="96.6">
-      <c r="A48" s="261"/>
+      <c r="A48" s="263"/>
       <c r="B48" s="152" t="s">
         <v>509</v>
       </c>
@@ -18449,11 +18462,11 @@
       <c r="D48" s="149">
         <v>1</v>
       </c>
-      <c r="E48" s="261"/>
-      <c r="F48" s="261"/>
+      <c r="E48" s="263"/>
+      <c r="F48" s="263"/>
     </row>
     <row r="49" spans="1:6" ht="110.4">
-      <c r="A49" s="261"/>
+      <c r="A49" s="263"/>
       <c r="B49" s="152" t="s">
         <v>512</v>
       </c>
@@ -18463,11 +18476,11 @@
       <c r="D49" s="149">
         <v>1</v>
       </c>
-      <c r="E49" s="261"/>
-      <c r="F49" s="261"/>
+      <c r="E49" s="263"/>
+      <c r="F49" s="263"/>
     </row>
     <row r="50" spans="1:6" ht="165.6">
-      <c r="A50" s="261"/>
+      <c r="A50" s="263"/>
       <c r="B50" s="152" t="s">
         <v>514</v>
       </c>
@@ -18477,11 +18490,11 @@
       <c r="D50" s="149">
         <v>1</v>
       </c>
-      <c r="E50" s="261"/>
-      <c r="F50" s="261"/>
+      <c r="E50" s="263"/>
+      <c r="F50" s="263"/>
     </row>
     <row r="51" spans="1:6" ht="165.6">
-      <c r="A51" s="261"/>
+      <c r="A51" s="263"/>
       <c r="B51" s="152" t="s">
         <v>516</v>
       </c>
@@ -18491,11 +18504,11 @@
       <c r="D51" s="149">
         <v>1</v>
       </c>
-      <c r="E51" s="261"/>
-      <c r="F51" s="261"/>
+      <c r="E51" s="263"/>
+      <c r="F51" s="263"/>
     </row>
     <row r="52" spans="1:6" ht="151.80000000000001">
-      <c r="A52" s="261"/>
+      <c r="A52" s="263"/>
       <c r="B52" s="152" t="s">
         <v>518</v>
       </c>
@@ -18505,11 +18518,11 @@
       <c r="D52" s="149">
         <v>1</v>
       </c>
-      <c r="E52" s="261"/>
-      <c r="F52" s="261"/>
+      <c r="E52" s="263"/>
+      <c r="F52" s="263"/>
     </row>
     <row r="53" spans="1:6" ht="55.2">
-      <c r="A53" s="261"/>
+      <c r="A53" s="263"/>
       <c r="B53" s="152" t="s">
         <v>520</v>
       </c>
@@ -18519,11 +18532,11 @@
       <c r="D53" s="149">
         <v>1</v>
       </c>
-      <c r="E53" s="261"/>
-      <c r="F53" s="261"/>
+      <c r="E53" s="263"/>
+      <c r="F53" s="263"/>
     </row>
     <row r="54" spans="1:6" ht="82.8">
-      <c r="A54" s="261"/>
+      <c r="A54" s="263"/>
       <c r="B54" s="152" t="s">
         <v>523</v>
       </c>
@@ -18533,11 +18546,11 @@
       <c r="D54" s="149">
         <v>1</v>
       </c>
-      <c r="E54" s="261"/>
-      <c r="F54" s="261"/>
+      <c r="E54" s="263"/>
+      <c r="F54" s="263"/>
     </row>
     <row r="55" spans="1:6" ht="96.6">
-      <c r="A55" s="261"/>
+      <c r="A55" s="263"/>
       <c r="B55" s="152" t="s">
         <v>524</v>
       </c>
@@ -18547,11 +18560,11 @@
       <c r="D55" s="149">
         <v>1</v>
       </c>
-      <c r="E55" s="261"/>
-      <c r="F55" s="261"/>
+      <c r="E55" s="263"/>
+      <c r="F55" s="263"/>
     </row>
     <row r="56" spans="1:6" ht="82.8">
-      <c r="A56" s="261"/>
+      <c r="A56" s="263"/>
       <c r="B56" s="152" t="s">
         <v>526</v>
       </c>
@@ -18561,11 +18574,11 @@
       <c r="D56" s="149">
         <v>1</v>
       </c>
-      <c r="E56" s="261"/>
-      <c r="F56" s="261"/>
+      <c r="E56" s="263"/>
+      <c r="F56" s="263"/>
     </row>
     <row r="57" spans="1:6" ht="41.4">
-      <c r="A57" s="261"/>
+      <c r="A57" s="263"/>
       <c r="B57" s="150" t="s">
         <v>418</v>
       </c>
@@ -18573,11 +18586,11 @@
         <v>1</v>
       </c>
       <c r="D57" s="149"/>
-      <c r="E57" s="261"/>
-      <c r="F57" s="261"/>
+      <c r="E57" s="263"/>
+      <c r="F57" s="263"/>
     </row>
     <row r="58" spans="1:6" ht="82.8">
-      <c r="A58" s="261"/>
+      <c r="A58" s="263"/>
       <c r="B58" s="152" t="s">
         <v>528</v>
       </c>
@@ -18587,11 +18600,11 @@
       <c r="D58" s="149">
         <v>1</v>
       </c>
-      <c r="E58" s="261"/>
-      <c r="F58" s="261"/>
+      <c r="E58" s="263"/>
+      <c r="F58" s="263"/>
     </row>
     <row r="59" spans="1:6" ht="41.4">
-      <c r="A59" s="261"/>
+      <c r="A59" s="263"/>
       <c r="B59" s="152" t="s">
         <v>501</v>
       </c>
@@ -18601,11 +18614,11 @@
       <c r="D59" s="149">
         <v>1</v>
       </c>
-      <c r="E59" s="261"/>
-      <c r="F59" s="261"/>
+      <c r="E59" s="263"/>
+      <c r="F59" s="263"/>
     </row>
     <row r="60" spans="1:6" ht="138">
-      <c r="A60" s="261"/>
+      <c r="A60" s="263"/>
       <c r="B60" s="152" t="s">
         <v>501</v>
       </c>
@@ -18615,11 +18628,11 @@
       <c r="D60" s="149">
         <v>1</v>
       </c>
-      <c r="E60" s="261"/>
-      <c r="F60" s="261"/>
+      <c r="E60" s="263"/>
+      <c r="F60" s="263"/>
     </row>
     <row r="61" spans="1:6" ht="69">
-      <c r="A61" s="261"/>
+      <c r="A61" s="263"/>
       <c r="B61" s="152" t="s">
         <v>501</v>
       </c>
@@ -18629,11 +18642,11 @@
       <c r="D61" s="149">
         <v>1</v>
       </c>
-      <c r="E61" s="261"/>
-      <c r="F61" s="261"/>
+      <c r="E61" s="263"/>
+      <c r="F61" s="263"/>
     </row>
     <row r="62" spans="1:6" ht="110.4">
-      <c r="A62" s="261"/>
+      <c r="A62" s="263"/>
       <c r="B62" s="152" t="s">
         <v>501</v>
       </c>
@@ -18643,11 +18656,11 @@
       <c r="D62" s="149">
         <v>1</v>
       </c>
-      <c r="E62" s="261"/>
-      <c r="F62" s="261"/>
+      <c r="E62" s="263"/>
+      <c r="F62" s="263"/>
     </row>
     <row r="63" spans="1:6" ht="96.6">
-      <c r="A63" s="261"/>
+      <c r="A63" s="263"/>
       <c r="B63" s="152" t="s">
         <v>534</v>
       </c>
@@ -18657,11 +18670,11 @@
       <c r="D63" s="149">
         <v>1</v>
       </c>
-      <c r="E63" s="261"/>
-      <c r="F63" s="261"/>
+      <c r="E63" s="263"/>
+      <c r="F63" s="263"/>
     </row>
     <row r="64" spans="1:6" ht="110.4">
-      <c r="A64" s="261"/>
+      <c r="A64" s="263"/>
       <c r="B64" s="152" t="s">
         <v>536</v>
       </c>
@@ -18671,11 +18684,11 @@
       <c r="D64" s="149">
         <v>1</v>
       </c>
-      <c r="E64" s="261"/>
-      <c r="F64" s="261"/>
+      <c r="E64" s="263"/>
+      <c r="F64" s="263"/>
     </row>
     <row r="65" spans="1:6" ht="41.4">
-      <c r="A65" s="261"/>
+      <c r="A65" s="263"/>
       <c r="B65" s="150" t="s">
         <v>538</v>
       </c>
@@ -18683,11 +18696,11 @@
         <v>1</v>
       </c>
       <c r="D65" s="149"/>
-      <c r="E65" s="261"/>
-      <c r="F65" s="261"/>
+      <c r="E65" s="263"/>
+      <c r="F65" s="263"/>
     </row>
     <row r="66" spans="1:6" ht="124.2">
-      <c r="A66" s="261"/>
+      <c r="A66" s="263"/>
       <c r="B66" s="152" t="s">
         <v>540</v>
       </c>
@@ -18697,11 +18710,11 @@
       <c r="D66" s="149">
         <v>1</v>
       </c>
-      <c r="E66" s="261"/>
-      <c r="F66" s="261"/>
+      <c r="E66" s="263"/>
+      <c r="F66" s="263"/>
     </row>
     <row r="67" spans="1:6" ht="151.80000000000001">
-      <c r="A67" s="261"/>
+      <c r="A67" s="263"/>
       <c r="B67" s="152" t="s">
         <v>541</v>
       </c>
@@ -18711,17 +18724,17 @@
       <c r="D67" s="149">
         <v>1</v>
       </c>
-      <c r="E67" s="261"/>
-      <c r="F67" s="261"/>
+      <c r="E67" s="263"/>
+      <c r="F67" s="263"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="262" t="s">
+      <c r="A68" s="264" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="262"/>
-      <c r="C68" s="262"/>
-      <c r="D68" s="262"/>
-      <c r="E68" s="262"/>
+      <c r="B68" s="264"/>
+      <c r="C68" s="264"/>
+      <c r="D68" s="264"/>
+      <c r="E68" s="264"/>
       <c r="F68" s="150">
         <f>SUM(F27:F27)</f>
         <v>69000</v>
@@ -18832,48 +18845,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="212"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="214"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="212"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="214"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="212"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="214"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="212"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="214"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -18936,11 +18949,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="264" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
       <c r="D3" s="153">
         <f>SUM(D2)</f>
         <v>45000</v>
@@ -19135,12 +19148,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="158">
         <f>SUM(E2:E9)</f>
         <v>82970</v>
@@ -19422,12 +19435,12 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="195" t="s">
+      <c r="A36" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="196"/>
-      <c r="C36" s="196"/>
-      <c r="D36" s="197"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="199"/>
       <c r="E36" s="158">
         <f>SUM(E28:E35)</f>
         <v>82850</v>
@@ -19540,7 +19553,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19726,12 +19739,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="162">
         <f>SUM(E3:E10)</f>
         <v>152800</v>
@@ -20007,12 +20020,12 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="195" t="s">
+      <c r="A35" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="196"/>
-      <c r="C35" s="196"/>
-      <c r="D35" s="197"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="199"/>
       <c r="E35" s="162">
         <f>SUM(E27:E34)</f>
         <v>95050</v>
@@ -20253,12 +20266,12 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="195" t="s">
+      <c r="A59" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="196"/>
-      <c r="C59" s="196"/>
-      <c r="D59" s="197"/>
+      <c r="B59" s="198"/>
+      <c r="C59" s="198"/>
+      <c r="D59" s="199"/>
       <c r="E59" s="162">
         <f>SUM(E51:E58)</f>
         <v>139220</v>
@@ -20513,12 +20526,12 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="195" t="s">
+      <c r="A82" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="196"/>
-      <c r="C82" s="196"/>
-      <c r="D82" s="197"/>
+      <c r="B82" s="198"/>
+      <c r="C82" s="198"/>
+      <c r="D82" s="199"/>
       <c r="E82" s="162">
         <f>SUM(E74:E81)</f>
         <v>82350</v>
@@ -20643,48 +20656,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
       <c r="E3" s="166">
         <f>SUM(E2)</f>
         <v>27900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="266" t="s">
+      <c r="A4" s="268" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="267"/>
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="269"/>
       <c r="E4" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="266" t="s">
+      <c r="A5" s="268" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="267"/>
-      <c r="C5" s="267"/>
-      <c r="D5" s="267"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
       <c r="E5" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="266" t="s">
+      <c r="A6" s="268" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="267"/>
-      <c r="C6" s="267"/>
-      <c r="D6" s="267"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="269"/>
       <c r="E6" s="166">
         <f>SUM(E3:E5)</f>
         <v>32922</v>
@@ -20889,12 +20902,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="168">
         <f>SUM(E2:E9)</f>
         <v>79850</v>
@@ -21125,12 +21138,12 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="195" t="s">
+      <c r="A30" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="196"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="197"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="199"/>
       <c r="E30" s="170">
         <f>SUM(E23:E29)</f>
         <v>49710</v>
@@ -21383,12 +21396,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
       <c r="E9" s="172">
         <f>SUM(E3:E8)</f>
         <v>347036</v>
@@ -21594,12 +21607,12 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="268" t="s">
+      <c r="A23" s="270" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="268"/>
-      <c r="C23" s="268"/>
-      <c r="D23" s="268"/>
+      <c r="B23" s="270"/>
+      <c r="C23" s="270"/>
+      <c r="D23" s="270"/>
       <c r="E23" s="175">
         <f>SUM(E16:E22)</f>
         <v>728300</v>
@@ -21821,12 +21834,12 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="269" t="s">
+      <c r="A39" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="270"/>
-      <c r="C39" s="270"/>
-      <c r="D39" s="271"/>
+      <c r="B39" s="272"/>
+      <c r="C39" s="272"/>
+      <c r="D39" s="273"/>
       <c r="E39" s="175">
         <f>SUM(E32:E38)</f>
         <v>661616</v>
@@ -22048,12 +22061,12 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="177">
         <f>SUM(E2:E9)</f>
         <v>32840</v>
@@ -22306,12 +22319,12 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="195" t="s">
+      <c r="A29" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="196"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199"/>
       <c r="E29" s="177">
         <f>SUM(E21:E28)</f>
         <v>28840</v>
@@ -22459,12 +22472,12 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="272" t="s">
+      <c r="A5" s="274" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="273"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="274"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="275"/>
+      <c r="D5" s="276"/>
       <c r="E5" s="182">
         <f>SUM(E3:E4)</f>
         <v>190000</v>
@@ -22536,12 +22549,12 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="272" t="s">
+      <c r="A12" s="274" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="273"/>
-      <c r="C12" s="273"/>
-      <c r="D12" s="274"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="275"/>
+      <c r="D12" s="276"/>
       <c r="E12" s="182">
         <f>SUM(E10:E11)</f>
         <v>40000</v>
@@ -22642,10 +22655,10 @@
       <c r="A5" s="183">
         <v>3</v>
       </c>
-      <c r="B5" s="276" t="s">
+      <c r="B5" s="278" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="277"/>
+      <c r="C5" s="279"/>
       <c r="D5" s="183">
         <v>1</v>
       </c>
@@ -22661,10 +22674,10 @@
       <c r="A6" s="183">
         <v>4</v>
       </c>
-      <c r="B6" s="276" t="s">
+      <c r="B6" s="278" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="277"/>
+      <c r="C6" s="279"/>
       <c r="D6" s="183">
         <v>1</v>
       </c>
@@ -22677,13 +22690,13 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="275" t="s">
+      <c r="A7" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="275"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
       <c r="F7" s="182">
         <f>SUM(F3:F6)</f>
         <v>96000</v>
@@ -22739,10 +22752,10 @@
       <c r="A12" s="183">
         <v>2</v>
       </c>
-      <c r="B12" s="276" t="s">
+      <c r="B12" s="278" t="s">
         <v>593</v>
       </c>
-      <c r="C12" s="277"/>
+      <c r="C12" s="279"/>
       <c r="D12" s="183">
         <v>1</v>
       </c>
@@ -22758,10 +22771,10 @@
       <c r="A13" s="183">
         <v>3</v>
       </c>
-      <c r="B13" s="276" t="s">
+      <c r="B13" s="278" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="277"/>
+      <c r="C13" s="279"/>
       <c r="D13" s="183">
         <v>1</v>
       </c>
@@ -22774,13 +22787,13 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="275" t="s">
+      <c r="A14" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="275"/>
-      <c r="C14" s="275"/>
-      <c r="D14" s="275"/>
-      <c r="E14" s="275"/>
+      <c r="B14" s="277"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="277"/>
+      <c r="E14" s="277"/>
       <c r="F14" s="182">
         <f>SUM(F11:F13)</f>
         <v>61500</v>
@@ -22996,12 +23009,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="197"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="199"/>
       <c r="E9" s="189">
         <f>SUM(E2:E8)</f>
         <v>19920</v>
@@ -23135,12 +23148,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="212"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="214"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -23158,7 +23171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
@@ -23323,12 +23336,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="191">
         <f>SUM(E3:E9)</f>
         <v>37490</v>
@@ -23604,12 +23617,12 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="195" t="s">
+      <c r="A34" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="196"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="197"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="199"/>
       <c r="E34" s="191">
         <f>SUM(E26:E33)</f>
         <v>19470</v>
@@ -23832,12 +23845,12 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="195" t="s">
+      <c r="A57" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="196"/>
-      <c r="C57" s="196"/>
-      <c r="D57" s="197"/>
+      <c r="B57" s="198"/>
+      <c r="C57" s="198"/>
+      <c r="D57" s="199"/>
       <c r="E57" s="191">
         <f>SUM(E50:E56)</f>
         <v>54320</v>
@@ -24092,12 +24105,12 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="195" t="s">
+      <c r="A80" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="196"/>
-      <c r="C80" s="196"/>
-      <c r="D80" s="197"/>
+      <c r="B80" s="198"/>
+      <c r="C80" s="198"/>
+      <c r="D80" s="199"/>
       <c r="E80" s="191">
         <f>SUM(E72:E79)</f>
         <v>49300</v>
@@ -24177,8 +24190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24383,12 +24396,12 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="196"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="197"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="199"/>
       <c r="E12" s="193">
         <f>SUM(E3:E11)</f>
         <v>52650</v>
@@ -24650,12 +24663,12 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="195" t="s">
+      <c r="A34" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="196"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="197"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="199"/>
       <c r="E34" s="193">
         <f>SUM(E25:E33)</f>
         <v>44710</v>
@@ -24733,6 +24746,287 @@
   <mergeCells count="2">
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A34:D34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="50.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.8" customHeight="1">
+      <c r="A1" s="196" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="196" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="196" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="196" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="196" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.8" customHeight="1">
+      <c r="A2" s="195">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="195">
+        <v>2</v>
+      </c>
+      <c r="D2" s="195">
+        <v>4900</v>
+      </c>
+      <c r="E2" s="195">
+        <f t="shared" ref="E2:E9" si="0">C2*D2</f>
+        <v>9800</v>
+      </c>
+      <c r="H2">
+        <f>2450*2</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="25.8" customHeight="1">
+      <c r="A3" s="195">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" s="195">
+        <v>4</v>
+      </c>
+      <c r="D3" s="195">
+        <v>4700</v>
+      </c>
+      <c r="E3" s="195">
+        <f t="shared" si="0"/>
+        <v>18800</v>
+      </c>
+      <c r="H3">
+        <f>2350*2</f>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.4" customHeight="1">
+      <c r="A4" s="195">
+        <v>3</v>
+      </c>
+      <c r="B4" s="195" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="195">
+        <v>1</v>
+      </c>
+      <c r="D4" s="195">
+        <v>11880</v>
+      </c>
+      <c r="E4" s="195">
+        <f t="shared" si="0"/>
+        <v>11880</v>
+      </c>
+      <c r="H4">
+        <f>5940*2</f>
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.4">
+      <c r="A5" s="195">
+        <v>4</v>
+      </c>
+      <c r="B5" s="195" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="195">
+        <v>1</v>
+      </c>
+      <c r="D5" s="195">
+        <v>8600</v>
+      </c>
+      <c r="E5" s="195">
+        <f t="shared" si="0"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="34.799999999999997" customHeight="1">
+      <c r="A6" s="195">
+        <v>5</v>
+      </c>
+      <c r="B6" s="195" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="195">
+        <v>1</v>
+      </c>
+      <c r="D6" s="195">
+        <v>11900</v>
+      </c>
+      <c r="E6" s="195">
+        <f t="shared" si="0"/>
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.4">
+      <c r="A7" s="195">
+        <v>6</v>
+      </c>
+      <c r="B7" s="195" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="195">
+        <v>16</v>
+      </c>
+      <c r="D7" s="195">
+        <v>150</v>
+      </c>
+      <c r="E7" s="195">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="195">
+        <v>7</v>
+      </c>
+      <c r="B8" s="195" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="195">
+        <v>6</v>
+      </c>
+      <c r="D8" s="195">
+        <v>100</v>
+      </c>
+      <c r="E8" s="195">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.4">
+      <c r="A9" s="195">
+        <v>8</v>
+      </c>
+      <c r="B9" s="195" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="195">
+        <v>1</v>
+      </c>
+      <c r="D9" s="195">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="195">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="197" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="196">
+        <f>SUM(E2:E9)</f>
+        <v>67980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25019,12 +25313,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="211"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="212"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -25270,12 +25564,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="210" t="s">
+      <c r="A31" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="211"/>
-      <c r="C31" s="211"/>
-      <c r="D31" s="212"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="214"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -25496,12 +25790,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="210" t="s">
+      <c r="A9" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="211"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="212"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="214"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -25576,13 +25870,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="213" t="s">
+      <c r="A19" s="215" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="214"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="217"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -25592,11 +25886,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="216"/>
-      <c r="B20" s="217"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="218"/>
+      <c r="A20" s="218"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25711,12 +26005,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="212"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="214"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -25931,12 +26225,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="210" t="s">
+      <c r="A11" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="211"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="212"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="214"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -26105,12 +26399,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="212"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="214"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -26194,12 +26488,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="219" t="s">
+      <c r="A19" s="221" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="36" activeTab="41"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="36" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,8 @@
     <sheet name="Vatareshwar 310" sheetId="39" r:id="rId39"/>
     <sheet name="Dave Rodrigues 311" sheetId="40" r:id="rId40"/>
     <sheet name="Nazir Shaik 312" sheetId="41" r:id="rId41"/>
-    <sheet name="Urvashi Gogale 313" sheetId="42" r:id="rId42"/>
+    <sheet name="Urvashi Gohil 313" sheetId="42" r:id="rId42"/>
+    <sheet name="BSNL 314" sheetId="43" r:id="rId43"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="622">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2142,6 +2143,30 @@
   </si>
   <si>
     <t>Honeywell or Similar NVR Professional Series 10CH</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar 5MP Bullet Camera</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar 8 CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>Network Rack 2 U</t>
+  </si>
+  <si>
+    <t>Honeywell or Similar 4MP IP Bullet with inbuilt Audio</t>
+  </si>
+  <si>
+    <t>PVC Conduit with laying etc complete 20/25 mm</t>
+  </si>
+  <si>
+    <t>Supply and laying of cat 6 cables with laying pulling etc complete through PVC pipe / casing caping</t>
+  </si>
+  <si>
+    <t>If required extra Supply and laying of cat 6 cables through PVC pipe / casing caping to be chrarged as actualls @ 75/- per mtr + GST</t>
+  </si>
+  <si>
+    <t>if required extra Cabling RJ 59 copper + 3 / Cat 6 with casing, cabling, laying to be charged as actuals @ 75/- (per mtr) + GST</t>
   </si>
 </sst>
 </file>
@@ -2773,7 +2798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3335,6 +3360,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3342,6 +3376,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3363,21 +3412,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3422,6 +3456,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3440,18 +3513,6 @@
     <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3467,38 +3528,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4228,12 +4262,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="197" t="s">
+      <c r="A18" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="198"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="199"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="202"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -4359,12 +4393,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="197" t="s">
+      <c r="A27" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="198"/>
-      <c r="C27" s="198"/>
-      <c r="D27" s="199"/>
+      <c r="B27" s="201"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -4525,12 +4559,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="214"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="217"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -4614,12 +4648,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="221" t="s">
+      <c r="A19" s="224" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="221"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -4780,12 +4814,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="214"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="217"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4869,20 +4903,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="215" t="s">
+      <c r="A19" s="218" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="216"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="217"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="220"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="218"/>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="220"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="222"/>
+      <c r="E20" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5081,24 +5115,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="212" t="s">
+      <c r="A11" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="213"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="217"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="224" t="s">
+      <c r="A13" s="227" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="224"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="224"/>
+      <c r="B13" s="227"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -5298,12 +5332,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="212" t="s">
+      <c r="A30" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="213"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="214"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="217"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -5471,12 +5505,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="222" t="s">
+      <c r="A41" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="223"/>
-      <c r="C41" s="223"/>
-      <c r="D41" s="223"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="226"/>
+      <c r="D41" s="226"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -5711,24 +5745,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="212" t="s">
+      <c r="A11" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="213"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="217"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="225" t="s">
+      <c r="A13" s="228" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="225"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="225"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="228"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5892,12 +5926,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="212" t="s">
+      <c r="A28" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="213"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -6099,48 +6133,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="212" t="s">
+      <c r="A7" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="214"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="217"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="214"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="217"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="212" t="s">
+      <c r="A9" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="213"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="214"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="217"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="212" t="s">
+      <c r="A10" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="213"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="214"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="217"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -6231,48 +6265,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="212" t="s">
+      <c r="A17" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="213"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="214"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="217"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="212" t="s">
+      <c r="A18" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="213"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="214"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="217"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="212" t="s">
+      <c r="A19" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="213"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="214"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="217"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="212" t="s">
+      <c r="A20" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="213"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="214"/>
+      <c r="B20" s="216"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="217"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -6355,48 +6389,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="212" t="s">
+      <c r="A27" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="213"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="214"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="217"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="212" t="s">
+      <c r="A28" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="213"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="212" t="s">
+      <c r="A29" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="213"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="214"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="212" t="s">
+      <c r="A30" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="213"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="214"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="217"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -6584,12 +6618,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="199"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -6713,12 +6747,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="197" t="s">
+      <c r="A21" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="198"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="199"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="202"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6878,12 +6912,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="197" t="s">
+      <c r="A38" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="198"/>
-      <c r="C38" s="198"/>
-      <c r="D38" s="199"/>
+      <c r="B38" s="201"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="202"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -7103,12 +7137,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="248" t="s">
+      <c r="A59" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="249"/>
-      <c r="C59" s="249"/>
-      <c r="D59" s="250"/>
+      <c r="B59" s="233"/>
+      <c r="C59" s="233"/>
+      <c r="D59" s="234"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -7120,10 +7154,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="251" t="s">
+      <c r="A63" s="235" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="251"/>
+      <c r="B63" s="235"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -7336,12 +7370,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="197" t="s">
+      <c r="A79" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="198"/>
-      <c r="C79" s="198"/>
-      <c r="D79" s="199"/>
+      <c r="B79" s="201"/>
+      <c r="C79" s="201"/>
+      <c r="D79" s="202"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -7565,12 +7599,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="197" t="s">
+      <c r="A99" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="198"/>
-      <c r="C99" s="198"/>
-      <c r="D99" s="198"/>
+      <c r="B99" s="201"/>
+      <c r="C99" s="201"/>
+      <c r="D99" s="201"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -7716,31 +7750,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="247" t="s">
+      <c r="B116" s="229" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="247"/>
+      <c r="C116" s="229"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="234">
+      <c r="E116" s="230">
         <v>9000</v>
       </c>
-      <c r="F116" s="235"/>
+      <c r="F116" s="231"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="197" t="s">
+      <c r="A117" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="198"/>
-      <c r="C117" s="198"/>
-      <c r="D117" s="198"/>
-      <c r="E117" s="198"/>
-      <c r="F117" s="199"/>
+      <c r="B117" s="201"/>
+      <c r="C117" s="201"/>
+      <c r="D117" s="201"/>
+      <c r="E117" s="201"/>
+      <c r="F117" s="202"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7856,31 +7890,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="247" t="s">
+      <c r="B124" s="229" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="247"/>
+      <c r="C124" s="229"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="206">
+      <c r="E124" s="214">
         <v>9000</v>
       </c>
-      <c r="F124" s="206"/>
+      <c r="F124" s="214"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="244" t="s">
+      <c r="A125" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="245"/>
-      <c r="C125" s="245"/>
-      <c r="D125" s="245"/>
-      <c r="E125" s="245"/>
-      <c r="F125" s="246"/>
+      <c r="B125" s="237"/>
+      <c r="C125" s="237"/>
+      <c r="D125" s="237"/>
+      <c r="E125" s="237"/>
+      <c r="F125" s="238"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -7991,31 +8025,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="232" t="s">
+      <c r="B134" s="240" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="233"/>
+      <c r="C134" s="241"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="234">
+      <c r="E134" s="230">
         <v>12000</v>
       </c>
-      <c r="F134" s="235"/>
+      <c r="F134" s="231"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="244" t="s">
+      <c r="A135" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="245"/>
-      <c r="C135" s="245"/>
-      <c r="D135" s="245"/>
-      <c r="E135" s="245"/>
-      <c r="F135" s="246"/>
+      <c r="B135" s="237"/>
+      <c r="C135" s="237"/>
+      <c r="D135" s="237"/>
+      <c r="E135" s="237"/>
+      <c r="F135" s="238"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -8121,31 +8155,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="232" t="s">
+      <c r="B142" s="240" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="233"/>
+      <c r="C142" s="241"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="234">
+      <c r="E142" s="230">
         <v>12000</v>
       </c>
-      <c r="F142" s="235"/>
+      <c r="F142" s="231"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="244" t="s">
+      <c r="A143" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="245"/>
-      <c r="C143" s="245"/>
-      <c r="D143" s="245"/>
-      <c r="E143" s="245"/>
-      <c r="F143" s="246"/>
+      <c r="B143" s="237"/>
+      <c r="C143" s="237"/>
+      <c r="D143" s="237"/>
+      <c r="E143" s="237"/>
+      <c r="F143" s="238"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -8261,41 +8295,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="236" t="s">
+      <c r="B150" s="248" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="237"/>
+      <c r="C150" s="249"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="238">
+      <c r="E150" s="250">
         <v>12000</v>
       </c>
-      <c r="F150" s="239"/>
+      <c r="F150" s="251"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="241" t="s">
+      <c r="A151" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="241"/>
-      <c r="C151" s="241"/>
-      <c r="D151" s="241"/>
-      <c r="E151" s="241"/>
-      <c r="F151" s="241"/>
+      <c r="B151" s="239"/>
+      <c r="C151" s="239"/>
+      <c r="D151" s="239"/>
+      <c r="E151" s="239"/>
+      <c r="F151" s="239"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="240" t="s">
+      <c r="A154" s="252" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="240"/>
+      <c r="B154" s="252"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -8351,12 +8385,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="242" t="s">
+      <c r="A159" s="253" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="243"/>
-      <c r="C159" s="243"/>
-      <c r="D159" s="243"/>
+      <c r="B159" s="254"/>
+      <c r="C159" s="254"/>
+      <c r="D159" s="254"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -8414,12 +8448,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="241" t="s">
+      <c r="A163" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="241"/>
-      <c r="C163" s="241"/>
-      <c r="D163" s="241"/>
+      <c r="B163" s="239"/>
+      <c r="C163" s="239"/>
+      <c r="D163" s="239"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -10605,12 +10639,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="197" t="s">
+      <c r="A241" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="198"/>
-      <c r="C241" s="198"/>
-      <c r="D241" s="199"/>
+      <c r="B241" s="201"/>
+      <c r="C241" s="201"/>
+      <c r="D241" s="202"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -10759,12 +10793,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="197" t="s">
+      <c r="A254" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="198"/>
-      <c r="C254" s="198"/>
-      <c r="D254" s="199"/>
+      <c r="B254" s="201"/>
+      <c r="C254" s="201"/>
+      <c r="D254" s="202"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -10773,42 +10807,25 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="226" t="s">
+      <c r="A257" s="242" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="227"/>
-      <c r="C257" s="227"/>
-      <c r="D257" s="227"/>
-      <c r="E257" s="227"/>
-      <c r="F257" s="228"/>
+      <c r="B257" s="243"/>
+      <c r="C257" s="243"/>
+      <c r="D257" s="243"/>
+      <c r="E257" s="243"/>
+      <c r="F257" s="244"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="229"/>
-      <c r="B258" s="230"/>
-      <c r="C258" s="230"/>
-      <c r="D258" s="230"/>
-      <c r="E258" s="230"/>
-      <c r="F258" s="231"/>
+      <c r="A258" s="245"/>
+      <c r="B258" s="246"/>
+      <c r="C258" s="246"/>
+      <c r="D258" s="246"/>
+      <c r="E258" s="246"/>
+      <c r="F258" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B124:C124"/>
     <mergeCell ref="A257:F258"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="B142:C142"/>
@@ -10820,6 +10837,23 @@
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A254:D254"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A79:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11029,12 +11063,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="199"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="202"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -11048,13 +11082,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="241" t="s">
+      <c r="A14" s="239" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="241"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="239"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -11347,25 +11381,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="197" t="s">
+      <c r="A39" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="198"/>
-      <c r="C39" s="198"/>
-      <c r="D39" s="199"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="202"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="241" t="s">
+      <c r="A41" s="239" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="241"/>
-      <c r="C41" s="241"/>
-      <c r="D41" s="241"/>
-      <c r="E41" s="241"/>
+      <c r="B41" s="239"/>
+      <c r="C41" s="239"/>
+      <c r="D41" s="239"/>
+      <c r="E41" s="239"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -11574,12 +11608,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="252" t="s">
+      <c r="A70" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="253"/>
-      <c r="C70" s="253"/>
-      <c r="D70" s="254"/>
+      <c r="B70" s="256"/>
+      <c r="C70" s="256"/>
+      <c r="D70" s="257"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -11769,12 +11803,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -12029,12 +12063,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="197" t="s">
+      <c r="A33" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="198"/>
-      <c r="C33" s="198"/>
-      <c r="D33" s="199"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -12256,12 +12290,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="199"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -12300,13 +12334,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -12393,105 +12427,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="211" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="205">
+      <c r="C7" s="213">
         <v>2</v>
       </c>
-      <c r="D7" s="203" t="s">
+      <c r="D7" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="206">
+      <c r="E7" s="214">
         <v>567000</v>
       </c>
-      <c r="F7" s="206">
+      <c r="F7" s="214">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="203"/>
+      <c r="A8" s="211"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="203"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="205"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="203"/>
+      <c r="A10" s="211"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="205"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="203"/>
+      <c r="A11" s="211"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="205"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="203"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="205"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="206"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="203"/>
+      <c r="A13" s="211"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="205"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="206"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="203"/>
+      <c r="A14" s="211"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="205"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="203"/>
+      <c r="A15" s="211"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="205"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -12534,13 +12568,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="202"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="210"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -12626,7 +12660,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="203" t="s">
+      <c r="A24" s="211" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -12638,7 +12672,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="203"/>
+      <c r="A25" s="211"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -12657,7 +12691,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="203"/>
+      <c r="A26" s="211"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -12676,7 +12710,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="203"/>
+      <c r="A27" s="211"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -12714,13 +12748,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="200" t="s">
+      <c r="B30" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="201"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="201"/>
-      <c r="F30" s="202"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="210"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -12743,7 +12777,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="203" t="s">
+      <c r="A32" s="211" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -12755,7 +12789,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="203"/>
+      <c r="A33" s="211"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12769,7 +12803,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="203"/>
+      <c r="A34" s="211"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12783,7 +12817,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="203"/>
+      <c r="A35" s="211"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12797,7 +12831,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="203"/>
+      <c r="A36" s="211"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12811,7 +12845,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="203" t="s">
+      <c r="A37" s="211" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12823,7 +12857,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="203"/>
+      <c r="A38" s="211"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12842,7 +12876,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="203"/>
+      <c r="A39" s="211"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12861,7 +12895,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="203"/>
+      <c r="A40" s="211"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12880,7 +12914,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="203"/>
+      <c r="A41" s="211"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12899,7 +12933,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="203"/>
+      <c r="A42" s="211"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12940,13 +12974,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="200" t="s">
+      <c r="B45" s="208" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="201"/>
-      <c r="D45" s="201"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="202"/>
+      <c r="C45" s="209"/>
+      <c r="D45" s="209"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="210"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -13191,13 +13225,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="209" t="s">
+      <c r="A57" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="210"/>
-      <c r="C57" s="210"/>
-      <c r="D57" s="210"/>
-      <c r="E57" s="211"/>
+      <c r="B57" s="206"/>
+      <c r="C57" s="206"/>
+      <c r="D57" s="206"/>
+      <c r="E57" s="207"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -13215,13 +13249,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="207" t="s">
+      <c r="B59" s="203" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="207"/>
-      <c r="D59" s="207"/>
-      <c r="E59" s="207"/>
-      <c r="F59" s="207"/>
+      <c r="C59" s="203"/>
+      <c r="D59" s="203"/>
+      <c r="E59" s="203"/>
+      <c r="F59" s="203"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -13239,13 +13273,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="208" t="s">
+      <c r="B61" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="208"/>
-      <c r="D61" s="208"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="208"/>
+      <c r="C61" s="204"/>
+      <c r="D61" s="204"/>
+      <c r="E61" s="204"/>
+      <c r="F61" s="204"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -13265,35 +13299,30 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="208" t="s">
+      <c r="B63" s="204" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="208"/>
-      <c r="D63" s="208"/>
-      <c r="E63" s="208"/>
-      <c r="F63" s="208"/>
+      <c r="C63" s="204"/>
+      <c r="D63" s="204"/>
+      <c r="E63" s="204"/>
+      <c r="F63" s="204"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="208" t="s">
+      <c r="B64" s="204" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
-      <c r="E64" s="208"/>
-      <c r="F64" s="208"/>
+      <c r="C64" s="204"/>
+      <c r="D64" s="204"/>
+      <c r="E64" s="204"/>
+      <c r="F64" s="204"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="A57:E57"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B19:F19"/>
@@ -13306,6 +13335,11 @@
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="F7:F15"/>
     <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13508,12 +13542,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="199"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -13890,12 +13924,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="199"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="202"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -14181,12 +14215,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="197" t="s">
+      <c r="A37" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="198"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="199"/>
+      <c r="B37" s="201"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="202"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -14488,12 +14522,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="197" t="s">
+      <c r="A63" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="198"/>
-      <c r="C63" s="198"/>
-      <c r="D63" s="199"/>
+      <c r="B63" s="201"/>
+      <c r="C63" s="201"/>
+      <c r="D63" s="202"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -14606,183 +14640,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="255">
+      <c r="A2" s="258">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="255">
-        <v>1</v>
-      </c>
-      <c r="D2" s="255">
+      <c r="C2" s="258">
+        <v>1</v>
+      </c>
+      <c r="D2" s="258">
         <v>42000</v>
       </c>
-      <c r="E2" s="255">
+      <c r="E2" s="258">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="256"/>
+      <c r="A3" s="259"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="256"/>
+      <c r="A4" s="259"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="256"/>
+      <c r="A5" s="259"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="256"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="256"/>
+      <c r="A6" s="259"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="256"/>
+      <c r="A7" s="259"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="259"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="256"/>
+      <c r="A8" s="259"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="256"/>
+      <c r="A9" s="259"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="256"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="259"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="256"/>
+      <c r="A10" s="259"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="256"/>
-      <c r="D10" s="256"/>
-      <c r="E10" s="256"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="256"/>
+      <c r="A11" s="259"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="256"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="256"/>
+      <c r="A12" s="259"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
+      <c r="C12" s="259"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="259"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="256"/>
+      <c r="A13" s="259"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
+      <c r="C13" s="259"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="259"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="256"/>
+      <c r="A14" s="259"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="256"/>
+      <c r="A15" s="259"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
+      <c r="C15" s="259"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="256"/>
+      <c r="A16" s="259"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="256"/>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
+      <c r="C16" s="259"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="256"/>
+      <c r="A17" s="259"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="256"/>
+      <c r="A18" s="259"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="256"/>
-      <c r="E18" s="256"/>
+      <c r="C18" s="259"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="259"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="257"/>
+      <c r="A19" s="260"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="257"/>
-      <c r="D19" s="257"/>
-      <c r="E19" s="257"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="260"/>
+      <c r="E19" s="260"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="241" t="s">
+      <c r="A20" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="241"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
+      <c r="B20" s="239"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="239"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -15098,12 +15132,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -15356,12 +15390,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="199"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -15584,10 +15618,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="262" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="259"/>
+      <c r="C6" s="262"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -15601,13 +15635,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="258" t="s">
+      <c r="A7" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="258"/>
-      <c r="D7" s="258"/>
-      <c r="E7" s="258"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -15763,10 +15797,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="259" t="s">
+      <c r="B26" s="262" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="259"/>
+      <c r="C26" s="262"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -15780,13 +15814,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="258" t="s">
+      <c r="A27" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="258"/>
-      <c r="C27" s="258"/>
-      <c r="D27" s="258"/>
-      <c r="E27" s="258"/>
+      <c r="B27" s="261"/>
+      <c r="C27" s="261"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="261"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -15998,12 +16032,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -16293,12 +16327,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="197" t="s">
+      <c r="A37" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="198"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="199"/>
+      <c r="B37" s="201"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="202"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -16565,12 +16599,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="145">
         <f>SUM(E3:E10)</f>
         <v>99820</v>
@@ -16887,12 +16921,12 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="197" t="s">
+      <c r="A36" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="198"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="199"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="202"/>
       <c r="E36" s="145">
         <f>SUM(E27:E35)</f>
         <v>56780</v>
@@ -17148,12 +17182,12 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="197" t="s">
+      <c r="A55" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="198"/>
-      <c r="C55" s="198"/>
-      <c r="D55" s="199"/>
+      <c r="B55" s="201"/>
+      <c r="C55" s="201"/>
+      <c r="D55" s="202"/>
       <c r="E55" s="145">
         <f>SUM(E46:E54)</f>
         <v>86940</v>
@@ -17347,12 +17381,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="197" t="s">
+      <c r="A68" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="198"/>
-      <c r="C68" s="198"/>
-      <c r="D68" s="199"/>
+      <c r="B68" s="201"/>
+      <c r="C68" s="201"/>
+      <c r="D68" s="202"/>
       <c r="E68" s="145">
         <f>SUM(E59:E67)</f>
         <v>49380</v>
@@ -17544,12 +17578,12 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="199"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="147">
         <f>SUM(E3:E9)</f>
         <v>69770</v>
@@ -17834,12 +17868,12 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="197" t="s">
+      <c r="A36" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="198"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="199"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="202"/>
       <c r="E36" s="147">
         <f>SUM(E29:E35)</f>
         <v>66840</v>
@@ -17966,165 +18000,165 @@
       <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="260">
+      <c r="A3" s="263">
         <v>1</v>
       </c>
       <c r="B3" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="260">
-        <v>1</v>
-      </c>
-      <c r="D3" s="260">
+      <c r="C3" s="263">
+        <v>1</v>
+      </c>
+      <c r="D3" s="263">
         <v>75900</v>
       </c>
-      <c r="E3" s="260">
+      <c r="E3" s="263">
         <f>C3*D3</f>
         <v>75900</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="261"/>
+      <c r="A4" s="264"/>
       <c r="B4" s="152" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="261"/>
+      <c r="A5" s="264"/>
       <c r="B5" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="261"/>
+      <c r="A6" s="264"/>
       <c r="B6" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="261"/>
+      <c r="A7" s="264"/>
       <c r="B7" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
+      <c r="E7" s="264"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="261"/>
+      <c r="A8" s="264"/>
       <c r="B8" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="261"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="261"/>
+      <c r="A9" s="264"/>
       <c r="B9" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="261"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="261"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="261"/>
+      <c r="A10" s="264"/>
       <c r="B10" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="261"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="261"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="261"/>
+      <c r="A11" s="264"/>
       <c r="B11" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="261"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="264"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="261"/>
+      <c r="A12" s="264"/>
       <c r="B12" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="261"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="261"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="264"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="261"/>
+      <c r="A13" s="264"/>
       <c r="B13" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="261"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="261"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="264"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="261"/>
+      <c r="A14" s="264"/>
       <c r="B14" s="152" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="261"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="261"/>
+      <c r="C14" s="264"/>
+      <c r="D14" s="264"/>
+      <c r="E14" s="264"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="261"/>
+      <c r="A15" s="264"/>
       <c r="B15" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="261"/>
-      <c r="D15" s="261"/>
-      <c r="E15" s="261"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="264"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="261"/>
+      <c r="A16" s="264"/>
       <c r="B16" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="261"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="261"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="264"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="261"/>
+      <c r="A17" s="264"/>
       <c r="B17" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="261"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="262"/>
+      <c r="A18" s="265"/>
       <c r="B18" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C18" s="262"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="262"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="265"/>
+      <c r="E18" s="265"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="265" t="s">
+      <c r="A19" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="266"/>
-      <c r="C19" s="266"/>
-      <c r="D19" s="267"/>
+      <c r="B19" s="269"/>
+      <c r="C19" s="269"/>
+      <c r="D19" s="270"/>
       <c r="E19" s="153">
         <f>SUM(E3)</f>
         <v>75900</v>
@@ -18151,7 +18185,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.8">
-      <c r="A27" s="263">
+      <c r="A27" s="266">
         <v>1</v>
       </c>
       <c r="B27" s="152" t="s">
@@ -18163,16 +18197,16 @@
       <c r="D27" s="149">
         <v>1</v>
       </c>
-      <c r="E27" s="263">
+      <c r="E27" s="266">
         <v>69000</v>
       </c>
-      <c r="F27" s="263">
+      <c r="F27" s="266">
         <f>D27*E27</f>
         <v>69000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="262.2">
-      <c r="A28" s="263"/>
+      <c r="A28" s="266"/>
       <c r="B28" s="152" t="s">
         <v>475</v>
       </c>
@@ -18182,11 +18216,11 @@
       <c r="D28" s="149">
         <v>1</v>
       </c>
-      <c r="E28" s="263"/>
-      <c r="F28" s="263"/>
+      <c r="E28" s="266"/>
+      <c r="F28" s="266"/>
     </row>
     <row r="29" spans="1:6" ht="124.2">
-      <c r="A29" s="263"/>
+      <c r="A29" s="266"/>
       <c r="B29" s="152" t="s">
         <v>477</v>
       </c>
@@ -18196,11 +18230,11 @@
       <c r="D29" s="149">
         <v>1</v>
       </c>
-      <c r="E29" s="263"/>
-      <c r="F29" s="263"/>
+      <c r="E29" s="266"/>
+      <c r="F29" s="266"/>
     </row>
     <row r="30" spans="1:6" ht="248.4">
-      <c r="A30" s="263"/>
+      <c r="A30" s="266"/>
       <c r="B30" s="152" t="s">
         <v>479</v>
       </c>
@@ -18210,11 +18244,11 @@
       <c r="D30" s="149">
         <v>1</v>
       </c>
-      <c r="E30" s="263"/>
-      <c r="F30" s="263"/>
+      <c r="E30" s="266"/>
+      <c r="F30" s="266"/>
     </row>
     <row r="31" spans="1:6" ht="69">
-      <c r="A31" s="263"/>
+      <c r="A31" s="266"/>
       <c r="B31" s="152" t="s">
         <v>481</v>
       </c>
@@ -18224,11 +18258,11 @@
       <c r="D31" s="149">
         <v>1</v>
       </c>
-      <c r="E31" s="263"/>
-      <c r="F31" s="263"/>
+      <c r="E31" s="266"/>
+      <c r="F31" s="266"/>
     </row>
     <row r="32" spans="1:6" ht="179.4">
-      <c r="A32" s="263"/>
+      <c r="A32" s="266"/>
       <c r="B32" s="152" t="s">
         <v>483</v>
       </c>
@@ -18238,11 +18272,11 @@
       <c r="D32" s="149">
         <v>1</v>
       </c>
-      <c r="E32" s="263"/>
-      <c r="F32" s="263"/>
+      <c r="E32" s="266"/>
+      <c r="F32" s="266"/>
     </row>
     <row r="33" spans="1:6" ht="82.8">
-      <c r="A33" s="263"/>
+      <c r="A33" s="266"/>
       <c r="B33" s="152" t="s">
         <v>483</v>
       </c>
@@ -18252,11 +18286,11 @@
       <c r="D33" s="149">
         <v>1</v>
       </c>
-      <c r="E33" s="263"/>
-      <c r="F33" s="263"/>
+      <c r="E33" s="266"/>
+      <c r="F33" s="266"/>
     </row>
     <row r="34" spans="1:6" ht="96.6">
-      <c r="A34" s="263"/>
+      <c r="A34" s="266"/>
       <c r="B34" s="152" t="s">
         <v>483</v>
       </c>
@@ -18266,11 +18300,11 @@
       <c r="D34" s="149">
         <v>1</v>
       </c>
-      <c r="E34" s="263"/>
-      <c r="F34" s="263"/>
+      <c r="E34" s="266"/>
+      <c r="F34" s="266"/>
     </row>
     <row r="35" spans="1:6" ht="234.6">
-      <c r="A35" s="263"/>
+      <c r="A35" s="266"/>
       <c r="B35" s="152" t="s">
         <v>487</v>
       </c>
@@ -18280,11 +18314,11 @@
       <c r="D35" s="149">
         <v>1</v>
       </c>
-      <c r="E35" s="263"/>
-      <c r="F35" s="263"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="266"/>
     </row>
     <row r="36" spans="1:6" ht="165.6">
-      <c r="A36" s="263"/>
+      <c r="A36" s="266"/>
       <c r="B36" s="152" t="s">
         <v>489</v>
       </c>
@@ -18294,11 +18328,11 @@
       <c r="D36" s="149">
         <v>1</v>
       </c>
-      <c r="E36" s="263"/>
-      <c r="F36" s="263"/>
+      <c r="E36" s="266"/>
+      <c r="F36" s="266"/>
     </row>
     <row r="37" spans="1:6" ht="27.6">
-      <c r="A37" s="263"/>
+      <c r="A37" s="266"/>
       <c r="B37" s="152" t="s">
         <v>493</v>
       </c>
@@ -18308,11 +18342,11 @@
       <c r="D37" s="149">
         <v>1</v>
       </c>
-      <c r="E37" s="263"/>
-      <c r="F37" s="263"/>
+      <c r="E37" s="266"/>
+      <c r="F37" s="266"/>
     </row>
     <row r="38" spans="1:6" ht="82.8">
-      <c r="A38" s="263"/>
+      <c r="A38" s="266"/>
       <c r="B38" s="152" t="s">
         <v>494</v>
       </c>
@@ -18322,11 +18356,11 @@
       <c r="D38" s="149">
         <v>1</v>
       </c>
-      <c r="E38" s="263"/>
-      <c r="F38" s="263"/>
+      <c r="E38" s="266"/>
+      <c r="F38" s="266"/>
     </row>
     <row r="39" spans="1:6" ht="55.2">
-      <c r="A39" s="263"/>
+      <c r="A39" s="266"/>
       <c r="B39" s="152" t="s">
         <v>495</v>
       </c>
@@ -18336,11 +18370,11 @@
       <c r="D39" s="149">
         <v>1</v>
       </c>
-      <c r="E39" s="263"/>
-      <c r="F39" s="263"/>
+      <c r="E39" s="266"/>
+      <c r="F39" s="266"/>
     </row>
     <row r="40" spans="1:6" ht="138">
-      <c r="A40" s="263"/>
+      <c r="A40" s="266"/>
       <c r="B40" s="152" t="s">
         <v>497</v>
       </c>
@@ -18350,11 +18384,11 @@
       <c r="D40" s="149">
         <v>1</v>
       </c>
-      <c r="E40" s="263"/>
-      <c r="F40" s="263"/>
+      <c r="E40" s="266"/>
+      <c r="F40" s="266"/>
     </row>
     <row r="41" spans="1:6" ht="96.6">
-      <c r="A41" s="263"/>
+      <c r="A41" s="266"/>
       <c r="B41" s="152" t="s">
         <v>499</v>
       </c>
@@ -18364,11 +18398,11 @@
       <c r="D41" s="149">
         <v>1</v>
       </c>
-      <c r="E41" s="263"/>
-      <c r="F41" s="263"/>
+      <c r="E41" s="266"/>
+      <c r="F41" s="266"/>
     </row>
     <row r="42" spans="1:6" ht="317.39999999999998">
-      <c r="A42" s="263"/>
+      <c r="A42" s="266"/>
       <c r="B42" s="152" t="s">
         <v>501</v>
       </c>
@@ -18378,11 +18412,11 @@
       <c r="D42" s="149">
         <v>1</v>
       </c>
-      <c r="E42" s="263"/>
-      <c r="F42" s="263"/>
+      <c r="E42" s="266"/>
+      <c r="F42" s="266"/>
     </row>
     <row r="43" spans="1:6" ht="69">
-      <c r="A43" s="263"/>
+      <c r="A43" s="266"/>
       <c r="B43" s="152" t="s">
         <v>501</v>
       </c>
@@ -18392,11 +18426,11 @@
       <c r="D43" s="149">
         <v>1</v>
       </c>
-      <c r="E43" s="263"/>
-      <c r="F43" s="263"/>
+      <c r="E43" s="266"/>
+      <c r="F43" s="266"/>
     </row>
     <row r="44" spans="1:6" ht="193.2">
-      <c r="A44" s="263"/>
+      <c r="A44" s="266"/>
       <c r="B44" s="152" t="s">
         <v>501</v>
       </c>
@@ -18406,11 +18440,11 @@
       <c r="D44" s="149">
         <v>1</v>
       </c>
-      <c r="E44" s="263"/>
-      <c r="F44" s="263"/>
+      <c r="E44" s="266"/>
+      <c r="F44" s="266"/>
     </row>
     <row r="45" spans="1:6" ht="234.6">
-      <c r="A45" s="263"/>
+      <c r="A45" s="266"/>
       <c r="B45" s="152" t="s">
         <v>505</v>
       </c>
@@ -18420,11 +18454,11 @@
       <c r="D45" s="149">
         <v>1</v>
       </c>
-      <c r="E45" s="263"/>
-      <c r="F45" s="263"/>
+      <c r="E45" s="266"/>
+      <c r="F45" s="266"/>
     </row>
     <row r="46" spans="1:6" ht="69">
-      <c r="A46" s="263"/>
+      <c r="A46" s="266"/>
       <c r="B46" s="152" t="s">
         <v>507</v>
       </c>
@@ -18434,11 +18468,11 @@
       <c r="D46" s="149">
         <v>1</v>
       </c>
-      <c r="E46" s="263"/>
-      <c r="F46" s="263"/>
+      <c r="E46" s="266"/>
+      <c r="F46" s="266"/>
     </row>
     <row r="47" spans="1:6" ht="110.4">
-      <c r="A47" s="263"/>
+      <c r="A47" s="266"/>
       <c r="B47" s="152" t="s">
         <v>509</v>
       </c>
@@ -18448,11 +18482,11 @@
       <c r="D47" s="149">
         <v>1</v>
       </c>
-      <c r="E47" s="263"/>
-      <c r="F47" s="263"/>
+      <c r="E47" s="266"/>
+      <c r="F47" s="266"/>
     </row>
     <row r="48" spans="1:6" ht="96.6">
-      <c r="A48" s="263"/>
+      <c r="A48" s="266"/>
       <c r="B48" s="152" t="s">
         <v>509</v>
       </c>
@@ -18462,11 +18496,11 @@
       <c r="D48" s="149">
         <v>1</v>
       </c>
-      <c r="E48" s="263"/>
-      <c r="F48" s="263"/>
+      <c r="E48" s="266"/>
+      <c r="F48" s="266"/>
     </row>
     <row r="49" spans="1:6" ht="110.4">
-      <c r="A49" s="263"/>
+      <c r="A49" s="266"/>
       <c r="B49" s="152" t="s">
         <v>512</v>
       </c>
@@ -18476,11 +18510,11 @@
       <c r="D49" s="149">
         <v>1</v>
       </c>
-      <c r="E49" s="263"/>
-      <c r="F49" s="263"/>
+      <c r="E49" s="266"/>
+      <c r="F49" s="266"/>
     </row>
     <row r="50" spans="1:6" ht="165.6">
-      <c r="A50" s="263"/>
+      <c r="A50" s="266"/>
       <c r="B50" s="152" t="s">
         <v>514</v>
       </c>
@@ -18490,11 +18524,11 @@
       <c r="D50" s="149">
         <v>1</v>
       </c>
-      <c r="E50" s="263"/>
-      <c r="F50" s="263"/>
+      <c r="E50" s="266"/>
+      <c r="F50" s="266"/>
     </row>
     <row r="51" spans="1:6" ht="165.6">
-      <c r="A51" s="263"/>
+      <c r="A51" s="266"/>
       <c r="B51" s="152" t="s">
         <v>516</v>
       </c>
@@ -18504,11 +18538,11 @@
       <c r="D51" s="149">
         <v>1</v>
       </c>
-      <c r="E51" s="263"/>
-      <c r="F51" s="263"/>
+      <c r="E51" s="266"/>
+      <c r="F51" s="266"/>
     </row>
     <row r="52" spans="1:6" ht="151.80000000000001">
-      <c r="A52" s="263"/>
+      <c r="A52" s="266"/>
       <c r="B52" s="152" t="s">
         <v>518</v>
       </c>
@@ -18518,11 +18552,11 @@
       <c r="D52" s="149">
         <v>1</v>
       </c>
-      <c r="E52" s="263"/>
-      <c r="F52" s="263"/>
+      <c r="E52" s="266"/>
+      <c r="F52" s="266"/>
     </row>
     <row r="53" spans="1:6" ht="55.2">
-      <c r="A53" s="263"/>
+      <c r="A53" s="266"/>
       <c r="B53" s="152" t="s">
         <v>520</v>
       </c>
@@ -18532,11 +18566,11 @@
       <c r="D53" s="149">
         <v>1</v>
       </c>
-      <c r="E53" s="263"/>
-      <c r="F53" s="263"/>
+      <c r="E53" s="266"/>
+      <c r="F53" s="266"/>
     </row>
     <row r="54" spans="1:6" ht="82.8">
-      <c r="A54" s="263"/>
+      <c r="A54" s="266"/>
       <c r="B54" s="152" t="s">
         <v>523</v>
       </c>
@@ -18546,11 +18580,11 @@
       <c r="D54" s="149">
         <v>1</v>
       </c>
-      <c r="E54" s="263"/>
-      <c r="F54" s="263"/>
+      <c r="E54" s="266"/>
+      <c r="F54" s="266"/>
     </row>
     <row r="55" spans="1:6" ht="96.6">
-      <c r="A55" s="263"/>
+      <c r="A55" s="266"/>
       <c r="B55" s="152" t="s">
         <v>524</v>
       </c>
@@ -18560,11 +18594,11 @@
       <c r="D55" s="149">
         <v>1</v>
       </c>
-      <c r="E55" s="263"/>
-      <c r="F55" s="263"/>
+      <c r="E55" s="266"/>
+      <c r="F55" s="266"/>
     </row>
     <row r="56" spans="1:6" ht="82.8">
-      <c r="A56" s="263"/>
+      <c r="A56" s="266"/>
       <c r="B56" s="152" t="s">
         <v>526</v>
       </c>
@@ -18574,11 +18608,11 @@
       <c r="D56" s="149">
         <v>1</v>
       </c>
-      <c r="E56" s="263"/>
-      <c r="F56" s="263"/>
+      <c r="E56" s="266"/>
+      <c r="F56" s="266"/>
     </row>
     <row r="57" spans="1:6" ht="41.4">
-      <c r="A57" s="263"/>
+      <c r="A57" s="266"/>
       <c r="B57" s="150" t="s">
         <v>418</v>
       </c>
@@ -18586,11 +18620,11 @@
         <v>1</v>
       </c>
       <c r="D57" s="149"/>
-      <c r="E57" s="263"/>
-      <c r="F57" s="263"/>
+      <c r="E57" s="266"/>
+      <c r="F57" s="266"/>
     </row>
     <row r="58" spans="1:6" ht="82.8">
-      <c r="A58" s="263"/>
+      <c r="A58" s="266"/>
       <c r="B58" s="152" t="s">
         <v>528</v>
       </c>
@@ -18600,11 +18634,11 @@
       <c r="D58" s="149">
         <v>1</v>
       </c>
-      <c r="E58" s="263"/>
-      <c r="F58" s="263"/>
+      <c r="E58" s="266"/>
+      <c r="F58" s="266"/>
     </row>
     <row r="59" spans="1:6" ht="41.4">
-      <c r="A59" s="263"/>
+      <c r="A59" s="266"/>
       <c r="B59" s="152" t="s">
         <v>501</v>
       </c>
@@ -18614,11 +18648,11 @@
       <c r="D59" s="149">
         <v>1</v>
       </c>
-      <c r="E59" s="263"/>
-      <c r="F59" s="263"/>
+      <c r="E59" s="266"/>
+      <c r="F59" s="266"/>
     </row>
     <row r="60" spans="1:6" ht="138">
-      <c r="A60" s="263"/>
+      <c r="A60" s="266"/>
       <c r="B60" s="152" t="s">
         <v>501</v>
       </c>
@@ -18628,11 +18662,11 @@
       <c r="D60" s="149">
         <v>1</v>
       </c>
-      <c r="E60" s="263"/>
-      <c r="F60" s="263"/>
+      <c r="E60" s="266"/>
+      <c r="F60" s="266"/>
     </row>
     <row r="61" spans="1:6" ht="69">
-      <c r="A61" s="263"/>
+      <c r="A61" s="266"/>
       <c r="B61" s="152" t="s">
         <v>501</v>
       </c>
@@ -18642,11 +18676,11 @@
       <c r="D61" s="149">
         <v>1</v>
       </c>
-      <c r="E61" s="263"/>
-      <c r="F61" s="263"/>
+      <c r="E61" s="266"/>
+      <c r="F61" s="266"/>
     </row>
     <row r="62" spans="1:6" ht="110.4">
-      <c r="A62" s="263"/>
+      <c r="A62" s="266"/>
       <c r="B62" s="152" t="s">
         <v>501</v>
       </c>
@@ -18656,11 +18690,11 @@
       <c r="D62" s="149">
         <v>1</v>
       </c>
-      <c r="E62" s="263"/>
-      <c r="F62" s="263"/>
+      <c r="E62" s="266"/>
+      <c r="F62" s="266"/>
     </row>
     <row r="63" spans="1:6" ht="96.6">
-      <c r="A63" s="263"/>
+      <c r="A63" s="266"/>
       <c r="B63" s="152" t="s">
         <v>534</v>
       </c>
@@ -18670,11 +18704,11 @@
       <c r="D63" s="149">
         <v>1</v>
       </c>
-      <c r="E63" s="263"/>
-      <c r="F63" s="263"/>
+      <c r="E63" s="266"/>
+      <c r="F63" s="266"/>
     </row>
     <row r="64" spans="1:6" ht="110.4">
-      <c r="A64" s="263"/>
+      <c r="A64" s="266"/>
       <c r="B64" s="152" t="s">
         <v>536</v>
       </c>
@@ -18684,11 +18718,11 @@
       <c r="D64" s="149">
         <v>1</v>
       </c>
-      <c r="E64" s="263"/>
-      <c r="F64" s="263"/>
+      <c r="E64" s="266"/>
+      <c r="F64" s="266"/>
     </row>
     <row r="65" spans="1:6" ht="41.4">
-      <c r="A65" s="263"/>
+      <c r="A65" s="266"/>
       <c r="B65" s="150" t="s">
         <v>538</v>
       </c>
@@ -18696,11 +18730,11 @@
         <v>1</v>
       </c>
       <c r="D65" s="149"/>
-      <c r="E65" s="263"/>
-      <c r="F65" s="263"/>
+      <c r="E65" s="266"/>
+      <c r="F65" s="266"/>
     </row>
     <row r="66" spans="1:6" ht="124.2">
-      <c r="A66" s="263"/>
+      <c r="A66" s="266"/>
       <c r="B66" s="152" t="s">
         <v>540</v>
       </c>
@@ -18710,11 +18744,11 @@
       <c r="D66" s="149">
         <v>1</v>
       </c>
-      <c r="E66" s="263"/>
-      <c r="F66" s="263"/>
+      <c r="E66" s="266"/>
+      <c r="F66" s="266"/>
     </row>
     <row r="67" spans="1:6" ht="151.80000000000001">
-      <c r="A67" s="263"/>
+      <c r="A67" s="266"/>
       <c r="B67" s="152" t="s">
         <v>541</v>
       </c>
@@ -18724,17 +18758,17 @@
       <c r="D67" s="149">
         <v>1</v>
       </c>
-      <c r="E67" s="263"/>
-      <c r="F67" s="263"/>
+      <c r="E67" s="266"/>
+      <c r="F67" s="266"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="264" t="s">
+      <c r="A68" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="264"/>
-      <c r="C68" s="264"/>
-      <c r="D68" s="264"/>
-      <c r="E68" s="264"/>
+      <c r="B68" s="267"/>
+      <c r="C68" s="267"/>
+      <c r="D68" s="267"/>
+      <c r="E68" s="267"/>
       <c r="F68" s="150">
         <f>SUM(F27:F27)</f>
         <v>69000</v>
@@ -18845,48 +18879,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="214"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="217"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="214"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="217"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="212" t="s">
+      <c r="A7" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="214"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="217"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="214"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="217"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -18949,11 +18983,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
       <c r="D3" s="153">
         <f>SUM(D2)</f>
         <v>45000</v>
@@ -19148,12 +19182,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="199"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="158">
         <f>SUM(E2:E9)</f>
         <v>82970</v>
@@ -19435,12 +19469,12 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="197" t="s">
+      <c r="A36" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="198"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="199"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="202"/>
       <c r="E36" s="158">
         <f>SUM(E28:E35)</f>
         <v>82850</v>
@@ -19739,12 +19773,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="162">
         <f>SUM(E3:E10)</f>
         <v>152800</v>
@@ -20020,12 +20054,12 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="197" t="s">
+      <c r="A35" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="198"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="199"/>
+      <c r="B35" s="201"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="202"/>
       <c r="E35" s="162">
         <f>SUM(E27:E34)</f>
         <v>95050</v>
@@ -20266,12 +20300,12 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="197" t="s">
+      <c r="A59" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="198"/>
-      <c r="C59" s="198"/>
-      <c r="D59" s="199"/>
+      <c r="B59" s="201"/>
+      <c r="C59" s="201"/>
+      <c r="D59" s="202"/>
       <c r="E59" s="162">
         <f>SUM(E51:E58)</f>
         <v>139220</v>
@@ -20526,12 +20560,12 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="197" t="s">
+      <c r="A82" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="198"/>
-      <c r="C82" s="198"/>
-      <c r="D82" s="199"/>
+      <c r="B82" s="201"/>
+      <c r="C82" s="201"/>
+      <c r="D82" s="202"/>
       <c r="E82" s="162">
         <f>SUM(E74:E81)</f>
         <v>82350</v>
@@ -20656,48 +20690,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="268" t="s">
+      <c r="A3" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
       <c r="E3" s="166">
         <f>SUM(E2)</f>
         <v>27900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="268" t="s">
+      <c r="A4" s="271" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="269"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
       <c r="E4" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="268" t="s">
+      <c r="A5" s="271" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="269"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
       <c r="E5" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="268" t="s">
+      <c r="A6" s="271" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="269"/>
-      <c r="C6" s="269"/>
-      <c r="D6" s="269"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
       <c r="E6" s="166">
         <f>SUM(E3:E5)</f>
         <v>32922</v>
@@ -20902,12 +20936,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="199"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="168">
         <f>SUM(E2:E9)</f>
         <v>79850</v>
@@ -21138,12 +21172,12 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="197" t="s">
+      <c r="A30" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="198"/>
-      <c r="C30" s="198"/>
-      <c r="D30" s="199"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
       <c r="E30" s="170">
         <f>SUM(E23:E29)</f>
         <v>49710</v>
@@ -21396,12 +21430,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
       <c r="E9" s="172">
         <f>SUM(E3:E8)</f>
         <v>347036</v>
@@ -21607,12 +21641,12 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="270" t="s">
+      <c r="A23" s="273" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="270"/>
-      <c r="C23" s="270"/>
-      <c r="D23" s="270"/>
+      <c r="B23" s="273"/>
+      <c r="C23" s="273"/>
+      <c r="D23" s="273"/>
       <c r="E23" s="175">
         <f>SUM(E16:E22)</f>
         <v>728300</v>
@@ -21834,12 +21868,12 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="271" t="s">
+      <c r="A39" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="272"/>
-      <c r="C39" s="272"/>
-      <c r="D39" s="273"/>
+      <c r="B39" s="275"/>
+      <c r="C39" s="275"/>
+      <c r="D39" s="276"/>
       <c r="E39" s="175">
         <f>SUM(E32:E38)</f>
         <v>661616</v>
@@ -22061,12 +22095,12 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="199"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="177">
         <f>SUM(E2:E9)</f>
         <v>32840</v>
@@ -22319,12 +22353,12 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="197" t="s">
+      <c r="A29" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="198"/>
-      <c r="C29" s="198"/>
-      <c r="D29" s="199"/>
+      <c r="B29" s="201"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
       <c r="E29" s="177">
         <f>SUM(E21:E28)</f>
         <v>28840</v>
@@ -22472,12 +22506,12 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="274" t="s">
+      <c r="A5" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="275"/>
-      <c r="C5" s="275"/>
-      <c r="D5" s="276"/>
+      <c r="B5" s="278"/>
+      <c r="C5" s="278"/>
+      <c r="D5" s="279"/>
       <c r="E5" s="182">
         <f>SUM(E3:E4)</f>
         <v>190000</v>
@@ -22549,12 +22583,12 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="274" t="s">
+      <c r="A12" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="275"/>
-      <c r="C12" s="275"/>
-      <c r="D12" s="276"/>
+      <c r="B12" s="278"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="279"/>
       <c r="E12" s="182">
         <f>SUM(E10:E11)</f>
         <v>40000</v>
@@ -22655,10 +22689,10 @@
       <c r="A5" s="183">
         <v>3</v>
       </c>
-      <c r="B5" s="278" t="s">
+      <c r="B5" s="281" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="279"/>
+      <c r="C5" s="282"/>
       <c r="D5" s="183">
         <v>1</v>
       </c>
@@ -22674,10 +22708,10 @@
       <c r="A6" s="183">
         <v>4</v>
       </c>
-      <c r="B6" s="278" t="s">
+      <c r="B6" s="281" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="279"/>
+      <c r="C6" s="282"/>
       <c r="D6" s="183">
         <v>1</v>
       </c>
@@ -22690,13 +22724,13 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="277" t="s">
+      <c r="A7" s="280" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="277"/>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
       <c r="F7" s="182">
         <f>SUM(F3:F6)</f>
         <v>96000</v>
@@ -22752,10 +22786,10 @@
       <c r="A12" s="183">
         <v>2</v>
       </c>
-      <c r="B12" s="278" t="s">
+      <c r="B12" s="281" t="s">
         <v>593</v>
       </c>
-      <c r="C12" s="279"/>
+      <c r="C12" s="282"/>
       <c r="D12" s="183">
         <v>1</v>
       </c>
@@ -22771,10 +22805,10 @@
       <c r="A13" s="183">
         <v>3</v>
       </c>
-      <c r="B13" s="278" t="s">
+      <c r="B13" s="281" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="279"/>
+      <c r="C13" s="282"/>
       <c r="D13" s="183">
         <v>1</v>
       </c>
@@ -22787,13 +22821,13 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="277" t="s">
+      <c r="A14" s="280" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="277"/>
-      <c r="C14" s="277"/>
-      <c r="D14" s="277"/>
-      <c r="E14" s="277"/>
+      <c r="B14" s="280"/>
+      <c r="C14" s="280"/>
+      <c r="D14" s="280"/>
+      <c r="E14" s="280"/>
       <c r="F14" s="182">
         <f>SUM(F11:F13)</f>
         <v>61500</v>
@@ -23009,12 +23043,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="199"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
       <c r="E9" s="189">
         <f>SUM(E2:E8)</f>
         <v>19920</v>
@@ -23148,12 +23182,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="214"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="217"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -23336,12 +23370,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="199"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="191">
         <f>SUM(E3:E9)</f>
         <v>37490</v>
@@ -23617,12 +23651,12 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="197" t="s">
+      <c r="A34" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="198"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="199"/>
+      <c r="B34" s="201"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="202"/>
       <c r="E34" s="191">
         <f>SUM(E26:E33)</f>
         <v>19470</v>
@@ -23845,12 +23879,12 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="197" t="s">
+      <c r="A57" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="198"/>
-      <c r="C57" s="198"/>
-      <c r="D57" s="199"/>
+      <c r="B57" s="201"/>
+      <c r="C57" s="201"/>
+      <c r="D57" s="202"/>
       <c r="E57" s="191">
         <f>SUM(E50:E56)</f>
         <v>54320</v>
@@ -24105,12 +24139,12 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="197" t="s">
+      <c r="A80" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="198"/>
-      <c r="C80" s="198"/>
-      <c r="D80" s="199"/>
+      <c r="B80" s="201"/>
+      <c r="C80" s="201"/>
+      <c r="D80" s="202"/>
       <c r="E80" s="191">
         <f>SUM(E72:E79)</f>
         <v>49300</v>
@@ -24190,8 +24224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24221,7 +24255,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
+    <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1">
       <c r="A3" s="192">
         <v>1</v>
       </c>
@@ -24396,12 +24430,12 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="199"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="202"/>
       <c r="E12" s="193">
         <f>SUM(E3:E11)</f>
         <v>52650</v>
@@ -24663,12 +24697,12 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="197" t="s">
+      <c r="A34" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="198"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="199"/>
+      <c r="B34" s="201"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="202"/>
       <c r="E34" s="193">
         <f>SUM(E25:E33)</f>
         <v>44710</v>
@@ -24755,8 +24789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24793,11 +24827,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="195">
-        <v>4900</v>
+        <v>3950</v>
       </c>
       <c r="E2" s="195">
         <f t="shared" ref="E2:E9" si="0">C2*D2</f>
-        <v>9800</v>
+        <v>7900</v>
       </c>
       <c r="H2">
         <f>2450*2</f>
@@ -24815,11 +24849,11 @@
         <v>4</v>
       </c>
       <c r="D3" s="195">
-        <v>4700</v>
+        <v>3950</v>
       </c>
       <c r="E3" s="195">
         <f t="shared" si="0"/>
-        <v>18800</v>
+        <v>15800</v>
       </c>
       <c r="H3">
         <f>2350*2</f>
@@ -24848,7 +24882,7 @@
         <v>11880</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="195">
         <v>4</v>
       </c>
@@ -24859,11 +24893,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="195">
-        <v>8600</v>
+        <v>6200</v>
       </c>
       <c r="E5" s="195">
         <f t="shared" si="0"/>
-        <v>8600</v>
+        <v>6200</v>
+      </c>
+      <c r="H5">
+        <f>3140*2</f>
+        <v>6280</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" customHeight="1">
@@ -24877,14 +24915,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="195">
-        <v>11900</v>
+        <v>9600</v>
       </c>
       <c r="E6" s="195">
         <f t="shared" si="0"/>
-        <v>11900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.4">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="195">
         <v>6</v>
       </c>
@@ -24920,7 +24958,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="195">
         <v>8</v>
       </c>
@@ -24939,15 +24977,15 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="199"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="196">
         <f>SUM(E2:E9)</f>
-        <v>67980</v>
+        <v>58380</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -25029,6 +25067,613 @@
     <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="33"/>
+    <col min="2" max="2" width="58.109375" style="33" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21.6" customHeight="1">
+      <c r="A2" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="198" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="198" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="198" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.2" customHeight="1">
+      <c r="A3" s="197">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" s="197">
+        <v>5</v>
+      </c>
+      <c r="D3" s="197">
+        <v>9300</v>
+      </c>
+      <c r="E3" s="197">
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+        <v>46500</v>
+      </c>
+      <c r="H3" s="33">
+        <f>4660*2</f>
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A4" s="197">
+        <v>2</v>
+      </c>
+      <c r="B4" s="197" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="197">
+        <v>1</v>
+      </c>
+      <c r="D4" s="197">
+        <v>11880</v>
+      </c>
+      <c r="E4" s="197">
+        <f t="shared" si="0"/>
+        <v>11880</v>
+      </c>
+      <c r="H4" s="33">
+        <f>5940*2</f>
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21.6" customHeight="1">
+      <c r="A5" s="197">
+        <v>3</v>
+      </c>
+      <c r="B5" s="197" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="197">
+        <v>1</v>
+      </c>
+      <c r="D5" s="197">
+        <v>8100</v>
+      </c>
+      <c r="E5" s="197">
+        <f t="shared" si="0"/>
+        <v>8100</v>
+      </c>
+      <c r="H5" s="33">
+        <f>4090*2</f>
+        <v>8180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.6" customHeight="1">
+      <c r="A6" s="197">
+        <v>4</v>
+      </c>
+      <c r="B6" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="197">
+        <v>1</v>
+      </c>
+      <c r="D6" s="197">
+        <v>11900</v>
+      </c>
+      <c r="E6" s="197">
+        <f t="shared" si="0"/>
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.8" customHeight="1">
+      <c r="A7" s="197">
+        <v>5</v>
+      </c>
+      <c r="B7" s="197" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="197">
+        <v>14</v>
+      </c>
+      <c r="D7" s="197">
+        <v>150</v>
+      </c>
+      <c r="E7" s="197">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1">
+      <c r="A8" s="197">
+        <v>6</v>
+      </c>
+      <c r="B8" s="197" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="197">
+        <v>5</v>
+      </c>
+      <c r="D8" s="197">
+        <v>100</v>
+      </c>
+      <c r="E8" s="197">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1">
+      <c r="A9" s="197">
+        <v>7</v>
+      </c>
+      <c r="B9" s="197" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" s="197">
+        <v>1</v>
+      </c>
+      <c r="D9" s="197">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="197">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1">
+      <c r="A10" s="197">
+        <v>8</v>
+      </c>
+      <c r="B10" s="197" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" s="197">
+        <v>250</v>
+      </c>
+      <c r="D10" s="197">
+        <v>75</v>
+      </c>
+      <c r="E10" s="197">
+        <f t="shared" si="0"/>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1">
+      <c r="A11" s="197">
+        <v>9</v>
+      </c>
+      <c r="B11" s="197" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" s="197">
+        <v>250</v>
+      </c>
+      <c r="D11" s="197">
+        <v>75</v>
+      </c>
+      <c r="E11" s="197">
+        <f t="shared" si="0"/>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21.6" customHeight="1">
+      <c r="A12" s="197">
+        <v>10</v>
+      </c>
+      <c r="B12" s="197" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="197">
+        <v>1</v>
+      </c>
+      <c r="D12" s="197">
+        <v>5900</v>
+      </c>
+      <c r="E12" s="197">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A13" s="200" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="201"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="198">
+        <f>SUM(E3:E12)</f>
+        <v>127280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" s="42" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+    </row>
+    <row r="16" spans="1:8" s="42" customFormat="1">
+      <c r="A16" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:9" s="42" customFormat="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:9" s="42" customFormat="1">
+      <c r="A18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:9" s="42" customFormat="1">
+      <c r="A19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:9" s="42" customFormat="1">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:9" s="42" customFormat="1">
+      <c r="A21" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="1:9" ht="34.799999999999997" customHeight="1"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="198" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="198" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="198" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="197">
+        <v>1</v>
+      </c>
+      <c r="B25" s="197" t="s">
+        <v>614</v>
+      </c>
+      <c r="C25" s="197">
+        <v>5</v>
+      </c>
+      <c r="D25" s="197">
+        <v>3800</v>
+      </c>
+      <c r="E25" s="197">
+        <f t="shared" ref="E25:E35" si="1">C25*D25</f>
+        <v>19000</v>
+      </c>
+      <c r="I25" s="33">
+        <f>1940*2</f>
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="197">
+        <v>2</v>
+      </c>
+      <c r="B26" s="197" t="s">
+        <v>615</v>
+      </c>
+      <c r="C26" s="197">
+        <v>1</v>
+      </c>
+      <c r="D26" s="197">
+        <v>13700</v>
+      </c>
+      <c r="E26" s="197">
+        <f t="shared" si="1"/>
+        <v>13700</v>
+      </c>
+      <c r="I26" s="33">
+        <f>6850*2</f>
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="197">
+        <v>3</v>
+      </c>
+      <c r="B27" s="197" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="197">
+        <v>10</v>
+      </c>
+      <c r="D27" s="197">
+        <v>60</v>
+      </c>
+      <c r="E27" s="197">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="197">
+        <v>4</v>
+      </c>
+      <c r="B28" s="197" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="197">
+        <v>5</v>
+      </c>
+      <c r="D28" s="197">
+        <v>50</v>
+      </c>
+      <c r="E28" s="197">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="197">
+        <v>5</v>
+      </c>
+      <c r="B29" s="197" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="197">
+        <v>1</v>
+      </c>
+      <c r="D29" s="197">
+        <v>990</v>
+      </c>
+      <c r="E29" s="197">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="197">
+        <v>6</v>
+      </c>
+      <c r="B30" s="197" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="197">
+        <v>1</v>
+      </c>
+      <c r="D30" s="197">
+        <v>8100</v>
+      </c>
+      <c r="E30" s="197">
+        <f t="shared" si="1"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="197">
+        <v>7</v>
+      </c>
+      <c r="B31" s="197" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="197">
+        <v>5</v>
+      </c>
+      <c r="D31" s="197">
+        <v>100</v>
+      </c>
+      <c r="E31" s="197">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="197">
+        <v>8</v>
+      </c>
+      <c r="B32" s="197" t="s">
+        <v>616</v>
+      </c>
+      <c r="C32" s="197">
+        <v>1</v>
+      </c>
+      <c r="D32" s="197">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="197">
+        <f t="shared" si="1"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="197">
+        <v>9</v>
+      </c>
+      <c r="B33" s="197" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33" s="197">
+        <v>250</v>
+      </c>
+      <c r="D33" s="197">
+        <v>75</v>
+      </c>
+      <c r="E33" s="197">
+        <f t="shared" si="1"/>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="197">
+        <v>10</v>
+      </c>
+      <c r="B34" s="199" t="s">
+        <v>618</v>
+      </c>
+      <c r="C34" s="197">
+        <v>250</v>
+      </c>
+      <c r="D34" s="197">
+        <v>75</v>
+      </c>
+      <c r="E34" s="197">
+        <f t="shared" si="1"/>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="197">
+        <v>11</v>
+      </c>
+      <c r="B35" s="197" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="197">
+        <v>1</v>
+      </c>
+      <c r="D35" s="197">
+        <v>5900</v>
+      </c>
+      <c r="E35" s="197">
+        <f t="shared" si="1"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="200" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="201"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="198">
+        <f>SUM(E25:E35)</f>
+        <v>89440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="76" t="s">
+        <v>621</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A36:D36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25313,12 +25958,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="212" t="s">
+      <c r="A15" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="213"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="214"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="217"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -25564,12 +26209,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="212" t="s">
+      <c r="A31" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="213"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="214"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="217"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -25790,12 +26435,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="212" t="s">
+      <c r="A9" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="213"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="214"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="217"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -25870,13 +26515,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="215" t="s">
+      <c r="A19" s="218" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="216"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="217"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="220"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -25886,11 +26531,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="218"/>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="220"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="222"/>
+      <c r="E20" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -26005,12 +26650,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="214"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="217"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -26225,12 +26870,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="212" t="s">
+      <c r="A11" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="213"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="217"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -26399,12 +27044,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="214"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="217"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -26488,12 +27133,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="221" t="s">
+      <c r="A19" s="224" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="221"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="36" activeTab="40"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="35" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,10 @@
     <sheet name="Nazir Shaik 312" sheetId="41" r:id="rId41"/>
     <sheet name="Urvashi Gohil 313" sheetId="42" r:id="rId42"/>
     <sheet name="BSNL 314" sheetId="43" r:id="rId43"/>
+    <sheet name="Nazir Shaik 315" sheetId="44" r:id="rId44"/>
+    <sheet name="Nazir Shaik 316" sheetId="45" r:id="rId45"/>
+    <sheet name="E'delicious 317" sheetId="46" r:id="rId46"/>
+    <sheet name="Sujit 318" sheetId="47" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -61,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="690">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2168,12 +2172,216 @@
   <si>
     <t>if required extra Cabling RJ 59 copper + 3 / Cat 6 with casing, cabling, laying to be charged as actuals @ 75/- (per mtr) + GST</t>
   </si>
+  <si>
+    <t>CP Plusr 2MP IP Bullet with inbuilt Audio</t>
+  </si>
+  <si>
+    <t>Cp Plus 2MP IP Dome with inbuilt Audio</t>
+  </si>
+  <si>
+    <t>Cp Plus NVR Professional Series 8CH</t>
+  </si>
+  <si>
+    <t>Cp Plus 5MP IP Bullet Camera</t>
+  </si>
+  <si>
+    <t>CP Plus 5MP Bullet Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost  </t>
+  </si>
+  <si>
+    <t>Amount with GST</t>
+  </si>
+  <si>
+    <t>PVC Conduit with laying etc complete 20/25 mm to be charged as actual estimated  as below</t>
+  </si>
+  <si>
+    <t>Cp Plus 8 CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>Supply and laying of cat 6 cables with laying pulling etc complete through PVC pipe / casing caping to be charged as actuals estimated as below</t>
+  </si>
+  <si>
+    <t>Cabling RJ 59 copper + 3 / Cat 6 with casing, cabling, laying  to be charged as actuals estimated as below</t>
+  </si>
+  <si>
+    <t>3) Network Rack 2 U</t>
+  </si>
+  <si>
+    <t>CP pLus 16 CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>Hikvision IDS-7116HQHI-M1/S 16 CH Acussense DVR</t>
+  </si>
+  <si>
+    <t>Hikvision 5mp HD Bullet Camera 16HoT-IT-PFS</t>
+  </si>
+  <si>
+    <t>Dahua DHI-LM19 B200 19'' Monitor</t>
+  </si>
+  <si>
+    <t>Camera Installatiuon Charges</t>
+  </si>
+  <si>
+    <t>MTC 10 Amps SMPS (8Ch)</t>
+  </si>
+  <si>
+    <t>Secure Eye Hdmi Extender 50m with USB For fixing and viewing the cameras near the</t>
+  </si>
+  <si>
+    <t>Dlink Cat 6 cable</t>
+  </si>
+  <si>
+    <t>Hikvision 2mp HD Dome Camjera DS-2CE7-6D0T-ITPFS</t>
+  </si>
+  <si>
+    <t>Hikvision 5mp HD Dome Camjera DS-2CE7-6H0T-ITPFS</t>
+  </si>
+  <si>
+    <t>CP Plus 2MP Bullet Camera</t>
+  </si>
+  <si>
+    <t>Cp Plus 2MP Dome Camera</t>
+  </si>
+  <si>
+    <t>CP Plus 16 CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>Option 1 A</t>
+  </si>
+  <si>
+    <t>Option 1 B</t>
+  </si>
+  <si>
+    <t>In Lieu of</t>
+  </si>
+  <si>
+    <t>1) Honeywell 5MP Bullet Camera @ 3880/- + GST</t>
+  </si>
+  <si>
+    <t>Dahua 4CH DVR, Professional series</t>
+  </si>
+  <si>
+    <t>Option 2 A</t>
+  </si>
+  <si>
+    <t>Option 2 B</t>
+  </si>
+  <si>
+    <t>Dahua 2MP IP Bullet Camera</t>
+  </si>
+  <si>
+    <t>1) Dahua 5MP IP Bullet Camera @ 7900/- + GST</t>
+  </si>
+  <si>
+    <t>1) Dahua 5MP Bullet Camera @ 3920/- + GST</t>
+  </si>
+  <si>
+    <t>Honeywell 4 CH DVR, Professional series supporting 2 MP</t>
+  </si>
+  <si>
+    <t>2) Honeywell 4 CH DVR, Professional series supporting 5 MP@ 8200/- + GST</t>
+  </si>
+  <si>
+    <t>1) Honeywell 4MP IP Bullet Camera @ 8080/- + GST</t>
+  </si>
+  <si>
+    <t>Network Rack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option 2 </t>
+  </si>
+  <si>
+    <t>Inlieu armound cat 6 per mtr</t>
+  </si>
+  <si>
+    <t>cable supply only so laying of cabling work in clinet sscope</t>
+  </si>
+  <si>
+    <t>8*</t>
+  </si>
+  <si>
+    <t>8) Armourd cable @ 125 per mtr + GST</t>
+  </si>
+  <si>
+    <t>Cabling RJ 59 copper + 3 cable (Supply only)</t>
+  </si>
+  <si>
+    <t>TOTAL (1)</t>
+  </si>
+  <si>
+    <t>CGST (2)</t>
+  </si>
+  <si>
+    <t>SGST (3)</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL (1+2+3)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cat 6 Cable (Supply only)</t>
+  </si>
+  <si>
+    <t>2.4 mp</t>
+  </si>
+  <si>
+    <t>power supply</t>
+  </si>
+  <si>
+    <t>16 ch dvr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2u rack</t>
+  </si>
+  <si>
+    <t>bnc</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>cable with laying</t>
+  </si>
+  <si>
+    <t>cat 6 cable</t>
+  </si>
+  <si>
+    <t>convertor</t>
+  </si>
+  <si>
+    <t>2tb hdd</t>
+  </si>
+  <si>
+    <t>Ups 600va</t>
+  </si>
+  <si>
+    <t>30/- per mtr</t>
+  </si>
+  <si>
+    <t>270 mtrs</t>
+  </si>
+  <si>
+    <t>convertor hdmi</t>
+  </si>
+  <si>
+    <t>Quoted Price by Vatareshwar person</t>
+  </si>
+  <si>
+    <t>Red marked Joaquim price</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2357,6 +2565,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2798,7 +3013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3369,6 +3584,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3616,6 +3903,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4262,12 +4568,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="200" t="s">
+      <c r="A18" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="201"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="226"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -4393,12 +4699,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="200" t="s">
+      <c r="A27" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="201"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
+      <c r="B27" s="225"/>
+      <c r="C27" s="225"/>
+      <c r="D27" s="226"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -4559,12 +4865,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="215" t="s">
+      <c r="A8" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="241"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -4648,12 +4954,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="248" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="224"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
+      <c r="B19" s="248"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="248"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -4814,12 +5120,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="215" t="s">
+      <c r="A8" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="241"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -4903,20 +5209,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="218" t="s">
+      <c r="A19" s="242" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="220"/>
+      <c r="B19" s="243"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="244"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="221"/>
-      <c r="B20" s="222"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="222"/>
-      <c r="E20" s="223"/>
+      <c r="A20" s="245"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5115,24 +5421,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="215" t="s">
+      <c r="A11" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="216"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="217"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="227" t="s">
+      <c r="A13" s="251" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="227"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
+      <c r="B13" s="251"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="251"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -5332,12 +5638,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="215" t="s">
+      <c r="A30" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="216"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="217"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="240"/>
+      <c r="D30" s="241"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -5505,12 +5811,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="225" t="s">
+      <c r="A41" s="249" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="226"/>
-      <c r="C41" s="226"/>
-      <c r="D41" s="226"/>
+      <c r="B41" s="250"/>
+      <c r="C41" s="250"/>
+      <c r="D41" s="250"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -5745,24 +6051,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="215" t="s">
+      <c r="A11" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="216"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="217"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="228" t="s">
+      <c r="A13" s="252" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="228"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="252"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -5926,12 +6232,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="215" t="s">
+      <c r="A28" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="216"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="241"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -6133,48 +6439,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="215" t="s">
+      <c r="A7" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="216"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="217"/>
+      <c r="B7" s="240"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="241"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="215" t="s">
+      <c r="A8" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="241"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="215" t="s">
+      <c r="A9" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="216"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="217"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="241"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="215" t="s">
+      <c r="A10" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="216"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="217"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -6265,48 +6571,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="215" t="s">
+      <c r="A17" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="216"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="217"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="241"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="215" t="s">
+      <c r="A18" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="216"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="217"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="241"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="215" t="s">
+      <c r="A19" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="216"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="217"/>
+      <c r="B19" s="240"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="241"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="215" t="s">
+      <c r="A20" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="216"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="217"/>
+      <c r="B20" s="240"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="241"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -6389,48 +6695,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="215" t="s">
+      <c r="A27" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="216"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="217"/>
+      <c r="B27" s="240"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="241"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="215" t="s">
+      <c r="A28" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="216"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="241"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="241"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="215" t="s">
+      <c r="A30" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="216"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="217"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="240"/>
+      <c r="D30" s="241"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -6618,12 +6924,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -6747,12 +7053,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="200" t="s">
+      <c r="A21" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="201"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="226"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -6912,12 +7218,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="200" t="s">
+      <c r="A38" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="201"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="202"/>
+      <c r="B38" s="225"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="226"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -7137,12 +7443,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="232" t="s">
+      <c r="A59" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="233"/>
-      <c r="C59" s="233"/>
-      <c r="D59" s="234"/>
+      <c r="B59" s="257"/>
+      <c r="C59" s="257"/>
+      <c r="D59" s="258"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -7154,10 +7460,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="235" t="s">
+      <c r="A63" s="259" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="235"/>
+      <c r="B63" s="259"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -7370,12 +7676,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="200" t="s">
+      <c r="A79" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="201"/>
-      <c r="C79" s="201"/>
-      <c r="D79" s="202"/>
+      <c r="B79" s="225"/>
+      <c r="C79" s="225"/>
+      <c r="D79" s="226"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -7599,12 +7905,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="200" t="s">
+      <c r="A99" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="201"/>
-      <c r="C99" s="201"/>
-      <c r="D99" s="201"/>
+      <c r="B99" s="225"/>
+      <c r="C99" s="225"/>
+      <c r="D99" s="225"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -7750,31 +8056,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="229" t="s">
+      <c r="B116" s="253" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="229"/>
+      <c r="C116" s="253"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="230">
+      <c r="E116" s="254">
         <v>9000</v>
       </c>
-      <c r="F116" s="231"/>
+      <c r="F116" s="255"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="200" t="s">
+      <c r="A117" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="201"/>
-      <c r="C117" s="201"/>
-      <c r="D117" s="201"/>
-      <c r="E117" s="201"/>
-      <c r="F117" s="202"/>
+      <c r="B117" s="225"/>
+      <c r="C117" s="225"/>
+      <c r="D117" s="225"/>
+      <c r="E117" s="225"/>
+      <c r="F117" s="226"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -7890,31 +8196,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="229" t="s">
+      <c r="B124" s="253" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="229"/>
+      <c r="C124" s="253"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="214">
+      <c r="E124" s="238">
         <v>9000</v>
       </c>
-      <c r="F124" s="214"/>
+      <c r="F124" s="238"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="236" t="s">
+      <c r="A125" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="237"/>
-      <c r="C125" s="237"/>
-      <c r="D125" s="237"/>
-      <c r="E125" s="237"/>
-      <c r="F125" s="238"/>
+      <c r="B125" s="261"/>
+      <c r="C125" s="261"/>
+      <c r="D125" s="261"/>
+      <c r="E125" s="261"/>
+      <c r="F125" s="262"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -8025,31 +8331,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="240" t="s">
+      <c r="B134" s="264" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="241"/>
+      <c r="C134" s="265"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="230">
+      <c r="E134" s="254">
         <v>12000</v>
       </c>
-      <c r="F134" s="231"/>
+      <c r="F134" s="255"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="236" t="s">
+      <c r="A135" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="237"/>
-      <c r="C135" s="237"/>
-      <c r="D135" s="237"/>
-      <c r="E135" s="237"/>
-      <c r="F135" s="238"/>
+      <c r="B135" s="261"/>
+      <c r="C135" s="261"/>
+      <c r="D135" s="261"/>
+      <c r="E135" s="261"/>
+      <c r="F135" s="262"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -8155,31 +8461,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="240" t="s">
+      <c r="B142" s="264" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="241"/>
+      <c r="C142" s="265"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="230">
+      <c r="E142" s="254">
         <v>12000</v>
       </c>
-      <c r="F142" s="231"/>
+      <c r="F142" s="255"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="236" t="s">
+      <c r="A143" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="237"/>
-      <c r="C143" s="237"/>
-      <c r="D143" s="237"/>
-      <c r="E143" s="237"/>
-      <c r="F143" s="238"/>
+      <c r="B143" s="261"/>
+      <c r="C143" s="261"/>
+      <c r="D143" s="261"/>
+      <c r="E143" s="261"/>
+      <c r="F143" s="262"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -8295,41 +8601,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="248" t="s">
+      <c r="B150" s="272" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="249"/>
+      <c r="C150" s="273"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="250">
+      <c r="E150" s="274">
         <v>12000</v>
       </c>
-      <c r="F150" s="251"/>
+      <c r="F150" s="275"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="239" t="s">
+      <c r="A151" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="239"/>
-      <c r="C151" s="239"/>
-      <c r="D151" s="239"/>
-      <c r="E151" s="239"/>
-      <c r="F151" s="239"/>
+      <c r="B151" s="263"/>
+      <c r="C151" s="263"/>
+      <c r="D151" s="263"/>
+      <c r="E151" s="263"/>
+      <c r="F151" s="263"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="252" t="s">
+      <c r="A154" s="276" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="252"/>
+      <c r="B154" s="276"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -8385,12 +8691,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="253" t="s">
+      <c r="A159" s="277" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="254"/>
-      <c r="C159" s="254"/>
-      <c r="D159" s="254"/>
+      <c r="B159" s="278"/>
+      <c r="C159" s="278"/>
+      <c r="D159" s="278"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -8448,12 +8754,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="239" t="s">
+      <c r="A163" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="239"/>
-      <c r="C163" s="239"/>
-      <c r="D163" s="239"/>
+      <c r="B163" s="263"/>
+      <c r="C163" s="263"/>
+      <c r="D163" s="263"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -10639,12 +10945,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="200" t="s">
+      <c r="A241" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="201"/>
-      <c r="C241" s="201"/>
-      <c r="D241" s="202"/>
+      <c r="B241" s="225"/>
+      <c r="C241" s="225"/>
+      <c r="D241" s="226"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -10793,12 +11099,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="200" t="s">
+      <c r="A254" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="201"/>
-      <c r="C254" s="201"/>
-      <c r="D254" s="202"/>
+      <c r="B254" s="225"/>
+      <c r="C254" s="225"/>
+      <c r="D254" s="226"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -10807,22 +11113,22 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="242" t="s">
+      <c r="A257" s="266" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="243"/>
-      <c r="C257" s="243"/>
-      <c r="D257" s="243"/>
-      <c r="E257" s="243"/>
-      <c r="F257" s="244"/>
+      <c r="B257" s="267"/>
+      <c r="C257" s="267"/>
+      <c r="D257" s="267"/>
+      <c r="E257" s="267"/>
+      <c r="F257" s="268"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="245"/>
-      <c r="B258" s="246"/>
-      <c r="C258" s="246"/>
-      <c r="D258" s="246"/>
-      <c r="E258" s="246"/>
-      <c r="F258" s="247"/>
+      <c r="A258" s="269"/>
+      <c r="B258" s="270"/>
+      <c r="C258" s="270"/>
+      <c r="D258" s="270"/>
+      <c r="E258" s="270"/>
+      <c r="F258" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -11063,12 +11369,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="200" t="s">
+      <c r="A12" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="201"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="202"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="226"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -11082,13 +11388,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="239" t="s">
+      <c r="A14" s="263" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="239"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="239"/>
+      <c r="B14" s="263"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="263"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -11381,25 +11687,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="200" t="s">
+      <c r="A39" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="201"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="202"/>
+      <c r="B39" s="225"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="226"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="239" t="s">
+      <c r="A41" s="263" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="239"/>
-      <c r="C41" s="239"/>
-      <c r="D41" s="239"/>
-      <c r="E41" s="239"/>
+      <c r="B41" s="263"/>
+      <c r="C41" s="263"/>
+      <c r="D41" s="263"/>
+      <c r="E41" s="263"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -11608,12 +11914,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="255" t="s">
+      <c r="A70" s="279" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="256"/>
-      <c r="C70" s="256"/>
-      <c r="D70" s="257"/>
+      <c r="B70" s="280"/>
+      <c r="C70" s="280"/>
+      <c r="D70" s="281"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -11803,12 +12109,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="202"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="226"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -12063,12 +12369,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="200" t="s">
+      <c r="A33" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="201"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="202"/>
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="226"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -12290,12 +12596,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="202"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="226"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -12334,13 +12640,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -12427,105 +12733,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="235" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="213">
+      <c r="C7" s="237">
         <v>2</v>
       </c>
-      <c r="D7" s="211" t="s">
+      <c r="D7" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="214">
+      <c r="E7" s="238">
         <v>567000</v>
       </c>
-      <c r="F7" s="214">
+      <c r="F7" s="238">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="211"/>
+      <c r="A8" s="235"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="213"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="211"/>
+      <c r="A9" s="235"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="213"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="211"/>
+      <c r="A10" s="235"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="213"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="235"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="211"/>
+      <c r="A11" s="235"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="213"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="214"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="211"/>
+      <c r="A12" s="235"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="214"/>
-      <c r="F12" s="214"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="238"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="211"/>
+      <c r="A13" s="235"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="213"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="238"/>
+      <c r="F13" s="238"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="211"/>
+      <c r="A14" s="235"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="213"/>
-      <c r="D14" s="211"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="214"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="235"/>
+      <c r="E14" s="238"/>
+      <c r="F14" s="238"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="211"/>
+      <c r="A15" s="235"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="213"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="238"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -12568,13 +12874,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="208" t="s">
+      <c r="B19" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="210"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="234"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -12660,7 +12966,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="211" t="s">
+      <c r="A24" s="235" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -12672,7 +12978,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="211"/>
+      <c r="A25" s="235"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -12691,7 +12997,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="211"/>
+      <c r="A26" s="235"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -12710,7 +13016,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="211"/>
+      <c r="A27" s="235"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -12748,13 +13054,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="208" t="s">
+      <c r="B30" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="209"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="209"/>
-      <c r="F30" s="210"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="234"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -12777,7 +13083,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="211" t="s">
+      <c r="A32" s="235" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -12789,7 +13095,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="211"/>
+      <c r="A33" s="235"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -12803,7 +13109,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="211"/>
+      <c r="A34" s="235"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -12817,7 +13123,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="211"/>
+      <c r="A35" s="235"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -12831,7 +13137,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="211"/>
+      <c r="A36" s="235"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -12845,7 +13151,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="211" t="s">
+      <c r="A37" s="235" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -12857,7 +13163,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="211"/>
+      <c r="A38" s="235"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -12876,7 +13182,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="211"/>
+      <c r="A39" s="235"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -12895,7 +13201,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="211"/>
+      <c r="A40" s="235"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -12914,7 +13220,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="211"/>
+      <c r="A41" s="235"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -12933,7 +13239,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="211"/>
+      <c r="A42" s="235"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -12974,13 +13280,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="208" t="s">
+      <c r="B45" s="232" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="209"/>
-      <c r="D45" s="209"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="210"/>
+      <c r="C45" s="233"/>
+      <c r="D45" s="233"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="234"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -13225,13 +13531,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="205" t="s">
+      <c r="A57" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="206"/>
-      <c r="C57" s="206"/>
-      <c r="D57" s="206"/>
-      <c r="E57" s="207"/>
+      <c r="B57" s="230"/>
+      <c r="C57" s="230"/>
+      <c r="D57" s="230"/>
+      <c r="E57" s="231"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -13249,13 +13555,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="203" t="s">
+      <c r="B59" s="227" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="203"/>
-      <c r="D59" s="203"/>
-      <c r="E59" s="203"/>
-      <c r="F59" s="203"/>
+      <c r="C59" s="227"/>
+      <c r="D59" s="227"/>
+      <c r="E59" s="227"/>
+      <c r="F59" s="227"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -13273,13 +13579,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="204" t="s">
+      <c r="B61" s="228" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="204"/>
-      <c r="D61" s="204"/>
-      <c r="E61" s="204"/>
-      <c r="F61" s="204"/>
+      <c r="C61" s="228"/>
+      <c r="D61" s="228"/>
+      <c r="E61" s="228"/>
+      <c r="F61" s="228"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -13299,26 +13605,26 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="204" t="s">
+      <c r="B63" s="228" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="204"/>
-      <c r="D63" s="204"/>
-      <c r="E63" s="204"/>
-      <c r="F63" s="204"/>
+      <c r="C63" s="228"/>
+      <c r="D63" s="228"/>
+      <c r="E63" s="228"/>
+      <c r="F63" s="228"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="204" t="s">
+      <c r="B64" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="204"/>
-      <c r="D64" s="204"/>
-      <c r="E64" s="204"/>
-      <c r="F64" s="204"/>
+      <c r="C64" s="228"/>
+      <c r="D64" s="228"/>
+      <c r="E64" s="228"/>
+      <c r="F64" s="228"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
@@ -13542,12 +13848,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -13924,12 +14230,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="226"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -14215,12 +14521,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="200" t="s">
+      <c r="A37" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="201"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="202"/>
+      <c r="B37" s="225"/>
+      <c r="C37" s="225"/>
+      <c r="D37" s="226"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -14522,12 +14828,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="200" t="s">
+      <c r="A63" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="201"/>
-      <c r="C63" s="201"/>
-      <c r="D63" s="202"/>
+      <c r="B63" s="225"/>
+      <c r="C63" s="225"/>
+      <c r="D63" s="226"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -14640,183 +14946,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="258">
+      <c r="A2" s="282">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="258">
-        <v>1</v>
-      </c>
-      <c r="D2" s="258">
+      <c r="C2" s="282">
+        <v>1</v>
+      </c>
+      <c r="D2" s="282">
         <v>42000</v>
       </c>
-      <c r="E2" s="258">
+      <c r="E2" s="282">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="259"/>
+      <c r="A3" s="283"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="259"/>
+      <c r="A4" s="283"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283"/>
+      <c r="E4" s="283"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="259"/>
+      <c r="A5" s="283"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="259"/>
+      <c r="A6" s="283"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
+      <c r="C6" s="283"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="283"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="259"/>
+      <c r="A7" s="283"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="283"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="259"/>
+      <c r="A8" s="283"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="259"/>
+      <c r="A9" s="283"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="259"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
+      <c r="C9" s="283"/>
+      <c r="D9" s="283"/>
+      <c r="E9" s="283"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="259"/>
+      <c r="A10" s="283"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259"/>
+      <c r="C10" s="283"/>
+      <c r="D10" s="283"/>
+      <c r="E10" s="283"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="259"/>
+      <c r="A11" s="283"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="283"/>
+      <c r="E11" s="283"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="259"/>
+      <c r="A12" s="283"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="259"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="259"/>
+      <c r="C12" s="283"/>
+      <c r="D12" s="283"/>
+      <c r="E12" s="283"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="259"/>
+      <c r="A13" s="283"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="259"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="259"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="259"/>
+      <c r="A14" s="283"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="259"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="283"/>
+      <c r="E14" s="283"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="259"/>
+      <c r="A15" s="283"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="259"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
+      <c r="C15" s="283"/>
+      <c r="D15" s="283"/>
+      <c r="E15" s="283"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="259"/>
+      <c r="A16" s="283"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="259"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
+      <c r="C16" s="283"/>
+      <c r="D16" s="283"/>
+      <c r="E16" s="283"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="259"/>
+      <c r="A17" s="283"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="259"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
+      <c r="C17" s="283"/>
+      <c r="D17" s="283"/>
+      <c r="E17" s="283"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="259"/>
+      <c r="A18" s="283"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="259"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="259"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="283"/>
+      <c r="E18" s="283"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="260"/>
+      <c r="A19" s="284"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="260"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="284"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="239" t="s">
+      <c r="A20" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="239"/>
-      <c r="C20" s="239"/>
-      <c r="D20" s="239"/>
+      <c r="B20" s="263"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -15132,12 +15438,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="202"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="226"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -15390,12 +15696,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -15618,10 +15924,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="262" t="s">
+      <c r="B6" s="286" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="262"/>
+      <c r="C6" s="286"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -15635,13 +15941,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="261" t="s">
+      <c r="A7" s="285" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="261"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -15797,10 +16103,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="262" t="s">
+      <c r="B26" s="286" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="262"/>
+      <c r="C26" s="286"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -15814,13 +16120,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="261" t="s">
+      <c r="A27" s="285" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="261"/>
-      <c r="C27" s="261"/>
-      <c r="D27" s="261"/>
-      <c r="E27" s="261"/>
+      <c r="B27" s="285"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="285"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -16032,12 +16338,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="202"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="226"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -16327,12 +16633,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="200" t="s">
+      <c r="A37" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="201"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="202"/>
+      <c r="B37" s="225"/>
+      <c r="C37" s="225"/>
+      <c r="D37" s="226"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -16599,12 +16905,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="202"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="226"/>
       <c r="E11" s="145">
         <f>SUM(E3:E10)</f>
         <v>99820</v>
@@ -16921,12 +17227,12 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="200" t="s">
+      <c r="A36" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="202"/>
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="226"/>
       <c r="E36" s="145">
         <f>SUM(E27:E35)</f>
         <v>56780</v>
@@ -17182,12 +17488,12 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="200" t="s">
+      <c r="A55" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="201"/>
-      <c r="C55" s="201"/>
-      <c r="D55" s="202"/>
+      <c r="B55" s="225"/>
+      <c r="C55" s="225"/>
+      <c r="D55" s="226"/>
       <c r="E55" s="145">
         <f>SUM(E46:E54)</f>
         <v>86940</v>
@@ -17381,12 +17687,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="200" t="s">
+      <c r="A68" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="201"/>
-      <c r="C68" s="201"/>
-      <c r="D68" s="202"/>
+      <c r="B68" s="225"/>
+      <c r="C68" s="225"/>
+      <c r="D68" s="226"/>
       <c r="E68" s="145">
         <f>SUM(E59:E67)</f>
         <v>49380</v>
@@ -17578,12 +17884,12 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="147">
         <f>SUM(E3:E9)</f>
         <v>69770</v>
@@ -17868,12 +18174,12 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="200" t="s">
+      <c r="A36" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="202"/>
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="226"/>
       <c r="E36" s="147">
         <f>SUM(E29:E35)</f>
         <v>66840</v>
@@ -18000,165 +18306,165 @@
       <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="263">
+      <c r="A3" s="287">
         <v>1</v>
       </c>
       <c r="B3" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="263">
-        <v>1</v>
-      </c>
-      <c r="D3" s="263">
+      <c r="C3" s="287">
+        <v>1</v>
+      </c>
+      <c r="D3" s="287">
         <v>75900</v>
       </c>
-      <c r="E3" s="263">
+      <c r="E3" s="287">
         <f>C3*D3</f>
         <v>75900</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="264"/>
+      <c r="A4" s="288"/>
       <c r="B4" s="152" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="288"/>
+      <c r="E4" s="288"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="264"/>
+      <c r="A5" s="288"/>
       <c r="B5" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
+      <c r="C5" s="288"/>
+      <c r="D5" s="288"/>
+      <c r="E5" s="288"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="264"/>
+      <c r="A6" s="288"/>
       <c r="B6" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
+      <c r="C6" s="288"/>
+      <c r="D6" s="288"/>
+      <c r="E6" s="288"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="264"/>
+      <c r="A7" s="288"/>
       <c r="B7" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="264"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="264"/>
+      <c r="C7" s="288"/>
+      <c r="D7" s="288"/>
+      <c r="E7" s="288"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="264"/>
+      <c r="A8" s="288"/>
       <c r="B8" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
+      <c r="C8" s="288"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="264"/>
+      <c r="A9" s="288"/>
       <c r="B9" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="264"/>
+      <c r="A10" s="288"/>
       <c r="B10" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
+      <c r="C10" s="288"/>
+      <c r="D10" s="288"/>
+      <c r="E10" s="288"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="264"/>
+      <c r="A11" s="288"/>
       <c r="B11" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="264"/>
-      <c r="D11" s="264"/>
-      <c r="E11" s="264"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="264"/>
+      <c r="A12" s="288"/>
       <c r="B12" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="264"/>
-      <c r="D12" s="264"/>
-      <c r="E12" s="264"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="288"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="264"/>
+      <c r="A13" s="288"/>
       <c r="B13" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="264"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="264"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="288"/>
+      <c r="E13" s="288"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="264"/>
+      <c r="A14" s="288"/>
       <c r="B14" s="152" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="264"/>
-      <c r="D14" s="264"/>
-      <c r="E14" s="264"/>
+      <c r="C14" s="288"/>
+      <c r="D14" s="288"/>
+      <c r="E14" s="288"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="264"/>
+      <c r="A15" s="288"/>
       <c r="B15" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="264"/>
-      <c r="D15" s="264"/>
-      <c r="E15" s="264"/>
+      <c r="C15" s="288"/>
+      <c r="D15" s="288"/>
+      <c r="E15" s="288"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="264"/>
+      <c r="A16" s="288"/>
       <c r="B16" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="264"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="264"/>
+      <c r="C16" s="288"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="288"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="264"/>
+      <c r="A17" s="288"/>
       <c r="B17" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
+      <c r="C17" s="288"/>
+      <c r="D17" s="288"/>
+      <c r="E17" s="288"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="265"/>
+      <c r="A18" s="289"/>
       <c r="B18" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C18" s="265"/>
-      <c r="D18" s="265"/>
-      <c r="E18" s="265"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="289"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="268" t="s">
+      <c r="A19" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="269"/>
-      <c r="C19" s="269"/>
-      <c r="D19" s="270"/>
+      <c r="B19" s="293"/>
+      <c r="C19" s="293"/>
+      <c r="D19" s="294"/>
       <c r="E19" s="153">
         <f>SUM(E3)</f>
         <v>75900</v>
@@ -18185,7 +18491,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.8">
-      <c r="A27" s="266">
+      <c r="A27" s="290">
         <v>1</v>
       </c>
       <c r="B27" s="152" t="s">
@@ -18197,16 +18503,16 @@
       <c r="D27" s="149">
         <v>1</v>
       </c>
-      <c r="E27" s="266">
+      <c r="E27" s="290">
         <v>69000</v>
       </c>
-      <c r="F27" s="266">
+      <c r="F27" s="290">
         <f>D27*E27</f>
         <v>69000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="262.2">
-      <c r="A28" s="266"/>
+      <c r="A28" s="290"/>
       <c r="B28" s="152" t="s">
         <v>475</v>
       </c>
@@ -18216,11 +18522,11 @@
       <c r="D28" s="149">
         <v>1</v>
       </c>
-      <c r="E28" s="266"/>
-      <c r="F28" s="266"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="290"/>
     </row>
     <row r="29" spans="1:6" ht="124.2">
-      <c r="A29" s="266"/>
+      <c r="A29" s="290"/>
       <c r="B29" s="152" t="s">
         <v>477</v>
       </c>
@@ -18230,11 +18536,11 @@
       <c r="D29" s="149">
         <v>1</v>
       </c>
-      <c r="E29" s="266"/>
-      <c r="F29" s="266"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="290"/>
     </row>
     <row r="30" spans="1:6" ht="248.4">
-      <c r="A30" s="266"/>
+      <c r="A30" s="290"/>
       <c r="B30" s="152" t="s">
         <v>479</v>
       </c>
@@ -18244,11 +18550,11 @@
       <c r="D30" s="149">
         <v>1</v>
       </c>
-      <c r="E30" s="266"/>
-      <c r="F30" s="266"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="290"/>
     </row>
     <row r="31" spans="1:6" ht="69">
-      <c r="A31" s="266"/>
+      <c r="A31" s="290"/>
       <c r="B31" s="152" t="s">
         <v>481</v>
       </c>
@@ -18258,11 +18564,11 @@
       <c r="D31" s="149">
         <v>1</v>
       </c>
-      <c r="E31" s="266"/>
-      <c r="F31" s="266"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="290"/>
     </row>
     <row r="32" spans="1:6" ht="179.4">
-      <c r="A32" s="266"/>
+      <c r="A32" s="290"/>
       <c r="B32" s="152" t="s">
         <v>483</v>
       </c>
@@ -18272,11 +18578,11 @@
       <c r="D32" s="149">
         <v>1</v>
       </c>
-      <c r="E32" s="266"/>
-      <c r="F32" s="266"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
     </row>
     <row r="33" spans="1:6" ht="82.8">
-      <c r="A33" s="266"/>
+      <c r="A33" s="290"/>
       <c r="B33" s="152" t="s">
         <v>483</v>
       </c>
@@ -18286,11 +18592,11 @@
       <c r="D33" s="149">
         <v>1</v>
       </c>
-      <c r="E33" s="266"/>
-      <c r="F33" s="266"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
     </row>
     <row r="34" spans="1:6" ht="96.6">
-      <c r="A34" s="266"/>
+      <c r="A34" s="290"/>
       <c r="B34" s="152" t="s">
         <v>483</v>
       </c>
@@ -18300,11 +18606,11 @@
       <c r="D34" s="149">
         <v>1</v>
       </c>
-      <c r="E34" s="266"/>
-      <c r="F34" s="266"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
     </row>
     <row r="35" spans="1:6" ht="234.6">
-      <c r="A35" s="266"/>
+      <c r="A35" s="290"/>
       <c r="B35" s="152" t="s">
         <v>487</v>
       </c>
@@ -18314,11 +18620,11 @@
       <c r="D35" s="149">
         <v>1</v>
       </c>
-      <c r="E35" s="266"/>
-      <c r="F35" s="266"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
     </row>
     <row r="36" spans="1:6" ht="165.6">
-      <c r="A36" s="266"/>
+      <c r="A36" s="290"/>
       <c r="B36" s="152" t="s">
         <v>489</v>
       </c>
@@ -18328,11 +18634,11 @@
       <c r="D36" s="149">
         <v>1</v>
       </c>
-      <c r="E36" s="266"/>
-      <c r="F36" s="266"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
     </row>
     <row r="37" spans="1:6" ht="27.6">
-      <c r="A37" s="266"/>
+      <c r="A37" s="290"/>
       <c r="B37" s="152" t="s">
         <v>493</v>
       </c>
@@ -18342,11 +18648,11 @@
       <c r="D37" s="149">
         <v>1</v>
       </c>
-      <c r="E37" s="266"/>
-      <c r="F37" s="266"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="290"/>
     </row>
     <row r="38" spans="1:6" ht="82.8">
-      <c r="A38" s="266"/>
+      <c r="A38" s="290"/>
       <c r="B38" s="152" t="s">
         <v>494</v>
       </c>
@@ -18356,11 +18662,11 @@
       <c r="D38" s="149">
         <v>1</v>
       </c>
-      <c r="E38" s="266"/>
-      <c r="F38" s="266"/>
+      <c r="E38" s="290"/>
+      <c r="F38" s="290"/>
     </row>
     <row r="39" spans="1:6" ht="55.2">
-      <c r="A39" s="266"/>
+      <c r="A39" s="290"/>
       <c r="B39" s="152" t="s">
         <v>495</v>
       </c>
@@ -18370,11 +18676,11 @@
       <c r="D39" s="149">
         <v>1</v>
       </c>
-      <c r="E39" s="266"/>
-      <c r="F39" s="266"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="290"/>
     </row>
     <row r="40" spans="1:6" ht="138">
-      <c r="A40" s="266"/>
+      <c r="A40" s="290"/>
       <c r="B40" s="152" t="s">
         <v>497</v>
       </c>
@@ -18384,11 +18690,11 @@
       <c r="D40" s="149">
         <v>1</v>
       </c>
-      <c r="E40" s="266"/>
-      <c r="F40" s="266"/>
+      <c r="E40" s="290"/>
+      <c r="F40" s="290"/>
     </row>
     <row r="41" spans="1:6" ht="96.6">
-      <c r="A41" s="266"/>
+      <c r="A41" s="290"/>
       <c r="B41" s="152" t="s">
         <v>499</v>
       </c>
@@ -18398,11 +18704,11 @@
       <c r="D41" s="149">
         <v>1</v>
       </c>
-      <c r="E41" s="266"/>
-      <c r="F41" s="266"/>
+      <c r="E41" s="290"/>
+      <c r="F41" s="290"/>
     </row>
     <row r="42" spans="1:6" ht="317.39999999999998">
-      <c r="A42" s="266"/>
+      <c r="A42" s="290"/>
       <c r="B42" s="152" t="s">
         <v>501</v>
       </c>
@@ -18412,11 +18718,11 @@
       <c r="D42" s="149">
         <v>1</v>
       </c>
-      <c r="E42" s="266"/>
-      <c r="F42" s="266"/>
+      <c r="E42" s="290"/>
+      <c r="F42" s="290"/>
     </row>
     <row r="43" spans="1:6" ht="69">
-      <c r="A43" s="266"/>
+      <c r="A43" s="290"/>
       <c r="B43" s="152" t="s">
         <v>501</v>
       </c>
@@ -18426,11 +18732,11 @@
       <c r="D43" s="149">
         <v>1</v>
       </c>
-      <c r="E43" s="266"/>
-      <c r="F43" s="266"/>
+      <c r="E43" s="290"/>
+      <c r="F43" s="290"/>
     </row>
     <row r="44" spans="1:6" ht="193.2">
-      <c r="A44" s="266"/>
+      <c r="A44" s="290"/>
       <c r="B44" s="152" t="s">
         <v>501</v>
       </c>
@@ -18440,11 +18746,11 @@
       <c r="D44" s="149">
         <v>1</v>
       </c>
-      <c r="E44" s="266"/>
-      <c r="F44" s="266"/>
+      <c r="E44" s="290"/>
+      <c r="F44" s="290"/>
     </row>
     <row r="45" spans="1:6" ht="234.6">
-      <c r="A45" s="266"/>
+      <c r="A45" s="290"/>
       <c r="B45" s="152" t="s">
         <v>505</v>
       </c>
@@ -18454,11 +18760,11 @@
       <c r="D45" s="149">
         <v>1</v>
       </c>
-      <c r="E45" s="266"/>
-      <c r="F45" s="266"/>
+      <c r="E45" s="290"/>
+      <c r="F45" s="290"/>
     </row>
     <row r="46" spans="1:6" ht="69">
-      <c r="A46" s="266"/>
+      <c r="A46" s="290"/>
       <c r="B46" s="152" t="s">
         <v>507</v>
       </c>
@@ -18468,11 +18774,11 @@
       <c r="D46" s="149">
         <v>1</v>
       </c>
-      <c r="E46" s="266"/>
-      <c r="F46" s="266"/>
+      <c r="E46" s="290"/>
+      <c r="F46" s="290"/>
     </row>
     <row r="47" spans="1:6" ht="110.4">
-      <c r="A47" s="266"/>
+      <c r="A47" s="290"/>
       <c r="B47" s="152" t="s">
         <v>509</v>
       </c>
@@ -18482,11 +18788,11 @@
       <c r="D47" s="149">
         <v>1</v>
       </c>
-      <c r="E47" s="266"/>
-      <c r="F47" s="266"/>
+      <c r="E47" s="290"/>
+      <c r="F47" s="290"/>
     </row>
     <row r="48" spans="1:6" ht="96.6">
-      <c r="A48" s="266"/>
+      <c r="A48" s="290"/>
       <c r="B48" s="152" t="s">
         <v>509</v>
       </c>
@@ -18496,11 +18802,11 @@
       <c r="D48" s="149">
         <v>1</v>
       </c>
-      <c r="E48" s="266"/>
-      <c r="F48" s="266"/>
+      <c r="E48" s="290"/>
+      <c r="F48" s="290"/>
     </row>
     <row r="49" spans="1:6" ht="110.4">
-      <c r="A49" s="266"/>
+      <c r="A49" s="290"/>
       <c r="B49" s="152" t="s">
         <v>512</v>
       </c>
@@ -18510,11 +18816,11 @@
       <c r="D49" s="149">
         <v>1</v>
       </c>
-      <c r="E49" s="266"/>
-      <c r="F49" s="266"/>
+      <c r="E49" s="290"/>
+      <c r="F49" s="290"/>
     </row>
     <row r="50" spans="1:6" ht="165.6">
-      <c r="A50" s="266"/>
+      <c r="A50" s="290"/>
       <c r="B50" s="152" t="s">
         <v>514</v>
       </c>
@@ -18524,11 +18830,11 @@
       <c r="D50" s="149">
         <v>1</v>
       </c>
-      <c r="E50" s="266"/>
-      <c r="F50" s="266"/>
+      <c r="E50" s="290"/>
+      <c r="F50" s="290"/>
     </row>
     <row r="51" spans="1:6" ht="165.6">
-      <c r="A51" s="266"/>
+      <c r="A51" s="290"/>
       <c r="B51" s="152" t="s">
         <v>516</v>
       </c>
@@ -18538,11 +18844,11 @@
       <c r="D51" s="149">
         <v>1</v>
       </c>
-      <c r="E51" s="266"/>
-      <c r="F51" s="266"/>
+      <c r="E51" s="290"/>
+      <c r="F51" s="290"/>
     </row>
     <row r="52" spans="1:6" ht="151.80000000000001">
-      <c r="A52" s="266"/>
+      <c r="A52" s="290"/>
       <c r="B52" s="152" t="s">
         <v>518</v>
       </c>
@@ -18552,11 +18858,11 @@
       <c r="D52" s="149">
         <v>1</v>
       </c>
-      <c r="E52" s="266"/>
-      <c r="F52" s="266"/>
+      <c r="E52" s="290"/>
+      <c r="F52" s="290"/>
     </row>
     <row r="53" spans="1:6" ht="55.2">
-      <c r="A53" s="266"/>
+      <c r="A53" s="290"/>
       <c r="B53" s="152" t="s">
         <v>520</v>
       </c>
@@ -18566,11 +18872,11 @@
       <c r="D53" s="149">
         <v>1</v>
       </c>
-      <c r="E53" s="266"/>
-      <c r="F53" s="266"/>
+      <c r="E53" s="290"/>
+      <c r="F53" s="290"/>
     </row>
     <row r="54" spans="1:6" ht="82.8">
-      <c r="A54" s="266"/>
+      <c r="A54" s="290"/>
       <c r="B54" s="152" t="s">
         <v>523</v>
       </c>
@@ -18580,11 +18886,11 @@
       <c r="D54" s="149">
         <v>1</v>
       </c>
-      <c r="E54" s="266"/>
-      <c r="F54" s="266"/>
+      <c r="E54" s="290"/>
+      <c r="F54" s="290"/>
     </row>
     <row r="55" spans="1:6" ht="96.6">
-      <c r="A55" s="266"/>
+      <c r="A55" s="290"/>
       <c r="B55" s="152" t="s">
         <v>524</v>
       </c>
@@ -18594,11 +18900,11 @@
       <c r="D55" s="149">
         <v>1</v>
       </c>
-      <c r="E55" s="266"/>
-      <c r="F55" s="266"/>
+      <c r="E55" s="290"/>
+      <c r="F55" s="290"/>
     </row>
     <row r="56" spans="1:6" ht="82.8">
-      <c r="A56" s="266"/>
+      <c r="A56" s="290"/>
       <c r="B56" s="152" t="s">
         <v>526</v>
       </c>
@@ -18608,11 +18914,11 @@
       <c r="D56" s="149">
         <v>1</v>
       </c>
-      <c r="E56" s="266"/>
-      <c r="F56" s="266"/>
+      <c r="E56" s="290"/>
+      <c r="F56" s="290"/>
     </row>
     <row r="57" spans="1:6" ht="41.4">
-      <c r="A57" s="266"/>
+      <c r="A57" s="290"/>
       <c r="B57" s="150" t="s">
         <v>418</v>
       </c>
@@ -18620,11 +18926,11 @@
         <v>1</v>
       </c>
       <c r="D57" s="149"/>
-      <c r="E57" s="266"/>
-      <c r="F57" s="266"/>
+      <c r="E57" s="290"/>
+      <c r="F57" s="290"/>
     </row>
     <row r="58" spans="1:6" ht="82.8">
-      <c r="A58" s="266"/>
+      <c r="A58" s="290"/>
       <c r="B58" s="152" t="s">
         <v>528</v>
       </c>
@@ -18634,11 +18940,11 @@
       <c r="D58" s="149">
         <v>1</v>
       </c>
-      <c r="E58" s="266"/>
-      <c r="F58" s="266"/>
+      <c r="E58" s="290"/>
+      <c r="F58" s="290"/>
     </row>
     <row r="59" spans="1:6" ht="41.4">
-      <c r="A59" s="266"/>
+      <c r="A59" s="290"/>
       <c r="B59" s="152" t="s">
         <v>501</v>
       </c>
@@ -18648,11 +18954,11 @@
       <c r="D59" s="149">
         <v>1</v>
       </c>
-      <c r="E59" s="266"/>
-      <c r="F59" s="266"/>
+      <c r="E59" s="290"/>
+      <c r="F59" s="290"/>
     </row>
     <row r="60" spans="1:6" ht="138">
-      <c r="A60" s="266"/>
+      <c r="A60" s="290"/>
       <c r="B60" s="152" t="s">
         <v>501</v>
       </c>
@@ -18662,11 +18968,11 @@
       <c r="D60" s="149">
         <v>1</v>
       </c>
-      <c r="E60" s="266"/>
-      <c r="F60" s="266"/>
+      <c r="E60" s="290"/>
+      <c r="F60" s="290"/>
     </row>
     <row r="61" spans="1:6" ht="69">
-      <c r="A61" s="266"/>
+      <c r="A61" s="290"/>
       <c r="B61" s="152" t="s">
         <v>501</v>
       </c>
@@ -18676,11 +18982,11 @@
       <c r="D61" s="149">
         <v>1</v>
       </c>
-      <c r="E61" s="266"/>
-      <c r="F61" s="266"/>
+      <c r="E61" s="290"/>
+      <c r="F61" s="290"/>
     </row>
     <row r="62" spans="1:6" ht="110.4">
-      <c r="A62" s="266"/>
+      <c r="A62" s="290"/>
       <c r="B62" s="152" t="s">
         <v>501</v>
       </c>
@@ -18690,11 +18996,11 @@
       <c r="D62" s="149">
         <v>1</v>
       </c>
-      <c r="E62" s="266"/>
-      <c r="F62" s="266"/>
+      <c r="E62" s="290"/>
+      <c r="F62" s="290"/>
     </row>
     <row r="63" spans="1:6" ht="96.6">
-      <c r="A63" s="266"/>
+      <c r="A63" s="290"/>
       <c r="B63" s="152" t="s">
         <v>534</v>
       </c>
@@ -18704,11 +19010,11 @@
       <c r="D63" s="149">
         <v>1</v>
       </c>
-      <c r="E63" s="266"/>
-      <c r="F63" s="266"/>
+      <c r="E63" s="290"/>
+      <c r="F63" s="290"/>
     </row>
     <row r="64" spans="1:6" ht="110.4">
-      <c r="A64" s="266"/>
+      <c r="A64" s="290"/>
       <c r="B64" s="152" t="s">
         <v>536</v>
       </c>
@@ -18718,11 +19024,11 @@
       <c r="D64" s="149">
         <v>1</v>
       </c>
-      <c r="E64" s="266"/>
-      <c r="F64" s="266"/>
+      <c r="E64" s="290"/>
+      <c r="F64" s="290"/>
     </row>
     <row r="65" spans="1:6" ht="41.4">
-      <c r="A65" s="266"/>
+      <c r="A65" s="290"/>
       <c r="B65" s="150" t="s">
         <v>538</v>
       </c>
@@ -18730,11 +19036,11 @@
         <v>1</v>
       </c>
       <c r="D65" s="149"/>
-      <c r="E65" s="266"/>
-      <c r="F65" s="266"/>
+      <c r="E65" s="290"/>
+      <c r="F65" s="290"/>
     </row>
     <row r="66" spans="1:6" ht="124.2">
-      <c r="A66" s="266"/>
+      <c r="A66" s="290"/>
       <c r="B66" s="152" t="s">
         <v>540</v>
       </c>
@@ -18744,11 +19050,11 @@
       <c r="D66" s="149">
         <v>1</v>
       </c>
-      <c r="E66" s="266"/>
-      <c r="F66" s="266"/>
+      <c r="E66" s="290"/>
+      <c r="F66" s="290"/>
     </row>
     <row r="67" spans="1:6" ht="151.80000000000001">
-      <c r="A67" s="266"/>
+      <c r="A67" s="290"/>
       <c r="B67" s="152" t="s">
         <v>541</v>
       </c>
@@ -18758,17 +19064,17 @@
       <c r="D67" s="149">
         <v>1</v>
       </c>
-      <c r="E67" s="266"/>
-      <c r="F67" s="266"/>
+      <c r="E67" s="290"/>
+      <c r="F67" s="290"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="267" t="s">
+      <c r="A68" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="267"/>
-      <c r="C68" s="267"/>
-      <c r="D68" s="267"/>
-      <c r="E68" s="267"/>
+      <c r="B68" s="291"/>
+      <c r="C68" s="291"/>
+      <c r="D68" s="291"/>
+      <c r="E68" s="291"/>
       <c r="F68" s="150">
         <f>SUM(F27:F27)</f>
         <v>69000</v>
@@ -18879,48 +19185,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="217"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="241"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="215" t="s">
+      <c r="A6" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="217"/>
+      <c r="B6" s="240"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="241"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="215" t="s">
+      <c r="A7" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="216"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="217"/>
+      <c r="B7" s="240"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="241"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="215" t="s">
+      <c r="A8" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="241"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -18983,11 +19289,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="267" t="s">
+      <c r="A3" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
       <c r="D3" s="153">
         <f>SUM(D2)</f>
         <v>45000</v>
@@ -19182,12 +19488,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="158">
         <f>SUM(E2:E9)</f>
         <v>82970</v>
@@ -19469,12 +19775,12 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="200" t="s">
+      <c r="A36" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="202"/>
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="226"/>
       <c r="E36" s="158">
         <f>SUM(E28:E35)</f>
         <v>82850</v>
@@ -19773,12 +20079,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="202"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="226"/>
       <c r="E11" s="162">
         <f>SUM(E3:E10)</f>
         <v>152800</v>
@@ -20054,12 +20360,12 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="200" t="s">
+      <c r="A35" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="201"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="202"/>
+      <c r="B35" s="225"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="226"/>
       <c r="E35" s="162">
         <f>SUM(E27:E34)</f>
         <v>95050</v>
@@ -20300,12 +20606,12 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="200" t="s">
+      <c r="A59" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="201"/>
-      <c r="C59" s="201"/>
-      <c r="D59" s="202"/>
+      <c r="B59" s="225"/>
+      <c r="C59" s="225"/>
+      <c r="D59" s="226"/>
       <c r="E59" s="162">
         <f>SUM(E51:E58)</f>
         <v>139220</v>
@@ -20560,12 +20866,12 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="200" t="s">
+      <c r="A82" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="201"/>
-      <c r="C82" s="201"/>
-      <c r="D82" s="202"/>
+      <c r="B82" s="225"/>
+      <c r="C82" s="225"/>
+      <c r="D82" s="226"/>
       <c r="E82" s="162">
         <f>SUM(E74:E81)</f>
         <v>82350</v>
@@ -20690,48 +20996,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="271" t="s">
+      <c r="A3" s="295" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="272"/>
-      <c r="D3" s="272"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
       <c r="E3" s="166">
         <f>SUM(E2)</f>
         <v>27900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="271" t="s">
+      <c r="A4" s="295" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="272"/>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
       <c r="E4" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="271" t="s">
+      <c r="A5" s="295" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="272"/>
-      <c r="C5" s="272"/>
-      <c r="D5" s="272"/>
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
       <c r="E5" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="295" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="272"/>
-      <c r="C6" s="272"/>
-      <c r="D6" s="272"/>
+      <c r="B6" s="296"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="296"/>
       <c r="E6" s="166">
         <f>SUM(E3:E5)</f>
         <v>32922</v>
@@ -20936,12 +21242,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="168">
         <f>SUM(E2:E9)</f>
         <v>79850</v>
@@ -21172,12 +21478,12 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="200" t="s">
+      <c r="A30" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="201"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="202"/>
+      <c r="B30" s="225"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="226"/>
       <c r="E30" s="170">
         <f>SUM(E23:E29)</f>
         <v>49710</v>
@@ -21430,12 +21736,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="200" t="s">
+      <c r="A9" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="201"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="225"/>
       <c r="E9" s="172">
         <f>SUM(E3:E8)</f>
         <v>347036</v>
@@ -21641,12 +21947,12 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="273" t="s">
+      <c r="A23" s="297" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="273"/>
-      <c r="C23" s="273"/>
-      <c r="D23" s="273"/>
+      <c r="B23" s="297"/>
+      <c r="C23" s="297"/>
+      <c r="D23" s="297"/>
       <c r="E23" s="175">
         <f>SUM(E16:E22)</f>
         <v>728300</v>
@@ -21868,12 +22174,12 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="274" t="s">
+      <c r="A39" s="298" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="275"/>
-      <c r="C39" s="275"/>
-      <c r="D39" s="276"/>
+      <c r="B39" s="299"/>
+      <c r="C39" s="299"/>
+      <c r="D39" s="300"/>
       <c r="E39" s="175">
         <f>SUM(E32:E38)</f>
         <v>661616</v>
@@ -22095,12 +22401,12 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="177">
         <f>SUM(E2:E9)</f>
         <v>32840</v>
@@ -22353,12 +22659,12 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="200" t="s">
+      <c r="A29" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="201"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="202"/>
+      <c r="B29" s="225"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="226"/>
       <c r="E29" s="177">
         <f>SUM(E21:E28)</f>
         <v>28840</v>
@@ -22437,7 +22743,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -22506,12 +22812,12 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="277" t="s">
+      <c r="A5" s="301" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="278"/>
-      <c r="C5" s="278"/>
-      <c r="D5" s="279"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="302"/>
+      <c r="D5" s="303"/>
       <c r="E5" s="182">
         <f>SUM(E3:E4)</f>
         <v>190000</v>
@@ -22583,12 +22889,12 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="277" t="s">
+      <c r="A12" s="301" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="278"/>
-      <c r="C12" s="278"/>
-      <c r="D12" s="279"/>
+      <c r="B12" s="302"/>
+      <c r="C12" s="302"/>
+      <c r="D12" s="303"/>
       <c r="E12" s="182">
         <f>SUM(E10:E11)</f>
         <v>40000</v>
@@ -22689,10 +22995,10 @@
       <c r="A5" s="183">
         <v>3</v>
       </c>
-      <c r="B5" s="281" t="s">
+      <c r="B5" s="305" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="282"/>
+      <c r="C5" s="306"/>
       <c r="D5" s="183">
         <v>1</v>
       </c>
@@ -22708,10 +23014,10 @@
       <c r="A6" s="183">
         <v>4</v>
       </c>
-      <c r="B6" s="281" t="s">
+      <c r="B6" s="305" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="282"/>
+      <c r="C6" s="306"/>
       <c r="D6" s="183">
         <v>1</v>
       </c>
@@ -22724,13 +23030,13 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="280" t="s">
+      <c r="A7" s="304" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="280"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="304"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
       <c r="F7" s="182">
         <f>SUM(F3:F6)</f>
         <v>96000</v>
@@ -22786,10 +23092,10 @@
       <c r="A12" s="183">
         <v>2</v>
       </c>
-      <c r="B12" s="281" t="s">
+      <c r="B12" s="305" t="s">
         <v>593</v>
       </c>
-      <c r="C12" s="282"/>
+      <c r="C12" s="306"/>
       <c r="D12" s="183">
         <v>1</v>
       </c>
@@ -22805,10 +23111,10 @@
       <c r="A13" s="183">
         <v>3</v>
       </c>
-      <c r="B13" s="281" t="s">
+      <c r="B13" s="305" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="282"/>
+      <c r="C13" s="306"/>
       <c r="D13" s="183">
         <v>1</v>
       </c>
@@ -22821,13 +23127,13 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="280" t="s">
+      <c r="A14" s="304" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="280"/>
-      <c r="C14" s="280"/>
-      <c r="D14" s="280"/>
-      <c r="E14" s="280"/>
+      <c r="B14" s="304"/>
+      <c r="C14" s="304"/>
+      <c r="D14" s="304"/>
+      <c r="E14" s="304"/>
       <c r="F14" s="182">
         <f>SUM(F11:F13)</f>
         <v>61500</v>
@@ -22873,15 +23179,17 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
@@ -23041,14 +23349,18 @@
         <f t="shared" si="0"/>
         <v>2900</v>
       </c>
+      <c r="I8">
+        <f>900*2</f>
+        <v>1800</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="200" t="s">
+      <c r="A9" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="201"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="202"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="226"/>
       <c r="E9" s="189">
         <f>SUM(E2:E8)</f>
         <v>19920</v>
@@ -23104,11 +23416,366 @@
       <c r="D15" s="75"/>
       <c r="E15" s="75"/>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="B21" s="311">
+        <v>900</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" ht="28.8">
+      <c r="A22" s="24" t="s">
+        <v>675</v>
+      </c>
+      <c r="B22" s="311">
+        <v>950</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>675</v>
+      </c>
+      <c r="D22" s="24">
+        <v>1230</v>
+      </c>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="24" t="s">
+        <v>676</v>
+      </c>
+      <c r="B23" s="311">
+        <v>5200</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>676</v>
+      </c>
+      <c r="D23" s="24">
+        <v>6700</v>
+      </c>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="B24" s="311">
+        <v>910</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="B25" s="24">
+        <v>60</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="D25" s="24">
+        <v>20</v>
+      </c>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="24" t="s">
+        <v>679</v>
+      </c>
+      <c r="B26" s="24">
+        <v>50</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>679</v>
+      </c>
+      <c r="D26" s="24">
+        <v>20</v>
+      </c>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" ht="28.8">
+      <c r="A27" s="24" t="s">
+        <v>684</v>
+      </c>
+      <c r="B27" s="24">
+        <v>2500</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>684</v>
+      </c>
+      <c r="D27" s="24">
+        <v>2300</v>
+      </c>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" ht="43.2">
+      <c r="A28" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="B28" s="24">
+        <v>90</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="E28" s="313" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8">
+      <c r="A29" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="B29" s="24">
+        <v>90</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="E29" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8">
+      <c r="A30" s="24" t="s">
+        <v>687</v>
+      </c>
+      <c r="B30" s="24">
+        <v>550</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="D30" s="24">
+        <v>600</v>
+      </c>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="24" t="s">
+        <v>683</v>
+      </c>
+      <c r="B31" s="24">
+        <v>5490</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>683</v>
+      </c>
+      <c r="D31" s="24">
+        <v>5550</v>
+      </c>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="312"/>
+      <c r="B32" s="312"/>
+      <c r="C32" s="312"/>
+      <c r="D32" s="312"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="310"/>
+      <c r="B39" s="310"/>
+      <c r="C39" s="310"/>
+      <c r="D39" s="310"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="310"/>
+      <c r="B40" s="310"/>
+      <c r="C40" s="310"/>
+      <c r="D40" s="310"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="310"/>
+      <c r="B41" s="310"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="310"/>
+      <c r="B42" s="310"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="310"/>
+      <c r="B43" s="310"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="310"/>
+      <c r="B44" s="310"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="310"/>
+      <c r="B45" s="310"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="310"/>
+      <c r="B46" s="310"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="310"/>
+      <c r="B47" s="310"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="310"/>
+      <c r="B48" s="310"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="310"/>
+      <c r="B49" s="310"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="310"/>
+      <c r="B50" s="310"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="310"/>
+      <c r="B51" s="310"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="310"/>
+      <c r="B52" s="310"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="310"/>
+      <c r="B53" s="310"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="310"/>
+      <c r="B54" s="310"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="310"/>
+      <c r="B55" s="310"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="310"/>
+      <c r="B56" s="310"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="310"/>
+      <c r="B57" s="310"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="310"/>
+      <c r="B58" s="310"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="310"/>
+      <c r="B59" s="310"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="310"/>
+      <c r="B60" s="310"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="310"/>
+      <c r="B61" s="310"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="310"/>
+      <c r="B62" s="310"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="310"/>
+      <c r="B63" s="310"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="310"/>
+      <c r="B64" s="310"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="310"/>
+      <c r="B65" s="310"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="310"/>
+      <c r="B66" s="310"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="310"/>
+      <c r="B67" s="310"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="310"/>
+      <c r="B68" s="310"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="310"/>
+      <c r="B69" s="310"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="310"/>
+      <c r="B70" s="310"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23182,12 +23849,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="217"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="241"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -23205,8 +23872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23370,12 +24037,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="191">
         <f>SUM(E3:E9)</f>
         <v>37490</v>
@@ -23651,12 +24318,12 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="200" t="s">
+      <c r="A34" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="201"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="202"/>
+      <c r="B34" s="225"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="226"/>
       <c r="E34" s="191">
         <f>SUM(E26:E33)</f>
         <v>19470</v>
@@ -23879,12 +24546,12 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="200" t="s">
+      <c r="A57" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="201"/>
-      <c r="C57" s="201"/>
-      <c r="D57" s="202"/>
+      <c r="B57" s="225"/>
+      <c r="C57" s="225"/>
+      <c r="D57" s="226"/>
       <c r="E57" s="191">
         <f>SUM(E50:E56)</f>
         <v>54320</v>
@@ -24139,12 +24806,12 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="200" t="s">
+      <c r="A80" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="201"/>
-      <c r="C80" s="201"/>
-      <c r="D80" s="202"/>
+      <c r="B80" s="225"/>
+      <c r="C80" s="225"/>
+      <c r="D80" s="226"/>
       <c r="E80" s="191">
         <f>SUM(E72:E79)</f>
         <v>49300</v>
@@ -24224,8 +24891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24430,12 +25097,12 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="200" t="s">
+      <c r="A12" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="201"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="202"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="226"/>
       <c r="E12" s="193">
         <f>SUM(E3:E11)</f>
         <v>52650</v>
@@ -24697,12 +25364,12 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="200" t="s">
+      <c r="A34" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="201"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="202"/>
+      <c r="B34" s="225"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="226"/>
       <c r="E34" s="193">
         <f>SUM(E25:E33)</f>
         <v>44710</v>
@@ -24787,10 +25454,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24799,228 +25466,224 @@
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A1" s="196" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.8" customHeight="1">
+      <c r="A2" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B2" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C2" s="196" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="196" t="s">
+      <c r="D2" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="196" t="s">
+      <c r="E2" s="196" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.8" customHeight="1">
-      <c r="A2" s="195">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+    <row r="3" spans="1:8" ht="19.8" customHeight="1">
+      <c r="A3" s="195">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="C2" s="195">
+      <c r="C3" s="195">
         <v>2</v>
       </c>
-      <c r="D2" s="195">
+      <c r="D3" s="195">
         <v>3950</v>
       </c>
-      <c r="E2" s="195">
-        <f t="shared" ref="E2:E9" si="0">C2*D2</f>
+      <c r="E3" s="195">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
         <v>7900</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <f>2450*2</f>
         <v>4900</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="25.8" customHeight="1">
-      <c r="A3" s="195">
+    <row r="4" spans="1:8" ht="25.8" customHeight="1">
+      <c r="A4" s="195">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B4" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="C3" s="195">
+      <c r="C4" s="195">
         <v>4</v>
       </c>
-      <c r="D3" s="195">
+      <c r="D4" s="195">
         <v>3950</v>
       </c>
-      <c r="E3" s="195">
+      <c r="E4" s="195">
         <f t="shared" si="0"/>
         <v>15800</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <f>2350*2</f>
         <v>4700</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.4" customHeight="1">
-      <c r="A4" s="195">
+    <row r="5" spans="1:8" ht="26.4" customHeight="1">
+      <c r="A5" s="195">
         <v>3</v>
       </c>
-      <c r="B4" s="195" t="s">
+      <c r="B5" s="195" t="s">
         <v>613</v>
       </c>
-      <c r="C4" s="195">
-        <v>1</v>
-      </c>
-      <c r="D4" s="195">
+      <c r="C5" s="195">
+        <v>1</v>
+      </c>
+      <c r="D5" s="195">
         <v>11880</v>
       </c>
-      <c r="E4" s="195">
+      <c r="E5" s="195">
         <f t="shared" si="0"/>
         <v>11880</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <f>5940*2</f>
         <v>11880</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="195">
+    <row r="6" spans="1:8">
+      <c r="A6" s="195">
         <v>4</v>
       </c>
-      <c r="B5" s="195" t="s">
+      <c r="B6" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="195">
-        <v>1</v>
-      </c>
-      <c r="D5" s="195">
+      <c r="C6" s="195">
+        <v>1</v>
+      </c>
+      <c r="D6" s="195">
         <v>6200</v>
       </c>
-      <c r="E5" s="195">
+      <c r="E6" s="195">
         <f t="shared" si="0"/>
         <v>6200</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <f>3140*2</f>
         <v>6280</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="195">
+    <row r="7" spans="1:8" ht="34.799999999999997" customHeight="1">
+      <c r="A7" s="195">
         <v>5</v>
       </c>
-      <c r="B6" s="195" t="s">
+      <c r="B7" s="195" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="195">
-        <v>1</v>
-      </c>
-      <c r="D6" s="195">
+      <c r="C7" s="195">
+        <v>1</v>
+      </c>
+      <c r="D7" s="195">
         <v>9600</v>
       </c>
-      <c r="E6" s="195">
+      <c r="E7" s="195">
         <f t="shared" si="0"/>
         <v>9600</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="195">
+    <row r="8" spans="1:8">
+      <c r="A8" s="195">
         <v>6</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B8" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="195">
+      <c r="C8" s="195">
         <v>16</v>
       </c>
-      <c r="D7" s="195">
+      <c r="D8" s="195">
         <v>150</v>
       </c>
-      <c r="E7" s="195">
+      <c r="E8" s="195">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="195">
+    <row r="9" spans="1:8">
+      <c r="A9" s="195">
         <v>7</v>
       </c>
-      <c r="B8" s="195" t="s">
+      <c r="B9" s="195" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="195">
+      <c r="C9" s="195">
         <v>6</v>
       </c>
-      <c r="D8" s="195">
+      <c r="D9" s="195">
         <v>100</v>
       </c>
-      <c r="E8" s="195">
+      <c r="E9" s="195">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="195">
+    <row r="10" spans="1:8">
+      <c r="A10" s="195">
         <v>8</v>
       </c>
-      <c r="B9" s="195" t="s">
+      <c r="B10" s="195" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="195">
-        <v>1</v>
-      </c>
-      <c r="D9" s="195">
+      <c r="C10" s="195">
+        <v>1</v>
+      </c>
+      <c r="D10" s="195">
         <v>4000</v>
       </c>
-      <c r="E9" s="195">
+      <c r="E10" s="195">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="200" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="196">
-        <f>SUM(E2:E9)</f>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="196">
+        <f>SUM(E3:E10)</f>
         <v>58380</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
     <row r="12" spans="1:8">
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6"/>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
       <c r="D14" s="75"/>
       <c r="E14" s="75"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
       <c r="D15" s="75"/>
@@ -25028,39 +25691,1986 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
       <c r="D16" s="75"/>
       <c r="E16" s="75"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
       <c r="D17" s="75"/>
       <c r="E17" s="75"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
       <c r="D18" s="75"/>
       <c r="E18" s="75"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
       <c r="D19" s="75"/>
       <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="201" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="201" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="201" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="201" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="201" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="200">
+        <v>1</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="C24" s="200">
+        <v>2</v>
+      </c>
+      <c r="D24" s="200">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="200">
+        <f t="shared" ref="E24:E31" si="1">C24*D24</f>
+        <v>5800</v>
+      </c>
+      <c r="H24">
+        <f>1798*2</f>
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="200">
+        <v>2</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="C25" s="200">
+        <v>4</v>
+      </c>
+      <c r="D25" s="200">
+        <v>2950</v>
+      </c>
+      <c r="E25" s="200">
+        <f t="shared" si="1"/>
+        <v>11800</v>
+      </c>
+      <c r="H25">
+        <f>1749*2</f>
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="200">
+        <v>3</v>
+      </c>
+      <c r="B26" s="200" t="s">
+        <v>624</v>
+      </c>
+      <c r="C26" s="200">
+        <v>1</v>
+      </c>
+      <c r="D26" s="200">
+        <v>9600</v>
+      </c>
+      <c r="E26" s="200">
+        <f t="shared" si="1"/>
+        <v>9600</v>
+      </c>
+      <c r="H26">
+        <f>3210*2</f>
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="200">
+        <v>4</v>
+      </c>
+      <c r="B27" s="200" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="200">
+        <v>1</v>
+      </c>
+      <c r="D27" s="200">
+        <v>4250</v>
+      </c>
+      <c r="E27" s="200">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+      <c r="H27">
+        <f>3140*2</f>
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="26.4">
+      <c r="A28" s="200">
+        <v>5</v>
+      </c>
+      <c r="B28" s="200" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28" s="200">
+        <v>1</v>
+      </c>
+      <c r="D28" s="200">
+        <v>9600</v>
+      </c>
+      <c r="E28" s="200">
+        <f t="shared" si="1"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="200">
+        <v>6</v>
+      </c>
+      <c r="B29" s="200" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="200">
+        <v>16</v>
+      </c>
+      <c r="D29" s="200">
+        <v>150</v>
+      </c>
+      <c r="E29" s="200">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="200">
+        <v>7</v>
+      </c>
+      <c r="B30" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="200">
+        <v>6</v>
+      </c>
+      <c r="D30" s="200">
+        <v>100</v>
+      </c>
+      <c r="E30" s="200">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="200">
+        <v>8</v>
+      </c>
+      <c r="B31" s="200" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="200">
+        <v>1</v>
+      </c>
+      <c r="D31" s="200">
+        <v>4000</v>
+      </c>
+      <c r="E31" s="200">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="225"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="201">
+        <f>SUM(E24:E31)</f>
+        <v>48050</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A32:D32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I98"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="33"/>
+    <col min="2" max="2" width="58.109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="33" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21.6" customHeight="1">
+      <c r="A2" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="198" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="198" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="198" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.2" customHeight="1">
+      <c r="A3" s="197">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" s="197">
+        <v>5</v>
+      </c>
+      <c r="D3" s="197">
+        <v>9300</v>
+      </c>
+      <c r="E3" s="197">
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+        <v>46500</v>
+      </c>
+      <c r="H3" s="33">
+        <f>4660*2</f>
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A4" s="197">
+        <v>2</v>
+      </c>
+      <c r="B4" s="197" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="197">
+        <v>1</v>
+      </c>
+      <c r="D4" s="197">
+        <v>11880</v>
+      </c>
+      <c r="E4" s="197">
+        <f t="shared" si="0"/>
+        <v>11880</v>
+      </c>
+      <c r="H4" s="33">
+        <f>5940*2</f>
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21.6" customHeight="1">
+      <c r="A5" s="197">
+        <v>3</v>
+      </c>
+      <c r="B5" s="197" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="197">
+        <v>1</v>
+      </c>
+      <c r="D5" s="197">
+        <v>4090</v>
+      </c>
+      <c r="E5" s="197">
+        <f t="shared" si="0"/>
+        <v>4090</v>
+      </c>
+      <c r="H5" s="33">
+        <f>4090*2</f>
+        <v>8180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.6" customHeight="1">
+      <c r="A6" s="197">
+        <v>4</v>
+      </c>
+      <c r="B6" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="197">
+        <v>1</v>
+      </c>
+      <c r="D6" s="197">
+        <v>11900</v>
+      </c>
+      <c r="E6" s="197">
+        <f t="shared" si="0"/>
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.8" customHeight="1">
+      <c r="A7" s="197">
+        <v>5</v>
+      </c>
+      <c r="B7" s="197" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="197">
+        <v>14</v>
+      </c>
+      <c r="D7" s="197">
+        <v>150</v>
+      </c>
+      <c r="E7" s="197">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1">
+      <c r="A8" s="197">
+        <v>6</v>
+      </c>
+      <c r="B8" s="197" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="197">
+        <v>5</v>
+      </c>
+      <c r="D8" s="197">
+        <v>100</v>
+      </c>
+      <c r="E8" s="197">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1">
+      <c r="A9" s="197">
+        <v>7</v>
+      </c>
+      <c r="B9" s="197" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" s="197">
+        <v>1</v>
+      </c>
+      <c r="D9" s="197">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="197">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1">
+      <c r="A10" s="197">
+        <v>8</v>
+      </c>
+      <c r="B10" s="197" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" s="197">
+        <v>250</v>
+      </c>
+      <c r="D10" s="197">
+        <v>75</v>
+      </c>
+      <c r="E10" s="197">
+        <f t="shared" si="0"/>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1">
+      <c r="A11" s="197">
+        <v>9</v>
+      </c>
+      <c r="B11" s="197" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" s="197">
+        <v>250</v>
+      </c>
+      <c r="D11" s="197">
+        <v>75</v>
+      </c>
+      <c r="E11" s="197">
+        <f t="shared" si="0"/>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21.6" customHeight="1">
+      <c r="A12" s="197">
+        <v>10</v>
+      </c>
+      <c r="B12" s="197" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="197">
+        <v>1</v>
+      </c>
+      <c r="D12" s="197">
+        <v>5900</v>
+      </c>
+      <c r="E12" s="197">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A13" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="225"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="198">
+        <f>SUM(E3:E12)</f>
+        <v>123270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" s="42" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+    </row>
+    <row r="16" spans="1:8" s="42" customFormat="1">
+      <c r="A16" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:9" s="42" customFormat="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:9" s="42" customFormat="1">
+      <c r="A18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:9" s="42" customFormat="1">
+      <c r="A19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:9" s="42" customFormat="1">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:9" s="42" customFormat="1">
+      <c r="A21" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="1:9" ht="34.799999999999997" customHeight="1"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="198" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="198" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="198" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="197">
+        <v>1</v>
+      </c>
+      <c r="B25" s="197" t="s">
+        <v>614</v>
+      </c>
+      <c r="C25" s="197">
+        <v>5</v>
+      </c>
+      <c r="D25" s="197">
+        <v>3800</v>
+      </c>
+      <c r="E25" s="197">
+        <f t="shared" ref="E25:E35" si="1">C25*D25</f>
+        <v>19000</v>
+      </c>
+      <c r="I25" s="33">
+        <f>1940*2</f>
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="197">
+        <v>2</v>
+      </c>
+      <c r="B26" s="197" t="s">
+        <v>615</v>
+      </c>
+      <c r="C26" s="197">
+        <v>1</v>
+      </c>
+      <c r="D26" s="197">
+        <v>13700</v>
+      </c>
+      <c r="E26" s="197">
+        <f t="shared" si="1"/>
+        <v>13700</v>
+      </c>
+      <c r="I26" s="33">
+        <f>6850*2</f>
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="197">
+        <v>3</v>
+      </c>
+      <c r="B27" s="197" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="197">
+        <v>10</v>
+      </c>
+      <c r="D27" s="197">
+        <v>60</v>
+      </c>
+      <c r="E27" s="197">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="197">
+        <v>4</v>
+      </c>
+      <c r="B28" s="197" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="197">
+        <v>5</v>
+      </c>
+      <c r="D28" s="197">
+        <v>50</v>
+      </c>
+      <c r="E28" s="197">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="197">
+        <v>5</v>
+      </c>
+      <c r="B29" s="197" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="197">
+        <v>1</v>
+      </c>
+      <c r="D29" s="197">
+        <v>990</v>
+      </c>
+      <c r="E29" s="197">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="197">
+        <v>6</v>
+      </c>
+      <c r="B30" s="197" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="197">
+        <v>1</v>
+      </c>
+      <c r="D30" s="197">
+        <v>4090</v>
+      </c>
+      <c r="E30" s="197">
+        <f t="shared" si="1"/>
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="197">
+        <v>7</v>
+      </c>
+      <c r="B31" s="197" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="197">
+        <v>5</v>
+      </c>
+      <c r="D31" s="197">
+        <v>100</v>
+      </c>
+      <c r="E31" s="197">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="197">
+        <v>8</v>
+      </c>
+      <c r="B32" s="197" t="s">
+        <v>616</v>
+      </c>
+      <c r="C32" s="197">
+        <v>1</v>
+      </c>
+      <c r="D32" s="197">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="197">
+        <f t="shared" si="1"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="197">
+        <v>9</v>
+      </c>
+      <c r="B33" s="197" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33" s="197">
+        <v>250</v>
+      </c>
+      <c r="D33" s="197">
+        <v>75</v>
+      </c>
+      <c r="E33" s="197">
+        <f t="shared" si="1"/>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="197">
+        <v>10</v>
+      </c>
+      <c r="B34" s="199" t="s">
+        <v>618</v>
+      </c>
+      <c r="C34" s="197">
+        <v>250</v>
+      </c>
+      <c r="D34" s="197">
+        <v>75</v>
+      </c>
+      <c r="E34" s="197">
+        <f t="shared" si="1"/>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="197">
+        <v>11</v>
+      </c>
+      <c r="B35" s="197" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="197">
+        <v>1</v>
+      </c>
+      <c r="D35" s="197">
+        <v>5900</v>
+      </c>
+      <c r="E35" s="197">
+        <f t="shared" si="1"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="198">
+        <f>SUM(E25:E35)</f>
+        <v>85430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="76" t="s">
+        <v>621</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="203" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="203" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="203" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="203" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="203" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="202">
+        <v>1</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="C47" s="202">
+        <v>5</v>
+      </c>
+      <c r="D47" s="202">
+        <v>5900</v>
+      </c>
+      <c r="E47" s="202">
+        <f t="shared" ref="E47:E54" si="2">C47*D47</f>
+        <v>29500</v>
+      </c>
+      <c r="I47" s="33">
+        <f>3765*2</f>
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="202">
+        <v>2</v>
+      </c>
+      <c r="B48" s="202" t="s">
+        <v>624</v>
+      </c>
+      <c r="C48" s="202">
+        <v>1</v>
+      </c>
+      <c r="D48" s="202">
+        <v>8700</v>
+      </c>
+      <c r="E48" s="202">
+        <f t="shared" si="2"/>
+        <v>8700</v>
+      </c>
+      <c r="I48" s="33">
+        <f>3150*2</f>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="202">
+        <v>3</v>
+      </c>
+      <c r="B49" s="202" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="202">
+        <v>1</v>
+      </c>
+      <c r="D49" s="202">
+        <v>4090</v>
+      </c>
+      <c r="E49" s="202">
+        <f t="shared" si="2"/>
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="26.4">
+      <c r="A50" s="202">
+        <v>4</v>
+      </c>
+      <c r="B50" s="202" t="s">
+        <v>389</v>
+      </c>
+      <c r="C50" s="202">
+        <v>1</v>
+      </c>
+      <c r="D50" s="202">
+        <v>9600</v>
+      </c>
+      <c r="E50" s="202">
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="202">
+        <v>5</v>
+      </c>
+      <c r="B51" s="202" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="202">
+        <v>14</v>
+      </c>
+      <c r="D51" s="202">
+        <v>150</v>
+      </c>
+      <c r="E51" s="202">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="202">
+        <v>6</v>
+      </c>
+      <c r="B52" s="202" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="202">
+        <v>5</v>
+      </c>
+      <c r="D52" s="202">
+        <v>100</v>
+      </c>
+      <c r="E52" s="202">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="204">
+        <v>7</v>
+      </c>
+      <c r="B53" s="202" t="s">
+        <v>616</v>
+      </c>
+      <c r="C53" s="202">
+        <v>1</v>
+      </c>
+      <c r="D53" s="202">
+        <v>2900</v>
+      </c>
+      <c r="E53" s="202">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="204">
+        <v>8</v>
+      </c>
+      <c r="B54" s="202" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="202">
+        <v>1</v>
+      </c>
+      <c r="D54" s="202">
+        <v>5900</v>
+      </c>
+      <c r="E54" s="202">
+        <f t="shared" si="2"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="225"/>
+      <c r="C55" s="225"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="203">
+        <f>SUM(E47:E54)</f>
+        <v>63290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" s="206" customFormat="1">
+      <c r="A57" s="76" t="s">
+        <v>632</v>
+      </c>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
+      <c r="E57" s="163"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.8" customHeight="1">
+      <c r="A58" s="205" t="s">
+        <v>627</v>
+      </c>
+      <c r="B58" s="205" t="s">
+        <v>628</v>
+      </c>
+      <c r="C58" s="205" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="E58" s="163"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="24">
+        <v>250</v>
+      </c>
+      <c r="B59" s="204">
+        <v>75</v>
+      </c>
+      <c r="C59" s="204">
+        <f>250*75</f>
+        <v>18750</v>
+      </c>
+      <c r="D59" s="204">
+        <f>C59*1.18</f>
+        <v>22125</v>
+      </c>
+      <c r="E59" s="75"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+    </row>
+    <row r="62" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A62" s="205" t="s">
+        <v>627</v>
+      </c>
+      <c r="B62" s="205" t="s">
+        <v>628</v>
+      </c>
+      <c r="C62" s="205" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="E62" s="75"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="24">
+        <v>250</v>
+      </c>
+      <c r="B63" s="204">
+        <v>75</v>
+      </c>
+      <c r="C63" s="204">
+        <f>250*75</f>
+        <v>18750</v>
+      </c>
+      <c r="D63" s="204">
+        <f>C63*1.18</f>
+        <v>22125</v>
+      </c>
+      <c r="E63" s="75"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="203" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="203" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="203" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="203" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="203" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="202">
+        <v>1</v>
+      </c>
+      <c r="B74" s="202" t="s">
+        <v>626</v>
+      </c>
+      <c r="C74" s="202">
+        <v>5</v>
+      </c>
+      <c r="D74" s="202">
+        <v>2700</v>
+      </c>
+      <c r="E74" s="202">
+        <f t="shared" ref="E74:E82" si="3">C74*D74</f>
+        <v>13500</v>
+      </c>
+      <c r="G74" s="33">
+        <f>1365*2</f>
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="202">
+        <v>2</v>
+      </c>
+      <c r="B75" s="202" t="s">
+        <v>631</v>
+      </c>
+      <c r="C75" s="202">
+        <v>1</v>
+      </c>
+      <c r="D75" s="202">
+        <v>8700</v>
+      </c>
+      <c r="E75" s="202">
+        <f t="shared" si="3"/>
+        <v>8700</v>
+      </c>
+      <c r="G75" s="33">
+        <f>4375*2</f>
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="202">
+        <v>3</v>
+      </c>
+      <c r="B76" s="202" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="202">
+        <v>10</v>
+      </c>
+      <c r="D76" s="202">
+        <v>60</v>
+      </c>
+      <c r="E76" s="202">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="202">
+        <v>4</v>
+      </c>
+      <c r="B77" s="202" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="202">
+        <v>5</v>
+      </c>
+      <c r="D77" s="202">
+        <v>50</v>
+      </c>
+      <c r="E77" s="202">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="202">
+        <v>5</v>
+      </c>
+      <c r="B78" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="202">
+        <v>1</v>
+      </c>
+      <c r="D78" s="202">
+        <v>990</v>
+      </c>
+      <c r="E78" s="202">
+        <f t="shared" si="3"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="202">
+        <v>6</v>
+      </c>
+      <c r="B79" s="202" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="202">
+        <v>1</v>
+      </c>
+      <c r="D79" s="202">
+        <v>4090</v>
+      </c>
+      <c r="E79" s="202">
+        <f t="shared" si="3"/>
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="202">
+        <v>7</v>
+      </c>
+      <c r="B80" s="202" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="202">
+        <v>5</v>
+      </c>
+      <c r="D80" s="202">
+        <v>100</v>
+      </c>
+      <c r="E80" s="202">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="202">
+        <v>8</v>
+      </c>
+      <c r="B81" s="202" t="s">
+        <v>616</v>
+      </c>
+      <c r="C81" s="202">
+        <v>1</v>
+      </c>
+      <c r="D81" s="202">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="202">
+        <f t="shared" si="3"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="204">
+        <v>9</v>
+      </c>
+      <c r="B82" s="202" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="202">
+        <v>1</v>
+      </c>
+      <c r="D82" s="202">
+        <v>5900</v>
+      </c>
+      <c r="E82" s="202">
+        <f t="shared" si="3"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="225"/>
+      <c r="C83" s="225"/>
+      <c r="D83" s="226"/>
+      <c r="E83" s="203">
+        <f>SUM(E74:E82)</f>
+        <v>37430</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="7"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="76" t="s">
+        <v>633</v>
+      </c>
+      <c r="B85" s="163"/>
+      <c r="C85" s="163"/>
+    </row>
+    <row r="86" spans="1:5" ht="26.4">
+      <c r="A86" s="205" t="s">
+        <v>627</v>
+      </c>
+      <c r="B86" s="205" t="s">
+        <v>628</v>
+      </c>
+      <c r="C86" s="205" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="24">
+        <v>250</v>
+      </c>
+      <c r="B87" s="204">
+        <v>75</v>
+      </c>
+      <c r="C87" s="204">
+        <f>250*75</f>
+        <v>18750</v>
+      </c>
+      <c r="D87" s="204">
+        <f>C87*1.18</f>
+        <v>22125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="6"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B89" s="75"/>
+      <c r="C89" s="75"/>
+    </row>
+    <row r="90" spans="1:5" ht="26.4">
+      <c r="A90" s="205" t="s">
+        <v>627</v>
+      </c>
+      <c r="B90" s="205" t="s">
+        <v>628</v>
+      </c>
+      <c r="C90" s="205" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="24">
+        <v>250</v>
+      </c>
+      <c r="B91" s="204">
+        <v>75</v>
+      </c>
+      <c r="C91" s="204">
+        <f>250*75</f>
+        <v>18750</v>
+      </c>
+      <c r="D91" s="204">
+        <f>C91*1.18</f>
+        <v>22125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="6"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="75"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="76" t="s">
+        <v>621</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="7"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A83:D83"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="54.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.4" customHeight="1">
+      <c r="A1" s="208" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="208" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="208" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="208" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="208" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="207">
+        <v>1</v>
+      </c>
+      <c r="B2" s="207" t="s">
+        <v>626</v>
+      </c>
+      <c r="C2" s="207">
+        <v>4</v>
+      </c>
+      <c r="D2" s="207">
+        <v>2700</v>
+      </c>
+      <c r="E2" s="207">
+        <f t="shared" ref="E2:E9" si="0">C2*D2</f>
+        <v>10800</v>
+      </c>
+      <c r="H2">
+        <f>1277*2</f>
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="207">
+        <v>2</v>
+      </c>
+      <c r="B3" s="207" t="s">
+        <v>635</v>
+      </c>
+      <c r="C3" s="207">
+        <v>1</v>
+      </c>
+      <c r="D3" s="207">
+        <v>15000</v>
+      </c>
+      <c r="E3" s="207">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H3">
+        <f>7700*2</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="207">
+        <v>3</v>
+      </c>
+      <c r="B4" s="207" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="207">
+        <v>8</v>
+      </c>
+      <c r="D4" s="207">
+        <v>60</v>
+      </c>
+      <c r="E4" s="207">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="207">
+        <v>4</v>
+      </c>
+      <c r="B5" s="207" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="207">
+        <v>4</v>
+      </c>
+      <c r="D5" s="207">
+        <v>50</v>
+      </c>
+      <c r="E5" s="207">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="207">
+        <v>5</v>
+      </c>
+      <c r="B6" s="207" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="207">
+        <v>1</v>
+      </c>
+      <c r="D6" s="207">
+        <v>990</v>
+      </c>
+      <c r="E6" s="207">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="207">
+        <v>6</v>
+      </c>
+      <c r="B7" s="207" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="207">
+        <v>1</v>
+      </c>
+      <c r="D7" s="207">
+        <v>3200</v>
+      </c>
+      <c r="E7" s="207">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="207">
+        <v>7</v>
+      </c>
+      <c r="B8" s="207" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="207">
+        <v>4</v>
+      </c>
+      <c r="D8" s="207">
+        <v>100</v>
+      </c>
+      <c r="E8" s="207">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="207">
+        <v>8</v>
+      </c>
+      <c r="B9" s="207" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="207">
+        <v>1</v>
+      </c>
+      <c r="D9" s="207">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="207">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="208">
+        <f>SUM(E2:E9)</f>
+        <v>33970</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="208" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="208" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="208" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A23" s="207">
+        <v>1</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="C23" s="207">
+        <v>10000</v>
+      </c>
+      <c r="F23">
+        <f>5000*2</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="207">
+        <v>2</v>
+      </c>
+      <c r="B24" s="207" t="s">
+        <v>637</v>
+      </c>
+      <c r="C24" s="207"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="207">
+        <v>3</v>
+      </c>
+      <c r="B25" s="207" t="s">
+        <v>638</v>
+      </c>
+      <c r="C25" s="207"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="207">
+        <v>4</v>
+      </c>
+      <c r="B26" s="207" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="207">
+        <v>6550</v>
+      </c>
+      <c r="F26">
+        <f>6550*2</f>
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="207">
+        <v>5</v>
+      </c>
+      <c r="B27" s="207" t="s">
+        <v>639</v>
+      </c>
+      <c r="C27" s="207"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="207">
+        <v>6</v>
+      </c>
+      <c r="B28" s="207" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="207"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="207">
+        <v>7</v>
+      </c>
+      <c r="B29" s="207" t="s">
+        <v>640</v>
+      </c>
+      <c r="C29" s="207"/>
+    </row>
+    <row r="30" spans="1:6" ht="26.4">
+      <c r="A30" s="207">
+        <v>8</v>
+      </c>
+      <c r="B30" s="207" t="s">
+        <v>641</v>
+      </c>
+      <c r="C30" s="207"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="207">
+        <v>9</v>
+      </c>
+      <c r="B31" s="207" t="s">
+        <v>642</v>
+      </c>
+      <c r="C31" s="207"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.8" customHeight="1">
+      <c r="A32" s="207">
+        <v>10</v>
+      </c>
+      <c r="B32" s="207" t="s">
+        <v>643</v>
+      </c>
+      <c r="C32" s="207"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="A33" s="207">
+        <v>11</v>
+      </c>
+      <c r="B33" s="207" t="s">
+        <v>644</v>
+      </c>
+      <c r="C33" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25070,607 +27680,2563 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="33"/>
-    <col min="2" max="2" width="58.109375" style="33" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="33"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1">
-      <c r="A2" s="198" t="s">
+    <row r="1" spans="1:8" s="33" customFormat="1">
+      <c r="A1" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B1" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="198" t="s">
+      <c r="C1" s="210" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="198" t="s">
+      <c r="D1" s="210" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E1" s="210" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.2" customHeight="1">
-      <c r="A3" s="197">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="C3" s="197">
+    <row r="2" spans="1:8" s="33" customFormat="1">
+      <c r="A2" s="209">
+        <v>1</v>
+      </c>
+      <c r="B2" s="209" t="s">
+        <v>645</v>
+      </c>
+      <c r="C2" s="209">
         <v>5</v>
       </c>
-      <c r="D3" s="197">
-        <v>9300</v>
-      </c>
-      <c r="E3" s="197">
-        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
-        <v>46500</v>
+      <c r="D2" s="209">
+        <v>1900</v>
+      </c>
+      <c r="E2" s="209">
+        <f t="shared" ref="E2:E10" si="0">C2*D2</f>
+        <v>9500</v>
+      </c>
+      <c r="H2" s="33">
+        <f>950*2</f>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="33" customFormat="1">
+      <c r="A3" s="209">
+        <v>2</v>
+      </c>
+      <c r="B3" s="209" t="s">
+        <v>646</v>
+      </c>
+      <c r="C3" s="209">
+        <v>6</v>
+      </c>
+      <c r="D3" s="209">
+        <v>1800</v>
+      </c>
+      <c r="E3" s="209">
+        <f t="shared" si="0"/>
+        <v>10800</v>
       </c>
       <c r="H3" s="33">
-        <f>4660*2</f>
-        <v>9320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.2" customHeight="1">
-      <c r="A4" s="197">
-        <v>2</v>
-      </c>
-      <c r="B4" s="197" t="s">
-        <v>613</v>
-      </c>
-      <c r="C4" s="197">
-        <v>1</v>
-      </c>
-      <c r="D4" s="197">
-        <v>11880</v>
-      </c>
-      <c r="E4" s="197">
+        <f>890*2</f>
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="33" customFormat="1" ht="26.4">
+      <c r="A4" s="209">
+        <v>3</v>
+      </c>
+      <c r="B4" s="209" t="s">
+        <v>647</v>
+      </c>
+      <c r="C4" s="209">
+        <v>1</v>
+      </c>
+      <c r="D4" s="209">
+        <v>15000</v>
+      </c>
+      <c r="E4" s="209">
         <f t="shared" si="0"/>
-        <v>11880</v>
+        <v>15000</v>
       </c>
       <c r="H4" s="33">
-        <f>5940*2</f>
-        <v>11880</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21.6" customHeight="1">
-      <c r="A5" s="197">
-        <v>3</v>
-      </c>
-      <c r="B5" s="197" t="s">
+        <f>7700*2</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="33" customFormat="1">
+      <c r="A5" s="209">
+        <v>4</v>
+      </c>
+      <c r="B5" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="209">
+        <v>22</v>
+      </c>
+      <c r="D5" s="209">
+        <v>60</v>
+      </c>
+      <c r="E5" s="209">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="33" customFormat="1">
+      <c r="A6" s="209">
+        <v>5</v>
+      </c>
+      <c r="B6" s="209" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="209">
+        <v>11</v>
+      </c>
+      <c r="D6" s="209">
+        <v>50</v>
+      </c>
+      <c r="E6" s="209">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="33" customFormat="1">
+      <c r="A7" s="209">
+        <v>6</v>
+      </c>
+      <c r="B7" s="209" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="209">
+        <v>1</v>
+      </c>
+      <c r="D7" s="209">
+        <v>900</v>
+      </c>
+      <c r="E7" s="209">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="33" customFormat="1" ht="26.4">
+      <c r="A8" s="209">
+        <v>7</v>
+      </c>
+      <c r="B8" s="209" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="197">
-        <v>1</v>
-      </c>
-      <c r="D5" s="197">
-        <v>8100</v>
-      </c>
-      <c r="E5" s="197">
+      <c r="C8" s="209">
+        <v>1</v>
+      </c>
+      <c r="D8" s="209">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="209">
         <f t="shared" si="0"/>
-        <v>8100</v>
-      </c>
-      <c r="H5" s="33">
+        <v>4200</v>
+      </c>
+      <c r="H8" s="33">
         <f>4090*2</f>
         <v>8180</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.6" customHeight="1">
-      <c r="A6" s="197">
+    <row r="9" spans="1:8" s="33" customFormat="1">
+      <c r="A9" s="209">
+        <v>8</v>
+      </c>
+      <c r="B9" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="209">
+        <v>11</v>
+      </c>
+      <c r="D9" s="209">
+        <v>100</v>
+      </c>
+      <c r="E9" s="209">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="26.4">
+      <c r="A10" s="209">
+        <v>9</v>
+      </c>
+      <c r="B10" s="209" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="209">
+        <v>1</v>
+      </c>
+      <c r="D10" s="209">
+        <v>5900</v>
+      </c>
+      <c r="E10" s="209">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="33" customFormat="1">
+      <c r="A11" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="210">
+        <f>SUM(E2:E10)</f>
+        <v>49270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="49.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="212" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="212" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="212" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="212" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="212" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.399999999999999" customHeight="1">
+      <c r="A3" s="211" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="211" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="211">
         <v>4</v>
       </c>
-      <c r="B6" s="197" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="197">
-        <v>1</v>
-      </c>
-      <c r="D6" s="197">
-        <v>11900</v>
-      </c>
-      <c r="E6" s="197">
+      <c r="D3" s="211">
+        <v>2460</v>
+      </c>
+      <c r="E3" s="211">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>9840</v>
+      </c>
+      <c r="I3">
+        <f>1230*2</f>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="23.4" customHeight="1">
+      <c r="A4" s="211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="211" t="s">
+        <v>658</v>
+      </c>
+      <c r="C4" s="211">
+        <v>1</v>
+      </c>
+      <c r="D4" s="211">
+        <v>3800</v>
+      </c>
+      <c r="E4" s="211">
         <f t="shared" si="0"/>
-        <v>11900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A7" s="197">
+        <v>3800</v>
+      </c>
+      <c r="I4">
+        <f>1940*2</f>
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="211">
+        <v>3</v>
+      </c>
+      <c r="B5" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="211">
+        <v>8</v>
+      </c>
+      <c r="D5" s="211">
+        <v>60</v>
+      </c>
+      <c r="E5" s="211">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="211">
+        <v>4</v>
+      </c>
+      <c r="B6" s="211" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="211">
+        <v>4</v>
+      </c>
+      <c r="D6" s="211">
+        <v>50</v>
+      </c>
+      <c r="E6" s="211">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="211">
         <v>5</v>
       </c>
-      <c r="B7" s="197" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="197">
-        <v>14</v>
-      </c>
-      <c r="D7" s="197">
-        <v>150</v>
-      </c>
-      <c r="E7" s="197">
+      <c r="B7" s="211" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="211">
+        <v>1</v>
+      </c>
+      <c r="D7" s="211">
+        <v>900</v>
+      </c>
+      <c r="E7" s="211">
         <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A8" s="197">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="211">
         <v>6</v>
       </c>
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="211" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="211">
+        <v>1</v>
+      </c>
+      <c r="D8" s="211">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="211">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="211">
+        <v>7</v>
+      </c>
+      <c r="B9" s="211" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="197">
-        <v>5</v>
-      </c>
-      <c r="D8" s="197">
+      <c r="C9" s="211">
+        <v>4</v>
+      </c>
+      <c r="D9" s="211">
         <v>100</v>
       </c>
-      <c r="E8" s="197">
+      <c r="E9" s="211">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A9" s="197">
-        <v>7</v>
-      </c>
-      <c r="B9" s="197" t="s">
-        <v>616</v>
-      </c>
-      <c r="C9" s="197">
-        <v>1</v>
-      </c>
-      <c r="D9" s="197">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="211">
+        <v>8</v>
+      </c>
+      <c r="B10" s="211" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="211">
+        <v>1</v>
+      </c>
+      <c r="D10" s="211">
         <v>2900</v>
       </c>
-      <c r="E9" s="197">
+      <c r="E10" s="211">
         <f t="shared" si="0"/>
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A10" s="197">
-        <v>8</v>
-      </c>
-      <c r="B10" s="197" t="s">
-        <v>619</v>
-      </c>
-      <c r="C10" s="197">
-        <v>250</v>
-      </c>
-      <c r="D10" s="197">
-        <v>75</v>
-      </c>
-      <c r="E10" s="197">
-        <f t="shared" si="0"/>
-        <v>18750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A11" s="197">
-        <v>9</v>
-      </c>
-      <c r="B11" s="197" t="s">
-        <v>618</v>
-      </c>
-      <c r="C11" s="197">
-        <v>250</v>
-      </c>
-      <c r="D11" s="197">
-        <v>75</v>
-      </c>
-      <c r="E11" s="197">
-        <f t="shared" si="0"/>
-        <v>18750</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21.6" customHeight="1">
-      <c r="A12" s="197">
-        <v>10</v>
-      </c>
-      <c r="B12" s="197" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="197">
-        <v>1</v>
-      </c>
-      <c r="D12" s="197">
-        <v>5900</v>
-      </c>
-      <c r="E12" s="197">
-        <f t="shared" si="0"/>
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A13" s="200" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="201"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="198">
-        <f>SUM(E3:E12)</f>
-        <v>127280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" s="42" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-    </row>
-    <row r="16" spans="1:8" s="42" customFormat="1">
-      <c r="A16" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-    </row>
-    <row r="17" spans="1:9" s="42" customFormat="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-    </row>
-    <row r="18" spans="1:9" s="42" customFormat="1">
-      <c r="A18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-    </row>
-    <row r="19" spans="1:9" s="42" customFormat="1">
-      <c r="A19" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-    </row>
-    <row r="20" spans="1:9" s="42" customFormat="1">
-      <c r="A20" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-    </row>
-    <row r="21" spans="1:9" s="42" customFormat="1">
-      <c r="A21" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-    </row>
-    <row r="22" spans="1:9" ht="34.799999999999997" customHeight="1"/>
-    <row r="23" spans="1:9">
-      <c r="A23" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="198" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="198" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="198" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="198" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="198" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="197">
-        <v>1</v>
-      </c>
-      <c r="B25" s="197" t="s">
-        <v>614</v>
-      </c>
-      <c r="C25" s="197">
-        <v>5</v>
-      </c>
-      <c r="D25" s="197">
-        <v>3800</v>
-      </c>
-      <c r="E25" s="197">
-        <f t="shared" ref="E25:E35" si="1">C25*D25</f>
-        <v>19000</v>
-      </c>
-      <c r="I25" s="33">
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="212">
+        <f>SUM(E3:E10)</f>
+        <v>21720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="I14">
         <f>1940*2</f>
         <v>3880</v>
       </c>
     </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="J15">
+        <f>4100*2</f>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>649</v>
+      </c>
+    </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="197">
+      <c r="A26" s="212" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="212" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="212" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="212" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="212" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="211" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="211" t="s">
+        <v>550</v>
+      </c>
+      <c r="C27" s="211">
+        <v>4</v>
+      </c>
+      <c r="D27" s="211">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="211">
+        <f t="shared" ref="E27:E34" si="1">C27*D27</f>
+        <v>7200</v>
+      </c>
+      <c r="I27">
+        <f>900*2</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="211">
         <v>2</v>
       </c>
-      <c r="B26" s="197" t="s">
-        <v>615</v>
-      </c>
-      <c r="C26" s="197">
-        <v>1</v>
-      </c>
-      <c r="D26" s="197">
-        <v>13700</v>
-      </c>
-      <c r="E26" s="197">
+      <c r="B28" s="211" t="s">
+        <v>652</v>
+      </c>
+      <c r="C28" s="211">
+        <v>1</v>
+      </c>
+      <c r="D28" s="211">
+        <v>10440</v>
+      </c>
+      <c r="E28" s="211">
         <f t="shared" si="1"/>
-        <v>13700</v>
-      </c>
-      <c r="I26" s="33">
-        <f>6850*2</f>
-        <v>13700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="197">
+        <v>10440</v>
+      </c>
+      <c r="I28">
+        <f>5220*2</f>
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="211">
         <v>3</v>
       </c>
-      <c r="B27" s="197" t="s">
+      <c r="B29" s="211" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="197">
-        <v>10</v>
-      </c>
-      <c r="D27" s="197">
+      <c r="C29" s="211">
+        <v>8</v>
+      </c>
+      <c r="D29" s="211">
         <v>60</v>
       </c>
-      <c r="E27" s="197">
+      <c r="E29" s="211">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="197">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="211">
         <v>4</v>
       </c>
-      <c r="B28" s="197" t="s">
+      <c r="B30" s="211" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="197">
+      <c r="C30" s="211">
+        <v>4</v>
+      </c>
+      <c r="D30" s="211">
+        <v>50</v>
+      </c>
+      <c r="E30" s="211">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="211">
         <v>5</v>
       </c>
-      <c r="D28" s="197">
-        <v>50</v>
-      </c>
-      <c r="E28" s="197">
+      <c r="B31" s="211" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="211">
+        <v>1</v>
+      </c>
+      <c r="D31" s="211">
+        <v>900</v>
+      </c>
+      <c r="E31" s="211">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="197">
-        <v>5</v>
-      </c>
-      <c r="B29" s="197" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="197">
-        <v>1</v>
-      </c>
-      <c r="D29" s="197">
-        <v>990</v>
-      </c>
-      <c r="E29" s="197">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="211">
+        <v>6</v>
+      </c>
+      <c r="B32" s="211" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="211">
+        <v>1</v>
+      </c>
+      <c r="D32" s="211">
+        <v>3200</v>
+      </c>
+      <c r="E32" s="211">
         <f t="shared" si="1"/>
-        <v>990</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="197">
-        <v>6</v>
-      </c>
-      <c r="B30" s="197" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="197">
-        <v>1</v>
-      </c>
-      <c r="D30" s="197">
-        <v>8100</v>
-      </c>
-      <c r="E30" s="197">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="211">
+        <v>7</v>
+      </c>
+      <c r="B33" s="211" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="211">
+        <v>4</v>
+      </c>
+      <c r="D33" s="211">
+        <v>100</v>
+      </c>
+      <c r="E33" s="211">
         <f t="shared" si="1"/>
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="197">
-        <v>7</v>
-      </c>
-      <c r="B31" s="197" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="197">
-        <v>5</v>
-      </c>
-      <c r="D31" s="197">
-        <v>100</v>
-      </c>
-      <c r="E31" s="197">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="197">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="211">
         <v>8</v>
       </c>
-      <c r="B32" s="197" t="s">
-        <v>616</v>
-      </c>
-      <c r="C32" s="197">
-        <v>1</v>
-      </c>
-      <c r="D32" s="197">
+      <c r="B34" s="211" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="211">
+        <v>1</v>
+      </c>
+      <c r="D34" s="211">
         <v>2900</v>
       </c>
-      <c r="E32" s="197">
+      <c r="E34" s="211">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="197">
-        <v>9</v>
-      </c>
-      <c r="B33" s="197" t="s">
-        <v>459</v>
-      </c>
-      <c r="C33" s="197">
-        <v>250</v>
-      </c>
-      <c r="D33" s="197">
-        <v>75</v>
-      </c>
-      <c r="E33" s="197">
-        <f t="shared" si="1"/>
-        <v>18750</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="197">
-        <v>10</v>
-      </c>
-      <c r="B34" s="199" t="s">
-        <v>618</v>
-      </c>
-      <c r="C34" s="197">
-        <v>250</v>
-      </c>
-      <c r="D34" s="197">
-        <v>75</v>
-      </c>
-      <c r="E34" s="197">
-        <f t="shared" si="1"/>
-        <v>18750</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="197">
-        <v>11</v>
-      </c>
-      <c r="B35" s="197" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="197">
-        <v>1</v>
-      </c>
-      <c r="D35" s="197">
-        <v>5900</v>
-      </c>
-      <c r="E35" s="197">
-        <f t="shared" si="1"/>
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="200" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="198">
-        <f>SUM(E25:E35)</f>
-        <v>89440</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="76" t="s">
-        <v>621</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="7"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="77" t="s">
-        <v>129</v>
+      <c r="B35" s="225"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="212">
+        <f>SUM(E27:E34)</f>
+        <v>25720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="I38">
+        <f>1960*2</f>
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="76" t="s">
+        <v>387</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="77" t="s">
-        <v>141</v>
-      </c>
+    <row r="41" spans="1:9">
+      <c r="A41" s="7"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="78" t="s">
-        <v>142</v>
+    <row r="42" spans="1:9">
+      <c r="A42" s="77" t="s">
+        <v>129</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="212" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="212" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="212" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="212" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="212" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="211" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C52" s="211">
+        <v>4</v>
+      </c>
+      <c r="D52" s="211">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="211">
+        <f t="shared" ref="E52:E58" si="2">C52*D52</f>
+        <v>16800</v>
+      </c>
+      <c r="H52">
+        <f>2450*2</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="211" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="211">
+        <v>1</v>
+      </c>
+      <c r="D53" s="211">
+        <v>8800</v>
+      </c>
+      <c r="E53" s="211">
+        <f t="shared" si="2"/>
+        <v>8800</v>
+      </c>
+      <c r="H53">
+        <f>4410*2</f>
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="211">
+        <v>3</v>
+      </c>
+      <c r="B54" s="211" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="211">
+        <v>1</v>
+      </c>
+      <c r="D54" s="211">
+        <v>3200</v>
+      </c>
+      <c r="E54" s="211">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="26.4">
+      <c r="A55" s="211">
+        <v>4</v>
+      </c>
+      <c r="B55" s="211" t="s">
+        <v>389</v>
+      </c>
+      <c r="C55" s="211">
+        <v>1</v>
+      </c>
+      <c r="D55" s="211">
+        <v>9600</v>
+      </c>
+      <c r="E55" s="211">
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="211">
+        <v>5</v>
+      </c>
+      <c r="B56" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="211">
+        <v>10</v>
+      </c>
+      <c r="D56" s="211">
+        <v>150</v>
+      </c>
+      <c r="E56" s="211">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="211">
+        <v>6</v>
+      </c>
+      <c r="B57" s="211" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="211">
+        <v>4</v>
+      </c>
+      <c r="D57" s="211">
+        <v>100</v>
+      </c>
+      <c r="E57" s="211">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="211">
+        <v>7</v>
+      </c>
+      <c r="B58" s="211" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="211">
+        <v>1</v>
+      </c>
+      <c r="D58" s="211">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="211">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="225"/>
+      <c r="C59" s="225"/>
+      <c r="D59" s="226"/>
+      <c r="E59" s="212">
+        <f>SUM(E52:E58)</f>
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="H62">
+        <f>4040*2</f>
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="6"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="212" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="212" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="212" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="212" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="212" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="211" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="C75" s="211">
+        <v>4</v>
+      </c>
+      <c r="D75" s="211">
+        <v>4300</v>
+      </c>
+      <c r="E75" s="211">
+        <f t="shared" ref="E75:E81" si="3">C75*D75</f>
+        <v>17200</v>
+      </c>
+      <c r="H75">
+        <f>2150*2</f>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="211">
+        <v>2</v>
+      </c>
+      <c r="B76" s="211" t="s">
+        <v>472</v>
+      </c>
+      <c r="C76" s="211">
+        <v>1</v>
+      </c>
+      <c r="D76" s="211">
+        <v>11350</v>
+      </c>
+      <c r="E76" s="211">
+        <f t="shared" si="3"/>
+        <v>11350</v>
+      </c>
+      <c r="H76">
+        <f>5675*2</f>
+        <v>11350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="211">
+        <v>3</v>
+      </c>
+      <c r="B77" s="211" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="211">
+        <v>1</v>
+      </c>
+      <c r="D77" s="211">
+        <v>3200</v>
+      </c>
+      <c r="E77" s="211">
+        <f t="shared" si="3"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="26.4">
+      <c r="A78" s="211">
+        <v>4</v>
+      </c>
+      <c r="B78" s="211" t="s">
+        <v>389</v>
+      </c>
+      <c r="C78" s="211">
+        <v>1</v>
+      </c>
+      <c r="D78" s="211">
+        <v>9600</v>
+      </c>
+      <c r="E78" s="211">
+        <f t="shared" si="3"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="211">
+        <v>5</v>
+      </c>
+      <c r="B79" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="211">
+        <v>10</v>
+      </c>
+      <c r="D79" s="211">
+        <v>150</v>
+      </c>
+      <c r="E79" s="211">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="211">
+        <v>6</v>
+      </c>
+      <c r="B80" s="211" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="211">
+        <v>4</v>
+      </c>
+      <c r="D80" s="211">
+        <v>100</v>
+      </c>
+      <c r="E80" s="211">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="211">
+        <v>7</v>
+      </c>
+      <c r="B81" s="211" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="211">
+        <v>1</v>
+      </c>
+      <c r="D81" s="211">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="211">
+        <f t="shared" si="3"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="225"/>
+      <c r="C82" s="225"/>
+      <c r="D82" s="226"/>
+      <c r="E82" s="212">
+        <f>SUM(E75:E81)</f>
+        <v>46150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="H85">
+        <f>3955*2</f>
+        <v>7910</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="6"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="75"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="75"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="75"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="75"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="75"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="75"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A82:D82"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H167"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="42"/>
+    <col min="2" max="2" width="53.77734375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="42" customWidth="1"/>
+    <col min="4" max="8" width="8.88671875" style="42"/>
+    <col min="9" max="10" width="8.88671875" style="42" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="216" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="216" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="216" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="216" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="216" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.6" customHeight="1">
+      <c r="A3" s="217">
+        <v>1</v>
+      </c>
+      <c r="B3" s="217" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="217">
+        <v>5</v>
+      </c>
+      <c r="D3" s="217">
+        <v>1990</v>
+      </c>
+      <c r="E3" s="217">
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="217">
+        <v>2</v>
+      </c>
+      <c r="B4" s="217" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="217">
+        <v>1</v>
+      </c>
+      <c r="D4" s="217">
+        <v>5800</v>
+      </c>
+      <c r="E4" s="217">
+        <f t="shared" si="0"/>
+        <v>5800</v>
+      </c>
+      <c r="G4" s="42">
+        <f>2900*2</f>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A5" s="217">
+        <v>3</v>
+      </c>
+      <c r="B5" s="217" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="217">
+        <v>10</v>
+      </c>
+      <c r="D5" s="217">
+        <v>60</v>
+      </c>
+      <c r="E5" s="217">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="217">
+        <v>4</v>
+      </c>
+      <c r="B6" s="217" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="217">
+        <v>5</v>
+      </c>
+      <c r="D6" s="217">
+        <v>50</v>
+      </c>
+      <c r="E6" s="217">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="217">
+        <v>5</v>
+      </c>
+      <c r="B7" s="217" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="217">
+        <v>1</v>
+      </c>
+      <c r="D7" s="217">
+        <v>1800</v>
+      </c>
+      <c r="E7" s="217">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="217">
+        <v>6</v>
+      </c>
+      <c r="B8" s="219" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="219">
+        <v>1</v>
+      </c>
+      <c r="D8" s="219">
+        <v>5490</v>
+      </c>
+      <c r="E8" s="217">
+        <f t="shared" si="0"/>
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="217">
+        <v>7</v>
+      </c>
+      <c r="B9" s="217" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="217">
+        <v>5</v>
+      </c>
+      <c r="D9" s="217">
+        <v>100</v>
+      </c>
+      <c r="E9" s="217">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="217">
+        <v>8</v>
+      </c>
+      <c r="B10" s="217" t="s">
+        <v>661</v>
+      </c>
+      <c r="C10" s="217">
+        <v>1</v>
+      </c>
+      <c r="D10" s="217">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="217">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="217">
+        <v>9</v>
+      </c>
+      <c r="B11" s="217" t="s">
+        <v>667</v>
+      </c>
+      <c r="C11" s="217">
+        <v>300</v>
+      </c>
+      <c r="D11" s="217">
+        <v>27</v>
+      </c>
+      <c r="E11" s="217">
+        <f t="shared" si="0"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="217">
+        <v>10</v>
+      </c>
+      <c r="B12" s="217" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="217">
+        <v>1</v>
+      </c>
+      <c r="D12" s="217">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="217">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="307" t="s">
+        <v>668</v>
+      </c>
+      <c r="B13" s="308"/>
+      <c r="C13" s="308"/>
+      <c r="D13" s="309"/>
+      <c r="E13" s="216">
+        <f>SUM(E3:E12)</f>
+        <v>39390</v>
+      </c>
+      <c r="G13" s="42">
+        <f>E13*1.18</f>
+        <v>46480.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="75"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+    </row>
+    <row r="15" spans="1:7" ht="27" customHeight="1">
+      <c r="A15" s="220" t="s">
+        <v>669</v>
+      </c>
+      <c r="B15" s="220" t="s">
+        <v>670</v>
+      </c>
+      <c r="C15" s="220" t="s">
+        <v>671</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="222">
+        <f>E13*9%</f>
+        <v>3545.1</v>
+      </c>
+      <c r="B16" s="222">
+        <f>E13*9%</f>
+        <v>3545.1</v>
+      </c>
+      <c r="C16" s="223">
+        <f>E13+A16+B16</f>
+        <v>46480.2</v>
+      </c>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="75"/>
+      <c r="B17" s="221" t="s">
+        <v>672</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="42" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="214" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="214" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="214" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="214" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="214" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="213">
+        <v>1</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25" s="213">
+        <v>5</v>
+      </c>
+      <c r="D25" s="213">
+        <v>3950</v>
+      </c>
+      <c r="E25" s="213">
+        <f t="shared" ref="E25:E33" si="1">C25*D25</f>
+        <v>19750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="213">
+        <v>2</v>
+      </c>
+      <c r="B26" s="213" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="213">
+        <v>1</v>
+      </c>
+      <c r="D26" s="213">
+        <v>7920</v>
+      </c>
+      <c r="E26" s="213">
+        <f t="shared" si="1"/>
+        <v>7920</v>
+      </c>
+      <c r="G26" s="42">
+        <f>5940*2</f>
+        <v>11880</v>
+      </c>
+      <c r="H26" s="42">
+        <f>4410*2</f>
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="213">
+        <v>3</v>
+      </c>
+      <c r="B27" s="219" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="213">
+        <v>1</v>
+      </c>
+      <c r="D27" s="213">
+        <v>5490</v>
+      </c>
+      <c r="E27" s="213">
+        <f t="shared" si="1"/>
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="26.4">
+      <c r="A28" s="213">
+        <v>4</v>
+      </c>
+      <c r="B28" s="213" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28" s="213">
+        <v>1</v>
+      </c>
+      <c r="D28" s="213">
+        <v>9600</v>
+      </c>
+      <c r="E28" s="213">
+        <f t="shared" si="1"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="213">
+        <v>5</v>
+      </c>
+      <c r="B29" s="213" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="213">
+        <v>14</v>
+      </c>
+      <c r="D29" s="213">
+        <v>150</v>
+      </c>
+      <c r="E29" s="213">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="213">
+        <v>6</v>
+      </c>
+      <c r="B30" s="213" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="213">
+        <v>5</v>
+      </c>
+      <c r="D30" s="213">
+        <v>100</v>
+      </c>
+      <c r="E30" s="213">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="213">
+        <v>7</v>
+      </c>
+      <c r="B31" s="213" t="s">
+        <v>661</v>
+      </c>
+      <c r="C31" s="213">
+        <v>1</v>
+      </c>
+      <c r="D31" s="213">
+        <v>2900</v>
+      </c>
+      <c r="E31" s="213">
+        <f t="shared" si="1"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="219" t="s">
+        <v>665</v>
+      </c>
+      <c r="B32" s="219" t="s">
+        <v>673</v>
+      </c>
+      <c r="C32" s="219">
+        <v>300</v>
+      </c>
+      <c r="D32" s="219">
+        <v>35</v>
+      </c>
+      <c r="E32" s="219">
+        <f t="shared" si="1"/>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="213">
+        <v>9</v>
+      </c>
+      <c r="B33" s="213" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="213">
+        <v>1</v>
+      </c>
+      <c r="D33" s="213">
+        <v>5000</v>
+      </c>
+      <c r="E33" s="213">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="225"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="214">
+        <f>SUM(E25:E33)</f>
+        <v>63760</v>
+      </c>
+      <c r="G34" s="42">
+        <f>E34*1.18</f>
+        <v>75236.800000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+    </row>
+    <row r="36" spans="1:7" ht="26.4">
+      <c r="A36" s="220" t="s">
+        <v>669</v>
+      </c>
+      <c r="B36" s="220" t="s">
+        <v>670</v>
+      </c>
+      <c r="C36" s="220" t="s">
+        <v>671</v>
+      </c>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="222">
+        <f>E34*9%</f>
+        <v>5738.4</v>
+      </c>
+      <c r="B37" s="222">
+        <f>E34*9%</f>
+        <v>5738.4</v>
+      </c>
+      <c r="C37" s="223">
+        <f>E34+A37+B37</f>
+        <v>75236.799999999988</v>
+      </c>
+      <c r="D37" s="163"/>
+      <c r="E37" s="163"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="75" t="s">
+        <v>666</v>
+      </c>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="42" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="216" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="216" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="216" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="216" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="216" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="217">
+        <v>1</v>
+      </c>
+      <c r="B81" s="217" t="s">
+        <v>550</v>
+      </c>
+      <c r="C81" s="217">
+        <v>5</v>
+      </c>
+      <c r="D81" s="217">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="217">
+        <f t="shared" ref="E81:E89" si="2">C81*D81</f>
+        <v>9000</v>
+      </c>
+      <c r="G81" s="42">
+        <f>3300*2</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="217">
+        <v>2</v>
+      </c>
+      <c r="B82" s="217" t="s">
+        <v>652</v>
+      </c>
+      <c r="C82" s="217">
+        <v>1</v>
+      </c>
+      <c r="D82" s="217">
+        <v>6600</v>
+      </c>
+      <c r="E82" s="217">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="217">
+        <v>3</v>
+      </c>
+      <c r="B83" s="217" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="217">
+        <v>10</v>
+      </c>
+      <c r="D83" s="217">
+        <v>60</v>
+      </c>
+      <c r="E83" s="217">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="217">
+        <v>4</v>
+      </c>
+      <c r="B84" s="217" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="217">
+        <v>5</v>
+      </c>
+      <c r="D84" s="217">
+        <v>50</v>
+      </c>
+      <c r="E84" s="217">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="217">
+        <v>5</v>
+      </c>
+      <c r="B85" s="217" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="217">
+        <v>1</v>
+      </c>
+      <c r="D85" s="217">
+        <v>900</v>
+      </c>
+      <c r="E85" s="217">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="217">
+        <v>6</v>
+      </c>
+      <c r="B86" s="213" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="213">
+        <v>1</v>
+      </c>
+      <c r="D86" s="213">
+        <v>4200</v>
+      </c>
+      <c r="E86" s="217">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="217">
+        <v>7</v>
+      </c>
+      <c r="B87" s="217" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="217">
+        <v>5</v>
+      </c>
+      <c r="D87" s="217">
+        <v>100</v>
+      </c>
+      <c r="E87" s="217">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="217">
+        <v>8</v>
+      </c>
+      <c r="B88" s="217" t="s">
+        <v>661</v>
+      </c>
+      <c r="C88" s="217">
+        <v>1</v>
+      </c>
+      <c r="D88" s="217">
+        <v>2900</v>
+      </c>
+      <c r="E88" s="217">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="217">
+        <v>9</v>
+      </c>
+      <c r="B89" s="217" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="217">
+        <v>1</v>
+      </c>
+      <c r="D89" s="217">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="217">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="307" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="308"/>
+      <c r="C90" s="308"/>
+      <c r="D90" s="309"/>
+      <c r="E90" s="216">
+        <f>SUM(E81:E89)</f>
+        <v>27950</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="163"/>
+      <c r="B91" s="163"/>
+      <c r="C91" s="163"/>
+      <c r="D91" s="163"/>
+      <c r="E91" s="163"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="75"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="75"/>
+      <c r="E94" s="75"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="42" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="216" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" s="216" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" s="216" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="216" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="216" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="217">
+        <v>1</v>
+      </c>
+      <c r="B104" s="218" t="s">
+        <v>655</v>
+      </c>
+      <c r="C104" s="217">
+        <v>5</v>
+      </c>
+      <c r="D104" s="217">
+        <v>4300</v>
+      </c>
+      <c r="E104" s="217">
+        <f t="shared" ref="E104:E111" si="3">C104*D104</f>
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="217">
+        <v>2</v>
+      </c>
+      <c r="B105" s="217" t="s">
+        <v>472</v>
+      </c>
+      <c r="C105" s="217">
+        <v>1</v>
+      </c>
+      <c r="D105" s="217">
+        <v>11500</v>
+      </c>
+      <c r="E105" s="217">
+        <f t="shared" si="3"/>
+        <v>11500</v>
+      </c>
+      <c r="H105" s="42">
+        <f>3640*2</f>
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="217">
+        <v>3</v>
+      </c>
+      <c r="B106" s="213" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="213">
+        <v>1</v>
+      </c>
+      <c r="D106" s="213">
+        <v>4200</v>
+      </c>
+      <c r="E106" s="217">
+        <f t="shared" si="3"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="217">
+        <v>4</v>
+      </c>
+      <c r="B107" s="217" t="s">
+        <v>389</v>
+      </c>
+      <c r="C107" s="217">
+        <v>1</v>
+      </c>
+      <c r="D107" s="217">
+        <v>9600</v>
+      </c>
+      <c r="E107" s="217">
+        <f t="shared" si="3"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="217">
+        <v>5</v>
+      </c>
+      <c r="B108" s="217" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="217">
+        <v>14</v>
+      </c>
+      <c r="D108" s="217">
+        <v>150</v>
+      </c>
+      <c r="E108" s="217">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="217">
+        <v>6</v>
+      </c>
+      <c r="B109" s="217" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" s="217">
+        <v>5</v>
+      </c>
+      <c r="D109" s="217">
+        <v>100</v>
+      </c>
+      <c r="E109" s="217">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="217">
+        <v>7</v>
+      </c>
+      <c r="B110" s="217" t="s">
+        <v>661</v>
+      </c>
+      <c r="C110" s="217">
+        <v>1</v>
+      </c>
+      <c r="D110" s="217">
+        <v>2900</v>
+      </c>
+      <c r="E110" s="217">
+        <f t="shared" si="3"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="217">
+        <v>8</v>
+      </c>
+      <c r="B111" s="217" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" s="217">
+        <v>1</v>
+      </c>
+      <c r="D111" s="217">
+        <v>3000</v>
+      </c>
+      <c r="E111" s="217">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="307" t="s">
+        <v>87</v>
+      </c>
+      <c r="B112" s="308"/>
+      <c r="C112" s="308"/>
+      <c r="D112" s="309"/>
+      <c r="E112" s="216">
+        <f>SUM(E104:E111)</f>
+        <v>55300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="163"/>
+      <c r="B113" s="163"/>
+      <c r="C113" s="163"/>
+      <c r="D113" s="163"/>
+      <c r="E113" s="163"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B114" s="75"/>
+      <c r="C114" s="75"/>
+      <c r="D114" s="75"/>
+      <c r="E114" s="75"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="6"/>
+      <c r="B115" s="75"/>
+      <c r="C115" s="75"/>
+      <c r="D115" s="75"/>
+      <c r="E115" s="75"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" s="75"/>
+      <c r="C116" s="75"/>
+      <c r="D116" s="75"/>
+      <c r="E116" s="75"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="75"/>
+      <c r="C117" s="75"/>
+      <c r="D117" s="75"/>
+      <c r="E117" s="75"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="75"/>
+      <c r="C118" s="75"/>
+      <c r="D118" s="75"/>
+      <c r="E118" s="75"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B119" s="75"/>
+      <c r="C119" s="75"/>
+      <c r="D119" s="75"/>
+      <c r="E119" s="75"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="215" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="42" t="s">
+        <v>663</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A112:D112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25958,12 +30524,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="215" t="s">
+      <c r="A15" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="216"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="217"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="241"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -26209,12 +30775,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="215" t="s">
+      <c r="A31" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="216"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="217"/>
+      <c r="B31" s="240"/>
+      <c r="C31" s="240"/>
+      <c r="D31" s="241"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -26435,12 +31001,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="215" t="s">
+      <c r="A9" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="216"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="217"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="241"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -26515,13 +31081,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="218" t="s">
+      <c r="A19" s="242" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="220"/>
+      <c r="B19" s="243"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="244"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -26531,11 +31097,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="221"/>
-      <c r="B20" s="222"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="222"/>
-      <c r="E20" s="223"/>
+      <c r="A20" s="245"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -26650,12 +31216,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="215" t="s">
+      <c r="A6" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="217"/>
+      <c r="B6" s="240"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="241"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -26870,12 +31436,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="215" t="s">
+      <c r="A11" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="216"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="217"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -27044,12 +31610,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="215" t="s">
+      <c r="A8" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="241"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -27133,12 +31699,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="248" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="224"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
+      <c r="B19" s="248"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="248"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="35" activeTab="39"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="41" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <sheet name="Nazir Shaik 316" sheetId="45" r:id="rId45"/>
     <sheet name="E'delicious 317" sheetId="46" r:id="rId46"/>
     <sheet name="Sujit 318" sheetId="47" r:id="rId47"/>
+    <sheet name="Vatareshwar 319" sheetId="48" r:id="rId48"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="698">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2375,6 +2376,30 @@
   </si>
   <si>
     <t>Red marked Joaquim price</t>
+  </si>
+  <si>
+    <t>W Box 5 MP Bullet Camera</t>
+  </si>
+  <si>
+    <t>W Box 5 MP Dome Camera</t>
+  </si>
+  <si>
+    <t>W Box 2 MP Dome Camera</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>W Box 2 MP Bullet</t>
+  </si>
+  <si>
+    <t>W Box</t>
+  </si>
+  <si>
+    <t>CP supporting 5 mp</t>
+  </si>
+  <si>
+    <t>CP Plus high definition 16 CH DVR, Professional series supporting up to 8MP</t>
   </si>
 </sst>
 </file>
@@ -3013,7 +3038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3656,6 +3681,25 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3913,16 +3957,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4568,12 +4602,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="224" t="s">
+      <c r="A18" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="225"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="226"/>
+      <c r="B18" s="232"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="233"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -4699,12 +4733,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="224" t="s">
+      <c r="A27" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="225"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="226"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="233"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -4865,12 +4899,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="241"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="248"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -4954,12 +4988,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="248" t="s">
+      <c r="A19" s="255" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="248"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="248"/>
+      <c r="B19" s="255"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="255"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -5120,12 +5154,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="241"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="248"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -5209,20 +5243,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="242" t="s">
+      <c r="A19" s="249" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="244"/>
+      <c r="B19" s="250"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="251"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="245"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="247"/>
+      <c r="A20" s="252"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="253"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="254"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5421,24 +5455,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="241"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="248"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="251" t="s">
+      <c r="A13" s="258" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="251"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
+      <c r="B13" s="258"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="258"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -5638,12 +5672,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="239" t="s">
+      <c r="A30" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="240"/>
-      <c r="C30" s="240"/>
-      <c r="D30" s="241"/>
+      <c r="B30" s="247"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="248"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -5811,12 +5845,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="249" t="s">
+      <c r="A41" s="256" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="250"/>
-      <c r="C41" s="250"/>
-      <c r="D41" s="250"/>
+      <c r="B41" s="257"/>
+      <c r="C41" s="257"/>
+      <c r="D41" s="257"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -6051,24 +6085,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="241"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="248"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="252" t="s">
+      <c r="A13" s="259" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="252"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="252"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="259"/>
+      <c r="D13" s="259"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -6232,12 +6266,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="239" t="s">
+      <c r="A28" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="241"/>
+      <c r="B28" s="247"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -6439,48 +6473,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="240"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="241"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="241"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="248"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="239" t="s">
+      <c r="A9" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="241"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="248"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="239" t="s">
+      <c r="A10" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="240"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="241"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="248"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -6571,48 +6605,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="239" t="s">
+      <c r="A17" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="240"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="241"/>
+      <c r="B17" s="247"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="248"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="239" t="s">
+      <c r="A18" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="240"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="241"/>
+      <c r="B18" s="247"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="248"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="239" t="s">
+      <c r="A19" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="240"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="241"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="248"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="239" t="s">
+      <c r="A20" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="240"/>
-      <c r="C20" s="240"/>
-      <c r="D20" s="241"/>
+      <c r="B20" s="247"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="248"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -6695,48 +6729,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="239" t="s">
+      <c r="A27" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="240"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="241"/>
+      <c r="B27" s="247"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="248"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="239" t="s">
+      <c r="A28" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="241"/>
+      <c r="B28" s="247"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="239" t="s">
+      <c r="A29" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="241"/>
+      <c r="B29" s="247"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="248"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="239" t="s">
+      <c r="A30" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="240"/>
-      <c r="C30" s="240"/>
-      <c r="D30" s="241"/>
+      <c r="B30" s="247"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="248"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -6924,12 +6958,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -7053,12 +7087,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="224" t="s">
+      <c r="A21" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="225"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="226"/>
+      <c r="B21" s="232"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="233"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -7218,12 +7252,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="224" t="s">
+      <c r="A38" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="225"/>
-      <c r="C38" s="225"/>
-      <c r="D38" s="226"/>
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="233"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -7443,12 +7477,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="256" t="s">
+      <c r="A59" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="257"/>
-      <c r="C59" s="257"/>
-      <c r="D59" s="258"/>
+      <c r="B59" s="264"/>
+      <c r="C59" s="264"/>
+      <c r="D59" s="265"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -7460,10 +7494,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="259" t="s">
+      <c r="A63" s="266" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="259"/>
+      <c r="B63" s="266"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -7676,12 +7710,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="224" t="s">
+      <c r="A79" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="225"/>
-      <c r="C79" s="225"/>
-      <c r="D79" s="226"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="232"/>
+      <c r="D79" s="233"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -7905,12 +7939,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="224" t="s">
+      <c r="A99" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="225"/>
-      <c r="C99" s="225"/>
-      <c r="D99" s="225"/>
+      <c r="B99" s="232"/>
+      <c r="C99" s="232"/>
+      <c r="D99" s="232"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -8056,31 +8090,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="253" t="s">
+      <c r="B116" s="260" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="253"/>
+      <c r="C116" s="260"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="254">
+      <c r="E116" s="261">
         <v>9000</v>
       </c>
-      <c r="F116" s="255"/>
+      <c r="F116" s="262"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="224" t="s">
+      <c r="A117" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="225"/>
-      <c r="C117" s="225"/>
-      <c r="D117" s="225"/>
-      <c r="E117" s="225"/>
-      <c r="F117" s="226"/>
+      <c r="B117" s="232"/>
+      <c r="C117" s="232"/>
+      <c r="D117" s="232"/>
+      <c r="E117" s="232"/>
+      <c r="F117" s="233"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -8196,31 +8230,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="253" t="s">
+      <c r="B124" s="260" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="253"/>
+      <c r="C124" s="260"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="238">
+      <c r="E124" s="245">
         <v>9000</v>
       </c>
-      <c r="F124" s="238"/>
+      <c r="F124" s="245"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="260" t="s">
+      <c r="A125" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="261"/>
-      <c r="C125" s="261"/>
-      <c r="D125" s="261"/>
-      <c r="E125" s="261"/>
-      <c r="F125" s="262"/>
+      <c r="B125" s="268"/>
+      <c r="C125" s="268"/>
+      <c r="D125" s="268"/>
+      <c r="E125" s="268"/>
+      <c r="F125" s="269"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -8331,31 +8365,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="264" t="s">
+      <c r="B134" s="271" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="265"/>
+      <c r="C134" s="272"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="254">
+      <c r="E134" s="261">
         <v>12000</v>
       </c>
-      <c r="F134" s="255"/>
+      <c r="F134" s="262"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="260" t="s">
+      <c r="A135" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="261"/>
-      <c r="C135" s="261"/>
-      <c r="D135" s="261"/>
-      <c r="E135" s="261"/>
-      <c r="F135" s="262"/>
+      <c r="B135" s="268"/>
+      <c r="C135" s="268"/>
+      <c r="D135" s="268"/>
+      <c r="E135" s="268"/>
+      <c r="F135" s="269"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -8461,31 +8495,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="264" t="s">
+      <c r="B142" s="271" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="265"/>
+      <c r="C142" s="272"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="254">
+      <c r="E142" s="261">
         <v>12000</v>
       </c>
-      <c r="F142" s="255"/>
+      <c r="F142" s="262"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="260" t="s">
+      <c r="A143" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="261"/>
-      <c r="C143" s="261"/>
-      <c r="D143" s="261"/>
-      <c r="E143" s="261"/>
-      <c r="F143" s="262"/>
+      <c r="B143" s="268"/>
+      <c r="C143" s="268"/>
+      <c r="D143" s="268"/>
+      <c r="E143" s="268"/>
+      <c r="F143" s="269"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -8601,41 +8635,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="272" t="s">
+      <c r="B150" s="279" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="273"/>
+      <c r="C150" s="280"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="274">
+      <c r="E150" s="281">
         <v>12000</v>
       </c>
-      <c r="F150" s="275"/>
+      <c r="F150" s="282"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="263" t="s">
+      <c r="A151" s="270" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="263"/>
-      <c r="C151" s="263"/>
-      <c r="D151" s="263"/>
-      <c r="E151" s="263"/>
-      <c r="F151" s="263"/>
+      <c r="B151" s="270"/>
+      <c r="C151" s="270"/>
+      <c r="D151" s="270"/>
+      <c r="E151" s="270"/>
+      <c r="F151" s="270"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="276" t="s">
+      <c r="A154" s="283" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="276"/>
+      <c r="B154" s="283"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -8691,12 +8725,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="277" t="s">
+      <c r="A159" s="284" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="278"/>
-      <c r="C159" s="278"/>
-      <c r="D159" s="278"/>
+      <c r="B159" s="285"/>
+      <c r="C159" s="285"/>
+      <c r="D159" s="285"/>
       <c r="E159" s="88"/>
     </row>
     <row r="160" spans="1:7" ht="26.4">
@@ -8754,12 +8788,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="263" t="s">
+      <c r="A163" s="270" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="263"/>
-      <c r="C163" s="263"/>
-      <c r="D163" s="263"/>
+      <c r="B163" s="270"/>
+      <c r="C163" s="270"/>
+      <c r="D163" s="270"/>
       <c r="E163" s="91">
         <f>E157+E158+E161+E162</f>
         <v>185000</v>
@@ -10945,12 +10979,12 @@
       <c r="Q240" s="9"/>
     </row>
     <row r="241" spans="1:17" s="10" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A241" s="224" t="s">
+      <c r="A241" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B241" s="225"/>
-      <c r="C241" s="225"/>
-      <c r="D241" s="226"/>
+      <c r="B241" s="232"/>
+      <c r="C241" s="232"/>
+      <c r="D241" s="233"/>
       <c r="E241" s="91">
         <f>SUM(E235:E240)</f>
         <v>876900</v>
@@ -11099,12 +11133,12 @@
       <c r="Q253" s="9"/>
     </row>
     <row r="254" spans="1:17" s="10" customFormat="1">
-      <c r="A254" s="224" t="s">
+      <c r="A254" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B254" s="225"/>
-      <c r="C254" s="225"/>
-      <c r="D254" s="226"/>
+      <c r="B254" s="232"/>
+      <c r="C254" s="232"/>
+      <c r="D254" s="233"/>
       <c r="E254" s="91">
         <f>SUM(E249:E253)</f>
         <v>313600</v>
@@ -11113,22 +11147,22 @@
     <row r="255" spans="1:17" s="10" customFormat="1"/>
     <row r="256" spans="1:17" s="10" customFormat="1"/>
     <row r="257" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A257" s="266" t="s">
+      <c r="A257" s="273" t="s">
         <v>378</v>
       </c>
-      <c r="B257" s="267"/>
-      <c r="C257" s="267"/>
-      <c r="D257" s="267"/>
-      <c r="E257" s="267"/>
-      <c r="F257" s="268"/>
+      <c r="B257" s="274"/>
+      <c r="C257" s="274"/>
+      <c r="D257" s="274"/>
+      <c r="E257" s="274"/>
+      <c r="F257" s="275"/>
     </row>
     <row r="258" spans="1:6" ht="409.2" customHeight="1">
-      <c r="A258" s="269"/>
-      <c r="B258" s="270"/>
-      <c r="C258" s="270"/>
-      <c r="D258" s="270"/>
-      <c r="E258" s="270"/>
-      <c r="F258" s="271"/>
+      <c r="A258" s="276"/>
+      <c r="B258" s="277"/>
+      <c r="C258" s="277"/>
+      <c r="D258" s="277"/>
+      <c r="E258" s="277"/>
+      <c r="F258" s="278"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -11369,12 +11403,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="224" t="s">
+      <c r="A12" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="225"/>
-      <c r="C12" s="225"/>
-      <c r="D12" s="226"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="233"/>
       <c r="E12" s="58">
         <f>SUM(E4:E11)</f>
         <v>86400</v>
@@ -11388,13 +11422,13 @@
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="263" t="s">
+      <c r="A14" s="270" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="263"/>
-      <c r="C14" s="263"/>
-      <c r="D14" s="263"/>
-      <c r="E14" s="263"/>
+      <c r="B14" s="270"/>
+      <c r="C14" s="270"/>
+      <c r="D14" s="270"/>
+      <c r="E14" s="270"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="75"/>
@@ -11687,25 +11721,25 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="224" t="s">
+      <c r="A39" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="225"/>
-      <c r="C39" s="225"/>
-      <c r="D39" s="226"/>
+      <c r="B39" s="232"/>
+      <c r="C39" s="232"/>
+      <c r="D39" s="233"/>
       <c r="E39" s="58">
         <f>SUM(E30:E38)</f>
         <v>49015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="263" t="s">
+      <c r="A41" s="270" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="263"/>
-      <c r="C41" s="263"/>
-      <c r="D41" s="263"/>
-      <c r="E41" s="263"/>
+      <c r="B41" s="270"/>
+      <c r="C41" s="270"/>
+      <c r="D41" s="270"/>
+      <c r="E41" s="270"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="76" t="s">
@@ -11914,12 +11948,12 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A70" s="279" t="s">
+      <c r="A70" s="286" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="280"/>
-      <c r="C70" s="280"/>
-      <c r="D70" s="281"/>
+      <c r="B70" s="287"/>
+      <c r="C70" s="287"/>
+      <c r="D70" s="288"/>
       <c r="E70" s="84">
         <v>66415</v>
       </c>
@@ -12109,12 +12143,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="226"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="86">
         <f>SUM(E4:E10)</f>
         <v>69300</v>
@@ -12369,12 +12403,12 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="225"/>
-      <c r="C33" s="225"/>
-      <c r="D33" s="226"/>
+      <c r="B33" s="232"/>
+      <c r="C33" s="232"/>
+      <c r="D33" s="233"/>
       <c r="E33" s="86">
         <f>SUM(E25:E32)</f>
         <v>34615</v>
@@ -12596,12 +12630,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="225"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="226"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="117">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -12640,13 +12674,13 @@
       <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
     </row>
     <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="3" t="s">
@@ -12733,105 +12767,105 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="132">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="242" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="237">
+      <c r="C7" s="244">
         <v>2</v>
       </c>
-      <c r="D7" s="235" t="s">
+      <c r="D7" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="238">
+      <c r="E7" s="245">
         <v>567000</v>
       </c>
-      <c r="F7" s="238">
+      <c r="F7" s="245">
         <f>E7*C7</f>
         <v>1134000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="235"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="237"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="235"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="235"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="237"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="245"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="235"/>
+      <c r="A11" s="242"/>
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="237"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="238"/>
-      <c r="F11" s="238"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="235"/>
+      <c r="A12" s="242"/>
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="237"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="238"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="245"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="235"/>
+      <c r="A13" s="242"/>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="237"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="238"/>
-      <c r="F13" s="238"/>
+      <c r="C13" s="244"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="245"/>
+      <c r="F13" s="245"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="235"/>
+      <c r="A14" s="242"/>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="237"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="238"/>
-      <c r="F14" s="238"/>
+      <c r="C14" s="244"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="245"/>
+      <c r="F14" s="245"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="235"/>
+      <c r="A15" s="242"/>
       <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="237"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="238"/>
-      <c r="F15" s="238"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="245"/>
+      <c r="F15" s="245"/>
     </row>
     <row r="16" spans="1:6" ht="158.4">
       <c r="A16" s="12" t="s">
@@ -12874,13 +12908,13 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="232" t="s">
+      <c r="B19" s="239" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="233"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="234"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
+      <c r="E19" s="240"/>
+      <c r="F19" s="241"/>
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="3" t="s">
@@ -12966,7 +13000,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="52.8">
-      <c r="A24" s="235" t="s">
+      <c r="A24" s="242" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -12978,7 +13012,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="235"/>
+      <c r="A25" s="242"/>
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
@@ -12997,7 +13031,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="235"/>
+      <c r="A26" s="242"/>
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -13016,7 +13050,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="235"/>
+      <c r="A27" s="242"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
@@ -13054,13 +13088,13 @@
       <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="232" t="s">
+      <c r="B30" s="239" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="233"/>
-      <c r="D30" s="233"/>
-      <c r="E30" s="233"/>
-      <c r="F30" s="234"/>
+      <c r="C30" s="240"/>
+      <c r="D30" s="240"/>
+      <c r="E30" s="240"/>
+      <c r="F30" s="241"/>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="26.4">
       <c r="A31" s="3" t="s">
@@ -13083,7 +13117,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="235" t="s">
+      <c r="A32" s="242" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -13095,7 +13129,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="235"/>
+      <c r="A33" s="242"/>
       <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
@@ -13109,7 +13143,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="235"/>
+      <c r="A34" s="242"/>
       <c r="B34" s="12" t="s">
         <v>55</v>
       </c>
@@ -13123,7 +13157,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="235"/>
+      <c r="A35" s="242"/>
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
@@ -13137,7 +13171,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="235"/>
+      <c r="A36" s="242"/>
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -13151,7 +13185,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="39.6">
-      <c r="A37" s="235" t="s">
+      <c r="A37" s="242" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -13163,7 +13197,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="235"/>
+      <c r="A38" s="242"/>
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -13182,7 +13216,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="235"/>
+      <c r="A39" s="242"/>
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -13201,7 +13235,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="235"/>
+      <c r="A40" s="242"/>
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -13220,7 +13254,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="235"/>
+      <c r="A41" s="242"/>
       <c r="B41" s="12" t="s">
         <v>62</v>
       </c>
@@ -13239,7 +13273,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="235"/>
+      <c r="A42" s="242"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -13280,13 +13314,13 @@
       <c r="A45" s="27">
         <v>4</v>
       </c>
-      <c r="B45" s="232" t="s">
+      <c r="B45" s="239" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="233"/>
-      <c r="D45" s="233"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="234"/>
+      <c r="C45" s="240"/>
+      <c r="D45" s="240"/>
+      <c r="E45" s="240"/>
+      <c r="F45" s="241"/>
     </row>
     <row r="46" spans="1:9" ht="13.8">
       <c r="A46" s="31" t="s">
@@ -13531,13 +13565,13 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.6">
-      <c r="A57" s="229" t="s">
+      <c r="A57" s="236" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="230"/>
-      <c r="C57" s="230"/>
-      <c r="D57" s="230"/>
-      <c r="E57" s="231"/>
+      <c r="B57" s="237"/>
+      <c r="C57" s="237"/>
+      <c r="D57" s="237"/>
+      <c r="E57" s="238"/>
       <c r="F57" s="26">
         <f>F3+F4+F5+F6+F7+F16+F21+F22+F23+F24+F25+F26+F27+F32+F33+F34+F35+F36+F37+F38+F39+F40+F41+F42+F47+F48+F49+F50+F51+F52+F53+F54+F55+F56</f>
         <v>4890900</v>
@@ -13555,13 +13589,13 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="227" t="s">
+      <c r="B59" s="234" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="227"/>
-      <c r="D59" s="227"/>
-      <c r="E59" s="227"/>
-      <c r="F59" s="227"/>
+      <c r="C59" s="234"/>
+      <c r="D59" s="234"/>
+      <c r="E59" s="234"/>
+      <c r="F59" s="234"/>
     </row>
     <row r="60" spans="1:9" ht="39.6">
       <c r="A60" s="4" t="s">
@@ -13579,13 +13613,13 @@
       <c r="A61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="228" t="s">
+      <c r="B61" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="228"/>
-      <c r="D61" s="228"/>
-      <c r="E61" s="228"/>
-      <c r="F61" s="228"/>
+      <c r="C61" s="235"/>
+      <c r="D61" s="235"/>
+      <c r="E61" s="235"/>
+      <c r="F61" s="235"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="28.5" customHeight="1">
@@ -13605,26 +13639,26 @@
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="228" t="s">
+      <c r="B63" s="235" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="228"/>
-      <c r="D63" s="228"/>
-      <c r="E63" s="228"/>
-      <c r="F63" s="228"/>
+      <c r="C63" s="235"/>
+      <c r="D63" s="235"/>
+      <c r="E63" s="235"/>
+      <c r="F63" s="235"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="69" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="228" t="s">
+      <c r="B64" s="235" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="228"/>
-      <c r="D64" s="228"/>
-      <c r="E64" s="228"/>
-      <c r="F64" s="228"/>
+      <c r="C64" s="235"/>
+      <c r="D64" s="235"/>
+      <c r="E64" s="235"/>
+      <c r="F64" s="235"/>
       <c r="G64" s="11"/>
     </row>
   </sheetData>
@@ -13848,12 +13882,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="119">
         <f>SUM(E2:E9)</f>
         <v>20410</v>
@@ -14230,12 +14264,12 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="224" t="s">
+      <c r="A15" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="226"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="233"/>
       <c r="E15" s="129">
         <f>SUM(E3:E14)</f>
         <v>269770</v>
@@ -14521,12 +14555,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="224" t="s">
+      <c r="A37" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="225"/>
-      <c r="C37" s="225"/>
-      <c r="D37" s="226"/>
+      <c r="B37" s="232"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="233"/>
       <c r="E37" s="125">
         <f>SUM(E25:E36)</f>
         <v>320340</v>
@@ -14828,12 +14862,12 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="224" t="s">
+      <c r="A63" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="225"/>
-      <c r="C63" s="225"/>
-      <c r="D63" s="226"/>
+      <c r="B63" s="232"/>
+      <c r="C63" s="232"/>
+      <c r="D63" s="233"/>
       <c r="E63" s="121">
         <f>SUM(E51:E62)</f>
         <v>179770</v>
@@ -14946,183 +14980,183 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.2" customHeight="1">
-      <c r="A2" s="282">
+      <c r="A2" s="289">
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="282">
-        <v>1</v>
-      </c>
-      <c r="D2" s="282">
+      <c r="C2" s="289">
+        <v>1</v>
+      </c>
+      <c r="D2" s="289">
         <v>42000</v>
       </c>
-      <c r="E2" s="282">
+      <c r="E2" s="289">
         <f>C2*D2</f>
         <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="283"/>
+      <c r="A3" s="290"/>
       <c r="B3" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="283"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="283"/>
+      <c r="A5" s="290"/>
       <c r="B5" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="283"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="283"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="283"/>
+      <c r="A7" s="290"/>
       <c r="B7" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="283"/>
+      <c r="A8" s="290"/>
       <c r="B8" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="283"/>
+      <c r="A9" s="290"/>
       <c r="B9" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="283"/>
-      <c r="D9" s="283"/>
-      <c r="E9" s="283"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="283"/>
+      <c r="A10" s="290"/>
       <c r="B10" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="283"/>
-      <c r="D10" s="283"/>
-      <c r="E10" s="283"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="283"/>
+      <c r="A11" s="290"/>
       <c r="B11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="283"/>
-      <c r="D11" s="283"/>
-      <c r="E11" s="283"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="290"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="283"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="283"/>
-      <c r="D12" s="283"/>
-      <c r="E12" s="283"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="283"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="283"/>
-      <c r="D13" s="283"/>
-      <c r="E13" s="283"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="283"/>
+      <c r="A14" s="290"/>
       <c r="B14" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="283"/>
-      <c r="D14" s="283"/>
-      <c r="E14" s="283"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="290"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="283"/>
+      <c r="A15" s="290"/>
       <c r="B15" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="283"/>
-      <c r="D15" s="283"/>
-      <c r="E15" s="283"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="283"/>
+      <c r="A16" s="290"/>
       <c r="B16" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="283"/>
-      <c r="D16" s="283"/>
-      <c r="E16" s="283"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="290"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="283"/>
+      <c r="A17" s="290"/>
       <c r="B17" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="283"/>
-      <c r="D17" s="283"/>
-      <c r="E17" s="283"/>
+      <c r="C17" s="290"/>
+      <c r="D17" s="290"/>
+      <c r="E17" s="290"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="283"/>
+      <c r="A18" s="290"/>
       <c r="B18" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="283"/>
-      <c r="D18" s="283"/>
-      <c r="E18" s="283"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="290"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="284"/>
+      <c r="A19" s="291"/>
       <c r="B19" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="284"/>
-      <c r="D19" s="284"/>
-      <c r="E19" s="284"/>
+      <c r="C19" s="291"/>
+      <c r="D19" s="291"/>
+      <c r="E19" s="291"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="263" t="s">
+      <c r="A20" s="270" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="263"/>
-      <c r="C20" s="263"/>
-      <c r="D20" s="263"/>
+      <c r="B20" s="270"/>
+      <c r="C20" s="270"/>
+      <c r="D20" s="270"/>
       <c r="E20" s="123">
         <f>SUM(E2:E2)</f>
         <v>42000</v>
@@ -15438,12 +15472,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="226"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="133">
         <f>SUM(E3:E10)</f>
         <v>42150</v>
@@ -15696,12 +15730,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="135">
         <f>SUM(E2:E9)</f>
         <v>60600</v>
@@ -15924,10 +15958,10 @@
       <c r="A6" s="137">
         <v>5</v>
       </c>
-      <c r="B6" s="286" t="s">
+      <c r="B6" s="293" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="286"/>
+      <c r="C6" s="293"/>
       <c r="D6" s="137">
         <v>1</v>
       </c>
@@ -15941,13 +15975,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="285" t="s">
+      <c r="A7" s="292" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="285"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136">
         <f>SUM(G2:G6)</f>
@@ -16103,10 +16137,10 @@
       <c r="A26" s="137">
         <v>5</v>
       </c>
-      <c r="B26" s="286" t="s">
+      <c r="B26" s="293" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="286"/>
+      <c r="C26" s="293"/>
       <c r="D26" s="137">
         <v>1</v>
       </c>
@@ -16120,13 +16154,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="285" t="s">
+      <c r="A27" s="292" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="285"/>
-      <c r="C27" s="285"/>
-      <c r="D27" s="285"/>
-      <c r="E27" s="285"/>
+      <c r="B27" s="292"/>
+      <c r="C27" s="292"/>
+      <c r="D27" s="292"/>
+      <c r="E27" s="292"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136">
         <f>SUM(G22:G26)</f>
@@ -16338,12 +16372,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="226"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="143">
         <f>SUM(E3:E10)</f>
         <v>196810</v>
@@ -16633,12 +16667,12 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="224" t="s">
+      <c r="A37" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="225"/>
-      <c r="C37" s="225"/>
-      <c r="D37" s="226"/>
+      <c r="B37" s="232"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="233"/>
       <c r="E37" s="143">
         <f>SUM(E29:E36)</f>
         <v>198450</v>
@@ -16905,12 +16939,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="226"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="145">
         <f>SUM(E3:E10)</f>
         <v>99820</v>
@@ -17227,12 +17261,12 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="224" t="s">
+      <c r="A36" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="225"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="226"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="233"/>
       <c r="E36" s="145">
         <f>SUM(E27:E35)</f>
         <v>56780</v>
@@ -17488,12 +17522,12 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="224" t="s">
+      <c r="A55" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="225"/>
-      <c r="C55" s="225"/>
-      <c r="D55" s="226"/>
+      <c r="B55" s="232"/>
+      <c r="C55" s="232"/>
+      <c r="D55" s="233"/>
       <c r="E55" s="145">
         <f>SUM(E46:E54)</f>
         <v>86940</v>
@@ -17687,12 +17721,12 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="224" t="s">
+      <c r="A68" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="225"/>
-      <c r="C68" s="225"/>
-      <c r="D68" s="226"/>
+      <c r="B68" s="232"/>
+      <c r="C68" s="232"/>
+      <c r="D68" s="233"/>
       <c r="E68" s="145">
         <f>SUM(E59:E67)</f>
         <v>49380</v>
@@ -17884,12 +17918,12 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="147">
         <f>SUM(E3:E9)</f>
         <v>69770</v>
@@ -18174,12 +18208,12 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="224" t="s">
+      <c r="A36" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="225"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="226"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="233"/>
       <c r="E36" s="147">
         <f>SUM(E29:E35)</f>
         <v>66840</v>
@@ -18306,165 +18340,165 @@
       <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="287">
+      <c r="A3" s="294">
         <v>1</v>
       </c>
       <c r="B3" s="152" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="287">
-        <v>1</v>
-      </c>
-      <c r="D3" s="287">
+      <c r="C3" s="294">
+        <v>1</v>
+      </c>
+      <c r="D3" s="294">
         <v>75900</v>
       </c>
-      <c r="E3" s="287">
+      <c r="E3" s="294">
         <f>C3*D3</f>
         <v>75900</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="288"/>
+      <c r="A4" s="295"/>
       <c r="B4" s="152" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288"/>
-      <c r="E4" s="288"/>
+      <c r="C4" s="295"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="288"/>
+      <c r="A5" s="295"/>
       <c r="B5" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="288"/>
-      <c r="D5" s="288"/>
-      <c r="E5" s="288"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="288"/>
+      <c r="A6" s="295"/>
       <c r="B6" s="152" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="288"/>
-      <c r="D6" s="288"/>
-      <c r="E6" s="288"/>
+      <c r="C6" s="295"/>
+      <c r="D6" s="295"/>
+      <c r="E6" s="295"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="288"/>
+      <c r="A7" s="295"/>
       <c r="B7" s="152" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="288"/>
-      <c r="D7" s="288"/>
-      <c r="E7" s="288"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="288"/>
+      <c r="A8" s="295"/>
       <c r="B8" s="152" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="288"/>
-      <c r="D8" s="288"/>
-      <c r="E8" s="288"/>
+      <c r="C8" s="295"/>
+      <c r="D8" s="295"/>
+      <c r="E8" s="295"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="288"/>
+      <c r="A9" s="295"/>
       <c r="B9" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="288"/>
+      <c r="A10" s="295"/>
       <c r="B10" s="152" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288"/>
+      <c r="C10" s="295"/>
+      <c r="D10" s="295"/>
+      <c r="E10" s="295"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="288"/>
+      <c r="A11" s="295"/>
       <c r="B11" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="288"/>
-      <c r="D11" s="288"/>
-      <c r="E11" s="288"/>
+      <c r="C11" s="295"/>
+      <c r="D11" s="295"/>
+      <c r="E11" s="295"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="288"/>
+      <c r="A12" s="295"/>
       <c r="B12" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="288"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
+      <c r="C12" s="295"/>
+      <c r="D12" s="295"/>
+      <c r="E12" s="295"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="288"/>
+      <c r="A13" s="295"/>
       <c r="B13" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="C13" s="288"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="288"/>
+      <c r="C13" s="295"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="295"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="288"/>
+      <c r="A14" s="295"/>
       <c r="B14" s="152" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="288"/>
-      <c r="D14" s="288"/>
-      <c r="E14" s="288"/>
+      <c r="C14" s="295"/>
+      <c r="D14" s="295"/>
+      <c r="E14" s="295"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="288"/>
+      <c r="A15" s="295"/>
       <c r="B15" s="152" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="288"/>
-      <c r="D15" s="288"/>
-      <c r="E15" s="288"/>
+      <c r="C15" s="295"/>
+      <c r="D15" s="295"/>
+      <c r="E15" s="295"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="288"/>
+      <c r="A16" s="295"/>
       <c r="B16" s="152" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="288"/>
-      <c r="D16" s="288"/>
-      <c r="E16" s="288"/>
+      <c r="C16" s="295"/>
+      <c r="D16" s="295"/>
+      <c r="E16" s="295"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="288"/>
+      <c r="A17" s="295"/>
       <c r="B17" s="152" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="288"/>
-      <c r="D17" s="288"/>
-      <c r="E17" s="288"/>
+      <c r="C17" s="295"/>
+      <c r="D17" s="295"/>
+      <c r="E17" s="295"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="289"/>
+      <c r="A18" s="296"/>
       <c r="B18" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="C18" s="289"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="289"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="296"/>
+      <c r="E18" s="296"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="292" t="s">
+      <c r="A19" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="293"/>
-      <c r="C19" s="293"/>
-      <c r="D19" s="294"/>
+      <c r="B19" s="300"/>
+      <c r="C19" s="300"/>
+      <c r="D19" s="301"/>
       <c r="E19" s="153">
         <f>SUM(E3)</f>
         <v>75900</v>
@@ -18491,7 +18525,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="82.8">
-      <c r="A27" s="290">
+      <c r="A27" s="297">
         <v>1</v>
       </c>
       <c r="B27" s="152" t="s">
@@ -18503,16 +18537,16 @@
       <c r="D27" s="149">
         <v>1</v>
       </c>
-      <c r="E27" s="290">
+      <c r="E27" s="297">
         <v>69000</v>
       </c>
-      <c r="F27" s="290">
+      <c r="F27" s="297">
         <f>D27*E27</f>
         <v>69000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="262.2">
-      <c r="A28" s="290"/>
+      <c r="A28" s="297"/>
       <c r="B28" s="152" t="s">
         <v>475</v>
       </c>
@@ -18522,11 +18556,11 @@
       <c r="D28" s="149">
         <v>1</v>
       </c>
-      <c r="E28" s="290"/>
-      <c r="F28" s="290"/>
+      <c r="E28" s="297"/>
+      <c r="F28" s="297"/>
     </row>
     <row r="29" spans="1:6" ht="124.2">
-      <c r="A29" s="290"/>
+      <c r="A29" s="297"/>
       <c r="B29" s="152" t="s">
         <v>477</v>
       </c>
@@ -18536,11 +18570,11 @@
       <c r="D29" s="149">
         <v>1</v>
       </c>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
+      <c r="E29" s="297"/>
+      <c r="F29" s="297"/>
     </row>
     <row r="30" spans="1:6" ht="248.4">
-      <c r="A30" s="290"/>
+      <c r="A30" s="297"/>
       <c r="B30" s="152" t="s">
         <v>479</v>
       </c>
@@ -18550,11 +18584,11 @@
       <c r="D30" s="149">
         <v>1</v>
       </c>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
+      <c r="E30" s="297"/>
+      <c r="F30" s="297"/>
     </row>
     <row r="31" spans="1:6" ht="69">
-      <c r="A31" s="290"/>
+      <c r="A31" s="297"/>
       <c r="B31" s="152" t="s">
         <v>481</v>
       </c>
@@ -18564,11 +18598,11 @@
       <c r="D31" s="149">
         <v>1</v>
       </c>
-      <c r="E31" s="290"/>
-      <c r="F31" s="290"/>
+      <c r="E31" s="297"/>
+      <c r="F31" s="297"/>
     </row>
     <row r="32" spans="1:6" ht="179.4">
-      <c r="A32" s="290"/>
+      <c r="A32" s="297"/>
       <c r="B32" s="152" t="s">
         <v>483</v>
       </c>
@@ -18578,11 +18612,11 @@
       <c r="D32" s="149">
         <v>1</v>
       </c>
-      <c r="E32" s="290"/>
-      <c r="F32" s="290"/>
+      <c r="E32" s="297"/>
+      <c r="F32" s="297"/>
     </row>
     <row r="33" spans="1:6" ht="82.8">
-      <c r="A33" s="290"/>
+      <c r="A33" s="297"/>
       <c r="B33" s="152" t="s">
         <v>483</v>
       </c>
@@ -18592,11 +18626,11 @@
       <c r="D33" s="149">
         <v>1</v>
       </c>
-      <c r="E33" s="290"/>
-      <c r="F33" s="290"/>
+      <c r="E33" s="297"/>
+      <c r="F33" s="297"/>
     </row>
     <row r="34" spans="1:6" ht="96.6">
-      <c r="A34" s="290"/>
+      <c r="A34" s="297"/>
       <c r="B34" s="152" t="s">
         <v>483</v>
       </c>
@@ -18606,11 +18640,11 @@
       <c r="D34" s="149">
         <v>1</v>
       </c>
-      <c r="E34" s="290"/>
-      <c r="F34" s="290"/>
+      <c r="E34" s="297"/>
+      <c r="F34" s="297"/>
     </row>
     <row r="35" spans="1:6" ht="234.6">
-      <c r="A35" s="290"/>
+      <c r="A35" s="297"/>
       <c r="B35" s="152" t="s">
         <v>487</v>
       </c>
@@ -18620,11 +18654,11 @@
       <c r="D35" s="149">
         <v>1</v>
       </c>
-      <c r="E35" s="290"/>
-      <c r="F35" s="290"/>
+      <c r="E35" s="297"/>
+      <c r="F35" s="297"/>
     </row>
     <row r="36" spans="1:6" ht="165.6">
-      <c r="A36" s="290"/>
+      <c r="A36" s="297"/>
       <c r="B36" s="152" t="s">
         <v>489</v>
       </c>
@@ -18634,11 +18668,11 @@
       <c r="D36" s="149">
         <v>1</v>
       </c>
-      <c r="E36" s="290"/>
-      <c r="F36" s="290"/>
+      <c r="E36" s="297"/>
+      <c r="F36" s="297"/>
     </row>
     <row r="37" spans="1:6" ht="27.6">
-      <c r="A37" s="290"/>
+      <c r="A37" s="297"/>
       <c r="B37" s="152" t="s">
         <v>493</v>
       </c>
@@ -18648,11 +18682,11 @@
       <c r="D37" s="149">
         <v>1</v>
       </c>
-      <c r="E37" s="290"/>
-      <c r="F37" s="290"/>
+      <c r="E37" s="297"/>
+      <c r="F37" s="297"/>
     </row>
     <row r="38" spans="1:6" ht="82.8">
-      <c r="A38" s="290"/>
+      <c r="A38" s="297"/>
       <c r="B38" s="152" t="s">
         <v>494</v>
       </c>
@@ -18662,11 +18696,11 @@
       <c r="D38" s="149">
         <v>1</v>
       </c>
-      <c r="E38" s="290"/>
-      <c r="F38" s="290"/>
+      <c r="E38" s="297"/>
+      <c r="F38" s="297"/>
     </row>
     <row r="39" spans="1:6" ht="55.2">
-      <c r="A39" s="290"/>
+      <c r="A39" s="297"/>
       <c r="B39" s="152" t="s">
         <v>495</v>
       </c>
@@ -18676,11 +18710,11 @@
       <c r="D39" s="149">
         <v>1</v>
       </c>
-      <c r="E39" s="290"/>
-      <c r="F39" s="290"/>
+      <c r="E39" s="297"/>
+      <c r="F39" s="297"/>
     </row>
     <row r="40" spans="1:6" ht="138">
-      <c r="A40" s="290"/>
+      <c r="A40" s="297"/>
       <c r="B40" s="152" t="s">
         <v>497</v>
       </c>
@@ -18690,11 +18724,11 @@
       <c r="D40" s="149">
         <v>1</v>
       </c>
-      <c r="E40" s="290"/>
-      <c r="F40" s="290"/>
+      <c r="E40" s="297"/>
+      <c r="F40" s="297"/>
     </row>
     <row r="41" spans="1:6" ht="96.6">
-      <c r="A41" s="290"/>
+      <c r="A41" s="297"/>
       <c r="B41" s="152" t="s">
         <v>499</v>
       </c>
@@ -18704,11 +18738,11 @@
       <c r="D41" s="149">
         <v>1</v>
       </c>
-      <c r="E41" s="290"/>
-      <c r="F41" s="290"/>
+      <c r="E41" s="297"/>
+      <c r="F41" s="297"/>
     </row>
     <row r="42" spans="1:6" ht="317.39999999999998">
-      <c r="A42" s="290"/>
+      <c r="A42" s="297"/>
       <c r="B42" s="152" t="s">
         <v>501</v>
       </c>
@@ -18718,11 +18752,11 @@
       <c r="D42" s="149">
         <v>1</v>
       </c>
-      <c r="E42" s="290"/>
-      <c r="F42" s="290"/>
+      <c r="E42" s="297"/>
+      <c r="F42" s="297"/>
     </row>
     <row r="43" spans="1:6" ht="69">
-      <c r="A43" s="290"/>
+      <c r="A43" s="297"/>
       <c r="B43" s="152" t="s">
         <v>501</v>
       </c>
@@ -18732,11 +18766,11 @@
       <c r="D43" s="149">
         <v>1</v>
       </c>
-      <c r="E43" s="290"/>
-      <c r="F43" s="290"/>
+      <c r="E43" s="297"/>
+      <c r="F43" s="297"/>
     </row>
     <row r="44" spans="1:6" ht="193.2">
-      <c r="A44" s="290"/>
+      <c r="A44" s="297"/>
       <c r="B44" s="152" t="s">
         <v>501</v>
       </c>
@@ -18746,11 +18780,11 @@
       <c r="D44" s="149">
         <v>1</v>
       </c>
-      <c r="E44" s="290"/>
-      <c r="F44" s="290"/>
+      <c r="E44" s="297"/>
+      <c r="F44" s="297"/>
     </row>
     <row r="45" spans="1:6" ht="234.6">
-      <c r="A45" s="290"/>
+      <c r="A45" s="297"/>
       <c r="B45" s="152" t="s">
         <v>505</v>
       </c>
@@ -18760,11 +18794,11 @@
       <c r="D45" s="149">
         <v>1</v>
       </c>
-      <c r="E45" s="290"/>
-      <c r="F45" s="290"/>
+      <c r="E45" s="297"/>
+      <c r="F45" s="297"/>
     </row>
     <row r="46" spans="1:6" ht="69">
-      <c r="A46" s="290"/>
+      <c r="A46" s="297"/>
       <c r="B46" s="152" t="s">
         <v>507</v>
       </c>
@@ -18774,11 +18808,11 @@
       <c r="D46" s="149">
         <v>1</v>
       </c>
-      <c r="E46" s="290"/>
-      <c r="F46" s="290"/>
+      <c r="E46" s="297"/>
+      <c r="F46" s="297"/>
     </row>
     <row r="47" spans="1:6" ht="110.4">
-      <c r="A47" s="290"/>
+      <c r="A47" s="297"/>
       <c r="B47" s="152" t="s">
         <v>509</v>
       </c>
@@ -18788,11 +18822,11 @@
       <c r="D47" s="149">
         <v>1</v>
       </c>
-      <c r="E47" s="290"/>
-      <c r="F47" s="290"/>
+      <c r="E47" s="297"/>
+      <c r="F47" s="297"/>
     </row>
     <row r="48" spans="1:6" ht="96.6">
-      <c r="A48" s="290"/>
+      <c r="A48" s="297"/>
       <c r="B48" s="152" t="s">
         <v>509</v>
       </c>
@@ -18802,11 +18836,11 @@
       <c r="D48" s="149">
         <v>1</v>
       </c>
-      <c r="E48" s="290"/>
-      <c r="F48" s="290"/>
+      <c r="E48" s="297"/>
+      <c r="F48" s="297"/>
     </row>
     <row r="49" spans="1:6" ht="110.4">
-      <c r="A49" s="290"/>
+      <c r="A49" s="297"/>
       <c r="B49" s="152" t="s">
         <v>512</v>
       </c>
@@ -18816,11 +18850,11 @@
       <c r="D49" s="149">
         <v>1</v>
       </c>
-      <c r="E49" s="290"/>
-      <c r="F49" s="290"/>
+      <c r="E49" s="297"/>
+      <c r="F49" s="297"/>
     </row>
     <row r="50" spans="1:6" ht="165.6">
-      <c r="A50" s="290"/>
+      <c r="A50" s="297"/>
       <c r="B50" s="152" t="s">
         <v>514</v>
       </c>
@@ -18830,11 +18864,11 @@
       <c r="D50" s="149">
         <v>1</v>
       </c>
-      <c r="E50" s="290"/>
-      <c r="F50" s="290"/>
+      <c r="E50" s="297"/>
+      <c r="F50" s="297"/>
     </row>
     <row r="51" spans="1:6" ht="165.6">
-      <c r="A51" s="290"/>
+      <c r="A51" s="297"/>
       <c r="B51" s="152" t="s">
         <v>516</v>
       </c>
@@ -18844,11 +18878,11 @@
       <c r="D51" s="149">
         <v>1</v>
       </c>
-      <c r="E51" s="290"/>
-      <c r="F51" s="290"/>
+      <c r="E51" s="297"/>
+      <c r="F51" s="297"/>
     </row>
     <row r="52" spans="1:6" ht="151.80000000000001">
-      <c r="A52" s="290"/>
+      <c r="A52" s="297"/>
       <c r="B52" s="152" t="s">
         <v>518</v>
       </c>
@@ -18858,11 +18892,11 @@
       <c r="D52" s="149">
         <v>1</v>
       </c>
-      <c r="E52" s="290"/>
-      <c r="F52" s="290"/>
+      <c r="E52" s="297"/>
+      <c r="F52" s="297"/>
     </row>
     <row r="53" spans="1:6" ht="55.2">
-      <c r="A53" s="290"/>
+      <c r="A53" s="297"/>
       <c r="B53" s="152" t="s">
         <v>520</v>
       </c>
@@ -18872,11 +18906,11 @@
       <c r="D53" s="149">
         <v>1</v>
       </c>
-      <c r="E53" s="290"/>
-      <c r="F53" s="290"/>
+      <c r="E53" s="297"/>
+      <c r="F53" s="297"/>
     </row>
     <row r="54" spans="1:6" ht="82.8">
-      <c r="A54" s="290"/>
+      <c r="A54" s="297"/>
       <c r="B54" s="152" t="s">
         <v>523</v>
       </c>
@@ -18886,11 +18920,11 @@
       <c r="D54" s="149">
         <v>1</v>
       </c>
-      <c r="E54" s="290"/>
-      <c r="F54" s="290"/>
+      <c r="E54" s="297"/>
+      <c r="F54" s="297"/>
     </row>
     <row r="55" spans="1:6" ht="96.6">
-      <c r="A55" s="290"/>
+      <c r="A55" s="297"/>
       <c r="B55" s="152" t="s">
         <v>524</v>
       </c>
@@ -18900,11 +18934,11 @@
       <c r="D55" s="149">
         <v>1</v>
       </c>
-      <c r="E55" s="290"/>
-      <c r="F55" s="290"/>
+      <c r="E55" s="297"/>
+      <c r="F55" s="297"/>
     </row>
     <row r="56" spans="1:6" ht="82.8">
-      <c r="A56" s="290"/>
+      <c r="A56" s="297"/>
       <c r="B56" s="152" t="s">
         <v>526</v>
       </c>
@@ -18914,11 +18948,11 @@
       <c r="D56" s="149">
         <v>1</v>
       </c>
-      <c r="E56" s="290"/>
-      <c r="F56" s="290"/>
+      <c r="E56" s="297"/>
+      <c r="F56" s="297"/>
     </row>
     <row r="57" spans="1:6" ht="41.4">
-      <c r="A57" s="290"/>
+      <c r="A57" s="297"/>
       <c r="B57" s="150" t="s">
         <v>418</v>
       </c>
@@ -18926,11 +18960,11 @@
         <v>1</v>
       </c>
       <c r="D57" s="149"/>
-      <c r="E57" s="290"/>
-      <c r="F57" s="290"/>
+      <c r="E57" s="297"/>
+      <c r="F57" s="297"/>
     </row>
     <row r="58" spans="1:6" ht="82.8">
-      <c r="A58" s="290"/>
+      <c r="A58" s="297"/>
       <c r="B58" s="152" t="s">
         <v>528</v>
       </c>
@@ -18940,11 +18974,11 @@
       <c r="D58" s="149">
         <v>1</v>
       </c>
-      <c r="E58" s="290"/>
-      <c r="F58" s="290"/>
+      <c r="E58" s="297"/>
+      <c r="F58" s="297"/>
     </row>
     <row r="59" spans="1:6" ht="41.4">
-      <c r="A59" s="290"/>
+      <c r="A59" s="297"/>
       <c r="B59" s="152" t="s">
         <v>501</v>
       </c>
@@ -18954,11 +18988,11 @@
       <c r="D59" s="149">
         <v>1</v>
       </c>
-      <c r="E59" s="290"/>
-      <c r="F59" s="290"/>
+      <c r="E59" s="297"/>
+      <c r="F59" s="297"/>
     </row>
     <row r="60" spans="1:6" ht="138">
-      <c r="A60" s="290"/>
+      <c r="A60" s="297"/>
       <c r="B60" s="152" t="s">
         <v>501</v>
       </c>
@@ -18968,11 +19002,11 @@
       <c r="D60" s="149">
         <v>1</v>
       </c>
-      <c r="E60" s="290"/>
-      <c r="F60" s="290"/>
+      <c r="E60" s="297"/>
+      <c r="F60" s="297"/>
     </row>
     <row r="61" spans="1:6" ht="69">
-      <c r="A61" s="290"/>
+      <c r="A61" s="297"/>
       <c r="B61" s="152" t="s">
         <v>501</v>
       </c>
@@ -18982,11 +19016,11 @@
       <c r="D61" s="149">
         <v>1</v>
       </c>
-      <c r="E61" s="290"/>
-      <c r="F61" s="290"/>
+      <c r="E61" s="297"/>
+      <c r="F61" s="297"/>
     </row>
     <row r="62" spans="1:6" ht="110.4">
-      <c r="A62" s="290"/>
+      <c r="A62" s="297"/>
       <c r="B62" s="152" t="s">
         <v>501</v>
       </c>
@@ -18996,11 +19030,11 @@
       <c r="D62" s="149">
         <v>1</v>
       </c>
-      <c r="E62" s="290"/>
-      <c r="F62" s="290"/>
+      <c r="E62" s="297"/>
+      <c r="F62" s="297"/>
     </row>
     <row r="63" spans="1:6" ht="96.6">
-      <c r="A63" s="290"/>
+      <c r="A63" s="297"/>
       <c r="B63" s="152" t="s">
         <v>534</v>
       </c>
@@ -19010,11 +19044,11 @@
       <c r="D63" s="149">
         <v>1</v>
       </c>
-      <c r="E63" s="290"/>
-      <c r="F63" s="290"/>
+      <c r="E63" s="297"/>
+      <c r="F63" s="297"/>
     </row>
     <row r="64" spans="1:6" ht="110.4">
-      <c r="A64" s="290"/>
+      <c r="A64" s="297"/>
       <c r="B64" s="152" t="s">
         <v>536</v>
       </c>
@@ -19024,11 +19058,11 @@
       <c r="D64" s="149">
         <v>1</v>
       </c>
-      <c r="E64" s="290"/>
-      <c r="F64" s="290"/>
+      <c r="E64" s="297"/>
+      <c r="F64" s="297"/>
     </row>
     <row r="65" spans="1:6" ht="41.4">
-      <c r="A65" s="290"/>
+      <c r="A65" s="297"/>
       <c r="B65" s="150" t="s">
         <v>538</v>
       </c>
@@ -19036,11 +19070,11 @@
         <v>1</v>
       </c>
       <c r="D65" s="149"/>
-      <c r="E65" s="290"/>
-      <c r="F65" s="290"/>
+      <c r="E65" s="297"/>
+      <c r="F65" s="297"/>
     </row>
     <row r="66" spans="1:6" ht="124.2">
-      <c r="A66" s="290"/>
+      <c r="A66" s="297"/>
       <c r="B66" s="152" t="s">
         <v>540</v>
       </c>
@@ -19050,11 +19084,11 @@
       <c r="D66" s="149">
         <v>1</v>
       </c>
-      <c r="E66" s="290"/>
-      <c r="F66" s="290"/>
+      <c r="E66" s="297"/>
+      <c r="F66" s="297"/>
     </row>
     <row r="67" spans="1:6" ht="151.80000000000001">
-      <c r="A67" s="290"/>
+      <c r="A67" s="297"/>
       <c r="B67" s="152" t="s">
         <v>541</v>
       </c>
@@ -19064,17 +19098,17 @@
       <c r="D67" s="149">
         <v>1</v>
       </c>
-      <c r="E67" s="290"/>
-      <c r="F67" s="290"/>
+      <c r="E67" s="297"/>
+      <c r="F67" s="297"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="291" t="s">
+      <c r="A68" s="298" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="291"/>
-      <c r="C68" s="291"/>
-      <c r="D68" s="291"/>
-      <c r="E68" s="291"/>
+      <c r="B68" s="298"/>
+      <c r="C68" s="298"/>
+      <c r="D68" s="298"/>
+      <c r="E68" s="298"/>
       <c r="F68" s="150">
         <f>SUM(F27:F27)</f>
         <v>69000</v>
@@ -19185,48 +19219,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="240"/>
-      <c r="D5" s="241"/>
+      <c r="B5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="248"/>
       <c r="E5" s="25">
         <f>SUM(E2:E4)</f>
         <v>22490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="241"/>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="248"/>
       <c r="E6" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="240"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="241"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="25">
         <f>E5*9%</f>
         <v>2024.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.4" customHeight="1">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="241"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="248"/>
       <c r="E8" s="25">
         <f>SUM(E5:E7)</f>
         <v>26538.199999999997</v>
@@ -19289,11 +19323,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="291" t="s">
+      <c r="A3" s="298" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="291"/>
-      <c r="C3" s="291"/>
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
       <c r="D3" s="153">
         <f>SUM(D2)</f>
         <v>45000</v>
@@ -19488,12 +19522,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="158">
         <f>SUM(E2:E9)</f>
         <v>82970</v>
@@ -19775,12 +19809,12 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="224" t="s">
+      <c r="A36" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="225"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="226"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="233"/>
       <c r="E36" s="158">
         <f>SUM(E28:E35)</f>
         <v>82850</v>
@@ -20079,12 +20113,12 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="226"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="162">
         <f>SUM(E3:E10)</f>
         <v>152800</v>
@@ -20360,12 +20394,12 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="224" t="s">
+      <c r="A35" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="225"/>
-      <c r="C35" s="225"/>
-      <c r="D35" s="226"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="232"/>
+      <c r="D35" s="233"/>
       <c r="E35" s="162">
         <f>SUM(E27:E34)</f>
         <v>95050</v>
@@ -20606,12 +20640,12 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="224" t="s">
+      <c r="A59" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="225"/>
-      <c r="C59" s="225"/>
-      <c r="D59" s="226"/>
+      <c r="B59" s="232"/>
+      <c r="C59" s="232"/>
+      <c r="D59" s="233"/>
       <c r="E59" s="162">
         <f>SUM(E51:E58)</f>
         <v>139220</v>
@@ -20866,12 +20900,12 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="224" t="s">
+      <c r="A82" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="225"/>
-      <c r="C82" s="225"/>
-      <c r="D82" s="226"/>
+      <c r="B82" s="232"/>
+      <c r="C82" s="232"/>
+      <c r="D82" s="233"/>
       <c r="E82" s="162">
         <f>SUM(E74:E81)</f>
         <v>82350</v>
@@ -20996,48 +21030,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="295" t="s">
+      <c r="A3" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
       <c r="E3" s="166">
         <f>SUM(E2)</f>
         <v>27900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="295" t="s">
+      <c r="A4" s="302" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
       <c r="E4" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="295" t="s">
+      <c r="A5" s="302" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="296"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
+      <c r="B5" s="303"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="303"/>
       <c r="E5" s="166">
         <f>E3*9%</f>
         <v>2511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="295" t="s">
+      <c r="A6" s="302" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="296"/>
-      <c r="C6" s="296"/>
-      <c r="D6" s="296"/>
+      <c r="B6" s="303"/>
+      <c r="C6" s="303"/>
+      <c r="D6" s="303"/>
       <c r="E6" s="166">
         <f>SUM(E3:E5)</f>
         <v>32922</v>
@@ -21242,12 +21276,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="168">
         <f>SUM(E2:E9)</f>
         <v>79850</v>
@@ -21478,12 +21512,12 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="224" t="s">
+      <c r="A30" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="225"/>
-      <c r="C30" s="225"/>
-      <c r="D30" s="226"/>
+      <c r="B30" s="232"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
       <c r="E30" s="170">
         <f>SUM(E23:E29)</f>
         <v>49710</v>
@@ -21736,12 +21770,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="224" t="s">
+      <c r="A9" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="225"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="225"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="172">
         <f>SUM(E3:E8)</f>
         <v>347036</v>
@@ -21947,12 +21981,12 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="297" t="s">
+      <c r="A23" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="297"/>
-      <c r="C23" s="297"/>
-      <c r="D23" s="297"/>
+      <c r="B23" s="304"/>
+      <c r="C23" s="304"/>
+      <c r="D23" s="304"/>
       <c r="E23" s="175">
         <f>SUM(E16:E22)</f>
         <v>728300</v>
@@ -22174,12 +22208,12 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="298" t="s">
+      <c r="A39" s="305" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="300"/>
+      <c r="B39" s="306"/>
+      <c r="C39" s="306"/>
+      <c r="D39" s="307"/>
       <c r="E39" s="175">
         <f>SUM(E32:E38)</f>
         <v>661616</v>
@@ -22401,12 +22435,12 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="177">
         <f>SUM(E2:E9)</f>
         <v>32840</v>
@@ -22659,12 +22693,12 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="224" t="s">
+      <c r="A29" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="225"/>
-      <c r="C29" s="225"/>
-      <c r="D29" s="226"/>
+      <c r="B29" s="232"/>
+      <c r="C29" s="232"/>
+      <c r="D29" s="233"/>
       <c r="E29" s="177">
         <f>SUM(E21:E28)</f>
         <v>28840</v>
@@ -22812,12 +22846,12 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="301" t="s">
+      <c r="A5" s="308" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="302"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="303"/>
+      <c r="B5" s="309"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="310"/>
       <c r="E5" s="182">
         <f>SUM(E3:E4)</f>
         <v>190000</v>
@@ -22889,12 +22923,12 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="301" t="s">
+      <c r="A12" s="308" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="302"/>
-      <c r="C12" s="302"/>
-      <c r="D12" s="303"/>
+      <c r="B12" s="309"/>
+      <c r="C12" s="309"/>
+      <c r="D12" s="310"/>
       <c r="E12" s="182">
         <f>SUM(E10:E11)</f>
         <v>40000</v>
@@ -22995,10 +23029,10 @@
       <c r="A5" s="183">
         <v>3</v>
       </c>
-      <c r="B5" s="305" t="s">
+      <c r="B5" s="312" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="306"/>
+      <c r="C5" s="313"/>
       <c r="D5" s="183">
         <v>1</v>
       </c>
@@ -23014,10 +23048,10 @@
       <c r="A6" s="183">
         <v>4</v>
       </c>
-      <c r="B6" s="305" t="s">
+      <c r="B6" s="312" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="306"/>
+      <c r="C6" s="313"/>
       <c r="D6" s="183">
         <v>1</v>
       </c>
@@ -23030,13 +23064,13 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="304" t="s">
+      <c r="A7" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="304"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
       <c r="F7" s="182">
         <f>SUM(F3:F6)</f>
         <v>96000</v>
@@ -23092,10 +23126,10 @@
       <c r="A12" s="183">
         <v>2</v>
       </c>
-      <c r="B12" s="305" t="s">
+      <c r="B12" s="312" t="s">
         <v>593</v>
       </c>
-      <c r="C12" s="306"/>
+      <c r="C12" s="313"/>
       <c r="D12" s="183">
         <v>1</v>
       </c>
@@ -23111,10 +23145,10 @@
       <c r="A13" s="183">
         <v>3</v>
       </c>
-      <c r="B13" s="305" t="s">
+      <c r="B13" s="312" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="306"/>
+      <c r="C13" s="313"/>
       <c r="D13" s="183">
         <v>1</v>
       </c>
@@ -23127,13 +23161,13 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="304" t="s">
+      <c r="A14" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="304"/>
-      <c r="C14" s="304"/>
-      <c r="D14" s="304"/>
-      <c r="E14" s="304"/>
+      <c r="B14" s="311"/>
+      <c r="C14" s="311"/>
+      <c r="D14" s="311"/>
+      <c r="E14" s="311"/>
       <c r="F14" s="182">
         <f>SUM(F11:F13)</f>
         <v>61500</v>
@@ -23181,7 +23215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:E31"/>
     </sheetView>
   </sheetViews>
@@ -23355,12 +23389,12 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="224" t="s">
+      <c r="A9" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="225"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="226"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="189">
         <f>SUM(E2:E8)</f>
         <v>19920</v>
@@ -23431,7 +23465,7 @@
       <c r="A21" s="24" t="s">
         <v>674</v>
       </c>
-      <c r="B21" s="311">
+      <c r="B21" s="227">
         <v>900</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -23446,7 +23480,7 @@
       <c r="A22" s="24" t="s">
         <v>675</v>
       </c>
-      <c r="B22" s="311">
+      <c r="B22" s="227">
         <v>950</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -23461,7 +23495,7 @@
       <c r="A23" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="B23" s="311">
+      <c r="B23" s="227">
         <v>5200</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -23476,7 +23510,7 @@
       <c r="A24" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="B24" s="311">
+      <c r="B24" s="227">
         <v>910</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -23545,7 +23579,7 @@
       <c r="D28" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="E28" s="313" t="s">
+      <c r="E28" s="229" t="s">
         <v>686</v>
       </c>
     </row>
@@ -23597,10 +23631,10 @@
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="312"/>
-      <c r="B32" s="312"/>
-      <c r="C32" s="312"/>
-      <c r="D32" s="312"/>
+      <c r="A32" s="228"/>
+      <c r="B32" s="228"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="228"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="24"/>
@@ -23639,136 +23673,136 @@
       <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="310"/>
-      <c r="B39" s="310"/>
-      <c r="C39" s="310"/>
-      <c r="D39" s="310"/>
+      <c r="A39" s="226"/>
+      <c r="B39" s="226"/>
+      <c r="C39" s="226"/>
+      <c r="D39" s="226"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="310"/>
-      <c r="B40" s="310"/>
-      <c r="C40" s="310"/>
-      <c r="D40" s="310"/>
+      <c r="A40" s="226"/>
+      <c r="B40" s="226"/>
+      <c r="C40" s="226"/>
+      <c r="D40" s="226"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="310"/>
-      <c r="B41" s="310"/>
+      <c r="A41" s="226"/>
+      <c r="B41" s="226"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="310"/>
-      <c r="B42" s="310"/>
+      <c r="A42" s="226"/>
+      <c r="B42" s="226"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="310"/>
-      <c r="B43" s="310"/>
+      <c r="A43" s="226"/>
+      <c r="B43" s="226"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="310"/>
-      <c r="B44" s="310"/>
+      <c r="A44" s="226"/>
+      <c r="B44" s="226"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="310"/>
-      <c r="B45" s="310"/>
+      <c r="A45" s="226"/>
+      <c r="B45" s="226"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="310"/>
-      <c r="B46" s="310"/>
+      <c r="A46" s="226"/>
+      <c r="B46" s="226"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="310"/>
-      <c r="B47" s="310"/>
+      <c r="A47" s="226"/>
+      <c r="B47" s="226"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="310"/>
-      <c r="B48" s="310"/>
+      <c r="A48" s="226"/>
+      <c r="B48" s="226"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="310"/>
-      <c r="B49" s="310"/>
+      <c r="A49" s="226"/>
+      <c r="B49" s="226"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="310"/>
-      <c r="B50" s="310"/>
+      <c r="A50" s="226"/>
+      <c r="B50" s="226"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="310"/>
-      <c r="B51" s="310"/>
+      <c r="A51" s="226"/>
+      <c r="B51" s="226"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="310"/>
-      <c r="B52" s="310"/>
+      <c r="A52" s="226"/>
+      <c r="B52" s="226"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="310"/>
-      <c r="B53" s="310"/>
+      <c r="A53" s="226"/>
+      <c r="B53" s="226"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="310"/>
-      <c r="B54" s="310"/>
+      <c r="A54" s="226"/>
+      <c r="B54" s="226"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="310"/>
-      <c r="B55" s="310"/>
+      <c r="A55" s="226"/>
+      <c r="B55" s="226"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="310"/>
-      <c r="B56" s="310"/>
+      <c r="A56" s="226"/>
+      <c r="B56" s="226"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="310"/>
-      <c r="B57" s="310"/>
+      <c r="A57" s="226"/>
+      <c r="B57" s="226"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="310"/>
-      <c r="B58" s="310"/>
+      <c r="A58" s="226"/>
+      <c r="B58" s="226"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="310"/>
-      <c r="B59" s="310"/>
+      <c r="A59" s="226"/>
+      <c r="B59" s="226"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="310"/>
-      <c r="B60" s="310"/>
+      <c r="A60" s="226"/>
+      <c r="B60" s="226"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="310"/>
-      <c r="B61" s="310"/>
+      <c r="A61" s="226"/>
+      <c r="B61" s="226"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="310"/>
-      <c r="B62" s="310"/>
+      <c r="A62" s="226"/>
+      <c r="B62" s="226"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="310"/>
-      <c r="B63" s="310"/>
+      <c r="A63" s="226"/>
+      <c r="B63" s="226"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="310"/>
-      <c r="B64" s="310"/>
+      <c r="A64" s="226"/>
+      <c r="B64" s="226"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="310"/>
-      <c r="B65" s="310"/>
+      <c r="A65" s="226"/>
+      <c r="B65" s="226"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="310"/>
-      <c r="B66" s="310"/>
+      <c r="A66" s="226"/>
+      <c r="B66" s="226"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="310"/>
-      <c r="B67" s="310"/>
+      <c r="A67" s="226"/>
+      <c r="B67" s="226"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="310"/>
-      <c r="B68" s="310"/>
+      <c r="A68" s="226"/>
+      <c r="B68" s="226"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="310"/>
-      <c r="B69" s="310"/>
+      <c r="A69" s="226"/>
+      <c r="B69" s="226"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="310"/>
-      <c r="B70" s="310"/>
+      <c r="A70" s="226"/>
+      <c r="B70" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23849,12 +23883,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="248"/>
       <c r="E4" s="25">
         <f>SUM(E2:E3)</f>
         <v>74600</v>
@@ -23872,8 +23906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24037,12 +24071,12 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="191">
         <f>SUM(E3:E9)</f>
         <v>37490</v>
@@ -24318,12 +24352,12 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="224" t="s">
+      <c r="A34" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="225"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="226"/>
+      <c r="B34" s="232"/>
+      <c r="C34" s="232"/>
+      <c r="D34" s="233"/>
       <c r="E34" s="191">
         <f>SUM(E26:E33)</f>
         <v>19470</v>
@@ -24546,12 +24580,12 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="224" t="s">
+      <c r="A57" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="225"/>
-      <c r="C57" s="225"/>
-      <c r="D57" s="226"/>
+      <c r="B57" s="232"/>
+      <c r="C57" s="232"/>
+      <c r="D57" s="233"/>
       <c r="E57" s="191">
         <f>SUM(E50:E56)</f>
         <v>54320</v>
@@ -24806,12 +24840,12 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="224" t="s">
+      <c r="A80" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="225"/>
-      <c r="C80" s="225"/>
-      <c r="D80" s="226"/>
+      <c r="B80" s="232"/>
+      <c r="C80" s="232"/>
+      <c r="D80" s="233"/>
       <c r="E80" s="191">
         <f>SUM(E72:E79)</f>
         <v>49300</v>
@@ -25097,12 +25131,12 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="224" t="s">
+      <c r="A12" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="225"/>
-      <c r="C12" s="225"/>
-      <c r="D12" s="226"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="233"/>
       <c r="E12" s="193">
         <f>SUM(E3:E11)</f>
         <v>52650</v>
@@ -25364,12 +25398,12 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="224" t="s">
+      <c r="A34" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="225"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="226"/>
+      <c r="B34" s="232"/>
+      <c r="C34" s="232"/>
+      <c r="D34" s="233"/>
       <c r="E34" s="193">
         <f>SUM(E25:E33)</f>
         <v>44710</v>
@@ -25649,12 +25683,12 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="226"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="196">
         <f>SUM(E3:E10)</f>
         <v>58380</v>
@@ -25917,12 +25951,12 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="224" t="s">
+      <c r="A32" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="225"/>
-      <c r="C32" s="225"/>
-      <c r="D32" s="226"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="233"/>
       <c r="E32" s="201">
         <f>SUM(E24:E31)</f>
         <v>48050</v>
@@ -26243,12 +26277,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A13" s="224" t="s">
+      <c r="A13" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="225"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="226"/>
+      <c r="B13" s="232"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="233"/>
       <c r="E13" s="198">
         <f>SUM(E3:E12)</f>
         <v>123270</v>
@@ -26549,12 +26583,12 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="224" t="s">
+      <c r="A36" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="225"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="226"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="233"/>
       <c r="E36" s="198">
         <f>SUM(E25:E35)</f>
         <v>85430</v>
@@ -26785,12 +26819,12 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="224" t="s">
+      <c r="A55" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="225"/>
-      <c r="C55" s="225"/>
-      <c r="D55" s="226"/>
+      <c r="B55" s="232"/>
+      <c r="C55" s="232"/>
+      <c r="D55" s="233"/>
       <c r="E55" s="203">
         <f>SUM(E47:E54)</f>
         <v>63290</v>
@@ -27144,12 +27178,12 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="224" t="s">
+      <c r="A83" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="225"/>
-      <c r="C83" s="225"/>
-      <c r="D83" s="226"/>
+      <c r="B83" s="232"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="233"/>
       <c r="E83" s="203">
         <f>SUM(E74:E82)</f>
         <v>37430</v>
@@ -27484,12 +27518,12 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="208">
         <f>SUM(E2:E9)</f>
         <v>33970</v>
@@ -27685,7 +27719,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27889,12 +27923,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="33" customFormat="1">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="226"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="210">
         <f>SUM(E2:E10)</f>
         <v>49270</v>
@@ -28155,12 +28189,12 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="226"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="212">
         <f>SUM(E3:E10)</f>
         <v>21720</v>
@@ -28442,12 +28476,12 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="224" t="s">
+      <c r="A35" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="225"/>
-      <c r="C35" s="225"/>
-      <c r="D35" s="226"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="232"/>
+      <c r="D35" s="233"/>
       <c r="E35" s="212">
         <f>SUM(E27:E34)</f>
         <v>25720</v>
@@ -28707,12 +28741,12 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="224" t="s">
+      <c r="A59" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="225"/>
-      <c r="C59" s="225"/>
-      <c r="D59" s="226"/>
+      <c r="B59" s="232"/>
+      <c r="C59" s="232"/>
+      <c r="D59" s="233"/>
       <c r="E59" s="212">
         <f>SUM(E52:E58)</f>
         <v>43200</v>
@@ -28971,12 +29005,12 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="224" t="s">
+      <c r="A82" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="225"/>
-      <c r="C82" s="225"/>
-      <c r="D82" s="226"/>
+      <c r="B82" s="232"/>
+      <c r="C82" s="232"/>
+      <c r="D82" s="233"/>
       <c r="E82" s="212">
         <f>SUM(E75:E81)</f>
         <v>46150</v>
@@ -29094,8 +29128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29315,12 +29349,12 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="307" t="s">
+      <c r="A13" s="314" t="s">
         <v>668</v>
       </c>
-      <c r="B13" s="308"/>
-      <c r="C13" s="308"/>
-      <c r="D13" s="309"/>
+      <c r="B13" s="315"/>
+      <c r="C13" s="315"/>
+      <c r="D13" s="316"/>
       <c r="E13" s="216">
         <f>SUM(E3:E12)</f>
         <v>39390</v>
@@ -29604,12 +29638,12 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="224" t="s">
+      <c r="A34" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="225"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="226"/>
+      <c r="B34" s="232"/>
+      <c r="C34" s="232"/>
+      <c r="D34" s="233"/>
       <c r="E34" s="214">
         <f>SUM(E25:E33)</f>
         <v>63760</v>
@@ -29910,12 +29944,12 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="307" t="s">
+      <c r="A90" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="308"/>
-      <c r="C90" s="308"/>
-      <c r="D90" s="309"/>
+      <c r="B90" s="315"/>
+      <c r="C90" s="315"/>
+      <c r="D90" s="316"/>
       <c r="E90" s="216">
         <f>SUM(E81:E89)</f>
         <v>27950</v>
@@ -30151,12 +30185,12 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="307" t="s">
+      <c r="A112" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="B112" s="308"/>
-      <c r="C112" s="308"/>
-      <c r="D112" s="309"/>
+      <c r="B112" s="315"/>
+      <c r="C112" s="315"/>
+      <c r="D112" s="316"/>
       <c r="E112" s="216">
         <f>SUM(E104:E111)</f>
         <v>55300</v>
@@ -30240,6 +30274,346 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="42.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21.6" customHeight="1">
+      <c r="A1" s="225" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="225" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="225" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="225" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="225" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="224">
+        <v>1</v>
+      </c>
+      <c r="B2" s="224" t="s">
+        <v>690</v>
+      </c>
+      <c r="C2" s="224">
+        <v>2</v>
+      </c>
+      <c r="D2" s="224">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="224">
+        <f t="shared" ref="E2:E12" si="0">C2*D2</f>
+        <v>5000</v>
+      </c>
+      <c r="H2">
+        <f>1250*2</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="224">
+        <v>2</v>
+      </c>
+      <c r="B3" s="224" t="s">
+        <v>691</v>
+      </c>
+      <c r="C3" s="224">
+        <v>3</v>
+      </c>
+      <c r="D3" s="224">
+        <v>2260</v>
+      </c>
+      <c r="E3" s="224">
+        <f t="shared" si="0"/>
+        <v>6780</v>
+      </c>
+      <c r="H3">
+        <f>1130*2</f>
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="230">
+        <v>3</v>
+      </c>
+      <c r="B4" s="224" t="s">
+        <v>692</v>
+      </c>
+      <c r="C4" s="224">
+        <v>1</v>
+      </c>
+      <c r="D4" s="224">
+        <v>1700</v>
+      </c>
+      <c r="E4" s="224">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="H4">
+        <f>880*2</f>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="230">
+        <v>4</v>
+      </c>
+      <c r="B5" s="224" t="s">
+        <v>694</v>
+      </c>
+      <c r="C5" s="224">
+        <v>2</v>
+      </c>
+      <c r="D5" s="224">
+        <v>1800</v>
+      </c>
+      <c r="E5" s="224">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="H5">
+        <f>930*2</f>
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1">
+      <c r="A6" s="230">
+        <v>5</v>
+      </c>
+      <c r="B6" s="224" t="s">
+        <v>697</v>
+      </c>
+      <c r="C6" s="224">
+        <v>1</v>
+      </c>
+      <c r="D6" s="224">
+        <v>16200</v>
+      </c>
+      <c r="E6" s="224">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>695</v>
+      </c>
+      <c r="H6">
+        <f>6800*2</f>
+        <v>13600</v>
+      </c>
+      <c r="I6" t="s">
+        <v>696</v>
+      </c>
+      <c r="K6">
+        <f>7700*2</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="230">
+        <v>6</v>
+      </c>
+      <c r="B7" s="224" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="224">
+        <v>16</v>
+      </c>
+      <c r="D7" s="224">
+        <v>60</v>
+      </c>
+      <c r="E7" s="224">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="230">
+        <v>7</v>
+      </c>
+      <c r="B8" s="224" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="224">
+        <v>8</v>
+      </c>
+      <c r="D8" s="224">
+        <v>50</v>
+      </c>
+      <c r="E8" s="224">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="230">
+        <v>8</v>
+      </c>
+      <c r="B9" s="224" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="224">
+        <v>1</v>
+      </c>
+      <c r="D9" s="224">
+        <v>1990</v>
+      </c>
+      <c r="E9" s="224">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="22.2" customHeight="1">
+      <c r="A10" s="230">
+        <v>9</v>
+      </c>
+      <c r="B10" s="224" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="224">
+        <v>1</v>
+      </c>
+      <c r="D10" s="224">
+        <v>5600</v>
+      </c>
+      <c r="E10" s="224">
+        <f t="shared" si="0"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="230">
+        <v>10</v>
+      </c>
+      <c r="B11" s="224" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="224">
+        <v>10</v>
+      </c>
+      <c r="D11" s="224">
+        <v>100</v>
+      </c>
+      <c r="E11" s="224">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="23.4" customHeight="1">
+      <c r="A12" s="230">
+        <v>11</v>
+      </c>
+      <c r="B12" s="224" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="224">
+        <v>1</v>
+      </c>
+      <c r="D12" s="224">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="224">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="231" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="232"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="225">
+        <f>SUM(E2:E12)</f>
+        <v>48230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -30524,12 +30898,12 @@
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="240"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="241"/>
+      <c r="B15" s="247"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="248"/>
       <c r="E15" s="25">
         <f>SUM(E3:E14)</f>
         <v>107240</v>
@@ -30775,12 +31149,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="239" t="s">
+      <c r="A31" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="240"/>
-      <c r="C31" s="240"/>
-      <c r="D31" s="241"/>
+      <c r="B31" s="247"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="248"/>
       <c r="E31" s="25">
         <f>SUM(E19:E30)</f>
         <v>131880</v>
@@ -31001,12 +31375,12 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="239" t="s">
+      <c r="A9" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="241"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="248"/>
       <c r="E9" s="25">
         <f>SUM(E2:E8)</f>
         <v>49220</v>
@@ -31081,13 +31455,13 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A19" s="242" t="s">
+      <c r="A19" s="249" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="244"/>
+      <c r="B19" s="250"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="251"/>
       <c r="G19">
         <f>8680*2</f>
         <v>17360</v>
@@ -31097,11 +31471,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A20" s="245"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="247"/>
+      <c r="A20" s="252"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="253"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="254"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31216,12 +31590,12 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="241"/>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="248"/>
       <c r="E6" s="25">
         <f>SUM(E2:E5)</f>
         <v>78900</v>
@@ -31436,12 +31810,12 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="241"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="248"/>
       <c r="E11" s="25">
         <f>SUM(E2:E10)</f>
         <v>449300</v>
@@ -31610,12 +31984,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="241"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="248"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>84950</v>
@@ -31699,12 +32073,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A19" s="248" t="s">
+      <c r="A19" s="255" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="248"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="248"/>
+      <c r="B19" s="255"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="255"/>
       <c r="E19" s="41"/>
       <c r="G19">
         <f>3130*2</f>

--- a/Quotation.xlsx
+++ b/Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="41" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="45" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,10 @@
     <sheet name="E'delicious 317" sheetId="46" r:id="rId46"/>
     <sheet name="Sujit 318" sheetId="47" r:id="rId47"/>
     <sheet name="Vatareshwar 319" sheetId="48" r:id="rId48"/>
+    <sheet name="El Shaddai 401" sheetId="49" r:id="rId49"/>
+    <sheet name="El Shaddai 402" sheetId="50" r:id="rId50"/>
+    <sheet name="El Shaddai 403" sheetId="51" r:id="rId51"/>
+    <sheet name="El Shaddai 404" sheetId="52" r:id="rId52"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -66,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="716">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2400,6 +2404,60 @@
   </si>
   <si>
     <t>CP Plus high definition 16 CH DVR, Professional series supporting up to 8MP</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Finch 30 Kva UPS</t>
+  </si>
+  <si>
+    <t>CGST 14%</t>
+  </si>
+  <si>
+    <t>SGST 14%</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>CSGT @ 9%</t>
+  </si>
+  <si>
+    <t>SGST @ 9%</t>
+  </si>
+  <si>
+    <t>CGST @ 14%</t>
+  </si>
+  <si>
+    <t>SGST @ 14%</t>
+  </si>
+  <si>
+    <t>65 AH Battery</t>
+  </si>
+  <si>
+    <t>APC 30 KVA UPS 3:1</t>
+  </si>
+  <si>
+    <t>APC 30 KVA UPS 3:3</t>
+  </si>
+  <si>
+    <t>Exide 42 AH Battery</t>
+  </si>
+  <si>
+    <t>UPS Price ITA 30 kva (3x3) with IGBT based rectifier</t>
+  </si>
+  <si>
+    <t>Rack and interlinks</t>
+  </si>
+  <si>
+    <t>Transportation &amp; Commisioning Charges</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>1) Battery isolator for 6900/- + GST</t>
   </si>
 </sst>
 </file>
@@ -3038,7 +3096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3700,6 +3758,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3707,21 +3789,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3743,6 +3810,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3787,45 +3869,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3844,6 +3887,18 @@
     <xf numFmtId="49" fontId="20" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3859,11 +3914,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3957,6 +4039,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4602,12 +4696,12 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A18" s="231" t="s">
+      <c r="A18" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="232"/>
-      <c r="C18" s="232"/>
-      <c r="D18" s="233"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="241"/>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
         <v>539070</v>
@@ -4733,12 +4827,12 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="231" t="s">
+      <c r="A27" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="232"/>
-      <c r="C27" s="232"/>
-      <c r="D27" s="233"/>
+      <c r="B27" s="240"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="241"/>
       <c r="E27" s="3">
         <f>SUM(E22:E26)</f>
         <v>206700</v>
@@ -4759,7 +4853,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4899,12 +4993,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="246" t="s">
+      <c r="A8" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="247"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="248"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="256"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>34510</v>
@@ -4988,12 +5082,12 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="255" t="s">
+      <c r="A19" s="263" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="255"/>
-      <c r="C19" s="255"/>
-      <c r="D19" s="255"/>
+      <c r="B19" s="263"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
       <c r="E19" s="43"/>
     </row>
   </sheetData>
@@ -5154,12 +5248,12 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="246" t="s">
+      <c r="A8" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="247"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="248"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="256"/>
       <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>110430</v>
@@ -5243,20 +5337,20 @@
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="249" t="s">
+      <c r="A19" s="257" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="250"/>
-      <c r="C19" s="250"/>
-      <c r="D19" s="250"/>
-      <c r="E19" s="251"/>
+      <c r="B19" s="258"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="258"/>
+      <c r="E19" s="259"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="252"/>
-      <c r="B20" s="253"/>
-      <c r="C20" s="253"/>
-      <c r="D20" s="253"/>
-      <c r="E20" s="254"/>
+      <c r="A20" s="260"/>
+      <c r="B20" s="261"/>
+      <c r="C20" s="261"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5455,24 +5549,24 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="246" t="s">
+      <c r="A11" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="248"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="256"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>48140</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="258" t="s">
+      <c r="A13" s="266" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="258"/>
-      <c r="C13" s="258"/>
-      <c r="D13" s="258"/>
+      <c r="B13" s="266"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="266"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
@@ -5672,12 +5766,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="246" t="s">
+      <c r="A30" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="247"/>
-      <c r="C30" s="247"/>
-      <c r="D30" s="248"/>
+      <c r="B30" s="255"/>
+      <c r="C30" s="255"/>
+      <c r="D30" s="256"/>
       <c r="E30" s="25">
         <f>SUM(E22:E29)</f>
         <v>52530</v>
@@ -5845,12 +5939,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A41" s="256" t="s">
+      <c r="A41" s="264" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="257"/>
-      <c r="C41" s="257"/>
-      <c r="D41" s="257"/>
+      <c r="B41" s="265"/>
+      <c r="C41" s="265"/>
+      <c r="D41" s="265"/>
       <c r="E41" s="50">
         <f>SUM(E33:E40)</f>
         <v>42140</v>
@@ -6085,24 +6179,24 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="246" t="s">
+      <c r="A11" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="248"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="256"/>
       <c r="E11" s="25">
         <f>SUM(E3:E10)</f>
         <v>19630</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="259" t="s">
+      <c r="A13" s="267" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="259"/>
-      <c r="C13" s="259"/>
-      <c r="D13" s="259"/>
+      <c r="B13" s="267"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="267"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="48" t="s">
@@ -6266,12 +6360,12 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="246" t="s">
+      <c r="A28" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="247"/>
-      <c r="C28" s="247"/>
-      <c r="D28" s="248"/>
+      <c r="B28" s="255"/>
+      <c r="C28" s="255"/>
+      <c r="D28" s="256"/>
       <c r="E28" s="25">
         <f>SUM(E22:E27)</f>
         <v>29900</v>
@@ -6473,48 +6567,48 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="248"/>
+      <c r="B7" s="255"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="256"/>
       <c r="E7" s="25">
         <f>SUM(E3:E6)</f>
         <v>27490</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="246" t="s">
+      <c r="A8" s="254" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="247"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="248"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="256"/>
       <c r="E8" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="246" t="s">
+      <c r="A9" s="254" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="247"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="248"/>
+      <c r="B9" s="255"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="256"/>
       <c r="E9" s="25">
         <f>E7*9%</f>
         <v>2474.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="254" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="247"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="248"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="256"/>
       <c r="E10" s="25">
         <f>SUM(E7:E9)</f>
         <v>32438.199999999997</v>
@@ -6605,48 +6699,48 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="246" t="s">
+      <c r="A17" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="247"/>
-      <c r="C17" s="247"/>
-      <c r="D17" s="248"/>
+      <c r="B17" s="255"/>
+      <c r="C17" s="255"/>
+      <c r="D17" s="256"/>
       <c r="E17" s="25">
         <f>SUM(E14:E16)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="246" t="s">
+      <c r="A18" s="254" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="247"/>
-      <c r="C18" s="247"/>
-      <c r="D18" s="248"/>
+      <c r="B18" s="255"/>
+      <c r="C18" s="255"/>
+      <c r="D18" s="256"/>
       <c r="E18" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="246" t="s">
+      <c r="A19" s="254" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="247"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="248"/>
+      <c r="B19" s="255"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="256"/>
       <c r="E19" s="25">
         <f>E17*9%</f>
         <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="246" t="s">
+      <c r="A20" s="254" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="247"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="248"/>
+      <c r="B20" s="255"/>
+      <c r="C20" s="255"/>
+      <c r="D20" s="256"/>
       <c r="E20" s="25">
         <f>SUM(E17:E19)</f>
         <v>46020</v>
@@ -6729,48 +6823,48 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="246" t="s">
+      <c r="A27" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="247"/>
-      <c r="C27" s="247"/>
-      <c r="D27" s="248"/>
+      <c r="B27" s="255"/>
+      <c r="C27" s="255"/>
+      <c r="D27" s="256"/>
       <c r="E27" s="25">
         <f>SUM(E24:E26)</f>
         <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="246" t="s">
+      <c r="A28" s="254" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="247"/>
-      <c r="C28" s="247"/>
-      <c r="D28" s="248"/>
+      <c r="B28" s="255"/>
+      <c r="C28" s="255"/>
+      <c r="D28" s="256"/>
       <c r="E28" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="246" t="s">
+      <c r="A29" s="254" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="247"/>
-      <c r="C29" s="247"/>
-      <c r="D29" s="248"/>
+      <c r="B29" s="255"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="256"/>
       <c r="E29" s="25">
         <f>E27*9%</f>
         <v>7524</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="246" t="s">
+      <c r="A30" s="254" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="247"/>
-      <c r="C30" s="247"/>
-      <c r="D30" s="248"/>
+      <c r="B30" s="255"/>
+      <c r="C30" s="255"/>
+      <c r="D30" s="256"/>
       <c r="E30" s="25">
         <f>SUM(E27:E29)</f>
         <v>98648</v>
@@ -6958,12 +7052,12 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="231" t="s">
+      <c r="A10" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="232"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="233"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56">
         <f>SUM(E4:E9)</f>
         <v>683400</v>
@@ -7087,12 +7181,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="231" t="s">
+      <c r="A21" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="232"/>
-      <c r="C21" s="232"/>
-      <c r="D21" s="233"/>
+      <c r="B21" s="240"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="241"/>
       <c r="E21" s="56">
         <f>SUM(E16:E20)</f>
         <v>408900</v>
@@ -7252,12 +7346,12 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="231" t="s">
+      <c r="A38" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="232"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="233"/>
+      <c r="B38" s="240"/>
+      <c r="C38" s="240"/>
+      <c r="D38" s="241"/>
       <c r="E38" s="56">
         <f>SUM(E32:E37)</f>
         <v>121600</v>
@@ -7477,12 +7571,12 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="263" t="s">
+      <c r="A59" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="264"/>
-      <c r="C59" s="264"/>
-      <c r="D59" s="265"/>
+      <c r="B59" s="291"/>
+      <c r="C59" s="291"/>
+      <c r="D59" s="292"/>
       <c r="E59" s="56">
         <f>SUM(E50:E58)</f>
         <v>137500</v>
@@ -7494,10 +7588,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A63" s="266" t="s">
+      <c r="A63" s="293" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="266"/>
+      <c r="B63" s="293"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
@@ -7710,12 +7804,12 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="231" t="s">
+      <c r="A79" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="232"/>
-      <c r="C79" s="232"/>
-      <c r="D79" s="233"/>
+      <c r="B79" s="240"/>
+      <c r="C79" s="240"/>
+      <c r="D79" s="241"/>
       <c r="E79" s="91">
         <f>SUM(E70:E78)</f>
         <v>221950</v>
@@ -7939,12 +8033,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="231" t="s">
+      <c r="A99" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="232"/>
-      <c r="C99" s="232"/>
-      <c r="D99" s="232"/>
+      <c r="B99" s="240"/>
+      <c r="C99" s="240"/>
+      <c r="D99" s="240"/>
       <c r="E99" s="89">
         <f>SUM(E91:E98)</f>
         <v>99915</v>
@@ -8090,31 +8184,31 @@
       <c r="A116" s="71">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B116" s="260" t="s">
+      <c r="B116" s="289" t="s">
         <v>359</v>
       </c>
-      <c r="C116" s="260"/>
+      <c r="C116" s="289"/>
       <c r="D116" s="71">
         <v>1</v>
       </c>
-      <c r="E116" s="261">
+      <c r="E116" s="276">
         <v>9000</v>
       </c>
-      <c r="F116" s="262"/>
+      <c r="F116" s="277"/>
       <c r="G116" s="90">
         <f>D116*E116</f>
         <v>9000</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="231" t="s">
+      <c r="A117" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="232"/>
-      <c r="C117" s="232"/>
-      <c r="D117" s="232"/>
-      <c r="E117" s="232"/>
-      <c r="F117" s="233"/>
+      <c r="B117" s="240"/>
+      <c r="C117" s="240"/>
+      <c r="D117" s="240"/>
+      <c r="E117" s="240"/>
+      <c r="F117" s="241"/>
       <c r="G117" s="91">
         <f>SUM(G113:G116)</f>
         <v>116670</v>
@@ -8230,31 +8324,31 @@
       <c r="A124" s="71">
         <v>1.24</v>
       </c>
-      <c r="B124" s="260" t="s">
+      <c r="B124" s="289" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="260"/>
+      <c r="C124" s="289"/>
       <c r="D124" s="71">
         <v>1</v>
       </c>
-      <c r="E124" s="245">
+      <c r="E124" s="248">
         <v>9000</v>
       </c>
-      <c r="F124" s="245"/>
+      <c r="F124" s="248"/>
       <c r="G124" s="94">
         <f>D124*E124</f>
         <v>9000</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="267" t="s">
+      <c r="A125" s="286" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="268"/>
-      <c r="C125" s="268"/>
-      <c r="D125" s="268"/>
-      <c r="E125" s="268"/>
-      <c r="F125" s="269"/>
+      <c r="B125" s="287"/>
+      <c r="C125" s="287"/>
+      <c r="D125" s="287"/>
+      <c r="E125" s="287"/>
+      <c r="F125" s="288"/>
       <c r="G125" s="111">
         <f>SUM(G121:G124)</f>
         <v>54880</v>
@@ -8365,31 +8459,31 @@
       <c r="A134" s="71">
         <v>2.14</v>
       </c>
-      <c r="B134" s="271" t="s">
+      <c r="B134" s="274" t="s">
         <v>358</v>
       </c>
-      <c r="C134" s="272"/>
+      <c r="C134" s="275"/>
       <c r="D134" s="71">
         <v>1</v>
       </c>
-      <c r="E134" s="261">
+      <c r="E134" s="276">
         <v>12000</v>
       </c>
-      <c r="F134" s="262"/>
+      <c r="F134" s="277"/>
       <c r="G134" s="90">
         <f t="shared" si="8"/>
         <v>12000</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="267" t="s">
+      <c r="A135" s="286" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="268"/>
-      <c r="C135" s="268"/>
-      <c r="D135" s="268"/>
-      <c r="E135" s="268"/>
-      <c r="F135" s="269"/>
+      <c r="B135" s="287"/>
+      <c r="C135" s="287"/>
+      <c r="D135" s="287"/>
+      <c r="E135" s="287"/>
+      <c r="F135" s="288"/>
       <c r="G135" s="91">
         <f>SUM(G131:G134)</f>
         <v>51220</v>
@@ -8495,31 +8589,31 @@
       <c r="A142" s="71">
         <v>2.2400000000000002</v>
       </c>
-      <c r="B142" s="271" t="s">
+      <c r="B142" s="274" t="s">
         <v>358</v>
       </c>
-      <c r="C142" s="272"/>
+      <c r="C142" s="275"/>
       <c r="D142" s="71">
         <v>1</v>
       </c>
-      <c r="E142" s="261">
+      <c r="E142" s="276">
         <v>12000</v>
       </c>
-      <c r="F142" s="262"/>
+      <c r="F142" s="277"/>
       <c r="G142" s="94">
         <f>D142*E142</f>
         <v>12000</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="267" t="s">
+      <c r="A143" s="286" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="268"/>
-      <c r="C143" s="268"/>
-      <c r="D143" s="268"/>
-      <c r="E143" s="268"/>
-      <c r="F143" s="269"/>
+      <c r="B143" s="287"/>
+      <c r="C143" s="287"/>
+      <c r="D143" s="287"/>
+      <c r="E143" s="287"/>
+      <c r="F143" s="288"/>
       <c r="G143" s="111">
         <f>SUM(G139:G142)</f>
         <v>44560</v>
@@ -8635,41 +8729,41 @@
       <c r="A150" s="110">
         <v>2.34</v>
       </c>
-      <c r="B150" s="279" t="s">
+      <c r="B150" s="278" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="280"/>
+      <c r="C150" s="279"/>
       <c r="D150" s="112">
         <v>1</v>
       </c>
-      <c r="E150" s="281">
+      <c r="E150" s="280">
         <v>12000</v>
       </c>
-      <c r="F150" s="282"/>
+      <c r="F150" s="281"/>
       <c r="G150" s="94">
         <f>D150*E150</f>
         <v>12000</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="270" t="s">
+      <c r="A151" s="283" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="270"/>
-      <c r="C151" s="270"/>
-      <c r="D151" s="270"/>
-      <c r="E151" s="270"/>
-      <c r="F151" s="270"/>
+      <c r="B151" s="283"/>
+      <c r="C151" s="283"/>
+      <c r="D151" s="283"/>
+      <c r="E151" s="283"/>
+      <c r="F151" s="283"/>
       <c r="G151" s="91">
         <f>SUM(G147:G150)</f>
         <v>44560</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="283" t="s">
+      <c r="A154" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="B154" s="283"/>
+      <c r="B154" s="282"/>
     </row>
     <row r="156" spans="1:7" ht="27" customHeight="1">
       <c r="A156" s="51" t="s">
@@ -8788,12 +8882,12 @@
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="270" t="s">
+      <c r="A163" s="283" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="270"/>
-      <c r="C163" s="270"/>
-      <c r="D163" s="270"/>
+      <c r="B163" s="283"/>
+      <c r